--- a/dist/files/xls/shablon-kd.xlsx
+++ b/dist/files/xls/shablon-kd.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\localhost\www\dist\files\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8190" tabRatio="778"/>
   </bookViews>
   <sheets>
     <sheet name="лист титульный КД" sheetId="21" r:id="rId1"/>
@@ -26,7 +31,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'лист титульный КД'!$A$1:$V$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'спецификация конструкторская'!$A$1:$M$34</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -425,9 +430,6 @@
   </si>
   <si>
     <t>— ЗЕРКАЛО</t>
-  </si>
-  <si>
-    <t>— БЕЗ ЗАКАЗЛКИ</t>
   </si>
   <si>
     <t>— БЕЗ ОБРАБОТКИ</t>
@@ -812,11 +814,14 @@
   <si>
     <t>Начальник ОТК (Золоедов С.)</t>
   </si>
+  <si>
+    <t>— БЕЗ ЗАКАЛКИ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2101,6 +2106,114 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2108,15 +2221,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2125,105 +2229,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2251,31 +2256,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2637,7 +2642,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2648,7 +2653,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="Z33" sqref="Z33"/>
+      <selection activeCell="L18" sqref="L18:S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2686,21 +2691,21 @@
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
-      <c r="I1" s="197" t="s">
-        <v>172</v>
-      </c>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="198"/>
-      <c r="S1" s="198"/>
-      <c r="T1" s="198"/>
-      <c r="U1" s="199"/>
+      <c r="I1" s="166" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="168"/>
       <c r="V1" s="17"/>
     </row>
     <row r="2" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2712,23 +2717,23 @@
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
-      <c r="I2" s="200" t="s">
+      <c r="I2" s="169" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="202"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="171"/>
       <c r="O2" s="139"/>
-      <c r="P2" s="203" t="s">
+      <c r="P2" s="172" t="s">
         <v>83</v>
       </c>
-      <c r="Q2" s="183"/>
-      <c r="R2" s="183"/>
-      <c r="S2" s="183"/>
-      <c r="T2" s="183"/>
-      <c r="U2" s="204"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="174"/>
       <c r="V2" s="45"/>
       <c r="W2" s="20"/>
     </row>
@@ -2748,10 +2753,10 @@
         <v>76</v>
       </c>
       <c r="K3" s="142"/>
-      <c r="L3" s="183" t="s">
-        <v>173</v>
-      </c>
-      <c r="M3" s="183"/>
+      <c r="L3" s="173" t="s">
+        <v>172</v>
+      </c>
+      <c r="M3" s="173"/>
       <c r="N3" s="143" t="s">
         <v>77</v>
       </c>
@@ -2763,10 +2768,10 @@
         <v>86</v>
       </c>
       <c r="R3" s="142"/>
-      <c r="S3" s="183" t="s">
+      <c r="S3" s="173" t="s">
         <v>88</v>
       </c>
-      <c r="T3" s="183"/>
+      <c r="T3" s="173"/>
       <c r="U3" s="143" t="s">
         <v>82</v>
       </c>
@@ -2789,10 +2794,10 @@
         <v>78</v>
       </c>
       <c r="K4" s="139"/>
-      <c r="L4" s="184" t="s">
-        <v>173</v>
-      </c>
-      <c r="M4" s="184"/>
+      <c r="L4" s="177" t="s">
+        <v>172</v>
+      </c>
+      <c r="M4" s="177"/>
       <c r="N4" s="143" t="s">
         <v>79</v>
       </c>
@@ -2804,10 +2809,10 @@
         <v>78</v>
       </c>
       <c r="R4" s="139"/>
-      <c r="S4" s="184" t="s">
+      <c r="S4" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="T4" s="184"/>
+      <c r="T4" s="177"/>
       <c r="U4" s="143" t="s">
         <v>79</v>
       </c>
@@ -2830,10 +2835,10 @@
         <v>80</v>
       </c>
       <c r="K5" s="139"/>
-      <c r="L5" s="184" t="s">
-        <v>173</v>
-      </c>
-      <c r="M5" s="184"/>
+      <c r="L5" s="177" t="s">
+        <v>172</v>
+      </c>
+      <c r="M5" s="177"/>
       <c r="N5" s="143" t="s">
         <v>81</v>
       </c>
@@ -2845,10 +2850,10 @@
         <v>80</v>
       </c>
       <c r="R5" s="139"/>
-      <c r="S5" s="184" t="s">
+      <c r="S5" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="T5" s="184"/>
+      <c r="T5" s="177"/>
       <c r="U5" s="143" t="s">
         <v>81</v>
       </c>
@@ -2868,27 +2873,27 @@
         <v>84</v>
       </c>
       <c r="J6" s="144" t="s">
+        <v>173</v>
+      </c>
+      <c r="K6" s="139"/>
+      <c r="L6" s="190" t="s">
         <v>174</v>
       </c>
-      <c r="K6" s="139"/>
-      <c r="L6" s="181" t="s">
-        <v>175</v>
-      </c>
-      <c r="M6" s="181"/>
-      <c r="N6" s="182"/>
+      <c r="M6" s="190"/>
+      <c r="N6" s="191"/>
       <c r="O6" s="139"/>
       <c r="P6" s="140" t="s">
         <v>84</v>
       </c>
       <c r="Q6" s="144" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R6" s="139"/>
-      <c r="S6" s="184" t="s">
+      <c r="S6" s="177" t="s">
         <v>89</v>
       </c>
-      <c r="T6" s="184"/>
-      <c r="U6" s="206"/>
+      <c r="T6" s="177"/>
+      <c r="U6" s="179"/>
       <c r="V6" s="47"/>
       <c r="W6" s="20"/>
     </row>
@@ -2904,10 +2909,10 @@
       <c r="I7" s="145"/>
       <c r="J7" s="146"/>
       <c r="K7" s="146"/>
-      <c r="L7" s="180" t="s">
+      <c r="L7" s="178" t="s">
         <v>87</v>
       </c>
-      <c r="M7" s="180"/>
+      <c r="M7" s="178"/>
       <c r="N7" s="147" t="s">
         <v>85</v>
       </c>
@@ -2915,10 +2920,10 @@
       <c r="P7" s="145"/>
       <c r="Q7" s="146"/>
       <c r="R7" s="146"/>
-      <c r="S7" s="180" t="s">
+      <c r="S7" s="178" t="s">
         <v>87</v>
       </c>
-      <c r="T7" s="180"/>
+      <c r="T7" s="178"/>
       <c r="U7" s="147" t="s">
         <v>85</v>
       </c>
@@ -2926,22 +2931,22 @@
       <c r="W7" s="20"/>
     </row>
     <row r="8" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="177" t="s">
+      <c r="A8" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="199" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="171" t="s">
+      <c r="C8" s="195" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="170" t="s">
+      <c r="D8" s="194" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="174" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" s="174"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="194"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
@@ -2959,23 +2964,23 @@
       <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="177"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="178" t="s">
+      <c r="A9" s="198"/>
+      <c r="B9" s="199"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="201" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="168" t="s">
+      <c r="F9" s="201" t="s">
         <v>181</v>
       </c>
-      <c r="F9" s="168" t="s">
+      <c r="G9" s="199" t="s">
         <v>182</v>
       </c>
-      <c r="G9" s="171" t="s">
+      <c r="H9" s="195" t="s">
         <v>183</v>
-      </c>
-      <c r="H9" s="170" t="s">
-        <v>184</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -2994,14 +2999,14 @@
       <c r="W9" s="20"/>
     </row>
     <row r="10" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="177"/>
-      <c r="B10" s="171"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="178"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="170"/>
+      <c r="A10" s="198"/>
+      <c r="B10" s="199"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="204"/>
+      <c r="G10" s="199"/>
+      <c r="H10" s="195"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -3019,29 +3024,29 @@
       <c r="W10" s="20"/>
     </row>
     <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="176" t="s">
+      <c r="A11" s="197" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="196" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="175" t="s">
+      <c r="C11" s="196" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="175" t="s">
+      <c r="D11" s="196" t="s">
         <v>187</v>
       </c>
-      <c r="D11" s="175" t="s">
+      <c r="E11" s="202" t="s">
         <v>188</v>
       </c>
-      <c r="E11" s="166" t="s">
+      <c r="F11" s="202" t="s">
         <v>189</v>
       </c>
-      <c r="F11" s="166" t="s">
+      <c r="G11" s="206" t="s">
         <v>190</v>
       </c>
-      <c r="G11" s="173" t="s">
+      <c r="H11" s="205" t="s">
         <v>191</v>
-      </c>
-      <c r="H11" s="172" t="s">
-        <v>192</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -3060,14 +3065,14 @@
       <c r="W11" s="20"/>
     </row>
     <row r="12" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="176"/>
-      <c r="B12" s="175"/>
-      <c r="C12" s="175"/>
-      <c r="D12" s="175"/>
-      <c r="E12" s="166"/>
-      <c r="F12" s="166"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="172"/>
+      <c r="A12" s="197"/>
+      <c r="B12" s="196"/>
+      <c r="C12" s="196"/>
+      <c r="D12" s="196"/>
+      <c r="E12" s="202"/>
+      <c r="F12" s="202"/>
+      <c r="G12" s="206"/>
+      <c r="H12" s="205"/>
       <c r="I12" s="20"/>
       <c r="J12" s="148"/>
       <c r="K12" s="148"/>
@@ -3085,25 +3090,25 @@
       <c r="W12" s="20"/>
     </row>
     <row r="13" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="176"/>
-      <c r="B13" s="175"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="166"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="205" t="s">
+      <c r="A13" s="197"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="202"/>
+      <c r="F13" s="202"/>
+      <c r="G13" s="206"/>
+      <c r="H13" s="205"/>
+      <c r="I13" s="175" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="205"/>
-      <c r="K13" s="205"/>
-      <c r="L13" s="205"/>
-      <c r="M13" s="205"/>
-      <c r="N13" s="205"/>
-      <c r="O13" s="205"/>
-      <c r="P13" s="205"/>
-      <c r="Q13" s="205"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="175"/>
+      <c r="L13" s="175"/>
+      <c r="M13" s="175"/>
+      <c r="N13" s="175"/>
+      <c r="O13" s="175"/>
+      <c r="P13" s="175"/>
+      <c r="Q13" s="175"/>
       <c r="R13" s="136"/>
       <c r="S13" s="11"/>
       <c r="T13" s="9"/>
@@ -3112,23 +3117,23 @@
       <c r="W13" s="20"/>
     </row>
     <row r="14" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="176"/>
-      <c r="B14" s="175"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="175"/>
-      <c r="E14" s="166"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="205"/>
-      <c r="J14" s="205"/>
-      <c r="K14" s="205"/>
-      <c r="L14" s="205"/>
-      <c r="M14" s="205"/>
-      <c r="N14" s="205"/>
-      <c r="O14" s="205"/>
-      <c r="P14" s="205"/>
-      <c r="Q14" s="205"/>
+      <c r="A14" s="197"/>
+      <c r="B14" s="196"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="196"/>
+      <c r="E14" s="202"/>
+      <c r="F14" s="202"/>
+      <c r="G14" s="206"/>
+      <c r="H14" s="205"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="175"/>
+      <c r="L14" s="175"/>
+      <c r="M14" s="175"/>
+      <c r="N14" s="175"/>
+      <c r="O14" s="175"/>
+      <c r="P14" s="175"/>
+      <c r="Q14" s="175"/>
       <c r="R14" s="136"/>
       <c r="S14" s="11"/>
       <c r="T14" s="9"/>
@@ -3137,89 +3142,89 @@
       <c r="W14" s="20"/>
     </row>
     <row r="15" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="176"/>
-      <c r="B15" s="175"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="173" t="s">
-        <v>193</v>
-      </c>
-      <c r="H15" s="172"/>
+      <c r="A15" s="197"/>
+      <c r="B15" s="196"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="196"/>
+      <c r="E15" s="202"/>
+      <c r="F15" s="202"/>
+      <c r="G15" s="206" t="s">
+        <v>192</v>
+      </c>
+      <c r="H15" s="205"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="195" t="s">
+      <c r="J15" s="192" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="195"/>
-      <c r="L15" s="196" t="s">
+      <c r="K15" s="192"/>
+      <c r="L15" s="193" t="s">
         <v>62</v>
       </c>
-      <c r="M15" s="196"/>
-      <c r="N15" s="196"/>
-      <c r="O15" s="196"/>
-      <c r="P15" s="196"/>
-      <c r="Q15" s="196"/>
-      <c r="R15" s="196"/>
-      <c r="S15" s="196"/>
+      <c r="M15" s="193"/>
+      <c r="N15" s="193"/>
+      <c r="O15" s="193"/>
+      <c r="P15" s="193"/>
+      <c r="Q15" s="193"/>
+      <c r="R15" s="193"/>
+      <c r="S15" s="193"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
       <c r="V15" s="10"/>
       <c r="W15" s="20"/>
     </row>
     <row r="16" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="176"/>
-      <c r="B16" s="175"/>
-      <c r="C16" s="175"/>
-      <c r="D16" s="175"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="172"/>
+      <c r="A16" s="197"/>
+      <c r="B16" s="196"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="202"/>
+      <c r="F16" s="202"/>
+      <c r="G16" s="206"/>
+      <c r="H16" s="205"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="195" t="s">
-        <v>168</v>
-      </c>
-      <c r="K16" s="195"/>
-      <c r="L16" s="196" t="s">
+      <c r="J16" s="192" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" s="192"/>
+      <c r="L16" s="193" t="s">
         <v>63</v>
       </c>
-      <c r="M16" s="196"/>
-      <c r="N16" s="196"/>
-      <c r="O16" s="196"/>
-      <c r="P16" s="196"/>
-      <c r="Q16" s="196"/>
-      <c r="R16" s="196"/>
-      <c r="S16" s="196"/>
+      <c r="M16" s="193"/>
+      <c r="N16" s="193"/>
+      <c r="O16" s="193"/>
+      <c r="P16" s="193"/>
+      <c r="Q16" s="193"/>
+      <c r="R16" s="193"/>
+      <c r="S16" s="193"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
       <c r="V16" s="10"/>
       <c r="W16" s="20"/>
     </row>
     <row r="17" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="176"/>
-      <c r="B17" s="175"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="175"/>
-      <c r="E17" s="166"/>
-      <c r="F17" s="166"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="172"/>
+      <c r="A17" s="197"/>
+      <c r="B17" s="196"/>
+      <c r="C17" s="196"/>
+      <c r="D17" s="196"/>
+      <c r="E17" s="202"/>
+      <c r="F17" s="202"/>
+      <c r="G17" s="206"/>
+      <c r="H17" s="205"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="195" t="s">
-        <v>167</v>
-      </c>
-      <c r="K17" s="195"/>
-      <c r="L17" s="196" t="s">
+      <c r="J17" s="192" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" s="192"/>
+      <c r="L17" s="193" t="s">
         <v>72</v>
       </c>
-      <c r="M17" s="196"/>
-      <c r="N17" s="196"/>
-      <c r="O17" s="196"/>
-      <c r="P17" s="196"/>
-      <c r="Q17" s="196"/>
-      <c r="R17" s="196"/>
-      <c r="S17" s="196"/>
+      <c r="M17" s="193"/>
+      <c r="N17" s="193"/>
+      <c r="O17" s="193"/>
+      <c r="P17" s="193"/>
+      <c r="Q17" s="193"/>
+      <c r="R17" s="193"/>
+      <c r="S17" s="193"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
       <c r="V17" s="10"/>
@@ -3235,20 +3240,20 @@
       <c r="G18" s="153"/>
       <c r="H18" s="154"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="195" t="s">
-        <v>166</v>
-      </c>
-      <c r="K18" s="195"/>
-      <c r="L18" s="196" t="s">
-        <v>194</v>
-      </c>
-      <c r="M18" s="196"/>
-      <c r="N18" s="196"/>
-      <c r="O18" s="196"/>
-      <c r="P18" s="196"/>
-      <c r="Q18" s="196"/>
-      <c r="R18" s="196"/>
-      <c r="S18" s="196"/>
+      <c r="J18" s="192" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" s="192"/>
+      <c r="L18" s="193" t="s">
+        <v>193</v>
+      </c>
+      <c r="M18" s="193"/>
+      <c r="N18" s="193"/>
+      <c r="O18" s="193"/>
+      <c r="P18" s="193"/>
+      <c r="Q18" s="193"/>
+      <c r="R18" s="193"/>
+      <c r="S18" s="193"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
       <c r="V18" s="10"/>
@@ -3288,12 +3293,12 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="191" t="s">
+      <c r="I20" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="192"/>
-      <c r="K20" s="192"/>
-      <c r="L20" s="192"/>
+      <c r="J20" s="184"/>
+      <c r="K20" s="184"/>
+      <c r="L20" s="184"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
@@ -3316,21 +3321,21 @@
       <c r="G21" s="20"/>
       <c r="H21" s="43"/>
       <c r="I21" s="43"/>
-      <c r="J21" s="193" t="s">
-        <v>195</v>
-      </c>
-      <c r="K21" s="193"/>
-      <c r="L21" s="193"/>
-      <c r="M21" s="194" t="s">
+      <c r="J21" s="185" t="s">
+        <v>194</v>
+      </c>
+      <c r="K21" s="185"/>
+      <c r="L21" s="185"/>
+      <c r="M21" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="N21" s="194"/>
-      <c r="O21" s="194"/>
-      <c r="P21" s="194"/>
-      <c r="Q21" s="185" t="s">
+      <c r="N21" s="181"/>
+      <c r="O21" s="181"/>
+      <c r="P21" s="181"/>
+      <c r="Q21" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="R21" s="185"/>
+      <c r="R21" s="180"/>
       <c r="S21" s="138" t="s">
         <v>25</v>
       </c>
@@ -3353,21 +3358,21 @@
       <c r="G22" s="20"/>
       <c r="H22" s="43"/>
       <c r="I22" s="43"/>
-      <c r="J22" s="193" t="s">
-        <v>196</v>
-      </c>
-      <c r="K22" s="193"/>
-      <c r="L22" s="193"/>
-      <c r="M22" s="194" t="s">
+      <c r="J22" s="185" t="s">
+        <v>195</v>
+      </c>
+      <c r="K22" s="185"/>
+      <c r="L22" s="185"/>
+      <c r="M22" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="194"/>
-      <c r="O22" s="194"/>
-      <c r="P22" s="194"/>
-      <c r="Q22" s="185" t="s">
+      <c r="N22" s="181"/>
+      <c r="O22" s="181"/>
+      <c r="P22" s="181"/>
+      <c r="Q22" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="R22" s="185"/>
+      <c r="R22" s="180"/>
       <c r="S22" s="138" t="s">
         <v>25</v>
       </c>
@@ -3414,12 +3419,12 @@
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="191" t="s">
+      <c r="I24" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="192"/>
-      <c r="K24" s="192"/>
-      <c r="L24" s="192"/>
+      <c r="J24" s="184"/>
+      <c r="K24" s="184"/>
+      <c r="L24" s="184"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
@@ -3434,7 +3439,7 @@
     </row>
     <row r="25" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="155" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
@@ -3443,22 +3448,22 @@
       <c r="F25" s="157"/>
       <c r="G25" s="43"/>
       <c r="H25" s="43"/>
-      <c r="I25" s="179" t="s">
-        <v>198</v>
-      </c>
-      <c r="J25" s="179"/>
-      <c r="K25" s="179"/>
-      <c r="L25" s="179"/>
-      <c r="M25" s="194" t="s">
+      <c r="I25" s="182" t="s">
+        <v>197</v>
+      </c>
+      <c r="J25" s="182"/>
+      <c r="K25" s="182"/>
+      <c r="L25" s="182"/>
+      <c r="M25" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="N25" s="194"/>
-      <c r="O25" s="194"/>
-      <c r="P25" s="194"/>
-      <c r="Q25" s="185" t="s">
+      <c r="N25" s="181"/>
+      <c r="O25" s="181"/>
+      <c r="P25" s="181"/>
+      <c r="Q25" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="R25" s="185"/>
+      <c r="R25" s="180"/>
       <c r="S25" s="138" t="s">
         <v>25</v>
       </c>
@@ -3473,7 +3478,7 @@
     </row>
     <row r="26" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="158" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B26" s="159"/>
       <c r="C26" s="159"/>
@@ -3482,22 +3487,22 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="43"/>
-      <c r="I26" s="179" t="s">
-        <v>200</v>
-      </c>
-      <c r="J26" s="179"/>
-      <c r="K26" s="179"/>
-      <c r="L26" s="179"/>
-      <c r="M26" s="194" t="s">
+      <c r="I26" s="182" t="s">
+        <v>199</v>
+      </c>
+      <c r="J26" s="182"/>
+      <c r="K26" s="182"/>
+      <c r="L26" s="182"/>
+      <c r="M26" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="N26" s="194"/>
-      <c r="O26" s="194"/>
-      <c r="P26" s="194"/>
-      <c r="Q26" s="185" t="s">
+      <c r="N26" s="181"/>
+      <c r="O26" s="181"/>
+      <c r="P26" s="181"/>
+      <c r="Q26" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="R26" s="185"/>
+      <c r="R26" s="180"/>
       <c r="S26" s="138" t="s">
         <v>25</v>
       </c>
@@ -3512,7 +3517,7 @@
     </row>
     <row r="27" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="160" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B27" s="161"/>
       <c r="C27" s="161"/>
@@ -3521,22 +3526,22 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="43"/>
-      <c r="I27" s="179" t="s">
-        <v>202</v>
-      </c>
-      <c r="J27" s="179"/>
-      <c r="K27" s="179"/>
-      <c r="L27" s="179"/>
-      <c r="M27" s="194" t="s">
+      <c r="I27" s="182" t="s">
+        <v>201</v>
+      </c>
+      <c r="J27" s="182"/>
+      <c r="K27" s="182"/>
+      <c r="L27" s="182"/>
+      <c r="M27" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="N27" s="194"/>
-      <c r="O27" s="194"/>
-      <c r="P27" s="194"/>
-      <c r="Q27" s="185" t="s">
+      <c r="N27" s="181"/>
+      <c r="O27" s="181"/>
+      <c r="P27" s="181"/>
+      <c r="Q27" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="R27" s="185"/>
+      <c r="R27" s="180"/>
       <c r="S27" s="138" t="s">
         <v>25</v>
       </c>
@@ -3552,30 +3557,30 @@
     <row r="28" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="167" t="s">
-        <v>203</v>
-      </c>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
+      <c r="C28" s="203" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" s="203"/>
+      <c r="E28" s="203"/>
+      <c r="F28" s="203"/>
       <c r="G28" s="162"/>
       <c r="H28" s="43"/>
-      <c r="I28" s="179" t="s">
-        <v>204</v>
-      </c>
-      <c r="J28" s="179"/>
-      <c r="K28" s="179"/>
-      <c r="L28" s="179"/>
-      <c r="M28" s="194" t="s">
+      <c r="I28" s="182" t="s">
+        <v>203</v>
+      </c>
+      <c r="J28" s="182"/>
+      <c r="K28" s="182"/>
+      <c r="L28" s="182"/>
+      <c r="M28" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="N28" s="194"/>
-      <c r="O28" s="194"/>
-      <c r="P28" s="194"/>
-      <c r="Q28" s="185" t="s">
+      <c r="N28" s="181"/>
+      <c r="O28" s="181"/>
+      <c r="P28" s="181"/>
+      <c r="Q28" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="R28" s="185"/>
+      <c r="R28" s="180"/>
       <c r="S28" s="138" t="s">
         <v>25</v>
       </c>
@@ -3644,25 +3649,25 @@
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
-      <c r="F31" s="186" t="s">
+      <c r="F31" s="176" t="s">
+        <v>204</v>
+      </c>
+      <c r="G31" s="176"/>
+      <c r="H31" s="176"/>
+      <c r="I31" s="176"/>
+      <c r="J31" s="176"/>
+      <c r="K31" s="176"/>
+      <c r="L31" s="176"/>
+      <c r="M31" s="163" t="s">
         <v>205</v>
-      </c>
-      <c r="G31" s="186"/>
-      <c r="H31" s="186"/>
-      <c r="I31" s="186"/>
-      <c r="J31" s="186"/>
-      <c r="K31" s="186"/>
-      <c r="L31" s="186"/>
-      <c r="M31" s="163" t="s">
-        <v>206</v>
       </c>
       <c r="N31" s="157"/>
       <c r="O31" s="157"/>
       <c r="P31" s="157"/>
-      <c r="Q31" s="185" t="s">
+      <c r="Q31" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="R31" s="185"/>
+      <c r="R31" s="180"/>
       <c r="S31" s="138" t="s">
         <v>25</v>
       </c>
@@ -3681,27 +3686,27 @@
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="186" t="s">
-        <v>205</v>
-      </c>
-      <c r="G32" s="186"/>
-      <c r="H32" s="186"/>
-      <c r="I32" s="186"/>
-      <c r="J32" s="186"/>
-      <c r="K32" s="186"/>
-      <c r="L32" s="186"/>
+      <c r="F32" s="176" t="s">
+        <v>204</v>
+      </c>
+      <c r="G32" s="176"/>
+      <c r="H32" s="176"/>
+      <c r="I32" s="176"/>
+      <c r="J32" s="176"/>
+      <c r="K32" s="176"/>
+      <c r="L32" s="176"/>
       <c r="M32" s="163" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N32" s="157" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O32" s="157"/>
       <c r="P32" s="157"/>
-      <c r="Q32" s="185" t="s">
+      <c r="Q32" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="R32" s="185"/>
+      <c r="R32" s="180"/>
       <c r="S32" s="138" t="s">
         <v>25</v>
       </c>
@@ -3720,27 +3725,27 @@
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="186" t="s">
+      <c r="F33" s="176" t="s">
+        <v>207</v>
+      </c>
+      <c r="G33" s="176"/>
+      <c r="H33" s="176"/>
+      <c r="I33" s="176"/>
+      <c r="J33" s="176"/>
+      <c r="K33" s="176"/>
+      <c r="L33" s="176"/>
+      <c r="M33" s="163" t="s">
         <v>208</v>
-      </c>
-      <c r="G33" s="186"/>
-      <c r="H33" s="186"/>
-      <c r="I33" s="186"/>
-      <c r="J33" s="186"/>
-      <c r="K33" s="186"/>
-      <c r="L33" s="186"/>
-      <c r="M33" s="163" t="s">
-        <v>209</v>
       </c>
       <c r="N33" s="157"/>
       <c r="O33" s="157" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P33" s="157"/>
-      <c r="Q33" s="185" t="s">
+      <c r="Q33" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="R33" s="185"/>
+      <c r="R33" s="180"/>
       <c r="S33" s="138" t="s">
         <v>25</v>
       </c>
@@ -3766,16 +3771,16 @@
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>
-      <c r="M34" s="190" t="s">
-        <v>211</v>
-      </c>
-      <c r="N34" s="190"/>
-      <c r="O34" s="190"/>
-      <c r="P34" s="190"/>
-      <c r="Q34" s="185" t="s">
+      <c r="M34" s="189" t="s">
+        <v>210</v>
+      </c>
+      <c r="N34" s="189"/>
+      <c r="O34" s="189"/>
+      <c r="P34" s="189"/>
+      <c r="Q34" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="R34" s="185"/>
+      <c r="R34" s="180"/>
       <c r="S34" s="138" t="s">
         <v>25</v>
       </c>
@@ -3801,12 +3806,12 @@
       <c r="J35" s="165"/>
       <c r="K35" s="165"/>
       <c r="L35" s="165"/>
-      <c r="M35" s="187"/>
-      <c r="N35" s="187"/>
+      <c r="M35" s="186"/>
+      <c r="N35" s="186"/>
       <c r="O35" s="157"/>
       <c r="P35" s="157"/>
-      <c r="Q35" s="185"/>
-      <c r="R35" s="185"/>
+      <c r="Q35" s="180"/>
+      <c r="R35" s="180"/>
       <c r="S35" s="138"/>
       <c r="T35" s="138"/>
       <c r="U35" s="12"/>
@@ -3817,29 +3822,29 @@
       <c r="A36" s="18"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
-      <c r="D36" s="188" t="s">
+      <c r="D36" s="187" t="s">
+        <v>211</v>
+      </c>
+      <c r="E36" s="187"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="187"/>
+      <c r="H36" s="187"/>
+      <c r="I36" s="187"/>
+      <c r="J36" s="187"/>
+      <c r="K36" s="187"/>
+      <c r="L36" s="188" t="s">
         <v>212</v>
       </c>
-      <c r="E36" s="188"/>
-      <c r="F36" s="188"/>
-      <c r="G36" s="188"/>
-      <c r="H36" s="188"/>
-      <c r="I36" s="188"/>
-      <c r="J36" s="188"/>
-      <c r="K36" s="188"/>
-      <c r="L36" s="189" t="s">
-        <v>213</v>
-      </c>
-      <c r="M36" s="189"/>
-      <c r="N36" s="189"/>
+      <c r="M36" s="188"/>
+      <c r="N36" s="188"/>
       <c r="O36" s="157" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P36" s="157"/>
-      <c r="Q36" s="185" t="s">
+      <c r="Q36" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="R36" s="185"/>
+      <c r="R36" s="180"/>
       <c r="S36" s="138" t="s">
         <v>25</v>
       </c>
@@ -3904,6 +3909,64 @@
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="F11:F17"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="L18:S18"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:S17"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:S15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:S16"/>
+    <mergeCell ref="F31:L31"/>
+    <mergeCell ref="F33:L33"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D11:D17"/>
+    <mergeCell ref="E11:E17"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H11:H17"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="D36:K36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M25:P25"/>
     <mergeCell ref="I1:U1"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="P2:U2"/>
@@ -3920,64 +3983,6 @@
     <mergeCell ref="I27:L27"/>
     <mergeCell ref="I28:L28"/>
     <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="D36:K36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="F31:L31"/>
-    <mergeCell ref="F33:L33"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:S18"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:S17"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:S15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:S16"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C17"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="D11:D17"/>
-    <mergeCell ref="E11:E17"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H11:H17"/>
-    <mergeCell ref="F11:F17"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="G15:G17"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0"/>
@@ -5242,12 +5247,14 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="11.125" style="107" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="107" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="107" customWidth="1"/>
+    <col min="3" max="4" width="11.125" style="107" customWidth="1"/>
     <col min="5" max="5" width="44.375" style="107" customWidth="1"/>
     <col min="6" max="12" width="13.75" style="107" customWidth="1"/>
     <col min="13" max="16384" width="9" style="107"/>
@@ -5255,91 +5262,91 @@
   <sheetData>
     <row r="1" spans="1:13" ht="25.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B1" s="117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C1" s="117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D1" s="117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E1" s="117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F1" s="117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G1" s="211" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H1" s="212"/>
       <c r="I1" s="213"/>
       <c r="J1" s="117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K1" s="117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L1" s="117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M1" s="117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="111" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" s="111" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="111" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D2" s="111" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E2" s="111" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F2" s="116" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G2" s="115" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H2" s="114" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I2" s="113" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J2" s="112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K2" s="111" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L2" s="111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M2" s="110" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D3" s="109"/>
       <c r="E3" s="109"/>
@@ -5349,13 +5356,13 @@
       <c r="I3" s="109"/>
       <c r="J3" s="109"/>
       <c r="K3" s="109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L3" s="109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M3" s="109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5895,12 +5902,12 @@
       <c r="D2" s="127"/>
       <c r="E2" s="127"/>
       <c r="F2" s="127"/>
-      <c r="G2" s="220" t="s">
-        <v>171</v>
-      </c>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
+      <c r="G2" s="216" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+      <c r="J2" s="217"/>
       <c r="K2" s="127"/>
       <c r="L2" s="127"/>
       <c r="M2" s="127"/>
@@ -5913,28 +5920,28 @@
       <c r="T2" s="122"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="222" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" s="217"/>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="218" t="s">
+      <c r="A3" s="218" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="219"/>
+      <c r="C3" s="219"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219"/>
+      <c r="J3" s="219"/>
+      <c r="K3" s="220" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="218"/>
-      <c r="O3" s="219" t="s">
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="220"/>
+      <c r="O3" s="221" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="219"/>
+      <c r="P3" s="221"/>
       <c r="Q3" s="124" t="s">
         <v>25</v>
       </c>
@@ -6215,20 +6222,20 @@
       <c r="B16" s="127"/>
       <c r="C16" s="127"/>
       <c r="D16" s="127"/>
-      <c r="E16" s="223" t="s">
-        <v>169</v>
-      </c>
-      <c r="F16" s="224"/>
-      <c r="G16" s="224"/>
-      <c r="H16" s="224"/>
-      <c r="I16" s="224"/>
-      <c r="J16" s="224"/>
-      <c r="K16" s="224"/>
-      <c r="L16" s="224"/>
-      <c r="M16" s="224"/>
-      <c r="N16" s="224"/>
-      <c r="O16" s="224"/>
-      <c r="P16" s="224"/>
+      <c r="E16" s="222" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="223"/>
+      <c r="G16" s="223"/>
+      <c r="H16" s="223"/>
+      <c r="I16" s="223"/>
+      <c r="J16" s="223"/>
+      <c r="K16" s="223"/>
+      <c r="L16" s="223"/>
+      <c r="M16" s="223"/>
+      <c r="N16" s="223"/>
+      <c r="O16" s="223"/>
+      <c r="P16" s="223"/>
       <c r="Q16" s="130"/>
       <c r="R16" s="127"/>
       <c r="S16" s="127"/>
@@ -6239,18 +6246,18 @@
       <c r="B17" s="127"/>
       <c r="C17" s="127"/>
       <c r="D17" s="127"/>
-      <c r="E17" s="224"/>
-      <c r="F17" s="224"/>
-      <c r="G17" s="224"/>
-      <c r="H17" s="224"/>
-      <c r="I17" s="224"/>
-      <c r="J17" s="224"/>
-      <c r="K17" s="224"/>
-      <c r="L17" s="224"/>
-      <c r="M17" s="224"/>
-      <c r="N17" s="224"/>
-      <c r="O17" s="224"/>
-      <c r="P17" s="224"/>
+      <c r="E17" s="223"/>
+      <c r="F17" s="223"/>
+      <c r="G17" s="223"/>
+      <c r="H17" s="223"/>
+      <c r="I17" s="223"/>
+      <c r="J17" s="223"/>
+      <c r="K17" s="223"/>
+      <c r="L17" s="223"/>
+      <c r="M17" s="223"/>
+      <c r="N17" s="223"/>
+      <c r="O17" s="223"/>
+      <c r="P17" s="223"/>
       <c r="Q17" s="130"/>
       <c r="R17" s="127"/>
       <c r="S17" s="127"/>
@@ -6261,18 +6268,18 @@
       <c r="B18" s="127"/>
       <c r="C18" s="127"/>
       <c r="D18" s="127"/>
-      <c r="E18" s="224"/>
-      <c r="F18" s="224"/>
-      <c r="G18" s="224"/>
-      <c r="H18" s="224"/>
-      <c r="I18" s="224"/>
-      <c r="J18" s="224"/>
-      <c r="K18" s="224"/>
-      <c r="L18" s="224"/>
-      <c r="M18" s="224"/>
-      <c r="N18" s="224"/>
-      <c r="O18" s="224"/>
-      <c r="P18" s="224"/>
+      <c r="E18" s="223"/>
+      <c r="F18" s="223"/>
+      <c r="G18" s="223"/>
+      <c r="H18" s="223"/>
+      <c r="I18" s="223"/>
+      <c r="J18" s="223"/>
+      <c r="K18" s="223"/>
+      <c r="L18" s="223"/>
+      <c r="M18" s="223"/>
+      <c r="N18" s="223"/>
+      <c r="O18" s="223"/>
+      <c r="P18" s="223"/>
       <c r="Q18" s="130"/>
       <c r="R18" s="127"/>
       <c r="S18" s="127"/>
@@ -6314,7 +6321,7 @@
       <c r="F20" s="130"/>
       <c r="G20" s="130"/>
       <c r="H20" s="214" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I20" s="214"/>
       <c r="J20" s="215" t="str">
@@ -6341,7 +6348,7 @@
       <c r="F21" s="130"/>
       <c r="G21" s="130"/>
       <c r="H21" s="214" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I21" s="214"/>
       <c r="J21" s="215" t="str">
@@ -6368,7 +6375,7 @@
       <c r="F22" s="130"/>
       <c r="G22" s="130"/>
       <c r="H22" s="214" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I22" s="214"/>
       <c r="J22" s="215" t="str">
@@ -6613,12 +6620,12 @@
       <c r="D33" s="127"/>
       <c r="E33" s="127"/>
       <c r="F33" s="127"/>
-      <c r="G33" s="220" t="s">
+      <c r="G33" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="221"/>
-      <c r="I33" s="221"/>
-      <c r="J33" s="221"/>
+      <c r="H33" s="217"/>
+      <c r="I33" s="217"/>
+      <c r="J33" s="217"/>
       <c r="K33" s="127"/>
       <c r="L33" s="127"/>
       <c r="M33" s="127"/>
@@ -6631,28 +6638,28 @@
       <c r="T33" s="122"/>
     </row>
     <row r="34" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="222" t="s">
-        <v>165</v>
-      </c>
-      <c r="B34" s="217"/>
-      <c r="C34" s="217"/>
-      <c r="D34" s="217"/>
-      <c r="E34" s="217"/>
-      <c r="F34" s="217"/>
-      <c r="G34" s="217"/>
-      <c r="H34" s="217"/>
-      <c r="I34" s="217"/>
-      <c r="J34" s="217"/>
-      <c r="K34" s="218" t="s">
+      <c r="A34" s="218" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="219"/>
+      <c r="C34" s="219"/>
+      <c r="D34" s="219"/>
+      <c r="E34" s="219"/>
+      <c r="F34" s="219"/>
+      <c r="G34" s="219"/>
+      <c r="H34" s="219"/>
+      <c r="I34" s="219"/>
+      <c r="J34" s="219"/>
+      <c r="K34" s="220" t="s">
         <v>26</v>
       </c>
-      <c r="L34" s="218"/>
-      <c r="M34" s="218"/>
-      <c r="N34" s="218"/>
-      <c r="O34" s="219" t="s">
+      <c r="L34" s="220"/>
+      <c r="M34" s="220"/>
+      <c r="N34" s="220"/>
+      <c r="O34" s="221" t="s">
         <v>27</v>
       </c>
-      <c r="P34" s="219"/>
+      <c r="P34" s="221"/>
       <c r="Q34" s="124" t="s">
         <v>25</v>
       </c>
@@ -6693,12 +6700,12 @@
       <c r="D36" s="127"/>
       <c r="E36" s="127"/>
       <c r="F36" s="127"/>
-      <c r="G36" s="220" t="s">
-        <v>164</v>
-      </c>
-      <c r="H36" s="221"/>
-      <c r="I36" s="221"/>
-      <c r="J36" s="221"/>
+      <c r="G36" s="216" t="s">
+        <v>163</v>
+      </c>
+      <c r="H36" s="217"/>
+      <c r="I36" s="217"/>
+      <c r="J36" s="217"/>
       <c r="K36" s="127"/>
       <c r="L36" s="127"/>
       <c r="M36" s="127"/>
@@ -6711,28 +6718,28 @@
       <c r="T36" s="122"/>
     </row>
     <row r="37" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="216" t="s">
-        <v>163</v>
-      </c>
-      <c r="B37" s="217"/>
-      <c r="C37" s="217"/>
-      <c r="D37" s="217"/>
-      <c r="E37" s="217"/>
-      <c r="F37" s="217"/>
-      <c r="G37" s="217"/>
-      <c r="H37" s="217"/>
-      <c r="I37" s="217"/>
-      <c r="J37" s="217"/>
-      <c r="K37" s="218" t="s">
+      <c r="A37" s="224" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" s="219"/>
+      <c r="C37" s="219"/>
+      <c r="D37" s="219"/>
+      <c r="E37" s="219"/>
+      <c r="F37" s="219"/>
+      <c r="G37" s="219"/>
+      <c r="H37" s="219"/>
+      <c r="I37" s="219"/>
+      <c r="J37" s="219"/>
+      <c r="K37" s="220" t="s">
         <v>26</v>
       </c>
-      <c r="L37" s="218"/>
-      <c r="M37" s="218"/>
-      <c r="N37" s="218"/>
-      <c r="O37" s="219" t="s">
+      <c r="L37" s="220"/>
+      <c r="M37" s="220"/>
+      <c r="N37" s="220"/>
+      <c r="O37" s="221" t="s">
         <v>27</v>
       </c>
-      <c r="P37" s="219"/>
+      <c r="P37" s="221"/>
       <c r="Q37" s="124" t="s">
         <v>25</v>
       </c>
@@ -6767,28 +6774,28 @@
       <c r="T38" s="122"/>
     </row>
     <row r="39" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="216" t="s">
+      <c r="A39" s="224" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="217"/>
-      <c r="C39" s="217"/>
-      <c r="D39" s="217"/>
-      <c r="E39" s="217"/>
-      <c r="F39" s="217"/>
-      <c r="G39" s="217"/>
-      <c r="H39" s="217"/>
-      <c r="I39" s="217"/>
-      <c r="J39" s="217"/>
-      <c r="K39" s="218" t="s">
+      <c r="B39" s="219"/>
+      <c r="C39" s="219"/>
+      <c r="D39" s="219"/>
+      <c r="E39" s="219"/>
+      <c r="F39" s="219"/>
+      <c r="G39" s="219"/>
+      <c r="H39" s="219"/>
+      <c r="I39" s="219"/>
+      <c r="J39" s="219"/>
+      <c r="K39" s="220" t="s">
         <v>26</v>
       </c>
-      <c r="L39" s="218"/>
-      <c r="M39" s="218"/>
-      <c r="N39" s="218"/>
-      <c r="O39" s="219" t="s">
+      <c r="L39" s="220"/>
+      <c r="M39" s="220"/>
+      <c r="N39" s="220"/>
+      <c r="O39" s="221" t="s">
         <v>27</v>
       </c>
-      <c r="P39" s="219"/>
+      <c r="P39" s="221"/>
       <c r="Q39" s="124" t="s">
         <v>25</v>
       </c>
@@ -6824,15 +6831,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="E16:P18"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="J21:Q21"/>
     <mergeCell ref="A39:J39"/>
@@ -6848,6 +6846,15 @@
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="J22:Q22"/>
     <mergeCell ref="G33:J33"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="E16:P18"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -6903,7 +6910,7 @@
         <v>98</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E2" s="63" t="s">
         <v>97</v>
@@ -7271,7 +7278,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7286,7 +7293,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="230" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" s="231"/>
       <c r="C1" s="231"/>
@@ -7318,48 +7325,48 @@
         <v>98</v>
       </c>
       <c r="D2" s="233" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E2" s="233" t="s">
         <v>97</v>
       </c>
       <c r="F2" s="233" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G2" s="233" t="s">
         <v>94</v>
       </c>
       <c r="H2" s="97" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I2" s="100" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J2" s="236" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K2" s="237"/>
       <c r="L2" s="237"/>
       <c r="M2" s="97" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N2" s="100" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O2" s="99" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P2" s="97" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q2" s="98" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R2" s="98" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S2" s="97" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="86" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7371,40 +7378,40 @@
       <c r="F3" s="234"/>
       <c r="G3" s="234"/>
       <c r="H3" s="92" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I3" s="91" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J3" s="91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K3" s="91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L3" s="91" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M3" s="90" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N3" s="90" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O3" s="90" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P3" s="90" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q3" s="90" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R3" s="88" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S3" s="95" t="s">
-        <v>122</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="86" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8223,14 +8230,14 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11.125" style="49" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="49" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="49" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="49" customWidth="1"/>
     <col min="4" max="4" width="13" style="49" customWidth="1"/>
     <col min="5" max="5" width="26.875" style="49" customWidth="1"/>
     <col min="6" max="6" width="36.5" style="49" customWidth="1"/>
@@ -8244,7 +8251,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="225" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" s="226"/>
       <c r="C1" s="226"/>
@@ -8261,40 +8268,40 @@
     </row>
     <row r="2" spans="1:13" s="55" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="106" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" s="106" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="106" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D2" s="106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E2" s="106" t="s">
         <v>97</v>
       </c>
       <c r="F2" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H2" s="106" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I2" s="106" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J2" s="106" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K2" s="106" t="s">
         <v>5</v>
       </c>
       <c r="L2" s="106" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M2" s="106" t="s">
         <v>92</v>

--- a/dist/files/xls/shablon-kd.xlsx
+++ b/dist/files/xls/shablon-kd.xlsx
@@ -2219,6 +2219,9 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2228,12 +2231,12 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2249,6 +2252,9 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2257,9 +2263,6 @@
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2354,9 +2357,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2383,11 +2383,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>291353</xdr:colOff>
+      <xdr:colOff>112058</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>224118</xdr:rowOff>
+      <xdr:rowOff>128003</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2740430" cy="1323638"/>
+    <xdr:ext cx="3496235" cy="1688695"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Рисунок 1"/>
@@ -2409,8 +2409,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="958103" y="195543"/>
-          <a:ext cx="2740430" cy="1323638"/>
+          <a:off x="874058" y="128003"/>
+          <a:ext cx="3496235" cy="1688695"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2734,8 +2734,8 @@
   </sheetPr>
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3024,8 +3024,8 @@
       <c r="I8" s="136"/>
       <c r="J8" s="136"/>
       <c r="K8" s="136"/>
-      <c r="L8" s="200"/>
-      <c r="M8" s="200"/>
+      <c r="L8" s="197"/>
+      <c r="M8" s="197"/>
       <c r="N8" s="170"/>
       <c r="O8" s="136"/>
       <c r="P8" s="142"/>
@@ -3135,28 +3135,28 @@
       <c r="W11" s="19"/>
     </row>
     <row r="12" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="197" t="s">
+      <c r="A12" s="198" t="s">
         <v>182</v>
       </c>
-      <c r="B12" s="198" t="s">
+      <c r="B12" s="199" t="s">
         <v>210</v>
       </c>
-      <c r="C12" s="198" t="s">
+      <c r="C12" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="D12" s="198" t="s">
+      <c r="D12" s="199" t="s">
         <v>184</v>
       </c>
-      <c r="E12" s="199" t="s">
+      <c r="E12" s="200" t="s">
         <v>185</v>
       </c>
-      <c r="F12" s="199" t="s">
+      <c r="F12" s="200" t="s">
         <v>186</v>
       </c>
-      <c r="G12" s="202" t="s">
+      <c r="G12" s="203" t="s">
         <v>187</v>
       </c>
-      <c r="H12" s="203" t="s">
+      <c r="H12" s="204" t="s">
         <v>188</v>
       </c>
       <c r="I12" s="9"/>
@@ -3176,14 +3176,14 @@
       <c r="W12" s="19"/>
     </row>
     <row r="13" spans="1:23" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="197"/>
-      <c r="B13" s="198"/>
-      <c r="C13" s="198"/>
-      <c r="D13" s="198"/>
-      <c r="E13" s="199"/>
-      <c r="F13" s="199"/>
-      <c r="G13" s="202"/>
-      <c r="H13" s="203"/>
+      <c r="A13" s="198"/>
+      <c r="B13" s="199"/>
+      <c r="C13" s="199"/>
+      <c r="D13" s="199"/>
+      <c r="E13" s="200"/>
+      <c r="F13" s="200"/>
+      <c r="G13" s="203"/>
+      <c r="H13" s="204"/>
       <c r="I13" s="19"/>
       <c r="J13" s="145"/>
       <c r="K13" s="145"/>
@@ -3201,25 +3201,25 @@
       <c r="W13" s="19"/>
     </row>
     <row r="14" spans="1:23" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="197"/>
-      <c r="B14" s="198"/>
-      <c r="C14" s="198"/>
-      <c r="D14" s="198"/>
-      <c r="E14" s="199"/>
-      <c r="F14" s="199"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="203"/>
-      <c r="I14" s="204" t="s">
+      <c r="A14" s="198"/>
+      <c r="B14" s="199"/>
+      <c r="C14" s="199"/>
+      <c r="D14" s="199"/>
+      <c r="E14" s="200"/>
+      <c r="F14" s="200"/>
+      <c r="G14" s="203"/>
+      <c r="H14" s="204"/>
+      <c r="I14" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="J14" s="204"/>
-      <c r="K14" s="204"/>
-      <c r="L14" s="204"/>
-      <c r="M14" s="204"/>
-      <c r="N14" s="204"/>
-      <c r="O14" s="204"/>
-      <c r="P14" s="204"/>
-      <c r="Q14" s="204"/>
+      <c r="J14" s="205"/>
+      <c r="K14" s="205"/>
+      <c r="L14" s="205"/>
+      <c r="M14" s="205"/>
+      <c r="N14" s="205"/>
+      <c r="O14" s="205"/>
+      <c r="P14" s="205"/>
+      <c r="Q14" s="205"/>
       <c r="R14" s="135"/>
       <c r="S14" s="11"/>
       <c r="T14" s="9"/>
@@ -3228,23 +3228,23 @@
       <c r="W14" s="19"/>
     </row>
     <row r="15" spans="1:23" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="197"/>
-      <c r="B15" s="198"/>
-      <c r="C15" s="198"/>
-      <c r="D15" s="198"/>
-      <c r="E15" s="199"/>
-      <c r="F15" s="199"/>
-      <c r="G15" s="202"/>
-      <c r="H15" s="203"/>
-      <c r="I15" s="204"/>
-      <c r="J15" s="204"/>
-      <c r="K15" s="204"/>
-      <c r="L15" s="204"/>
-      <c r="M15" s="204"/>
-      <c r="N15" s="204"/>
-      <c r="O15" s="204"/>
-      <c r="P15" s="204"/>
-      <c r="Q15" s="204"/>
+      <c r="A15" s="198"/>
+      <c r="B15" s="199"/>
+      <c r="C15" s="199"/>
+      <c r="D15" s="199"/>
+      <c r="E15" s="200"/>
+      <c r="F15" s="200"/>
+      <c r="G15" s="203"/>
+      <c r="H15" s="204"/>
+      <c r="I15" s="205"/>
+      <c r="J15" s="205"/>
+      <c r="K15" s="205"/>
+      <c r="L15" s="205"/>
+      <c r="M15" s="205"/>
+      <c r="N15" s="205"/>
+      <c r="O15" s="205"/>
+      <c r="P15" s="205"/>
+      <c r="Q15" s="205"/>
       <c r="R15" s="135"/>
       <c r="S15" s="11"/>
       <c r="T15" s="9"/>
@@ -3253,89 +3253,89 @@
       <c r="W15" s="19"/>
     </row>
     <row r="16" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="197"/>
-      <c r="B16" s="198"/>
-      <c r="C16" s="198"/>
-      <c r="D16" s="198"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="202" t="s">
+      <c r="A16" s="198"/>
+      <c r="B16" s="199"/>
+      <c r="C16" s="199"/>
+      <c r="D16" s="199"/>
+      <c r="E16" s="200"/>
+      <c r="F16" s="200"/>
+      <c r="G16" s="203" t="s">
         <v>189</v>
       </c>
-      <c r="H16" s="203"/>
+      <c r="H16" s="204"/>
       <c r="I16" s="11"/>
       <c r="J16" s="201" t="s">
         <v>9</v>
       </c>
       <c r="K16" s="201"/>
-      <c r="L16" s="242" t="s">
+      <c r="L16" s="202" t="s">
         <v>212</v>
       </c>
-      <c r="M16" s="242"/>
-      <c r="N16" s="242"/>
-      <c r="O16" s="242"/>
-      <c r="P16" s="242"/>
-      <c r="Q16" s="242"/>
-      <c r="R16" s="242"/>
-      <c r="S16" s="242"/>
+      <c r="M16" s="202"/>
+      <c r="N16" s="202"/>
+      <c r="O16" s="202"/>
+      <c r="P16" s="202"/>
+      <c r="Q16" s="202"/>
+      <c r="R16" s="202"/>
+      <c r="S16" s="202"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
       <c r="V16" s="10"/>
       <c r="W16" s="19"/>
     </row>
     <row r="17" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A17" s="197"/>
-      <c r="B17" s="198"/>
-      <c r="C17" s="198"/>
-      <c r="D17" s="198"/>
-      <c r="E17" s="199"/>
-      <c r="F17" s="199"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="203"/>
+      <c r="A17" s="198"/>
+      <c r="B17" s="199"/>
+      <c r="C17" s="199"/>
+      <c r="D17" s="199"/>
+      <c r="E17" s="200"/>
+      <c r="F17" s="200"/>
+      <c r="G17" s="203"/>
+      <c r="H17" s="204"/>
       <c r="I17" s="11"/>
       <c r="J17" s="201" t="s">
         <v>165</v>
       </c>
       <c r="K17" s="201"/>
-      <c r="L17" s="242" t="s">
+      <c r="L17" s="202" t="s">
         <v>213</v>
       </c>
-      <c r="M17" s="242"/>
-      <c r="N17" s="242"/>
-      <c r="O17" s="242"/>
-      <c r="P17" s="242"/>
-      <c r="Q17" s="242"/>
-      <c r="R17" s="242"/>
-      <c r="S17" s="242"/>
+      <c r="M17" s="202"/>
+      <c r="N17" s="202"/>
+      <c r="O17" s="202"/>
+      <c r="P17" s="202"/>
+      <c r="Q17" s="202"/>
+      <c r="R17" s="202"/>
+      <c r="S17" s="202"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
       <c r="V17" s="10"/>
       <c r="W17" s="19"/>
     </row>
     <row r="18" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A18" s="197"/>
-      <c r="B18" s="198"/>
-      <c r="C18" s="198"/>
-      <c r="D18" s="198"/>
-      <c r="E18" s="199"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="202"/>
-      <c r="H18" s="203"/>
+      <c r="A18" s="198"/>
+      <c r="B18" s="199"/>
+      <c r="C18" s="199"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="200"/>
+      <c r="F18" s="200"/>
+      <c r="G18" s="203"/>
+      <c r="H18" s="204"/>
       <c r="I18" s="11"/>
       <c r="J18" s="201" t="s">
         <v>164</v>
       </c>
       <c r="K18" s="201"/>
-      <c r="L18" s="242" t="s">
+      <c r="L18" s="202" t="s">
         <v>70</v>
       </c>
-      <c r="M18" s="242"/>
-      <c r="N18" s="242"/>
-      <c r="O18" s="242"/>
-      <c r="P18" s="242"/>
-      <c r="Q18" s="242"/>
-      <c r="R18" s="242"/>
-      <c r="S18" s="242"/>
+      <c r="M18" s="202"/>
+      <c r="N18" s="202"/>
+      <c r="O18" s="202"/>
+      <c r="P18" s="202"/>
+      <c r="Q18" s="202"/>
+      <c r="R18" s="202"/>
+      <c r="S18" s="202"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
       <c r="V18" s="10"/>
@@ -3355,16 +3355,16 @@
         <v>163</v>
       </c>
       <c r="K19" s="201"/>
-      <c r="L19" s="242" t="s">
+      <c r="L19" s="202" t="s">
         <v>214</v>
       </c>
-      <c r="M19" s="242"/>
-      <c r="N19" s="242"/>
-      <c r="O19" s="242"/>
-      <c r="P19" s="242"/>
-      <c r="Q19" s="242"/>
-      <c r="R19" s="242"/>
-      <c r="S19" s="242"/>
+      <c r="M19" s="202"/>
+      <c r="N19" s="202"/>
+      <c r="O19" s="202"/>
+      <c r="P19" s="202"/>
+      <c r="Q19" s="202"/>
+      <c r="R19" s="202"/>
+      <c r="S19" s="202"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
       <c r="V19" s="10"/>
@@ -3668,12 +3668,12 @@
     <row r="29" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="205" t="s">
+      <c r="C29" s="206" t="s">
         <v>198</v>
       </c>
-      <c r="D29" s="205"/>
-      <c r="E29" s="205"/>
-      <c r="F29" s="205"/>
+      <c r="D29" s="206"/>
+      <c r="E29" s="206"/>
+      <c r="F29" s="206"/>
       <c r="G29" s="159"/>
       <c r="H29" s="42"/>
       <c r="I29" s="176"/>
@@ -3723,12 +3723,12 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
-      <c r="B31" s="205" t="s">
+      <c r="B31" s="206" t="s">
         <v>198</v>
       </c>
-      <c r="C31" s="205"/>
-      <c r="D31" s="205"/>
-      <c r="E31" s="205"/>
+      <c r="C31" s="206"/>
+      <c r="D31" s="206"/>
+      <c r="E31" s="206"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
@@ -3754,15 +3754,15 @@
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
-      <c r="F32" s="206" t="s">
+      <c r="F32" s="207" t="s">
         <v>199</v>
       </c>
-      <c r="G32" s="206"/>
-      <c r="H32" s="206"/>
-      <c r="I32" s="206"/>
-      <c r="J32" s="206"/>
-      <c r="K32" s="206"/>
-      <c r="L32" s="206"/>
+      <c r="G32" s="207"/>
+      <c r="H32" s="207"/>
+      <c r="I32" s="207"/>
+      <c r="J32" s="207"/>
+      <c r="K32" s="207"/>
+      <c r="L32" s="207"/>
       <c r="M32" s="160" t="s">
         <v>200</v>
       </c>
@@ -3791,15 +3791,15 @@
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
-      <c r="F33" s="206" t="s">
+      <c r="F33" s="207" t="s">
         <v>199</v>
       </c>
-      <c r="G33" s="206"/>
-      <c r="H33" s="206"/>
-      <c r="I33" s="206"/>
-      <c r="J33" s="206"/>
-      <c r="K33" s="206"/>
-      <c r="L33" s="206"/>
+      <c r="G33" s="207"/>
+      <c r="H33" s="207"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="207"/>
+      <c r="K33" s="207"/>
+      <c r="L33" s="207"/>
       <c r="M33" s="160" t="s">
         <v>171</v>
       </c>
@@ -3830,15 +3830,15 @@
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
-      <c r="F34" s="206" t="s">
+      <c r="F34" s="207" t="s">
         <v>202</v>
       </c>
-      <c r="G34" s="206"/>
-      <c r="H34" s="206"/>
-      <c r="I34" s="206"/>
-      <c r="J34" s="206"/>
-      <c r="K34" s="206"/>
-      <c r="L34" s="206"/>
+      <c r="G34" s="207"/>
+      <c r="H34" s="207"/>
+      <c r="I34" s="207"/>
+      <c r="J34" s="207"/>
+      <c r="K34" s="207"/>
+      <c r="L34" s="207"/>
       <c r="M34" s="160" t="s">
         <v>203</v>
       </c>
@@ -3876,12 +3876,12 @@
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
       <c r="L35" s="19"/>
-      <c r="M35" s="210" t="s">
+      <c r="M35" s="208" t="s">
         <v>205</v>
       </c>
-      <c r="N35" s="210"/>
-      <c r="O35" s="210"/>
-      <c r="P35" s="210"/>
+      <c r="N35" s="208"/>
+      <c r="O35" s="208"/>
+      <c r="P35" s="208"/>
       <c r="Q35" s="173" t="s">
         <v>27</v>
       </c>
@@ -3911,8 +3911,8 @@
       <c r="J36" s="162"/>
       <c r="K36" s="162"/>
       <c r="L36" s="162"/>
-      <c r="M36" s="207"/>
-      <c r="N36" s="207"/>
+      <c r="M36" s="209"/>
+      <c r="N36" s="209"/>
       <c r="O36" s="154"/>
       <c r="P36" s="154"/>
       <c r="Q36" s="173"/>
@@ -3927,21 +3927,21 @@
       <c r="A37" s="17"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
-      <c r="D37" s="208" t="s">
+      <c r="D37" s="210" t="s">
         <v>206</v>
       </c>
-      <c r="E37" s="208"/>
-      <c r="F37" s="208"/>
-      <c r="G37" s="208"/>
-      <c r="H37" s="208"/>
-      <c r="I37" s="208"/>
-      <c r="J37" s="208"/>
-      <c r="K37" s="208"/>
-      <c r="L37" s="209" t="s">
+      <c r="E37" s="210"/>
+      <c r="F37" s="210"/>
+      <c r="G37" s="210"/>
+      <c r="H37" s="210"/>
+      <c r="I37" s="210"/>
+      <c r="J37" s="210"/>
+      <c r="K37" s="210"/>
+      <c r="L37" s="211" t="s">
         <v>207</v>
       </c>
-      <c r="M37" s="209"/>
-      <c r="N37" s="209"/>
+      <c r="M37" s="211"/>
+      <c r="N37" s="211"/>
       <c r="O37" s="154" t="s">
         <v>204</v>
       </c>
@@ -4043,18 +4043,18 @@
     <mergeCell ref="H12:H18"/>
     <mergeCell ref="I14:Q15"/>
     <mergeCell ref="G16:G18"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:S16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:S17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:S18"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="I21:L21"/>
     <mergeCell ref="J22:L22"/>
     <mergeCell ref="M22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="L19:S19"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:S16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:S17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:S18"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="B12:B18"/>
     <mergeCell ref="C12:C18"/>
@@ -4092,11 +4092,7 @@
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0"/>
   <pageSetup paperSize="8" scale="93" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;L           &amp;G</oddHeader>
-  </headerFooter>
   <drawing r:id="rId2"/>
-  <legacyDrawingHF r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4123,21 +4119,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="55.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="212" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="212"/>
-      <c r="K1" s="212"/>
-      <c r="L1" s="212"/>
-      <c r="M1" s="213"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
+      <c r="M1" s="214"/>
     </row>
     <row r="2" spans="1:13" ht="184.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="23" t="s">
@@ -4672,70 +4668,70 @@
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="215" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="214"/>
-      <c r="I2" s="214"/>
-      <c r="J2" s="214"/>
-      <c r="K2" s="214"/>
-      <c r="L2" s="214"/>
-      <c r="M2" s="214"/>
-      <c r="N2" s="214"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="214"/>
-      <c r="Q2" s="214"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="214"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="215"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
       <c r="T2" s="18"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
-      <c r="B3" s="214"/>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="214"/>
-      <c r="G3" s="214"/>
-      <c r="H3" s="214"/>
-      <c r="I3" s="214"/>
-      <c r="J3" s="214"/>
-      <c r="K3" s="214"/>
-      <c r="L3" s="214"/>
-      <c r="M3" s="214"/>
-      <c r="N3" s="214"/>
-      <c r="O3" s="214"/>
-      <c r="P3" s="214"/>
-      <c r="Q3" s="214"/>
-      <c r="R3" s="214"/>
-      <c r="S3" s="214"/>
+      <c r="B3" s="215"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
+      <c r="J3" s="215"/>
+      <c r="K3" s="215"/>
+      <c r="L3" s="215"/>
+      <c r="M3" s="215"/>
+      <c r="N3" s="215"/>
+      <c r="O3" s="215"/>
+      <c r="P3" s="215"/>
+      <c r="Q3" s="215"/>
+      <c r="R3" s="215"/>
+      <c r="S3" s="215"/>
       <c r="T3" s="18"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
-      <c r="B4" s="214"/>
-      <c r="C4" s="214"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="214"/>
-      <c r="G4" s="214"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="214"/>
-      <c r="J4" s="214"/>
-      <c r="K4" s="214"/>
-      <c r="L4" s="214"/>
-      <c r="M4" s="214"/>
-      <c r="N4" s="214"/>
-      <c r="O4" s="214"/>
-      <c r="P4" s="214"/>
-      <c r="Q4" s="214"/>
-      <c r="R4" s="214"/>
-      <c r="S4" s="214"/>
+      <c r="B4" s="215"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="215"/>
+      <c r="R4" s="215"/>
+      <c r="S4" s="215"/>
       <c r="T4" s="18"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -5381,11 +5377,11 @@
       <c r="F1" s="116" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="215" t="s">
+      <c r="G1" s="216" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="216"/>
-      <c r="I1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="218"/>
       <c r="J1" s="116" t="s">
         <v>152</v>
       </c>
@@ -6004,12 +6000,12 @@
       <c r="D2" s="126"/>
       <c r="E2" s="126"/>
       <c r="F2" s="126"/>
-      <c r="G2" s="220" t="s">
+      <c r="G2" s="221" t="s">
         <v>168</v>
       </c>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
+      <c r="H2" s="222"/>
+      <c r="I2" s="222"/>
+      <c r="J2" s="222"/>
       <c r="K2" s="126"/>
       <c r="L2" s="126"/>
       <c r="M2" s="126"/>
@@ -6022,28 +6018,28 @@
       <c r="T2" s="121"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="222" t="s">
+      <c r="A3" s="223" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="223"/>
-      <c r="C3" s="223"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="223"/>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="224" t="s">
+      <c r="B3" s="224"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="224"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="225" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="224"/>
-      <c r="M3" s="224"/>
-      <c r="N3" s="224"/>
-      <c r="O3" s="225" t="s">
+      <c r="L3" s="225"/>
+      <c r="M3" s="225"/>
+      <c r="N3" s="225"/>
+      <c r="O3" s="226" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="225"/>
+      <c r="P3" s="226"/>
       <c r="Q3" s="123" t="s">
         <v>25</v>
       </c>
@@ -6324,20 +6320,20 @@
       <c r="B16" s="126"/>
       <c r="C16" s="126"/>
       <c r="D16" s="126"/>
-      <c r="E16" s="226" t="s">
+      <c r="E16" s="227" t="s">
         <v>166</v>
       </c>
-      <c r="F16" s="227"/>
-      <c r="G16" s="227"/>
-      <c r="H16" s="227"/>
-      <c r="I16" s="227"/>
-      <c r="J16" s="227"/>
-      <c r="K16" s="227"/>
-      <c r="L16" s="227"/>
-      <c r="M16" s="227"/>
-      <c r="N16" s="227"/>
-      <c r="O16" s="227"/>
-      <c r="P16" s="227"/>
+      <c r="F16" s="228"/>
+      <c r="G16" s="228"/>
+      <c r="H16" s="228"/>
+      <c r="I16" s="228"/>
+      <c r="J16" s="228"/>
+      <c r="K16" s="228"/>
+      <c r="L16" s="228"/>
+      <c r="M16" s="228"/>
+      <c r="N16" s="228"/>
+      <c r="O16" s="228"/>
+      <c r="P16" s="228"/>
       <c r="Q16" s="129"/>
       <c r="R16" s="126"/>
       <c r="S16" s="126"/>
@@ -6348,18 +6344,18 @@
       <c r="B17" s="126"/>
       <c r="C17" s="126"/>
       <c r="D17" s="126"/>
-      <c r="E17" s="227"/>
-      <c r="F17" s="227"/>
-      <c r="G17" s="227"/>
-      <c r="H17" s="227"/>
-      <c r="I17" s="227"/>
-      <c r="J17" s="227"/>
-      <c r="K17" s="227"/>
-      <c r="L17" s="227"/>
-      <c r="M17" s="227"/>
-      <c r="N17" s="227"/>
-      <c r="O17" s="227"/>
-      <c r="P17" s="227"/>
+      <c r="E17" s="228"/>
+      <c r="F17" s="228"/>
+      <c r="G17" s="228"/>
+      <c r="H17" s="228"/>
+      <c r="I17" s="228"/>
+      <c r="J17" s="228"/>
+      <c r="K17" s="228"/>
+      <c r="L17" s="228"/>
+      <c r="M17" s="228"/>
+      <c r="N17" s="228"/>
+      <c r="O17" s="228"/>
+      <c r="P17" s="228"/>
       <c r="Q17" s="129"/>
       <c r="R17" s="126"/>
       <c r="S17" s="126"/>
@@ -6370,18 +6366,18 @@
       <c r="B18" s="126"/>
       <c r="C18" s="126"/>
       <c r="D18" s="126"/>
-      <c r="E18" s="227"/>
-      <c r="F18" s="227"/>
-      <c r="G18" s="227"/>
-      <c r="H18" s="227"/>
-      <c r="I18" s="227"/>
-      <c r="J18" s="227"/>
-      <c r="K18" s="227"/>
-      <c r="L18" s="227"/>
-      <c r="M18" s="227"/>
-      <c r="N18" s="227"/>
-      <c r="O18" s="227"/>
-      <c r="P18" s="227"/>
+      <c r="E18" s="228"/>
+      <c r="F18" s="228"/>
+      <c r="G18" s="228"/>
+      <c r="H18" s="228"/>
+      <c r="I18" s="228"/>
+      <c r="J18" s="228"/>
+      <c r="K18" s="228"/>
+      <c r="L18" s="228"/>
+      <c r="M18" s="228"/>
+      <c r="N18" s="228"/>
+      <c r="O18" s="228"/>
+      <c r="P18" s="228"/>
       <c r="Q18" s="129"/>
       <c r="R18" s="126"/>
       <c r="S18" s="126"/>
@@ -6395,21 +6391,21 @@
       <c r="E19" s="129"/>
       <c r="F19" s="129"/>
       <c r="G19" s="129"/>
-      <c r="H19" s="218" t="s">
+      <c r="H19" s="219" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="218"/>
-      <c r="J19" s="219" t="str">
+      <c r="I19" s="219"/>
+      <c r="J19" s="220" t="str">
         <f>'лист титульный КД'!L16</f>
         <v>София-Декор</v>
       </c>
-      <c r="K19" s="219"/>
-      <c r="L19" s="219"/>
-      <c r="M19" s="219"/>
-      <c r="N19" s="219"/>
-      <c r="O19" s="219"/>
-      <c r="P19" s="219"/>
-      <c r="Q19" s="219"/>
+      <c r="K19" s="220"/>
+      <c r="L19" s="220"/>
+      <c r="M19" s="220"/>
+      <c r="N19" s="220"/>
+      <c r="O19" s="220"/>
+      <c r="P19" s="220"/>
+      <c r="Q19" s="220"/>
       <c r="R19" s="126"/>
       <c r="S19" s="126"/>
       <c r="T19" s="121"/>
@@ -6422,21 +6418,21 @@
       <c r="E20" s="129"/>
       <c r="F20" s="129"/>
       <c r="G20" s="129"/>
-      <c r="H20" s="218" t="s">
+      <c r="H20" s="219" t="s">
         <v>165</v>
       </c>
-      <c r="I20" s="218"/>
-      <c r="J20" s="219" t="str">
+      <c r="I20" s="219"/>
+      <c r="J20" s="220" t="str">
         <f>'лист титульный КД'!L17</f>
         <v>г. Москва, ул. Нарвская, д.2</v>
       </c>
-      <c r="K20" s="219"/>
-      <c r="L20" s="219"/>
-      <c r="M20" s="219"/>
-      <c r="N20" s="219"/>
-      <c r="O20" s="219"/>
-      <c r="P20" s="219"/>
-      <c r="Q20" s="219"/>
+      <c r="K20" s="220"/>
+      <c r="L20" s="220"/>
+      <c r="M20" s="220"/>
+      <c r="N20" s="220"/>
+      <c r="O20" s="220"/>
+      <c r="P20" s="220"/>
+      <c r="Q20" s="220"/>
       <c r="R20" s="126"/>
       <c r="S20" s="126"/>
       <c r="T20" s="121"/>
@@ -6449,21 +6445,21 @@
       <c r="E21" s="129"/>
       <c r="F21" s="129"/>
       <c r="G21" s="129"/>
-      <c r="H21" s="218" t="s">
+      <c r="H21" s="219" t="s">
         <v>164</v>
       </c>
-      <c r="I21" s="218"/>
-      <c r="J21" s="219" t="str">
+      <c r="I21" s="219"/>
+      <c r="J21" s="220" t="str">
         <f>'лист титульный КД'!L18</f>
         <v>5000301-02-001</v>
       </c>
-      <c r="K21" s="219"/>
-      <c r="L21" s="219"/>
-      <c r="M21" s="219"/>
-      <c r="N21" s="219"/>
-      <c r="O21" s="219"/>
-      <c r="P21" s="219"/>
-      <c r="Q21" s="219"/>
+      <c r="K21" s="220"/>
+      <c r="L21" s="220"/>
+      <c r="M21" s="220"/>
+      <c r="N21" s="220"/>
+      <c r="O21" s="220"/>
+      <c r="P21" s="220"/>
+      <c r="Q21" s="220"/>
       <c r="R21" s="126"/>
       <c r="S21" s="126"/>
       <c r="T21" s="121"/>
@@ -6476,21 +6472,21 @@
       <c r="E22" s="129"/>
       <c r="F22" s="129"/>
       <c r="G22" s="129"/>
-      <c r="H22" s="218" t="s">
+      <c r="H22" s="219" t="s">
         <v>163</v>
       </c>
-      <c r="I22" s="218"/>
-      <c r="J22" s="219" t="str">
+      <c r="I22" s="219"/>
+      <c r="J22" s="220" t="str">
         <f>'лист титульный КД'!L19</f>
         <v>1,2,3,4,5,6,7,8,9,10,11,12</v>
       </c>
-      <c r="K22" s="219"/>
-      <c r="L22" s="219"/>
-      <c r="M22" s="219"/>
-      <c r="N22" s="219"/>
-      <c r="O22" s="219"/>
-      <c r="P22" s="219"/>
-      <c r="Q22" s="219"/>
+      <c r="K22" s="220"/>
+      <c r="L22" s="220"/>
+      <c r="M22" s="220"/>
+      <c r="N22" s="220"/>
+      <c r="O22" s="220"/>
+      <c r="P22" s="220"/>
+      <c r="Q22" s="220"/>
       <c r="R22" s="126"/>
       <c r="S22" s="126"/>
       <c r="T22" s="121"/>
@@ -6722,12 +6718,12 @@
       <c r="D33" s="126"/>
       <c r="E33" s="126"/>
       <c r="F33" s="126"/>
-      <c r="G33" s="220" t="s">
+      <c r="G33" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="221"/>
-      <c r="I33" s="221"/>
-      <c r="J33" s="221"/>
+      <c r="H33" s="222"/>
+      <c r="I33" s="222"/>
+      <c r="J33" s="222"/>
       <c r="K33" s="126"/>
       <c r="L33" s="126"/>
       <c r="M33" s="126"/>
@@ -6740,28 +6736,28 @@
       <c r="T33" s="121"/>
     </row>
     <row r="34" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="222" t="s">
+      <c r="A34" s="223" t="s">
         <v>162</v>
       </c>
-      <c r="B34" s="223"/>
-      <c r="C34" s="223"/>
-      <c r="D34" s="223"/>
-      <c r="E34" s="223"/>
-      <c r="F34" s="223"/>
-      <c r="G34" s="223"/>
-      <c r="H34" s="223"/>
-      <c r="I34" s="223"/>
-      <c r="J34" s="223"/>
-      <c r="K34" s="224" t="s">
+      <c r="B34" s="224"/>
+      <c r="C34" s="224"/>
+      <c r="D34" s="224"/>
+      <c r="E34" s="224"/>
+      <c r="F34" s="224"/>
+      <c r="G34" s="224"/>
+      <c r="H34" s="224"/>
+      <c r="I34" s="224"/>
+      <c r="J34" s="224"/>
+      <c r="K34" s="225" t="s">
         <v>26</v>
       </c>
-      <c r="L34" s="224"/>
-      <c r="M34" s="224"/>
-      <c r="N34" s="224"/>
-      <c r="O34" s="225" t="s">
+      <c r="L34" s="225"/>
+      <c r="M34" s="225"/>
+      <c r="N34" s="225"/>
+      <c r="O34" s="226" t="s">
         <v>27</v>
       </c>
-      <c r="P34" s="225"/>
+      <c r="P34" s="226"/>
       <c r="Q34" s="123" t="s">
         <v>25</v>
       </c>
@@ -6802,12 +6798,12 @@
       <c r="D36" s="126"/>
       <c r="E36" s="126"/>
       <c r="F36" s="126"/>
-      <c r="G36" s="220" t="s">
+      <c r="G36" s="221" t="s">
         <v>161</v>
       </c>
-      <c r="H36" s="221"/>
-      <c r="I36" s="221"/>
-      <c r="J36" s="221"/>
+      <c r="H36" s="222"/>
+      <c r="I36" s="222"/>
+      <c r="J36" s="222"/>
       <c r="K36" s="126"/>
       <c r="L36" s="126"/>
       <c r="M36" s="126"/>
@@ -6820,28 +6816,28 @@
       <c r="T36" s="121"/>
     </row>
     <row r="37" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="228" t="s">
+      <c r="A37" s="229" t="s">
         <v>160</v>
       </c>
-      <c r="B37" s="223"/>
-      <c r="C37" s="223"/>
-      <c r="D37" s="223"/>
-      <c r="E37" s="223"/>
-      <c r="F37" s="223"/>
-      <c r="G37" s="223"/>
-      <c r="H37" s="223"/>
-      <c r="I37" s="223"/>
-      <c r="J37" s="223"/>
-      <c r="K37" s="224" t="s">
+      <c r="B37" s="224"/>
+      <c r="C37" s="224"/>
+      <c r="D37" s="224"/>
+      <c r="E37" s="224"/>
+      <c r="F37" s="224"/>
+      <c r="G37" s="224"/>
+      <c r="H37" s="224"/>
+      <c r="I37" s="224"/>
+      <c r="J37" s="224"/>
+      <c r="K37" s="225" t="s">
         <v>26</v>
       </c>
-      <c r="L37" s="224"/>
-      <c r="M37" s="224"/>
-      <c r="N37" s="224"/>
-      <c r="O37" s="225" t="s">
+      <c r="L37" s="225"/>
+      <c r="M37" s="225"/>
+      <c r="N37" s="225"/>
+      <c r="O37" s="226" t="s">
         <v>27</v>
       </c>
-      <c r="P37" s="225"/>
+      <c r="P37" s="226"/>
       <c r="Q37" s="123" t="s">
         <v>25</v>
       </c>
@@ -6876,28 +6872,28 @@
       <c r="T38" s="121"/>
     </row>
     <row r="39" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="228" t="s">
+      <c r="A39" s="229" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="223"/>
-      <c r="C39" s="223"/>
-      <c r="D39" s="223"/>
-      <c r="E39" s="223"/>
-      <c r="F39" s="223"/>
-      <c r="G39" s="223"/>
-      <c r="H39" s="223"/>
-      <c r="I39" s="223"/>
-      <c r="J39" s="223"/>
-      <c r="K39" s="224" t="s">
+      <c r="B39" s="224"/>
+      <c r="C39" s="224"/>
+      <c r="D39" s="224"/>
+      <c r="E39" s="224"/>
+      <c r="F39" s="224"/>
+      <c r="G39" s="224"/>
+      <c r="H39" s="224"/>
+      <c r="I39" s="224"/>
+      <c r="J39" s="224"/>
+      <c r="K39" s="225" t="s">
         <v>26</v>
       </c>
-      <c r="L39" s="224"/>
-      <c r="M39" s="224"/>
-      <c r="N39" s="224"/>
-      <c r="O39" s="225" t="s">
+      <c r="L39" s="225"/>
+      <c r="M39" s="225"/>
+      <c r="N39" s="225"/>
+      <c r="O39" s="226" t="s">
         <v>27</v>
       </c>
-      <c r="P39" s="225"/>
+      <c r="P39" s="226"/>
       <c r="Q39" s="123" t="s">
         <v>25</v>
       </c>
@@ -6987,19 +6983,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-      <c r="K1" s="231"/>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="232"/>
     </row>
     <row r="2" spans="1:11" s="54" customFormat="1" ht="124.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="62" t="s">
@@ -7394,48 +7390,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="235" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="235"/>
-      <c r="O1" s="235"/>
-      <c r="P1" s="235"/>
-      <c r="Q1" s="235"/>
-      <c r="R1" s="235"/>
-      <c r="S1" s="236"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="236"/>
+      <c r="P1" s="236"/>
+      <c r="Q1" s="236"/>
+      <c r="R1" s="236"/>
+      <c r="S1" s="237"/>
     </row>
     <row r="2" spans="1:19" s="95" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="238" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="238" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="237" t="s">
+      <c r="C2" s="238" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="237" t="s">
+      <c r="D2" s="238" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="237" t="s">
+      <c r="E2" s="238" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="237" t="s">
+      <c r="F2" s="238" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="237" t="s">
+      <c r="G2" s="238" t="s">
         <v>92</v>
       </c>
       <c r="H2" s="96" t="s">
@@ -7444,11 +7440,11 @@
       <c r="I2" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="J2" s="240" t="s">
+      <c r="J2" s="241" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="241"/>
-      <c r="L2" s="241"/>
+      <c r="K2" s="242"/>
+      <c r="L2" s="242"/>
       <c r="M2" s="96" t="s">
         <v>134</v>
       </c>
@@ -7472,13 +7468,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="85" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="238"/>
-      <c r="B3" s="238"/>
-      <c r="C3" s="238"/>
-      <c r="D3" s="238"/>
-      <c r="E3" s="238"/>
-      <c r="F3" s="238"/>
-      <c r="G3" s="238"/>
+      <c r="A3" s="239"/>
+      <c r="B3" s="239"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="239"/>
+      <c r="G3" s="239"/>
       <c r="H3" s="91" t="s">
         <v>127</v>
       </c>
@@ -7517,24 +7513,24 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="85" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="238"/>
-      <c r="B4" s="238"/>
-      <c r="C4" s="238"/>
-      <c r="D4" s="238"/>
-      <c r="E4" s="238"/>
-      <c r="F4" s="238"/>
-      <c r="G4" s="238"/>
+      <c r="A4" s="239"/>
+      <c r="B4" s="239"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
       <c r="H4" s="91" t="s">
         <v>119</v>
       </c>
       <c r="I4" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="232" t="s">
+      <c r="J4" s="233" t="s">
         <v>117</v>
       </c>
-      <c r="K4" s="233"/>
-      <c r="L4" s="233"/>
+      <c r="K4" s="234"/>
+      <c r="L4" s="234"/>
       <c r="M4" s="92" t="s">
         <v>116</v>
       </c>
@@ -7558,24 +7554,24 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="85" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="239"/>
-      <c r="B5" s="239"/>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="239"/>
-      <c r="G5" s="239"/>
+      <c r="A5" s="240"/>
+      <c r="B5" s="240"/>
+      <c r="C5" s="240"/>
+      <c r="D5" s="240"/>
+      <c r="E5" s="240"/>
+      <c r="F5" s="240"/>
+      <c r="G5" s="240"/>
       <c r="H5" s="91" t="s">
         <v>109</v>
       </c>
       <c r="I5" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="J5" s="232" t="s">
+      <c r="J5" s="233" t="s">
         <v>107</v>
       </c>
-      <c r="K5" s="233"/>
-      <c r="L5" s="233"/>
+      <c r="K5" s="234"/>
+      <c r="L5" s="234"/>
       <c r="M5" s="90" t="s">
         <v>106</v>
       </c>
@@ -8352,21 +8348,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="230" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-      <c r="K1" s="230"/>
-      <c r="L1" s="230"/>
-      <c r="M1" s="231"/>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="231"/>
+      <c r="M1" s="232"/>
     </row>
     <row r="2" spans="1:13" s="54" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="105" t="s">

--- a/dist/files/xls/shablon-kd.xlsx
+++ b/dist/files/xls/shablon-kd.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sshishenko\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OPEN_SERVER\OSPanel\domains\localhost\www\dist\files\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8190" tabRatio="778"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8190" tabRatio="778" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="лист титульный КД" sheetId="24" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'лист титульный КД'!$A$1:$W$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'спецификация конструкторская'!$A$1:$M$34</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -780,9 +780,6 @@
     <t>ведущий архитектор проекта</t>
   </si>
   <si>
-    <t>исполнитель дизайн-проекта</t>
-  </si>
-  <si>
     <t>ИЗДЕЛИЯ:</t>
   </si>
   <si>
@@ -818,6 +815,9 @@
   </si>
   <si>
     <t>www.Sofia-Decor.ru</t>
+  </si>
+  <si>
+    <t>исполнитель КД</t>
   </si>
 </sst>
 </file>
@@ -2312,223 +2312,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2540,60 +2328,272 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2923,7 +2923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="87" zoomScaleNormal="100" zoomScaleSheetLayoutView="87" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="87" zoomScaleNormal="100" zoomScaleSheetLayoutView="87" workbookViewId="0">
       <selection activeCell="AB37" sqref="AB37"/>
     </sheetView>
   </sheetViews>
@@ -2991,23 +2991,23 @@
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
-      <c r="I2" s="182" t="s">
+      <c r="I2" s="193" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="184"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="195"/>
       <c r="O2" s="116"/>
-      <c r="P2" s="185" t="s">
+      <c r="P2" s="196" t="s">
         <v>209</v>
       </c>
-      <c r="Q2" s="186"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="186"/>
-      <c r="T2" s="186"/>
-      <c r="U2" s="186"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="187"/>
+      <c r="S2" s="187"/>
+      <c r="T2" s="187"/>
+      <c r="U2" s="187"/>
       <c r="V2" s="162"/>
       <c r="W2" s="42"/>
       <c r="X2" s="17"/>
@@ -3028,10 +3028,10 @@
         <v>74</v>
       </c>
       <c r="K3" s="119"/>
-      <c r="L3" s="186" t="s">
+      <c r="L3" s="187" t="s">
         <v>162</v>
       </c>
-      <c r="M3" s="186"/>
+      <c r="M3" s="187"/>
       <c r="N3" s="120" t="s">
         <v>75</v>
       </c>
@@ -3043,10 +3043,10 @@
         <v>82</v>
       </c>
       <c r="R3" s="119"/>
-      <c r="S3" s="186" t="s">
+      <c r="S3" s="187" t="s">
         <v>84</v>
       </c>
-      <c r="T3" s="186"/>
+      <c r="T3" s="187"/>
       <c r="U3" s="150" t="s">
         <v>79</v>
       </c>
@@ -3070,10 +3070,10 @@
         <v>76</v>
       </c>
       <c r="K4" s="116"/>
-      <c r="L4" s="171" t="s">
+      <c r="L4" s="188" t="s">
         <v>162</v>
       </c>
-      <c r="M4" s="171"/>
+      <c r="M4" s="188"/>
       <c r="N4" s="152" t="s">
         <v>208</v>
       </c>
@@ -3085,10 +3085,10 @@
         <v>76</v>
       </c>
       <c r="R4" s="116"/>
-      <c r="S4" s="171" t="s">
+      <c r="S4" s="188" t="s">
         <v>84</v>
       </c>
-      <c r="T4" s="171"/>
+      <c r="T4" s="188"/>
       <c r="U4" s="151" t="s">
         <v>208</v>
       </c>
@@ -3112,10 +3112,10 @@
         <v>207</v>
       </c>
       <c r="K5" s="116"/>
-      <c r="L5" s="171" t="s">
+      <c r="L5" s="188" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="171"/>
+      <c r="M5" s="188"/>
       <c r="N5" s="120" t="s">
         <v>206</v>
       </c>
@@ -3127,10 +3127,10 @@
         <v>207</v>
       </c>
       <c r="R5" s="116"/>
-      <c r="S5" s="171" t="s">
+      <c r="S5" s="188" t="s">
         <v>84</v>
       </c>
-      <c r="T5" s="171"/>
+      <c r="T5" s="188"/>
       <c r="U5" s="150" t="s">
         <v>206</v>
       </c>
@@ -3161,10 +3161,10 @@
         <v>205</v>
       </c>
       <c r="R6" s="116"/>
-      <c r="S6" s="171" t="s">
+      <c r="S6" s="188" t="s">
         <v>84</v>
       </c>
-      <c r="T6" s="171"/>
+      <c r="T6" s="188"/>
       <c r="U6" s="121" t="s">
         <v>204</v>
       </c>
@@ -3188,10 +3188,10 @@
         <v>77</v>
       </c>
       <c r="K7" s="116"/>
-      <c r="L7" s="171" t="s">
+      <c r="L7" s="188" t="s">
         <v>162</v>
       </c>
-      <c r="M7" s="171"/>
+      <c r="M7" s="188"/>
       <c r="N7" s="120" t="s">
         <v>78</v>
       </c>
@@ -3203,10 +3203,10 @@
         <v>77</v>
       </c>
       <c r="R7" s="116"/>
-      <c r="S7" s="171" t="s">
+      <c r="S7" s="188" t="s">
         <v>84</v>
       </c>
-      <c r="T7" s="171"/>
+      <c r="T7" s="188"/>
       <c r="U7" s="150" t="s">
         <v>78</v>
       </c>
@@ -3253,22 +3253,22 @@
       <c r="X8" s="17"/>
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="194" t="s">
+      <c r="A9" s="213" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="195" t="s">
+      <c r="B9" s="214" t="s">
         <v>166</v>
       </c>
-      <c r="C9" s="242" t="s">
+      <c r="C9" s="223" t="s">
         <v>167</v>
       </c>
-      <c r="D9" s="196" t="s">
+      <c r="D9" s="215" t="s">
         <v>168</v>
       </c>
-      <c r="E9" s="196"/>
-      <c r="F9" s="196"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="215"/>
+      <c r="E9" s="215"/>
+      <c r="F9" s="215"/>
+      <c r="G9" s="215"/>
+      <c r="H9" s="222"/>
       <c r="I9" s="122"/>
       <c r="J9" s="123"/>
       <c r="K9" s="123"/>
@@ -3295,22 +3295,22 @@
       <c r="X9" s="17"/>
     </row>
     <row r="10" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="194"/>
-      <c r="B10" s="195"/>
-      <c r="C10" s="242"/>
-      <c r="D10" s="196" t="s">
+      <c r="A10" s="213"/>
+      <c r="B10" s="214"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="215" t="s">
         <v>169</v>
       </c>
-      <c r="E10" s="197" t="s">
+      <c r="E10" s="216" t="s">
         <v>170</v>
       </c>
-      <c r="F10" s="197" t="s">
+      <c r="F10" s="216" t="s">
         <v>171</v>
       </c>
-      <c r="G10" s="195" t="s">
+      <c r="G10" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="H10" s="242" t="s">
+      <c r="H10" s="223" t="s">
         <v>173</v>
       </c>
       <c r="I10" s="9"/>
@@ -3331,26 +3331,26 @@
       <c r="X10" s="17"/>
     </row>
     <row r="11" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="194"/>
-      <c r="B11" s="195"/>
-      <c r="C11" s="242"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="197"/>
-      <c r="F11" s="210"/>
-      <c r="G11" s="195"/>
-      <c r="H11" s="242"/>
+      <c r="A11" s="213"/>
+      <c r="B11" s="214"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="215"/>
+      <c r="E11" s="216"/>
+      <c r="F11" s="234"/>
+      <c r="G11" s="214"/>
+      <c r="H11" s="223"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="241" t="s">
+      <c r="K11" s="171" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="241"/>
-      <c r="M11" s="241"/>
-      <c r="N11" s="241"/>
-      <c r="O11" s="241"/>
-      <c r="P11" s="241"/>
-      <c r="Q11" s="241"/>
-      <c r="R11" s="241"/>
+      <c r="L11" s="171"/>
+      <c r="M11" s="171"/>
+      <c r="N11" s="171"/>
+      <c r="O11" s="171"/>
+      <c r="P11" s="171"/>
+      <c r="Q11" s="171"/>
+      <c r="R11" s="171"/>
       <c r="S11" s="11"/>
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
@@ -3359,41 +3359,41 @@
       <c r="X11" s="17"/>
     </row>
     <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="193" t="s">
+      <c r="A12" s="212" t="s">
         <v>174</v>
       </c>
-      <c r="B12" s="198" t="s">
+      <c r="B12" s="217" t="s">
         <v>201</v>
       </c>
-      <c r="C12" s="198" t="s">
+      <c r="C12" s="217" t="s">
         <v>175</v>
       </c>
-      <c r="D12" s="198" t="s">
+      <c r="D12" s="217" t="s">
         <v>176</v>
       </c>
-      <c r="E12" s="199" t="s">
+      <c r="E12" s="218" t="s">
         <v>177</v>
       </c>
-      <c r="F12" s="199" t="s">
+      <c r="F12" s="218" t="s">
         <v>178</v>
       </c>
-      <c r="G12" s="212" t="s">
+      <c r="G12" s="219" t="s">
         <v>200</v>
       </c>
-      <c r="H12" s="211" t="s">
+      <c r="H12" s="235" t="s">
         <v>179</v>
       </c>
       <c r="I12" s="163"/>
-      <c r="J12" s="240" t="s">
+      <c r="J12" s="209" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="240"/>
-      <c r="L12" s="240"/>
-      <c r="M12" s="240"/>
-      <c r="N12" s="238" t="s">
+      <c r="K12" s="209"/>
+      <c r="L12" s="209"/>
+      <c r="M12" s="209"/>
+      <c r="N12" s="170" t="s">
         <v>220</v>
       </c>
-      <c r="O12" s="238"/>
+      <c r="O12" s="170"/>
       <c r="P12" s="17"/>
       <c r="Q12" s="163"/>
       <c r="R12" s="115"/>
@@ -3405,25 +3405,25 @@
       <c r="X12" s="17"/>
     </row>
     <row r="13" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="193"/>
-      <c r="B13" s="198"/>
-      <c r="C13" s="198"/>
-      <c r="D13" s="198"/>
-      <c r="E13" s="199"/>
-      <c r="F13" s="199"/>
-      <c r="G13" s="213"/>
-      <c r="H13" s="211"/>
+      <c r="A13" s="212"/>
+      <c r="B13" s="217"/>
+      <c r="C13" s="217"/>
+      <c r="D13" s="217"/>
+      <c r="E13" s="218"/>
+      <c r="F13" s="218"/>
+      <c r="G13" s="220"/>
+      <c r="H13" s="235"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="239" t="s">
+      <c r="J13" s="210" t="s">
         <v>219</v>
       </c>
-      <c r="K13" s="239"/>
-      <c r="L13" s="239"/>
-      <c r="M13" s="239"/>
-      <c r="N13" s="238" t="s">
+      <c r="K13" s="210"/>
+      <c r="L13" s="210"/>
+      <c r="M13" s="210"/>
+      <c r="N13" s="170" t="s">
         <v>218</v>
       </c>
-      <c r="O13" s="238"/>
+      <c r="O13" s="170"/>
       <c r="P13" s="17"/>
       <c r="Q13" s="165"/>
       <c r="R13" s="165"/>
@@ -3435,29 +3435,29 @@
       <c r="X13" s="17"/>
     </row>
     <row r="14" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="193"/>
-      <c r="B14" s="198"/>
-      <c r="C14" s="198"/>
-      <c r="D14" s="198"/>
-      <c r="E14" s="199"/>
-      <c r="F14" s="199"/>
-      <c r="G14" s="213"/>
-      <c r="H14" s="211"/>
+      <c r="A14" s="212"/>
+      <c r="B14" s="217"/>
+      <c r="C14" s="217"/>
+      <c r="D14" s="217"/>
+      <c r="E14" s="218"/>
+      <c r="F14" s="218"/>
+      <c r="G14" s="220"/>
+      <c r="H14" s="235"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="237" t="s">
+      <c r="J14" s="203" t="s">
         <v>159</v>
       </c>
-      <c r="K14" s="237"/>
-      <c r="L14" s="237"/>
-      <c r="M14" s="237"/>
-      <c r="N14" s="236" t="s">
+      <c r="K14" s="203"/>
+      <c r="L14" s="203"/>
+      <c r="M14" s="203"/>
+      <c r="N14" s="169" t="s">
         <v>194</v>
       </c>
-      <c r="O14" s="236"/>
+      <c r="O14" s="169"/>
       <c r="P14" s="17"/>
-      <c r="Q14" s="236"/>
-      <c r="R14" s="236"/>
-      <c r="S14" s="236"/>
+      <c r="Q14" s="169"/>
+      <c r="R14" s="169"/>
+      <c r="S14" s="169"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
@@ -3465,29 +3465,29 @@
       <c r="X14" s="17"/>
     </row>
     <row r="15" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="193"/>
-      <c r="B15" s="198"/>
-      <c r="C15" s="198"/>
-      <c r="D15" s="198"/>
-      <c r="E15" s="199"/>
-      <c r="F15" s="199"/>
-      <c r="G15" s="214"/>
-      <c r="H15" s="211"/>
+      <c r="A15" s="212"/>
+      <c r="B15" s="217"/>
+      <c r="C15" s="217"/>
+      <c r="D15" s="217"/>
+      <c r="E15" s="218"/>
+      <c r="F15" s="218"/>
+      <c r="G15" s="221"/>
+      <c r="H15" s="235"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="237" t="s">
+      <c r="J15" s="203" t="s">
         <v>217</v>
       </c>
-      <c r="K15" s="237"/>
-      <c r="L15" s="237"/>
-      <c r="M15" s="237"/>
-      <c r="N15" s="236" t="s">
+      <c r="K15" s="203"/>
+      <c r="L15" s="203"/>
+      <c r="M15" s="203"/>
+      <c r="N15" s="169" t="s">
         <v>216</v>
       </c>
-      <c r="O15" s="236"/>
+      <c r="O15" s="169"/>
       <c r="P15" s="17"/>
-      <c r="Q15" s="236"/>
-      <c r="R15" s="236"/>
-      <c r="S15" s="236"/>
+      <c r="Q15" s="169"/>
+      <c r="R15" s="169"/>
+      <c r="S15" s="169"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
@@ -3495,31 +3495,31 @@
       <c r="X15" s="17"/>
     </row>
     <row r="16" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="193"/>
-      <c r="B16" s="198"/>
-      <c r="C16" s="198"/>
-      <c r="D16" s="198"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="212" t="s">
+      <c r="A16" s="212"/>
+      <c r="B16" s="217"/>
+      <c r="C16" s="217"/>
+      <c r="D16" s="217"/>
+      <c r="E16" s="218"/>
+      <c r="F16" s="218"/>
+      <c r="G16" s="219" t="s">
         <v>199</v>
       </c>
-      <c r="H16" s="211"/>
+      <c r="H16" s="235"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="237" t="s">
+      <c r="J16" s="203" t="s">
         <v>215</v>
       </c>
-      <c r="K16" s="237"/>
-      <c r="L16" s="237"/>
-      <c r="M16" s="237"/>
-      <c r="N16" s="236" t="s">
+      <c r="K16" s="203"/>
+      <c r="L16" s="203"/>
+      <c r="M16" s="203"/>
+      <c r="N16" s="169" t="s">
         <v>214</v>
       </c>
-      <c r="O16" s="236"/>
+      <c r="O16" s="169"/>
       <c r="P16" s="17"/>
-      <c r="Q16" s="236"/>
-      <c r="R16" s="236"/>
-      <c r="S16" s="236"/>
+      <c r="Q16" s="169"/>
+      <c r="R16" s="169"/>
+      <c r="S16" s="169"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
@@ -3527,29 +3527,29 @@
       <c r="X16" s="17"/>
     </row>
     <row r="17" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="193"/>
-      <c r="B17" s="198"/>
-      <c r="C17" s="198"/>
-      <c r="D17" s="198"/>
-      <c r="E17" s="199"/>
-      <c r="F17" s="199"/>
-      <c r="G17" s="213"/>
-      <c r="H17" s="211"/>
+      <c r="A17" s="212"/>
+      <c r="B17" s="217"/>
+      <c r="C17" s="217"/>
+      <c r="D17" s="217"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="218"/>
+      <c r="G17" s="220"/>
+      <c r="H17" s="235"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="237" t="s">
+      <c r="J17" s="203" t="s">
         <v>213</v>
       </c>
-      <c r="K17" s="237"/>
-      <c r="L17" s="237"/>
-      <c r="M17" s="237"/>
-      <c r="N17" s="236" t="s">
+      <c r="K17" s="203"/>
+      <c r="L17" s="203"/>
+      <c r="M17" s="203"/>
+      <c r="N17" s="169" t="s">
         <v>212</v>
       </c>
-      <c r="O17" s="236"/>
+      <c r="O17" s="169"/>
       <c r="P17" s="17"/>
-      <c r="Q17" s="236"/>
-      <c r="R17" s="236"/>
-      <c r="S17" s="236"/>
+      <c r="Q17" s="169"/>
+      <c r="R17" s="169"/>
+      <c r="S17" s="169"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
@@ -3557,29 +3557,29 @@
       <c r="X17" s="17"/>
     </row>
     <row r="18" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="193"/>
-      <c r="B18" s="198"/>
-      <c r="C18" s="198"/>
-      <c r="D18" s="198"/>
-      <c r="E18" s="199"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="214"/>
-      <c r="H18" s="211"/>
+      <c r="A18" s="212"/>
+      <c r="B18" s="217"/>
+      <c r="C18" s="217"/>
+      <c r="D18" s="217"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="221"/>
+      <c r="H18" s="235"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="172" t="s">
+      <c r="J18" s="204" t="s">
         <v>158</v>
       </c>
-      <c r="K18" s="172"/>
-      <c r="L18" s="172"/>
-      <c r="M18" s="172"/>
+      <c r="K18" s="204"/>
+      <c r="L18" s="204"/>
+      <c r="M18" s="204"/>
       <c r="N18" s="165">
         <v>500</v>
       </c>
-      <c r="O18" s="236"/>
+      <c r="O18" s="169"/>
       <c r="P18" s="17"/>
-      <c r="Q18" s="236"/>
-      <c r="R18" s="236"/>
-      <c r="S18" s="236"/>
+      <c r="Q18" s="169"/>
+      <c r="R18" s="169"/>
+      <c r="S18" s="169"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
@@ -3596,12 +3596,12 @@
       <c r="G19" s="128"/>
       <c r="H19" s="129"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="172" t="s">
+      <c r="J19" s="204" t="s">
         <v>157</v>
       </c>
-      <c r="K19" s="172"/>
-      <c r="L19" s="172"/>
-      <c r="M19" s="172"/>
+      <c r="K19" s="204"/>
+      <c r="L19" s="204"/>
+      <c r="M19" s="204"/>
       <c r="N19" s="165" t="s">
         <v>211</v>
       </c>
@@ -3651,12 +3651,12 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="175" t="s">
+      <c r="I21" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="176"/>
-      <c r="K21" s="176"/>
-      <c r="L21" s="176"/>
+      <c r="J21" s="208"/>
+      <c r="K21" s="208"/>
+      <c r="L21" s="208"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
@@ -3666,10 +3666,10 @@
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
       <c r="U21" s="147"/>
-      <c r="V21" s="200" t="s">
+      <c r="V21" s="224" t="s">
         <v>198</v>
       </c>
-      <c r="W21" s="178" t="s">
+      <c r="W21" s="189" t="s">
         <v>197</v>
       </c>
       <c r="X21" s="17"/>
@@ -3684,21 +3684,21 @@
       <c r="G22" s="17"/>
       <c r="H22" s="40"/>
       <c r="I22" s="146"/>
-      <c r="J22" s="173" t="s">
+      <c r="J22" s="186" t="s">
         <v>196</v>
       </c>
-      <c r="K22" s="173"/>
-      <c r="L22" s="173"/>
-      <c r="M22" s="177" t="s">
+      <c r="K22" s="186"/>
+      <c r="L22" s="186"/>
+      <c r="M22" s="211" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="177"/>
-      <c r="O22" s="177"/>
-      <c r="P22" s="177"/>
-      <c r="Q22" s="169" t="s">
+      <c r="N22" s="211"/>
+      <c r="O22" s="211"/>
+      <c r="P22" s="211"/>
+      <c r="Q22" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="R22" s="169"/>
+      <c r="R22" s="197"/>
       <c r="S22" s="159" t="s">
         <v>25</v>
       </c>
@@ -3708,8 +3708,8 @@
       <c r="U22" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="V22" s="201"/>
-      <c r="W22" s="179"/>
+      <c r="V22" s="225"/>
+      <c r="W22" s="190"/>
       <c r="X22" s="17"/>
     </row>
     <row r="23" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3736,8 +3736,8 @@
       <c r="S23" s="132"/>
       <c r="T23" s="132"/>
       <c r="U23" s="132"/>
-      <c r="V23" s="201"/>
-      <c r="W23" s="179"/>
+      <c r="V23" s="225"/>
+      <c r="W23" s="190"/>
       <c r="X23" s="17"/>
     </row>
     <row r="24" spans="1:24" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3749,12 +3749,12 @@
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="174" t="s">
+      <c r="I24" s="185" t="s">
         <v>181</v>
       </c>
-      <c r="J24" s="174"/>
-      <c r="K24" s="174"/>
-      <c r="L24" s="174"/>
+      <c r="J24" s="185"/>
+      <c r="K24" s="185"/>
+      <c r="L24" s="185"/>
       <c r="M24" s="17"/>
       <c r="N24" s="161" t="s">
         <v>26</v>
@@ -3774,8 +3774,8 @@
       <c r="U24" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="V24" s="201"/>
-      <c r="W24" s="179"/>
+      <c r="V24" s="225"/>
+      <c r="W24" s="190"/>
       <c r="X24" s="17"/>
     </row>
     <row r="25" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3787,12 +3787,12 @@
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="174" t="s">
+      <c r="I25" s="185" t="s">
         <v>182</v>
       </c>
-      <c r="J25" s="174"/>
-      <c r="K25" s="174"/>
-      <c r="L25" s="174"/>
+      <c r="J25" s="185"/>
+      <c r="K25" s="185"/>
+      <c r="L25" s="185"/>
       <c r="M25" s="17"/>
       <c r="N25" s="161" t="s">
         <v>26</v>
@@ -3812,8 +3812,8 @@
       <c r="U25" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="V25" s="201"/>
-      <c r="W25" s="179"/>
+      <c r="V25" s="225"/>
+      <c r="W25" s="190"/>
       <c r="X25" s="17"/>
     </row>
     <row r="26" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3825,12 +3825,12 @@
       <c r="F26" s="132"/>
       <c r="G26" s="40"/>
       <c r="H26" s="40"/>
-      <c r="I26" s="174" t="s">
+      <c r="I26" s="185" t="s">
         <v>183</v>
       </c>
-      <c r="J26" s="174"/>
-      <c r="K26" s="174"/>
-      <c r="L26" s="174"/>
+      <c r="J26" s="185"/>
+      <c r="K26" s="185"/>
+      <c r="L26" s="185"/>
       <c r="M26" s="17"/>
       <c r="N26" s="161" t="s">
         <v>26</v>
@@ -3850,8 +3850,8 @@
       <c r="U26" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="V26" s="202"/>
-      <c r="W26" s="179"/>
+      <c r="V26" s="226"/>
+      <c r="W26" s="190"/>
       <c r="X26" s="17"/>
     </row>
     <row r="27" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3863,21 +3863,21 @@
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="40"/>
-      <c r="I27" s="187"/>
-      <c r="J27" s="187"/>
-      <c r="K27" s="187"/>
-      <c r="L27" s="187"/>
-      <c r="M27" s="181"/>
-      <c r="N27" s="181"/>
-      <c r="O27" s="181"/>
-      <c r="P27" s="181"/>
-      <c r="Q27" s="170"/>
-      <c r="R27" s="170"/>
+      <c r="I27" s="206"/>
+      <c r="J27" s="206"/>
+      <c r="K27" s="206"/>
+      <c r="L27" s="206"/>
+      <c r="M27" s="192"/>
+      <c r="N27" s="192"/>
+      <c r="O27" s="192"/>
+      <c r="P27" s="192"/>
+      <c r="Q27" s="198"/>
+      <c r="R27" s="198"/>
       <c r="S27" s="164"/>
       <c r="T27" s="164"/>
       <c r="U27" s="164"/>
       <c r="V27" s="164"/>
-      <c r="W27" s="179"/>
+      <c r="W27" s="190"/>
       <c r="X27" s="17"/>
     </row>
     <row r="28" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -3890,21 +3890,21 @@
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
       <c r="I28" s="132"/>
-      <c r="J28" s="173" t="s">
+      <c r="J28" s="186" t="s">
         <v>180</v>
       </c>
-      <c r="K28" s="173"/>
-      <c r="L28" s="173"/>
+      <c r="K28" s="186"/>
+      <c r="L28" s="186"/>
       <c r="M28" s="17"/>
       <c r="N28" s="132" t="s">
         <v>26</v>
       </c>
       <c r="O28" s="132"/>
       <c r="P28" s="132"/>
-      <c r="Q28" s="170" t="s">
+      <c r="Q28" s="198" t="s">
         <v>27</v>
       </c>
-      <c r="R28" s="170"/>
+      <c r="R28" s="198"/>
       <c r="S28" s="164" t="s">
         <v>25</v>
       </c>
@@ -3915,16 +3915,16 @@
         <v>28</v>
       </c>
       <c r="V28" s="164"/>
-      <c r="W28" s="179"/>
+      <c r="W28" s="190"/>
       <c r="X28" s="17"/>
     </row>
     <row r="29" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="209"/>
-      <c r="D29" s="209"/>
-      <c r="E29" s="209"/>
-      <c r="F29" s="209"/>
+      <c r="C29" s="233"/>
+      <c r="D29" s="233"/>
+      <c r="E29" s="233"/>
+      <c r="F29" s="233"/>
       <c r="G29" s="137"/>
       <c r="H29" s="40"/>
       <c r="I29" s="17"/>
@@ -3941,7 +3941,7 @@
       <c r="T29" s="17"/>
       <c r="U29" s="17"/>
       <c r="V29" s="144"/>
-      <c r="W29" s="180"/>
+      <c r="W29" s="191"/>
       <c r="X29" s="17"/>
     </row>
     <row r="30" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3973,10 +3973,10 @@
     <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="209"/>
-      <c r="D31" s="209"/>
-      <c r="E31" s="209"/>
-      <c r="F31" s="209"/>
+      <c r="C31" s="233"/>
+      <c r="D31" s="233"/>
+      <c r="E31" s="233"/>
+      <c r="F31" s="233"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
@@ -4002,25 +4002,25 @@
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
-      <c r="F32" s="192" t="s">
+      <c r="F32" s="199" t="s">
         <v>184</v>
       </c>
-      <c r="G32" s="192"/>
-      <c r="H32" s="192"/>
-      <c r="I32" s="192"/>
-      <c r="J32" s="192"/>
-      <c r="K32" s="192"/>
-      <c r="L32" s="192"/>
+      <c r="G32" s="199"/>
+      <c r="H32" s="199"/>
+      <c r="I32" s="199"/>
+      <c r="J32" s="199"/>
+      <c r="K32" s="199"/>
+      <c r="L32" s="199"/>
       <c r="M32" s="164" t="s">
         <v>185</v>
       </c>
       <c r="N32" s="132"/>
       <c r="O32" s="132"/>
       <c r="P32" s="132"/>
-      <c r="Q32" s="169" t="s">
+      <c r="Q32" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="R32" s="169"/>
+      <c r="R32" s="197"/>
       <c r="S32" s="159" t="s">
         <v>25</v>
       </c>
@@ -4030,10 +4030,10 @@
       <c r="U32" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="V32" s="203" t="s">
+      <c r="V32" s="227" t="s">
         <v>195</v>
       </c>
-      <c r="W32" s="204"/>
+      <c r="W32" s="228"/>
       <c r="X32" s="17"/>
     </row>
     <row r="33" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4042,15 +4042,15 @@
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
-      <c r="F33" s="192" t="s">
+      <c r="F33" s="199" t="s">
         <v>184</v>
       </c>
-      <c r="G33" s="192"/>
-      <c r="H33" s="192"/>
-      <c r="I33" s="192"/>
-      <c r="J33" s="192"/>
-      <c r="K33" s="192"/>
-      <c r="L33" s="192"/>
+      <c r="G33" s="199"/>
+      <c r="H33" s="199"/>
+      <c r="I33" s="199"/>
+      <c r="J33" s="199"/>
+      <c r="K33" s="199"/>
+      <c r="L33" s="199"/>
       <c r="M33" s="164" t="s">
         <v>163</v>
       </c>
@@ -4059,10 +4059,10 @@
       </c>
       <c r="O33" s="132"/>
       <c r="P33" s="132"/>
-      <c r="Q33" s="169" t="s">
+      <c r="Q33" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="R33" s="169"/>
+      <c r="R33" s="197"/>
       <c r="S33" s="159" t="s">
         <v>25</v>
       </c>
@@ -4072,8 +4072,8 @@
       <c r="U33" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="V33" s="205"/>
-      <c r="W33" s="206"/>
+      <c r="V33" s="229"/>
+      <c r="W33" s="230"/>
       <c r="X33" s="17"/>
     </row>
     <row r="34" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4082,15 +4082,15 @@
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
-      <c r="F34" s="192" t="s">
+      <c r="F34" s="199" t="s">
         <v>187</v>
       </c>
-      <c r="G34" s="192"/>
-      <c r="H34" s="192"/>
-      <c r="I34" s="192"/>
-      <c r="J34" s="192"/>
-      <c r="K34" s="192"/>
-      <c r="L34" s="192"/>
+      <c r="G34" s="199"/>
+      <c r="H34" s="199"/>
+      <c r="I34" s="199"/>
+      <c r="J34" s="199"/>
+      <c r="K34" s="199"/>
+      <c r="L34" s="199"/>
       <c r="M34" s="164" t="s">
         <v>188</v>
       </c>
@@ -4099,10 +4099,10 @@
         <v>189</v>
       </c>
       <c r="P34" s="132"/>
-      <c r="Q34" s="169" t="s">
+      <c r="Q34" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="R34" s="169"/>
+      <c r="R34" s="197"/>
       <c r="S34" s="159" t="s">
         <v>25</v>
       </c>
@@ -4112,8 +4112,8 @@
       <c r="U34" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="V34" s="205"/>
-      <c r="W34" s="206"/>
+      <c r="V34" s="229"/>
+      <c r="W34" s="230"/>
       <c r="X34" s="17"/>
     </row>
     <row r="35" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4129,16 +4129,16 @@
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
-      <c r="M35" s="191" t="s">
+      <c r="M35" s="205" t="s">
         <v>190</v>
       </c>
-      <c r="N35" s="191"/>
-      <c r="O35" s="191"/>
-      <c r="P35" s="191"/>
-      <c r="Q35" s="169" t="s">
+      <c r="N35" s="205"/>
+      <c r="O35" s="205"/>
+      <c r="P35" s="205"/>
+      <c r="Q35" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="R35" s="169"/>
+      <c r="R35" s="197"/>
       <c r="S35" s="159" t="s">
         <v>25</v>
       </c>
@@ -4148,8 +4148,8 @@
       <c r="U35" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="V35" s="205"/>
-      <c r="W35" s="206"/>
+      <c r="V35" s="229"/>
+      <c r="W35" s="230"/>
       <c r="X35" s="17"/>
     </row>
     <row r="36" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -4165,46 +4165,46 @@
       <c r="J36" s="139"/>
       <c r="K36" s="139"/>
       <c r="L36" s="139"/>
-      <c r="M36" s="188"/>
-      <c r="N36" s="188"/>
+      <c r="M36" s="200"/>
+      <c r="N36" s="200"/>
       <c r="O36" s="132"/>
       <c r="P36" s="132"/>
-      <c r="Q36" s="169"/>
-      <c r="R36" s="169"/>
+      <c r="Q36" s="197"/>
+      <c r="R36" s="197"/>
       <c r="S36" s="159"/>
       <c r="T36" s="159"/>
       <c r="U36" s="160"/>
-      <c r="V36" s="205"/>
-      <c r="W36" s="206"/>
+      <c r="V36" s="229"/>
+      <c r="W36" s="230"/>
       <c r="X36" s="17"/>
     </row>
     <row r="37" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="189" t="s">
+      <c r="D37" s="201" t="s">
         <v>191</v>
       </c>
-      <c r="E37" s="189"/>
-      <c r="F37" s="189"/>
-      <c r="G37" s="189"/>
-      <c r="H37" s="189"/>
-      <c r="I37" s="189"/>
-      <c r="J37" s="189"/>
-      <c r="K37" s="189"/>
-      <c r="L37" s="190" t="s">
+      <c r="E37" s="201"/>
+      <c r="F37" s="201"/>
+      <c r="G37" s="201"/>
+      <c r="H37" s="201"/>
+      <c r="I37" s="201"/>
+      <c r="J37" s="201"/>
+      <c r="K37" s="201"/>
+      <c r="L37" s="202" t="s">
         <v>192</v>
       </c>
-      <c r="M37" s="190"/>
-      <c r="N37" s="190"/>
+      <c r="M37" s="202"/>
+      <c r="N37" s="202"/>
       <c r="O37" s="132" t="s">
         <v>189</v>
       </c>
       <c r="P37" s="132"/>
-      <c r="Q37" s="169" t="s">
+      <c r="Q37" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="R37" s="169"/>
+      <c r="R37" s="197"/>
       <c r="S37" s="159" t="s">
         <v>25</v>
       </c>
@@ -4214,8 +4214,8 @@
       <c r="U37" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="V37" s="207"/>
-      <c r="W37" s="208"/>
+      <c r="V37" s="231"/>
+      <c r="W37" s="232"/>
       <c r="X37" s="17"/>
     </row>
     <row r="38" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4324,12 +4324,51 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="V32:W37"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="E12:E18"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C18"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="F32:L32"/>
+    <mergeCell ref="F34:L34"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="F12:F18"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="F33:L33"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="M35:P35"/>
     <mergeCell ref="W21:W29"/>
     <mergeCell ref="M27:P27"/>
     <mergeCell ref="I2:N2"/>
@@ -4340,57 +4379,18 @@
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="Q28:R28"/>
     <mergeCell ref="I25:L25"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="F33:L33"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="L37:N37"/>
     <mergeCell ref="J16:M16"/>
     <mergeCell ref="J17:M17"/>
     <mergeCell ref="J18:M18"/>
     <mergeCell ref="J19:M19"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="F32:L32"/>
-    <mergeCell ref="F34:L34"/>
-    <mergeCell ref="L7:M7"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="E12:E18"/>
-    <mergeCell ref="F12:F18"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C18"/>
     <mergeCell ref="V21:V26"/>
-    <mergeCell ref="V32:W37"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0"/>
@@ -4429,21 +4429,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="55.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="236" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
-      <c r="M1" s="218"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="237"/>
+      <c r="L1" s="237"/>
+      <c r="M1" s="238"/>
     </row>
     <row r="2" spans="1:13" ht="184.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="21" t="s">
@@ -4978,70 +4978,70 @@
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
-      <c r="B2" s="219" t="s">
+      <c r="B2" s="239" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
-      <c r="L2" s="219"/>
-      <c r="M2" s="219"/>
-      <c r="N2" s="219"/>
-      <c r="O2" s="219"/>
-      <c r="P2" s="219"/>
-      <c r="Q2" s="219"/>
-      <c r="R2" s="219"/>
-      <c r="S2" s="219"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="239"/>
+      <c r="L2" s="239"/>
+      <c r="M2" s="239"/>
+      <c r="N2" s="239"/>
+      <c r="O2" s="239"/>
+      <c r="P2" s="239"/>
+      <c r="Q2" s="239"/>
+      <c r="R2" s="239"/>
+      <c r="S2" s="239"/>
       <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
-      <c r="B3" s="219"/>
-      <c r="C3" s="219"/>
-      <c r="D3" s="219"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="219"/>
-      <c r="G3" s="219"/>
-      <c r="H3" s="219"/>
-      <c r="I3" s="219"/>
-      <c r="J3" s="219"/>
-      <c r="K3" s="219"/>
-      <c r="L3" s="219"/>
-      <c r="M3" s="219"/>
-      <c r="N3" s="219"/>
-      <c r="O3" s="219"/>
-      <c r="P3" s="219"/>
-      <c r="Q3" s="219"/>
-      <c r="R3" s="219"/>
-      <c r="S3" s="219"/>
+      <c r="B3" s="239"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="239"/>
+      <c r="G3" s="239"/>
+      <c r="H3" s="239"/>
+      <c r="I3" s="239"/>
+      <c r="J3" s="239"/>
+      <c r="K3" s="239"/>
+      <c r="L3" s="239"/>
+      <c r="M3" s="239"/>
+      <c r="N3" s="239"/>
+      <c r="O3" s="239"/>
+      <c r="P3" s="239"/>
+      <c r="Q3" s="239"/>
+      <c r="R3" s="239"/>
+      <c r="S3" s="239"/>
       <c r="T3" s="16"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
-      <c r="B4" s="219"/>
-      <c r="C4" s="219"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="219"/>
-      <c r="I4" s="219"/>
-      <c r="J4" s="219"/>
-      <c r="K4" s="219"/>
-      <c r="L4" s="219"/>
-      <c r="M4" s="219"/>
-      <c r="N4" s="219"/>
-      <c r="O4" s="219"/>
-      <c r="P4" s="219"/>
-      <c r="Q4" s="219"/>
-      <c r="R4" s="219"/>
-      <c r="S4" s="219"/>
+      <c r="B4" s="239"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="239"/>
+      <c r="I4" s="239"/>
+      <c r="J4" s="239"/>
+      <c r="K4" s="239"/>
+      <c r="L4" s="239"/>
+      <c r="M4" s="239"/>
+      <c r="N4" s="239"/>
+      <c r="O4" s="239"/>
+      <c r="P4" s="239"/>
+      <c r="Q4" s="239"/>
+      <c r="R4" s="239"/>
+      <c r="S4" s="239"/>
       <c r="T4" s="16"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -5687,11 +5687,11 @@
       <c r="F1" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="220" t="s">
+      <c r="G1" s="240" t="s">
         <v>156</v>
       </c>
-      <c r="H1" s="221"/>
-      <c r="I1" s="222"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="242"/>
       <c r="J1" s="114" t="s">
         <v>149</v>
       </c>
@@ -6270,8 +6270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20:Q20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6286,26 +6286,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="271"/>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="270"/>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
-      <c r="N1" s="270"/>
-      <c r="O1" s="270"/>
-      <c r="P1" s="270"/>
-      <c r="Q1" s="270"/>
-      <c r="R1" s="270"/>
-      <c r="S1" s="270"/>
-      <c r="T1" s="269"/>
+      <c r="A1" s="184"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
+      <c r="O1" s="183"/>
+      <c r="P1" s="183"/>
+      <c r="Q1" s="183"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="183"/>
+      <c r="T1" s="182"/>
     </row>
     <row r="2" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -6314,12 +6314,12 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="268" t="s">
+      <c r="G2" s="256" t="s">
         <v>161</v>
       </c>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="267"/>
+      <c r="H2" s="257"/>
+      <c r="I2" s="257"/>
+      <c r="J2" s="257"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
@@ -6332,28 +6332,28 @@
       <c r="T2" s="10"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="266" t="s">
+      <c r="A3" s="254" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="265"/>
-      <c r="C3" s="265"/>
-      <c r="D3" s="265"/>
-      <c r="E3" s="265"/>
-      <c r="F3" s="265"/>
-      <c r="G3" s="265"/>
-      <c r="H3" s="265"/>
-      <c r="I3" s="265"/>
-      <c r="J3" s="265"/>
-      <c r="K3" s="177" t="s">
+      <c r="B3" s="255"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="255"/>
+      <c r="I3" s="255"/>
+      <c r="J3" s="255"/>
+      <c r="K3" s="211" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="177"/>
-      <c r="M3" s="177"/>
-      <c r="N3" s="177"/>
-      <c r="O3" s="169" t="s">
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="211"/>
+      <c r="O3" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="169"/>
+      <c r="P3" s="197"/>
       <c r="Q3" s="159" t="s">
         <v>25</v>
       </c>
@@ -6366,25 +6366,25 @@
       <c r="T3" s="10"/>
     </row>
     <row r="4" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="264"/>
-      <c r="B4" s="263"/>
-      <c r="C4" s="263"/>
-      <c r="D4" s="263"/>
-      <c r="E4" s="263"/>
-      <c r="F4" s="263"/>
-      <c r="G4" s="263"/>
-      <c r="H4" s="263"/>
-      <c r="I4" s="263"/>
-      <c r="J4" s="263"/>
-      <c r="K4" s="263"/>
-      <c r="L4" s="263"/>
-      <c r="M4" s="263"/>
-      <c r="N4" s="263"/>
-      <c r="O4" s="263"/>
-      <c r="P4" s="263"/>
-      <c r="Q4" s="263"/>
-      <c r="R4" s="263"/>
-      <c r="S4" s="263"/>
+      <c r="A4" s="181"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="180"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="180"/>
+      <c r="P4" s="180"/>
+      <c r="Q4" s="180"/>
+      <c r="R4" s="180"/>
+      <c r="S4" s="180"/>
       <c r="T4" s="10"/>
     </row>
     <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
@@ -6410,11 +6410,11 @@
       <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="262" t="s">
-        <v>235</v>
-      </c>
-      <c r="B6" s="261"/>
-      <c r="C6" s="261"/>
+      <c r="A6" s="243" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="244"/>
+      <c r="C6" s="244"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -6434,11 +6434,11 @@
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="262" t="s">
-        <v>234</v>
-      </c>
-      <c r="B7" s="261"/>
-      <c r="C7" s="261"/>
+      <c r="A7" s="243" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="244"/>
+      <c r="C7" s="244"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -6458,11 +6458,11 @@
       <c r="T7" s="10"/>
     </row>
     <row r="8" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="262" t="s">
-        <v>233</v>
-      </c>
-      <c r="B8" s="261"/>
-      <c r="C8" s="261"/>
+      <c r="A8" s="243" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" s="244"/>
+      <c r="C8" s="244"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -6552,20 +6552,20 @@
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="260" t="s">
-        <v>232</v>
-      </c>
-      <c r="F12" s="259"/>
-      <c r="G12" s="259"/>
-      <c r="H12" s="259"/>
-      <c r="I12" s="259"/>
-      <c r="J12" s="259"/>
-      <c r="K12" s="259"/>
-      <c r="L12" s="259"/>
-      <c r="M12" s="259"/>
-      <c r="N12" s="259"/>
-      <c r="O12" s="259"/>
-      <c r="P12" s="259"/>
+      <c r="E12" s="252" t="s">
+        <v>231</v>
+      </c>
+      <c r="F12" s="253"/>
+      <c r="G12" s="253"/>
+      <c r="H12" s="253"/>
+      <c r="I12" s="253"/>
+      <c r="J12" s="253"/>
+      <c r="K12" s="253"/>
+      <c r="L12" s="253"/>
+      <c r="M12" s="253"/>
+      <c r="N12" s="253"/>
+      <c r="O12" s="253"/>
+      <c r="P12" s="253"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6576,18 +6576,18 @@
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="259"/>
-      <c r="F13" s="259"/>
-      <c r="G13" s="259"/>
-      <c r="H13" s="259"/>
-      <c r="I13" s="259"/>
-      <c r="J13" s="259"/>
-      <c r="K13" s="259"/>
-      <c r="L13" s="259"/>
-      <c r="M13" s="259"/>
-      <c r="N13" s="259"/>
-      <c r="O13" s="259"/>
-      <c r="P13" s="259"/>
+      <c r="E13" s="253"/>
+      <c r="F13" s="253"/>
+      <c r="G13" s="253"/>
+      <c r="H13" s="253"/>
+      <c r="I13" s="253"/>
+      <c r="J13" s="253"/>
+      <c r="K13" s="253"/>
+      <c r="L13" s="253"/>
+      <c r="M13" s="253"/>
+      <c r="N13" s="253"/>
+      <c r="O13" s="253"/>
+      <c r="P13" s="253"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
@@ -6598,18 +6598,18 @@
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="259"/>
-      <c r="F14" s="259"/>
-      <c r="G14" s="259"/>
-      <c r="H14" s="259"/>
-      <c r="I14" s="259"/>
-      <c r="J14" s="259"/>
-      <c r="K14" s="259"/>
-      <c r="L14" s="259"/>
-      <c r="M14" s="259"/>
-      <c r="N14" s="259"/>
-      <c r="O14" s="259"/>
-      <c r="P14" s="259"/>
+      <c r="E14" s="253"/>
+      <c r="F14" s="253"/>
+      <c r="G14" s="253"/>
+      <c r="H14" s="253"/>
+      <c r="I14" s="253"/>
+      <c r="J14" s="253"/>
+      <c r="K14" s="253"/>
+      <c r="L14" s="253"/>
+      <c r="M14" s="253"/>
+      <c r="N14" s="253"/>
+      <c r="O14" s="253"/>
+      <c r="P14" s="253"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
@@ -6620,18 +6620,18 @@
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="258"/>
-      <c r="F15" s="258"/>
-      <c r="G15" s="258"/>
-      <c r="H15" s="258"/>
-      <c r="I15" s="258"/>
-      <c r="J15" s="258"/>
-      <c r="K15" s="258"/>
-      <c r="L15" s="258"/>
-      <c r="M15" s="258"/>
-      <c r="N15" s="258"/>
-      <c r="O15" s="258"/>
-      <c r="P15" s="258"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="179"/>
+      <c r="K15" s="179"/>
+      <c r="L15" s="179"/>
+      <c r="M15" s="179"/>
+      <c r="N15" s="179"/>
+      <c r="O15" s="179"/>
+      <c r="P15" s="179"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
@@ -6643,23 +6643,23 @@
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="237" t="s">
-        <v>231</v>
-      </c>
-      <c r="G16" s="257"/>
-      <c r="H16" s="257"/>
-      <c r="I16" s="257"/>
-      <c r="J16" s="256" t="str">
+      <c r="F16" s="203" t="s">
+        <v>230</v>
+      </c>
+      <c r="G16" s="248"/>
+      <c r="H16" s="248"/>
+      <c r="I16" s="248"/>
+      <c r="J16" s="247" t="str">
         <f>'лист титульный КД'!N12</f>
         <v>Иванов И.И</v>
       </c>
-      <c r="K16" s="256"/>
-      <c r="L16" s="256"/>
-      <c r="M16" s="256"/>
-      <c r="N16" s="256"/>
-      <c r="O16" s="256"/>
-      <c r="P16" s="256"/>
-      <c r="Q16" s="256"/>
+      <c r="K16" s="247"/>
+      <c r="L16" s="247"/>
+      <c r="M16" s="247"/>
+      <c r="N16" s="247"/>
+      <c r="O16" s="247"/>
+      <c r="P16" s="247"/>
+      <c r="Q16" s="247"/>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
       <c r="T16" s="10"/>
@@ -6670,23 +6670,23 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="237" t="s">
-        <v>230</v>
-      </c>
-      <c r="G17" s="257"/>
-      <c r="H17" s="257"/>
-      <c r="I17" s="257"/>
-      <c r="J17" s="256" t="str">
+      <c r="F17" s="203" t="s">
+        <v>229</v>
+      </c>
+      <c r="G17" s="248"/>
+      <c r="H17" s="248"/>
+      <c r="I17" s="248"/>
+      <c r="J17" s="247" t="str">
         <f>'лист титульный КД'!N13</f>
         <v>Петров П.П.</v>
       </c>
-      <c r="K17" s="256"/>
-      <c r="L17" s="256"/>
-      <c r="M17" s="256"/>
-      <c r="N17" s="256"/>
-      <c r="O17" s="256"/>
-      <c r="P17" s="256"/>
-      <c r="Q17" s="256"/>
+      <c r="K17" s="247"/>
+      <c r="L17" s="247"/>
+      <c r="M17" s="247"/>
+      <c r="N17" s="247"/>
+      <c r="O17" s="247"/>
+      <c r="P17" s="247"/>
+      <c r="Q17" s="247"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="10"/>
@@ -6697,23 +6697,23 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="237" t="s">
-        <v>229</v>
-      </c>
-      <c r="G18" s="257"/>
-      <c r="H18" s="257"/>
-      <c r="I18" s="257"/>
-      <c r="J18" s="256" t="str">
+      <c r="F18" s="203" t="s">
+        <v>228</v>
+      </c>
+      <c r="G18" s="248"/>
+      <c r="H18" s="248"/>
+      <c r="I18" s="248"/>
+      <c r="J18" s="247" t="str">
         <f>'лист титульный КД'!N14</f>
         <v>г. Москва, ул. Нарвская, д.2</v>
       </c>
-      <c r="K18" s="256"/>
-      <c r="L18" s="256"/>
-      <c r="M18" s="256"/>
-      <c r="N18" s="256"/>
-      <c r="O18" s="256"/>
-      <c r="P18" s="256"/>
-      <c r="Q18" s="256"/>
+      <c r="K18" s="247"/>
+      <c r="L18" s="247"/>
+      <c r="M18" s="247"/>
+      <c r="N18" s="247"/>
+      <c r="O18" s="247"/>
+      <c r="P18" s="247"/>
+      <c r="Q18" s="247"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="10"/>
@@ -6724,23 +6724,23 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="237" t="s">
-        <v>228</v>
-      </c>
-      <c r="G19" s="257"/>
-      <c r="H19" s="257"/>
-      <c r="I19" s="257"/>
-      <c r="J19" s="256" t="str">
+      <c r="F19" s="203" t="s">
+        <v>227</v>
+      </c>
+      <c r="G19" s="248"/>
+      <c r="H19" s="248"/>
+      <c r="I19" s="248"/>
+      <c r="J19" s="247" t="str">
         <f>'лист титульный КД'!N15</f>
         <v>восьмой</v>
       </c>
-      <c r="K19" s="256"/>
-      <c r="L19" s="256"/>
-      <c r="M19" s="256"/>
-      <c r="N19" s="256"/>
-      <c r="O19" s="256"/>
-      <c r="P19" s="256"/>
-      <c r="Q19" s="256"/>
+      <c r="K19" s="247"/>
+      <c r="L19" s="247"/>
+      <c r="M19" s="247"/>
+      <c r="N19" s="247"/>
+      <c r="O19" s="247"/>
+      <c r="P19" s="247"/>
+      <c r="Q19" s="247"/>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
       <c r="T19" s="10"/>
@@ -6751,23 +6751,23 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="11"/>
-      <c r="F20" s="237" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="257"/>
-      <c r="H20" s="257"/>
-      <c r="I20" s="257"/>
-      <c r="J20" s="256" t="str">
+      <c r="F20" s="203" t="s">
+        <v>226</v>
+      </c>
+      <c r="G20" s="248"/>
+      <c r="H20" s="248"/>
+      <c r="I20" s="248"/>
+      <c r="J20" s="247" t="str">
         <f>'лист титульный КД'!N16</f>
         <v>кухня</v>
       </c>
-      <c r="K20" s="256"/>
-      <c r="L20" s="256"/>
-      <c r="M20" s="256"/>
-      <c r="N20" s="256"/>
-      <c r="O20" s="256"/>
-      <c r="P20" s="256"/>
-      <c r="Q20" s="256"/>
+      <c r="K20" s="247"/>
+      <c r="L20" s="247"/>
+      <c r="M20" s="247"/>
+      <c r="N20" s="247"/>
+      <c r="O20" s="247"/>
+      <c r="P20" s="247"/>
+      <c r="Q20" s="247"/>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
       <c r="T20" s="10"/>
@@ -6778,23 +6778,23 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="11"/>
-      <c r="F21" s="237" t="s">
-        <v>226</v>
-      </c>
-      <c r="G21" s="257"/>
-      <c r="H21" s="257"/>
-      <c r="I21" s="257"/>
-      <c r="J21" s="256" t="str">
+      <c r="F21" s="203" t="s">
+        <v>225</v>
+      </c>
+      <c r="G21" s="248"/>
+      <c r="H21" s="248"/>
+      <c r="I21" s="248"/>
+      <c r="J21" s="247" t="str">
         <f>'лист титульный КД'!N17</f>
         <v>гарнитур кухонный, дверной блок</v>
       </c>
-      <c r="K21" s="256"/>
-      <c r="L21" s="256"/>
-      <c r="M21" s="256"/>
-      <c r="N21" s="256"/>
-      <c r="O21" s="256"/>
-      <c r="P21" s="256"/>
-      <c r="Q21" s="256"/>
+      <c r="K21" s="247"/>
+      <c r="L21" s="247"/>
+      <c r="M21" s="247"/>
+      <c r="N21" s="247"/>
+      <c r="O21" s="247"/>
+      <c r="P21" s="247"/>
+      <c r="Q21" s="247"/>
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
       <c r="T21" s="10"/>
@@ -6805,23 +6805,23 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="237" t="s">
-        <v>225</v>
-      </c>
-      <c r="G22" s="257"/>
-      <c r="H22" s="257"/>
-      <c r="I22" s="257"/>
-      <c r="J22" s="256">
+      <c r="F22" s="203" t="s">
+        <v>224</v>
+      </c>
+      <c r="G22" s="248"/>
+      <c r="H22" s="248"/>
+      <c r="I22" s="248"/>
+      <c r="J22" s="247">
         <f>'лист титульный КД'!N18</f>
         <v>500</v>
       </c>
-      <c r="K22" s="256"/>
-      <c r="L22" s="256"/>
-      <c r="M22" s="256"/>
-      <c r="N22" s="256"/>
-      <c r="O22" s="256"/>
-      <c r="P22" s="256"/>
-      <c r="Q22" s="256"/>
+      <c r="K22" s="247"/>
+      <c r="L22" s="247"/>
+      <c r="M22" s="247"/>
+      <c r="N22" s="247"/>
+      <c r="O22" s="247"/>
+      <c r="P22" s="247"/>
+      <c r="Q22" s="247"/>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
       <c r="T22" s="10"/>
@@ -6832,23 +6832,23 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="G23" s="257"/>
-      <c r="H23" s="257"/>
-      <c r="I23" s="257"/>
-      <c r="J23" s="256" t="str">
+      <c r="F23" s="203" t="s">
+        <v>223</v>
+      </c>
+      <c r="G23" s="248"/>
+      <c r="H23" s="248"/>
+      <c r="I23" s="248"/>
+      <c r="J23" s="247" t="str">
         <f>'лист титульный КД'!N19</f>
         <v>1-15,16</v>
       </c>
-      <c r="K23" s="256"/>
-      <c r="L23" s="256"/>
-      <c r="M23" s="256"/>
-      <c r="N23" s="256"/>
-      <c r="O23" s="256"/>
-      <c r="P23" s="256"/>
-      <c r="Q23" s="256"/>
+      <c r="K23" s="247"/>
+      <c r="L23" s="247"/>
+      <c r="M23" s="247"/>
+      <c r="N23" s="247"/>
+      <c r="O23" s="247"/>
+      <c r="P23" s="247"/>
+      <c r="Q23" s="247"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
       <c r="T23" s="10"/>
@@ -7036,12 +7036,12 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="254" t="s">
+      <c r="G32" s="245" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="252"/>
-      <c r="I32" s="252"/>
-      <c r="J32" s="252"/>
+      <c r="H32" s="246"/>
+      <c r="I32" s="246"/>
+      <c r="J32" s="246"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
@@ -7053,39 +7053,39 @@
       <c r="S32" s="161"/>
       <c r="T32" s="10"/>
     </row>
-    <row r="33" spans="1:20" s="246" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="255" t="s">
-        <v>223</v>
-      </c>
-      <c r="B33" s="252"/>
-      <c r="C33" s="252"/>
-      <c r="D33" s="252"/>
-      <c r="E33" s="252"/>
-      <c r="F33" s="252"/>
-      <c r="G33" s="252"/>
-      <c r="H33" s="252"/>
-      <c r="I33" s="252"/>
-      <c r="J33" s="252"/>
-      <c r="K33" s="251" t="s">
+    <row r="33" spans="1:20" s="175" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="258" t="s">
+        <v>235</v>
+      </c>
+      <c r="B33" s="246"/>
+      <c r="C33" s="246"/>
+      <c r="D33" s="246"/>
+      <c r="E33" s="246"/>
+      <c r="F33" s="246"/>
+      <c r="G33" s="246"/>
+      <c r="H33" s="246"/>
+      <c r="I33" s="246"/>
+      <c r="J33" s="246"/>
+      <c r="K33" s="250" t="s">
         <v>26</v>
       </c>
-      <c r="L33" s="251"/>
-      <c r="M33" s="251"/>
-      <c r="N33" s="251"/>
-      <c r="O33" s="250" t="s">
+      <c r="L33" s="250"/>
+      <c r="M33" s="250"/>
+      <c r="N33" s="250"/>
+      <c r="O33" s="251" t="s">
         <v>27</v>
       </c>
-      <c r="P33" s="250"/>
-      <c r="Q33" s="249" t="s">
+      <c r="P33" s="251"/>
+      <c r="Q33" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="R33" s="249" t="s">
+      <c r="R33" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="S33" s="248" t="s">
+      <c r="S33" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="T33" s="247"/>
+      <c r="T33" s="176"/>
     </row>
     <row r="34" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
@@ -7116,12 +7116,12 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="254" t="s">
+      <c r="G35" s="245" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="252"/>
-      <c r="I35" s="252"/>
-      <c r="J35" s="252"/>
+      <c r="H35" s="246"/>
+      <c r="I35" s="246"/>
+      <c r="J35" s="246"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
@@ -7133,73 +7133,73 @@
       <c r="S35" s="161"/>
       <c r="T35" s="10"/>
     </row>
-    <row r="36" spans="1:20" s="246" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="253" t="s">
+    <row r="36" spans="1:20" s="175" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="249" t="s">
         <v>222</v>
       </c>
-      <c r="B36" s="252"/>
-      <c r="C36" s="252"/>
-      <c r="D36" s="252"/>
-      <c r="E36" s="252"/>
-      <c r="F36" s="252"/>
-      <c r="G36" s="252"/>
-      <c r="H36" s="252"/>
-      <c r="I36" s="252"/>
-      <c r="J36" s="252"/>
-      <c r="K36" s="251" t="s">
+      <c r="B36" s="246"/>
+      <c r="C36" s="246"/>
+      <c r="D36" s="246"/>
+      <c r="E36" s="246"/>
+      <c r="F36" s="246"/>
+      <c r="G36" s="246"/>
+      <c r="H36" s="246"/>
+      <c r="I36" s="246"/>
+      <c r="J36" s="246"/>
+      <c r="K36" s="250" t="s">
         <v>26</v>
       </c>
-      <c r="L36" s="251"/>
-      <c r="M36" s="251"/>
-      <c r="N36" s="251"/>
-      <c r="O36" s="250" t="s">
+      <c r="L36" s="250"/>
+      <c r="M36" s="250"/>
+      <c r="N36" s="250"/>
+      <c r="O36" s="251" t="s">
         <v>27</v>
       </c>
-      <c r="P36" s="250"/>
-      <c r="Q36" s="249" t="s">
+      <c r="P36" s="251"/>
+      <c r="Q36" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="R36" s="249" t="s">
+      <c r="R36" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="S36" s="248" t="s">
+      <c r="S36" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="T36" s="247"/>
-    </row>
-    <row r="37" spans="1:20" s="246" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="253" t="s">
+      <c r="T36" s="176"/>
+    </row>
+    <row r="37" spans="1:20" s="175" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="249" t="s">
         <v>221</v>
       </c>
-      <c r="B37" s="252"/>
-      <c r="C37" s="252"/>
-      <c r="D37" s="252"/>
-      <c r="E37" s="252"/>
-      <c r="F37" s="252"/>
-      <c r="G37" s="252"/>
-      <c r="H37" s="252"/>
-      <c r="I37" s="252"/>
-      <c r="J37" s="252"/>
-      <c r="K37" s="251" t="s">
+      <c r="B37" s="246"/>
+      <c r="C37" s="246"/>
+      <c r="D37" s="246"/>
+      <c r="E37" s="246"/>
+      <c r="F37" s="246"/>
+      <c r="G37" s="246"/>
+      <c r="H37" s="246"/>
+      <c r="I37" s="246"/>
+      <c r="J37" s="246"/>
+      <c r="K37" s="250" t="s">
         <v>26</v>
       </c>
-      <c r="L37" s="251"/>
-      <c r="M37" s="251"/>
-      <c r="N37" s="251"/>
-      <c r="O37" s="250" t="s">
+      <c r="L37" s="250"/>
+      <c r="M37" s="250"/>
+      <c r="N37" s="250"/>
+      <c r="O37" s="251" t="s">
         <v>27</v>
       </c>
-      <c r="P37" s="250"/>
-      <c r="Q37" s="249" t="s">
+      <c r="P37" s="251"/>
+      <c r="Q37" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="R37" s="249" t="s">
+      <c r="R37" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="S37" s="248" t="s">
+      <c r="S37" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="T37" s="247"/>
+      <c r="T37" s="176"/>
     </row>
     <row r="38" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
@@ -7224,29 +7224,48 @@
       <c r="T38" s="10"/>
     </row>
     <row r="39" spans="1:20" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="245"/>
-      <c r="B39" s="244"/>
-      <c r="C39" s="244"/>
-      <c r="D39" s="244"/>
-      <c r="E39" s="244"/>
-      <c r="F39" s="244"/>
-      <c r="G39" s="244"/>
-      <c r="H39" s="244"/>
-      <c r="I39" s="244"/>
-      <c r="J39" s="244"/>
-      <c r="K39" s="244"/>
-      <c r="L39" s="244"/>
-      <c r="M39" s="244"/>
-      <c r="N39" s="244"/>
-      <c r="O39" s="244"/>
-      <c r="P39" s="244"/>
-      <c r="Q39" s="244"/>
-      <c r="R39" s="244"/>
-      <c r="S39" s="244"/>
-      <c r="T39" s="243"/>
+      <c r="A39" s="174"/>
+      <c r="B39" s="173"/>
+      <c r="C39" s="173"/>
+      <c r="D39" s="173"/>
+      <c r="E39" s="173"/>
+      <c r="F39" s="173"/>
+      <c r="G39" s="173"/>
+      <c r="H39" s="173"/>
+      <c r="I39" s="173"/>
+      <c r="J39" s="173"/>
+      <c r="K39" s="173"/>
+      <c r="L39" s="173"/>
+      <c r="M39" s="173"/>
+      <c r="N39" s="173"/>
+      <c r="O39" s="173"/>
+      <c r="P39" s="173"/>
+      <c r="Q39" s="173"/>
+      <c r="R39" s="173"/>
+      <c r="S39" s="173"/>
+      <c r="T39" s="172"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="O36:P36"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
@@ -7257,31 +7276,12 @@
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="F18:I18"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="O36:P36"/>
     <mergeCell ref="E12:P14"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="J16:Q16"/>
     <mergeCell ref="J18:Q18"/>
     <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="J22:Q22"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -7312,19 +7312,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="223" t="s">
+      <c r="A1" s="259" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="224"/>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="224"/>
-      <c r="K1" s="225"/>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="260"/>
+      <c r="J1" s="260"/>
+      <c r="K1" s="261"/>
     </row>
     <row r="2" spans="1:11" s="52" customFormat="1" ht="124.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="60" t="s">
@@ -7719,48 +7719,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="264" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="229"/>
-      <c r="L1" s="229"/>
-      <c r="M1" s="229"/>
-      <c r="N1" s="229"/>
-      <c r="O1" s="229"/>
-      <c r="P1" s="229"/>
-      <c r="Q1" s="229"/>
-      <c r="R1" s="229"/>
-      <c r="S1" s="230"/>
+      <c r="B1" s="265"/>
+      <c r="C1" s="265"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
+      <c r="I1" s="265"/>
+      <c r="J1" s="265"/>
+      <c r="K1" s="265"/>
+      <c r="L1" s="265"/>
+      <c r="M1" s="265"/>
+      <c r="N1" s="265"/>
+      <c r="O1" s="265"/>
+      <c r="P1" s="265"/>
+      <c r="Q1" s="265"/>
+      <c r="R1" s="265"/>
+      <c r="S1" s="266"/>
     </row>
     <row r="2" spans="1:19" s="93" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="267" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="231" t="s">
+      <c r="B2" s="267" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="231" t="s">
+      <c r="C2" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="231" t="s">
+      <c r="D2" s="267" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="231" t="s">
+      <c r="E2" s="267" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="231" t="s">
+      <c r="F2" s="267" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="231" t="s">
+      <c r="G2" s="267" t="s">
         <v>89</v>
       </c>
       <c r="H2" s="94" t="s">
@@ -7769,11 +7769,11 @@
       <c r="I2" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="J2" s="234" t="s">
+      <c r="J2" s="270" t="s">
         <v>132</v>
       </c>
-      <c r="K2" s="235"/>
-      <c r="L2" s="235"/>
+      <c r="K2" s="271"/>
+      <c r="L2" s="271"/>
       <c r="M2" s="94" t="s">
         <v>131</v>
       </c>
@@ -7797,13 +7797,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="83" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="232"/>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
+      <c r="A3" s="268"/>
+      <c r="B3" s="268"/>
+      <c r="C3" s="268"/>
+      <c r="D3" s="268"/>
+      <c r="E3" s="268"/>
+      <c r="F3" s="268"/>
+      <c r="G3" s="268"/>
       <c r="H3" s="89" t="s">
         <v>124</v>
       </c>
@@ -7842,24 +7842,24 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="83" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="232"/>
-      <c r="B4" s="232"/>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="232"/>
-      <c r="F4" s="232"/>
-      <c r="G4" s="232"/>
+      <c r="A4" s="268"/>
+      <c r="B4" s="268"/>
+      <c r="C4" s="268"/>
+      <c r="D4" s="268"/>
+      <c r="E4" s="268"/>
+      <c r="F4" s="268"/>
+      <c r="G4" s="268"/>
       <c r="H4" s="89" t="s">
         <v>116</v>
       </c>
       <c r="I4" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="J4" s="226" t="s">
+      <c r="J4" s="262" t="s">
         <v>114</v>
       </c>
-      <c r="K4" s="227"/>
-      <c r="L4" s="227"/>
+      <c r="K4" s="263"/>
+      <c r="L4" s="263"/>
       <c r="M4" s="90" t="s">
         <v>113</v>
       </c>
@@ -7883,24 +7883,24 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="83" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="233"/>
-      <c r="B5" s="233"/>
-      <c r="C5" s="233"/>
-      <c r="D5" s="233"/>
-      <c r="E5" s="233"/>
-      <c r="F5" s="233"/>
-      <c r="G5" s="233"/>
+      <c r="A5" s="269"/>
+      <c r="B5" s="269"/>
+      <c r="C5" s="269"/>
+      <c r="D5" s="269"/>
+      <c r="E5" s="269"/>
+      <c r="F5" s="269"/>
+      <c r="G5" s="269"/>
       <c r="H5" s="89" t="s">
         <v>106</v>
       </c>
       <c r="I5" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="J5" s="226" t="s">
+      <c r="J5" s="262" t="s">
         <v>104</v>
       </c>
-      <c r="K5" s="227"/>
-      <c r="L5" s="227"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="263"/>
       <c r="M5" s="88" t="s">
         <v>103</v>
       </c>
@@ -8677,21 +8677,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="223" t="s">
+      <c r="A1" s="259" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="224"/>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="224"/>
-      <c r="K1" s="224"/>
-      <c r="L1" s="224"/>
-      <c r="M1" s="225"/>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="260"/>
+      <c r="J1" s="260"/>
+      <c r="K1" s="260"/>
+      <c r="L1" s="260"/>
+      <c r="M1" s="261"/>
     </row>
     <row r="2" spans="1:13" s="52" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="103" t="s">

--- a/dist/files/xls/shablon-kd.xlsx
+++ b/dist/files/xls/shablon-kd.xlsx
@@ -24,12 +24,21 @@
     <definedName name="_FilterDatabase" localSheetId="6" hidden="1">'ВЕДОМОСТЬ МАТЕРИАЛОВ'!$A$2:$M$28</definedName>
     <definedName name="_FilterDatabase" localSheetId="5" hidden="1">'ВЕДОМОСТЬ СТЕКОЛ И ЗЕРКАЛ'!#REF!</definedName>
     <definedName name="_FilterDatabase" localSheetId="4" hidden="1">'ВЕДОМОСТЬ ФУРНИТУРЫ'!$A$2:$K$27</definedName>
+    <definedName name="address">'лист титульный КД'!$N$14</definedName>
+    <definedName name="agent">'лист титульный КД'!$N$13</definedName>
+    <definedName name="builder">'лист титульный КД'!$M$22</definedName>
+    <definedName name="client">'лист титульный КД'!$N$12</definedName>
+    <definedName name="complect">'лист титульный КД'!$N$17</definedName>
+    <definedName name="floor">'лист титульный КД'!$N$15</definedName>
+    <definedName name="order">'лист титульный КД'!$N$18</definedName>
     <definedName name="Print_Area" localSheetId="0">'лист титульный КД'!$A$2:$W$30</definedName>
     <definedName name="Print_Area" localSheetId="3">'ТИТУЛЬНЫЙ ЛИСТ ВПИ'!$A$1:$T$39</definedName>
+    <definedName name="product">'лист титульный КД'!$N$19</definedName>
+    <definedName name="room">'лист титульный КД'!$N$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'лист титульный КД'!$A$1:$W$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'спецификация конструкторская'!$A$1:$M$34</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2296,6 +2305,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2314,14 +2331,75 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2336,75 +2414,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2455,14 +2464,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2841,8 +2850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="AB37" sqref="AB37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B10" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2909,23 +2918,23 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="220" t="s">
+      <c r="I2" s="214" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="222"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="215"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="216"/>
       <c r="O2" s="111"/>
-      <c r="P2" s="223" t="s">
+      <c r="P2" s="217" t="s">
         <v>185</v>
       </c>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="224"/>
-      <c r="U2" s="224"/>
+      <c r="Q2" s="218"/>
+      <c r="R2" s="218"/>
+      <c r="S2" s="218"/>
+      <c r="T2" s="218"/>
+      <c r="U2" s="218"/>
       <c r="V2" s="157"/>
       <c r="W2" s="37"/>
       <c r="X2" s="12"/>
@@ -2946,10 +2955,10 @@
         <v>51</v>
       </c>
       <c r="K3" s="114"/>
-      <c r="L3" s="224" t="s">
+      <c r="L3" s="218" t="s">
         <v>138</v>
       </c>
-      <c r="M3" s="224"/>
+      <c r="M3" s="218"/>
       <c r="N3" s="115" t="s">
         <v>52</v>
       </c>
@@ -2961,10 +2970,10 @@
         <v>59</v>
       </c>
       <c r="R3" s="114"/>
-      <c r="S3" s="224" t="s">
+      <c r="S3" s="218" t="s">
         <v>61</v>
       </c>
-      <c r="T3" s="224"/>
+      <c r="T3" s="218"/>
       <c r="U3" s="145" t="s">
         <v>56</v>
       </c>
@@ -3171,7 +3180,7 @@
       <c r="X8" s="12"/>
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="194" t="s">
+      <c r="A9" s="198" t="s">
         <v>141</v>
       </c>
       <c r="B9" s="191" t="s">
@@ -3180,13 +3189,13 @@
       <c r="C9" s="190" t="s">
         <v>143</v>
       </c>
-      <c r="D9" s="195" t="s">
+      <c r="D9" s="199" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="195"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="195"/>
-      <c r="H9" s="198"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="199"/>
+      <c r="H9" s="202"/>
       <c r="I9" s="117"/>
       <c r="J9" s="118"/>
       <c r="K9" s="118"/>
@@ -3213,10 +3222,10 @@
       <c r="X9" s="12"/>
     </row>
     <row r="10" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="194"/>
+      <c r="A10" s="198"/>
       <c r="B10" s="191"/>
       <c r="C10" s="190"/>
-      <c r="D10" s="195" t="s">
+      <c r="D10" s="199" t="s">
         <v>145</v>
       </c>
       <c r="E10" s="188" t="s">
@@ -3249,10 +3258,10 @@
       <c r="X10" s="12"/>
     </row>
     <row r="11" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="194"/>
+      <c r="A11" s="198"/>
       <c r="B11" s="191"/>
       <c r="C11" s="190"/>
-      <c r="D11" s="195"/>
+      <c r="D11" s="199"/>
       <c r="E11" s="188"/>
       <c r="F11" s="189"/>
       <c r="G11" s="191"/>
@@ -3277,37 +3286,37 @@
       <c r="X11" s="12"/>
     </row>
     <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="193" t="s">
+      <c r="A12" s="197" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="196" t="s">
+      <c r="B12" s="200" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="196" t="s">
+      <c r="C12" s="200" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="196" t="s">
+      <c r="D12" s="200" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="197" t="s">
+      <c r="E12" s="201" t="s">
         <v>153</v>
       </c>
-      <c r="F12" s="197" t="s">
+      <c r="F12" s="201" t="s">
         <v>154</v>
       </c>
-      <c r="G12" s="209" t="s">
+      <c r="G12" s="203" t="s">
         <v>176</v>
       </c>
       <c r="H12" s="192" t="s">
         <v>155</v>
       </c>
       <c r="I12" s="158"/>
-      <c r="J12" s="205" t="s">
+      <c r="J12" s="228" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="205"/>
-      <c r="L12" s="205"/>
-      <c r="M12" s="205"/>
+      <c r="K12" s="228"/>
+      <c r="L12" s="228"/>
+      <c r="M12" s="228"/>
       <c r="N12" s="165" t="s">
         <v>196</v>
       </c>
@@ -3323,21 +3332,21 @@
       <c r="X12" s="12"/>
     </row>
     <row r="13" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="193"/>
-      <c r="B13" s="196"/>
-      <c r="C13" s="196"/>
-      <c r="D13" s="196"/>
-      <c r="E13" s="197"/>
-      <c r="F13" s="197"/>
-      <c r="G13" s="210"/>
+      <c r="A13" s="197"/>
+      <c r="B13" s="200"/>
+      <c r="C13" s="200"/>
+      <c r="D13" s="200"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="201"/>
+      <c r="G13" s="204"/>
       <c r="H13" s="192"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="206" t="s">
+      <c r="J13" s="229" t="s">
         <v>195</v>
       </c>
-      <c r="K13" s="206"/>
-      <c r="L13" s="206"/>
-      <c r="M13" s="206"/>
+      <c r="K13" s="229"/>
+      <c r="L13" s="229"/>
+      <c r="M13" s="229"/>
       <c r="N13" s="165" t="s">
         <v>194</v>
       </c>
@@ -3353,21 +3362,21 @@
       <c r="X13" s="12"/>
     </row>
     <row r="14" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="193"/>
-      <c r="B14" s="196"/>
-      <c r="C14" s="196"/>
-      <c r="D14" s="196"/>
-      <c r="E14" s="197"/>
-      <c r="F14" s="197"/>
-      <c r="G14" s="210"/>
+      <c r="A14" s="197"/>
+      <c r="B14" s="200"/>
+      <c r="C14" s="200"/>
+      <c r="D14" s="200"/>
+      <c r="E14" s="201"/>
+      <c r="F14" s="201"/>
+      <c r="G14" s="204"/>
       <c r="H14" s="192"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="208" t="s">
+      <c r="J14" s="220" t="s">
         <v>135</v>
       </c>
-      <c r="K14" s="208"/>
-      <c r="L14" s="208"/>
-      <c r="M14" s="208"/>
+      <c r="K14" s="220"/>
+      <c r="L14" s="220"/>
+      <c r="M14" s="220"/>
       <c r="N14" s="164" t="s">
         <v>170</v>
       </c>
@@ -3383,21 +3392,21 @@
       <c r="X14" s="12"/>
     </row>
     <row r="15" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="193"/>
-      <c r="B15" s="196"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="196"/>
-      <c r="E15" s="197"/>
-      <c r="F15" s="197"/>
-      <c r="G15" s="211"/>
+      <c r="A15" s="197"/>
+      <c r="B15" s="200"/>
+      <c r="C15" s="200"/>
+      <c r="D15" s="200"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="205"/>
       <c r="H15" s="192"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="208" t="s">
+      <c r="J15" s="220" t="s">
         <v>193</v>
       </c>
-      <c r="K15" s="208"/>
-      <c r="L15" s="208"/>
-      <c r="M15" s="208"/>
+      <c r="K15" s="220"/>
+      <c r="L15" s="220"/>
+      <c r="M15" s="220"/>
       <c r="N15" s="164" t="s">
         <v>192</v>
       </c>
@@ -3413,23 +3422,23 @@
       <c r="X15" s="12"/>
     </row>
     <row r="16" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="193"/>
-      <c r="B16" s="196"/>
-      <c r="C16" s="196"/>
-      <c r="D16" s="196"/>
-      <c r="E16" s="197"/>
-      <c r="F16" s="197"/>
-      <c r="G16" s="209" t="s">
+      <c r="A16" s="197"/>
+      <c r="B16" s="200"/>
+      <c r="C16" s="200"/>
+      <c r="D16" s="200"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="201"/>
+      <c r="G16" s="203" t="s">
         <v>175</v>
       </c>
       <c r="H16" s="192"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="208" t="s">
+      <c r="J16" s="220" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="208"/>
-      <c r="L16" s="208"/>
-      <c r="M16" s="208"/>
+      <c r="K16" s="220"/>
+      <c r="L16" s="220"/>
+      <c r="M16" s="220"/>
       <c r="N16" s="164" t="s">
         <v>190</v>
       </c>
@@ -3445,21 +3454,21 @@
       <c r="X16" s="12"/>
     </row>
     <row r="17" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="193"/>
-      <c r="B17" s="196"/>
-      <c r="C17" s="196"/>
-      <c r="D17" s="196"/>
-      <c r="E17" s="197"/>
-      <c r="F17" s="197"/>
-      <c r="G17" s="210"/>
+      <c r="A17" s="197"/>
+      <c r="B17" s="200"/>
+      <c r="C17" s="200"/>
+      <c r="D17" s="200"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="201"/>
+      <c r="G17" s="204"/>
       <c r="H17" s="192"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="208" t="s">
+      <c r="J17" s="220" t="s">
         <v>189</v>
       </c>
-      <c r="K17" s="208"/>
-      <c r="L17" s="208"/>
-      <c r="M17" s="208"/>
+      <c r="K17" s="220"/>
+      <c r="L17" s="220"/>
+      <c r="M17" s="220"/>
       <c r="N17" s="164" t="s">
         <v>188</v>
       </c>
@@ -3475,21 +3484,21 @@
       <c r="X17" s="12"/>
     </row>
     <row r="18" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="193"/>
-      <c r="B18" s="196"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="196"/>
-      <c r="E18" s="197"/>
-      <c r="F18" s="197"/>
-      <c r="G18" s="211"/>
+      <c r="A18" s="197"/>
+      <c r="B18" s="200"/>
+      <c r="C18" s="200"/>
+      <c r="D18" s="200"/>
+      <c r="E18" s="201"/>
+      <c r="F18" s="201"/>
+      <c r="G18" s="205"/>
       <c r="H18" s="192"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="226" t="s">
+      <c r="J18" s="221" t="s">
         <v>134</v>
       </c>
-      <c r="K18" s="226"/>
-      <c r="L18" s="226"/>
-      <c r="M18" s="226"/>
+      <c r="K18" s="221"/>
+      <c r="L18" s="221"/>
+      <c r="M18" s="221"/>
       <c r="N18" s="160">
         <v>500</v>
       </c>
@@ -3514,12 +3523,12 @@
       <c r="G19" s="123"/>
       <c r="H19" s="124"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="226" t="s">
+      <c r="J19" s="221" t="s">
         <v>133</v>
       </c>
-      <c r="K19" s="226"/>
-      <c r="L19" s="226"/>
-      <c r="M19" s="226"/>
+      <c r="K19" s="221"/>
+      <c r="L19" s="221"/>
+      <c r="M19" s="221"/>
       <c r="N19" s="160" t="s">
         <v>187</v>
       </c>
@@ -3569,12 +3578,12 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="203" t="s">
+      <c r="I21" s="226" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="204"/>
-      <c r="K21" s="204"/>
-      <c r="L21" s="204"/>
+      <c r="J21" s="227"/>
+      <c r="K21" s="227"/>
+      <c r="L21" s="227"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
@@ -3584,10 +3593,10 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="142"/>
-      <c r="V21" s="227" t="s">
+      <c r="V21" s="222" t="s">
         <v>174</v>
       </c>
-      <c r="W21" s="216" t="s">
+      <c r="W21" s="210" t="s">
         <v>173</v>
       </c>
       <c r="X21" s="12"/>
@@ -3602,21 +3611,21 @@
       <c r="G22" s="12"/>
       <c r="H22" s="35"/>
       <c r="I22" s="141"/>
-      <c r="J22" s="230" t="s">
+      <c r="J22" s="225" t="s">
         <v>172</v>
       </c>
-      <c r="K22" s="230"/>
-      <c r="L22" s="230"/>
-      <c r="M22" s="207" t="s">
+      <c r="K22" s="225"/>
+      <c r="L22" s="225"/>
+      <c r="M22" s="230" t="s">
         <v>16</v>
       </c>
-      <c r="N22" s="207"/>
-      <c r="O22" s="207"/>
-      <c r="P22" s="207"/>
-      <c r="Q22" s="199" t="s">
+      <c r="N22" s="230"/>
+      <c r="O22" s="230"/>
+      <c r="P22" s="230"/>
+      <c r="Q22" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="R22" s="199"/>
+      <c r="R22" s="193"/>
       <c r="S22" s="154" t="s">
         <v>15</v>
       </c>
@@ -3626,8 +3635,8 @@
       <c r="U22" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="V22" s="228"/>
-      <c r="W22" s="217"/>
+      <c r="V22" s="223"/>
+      <c r="W22" s="211"/>
       <c r="X22" s="12"/>
     </row>
     <row r="23" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3654,8 +3663,8 @@
       <c r="S23" s="127"/>
       <c r="T23" s="127"/>
       <c r="U23" s="127"/>
-      <c r="V23" s="228"/>
-      <c r="W23" s="217"/>
+      <c r="V23" s="223"/>
+      <c r="W23" s="211"/>
       <c r="X23" s="12"/>
     </row>
     <row r="24" spans="1:24" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3667,12 +3676,12 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="225" t="s">
+      <c r="I24" s="219" t="s">
         <v>157</v>
       </c>
-      <c r="J24" s="225"/>
-      <c r="K24" s="225"/>
-      <c r="L24" s="225"/>
+      <c r="J24" s="219"/>
+      <c r="K24" s="219"/>
+      <c r="L24" s="219"/>
       <c r="M24" s="12"/>
       <c r="N24" s="156" t="s">
         <v>16</v>
@@ -3692,8 +3701,8 @@
       <c r="U24" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="V24" s="228"/>
-      <c r="W24" s="217"/>
+      <c r="V24" s="223"/>
+      <c r="W24" s="211"/>
       <c r="X24" s="12"/>
     </row>
     <row r="25" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3705,12 +3714,12 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="225" t="s">
+      <c r="I25" s="219" t="s">
         <v>158</v>
       </c>
-      <c r="J25" s="225"/>
-      <c r="K25" s="225"/>
-      <c r="L25" s="225"/>
+      <c r="J25" s="219"/>
+      <c r="K25" s="219"/>
+      <c r="L25" s="219"/>
       <c r="M25" s="12"/>
       <c r="N25" s="156" t="s">
         <v>16</v>
@@ -3730,8 +3739,8 @@
       <c r="U25" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="V25" s="228"/>
-      <c r="W25" s="217"/>
+      <c r="V25" s="223"/>
+      <c r="W25" s="211"/>
       <c r="X25" s="12"/>
     </row>
     <row r="26" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3743,12 +3752,12 @@
       <c r="F26" s="127"/>
       <c r="G26" s="35"/>
       <c r="H26" s="35"/>
-      <c r="I26" s="225" t="s">
+      <c r="I26" s="219" t="s">
         <v>159</v>
       </c>
-      <c r="J26" s="225"/>
-      <c r="K26" s="225"/>
-      <c r="L26" s="225"/>
+      <c r="J26" s="219"/>
+      <c r="K26" s="219"/>
+      <c r="L26" s="219"/>
       <c r="M26" s="12"/>
       <c r="N26" s="156" t="s">
         <v>16</v>
@@ -3768,8 +3777,8 @@
       <c r="U26" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="V26" s="229"/>
-      <c r="W26" s="217"/>
+      <c r="V26" s="224"/>
+      <c r="W26" s="211"/>
       <c r="X26" s="12"/>
     </row>
     <row r="27" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3781,21 +3790,21 @@
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
       <c r="H27" s="35"/>
-      <c r="I27" s="202"/>
-      <c r="J27" s="202"/>
-      <c r="K27" s="202"/>
-      <c r="L27" s="202"/>
-      <c r="M27" s="219"/>
-      <c r="N27" s="219"/>
-      <c r="O27" s="219"/>
-      <c r="P27" s="219"/>
-      <c r="Q27" s="201"/>
-      <c r="R27" s="201"/>
+      <c r="I27" s="196"/>
+      <c r="J27" s="196"/>
+      <c r="K27" s="196"/>
+      <c r="L27" s="196"/>
+      <c r="M27" s="213"/>
+      <c r="N27" s="213"/>
+      <c r="O27" s="213"/>
+      <c r="P27" s="213"/>
+      <c r="Q27" s="195"/>
+      <c r="R27" s="195"/>
       <c r="S27" s="159"/>
       <c r="T27" s="159"/>
       <c r="U27" s="159"/>
       <c r="V27" s="159"/>
-      <c r="W27" s="217"/>
+      <c r="W27" s="211"/>
       <c r="X27" s="12"/>
     </row>
     <row r="28" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -3808,21 +3817,21 @@
       <c r="G28" s="35"/>
       <c r="H28" s="35"/>
       <c r="I28" s="127"/>
-      <c r="J28" s="230" t="s">
+      <c r="J28" s="225" t="s">
         <v>156</v>
       </c>
-      <c r="K28" s="230"/>
-      <c r="L28" s="230"/>
+      <c r="K28" s="225"/>
+      <c r="L28" s="225"/>
       <c r="M28" s="12"/>
       <c r="N28" s="127" t="s">
         <v>16</v>
       </c>
       <c r="O28" s="127"/>
       <c r="P28" s="127"/>
-      <c r="Q28" s="201" t="s">
+      <c r="Q28" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="R28" s="201"/>
+      <c r="R28" s="195"/>
       <c r="S28" s="159" t="s">
         <v>15</v>
       </c>
@@ -3833,7 +3842,7 @@
         <v>18</v>
       </c>
       <c r="V28" s="159"/>
-      <c r="W28" s="217"/>
+      <c r="W28" s="211"/>
       <c r="X28" s="12"/>
     </row>
     <row r="29" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3859,7 +3868,7 @@
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
       <c r="V29" s="139"/>
-      <c r="W29" s="218"/>
+      <c r="W29" s="212"/>
       <c r="X29" s="12"/>
     </row>
     <row r="30" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3920,25 +3929,25 @@
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="200" t="s">
+      <c r="F32" s="194" t="s">
         <v>160</v>
       </c>
-      <c r="G32" s="200"/>
-      <c r="H32" s="200"/>
-      <c r="I32" s="200"/>
-      <c r="J32" s="200"/>
-      <c r="K32" s="200"/>
-      <c r="L32" s="200"/>
+      <c r="G32" s="194"/>
+      <c r="H32" s="194"/>
+      <c r="I32" s="194"/>
+      <c r="J32" s="194"/>
+      <c r="K32" s="194"/>
+      <c r="L32" s="194"/>
       <c r="M32" s="159" t="s">
         <v>161</v>
       </c>
       <c r="N32" s="127"/>
       <c r="O32" s="127"/>
       <c r="P32" s="127"/>
-      <c r="Q32" s="199" t="s">
+      <c r="Q32" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="R32" s="199"/>
+      <c r="R32" s="193"/>
       <c r="S32" s="154" t="s">
         <v>15</v>
       </c>
@@ -3960,15 +3969,15 @@
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="200" t="s">
+      <c r="F33" s="194" t="s">
         <v>160</v>
       </c>
-      <c r="G33" s="200"/>
-      <c r="H33" s="200"/>
-      <c r="I33" s="200"/>
-      <c r="J33" s="200"/>
-      <c r="K33" s="200"/>
-      <c r="L33" s="200"/>
+      <c r="G33" s="194"/>
+      <c r="H33" s="194"/>
+      <c r="I33" s="194"/>
+      <c r="J33" s="194"/>
+      <c r="K33" s="194"/>
+      <c r="L33" s="194"/>
       <c r="M33" s="159" t="s">
         <v>139</v>
       </c>
@@ -3977,10 +3986,10 @@
       </c>
       <c r="O33" s="127"/>
       <c r="P33" s="127"/>
-      <c r="Q33" s="199" t="s">
+      <c r="Q33" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="R33" s="199"/>
+      <c r="R33" s="193"/>
       <c r="S33" s="154" t="s">
         <v>15</v>
       </c>
@@ -4000,15 +4009,15 @@
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="200" t="s">
+      <c r="F34" s="194" t="s">
         <v>163</v>
       </c>
-      <c r="G34" s="200"/>
-      <c r="H34" s="200"/>
-      <c r="I34" s="200"/>
-      <c r="J34" s="200"/>
-      <c r="K34" s="200"/>
-      <c r="L34" s="200"/>
+      <c r="G34" s="194"/>
+      <c r="H34" s="194"/>
+      <c r="I34" s="194"/>
+      <c r="J34" s="194"/>
+      <c r="K34" s="194"/>
+      <c r="L34" s="194"/>
       <c r="M34" s="159" t="s">
         <v>164</v>
       </c>
@@ -4017,10 +4026,10 @@
         <v>165</v>
       </c>
       <c r="P34" s="127"/>
-      <c r="Q34" s="199" t="s">
+      <c r="Q34" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="R34" s="199"/>
+      <c r="R34" s="193"/>
       <c r="S34" s="154" t="s">
         <v>15</v>
       </c>
@@ -4047,16 +4056,16 @@
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
-      <c r="M35" s="215" t="s">
+      <c r="M35" s="209" t="s">
         <v>166</v>
       </c>
-      <c r="N35" s="215"/>
-      <c r="O35" s="215"/>
-      <c r="P35" s="215"/>
-      <c r="Q35" s="199" t="s">
+      <c r="N35" s="209"/>
+      <c r="O35" s="209"/>
+      <c r="P35" s="209"/>
+      <c r="Q35" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="R35" s="199"/>
+      <c r="R35" s="193"/>
       <c r="S35" s="154" t="s">
         <v>15</v>
       </c>
@@ -4083,12 +4092,12 @@
       <c r="J36" s="134"/>
       <c r="K36" s="134"/>
       <c r="L36" s="134"/>
-      <c r="M36" s="212"/>
-      <c r="N36" s="212"/>
+      <c r="M36" s="206"/>
+      <c r="N36" s="206"/>
       <c r="O36" s="127"/>
       <c r="P36" s="127"/>
-      <c r="Q36" s="199"/>
-      <c r="R36" s="199"/>
+      <c r="Q36" s="193"/>
+      <c r="R36" s="193"/>
       <c r="S36" s="154"/>
       <c r="T36" s="154"/>
       <c r="U36" s="155"/>
@@ -4100,29 +4109,29 @@
       <c r="A37" s="10"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="213" t="s">
+      <c r="D37" s="207" t="s">
         <v>167</v>
       </c>
-      <c r="E37" s="213"/>
-      <c r="F37" s="213"/>
-      <c r="G37" s="213"/>
-      <c r="H37" s="213"/>
-      <c r="I37" s="213"/>
-      <c r="J37" s="213"/>
-      <c r="K37" s="213"/>
-      <c r="L37" s="214" t="s">
+      <c r="E37" s="207"/>
+      <c r="F37" s="207"/>
+      <c r="G37" s="207"/>
+      <c r="H37" s="207"/>
+      <c r="I37" s="207"/>
+      <c r="J37" s="207"/>
+      <c r="K37" s="207"/>
+      <c r="L37" s="208" t="s">
         <v>168</v>
       </c>
-      <c r="M37" s="214"/>
-      <c r="N37" s="214"/>
+      <c r="M37" s="208"/>
+      <c r="N37" s="208"/>
       <c r="O37" s="127" t="s">
         <v>165</v>
       </c>
       <c r="P37" s="127"/>
-      <c r="Q37" s="199" t="s">
+      <c r="Q37" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="R37" s="199"/>
+      <c r="R37" s="193"/>
       <c r="S37" s="154" t="s">
         <v>15</v>
       </c>
@@ -4248,6 +4257,12 @@
     <mergeCell ref="I24:L24"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
     <mergeCell ref="W21:W29"/>
     <mergeCell ref="M27:P27"/>
     <mergeCell ref="I2:N2"/>
@@ -4273,12 +4288,6 @@
     <mergeCell ref="L37:N37"/>
     <mergeCell ref="Q35:R35"/>
     <mergeCell ref="M35:P35"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
@@ -5552,16 +5561,16 @@
       <c r="H3" s="247"/>
       <c r="I3" s="247"/>
       <c r="J3" s="247"/>
-      <c r="K3" s="207" t="s">
+      <c r="K3" s="230" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
-      <c r="N3" s="207"/>
-      <c r="O3" s="199" t="s">
+      <c r="L3" s="230"/>
+      <c r="M3" s="230"/>
+      <c r="N3" s="230"/>
+      <c r="O3" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="199"/>
+      <c r="P3" s="193"/>
       <c r="Q3" s="154" t="s">
         <v>15</v>
       </c>
@@ -5618,11 +5627,11 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="249" t="s">
+      <c r="A6" s="248" t="s">
         <v>210</v>
       </c>
-      <c r="B6" s="250"/>
-      <c r="C6" s="250"/>
+      <c r="B6" s="249"/>
+      <c r="C6" s="249"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -5642,11 +5651,11 @@
       <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="248" t="s">
         <v>209</v>
       </c>
-      <c r="B7" s="250"/>
-      <c r="C7" s="250"/>
+      <c r="B7" s="249"/>
+      <c r="C7" s="249"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -5666,11 +5675,11 @@
       <c r="T7" s="6"/>
     </row>
     <row r="8" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="249" t="s">
+      <c r="A8" s="248" t="s">
         <v>208</v>
       </c>
-      <c r="B8" s="250"/>
-      <c r="C8" s="250"/>
+      <c r="B8" s="249"/>
+      <c r="C8" s="249"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -5851,7 +5860,7 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="208" t="s">
+      <c r="F16" s="220" t="s">
         <v>206</v>
       </c>
       <c r="G16" s="245"/>
@@ -5878,7 +5887,7 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="208" t="s">
+      <c r="F17" s="220" t="s">
         <v>205</v>
       </c>
       <c r="G17" s="245"/>
@@ -5905,7 +5914,7 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="208" t="s">
+      <c r="F18" s="220" t="s">
         <v>204</v>
       </c>
       <c r="G18" s="245"/>
@@ -5932,7 +5941,7 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="208" t="s">
+      <c r="F19" s="220" t="s">
         <v>203</v>
       </c>
       <c r="G19" s="245"/>
@@ -5959,7 +5968,7 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="208" t="s">
+      <c r="F20" s="220" t="s">
         <v>202</v>
       </c>
       <c r="G20" s="245"/>
@@ -5986,7 +5995,7 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="208" t="s">
+      <c r="F21" s="220" t="s">
         <v>201</v>
       </c>
       <c r="G21" s="245"/>
@@ -6013,7 +6022,7 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="208" t="s">
+      <c r="F22" s="220" t="s">
         <v>200</v>
       </c>
       <c r="G22" s="245"/>
@@ -6040,7 +6049,7 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="208" t="s">
+      <c r="F23" s="220" t="s">
         <v>199</v>
       </c>
       <c r="G23" s="245"/>
@@ -6342,7 +6351,7 @@
       <c r="T35" s="6"/>
     </row>
     <row r="36" spans="1:20" s="170" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="248" t="s">
+      <c r="A36" s="250" t="s">
         <v>198</v>
       </c>
       <c r="B36" s="240"/>
@@ -6376,7 +6385,7 @@
       <c r="T36" s="171"/>
     </row>
     <row r="37" spans="1:20" s="170" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="248" t="s">
+      <c r="A37" s="250" t="s">
         <v>197</v>
       </c>
       <c r="B37" s="240"/>

--- a/dist/files/xls/shablon-kd.xlsx
+++ b/dist/files/xls/shablon-kd.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="193">
   <si>
     <t>№заказа</t>
   </si>
@@ -74,9 +74,6 @@
     <t>серийный номер</t>
   </si>
   <si>
-    <t>шт</t>
-  </si>
-  <si>
     <t>ЗАКАЗЧИК</t>
   </si>
   <si>
@@ -104,15 +101,9 @@
     <t>/________/</t>
   </si>
   <si>
-    <t>20___</t>
-  </si>
-  <si>
     <t>порядковый номер образца цвета</t>
   </si>
   <si>
-    <t xml:space="preserve">Пилястра </t>
-  </si>
-  <si>
     <t>ПАСПОРТ ИЗДЕЛИЙ ЗАКАЗА</t>
   </si>
   <si>
@@ -122,93 +113,22 @@
     <t>мп</t>
   </si>
   <si>
-    <t>Фриз</t>
-  </si>
-  <si>
-    <t>Буазери
-панели стеновые, филенки с тканью, ярус верхний</t>
-  </si>
-  <si>
-    <t>Буазери
-панели стеновые, филенки с интарсией корнем, ярус нижний</t>
-  </si>
-  <si>
     <t>№1</t>
   </si>
   <si>
-    <t>Шкаф
-фасады распашные глухие, ящики, обрамление декоративное</t>
-  </si>
-  <si>
-    <t>Плинтус</t>
-  </si>
-  <si>
     <t xml:space="preserve">орех </t>
   </si>
   <si>
-    <t>Блок дверной одностворчатый
-полотно распашное глухое, обрамление декоративное, добор дверной</t>
-  </si>
-  <si>
-    <t>Блок дверной двухстворчатый
-полотна распашные глухие, обрамление декоративное, добор дверной</t>
-  </si>
-  <si>
     <t>№ изделия по ПП</t>
   </si>
   <si>
-    <t>Зеркало в декоративной раме</t>
-  </si>
-  <si>
-    <r>
-      <t>м</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="superscript"/>
-        <sz val="23"/>
-        <color theme="1"/>
-        <rFont val="ISOCPEUR"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>компл</t>
-  </si>
-  <si>
     <t>материал основы</t>
   </si>
   <si>
     <t>МДФ</t>
   </si>
   <si>
-    <t xml:space="preserve">ореха </t>
-  </si>
-  <si>
-    <t>шпон орех
-шпон корень ореха</t>
-  </si>
-  <si>
     <t>Карниз</t>
-  </si>
-  <si>
-    <t>шпон орех</t>
-  </si>
-  <si>
-    <t>№1
-№3</t>
-  </si>
-  <si>
-    <t>№1
-№2</t>
-  </si>
-  <si>
-    <t>№1
-№5</t>
   </si>
   <si>
     <t>КОНСТРУКТОРСКАЯ ДОКУМЕНТАЦИЯ</t>
@@ -759,7 +679,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="51" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy"/>
+  </numFmts>
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -876,15 +799,6 @@
     </font>
     <font>
       <i/>
-      <sz val="23"/>
-      <color theme="1"/>
-      <name val="ISOCPEUR"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
-      <vertAlign val="superscript"/>
       <sz val="23"/>
       <color theme="1"/>
       <name val="ISOCPEUR"/>
@@ -1219,7 +1133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1706,15 +1620,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1747,7 +1652,57 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1760,67 +1715,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1828,10 +1722,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="266">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1914,74 +1808,95 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2005,210 +1920,181 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="30" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="29" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="32" fillId="5" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="31" fillId="5" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="32" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="31" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2217,20 +2103,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2242,23 +2125,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2266,8 +2146,126 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -2275,6 +2273,9 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2284,20 +2285,8 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2305,116 +2294,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2424,14 +2304,39 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -2442,85 +2347,67 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2850,7 +2737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B10" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="66" zoomScaleNormal="100" zoomScaleSheetLayoutView="66" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -2875,7 +2762,7 @@
     <col min="18" max="18" width="7.875" style="3" customWidth="1"/>
     <col min="19" max="19" width="8.375" style="3" customWidth="1"/>
     <col min="20" max="20" width="8.25" style="3" customWidth="1"/>
-    <col min="21" max="21" width="7.375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="7.625" style="3" customWidth="1"/>
     <col min="22" max="22" width="6.375" style="3" customWidth="1"/>
     <col min="23" max="23" width="5.875" style="3" customWidth="1"/>
     <col min="24" max="16384" width="8.75" style="3"/>
@@ -2890,24 +2777,24 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
-      <c r="I1" s="152" t="s">
-        <v>186</v>
-      </c>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="151"/>
-      <c r="T1" s="151"/>
-      <c r="U1" s="150"/>
-      <c r="V1" s="150"/>
-      <c r="W1" s="149"/>
-      <c r="X1" s="148"/>
+      <c r="I1" s="148" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="145"/>
+      <c r="X1" s="144"/>
     </row>
     <row r="2" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
@@ -2918,24 +2805,24 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="214" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="216"/>
+      <c r="I2" s="188" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="190"/>
       <c r="O2" s="111"/>
-      <c r="P2" s="217" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q2" s="218"/>
-      <c r="R2" s="218"/>
-      <c r="S2" s="218"/>
-      <c r="T2" s="218"/>
-      <c r="U2" s="218"/>
-      <c r="V2" s="157"/>
+      <c r="P2" s="191" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q2" s="176"/>
+      <c r="R2" s="176"/>
+      <c r="S2" s="176"/>
+      <c r="T2" s="176"/>
+      <c r="U2" s="176"/>
+      <c r="V2" s="152"/>
       <c r="W2" s="37"/>
       <c r="X2" s="12"/>
     </row>
@@ -2949,35 +2836,35 @@
       <c r="G3" s="12"/>
       <c r="H3" s="36"/>
       <c r="I3" s="112" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="J3" s="113" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="K3" s="114"/>
-      <c r="L3" s="218" t="s">
-        <v>138</v>
-      </c>
-      <c r="M3" s="218"/>
+      <c r="L3" s="176" t="s">
+        <v>119</v>
+      </c>
+      <c r="M3" s="176"/>
       <c r="N3" s="115" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="O3" s="111"/>
       <c r="P3" s="112" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="113" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="R3" s="114"/>
-      <c r="S3" s="218" t="s">
-        <v>61</v>
-      </c>
-      <c r="T3" s="218"/>
-      <c r="U3" s="145" t="s">
-        <v>56</v>
-      </c>
-      <c r="V3" s="145"/>
+      <c r="S3" s="176" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="176"/>
+      <c r="U3" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="141"/>
       <c r="W3" s="37"/>
       <c r="X3" s="12"/>
     </row>
@@ -2991,35 +2878,35 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="112" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J4" s="116" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="K4" s="111"/>
-      <c r="L4" s="187" t="s">
-        <v>138</v>
-      </c>
-      <c r="M4" s="187"/>
-      <c r="N4" s="147" t="s">
-        <v>184</v>
+      <c r="L4" s="177" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" s="177"/>
+      <c r="N4" s="143" t="s">
+        <v>165</v>
       </c>
       <c r="O4" s="111"/>
       <c r="P4" s="112" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="116" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="R4" s="111"/>
-      <c r="S4" s="187" t="s">
-        <v>61</v>
-      </c>
-      <c r="T4" s="187"/>
-      <c r="U4" s="146" t="s">
-        <v>184</v>
-      </c>
-      <c r="V4" s="146"/>
+      <c r="S4" s="177" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" s="177"/>
+      <c r="U4" s="142" t="s">
+        <v>165</v>
+      </c>
+      <c r="V4" s="142"/>
       <c r="W4" s="38"/>
       <c r="X4" s="12"/>
     </row>
@@ -3033,35 +2920,35 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="112" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J5" s="116" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="K5" s="111"/>
-      <c r="L5" s="187" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="187"/>
+      <c r="L5" s="177" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="177"/>
       <c r="N5" s="115" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="O5" s="111"/>
       <c r="P5" s="112" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="116" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="R5" s="111"/>
-      <c r="S5" s="187" t="s">
-        <v>61</v>
-      </c>
-      <c r="T5" s="187"/>
-      <c r="U5" s="145" t="s">
-        <v>182</v>
-      </c>
-      <c r="V5" s="145"/>
+      <c r="S5" s="177" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="177"/>
+      <c r="U5" s="141" t="s">
+        <v>163</v>
+      </c>
+      <c r="V5" s="141"/>
       <c r="W5" s="11"/>
       <c r="X5" s="12"/>
     </row>
@@ -3082,18 +2969,18 @@
       <c r="N6" s="11"/>
       <c r="O6" s="111"/>
       <c r="P6" s="112" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="116" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="R6" s="111"/>
-      <c r="S6" s="187" t="s">
-        <v>61</v>
-      </c>
-      <c r="T6" s="187"/>
+      <c r="S6" s="177" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" s="177"/>
       <c r="U6" s="116" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="V6" s="116"/>
       <c r="W6" s="39"/>
@@ -3109,35 +2996,35 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="112" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="J7" s="116" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="K7" s="111"/>
-      <c r="L7" s="187" t="s">
-        <v>138</v>
-      </c>
-      <c r="M7" s="187"/>
+      <c r="L7" s="177" t="s">
+        <v>119</v>
+      </c>
+      <c r="M7" s="177"/>
       <c r="N7" s="115" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="O7" s="111"/>
       <c r="P7" s="112" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="116" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="R7" s="111"/>
-      <c r="S7" s="187" t="s">
-        <v>61</v>
-      </c>
-      <c r="T7" s="187"/>
-      <c r="U7" s="145" t="s">
-        <v>55</v>
-      </c>
-      <c r="V7" s="145"/>
+      <c r="S7" s="177" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="177"/>
+      <c r="U7" s="141" t="s">
+        <v>36</v>
+      </c>
+      <c r="V7" s="141"/>
       <c r="W7" s="40"/>
       <c r="X7" s="12"/>
     </row>
@@ -3151,94 +3038,94 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="112" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="J8" s="116" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="K8" s="111"/>
-      <c r="L8" s="153" t="s">
-        <v>140</v>
-      </c>
-      <c r="M8" s="153"/>
+      <c r="L8" s="149" t="s">
+        <v>121</v>
+      </c>
+      <c r="M8" s="149"/>
       <c r="N8" s="135"/>
       <c r="O8" s="111"/>
       <c r="P8" s="112" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="116" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="R8" s="111"/>
-      <c r="S8" s="153" t="s">
-        <v>62</v>
-      </c>
-      <c r="T8" s="153"/>
-      <c r="U8" s="153"/>
-      <c r="V8" s="153"/>
+      <c r="S8" s="149" t="s">
+        <v>43</v>
+      </c>
+      <c r="T8" s="149"/>
+      <c r="U8" s="149"/>
+      <c r="V8" s="149"/>
       <c r="W8" s="40"/>
       <c r="X8" s="12"/>
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="198" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" s="191" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="190" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="199" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="199"/>
-      <c r="F9" s="199"/>
-      <c r="G9" s="199"/>
-      <c r="H9" s="202"/>
+      <c r="A9" s="204" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="205" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="211" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="206" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="206"/>
+      <c r="F9" s="206"/>
+      <c r="G9" s="206"/>
+      <c r="H9" s="210"/>
       <c r="I9" s="117"/>
       <c r="J9" s="118"/>
       <c r="K9" s="118"/>
-      <c r="L9" s="144" t="s">
-        <v>179</v>
-      </c>
-      <c r="M9" s="144"/>
-      <c r="N9" s="143" t="s">
-        <v>178</v>
+      <c r="L9" s="140" t="s">
+        <v>160</v>
+      </c>
+      <c r="M9" s="140"/>
+      <c r="N9" s="139" t="s">
+        <v>159</v>
       </c>
       <c r="O9" s="12"/>
       <c r="P9" s="117"/>
       <c r="Q9" s="118"/>
       <c r="R9" s="118"/>
       <c r="S9" s="136" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="T9" s="136"/>
       <c r="U9" s="136" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="V9" s="136"/>
       <c r="W9" s="15"/>
       <c r="X9" s="12"/>
     </row>
     <row r="10" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="198"/>
-      <c r="B10" s="191"/>
-      <c r="C10" s="190"/>
-      <c r="D10" s="199" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" s="188" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" s="188" t="s">
-        <v>147</v>
-      </c>
-      <c r="G10" s="191" t="s">
-        <v>148</v>
-      </c>
-      <c r="H10" s="190" t="s">
-        <v>149</v>
+      <c r="A10" s="204"/>
+      <c r="B10" s="205"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="206" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="207" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="207" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="205" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="211" t="s">
+        <v>130</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="12"/>
@@ -3258,26 +3145,26 @@
       <c r="X10" s="12"/>
     </row>
     <row r="11" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="198"/>
-      <c r="B11" s="191"/>
-      <c r="C11" s="190"/>
-      <c r="D11" s="199"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="189"/>
-      <c r="G11" s="191"/>
-      <c r="H11" s="190"/>
+      <c r="A11" s="204"/>
+      <c r="B11" s="205"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="206"/>
+      <c r="E11" s="207"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="205"/>
+      <c r="H11" s="211"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="166" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" s="166"/>
-      <c r="M11" s="166"/>
-      <c r="N11" s="166"/>
-      <c r="O11" s="166"/>
-      <c r="P11" s="166"/>
-      <c r="Q11" s="166"/>
-      <c r="R11" s="166"/>
+      <c r="K11" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="161"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="161"/>
+      <c r="O11" s="161"/>
+      <c r="P11" s="161"/>
+      <c r="Q11" s="161"/>
+      <c r="R11" s="161"/>
       <c r="S11" s="7"/>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
@@ -3286,43 +3173,43 @@
       <c r="X11" s="12"/>
     </row>
     <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="197" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" s="200" t="s">
+      <c r="A12" s="203" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="208" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="208" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="208" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="209" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="209" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" s="212" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" s="223" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" s="153"/>
+      <c r="J12" s="180" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="180"/>
+      <c r="L12" s="180"/>
+      <c r="M12" s="180"/>
+      <c r="N12" s="160" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="200" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="200" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="201" t="s">
-        <v>153</v>
-      </c>
-      <c r="F12" s="201" t="s">
-        <v>154</v>
-      </c>
-      <c r="G12" s="203" t="s">
-        <v>176</v>
-      </c>
-      <c r="H12" s="192" t="s">
-        <v>155</v>
-      </c>
-      <c r="I12" s="158"/>
-      <c r="J12" s="228" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="228"/>
-      <c r="L12" s="228"/>
-      <c r="M12" s="228"/>
-      <c r="N12" s="165" t="s">
-        <v>196</v>
-      </c>
-      <c r="O12" s="165"/>
+      <c r="O12" s="160"/>
       <c r="P12" s="12"/>
-      <c r="Q12" s="158"/>
+      <c r="Q12" s="153"/>
       <c r="R12" s="110"/>
       <c r="S12" s="7"/>
       <c r="T12" s="12"/>
@@ -3332,29 +3219,29 @@
       <c r="X12" s="12"/>
     </row>
     <row r="13" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="197"/>
-      <c r="B13" s="200"/>
-      <c r="C13" s="200"/>
-      <c r="D13" s="200"/>
-      <c r="E13" s="201"/>
-      <c r="F13" s="201"/>
-      <c r="G13" s="204"/>
-      <c r="H13" s="192"/>
+      <c r="A13" s="203"/>
+      <c r="B13" s="208"/>
+      <c r="C13" s="208"/>
+      <c r="D13" s="208"/>
+      <c r="E13" s="209"/>
+      <c r="F13" s="209"/>
+      <c r="G13" s="213"/>
+      <c r="H13" s="223"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="229" t="s">
-        <v>195</v>
-      </c>
-      <c r="K13" s="229"/>
-      <c r="L13" s="229"/>
-      <c r="M13" s="229"/>
-      <c r="N13" s="165" t="s">
-        <v>194</v>
-      </c>
-      <c r="O13" s="165"/>
+      <c r="J13" s="181" t="s">
+        <v>176</v>
+      </c>
+      <c r="K13" s="181"/>
+      <c r="L13" s="181"/>
+      <c r="M13" s="181"/>
+      <c r="N13" s="160" t="s">
+        <v>175</v>
+      </c>
+      <c r="O13" s="160"/>
       <c r="P13" s="12"/>
-      <c r="Q13" s="160"/>
-      <c r="R13" s="160"/>
-      <c r="S13" s="160"/>
+      <c r="Q13" s="155"/>
+      <c r="R13" s="155"/>
+      <c r="S13" s="155"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
@@ -3362,29 +3249,29 @@
       <c r="X13" s="12"/>
     </row>
     <row r="14" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="197"/>
-      <c r="B14" s="200"/>
-      <c r="C14" s="200"/>
-      <c r="D14" s="200"/>
-      <c r="E14" s="201"/>
-      <c r="F14" s="201"/>
-      <c r="G14" s="204"/>
-      <c r="H14" s="192"/>
+      <c r="A14" s="203"/>
+      <c r="B14" s="208"/>
+      <c r="C14" s="208"/>
+      <c r="D14" s="208"/>
+      <c r="E14" s="209"/>
+      <c r="F14" s="209"/>
+      <c r="G14" s="213"/>
+      <c r="H14" s="223"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="220" t="s">
-        <v>135</v>
-      </c>
-      <c r="K14" s="220"/>
-      <c r="L14" s="220"/>
-      <c r="M14" s="220"/>
-      <c r="N14" s="164" t="s">
-        <v>170</v>
-      </c>
-      <c r="O14" s="164"/>
+      <c r="J14" s="183" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14" s="183"/>
+      <c r="L14" s="183"/>
+      <c r="M14" s="183"/>
+      <c r="N14" s="159" t="s">
+        <v>151</v>
+      </c>
+      <c r="O14" s="159"/>
       <c r="P14" s="12"/>
-      <c r="Q14" s="164"/>
-      <c r="R14" s="164"/>
-      <c r="S14" s="164"/>
+      <c r="Q14" s="159"/>
+      <c r="R14" s="159"/>
+      <c r="S14" s="159"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
@@ -3392,29 +3279,29 @@
       <c r="X14" s="12"/>
     </row>
     <row r="15" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="197"/>
-      <c r="B15" s="200"/>
-      <c r="C15" s="200"/>
-      <c r="D15" s="200"/>
-      <c r="E15" s="201"/>
-      <c r="F15" s="201"/>
-      <c r="G15" s="205"/>
-      <c r="H15" s="192"/>
+      <c r="A15" s="203"/>
+      <c r="B15" s="208"/>
+      <c r="C15" s="208"/>
+      <c r="D15" s="208"/>
+      <c r="E15" s="209"/>
+      <c r="F15" s="209"/>
+      <c r="G15" s="214"/>
+      <c r="H15" s="223"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="220" t="s">
-        <v>193</v>
-      </c>
-      <c r="K15" s="220"/>
-      <c r="L15" s="220"/>
-      <c r="M15" s="220"/>
-      <c r="N15" s="164" t="s">
-        <v>192</v>
-      </c>
-      <c r="O15" s="164"/>
+      <c r="J15" s="183" t="s">
+        <v>174</v>
+      </c>
+      <c r="K15" s="183"/>
+      <c r="L15" s="183"/>
+      <c r="M15" s="183"/>
+      <c r="N15" s="159" t="s">
+        <v>173</v>
+      </c>
+      <c r="O15" s="159"/>
       <c r="P15" s="12"/>
-      <c r="Q15" s="164"/>
-      <c r="R15" s="164"/>
-      <c r="S15" s="164"/>
+      <c r="Q15" s="159"/>
+      <c r="R15" s="159"/>
+      <c r="S15" s="159"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
@@ -3422,31 +3309,31 @@
       <c r="X15" s="12"/>
     </row>
     <row r="16" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="197"/>
-      <c r="B16" s="200"/>
-      <c r="C16" s="200"/>
-      <c r="D16" s="200"/>
-      <c r="E16" s="201"/>
-      <c r="F16" s="201"/>
-      <c r="G16" s="203" t="s">
-        <v>175</v>
-      </c>
-      <c r="H16" s="192"/>
+      <c r="A16" s="203"/>
+      <c r="B16" s="208"/>
+      <c r="C16" s="208"/>
+      <c r="D16" s="208"/>
+      <c r="E16" s="209"/>
+      <c r="F16" s="209"/>
+      <c r="G16" s="212" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16" s="223"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="220" t="s">
-        <v>191</v>
-      </c>
-      <c r="K16" s="220"/>
-      <c r="L16" s="220"/>
-      <c r="M16" s="220"/>
-      <c r="N16" s="164" t="s">
-        <v>190</v>
-      </c>
-      <c r="O16" s="164"/>
+      <c r="J16" s="183" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" s="183"/>
+      <c r="L16" s="183"/>
+      <c r="M16" s="183"/>
+      <c r="N16" s="159" t="s">
+        <v>171</v>
+      </c>
+      <c r="O16" s="159"/>
       <c r="P16" s="12"/>
-      <c r="Q16" s="164"/>
-      <c r="R16" s="164"/>
-      <c r="S16" s="164"/>
+      <c r="Q16" s="159"/>
+      <c r="R16" s="159"/>
+      <c r="S16" s="159"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
@@ -3454,29 +3341,29 @@
       <c r="X16" s="12"/>
     </row>
     <row r="17" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="197"/>
-      <c r="B17" s="200"/>
-      <c r="C17" s="200"/>
-      <c r="D17" s="200"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="201"/>
-      <c r="G17" s="204"/>
-      <c r="H17" s="192"/>
+      <c r="A17" s="203"/>
+      <c r="B17" s="208"/>
+      <c r="C17" s="208"/>
+      <c r="D17" s="208"/>
+      <c r="E17" s="209"/>
+      <c r="F17" s="209"/>
+      <c r="G17" s="213"/>
+      <c r="H17" s="223"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="220" t="s">
-        <v>189</v>
-      </c>
-      <c r="K17" s="220"/>
-      <c r="L17" s="220"/>
-      <c r="M17" s="220"/>
-      <c r="N17" s="164" t="s">
-        <v>188</v>
-      </c>
-      <c r="O17" s="164"/>
+      <c r="J17" s="183" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" s="183"/>
+      <c r="L17" s="183"/>
+      <c r="M17" s="183"/>
+      <c r="N17" s="159" t="s">
+        <v>169</v>
+      </c>
+      <c r="O17" s="159"/>
       <c r="P17" s="12"/>
-      <c r="Q17" s="164"/>
-      <c r="R17" s="164"/>
-      <c r="S17" s="164"/>
+      <c r="Q17" s="159"/>
+      <c r="R17" s="159"/>
+      <c r="S17" s="159"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
@@ -3484,31 +3371,30 @@
       <c r="X17" s="12"/>
     </row>
     <row r="18" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="197"/>
-      <c r="B18" s="200"/>
-      <c r="C18" s="200"/>
-      <c r="D18" s="200"/>
-      <c r="E18" s="201"/>
-      <c r="F18" s="201"/>
-      <c r="G18" s="205"/>
-      <c r="H18" s="192"/>
+      <c r="A18" s="203"/>
+      <c r="B18" s="208"/>
+      <c r="C18" s="208"/>
+      <c r="D18" s="208"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="214"/>
+      <c r="H18" s="223"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="221" t="s">
-        <v>134</v>
-      </c>
-      <c r="K18" s="221"/>
-      <c r="L18" s="221"/>
-      <c r="M18" s="221"/>
-      <c r="N18" s="160">
+      <c r="J18" s="194" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="194"/>
+      <c r="L18" s="194"/>
+      <c r="M18" s="194"/>
+      <c r="N18" s="155">
         <v>500</v>
       </c>
-      <c r="O18" s="164"/>
+      <c r="O18" s="159"/>
       <c r="P18" s="12"/>
-      <c r="Q18" s="164"/>
-      <c r="R18" s="164"/>
-      <c r="S18" s="164"/>
+      <c r="Q18" s="159"/>
+      <c r="R18" s="159"/>
+      <c r="S18" s="159"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="6"/>
       <c r="X18" s="12"/>
@@ -3523,20 +3409,20 @@
       <c r="G19" s="123"/>
       <c r="H19" s="124"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="221" t="s">
-        <v>133</v>
-      </c>
-      <c r="K19" s="221"/>
-      <c r="L19" s="221"/>
-      <c r="M19" s="221"/>
-      <c r="N19" s="160" t="s">
-        <v>187</v>
-      </c>
-      <c r="O19" s="160"/>
+      <c r="J19" s="194" t="s">
+        <v>114</v>
+      </c>
+      <c r="K19" s="194"/>
+      <c r="L19" s="194"/>
+      <c r="M19" s="194"/>
+      <c r="N19" s="155" t="s">
+        <v>168</v>
+      </c>
+      <c r="O19" s="155"/>
       <c r="P19" s="12"/>
-      <c r="Q19" s="160"/>
-      <c r="R19" s="160"/>
-      <c r="S19" s="160"/>
+      <c r="Q19" s="155"/>
+      <c r="R19" s="155"/>
+      <c r="S19" s="155"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
@@ -3578,12 +3464,12 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="226" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="227"/>
-      <c r="K21" s="227"/>
-      <c r="L21" s="227"/>
+      <c r="I21" s="178" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="179"/>
+      <c r="K21" s="179"/>
+      <c r="L21" s="179"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
@@ -3592,12 +3478,12 @@
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="142"/>
-      <c r="V21" s="222" t="s">
-        <v>174</v>
-      </c>
-      <c r="W21" s="210" t="s">
-        <v>173</v>
+      <c r="U21" s="262"/>
+      <c r="V21" s="195" t="s">
+        <v>155</v>
+      </c>
+      <c r="W21" s="184" t="s">
+        <v>154</v>
       </c>
       <c r="X21" s="12"/>
     </row>
@@ -3610,33 +3496,34 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="35"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="225" t="s">
-        <v>172</v>
-      </c>
-      <c r="K22" s="225"/>
-      <c r="L22" s="225"/>
-      <c r="M22" s="230" t="s">
+      <c r="I22" s="138"/>
+      <c r="J22" s="175" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="175"/>
+      <c r="L22" s="175"/>
+      <c r="M22" s="182" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" s="182"/>
+      <c r="O22" s="182"/>
+      <c r="P22" s="182"/>
+      <c r="Q22" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="N22" s="230"/>
-      <c r="O22" s="230"/>
-      <c r="P22" s="230"/>
-      <c r="Q22" s="193" t="s">
-        <v>17</v>
-      </c>
-      <c r="R22" s="193"/>
-      <c r="S22" s="154" t="s">
-        <v>15</v>
-      </c>
-      <c r="T22" s="154" t="s">
-        <v>15</v>
-      </c>
-      <c r="U22" s="155" t="s">
-        <v>18</v>
-      </c>
-      <c r="V22" s="223"/>
-      <c r="W22" s="211"/>
+      <c r="R22" s="192"/>
+      <c r="S22" s="150" t="s">
+        <v>14</v>
+      </c>
+      <c r="T22" s="150" t="s">
+        <v>14</v>
+      </c>
+      <c r="U22" s="260">
+        <f ca="1">TODAY()</f>
+        <v>43502</v>
+      </c>
+      <c r="V22" s="196"/>
+      <c r="W22" s="185"/>
       <c r="X22" s="12"/>
     </row>
     <row r="23" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3648,11 +3535,11 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="35"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="161"/>
-      <c r="K23" s="161"/>
-      <c r="L23" s="161" t="s">
-        <v>14</v>
+      <c r="I23" s="138"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="156"/>
+      <c r="L23" s="156" t="s">
+        <v>13</v>
       </c>
       <c r="M23" s="127"/>
       <c r="N23" s="127"/>
@@ -3663,8 +3550,8 @@
       <c r="S23" s="127"/>
       <c r="T23" s="127"/>
       <c r="U23" s="127"/>
-      <c r="V23" s="223"/>
-      <c r="W23" s="211"/>
+      <c r="V23" s="196"/>
+      <c r="W23" s="185"/>
       <c r="X23" s="12"/>
     </row>
     <row r="24" spans="1:24" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3676,33 +3563,34 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="219" t="s">
-        <v>157</v>
-      </c>
-      <c r="J24" s="219"/>
-      <c r="K24" s="219"/>
-      <c r="L24" s="219"/>
+      <c r="I24" s="174" t="s">
+        <v>138</v>
+      </c>
+      <c r="J24" s="174"/>
+      <c r="K24" s="174"/>
+      <c r="L24" s="174"/>
       <c r="M24" s="12"/>
-      <c r="N24" s="156" t="s">
+      <c r="N24" s="151" t="s">
+        <v>15</v>
+      </c>
+      <c r="O24" s="151"/>
+      <c r="P24" s="151"/>
+      <c r="Q24" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="O24" s="156"/>
-      <c r="P24" s="156"/>
-      <c r="Q24" s="159" t="s">
-        <v>17</v>
-      </c>
-      <c r="R24" s="159"/>
-      <c r="S24" s="159" t="s">
-        <v>15</v>
-      </c>
-      <c r="T24" s="159" t="s">
-        <v>15</v>
-      </c>
-      <c r="U24" s="159" t="s">
-        <v>18</v>
-      </c>
-      <c r="V24" s="223"/>
-      <c r="W24" s="211"/>
+      <c r="R24" s="154"/>
+      <c r="S24" s="154" t="s">
+        <v>14</v>
+      </c>
+      <c r="T24" s="154" t="s">
+        <v>14</v>
+      </c>
+      <c r="U24" s="260">
+        <f ca="1">TODAY()</f>
+        <v>43502</v>
+      </c>
+      <c r="V24" s="196"/>
+      <c r="W24" s="185"/>
       <c r="X24" s="12"/>
     </row>
     <row r="25" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3714,33 +3602,34 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="219" t="s">
-        <v>158</v>
-      </c>
-      <c r="J25" s="219"/>
-      <c r="K25" s="219"/>
-      <c r="L25" s="219"/>
+      <c r="I25" s="174" t="s">
+        <v>139</v>
+      </c>
+      <c r="J25" s="174"/>
+      <c r="K25" s="174"/>
+      <c r="L25" s="174"/>
       <c r="M25" s="12"/>
-      <c r="N25" s="156" t="s">
+      <c r="N25" s="151" t="s">
+        <v>15</v>
+      </c>
+      <c r="O25" s="151"/>
+      <c r="P25" s="151"/>
+      <c r="Q25" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="O25" s="156"/>
-      <c r="P25" s="156"/>
-      <c r="Q25" s="159" t="s">
-        <v>17</v>
-      </c>
-      <c r="R25" s="159"/>
-      <c r="S25" s="159" t="s">
-        <v>15</v>
-      </c>
-      <c r="T25" s="159" t="s">
-        <v>15</v>
-      </c>
-      <c r="U25" s="159" t="s">
-        <v>18</v>
-      </c>
-      <c r="V25" s="223"/>
-      <c r="W25" s="211"/>
+      <c r="R25" s="154"/>
+      <c r="S25" s="154" t="s">
+        <v>14</v>
+      </c>
+      <c r="T25" s="154" t="s">
+        <v>14</v>
+      </c>
+      <c r="U25" s="260">
+        <f ca="1">TODAY()</f>
+        <v>43502</v>
+      </c>
+      <c r="V25" s="196"/>
+      <c r="W25" s="185"/>
       <c r="X25" s="12"/>
     </row>
     <row r="26" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3752,33 +3641,34 @@
       <c r="F26" s="127"/>
       <c r="G26" s="35"/>
       <c r="H26" s="35"/>
-      <c r="I26" s="219" t="s">
-        <v>159</v>
-      </c>
-      <c r="J26" s="219"/>
-      <c r="K26" s="219"/>
-      <c r="L26" s="219"/>
+      <c r="I26" s="174" t="s">
+        <v>140</v>
+      </c>
+      <c r="J26" s="174"/>
+      <c r="K26" s="174"/>
+      <c r="L26" s="174"/>
       <c r="M26" s="12"/>
-      <c r="N26" s="156" t="s">
+      <c r="N26" s="151" t="s">
+        <v>15</v>
+      </c>
+      <c r="O26" s="151"/>
+      <c r="P26" s="151"/>
+      <c r="Q26" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="O26" s="156"/>
-      <c r="P26" s="156"/>
-      <c r="Q26" s="159" t="s">
-        <v>17</v>
-      </c>
-      <c r="R26" s="159"/>
-      <c r="S26" s="159" t="s">
-        <v>15</v>
-      </c>
-      <c r="T26" s="159" t="s">
-        <v>15</v>
-      </c>
-      <c r="U26" s="140" t="s">
-        <v>18</v>
-      </c>
-      <c r="V26" s="224"/>
-      <c r="W26" s="211"/>
+      <c r="R26" s="154"/>
+      <c r="S26" s="154" t="s">
+        <v>14</v>
+      </c>
+      <c r="T26" s="154" t="s">
+        <v>14</v>
+      </c>
+      <c r="U26" s="260">
+        <f ca="1">TODAY()</f>
+        <v>43502</v>
+      </c>
+      <c r="V26" s="197"/>
+      <c r="W26" s="185"/>
       <c r="X26" s="12"/>
     </row>
     <row r="27" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3790,21 +3680,21 @@
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
       <c r="H27" s="35"/>
-      <c r="I27" s="196"/>
-      <c r="J27" s="196"/>
-      <c r="K27" s="196"/>
-      <c r="L27" s="196"/>
-      <c r="M27" s="213"/>
-      <c r="N27" s="213"/>
-      <c r="O27" s="213"/>
-      <c r="P27" s="213"/>
-      <c r="Q27" s="195"/>
-      <c r="R27" s="195"/>
-      <c r="S27" s="159"/>
-      <c r="T27" s="159"/>
-      <c r="U27" s="159"/>
-      <c r="V27" s="159"/>
-      <c r="W27" s="211"/>
+      <c r="I27" s="224"/>
+      <c r="J27" s="224"/>
+      <c r="K27" s="224"/>
+      <c r="L27" s="224"/>
+      <c r="M27" s="187"/>
+      <c r="N27" s="187"/>
+      <c r="O27" s="187"/>
+      <c r="P27" s="187"/>
+      <c r="Q27" s="193"/>
+      <c r="R27" s="193"/>
+      <c r="S27" s="154"/>
+      <c r="T27" s="154"/>
+      <c r="U27" s="154"/>
+      <c r="V27" s="154"/>
+      <c r="W27" s="185"/>
       <c r="X27" s="12"/>
     </row>
     <row r="28" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -3817,41 +3707,42 @@
       <c r="G28" s="35"/>
       <c r="H28" s="35"/>
       <c r="I28" s="127"/>
-      <c r="J28" s="225" t="s">
-        <v>156</v>
-      </c>
-      <c r="K28" s="225"/>
-      <c r="L28" s="225"/>
+      <c r="J28" s="175" t="s">
+        <v>137</v>
+      </c>
+      <c r="K28" s="175"/>
+      <c r="L28" s="175"/>
       <c r="M28" s="12"/>
       <c r="N28" s="127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O28" s="127"/>
       <c r="P28" s="127"/>
-      <c r="Q28" s="195" t="s">
-        <v>17</v>
-      </c>
-      <c r="R28" s="195"/>
-      <c r="S28" s="159" t="s">
-        <v>15</v>
-      </c>
-      <c r="T28" s="159" t="s">
-        <v>15</v>
-      </c>
-      <c r="U28" s="159" t="s">
-        <v>18</v>
-      </c>
-      <c r="V28" s="159"/>
-      <c r="W28" s="211"/>
+      <c r="Q28" s="193" t="s">
+        <v>16</v>
+      </c>
+      <c r="R28" s="193"/>
+      <c r="S28" s="154" t="s">
+        <v>14</v>
+      </c>
+      <c r="T28" s="154" t="s">
+        <v>14</v>
+      </c>
+      <c r="U28" s="260">
+        <f ca="1">TODAY()</f>
+        <v>43502</v>
+      </c>
+      <c r="V28" s="154"/>
+      <c r="W28" s="185"/>
       <c r="X28" s="12"/>
     </row>
     <row r="29" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="186"/>
-      <c r="D29" s="186"/>
-      <c r="E29" s="186"/>
-      <c r="F29" s="186"/>
+      <c r="C29" s="221"/>
+      <c r="D29" s="221"/>
+      <c r="E29" s="221"/>
+      <c r="F29" s="221"/>
       <c r="G29" s="132"/>
       <c r="H29" s="35"/>
       <c r="I29" s="12"/>
@@ -3867,8 +3758,8 @@
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
-      <c r="V29" s="139"/>
-      <c r="W29" s="212"/>
+      <c r="V29" s="137"/>
+      <c r="W29" s="186"/>
       <c r="X29" s="12"/>
     </row>
     <row r="30" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3900,10 +3791,10 @@
     <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="186"/>
-      <c r="D31" s="186"/>
-      <c r="E31" s="186"/>
-      <c r="F31" s="186"/>
+      <c r="C31" s="221"/>
+      <c r="D31" s="221"/>
+      <c r="E31" s="221"/>
+      <c r="F31" s="221"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -3929,38 +3820,39 @@
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="194" t="s">
-        <v>160</v>
-      </c>
-      <c r="G32" s="194"/>
-      <c r="H32" s="194"/>
-      <c r="I32" s="194"/>
-      <c r="J32" s="194"/>
-      <c r="K32" s="194"/>
-      <c r="L32" s="194"/>
-      <c r="M32" s="159" t="s">
-        <v>161</v>
+      <c r="F32" s="198" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="198"/>
+      <c r="H32" s="198"/>
+      <c r="I32" s="198"/>
+      <c r="J32" s="198"/>
+      <c r="K32" s="198"/>
+      <c r="L32" s="198"/>
+      <c r="M32" s="154" t="s">
+        <v>142</v>
       </c>
       <c r="N32" s="127"/>
       <c r="O32" s="127"/>
       <c r="P32" s="127"/>
-      <c r="Q32" s="193" t="s">
-        <v>17</v>
-      </c>
-      <c r="R32" s="193"/>
-      <c r="S32" s="154" t="s">
-        <v>15</v>
-      </c>
-      <c r="T32" s="154" t="s">
-        <v>15</v>
-      </c>
-      <c r="U32" s="138" t="s">
-        <v>18</v>
-      </c>
-      <c r="V32" s="180" t="s">
-        <v>171</v>
-      </c>
-      <c r="W32" s="181"/>
+      <c r="Q32" s="192" t="s">
+        <v>16</v>
+      </c>
+      <c r="R32" s="192"/>
+      <c r="S32" s="150" t="s">
+        <v>14</v>
+      </c>
+      <c r="T32" s="150" t="s">
+        <v>14</v>
+      </c>
+      <c r="U32" s="260">
+        <f ca="1">TODAY()</f>
+        <v>43502</v>
+      </c>
+      <c r="V32" s="215" t="s">
+        <v>152</v>
+      </c>
+      <c r="W32" s="216"/>
       <c r="X32" s="12"/>
     </row>
     <row r="33" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3969,38 +3861,39 @@
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="194" t="s">
-        <v>160</v>
-      </c>
-      <c r="G33" s="194"/>
-      <c r="H33" s="194"/>
-      <c r="I33" s="194"/>
-      <c r="J33" s="194"/>
-      <c r="K33" s="194"/>
-      <c r="L33" s="194"/>
-      <c r="M33" s="159" t="s">
-        <v>139</v>
+      <c r="F33" s="198" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="198"/>
+      <c r="H33" s="198"/>
+      <c r="I33" s="198"/>
+      <c r="J33" s="198"/>
+      <c r="K33" s="198"/>
+      <c r="L33" s="198"/>
+      <c r="M33" s="154" t="s">
+        <v>120</v>
       </c>
       <c r="N33" s="127" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="O33" s="127"/>
       <c r="P33" s="127"/>
-      <c r="Q33" s="193" t="s">
-        <v>17</v>
-      </c>
-      <c r="R33" s="193"/>
-      <c r="S33" s="154" t="s">
-        <v>15</v>
-      </c>
-      <c r="T33" s="154" t="s">
-        <v>15</v>
-      </c>
-      <c r="U33" s="155" t="s">
-        <v>18</v>
-      </c>
-      <c r="V33" s="182"/>
-      <c r="W33" s="183"/>
+      <c r="Q33" s="192" t="s">
+        <v>16</v>
+      </c>
+      <c r="R33" s="192"/>
+      <c r="S33" s="150" t="s">
+        <v>14</v>
+      </c>
+      <c r="T33" s="150" t="s">
+        <v>14</v>
+      </c>
+      <c r="U33" s="260">
+        <f t="shared" ref="U33:U37" ca="1" si="0">TODAY()</f>
+        <v>43502</v>
+      </c>
+      <c r="V33" s="217"/>
+      <c r="W33" s="218"/>
       <c r="X33" s="12"/>
     </row>
     <row r="34" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4009,38 +3902,39 @@
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="194" t="s">
-        <v>163</v>
-      </c>
-      <c r="G34" s="194"/>
-      <c r="H34" s="194"/>
-      <c r="I34" s="194"/>
-      <c r="J34" s="194"/>
-      <c r="K34" s="194"/>
-      <c r="L34" s="194"/>
-      <c r="M34" s="159" t="s">
-        <v>164</v>
+      <c r="F34" s="198" t="s">
+        <v>144</v>
+      </c>
+      <c r="G34" s="198"/>
+      <c r="H34" s="198"/>
+      <c r="I34" s="198"/>
+      <c r="J34" s="198"/>
+      <c r="K34" s="198"/>
+      <c r="L34" s="198"/>
+      <c r="M34" s="154" t="s">
+        <v>145</v>
       </c>
       <c r="N34" s="127"/>
       <c r="O34" s="127" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="P34" s="127"/>
-      <c r="Q34" s="193" t="s">
-        <v>17</v>
-      </c>
-      <c r="R34" s="193"/>
-      <c r="S34" s="154" t="s">
-        <v>15</v>
-      </c>
-      <c r="T34" s="154" t="s">
-        <v>15</v>
-      </c>
-      <c r="U34" s="155" t="s">
-        <v>18</v>
-      </c>
-      <c r="V34" s="182"/>
-      <c r="W34" s="183"/>
+      <c r="Q34" s="192" t="s">
+        <v>16</v>
+      </c>
+      <c r="R34" s="192"/>
+      <c r="S34" s="150" t="s">
+        <v>14</v>
+      </c>
+      <c r="T34" s="150" t="s">
+        <v>14</v>
+      </c>
+      <c r="U34" s="260">
+        <f t="shared" ca="1" si="0"/>
+        <v>43502</v>
+      </c>
+      <c r="V34" s="217"/>
+      <c r="W34" s="218"/>
       <c r="X34" s="12"/>
     </row>
     <row r="35" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4056,27 +3950,28 @@
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
-      <c r="M35" s="209" t="s">
-        <v>166</v>
-      </c>
-      <c r="N35" s="209"/>
-      <c r="O35" s="209"/>
-      <c r="P35" s="209"/>
-      <c r="Q35" s="193" t="s">
-        <v>17</v>
-      </c>
-      <c r="R35" s="193"/>
-      <c r="S35" s="154" t="s">
-        <v>15</v>
-      </c>
-      <c r="T35" s="154" t="s">
-        <v>15</v>
-      </c>
-      <c r="U35" s="155" t="s">
-        <v>18</v>
-      </c>
-      <c r="V35" s="182"/>
-      <c r="W35" s="183"/>
+      <c r="M35" s="202" t="s">
+        <v>147</v>
+      </c>
+      <c r="N35" s="202"/>
+      <c r="O35" s="202"/>
+      <c r="P35" s="202"/>
+      <c r="Q35" s="192" t="s">
+        <v>16</v>
+      </c>
+      <c r="R35" s="192"/>
+      <c r="S35" s="150" t="s">
+        <v>14</v>
+      </c>
+      <c r="T35" s="150" t="s">
+        <v>14</v>
+      </c>
+      <c r="U35" s="260">
+        <f t="shared" ca="1" si="0"/>
+        <v>43502</v>
+      </c>
+      <c r="V35" s="217"/>
+      <c r="W35" s="218"/>
       <c r="X35" s="12"/>
     </row>
     <row r="36" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -4092,57 +3987,58 @@
       <c r="J36" s="134"/>
       <c r="K36" s="134"/>
       <c r="L36" s="134"/>
-      <c r="M36" s="206"/>
-      <c r="N36" s="206"/>
+      <c r="M36" s="199"/>
+      <c r="N36" s="199"/>
       <c r="O36" s="127"/>
       <c r="P36" s="127"/>
-      <c r="Q36" s="193"/>
-      <c r="R36" s="193"/>
-      <c r="S36" s="154"/>
-      <c r="T36" s="154"/>
-      <c r="U36" s="155"/>
-      <c r="V36" s="182"/>
-      <c r="W36" s="183"/>
+      <c r="Q36" s="192"/>
+      <c r="R36" s="192"/>
+      <c r="S36" s="150"/>
+      <c r="T36" s="150"/>
+      <c r="U36" s="260"/>
+      <c r="V36" s="217"/>
+      <c r="W36" s="218"/>
       <c r="X36" s="12"/>
     </row>
     <row r="37" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="207" t="s">
-        <v>167</v>
-      </c>
-      <c r="E37" s="207"/>
-      <c r="F37" s="207"/>
-      <c r="G37" s="207"/>
-      <c r="H37" s="207"/>
-      <c r="I37" s="207"/>
-      <c r="J37" s="207"/>
-      <c r="K37" s="207"/>
-      <c r="L37" s="208" t="s">
-        <v>168</v>
-      </c>
-      <c r="M37" s="208"/>
-      <c r="N37" s="208"/>
+      <c r="D37" s="200" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" s="200"/>
+      <c r="F37" s="200"/>
+      <c r="G37" s="200"/>
+      <c r="H37" s="200"/>
+      <c r="I37" s="200"/>
+      <c r="J37" s="200"/>
+      <c r="K37" s="200"/>
+      <c r="L37" s="201" t="s">
+        <v>149</v>
+      </c>
+      <c r="M37" s="201"/>
+      <c r="N37" s="201"/>
       <c r="O37" s="127" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="P37" s="127"/>
-      <c r="Q37" s="193" t="s">
-        <v>17</v>
-      </c>
-      <c r="R37" s="193"/>
-      <c r="S37" s="154" t="s">
-        <v>15</v>
-      </c>
-      <c r="T37" s="154" t="s">
-        <v>15</v>
-      </c>
-      <c r="U37" s="137" t="s">
-        <v>18</v>
-      </c>
-      <c r="V37" s="184"/>
-      <c r="W37" s="185"/>
+      <c r="Q37" s="192" t="s">
+        <v>16</v>
+      </c>
+      <c r="R37" s="192"/>
+      <c r="S37" s="150" t="s">
+        <v>14</v>
+      </c>
+      <c r="T37" s="150" t="s">
+        <v>14</v>
+      </c>
+      <c r="U37" s="260">
+        <f t="shared" ca="1" si="0"/>
+        <v>43502</v>
+      </c>
+      <c r="V37" s="219"/>
+      <c r="W37" s="220"/>
       <c r="X37" s="12"/>
     </row>
     <row r="38" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4251,18 +4147,45 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="V32:W37"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="F32:L32"/>
+    <mergeCell ref="F34:L34"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="E12:E18"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C18"/>
+    <mergeCell ref="F12:F18"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="F33:L33"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="M35:P35"/>
     <mergeCell ref="W21:W29"/>
     <mergeCell ref="M27:P27"/>
     <mergeCell ref="I2:N2"/>
@@ -4279,49 +4202,22 @@
     <mergeCell ref="J19:M19"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="V21:V26"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="F33:L33"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="E12:E18"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C18"/>
-    <mergeCell ref="F12:F18"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="V32:W37"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="F32:L32"/>
-    <mergeCell ref="F34:L34"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0"/>
-  <pageSetup paperSize="8" scale="93" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="88" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L   Док. №372.10   &amp;8\\1C\GlobArch\Рабочая папка\Выходные документы\Выходные документы (шаблоны)&amp;12
                    &amp;G</oddHeader>
@@ -4338,7 +4234,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="51" zoomScaleNormal="55" zoomScaleSheetLayoutView="51" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -4356,21 +4252,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="55.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="231" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="232"/>
-      <c r="K1" s="232"/>
-      <c r="L1" s="232"/>
-      <c r="M1" s="233"/>
+      <c r="A1" s="225" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="227"/>
     </row>
     <row r="2" spans="1:13" ht="184.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
@@ -4380,7 +4276,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>2</v>
@@ -4401,461 +4297,219 @@
         <v>7</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="25" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B3" s="19">
         <v>1</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="20" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E3" s="19">
         <v>2</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H3" s="19">
         <v>14</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="19" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="19">
-        <v>2</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="25"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="19">
-        <v>2</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="19">
-        <v>10</v>
-      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="22"/>
-      <c r="J4" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="19">
-        <v>3</v>
-      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="27"/>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="25"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="19"/>
-      <c r="D5" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="19">
-        <v>2</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="19">
-        <v>3</v>
-      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="22"/>
-      <c r="J5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="19">
-        <v>4</v>
-      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="28"/>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="25"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="19"/>
-      <c r="D6" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="19">
-        <v>2</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="19">
-        <v>1</v>
-      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="22"/>
-      <c r="J6" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="19">
-        <v>5</v>
-      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="27"/>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="25"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="19"/>
-      <c r="D7" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="19">
-        <v>2</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="19">
-        <v>1</v>
-      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="22"/>
-      <c r="J7" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="19">
-        <v>6</v>
-      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="27"/>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="25"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="19">
-        <v>2</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="19">
-        <v>1</v>
-      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="22"/>
-      <c r="J8" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="19">
-        <v>7</v>
-      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="27"/>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="25"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="19"/>
-      <c r="D9" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="19">
-        <v>2</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="19">
-        <v>1</v>
-      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="22"/>
-      <c r="J9" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="19">
-        <v>8</v>
-      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="27"/>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="25"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="19"/>
-      <c r="D10" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="19">
-        <v>2</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="19">
-        <v>1</v>
-      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="22"/>
-      <c r="J10" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="19">
-        <v>9</v>
-      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="27"/>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="25"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="19">
-        <v>2</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="19">
-        <v>1</v>
-      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="22"/>
-      <c r="J11" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="19">
-        <v>10</v>
-      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="27"/>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="25"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="19">
-        <v>2</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="19">
-        <v>11</v>
-      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="22"/>
-      <c r="J12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="19">
-        <v>11</v>
-      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="28"/>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="25"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="19"/>
-      <c r="D13" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="19">
-        <v>2</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="19">
-        <v>1</v>
-      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
       <c r="I13" s="22"/>
-      <c r="J13" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="91.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="29">
-        <v>12</v>
-      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="28"/>
+    </row>
+    <row r="14" spans="1:13" s="2" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="25"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="29"/>
-      <c r="D14" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="29">
-        <v>2</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="29">
-        <v>9</v>
-      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
       <c r="I14" s="31"/>
-      <c r="J14" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="M14" s="33" t="s">
-        <v>27</v>
-      </c>
+      <c r="J14" s="29"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4871,7 +4525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -4887,91 +4541,91 @@
   <sheetData>
     <row r="1" spans="1:13" ht="25.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="109" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B1" s="109" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C1" s="109" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="D1" s="109" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="E1" s="109" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F1" s="109" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" s="234" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" s="235"/>
-      <c r="I1" s="236"/>
+        <v>106</v>
+      </c>
+      <c r="G1" s="228" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="229"/>
+      <c r="I1" s="230"/>
       <c r="J1" s="109" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="K1" s="109" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="L1" s="109" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="M1" s="109" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="103" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B2" s="103" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C2" s="103" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="F2" s="108" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="G2" s="107" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="H2" s="106" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="I2" s="105" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="J2" s="104" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="K2" s="103" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="L2" s="103" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="M2" s="102" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="101" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B3" s="101" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C3" s="101" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="D3" s="101"/>
       <c r="E3" s="101"/>
@@ -4981,13 +4635,13 @@
       <c r="I3" s="101"/>
       <c r="J3" s="101"/>
       <c r="K3" s="101" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="L3" s="101" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="M3" s="101" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5487,8 +5141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5503,26 +5157,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="179"/>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="178"/>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="178"/>
-      <c r="S1" s="178"/>
-      <c r="T1" s="177"/>
+      <c r="A1" s="173"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="172"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="172"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="172"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="172"/>
+      <c r="T1" s="171"/>
     </row>
     <row r="2" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
@@ -5531,12 +5185,12 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="237" t="s">
-        <v>137</v>
-      </c>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238"/>
-      <c r="J2" s="238"/>
+      <c r="G2" s="240" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="241"/>
+      <c r="I2" s="241"/>
+      <c r="J2" s="241"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -5545,63 +5199,64 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
-      <c r="S2" s="156"/>
+      <c r="S2" s="151"/>
       <c r="T2" s="6"/>
     </row>
-    <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="246" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="247"/>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="247"/>
-      <c r="H3" s="247"/>
-      <c r="I3" s="247"/>
-      <c r="J3" s="247"/>
-      <c r="K3" s="230" t="s">
+    <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="243" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="244"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="182" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="182"/>
+      <c r="M3" s="182"/>
+      <c r="N3" s="182"/>
+      <c r="O3" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="230"/>
-      <c r="M3" s="230"/>
-      <c r="N3" s="230"/>
-      <c r="O3" s="193" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="193"/>
-      <c r="Q3" s="154" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="154" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="155" t="s">
-        <v>18</v>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="150" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="150" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="261">
+        <f ca="1">TODAY()</f>
+        <v>43502</v>
       </c>
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="176"/>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
-      <c r="K4" s="175"/>
-      <c r="L4" s="175"/>
-      <c r="M4" s="175"/>
-      <c r="N4" s="175"/>
-      <c r="O4" s="175"/>
-      <c r="P4" s="175"/>
-      <c r="Q4" s="175"/>
-      <c r="R4" s="175"/>
-      <c r="S4" s="175"/>
+      <c r="A4" s="170"/>
+      <c r="B4" s="169"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="169"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="169"/>
+      <c r="O4" s="169"/>
+      <c r="P4" s="169"/>
+      <c r="Q4" s="169"/>
+      <c r="R4" s="169"/>
+      <c r="S4" s="169"/>
       <c r="T4" s="6"/>
     </row>
     <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
@@ -5627,11 +5282,11 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="248" t="s">
-        <v>210</v>
-      </c>
-      <c r="B6" s="249"/>
-      <c r="C6" s="249"/>
+      <c r="A6" s="245" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="246"/>
+      <c r="C6" s="246"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -5651,11 +5306,11 @@
       <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="248" t="s">
-        <v>209</v>
-      </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="249"/>
+      <c r="A7" s="245" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="246"/>
+      <c r="C7" s="246"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -5675,11 +5330,11 @@
       <c r="T7" s="6"/>
     </row>
     <row r="8" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="248" t="s">
-        <v>208</v>
-      </c>
-      <c r="B8" s="249"/>
-      <c r="C8" s="249"/>
+      <c r="A8" s="245" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="246"/>
+      <c r="C8" s="246"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -5769,20 +5424,20 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="251" t="s">
-        <v>207</v>
-      </c>
-      <c r="F12" s="252"/>
-      <c r="G12" s="252"/>
-      <c r="H12" s="252"/>
-      <c r="I12" s="252"/>
-      <c r="J12" s="252"/>
-      <c r="K12" s="252"/>
-      <c r="L12" s="252"/>
-      <c r="M12" s="252"/>
-      <c r="N12" s="252"/>
-      <c r="O12" s="252"/>
-      <c r="P12" s="252"/>
+      <c r="E12" s="231" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="232"/>
+      <c r="G12" s="232"/>
+      <c r="H12" s="232"/>
+      <c r="I12" s="232"/>
+      <c r="J12" s="232"/>
+      <c r="K12" s="232"/>
+      <c r="L12" s="232"/>
+      <c r="M12" s="232"/>
+      <c r="N12" s="232"/>
+      <c r="O12" s="232"/>
+      <c r="P12" s="232"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -5793,18 +5448,18 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="252"/>
-      <c r="F13" s="252"/>
-      <c r="G13" s="252"/>
-      <c r="H13" s="252"/>
-      <c r="I13" s="252"/>
-      <c r="J13" s="252"/>
-      <c r="K13" s="252"/>
-      <c r="L13" s="252"/>
-      <c r="M13" s="252"/>
-      <c r="N13" s="252"/>
-      <c r="O13" s="252"/>
-      <c r="P13" s="252"/>
+      <c r="E13" s="232"/>
+      <c r="F13" s="232"/>
+      <c r="G13" s="232"/>
+      <c r="H13" s="232"/>
+      <c r="I13" s="232"/>
+      <c r="J13" s="232"/>
+      <c r="K13" s="232"/>
+      <c r="L13" s="232"/>
+      <c r="M13" s="232"/>
+      <c r="N13" s="232"/>
+      <c r="O13" s="232"/>
+      <c r="P13" s="232"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
@@ -5815,18 +5470,18 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="252"/>
-      <c r="F14" s="252"/>
-      <c r="G14" s="252"/>
-      <c r="H14" s="252"/>
-      <c r="I14" s="252"/>
-      <c r="J14" s="252"/>
-      <c r="K14" s="252"/>
-      <c r="L14" s="252"/>
-      <c r="M14" s="252"/>
-      <c r="N14" s="252"/>
-      <c r="O14" s="252"/>
-      <c r="P14" s="252"/>
+      <c r="E14" s="232"/>
+      <c r="F14" s="232"/>
+      <c r="G14" s="232"/>
+      <c r="H14" s="232"/>
+      <c r="I14" s="232"/>
+      <c r="J14" s="232"/>
+      <c r="K14" s="232"/>
+      <c r="L14" s="232"/>
+      <c r="M14" s="232"/>
+      <c r="N14" s="232"/>
+      <c r="O14" s="232"/>
+      <c r="P14" s="232"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
@@ -5837,18 +5492,18 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="174"/>
-      <c r="K15" s="174"/>
-      <c r="L15" s="174"/>
-      <c r="M15" s="174"/>
-      <c r="N15" s="174"/>
-      <c r="O15" s="174"/>
-      <c r="P15" s="174"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="168"/>
+      <c r="I15" s="168"/>
+      <c r="J15" s="168"/>
+      <c r="K15" s="168"/>
+      <c r="L15" s="168"/>
+      <c r="M15" s="168"/>
+      <c r="N15" s="168"/>
+      <c r="O15" s="168"/>
+      <c r="P15" s="168"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -5860,23 +5515,23 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="220" t="s">
-        <v>206</v>
-      </c>
-      <c r="G16" s="245"/>
-      <c r="H16" s="245"/>
-      <c r="I16" s="245"/>
-      <c r="J16" s="243" t="str">
+      <c r="F16" s="183" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" s="233"/>
+      <c r="H16" s="233"/>
+      <c r="I16" s="233"/>
+      <c r="J16" s="234" t="str">
         <f>'лист титульный КД'!N12</f>
         <v>Иванов И.И</v>
       </c>
-      <c r="K16" s="243"/>
-      <c r="L16" s="243"/>
-      <c r="M16" s="243"/>
-      <c r="N16" s="243"/>
-      <c r="O16" s="243"/>
-      <c r="P16" s="243"/>
-      <c r="Q16" s="243"/>
+      <c r="K16" s="234"/>
+      <c r="L16" s="234"/>
+      <c r="M16" s="234"/>
+      <c r="N16" s="234"/>
+      <c r="O16" s="234"/>
+      <c r="P16" s="234"/>
+      <c r="Q16" s="234"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="6"/>
@@ -5887,23 +5542,23 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="220" t="s">
-        <v>205</v>
-      </c>
-      <c r="G17" s="245"/>
-      <c r="H17" s="245"/>
-      <c r="I17" s="245"/>
-      <c r="J17" s="243" t="str">
+      <c r="F17" s="183" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="233"/>
+      <c r="H17" s="233"/>
+      <c r="I17" s="233"/>
+      <c r="J17" s="234" t="str">
         <f>'лист титульный КД'!N13</f>
         <v>Петров П.П.</v>
       </c>
-      <c r="K17" s="243"/>
-      <c r="L17" s="243"/>
-      <c r="M17" s="243"/>
-      <c r="N17" s="243"/>
-      <c r="O17" s="243"/>
-      <c r="P17" s="243"/>
-      <c r="Q17" s="243"/>
+      <c r="K17" s="234"/>
+      <c r="L17" s="234"/>
+      <c r="M17" s="234"/>
+      <c r="N17" s="234"/>
+      <c r="O17" s="234"/>
+      <c r="P17" s="234"/>
+      <c r="Q17" s="234"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="6"/>
@@ -5914,23 +5569,23 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="220" t="s">
-        <v>204</v>
-      </c>
-      <c r="G18" s="245"/>
-      <c r="H18" s="245"/>
-      <c r="I18" s="245"/>
-      <c r="J18" s="243" t="str">
+      <c r="F18" s="183" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" s="233"/>
+      <c r="H18" s="233"/>
+      <c r="I18" s="233"/>
+      <c r="J18" s="234" t="str">
         <f>'лист титульный КД'!N14</f>
         <v>г. Москва, ул. Нарвская, д.2</v>
       </c>
-      <c r="K18" s="243"/>
-      <c r="L18" s="243"/>
-      <c r="M18" s="243"/>
-      <c r="N18" s="243"/>
-      <c r="O18" s="243"/>
-      <c r="P18" s="243"/>
-      <c r="Q18" s="243"/>
+      <c r="K18" s="234"/>
+      <c r="L18" s="234"/>
+      <c r="M18" s="234"/>
+      <c r="N18" s="234"/>
+      <c r="O18" s="234"/>
+      <c r="P18" s="234"/>
+      <c r="Q18" s="234"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="6"/>
@@ -5941,23 +5596,23 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="220" t="s">
-        <v>203</v>
-      </c>
-      <c r="G19" s="245"/>
-      <c r="H19" s="245"/>
-      <c r="I19" s="245"/>
-      <c r="J19" s="243" t="str">
+      <c r="F19" s="183" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" s="233"/>
+      <c r="H19" s="233"/>
+      <c r="I19" s="233"/>
+      <c r="J19" s="234" t="str">
         <f>'лист титульный КД'!N15</f>
         <v>восьмой</v>
       </c>
-      <c r="K19" s="243"/>
-      <c r="L19" s="243"/>
-      <c r="M19" s="243"/>
-      <c r="N19" s="243"/>
-      <c r="O19" s="243"/>
-      <c r="P19" s="243"/>
-      <c r="Q19" s="243"/>
+      <c r="K19" s="234"/>
+      <c r="L19" s="234"/>
+      <c r="M19" s="234"/>
+      <c r="N19" s="234"/>
+      <c r="O19" s="234"/>
+      <c r="P19" s="234"/>
+      <c r="Q19" s="234"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="6"/>
@@ -5968,23 +5623,23 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="220" t="s">
-        <v>202</v>
-      </c>
-      <c r="G20" s="245"/>
-      <c r="H20" s="245"/>
-      <c r="I20" s="245"/>
-      <c r="J20" s="243" t="str">
+      <c r="F20" s="183" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" s="233"/>
+      <c r="H20" s="233"/>
+      <c r="I20" s="233"/>
+      <c r="J20" s="234" t="str">
         <f>'лист титульный КД'!N16</f>
         <v>кухня</v>
       </c>
-      <c r="K20" s="243"/>
-      <c r="L20" s="243"/>
-      <c r="M20" s="243"/>
-      <c r="N20" s="243"/>
-      <c r="O20" s="243"/>
-      <c r="P20" s="243"/>
-      <c r="Q20" s="243"/>
+      <c r="K20" s="234"/>
+      <c r="L20" s="234"/>
+      <c r="M20" s="234"/>
+      <c r="N20" s="234"/>
+      <c r="O20" s="234"/>
+      <c r="P20" s="234"/>
+      <c r="Q20" s="234"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="6"/>
@@ -5995,23 +5650,23 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="220" t="s">
-        <v>201</v>
-      </c>
-      <c r="G21" s="245"/>
-      <c r="H21" s="245"/>
-      <c r="I21" s="245"/>
-      <c r="J21" s="243" t="str">
+      <c r="F21" s="183" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" s="233"/>
+      <c r="H21" s="233"/>
+      <c r="I21" s="233"/>
+      <c r="J21" s="234" t="str">
         <f>'лист титульный КД'!N17</f>
         <v>гарнитур кухонный, дверной блок</v>
       </c>
-      <c r="K21" s="243"/>
-      <c r="L21" s="243"/>
-      <c r="M21" s="243"/>
-      <c r="N21" s="243"/>
-      <c r="O21" s="243"/>
-      <c r="P21" s="243"/>
-      <c r="Q21" s="243"/>
+      <c r="K21" s="234"/>
+      <c r="L21" s="234"/>
+      <c r="M21" s="234"/>
+      <c r="N21" s="234"/>
+      <c r="O21" s="234"/>
+      <c r="P21" s="234"/>
+      <c r="Q21" s="234"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="6"/>
@@ -6022,23 +5677,23 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="220" t="s">
-        <v>200</v>
-      </c>
-      <c r="G22" s="245"/>
-      <c r="H22" s="245"/>
-      <c r="I22" s="245"/>
-      <c r="J22" s="243">
+      <c r="F22" s="183" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" s="233"/>
+      <c r="H22" s="233"/>
+      <c r="I22" s="233"/>
+      <c r="J22" s="234">
         <f>'лист титульный КД'!N18</f>
         <v>500</v>
       </c>
-      <c r="K22" s="243"/>
-      <c r="L22" s="243"/>
-      <c r="M22" s="243"/>
-      <c r="N22" s="243"/>
-      <c r="O22" s="243"/>
-      <c r="P22" s="243"/>
-      <c r="Q22" s="243"/>
+      <c r="K22" s="234"/>
+      <c r="L22" s="234"/>
+      <c r="M22" s="234"/>
+      <c r="N22" s="234"/>
+      <c r="O22" s="234"/>
+      <c r="P22" s="234"/>
+      <c r="Q22" s="234"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="6"/>
@@ -6049,23 +5704,23 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="220" t="s">
-        <v>199</v>
-      </c>
-      <c r="G23" s="245"/>
-      <c r="H23" s="245"/>
-      <c r="I23" s="245"/>
-      <c r="J23" s="243" t="str">
+      <c r="F23" s="183" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" s="233"/>
+      <c r="H23" s="233"/>
+      <c r="I23" s="233"/>
+      <c r="J23" s="234" t="str">
         <f>'лист титульный КД'!N19</f>
         <v>1-15,16</v>
       </c>
-      <c r="K23" s="243"/>
-      <c r="L23" s="243"/>
-      <c r="M23" s="243"/>
-      <c r="N23" s="243"/>
-      <c r="O23" s="243"/>
-      <c r="P23" s="243"/>
-      <c r="Q23" s="243"/>
+      <c r="K23" s="234"/>
+      <c r="L23" s="234"/>
+      <c r="M23" s="234"/>
+      <c r="N23" s="234"/>
+      <c r="O23" s="234"/>
+      <c r="P23" s="234"/>
+      <c r="Q23" s="234"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="6"/>
@@ -6253,12 +5908,12 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="244" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="240"/>
-      <c r="I32" s="240"/>
-      <c r="J32" s="240"/>
+      <c r="G32" s="235" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="236"/>
+      <c r="I32" s="236"/>
+      <c r="J32" s="236"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -6267,42 +5922,43 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
-      <c r="S32" s="156"/>
+      <c r="S32" s="151"/>
       <c r="T32" s="6"/>
     </row>
-    <row r="33" spans="1:20" s="170" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="239" t="s">
-        <v>211</v>
-      </c>
-      <c r="B33" s="240"/>
-      <c r="C33" s="240"/>
-      <c r="D33" s="240"/>
-      <c r="E33" s="240"/>
-      <c r="F33" s="240"/>
-      <c r="G33" s="240"/>
-      <c r="H33" s="240"/>
-      <c r="I33" s="240"/>
-      <c r="J33" s="240"/>
-      <c r="K33" s="241" t="s">
+    <row r="33" spans="1:20" s="165" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="242" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" s="236"/>
+      <c r="C33" s="236"/>
+      <c r="D33" s="236"/>
+      <c r="E33" s="236"/>
+      <c r="F33" s="236"/>
+      <c r="G33" s="236"/>
+      <c r="H33" s="236"/>
+      <c r="I33" s="236"/>
+      <c r="J33" s="236"/>
+      <c r="K33" s="238" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" s="238"/>
+      <c r="M33" s="238"/>
+      <c r="N33" s="238"/>
+      <c r="O33" s="239" t="s">
         <v>16</v>
       </c>
-      <c r="L33" s="241"/>
-      <c r="M33" s="241"/>
-      <c r="N33" s="241"/>
-      <c r="O33" s="242" t="s">
-        <v>17</v>
-      </c>
-      <c r="P33" s="242"/>
-      <c r="Q33" s="173" t="s">
-        <v>15</v>
-      </c>
-      <c r="R33" s="173" t="s">
-        <v>15</v>
-      </c>
-      <c r="S33" s="172" t="s">
-        <v>18</v>
-      </c>
-      <c r="T33" s="171"/>
+      <c r="P33" s="239"/>
+      <c r="Q33" s="167" t="s">
+        <v>14</v>
+      </c>
+      <c r="R33" s="167" t="s">
+        <v>14</v>
+      </c>
+      <c r="S33" s="261">
+        <f ca="1">TODAY()</f>
+        <v>43502</v>
+      </c>
+      <c r="T33" s="166"/>
     </row>
     <row r="34" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
@@ -6312,18 +5968,18 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="162"/>
-      <c r="I34" s="162"/>
-      <c r="J34" s="162"/>
+      <c r="H34" s="157"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="157"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
-      <c r="Q34" s="163"/>
-      <c r="R34" s="163"/>
-      <c r="S34" s="156"/>
+      <c r="Q34" s="158"/>
+      <c r="R34" s="158"/>
+      <c r="S34" s="151"/>
       <c r="T34" s="6"/>
     </row>
     <row r="35" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6333,90 +5989,92 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="244" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="240"/>
-      <c r="I35" s="240"/>
-      <c r="J35" s="240"/>
+      <c r="G35" s="235" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="236"/>
+      <c r="I35" s="236"/>
+      <c r="J35" s="236"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
-      <c r="Q35" s="163"/>
-      <c r="R35" s="163"/>
-      <c r="S35" s="156"/>
+      <c r="Q35" s="158"/>
+      <c r="R35" s="158"/>
+      <c r="S35" s="151"/>
       <c r="T35" s="6"/>
     </row>
-    <row r="36" spans="1:20" s="170" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="250" t="s">
-        <v>198</v>
-      </c>
-      <c r="B36" s="240"/>
-      <c r="C36" s="240"/>
-      <c r="D36" s="240"/>
-      <c r="E36" s="240"/>
-      <c r="F36" s="240"/>
-      <c r="G36" s="240"/>
-      <c r="H36" s="240"/>
-      <c r="I36" s="240"/>
-      <c r="J36" s="240"/>
-      <c r="K36" s="241" t="s">
+    <row r="36" spans="1:20" s="165" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="237" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" s="236"/>
+      <c r="C36" s="236"/>
+      <c r="D36" s="236"/>
+      <c r="E36" s="236"/>
+      <c r="F36" s="236"/>
+      <c r="G36" s="236"/>
+      <c r="H36" s="236"/>
+      <c r="I36" s="236"/>
+      <c r="J36" s="236"/>
+      <c r="K36" s="238" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36" s="238"/>
+      <c r="M36" s="238"/>
+      <c r="N36" s="238"/>
+      <c r="O36" s="239" t="s">
         <v>16</v>
       </c>
-      <c r="L36" s="241"/>
-      <c r="M36" s="241"/>
-      <c r="N36" s="241"/>
-      <c r="O36" s="242" t="s">
-        <v>17</v>
-      </c>
-      <c r="P36" s="242"/>
-      <c r="Q36" s="173" t="s">
+      <c r="P36" s="239"/>
+      <c r="Q36" s="167" t="s">
+        <v>14</v>
+      </c>
+      <c r="R36" s="167" t="s">
+        <v>14</v>
+      </c>
+      <c r="S36" s="261">
+        <f ca="1">TODAY()</f>
+        <v>43502</v>
+      </c>
+      <c r="T36" s="166"/>
+    </row>
+    <row r="37" spans="1:20" s="165" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="237" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" s="236"/>
+      <c r="C37" s="236"/>
+      <c r="D37" s="236"/>
+      <c r="E37" s="236"/>
+      <c r="F37" s="236"/>
+      <c r="G37" s="236"/>
+      <c r="H37" s="236"/>
+      <c r="I37" s="236"/>
+      <c r="J37" s="236"/>
+      <c r="K37" s="238" t="s">
         <v>15</v>
       </c>
-      <c r="R36" s="173" t="s">
-        <v>15</v>
-      </c>
-      <c r="S36" s="172" t="s">
-        <v>18</v>
-      </c>
-      <c r="T36" s="171"/>
-    </row>
-    <row r="37" spans="1:20" s="170" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="250" t="s">
-        <v>197</v>
-      </c>
-      <c r="B37" s="240"/>
-      <c r="C37" s="240"/>
-      <c r="D37" s="240"/>
-      <c r="E37" s="240"/>
-      <c r="F37" s="240"/>
-      <c r="G37" s="240"/>
-      <c r="H37" s="240"/>
-      <c r="I37" s="240"/>
-      <c r="J37" s="240"/>
-      <c r="K37" s="241" t="s">
+      <c r="L37" s="238"/>
+      <c r="M37" s="238"/>
+      <c r="N37" s="238"/>
+      <c r="O37" s="239" t="s">
         <v>16</v>
       </c>
-      <c r="L37" s="241"/>
-      <c r="M37" s="241"/>
-      <c r="N37" s="241"/>
-      <c r="O37" s="242" t="s">
-        <v>17</v>
-      </c>
-      <c r="P37" s="242"/>
-      <c r="Q37" s="173" t="s">
-        <v>15</v>
-      </c>
-      <c r="R37" s="173" t="s">
-        <v>15</v>
-      </c>
-      <c r="S37" s="172" t="s">
-        <v>18</v>
-      </c>
-      <c r="T37" s="171"/>
+      <c r="P37" s="239"/>
+      <c r="Q37" s="167" t="s">
+        <v>14</v>
+      </c>
+      <c r="R37" s="167" t="s">
+        <v>14</v>
+      </c>
+      <c r="S37" s="261">
+        <f ca="1">TODAY()</f>
+        <v>43502</v>
+      </c>
+      <c r="T37" s="166"/>
     </row>
     <row r="38" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
@@ -6426,63 +6084,44 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="162"/>
-      <c r="I38" s="162"/>
-      <c r="J38" s="162"/>
+      <c r="H38" s="157"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="157"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
-      <c r="Q38" s="163"/>
-      <c r="R38" s="163"/>
-      <c r="S38" s="156"/>
+      <c r="Q38" s="158"/>
+      <c r="R38" s="158"/>
+      <c r="S38" s="151"/>
       <c r="T38" s="6"/>
     </row>
     <row r="39" spans="1:20" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="169"/>
-      <c r="B39" s="168"/>
-      <c r="C39" s="168"/>
-      <c r="D39" s="168"/>
-      <c r="E39" s="168"/>
-      <c r="F39" s="168"/>
-      <c r="G39" s="168"/>
-      <c r="H39" s="168"/>
-      <c r="I39" s="168"/>
-      <c r="J39" s="168"/>
-      <c r="K39" s="168"/>
-      <c r="L39" s="168"/>
-      <c r="M39" s="168"/>
-      <c r="N39" s="168"/>
-      <c r="O39" s="168"/>
-      <c r="P39" s="168"/>
-      <c r="Q39" s="168"/>
-      <c r="R39" s="168"/>
-      <c r="S39" s="168"/>
-      <c r="T39" s="167"/>
+      <c r="A39" s="164"/>
+      <c r="B39" s="163"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="163"/>
+      <c r="E39" s="163"/>
+      <c r="F39" s="163"/>
+      <c r="G39" s="163"/>
+      <c r="H39" s="163"/>
+      <c r="I39" s="163"/>
+      <c r="J39" s="163"/>
+      <c r="K39" s="163"/>
+      <c r="L39" s="163"/>
+      <c r="M39" s="163"/>
+      <c r="N39" s="163"/>
+      <c r="O39" s="163"/>
+      <c r="P39" s="163"/>
+      <c r="Q39" s="163"/>
+      <c r="R39" s="163"/>
+      <c r="S39" s="163"/>
+      <c r="T39" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E12:P14"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="O36:P36"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="A33:J33"/>
@@ -6499,6 +6138,25 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="E12:P14"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="J17:Q17"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -6529,53 +6187,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="253" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="254"/>
-      <c r="C1" s="254"/>
-      <c r="D1" s="254"/>
-      <c r="E1" s="254"/>
-      <c r="F1" s="254"/>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="255"/>
+      <c r="A1" s="247" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="248"/>
+      <c r="G1" s="248"/>
+      <c r="H1" s="248"/>
+      <c r="I1" s="248"/>
+      <c r="J1" s="248"/>
+      <c r="K1" s="249"/>
     </row>
     <row r="2" spans="1:11" s="47" customFormat="1" ht="124.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="55" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F2" s="54" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="G2" s="54" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="H2" s="54" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="I2" s="55" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="55" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="K2" s="54" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="47" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -6920,7 +6578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="33" zoomScaleNormal="40" zoomScaleSheetLayoutView="33" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
@@ -6936,203 +6594,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="258" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="259"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="259"/>
-      <c r="J1" s="259"/>
-      <c r="K1" s="259"/>
-      <c r="L1" s="259"/>
-      <c r="M1" s="259"/>
-      <c r="N1" s="259"/>
-      <c r="O1" s="259"/>
-      <c r="P1" s="259"/>
-      <c r="Q1" s="259"/>
-      <c r="R1" s="259"/>
-      <c r="S1" s="260"/>
+      <c r="A1" s="252" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="253"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="253"/>
+      <c r="J1" s="253"/>
+      <c r="K1" s="253"/>
+      <c r="L1" s="253"/>
+      <c r="M1" s="253"/>
+      <c r="N1" s="253"/>
+      <c r="O1" s="253"/>
+      <c r="P1" s="253"/>
+      <c r="Q1" s="253"/>
+      <c r="R1" s="253"/>
+      <c r="S1" s="254"/>
     </row>
     <row r="2" spans="1:19" s="88" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="255" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="255" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="255" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="255" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="255" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="255" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="255" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="258" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="259"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" s="90" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="89" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="78" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="256"/>
+      <c r="B3" s="256"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="R3" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="S3" s="87" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="78" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="256"/>
+      <c r="B4" s="256"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="256"/>
+      <c r="F4" s="256"/>
+      <c r="G4" s="256"/>
+      <c r="H4" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="250" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="261" t="s">
+      <c r="K4" s="251"/>
+      <c r="L4" s="251"/>
+      <c r="M4" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="261" t="s">
+      <c r="N4" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="261" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="261" t="s">
+      <c r="O4" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="261" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="261" t="s">
+      <c r="P4" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="89" t="s">
-        <v>110</v>
-      </c>
-      <c r="I2" s="92" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" s="264" t="s">
-        <v>108</v>
-      </c>
-      <c r="K2" s="265"/>
-      <c r="L2" s="265"/>
-      <c r="M2" s="89" t="s">
-        <v>107</v>
-      </c>
-      <c r="N2" s="92" t="s">
-        <v>106</v>
-      </c>
-      <c r="O2" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="P2" s="89" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q2" s="90" t="s">
-        <v>103</v>
-      </c>
-      <c r="R2" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="S2" s="89" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="78" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="262"/>
-      <c r="B3" s="262"/>
-      <c r="C3" s="262"/>
-      <c r="D3" s="262"/>
-      <c r="E3" s="262"/>
-      <c r="F3" s="262"/>
-      <c r="G3" s="262"/>
-      <c r="H3" s="84" t="s">
-        <v>100</v>
-      </c>
-      <c r="I3" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="J3" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="L3" s="83" t="s">
-        <v>96</v>
-      </c>
-      <c r="M3" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="N3" s="82" t="s">
-        <v>94</v>
-      </c>
-      <c r="O3" s="82" t="s">
-        <v>94</v>
-      </c>
-      <c r="P3" s="82" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q3" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="R3" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="S3" s="87" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="78" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="262"/>
-      <c r="B4" s="262"/>
-      <c r="C4" s="262"/>
-      <c r="D4" s="262"/>
-      <c r="E4" s="262"/>
-      <c r="F4" s="262"/>
-      <c r="G4" s="262"/>
-      <c r="H4" s="84" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4" s="256" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" s="257"/>
-      <c r="L4" s="257"/>
-      <c r="M4" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="N4" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="O4" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="P4" s="82" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q4" s="82" t="s">
-        <v>85</v>
-      </c>
-      <c r="R4" s="86" t="s">
-        <v>84</v>
-      </c>
       <c r="S4" s="85" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="78" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="263"/>
-      <c r="B5" s="263"/>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
-      <c r="E5" s="263"/>
-      <c r="F5" s="263"/>
-      <c r="G5" s="263"/>
+      <c r="A5" s="257"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
       <c r="H5" s="84" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="I5" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="J5" s="256" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" s="257"/>
-      <c r="L5" s="257"/>
+        <v>62</v>
+      </c>
+      <c r="J5" s="250" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="251"/>
+      <c r="L5" s="251"/>
       <c r="M5" s="83" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="N5" s="82" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="O5" s="79"/>
       <c r="P5" s="81" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="81" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="R5" s="80" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="S5" s="79"/>
     </row>
@@ -7174,13 +6832,13 @@
       <c r="H7" s="73"/>
       <c r="I7" s="73"/>
       <c r="J7" s="73" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="K7" s="73" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="L7" s="73" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="M7" s="73"/>
       <c r="N7" s="73"/>
@@ -7201,13 +6859,13 @@
       <c r="H8" s="73"/>
       <c r="I8" s="73"/>
       <c r="J8" s="73" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="K8" s="73" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="L8" s="73" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="M8" s="73"/>
       <c r="N8" s="73"/>
@@ -7873,7 +7531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
@@ -7894,61 +7552,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="253" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="254"/>
-      <c r="C1" s="254"/>
-      <c r="D1" s="254"/>
-      <c r="E1" s="254"/>
-      <c r="F1" s="254"/>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="254"/>
-      <c r="L1" s="254"/>
-      <c r="M1" s="255"/>
+      <c r="A1" s="247" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="248"/>
+      <c r="G1" s="248"/>
+      <c r="H1" s="248"/>
+      <c r="I1" s="248"/>
+      <c r="J1" s="248"/>
+      <c r="K1" s="248"/>
+      <c r="L1" s="248"/>
+      <c r="M1" s="249"/>
     </row>
     <row r="2" spans="1:13" s="47" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="98" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B2" s="98" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C2" s="98" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="D2" s="98" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="E2" s="98" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F2" s="98" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="G2" s="98" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="H2" s="98" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="I2" s="98" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="J2" s="98" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="K2" s="98" t="s">
         <v>5</v>
       </c>
       <c r="L2" s="98" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="M2" s="98" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">

--- a/dist/files/xls/shablon-kd.xlsx
+++ b/dist/files/xls/shablon-kd.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OPEN_SERVER\OSPanel\domains\localhost\www\dist\files\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8190" tabRatio="778"/>
   </bookViews>
@@ -26,7 +21,7 @@
     <definedName name="_FilterDatabase" localSheetId="4" hidden="1">'ВЕДОМОСТЬ ФУРНИТУРЫ'!$A$2:$K$27</definedName>
     <definedName name="address">'лист титульный КД'!$N$14</definedName>
     <definedName name="agent">'лист титульный КД'!$N$13</definedName>
-    <definedName name="builder">'лист титульный КД'!$M$22</definedName>
+    <definedName name="builder">'лист титульный КД'!$N$22</definedName>
     <definedName name="client">'лист титульный КД'!$N$12</definedName>
     <definedName name="complect">'лист титульный КД'!$N$17</definedName>
     <definedName name="floor">'лист титульный КД'!$N$15</definedName>
@@ -38,7 +33,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'лист титульный КД'!$A$1:$W$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'спецификация конструкторская'!$A$1:$M$34</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -516,12 +511,6 @@
     <t>Инструктаж по монтажу изделий проведен:</t>
   </si>
   <si>
-    <t>НАЧАЛЬНИК ОТК ____________</t>
-  </si>
-  <si>
-    <t>______________________</t>
-  </si>
-  <si>
     <t>Инструктаж по монтажу изделий получил:</t>
   </si>
   <si>
@@ -529,9 +518,6 @@
   </si>
   <si>
     <t>__________</t>
-  </si>
-  <si>
-    <t>Монтажник ________________</t>
   </si>
   <si>
     <t>Норматив по монтажу изделий на объекте (кол-во чел./дней):</t>
@@ -673,14 +659,23 @@
   </si>
   <si>
     <t>исполнитель КД</t>
+  </si>
+  <si>
+    <t>НАЧАЛЬНИК ОТК _______________</t>
+  </si>
+  <si>
+    <t>_______________________</t>
+  </si>
+  <si>
+    <t>Монтажник __________________</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="yyyy"/>
   </numFmts>
   <fonts count="50" x14ac:knownFonts="1">
     <font>
@@ -1725,7 +1720,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="277">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2027,7 +2022,6 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2063,9 +2057,6 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2073,17 +2064,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2146,155 +2131,171 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2313,50 +2314,50 @@
     <xf numFmtId="0" fontId="37" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2401,13 +2402,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="21" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2727,7 +2748,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2737,8 +2758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="66" zoomScaleNormal="100" zoomScaleSheetLayoutView="66" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="66" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22:P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2755,7 +2776,7 @@
     <col min="11" max="11" width="9.125" style="3" customWidth="1"/>
     <col min="12" max="12" width="6.25" style="3" customWidth="1"/>
     <col min="13" max="13" width="5" style="3" customWidth="1"/>
-    <col min="14" max="14" width="17.375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.375" style="276" customWidth="1"/>
     <col min="15" max="15" width="5.5" style="3" customWidth="1"/>
     <col min="16" max="16" width="10.625" style="3" customWidth="1"/>
     <col min="17" max="17" width="9.625" style="3" customWidth="1"/>
@@ -2777,24 +2798,24 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
-      <c r="I1" s="148" t="s">
-        <v>167</v>
-      </c>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="144"/>
+      <c r="I1" s="144" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="262"/>
+      <c r="O1" s="143"/>
+      <c r="P1" s="143"/>
+      <c r="Q1" s="143"/>
+      <c r="R1" s="143"/>
+      <c r="S1" s="143"/>
+      <c r="T1" s="143"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="141"/>
+      <c r="X1" s="140"/>
     </row>
     <row r="2" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
@@ -2805,24 +2826,24 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="188" t="s">
+      <c r="I2" s="206" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="190"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="208"/>
       <c r="O2" s="111"/>
-      <c r="P2" s="191" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q2" s="176"/>
-      <c r="R2" s="176"/>
-      <c r="S2" s="176"/>
-      <c r="T2" s="176"/>
-      <c r="U2" s="176"/>
-      <c r="V2" s="152"/>
+      <c r="P2" s="209" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="210"/>
+      <c r="S2" s="210"/>
+      <c r="T2" s="210"/>
+      <c r="U2" s="210"/>
+      <c r="V2" s="148"/>
       <c r="W2" s="37"/>
       <c r="X2" s="12"/>
     </row>
@@ -2842,11 +2863,11 @@
         <v>32</v>
       </c>
       <c r="K3" s="114"/>
-      <c r="L3" s="176" t="s">
+      <c r="L3" s="210" t="s">
         <v>119</v>
       </c>
-      <c r="M3" s="176"/>
-      <c r="N3" s="115" t="s">
+      <c r="M3" s="210"/>
+      <c r="N3" s="263" t="s">
         <v>33</v>
       </c>
       <c r="O3" s="111"/>
@@ -2857,14 +2878,14 @@
         <v>40</v>
       </c>
       <c r="R3" s="114"/>
-      <c r="S3" s="176" t="s">
+      <c r="S3" s="210" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="176"/>
-      <c r="U3" s="141" t="s">
+      <c r="T3" s="210"/>
+      <c r="U3" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="141"/>
+      <c r="V3" s="138"/>
       <c r="W3" s="37"/>
       <c r="X3" s="12"/>
     </row>
@@ -2880,33 +2901,33 @@
       <c r="I4" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="116" t="s">
+      <c r="J4" s="115" t="s">
         <v>34</v>
       </c>
       <c r="K4" s="111"/>
-      <c r="L4" s="177" t="s">
+      <c r="L4" s="180" t="s">
         <v>119</v>
       </c>
-      <c r="M4" s="177"/>
-      <c r="N4" s="143" t="s">
-        <v>165</v>
+      <c r="M4" s="180"/>
+      <c r="N4" s="264" t="s">
+        <v>162</v>
       </c>
       <c r="O4" s="111"/>
       <c r="P4" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="116" t="s">
+      <c r="Q4" s="115" t="s">
         <v>34</v>
       </c>
       <c r="R4" s="111"/>
-      <c r="S4" s="177" t="s">
+      <c r="S4" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="177"/>
-      <c r="U4" s="142" t="s">
-        <v>165</v>
-      </c>
-      <c r="V4" s="142"/>
+      <c r="T4" s="180"/>
+      <c r="U4" s="139" t="s">
+        <v>162</v>
+      </c>
+      <c r="V4" s="139"/>
       <c r="W4" s="38"/>
       <c r="X4" s="12"/>
     </row>
@@ -2922,33 +2943,33 @@
       <c r="I5" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="116" t="s">
-        <v>164</v>
+      <c r="J5" s="115" t="s">
+        <v>161</v>
       </c>
       <c r="K5" s="111"/>
-      <c r="L5" s="177" t="s">
+      <c r="L5" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="177"/>
-      <c r="N5" s="115" t="s">
-        <v>163</v>
+      <c r="M5" s="180"/>
+      <c r="N5" s="263" t="s">
+        <v>160</v>
       </c>
       <c r="O5" s="111"/>
       <c r="P5" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="Q5" s="116" t="s">
-        <v>164</v>
+      <c r="Q5" s="115" t="s">
+        <v>161</v>
       </c>
       <c r="R5" s="111"/>
-      <c r="S5" s="177" t="s">
+      <c r="S5" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="T5" s="177"/>
-      <c r="U5" s="141" t="s">
-        <v>163</v>
-      </c>
-      <c r="V5" s="141"/>
+      <c r="T5" s="180"/>
+      <c r="U5" s="138" t="s">
+        <v>160</v>
+      </c>
+      <c r="V5" s="138"/>
       <c r="W5" s="11"/>
       <c r="X5" s="12"/>
     </row>
@@ -2966,23 +2987,23 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
-      <c r="N6" s="11"/>
+      <c r="N6" s="265"/>
       <c r="O6" s="111"/>
       <c r="P6" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="116" t="s">
-        <v>162</v>
+      <c r="Q6" s="115" t="s">
+        <v>159</v>
       </c>
       <c r="R6" s="111"/>
-      <c r="S6" s="177" t="s">
+      <c r="S6" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="T6" s="177"/>
-      <c r="U6" s="116" t="s">
-        <v>161</v>
-      </c>
-      <c r="V6" s="116"/>
+      <c r="T6" s="180"/>
+      <c r="U6" s="115" t="s">
+        <v>158</v>
+      </c>
+      <c r="V6" s="115"/>
       <c r="W6" s="39"/>
       <c r="X6" s="12"/>
     </row>
@@ -2998,33 +3019,33 @@
       <c r="I7" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="116" t="s">
+      <c r="J7" s="115" t="s">
         <v>35</v>
       </c>
       <c r="K7" s="111"/>
-      <c r="L7" s="177" t="s">
+      <c r="L7" s="180" t="s">
         <v>119</v>
       </c>
-      <c r="M7" s="177"/>
-      <c r="N7" s="115" t="s">
+      <c r="M7" s="180"/>
+      <c r="N7" s="263" t="s">
         <v>36</v>
       </c>
       <c r="O7" s="111"/>
       <c r="P7" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="116" t="s">
+      <c r="Q7" s="115" t="s">
         <v>35</v>
       </c>
       <c r="R7" s="111"/>
-      <c r="S7" s="177" t="s">
+      <c r="S7" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="T7" s="177"/>
-      <c r="U7" s="141" t="s">
+      <c r="T7" s="180"/>
+      <c r="U7" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="V7" s="141"/>
+      <c r="V7" s="138"/>
       <c r="W7" s="40"/>
       <c r="X7" s="12"/>
     </row>
@@ -3040,91 +3061,91 @@
       <c r="I8" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="116" t="s">
+      <c r="J8" s="115" t="s">
         <v>120</v>
       </c>
       <c r="K8" s="111"/>
-      <c r="L8" s="149" t="s">
+      <c r="L8" s="145" t="s">
         <v>121</v>
       </c>
-      <c r="M8" s="149"/>
-      <c r="N8" s="135"/>
+      <c r="M8" s="145"/>
+      <c r="N8" s="266"/>
       <c r="O8" s="111"/>
       <c r="P8" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="116" t="s">
+      <c r="Q8" s="115" t="s">
         <v>120</v>
       </c>
       <c r="R8" s="111"/>
-      <c r="S8" s="149" t="s">
+      <c r="S8" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="T8" s="149"/>
-      <c r="U8" s="149"/>
-      <c r="V8" s="149"/>
+      <c r="T8" s="145"/>
+      <c r="U8" s="145"/>
+      <c r="V8" s="145"/>
       <c r="W8" s="40"/>
       <c r="X8" s="12"/>
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="204" t="s">
+      <c r="A9" s="190" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="205" t="s">
+      <c r="B9" s="184" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="211" t="s">
+      <c r="C9" s="183" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="206" t="s">
+      <c r="D9" s="191" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="206"/>
-      <c r="F9" s="206"/>
-      <c r="G9" s="206"/>
-      <c r="H9" s="210"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="140" t="s">
-        <v>160</v>
-      </c>
-      <c r="M9" s="140"/>
-      <c r="N9" s="139" t="s">
-        <v>159</v>
+      <c r="E9" s="191"/>
+      <c r="F9" s="191"/>
+      <c r="G9" s="191"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="M9" s="137"/>
+      <c r="N9" s="267" t="s">
+        <v>156</v>
       </c>
       <c r="O9" s="12"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="118"/>
-      <c r="R9" s="118"/>
-      <c r="S9" s="136" t="s">
+      <c r="P9" s="116"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="T9" s="136"/>
-      <c r="U9" s="136" t="s">
+      <c r="T9" s="134"/>
+      <c r="U9" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="V9" s="136"/>
+      <c r="V9" s="134"/>
       <c r="W9" s="15"/>
       <c r="X9" s="12"/>
     </row>
     <row r="10" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="204"/>
-      <c r="B10" s="205"/>
-      <c r="C10" s="211"/>
-      <c r="D10" s="206" t="s">
+      <c r="A10" s="190"/>
+      <c r="B10" s="184"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="191" t="s">
         <v>126</v>
       </c>
-      <c r="E10" s="207" t="s">
+      <c r="E10" s="181" t="s">
         <v>127</v>
       </c>
-      <c r="F10" s="207" t="s">
+      <c r="F10" s="181" t="s">
         <v>128</v>
       </c>
-      <c r="G10" s="205" t="s">
+      <c r="G10" s="184" t="s">
         <v>129</v>
       </c>
-      <c r="H10" s="211" t="s">
+      <c r="H10" s="183" t="s">
         <v>130</v>
       </c>
       <c r="I10" s="5"/>
@@ -3132,7 +3153,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
+      <c r="N10" s="268"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
@@ -3145,26 +3166,26 @@
       <c r="X10" s="12"/>
     </row>
     <row r="11" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="204"/>
-      <c r="B11" s="205"/>
-      <c r="C11" s="211"/>
-      <c r="D11" s="206"/>
-      <c r="E11" s="207"/>
-      <c r="F11" s="222"/>
-      <c r="G11" s="205"/>
-      <c r="H11" s="211"/>
+      <c r="A11" s="190"/>
+      <c r="B11" s="184"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="191"/>
+      <c r="E11" s="181"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="183"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="161" t="s">
+      <c r="K11" s="157" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="161"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="161"/>
+      <c r="L11" s="157"/>
+      <c r="M11" s="157"/>
+      <c r="N11" s="269"/>
+      <c r="O11" s="157"/>
+      <c r="P11" s="157"/>
+      <c r="Q11" s="157"/>
+      <c r="R11" s="157"/>
       <c r="S11" s="7"/>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
@@ -3173,43 +3194,43 @@
       <c r="X11" s="12"/>
     </row>
     <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="203" t="s">
+      <c r="A12" s="189" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="208" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="208" t="s">
+      <c r="B12" s="192" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="192" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="208" t="s">
+      <c r="D12" s="192" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="209" t="s">
+      <c r="E12" s="193" t="s">
         <v>134</v>
       </c>
-      <c r="F12" s="209" t="s">
+      <c r="F12" s="193" t="s">
         <v>135</v>
       </c>
-      <c r="G12" s="212" t="s">
-        <v>157</v>
-      </c>
-      <c r="H12" s="223" t="s">
+      <c r="G12" s="195" t="s">
+        <v>154</v>
+      </c>
+      <c r="H12" s="185" t="s">
         <v>136</v>
       </c>
-      <c r="I12" s="153"/>
-      <c r="J12" s="180" t="s">
+      <c r="I12" s="149"/>
+      <c r="J12" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="180"/>
-      <c r="L12" s="180"/>
-      <c r="M12" s="180"/>
-      <c r="N12" s="160" t="s">
-        <v>177</v>
-      </c>
-      <c r="O12" s="160"/>
+      <c r="K12" s="219"/>
+      <c r="L12" s="219"/>
+      <c r="M12" s="219"/>
+      <c r="N12" s="270" t="s">
+        <v>174</v>
+      </c>
+      <c r="O12" s="156"/>
       <c r="P12" s="12"/>
-      <c r="Q12" s="153"/>
+      <c r="Q12" s="149"/>
       <c r="R12" s="110"/>
       <c r="S12" s="7"/>
       <c r="T12" s="12"/>
@@ -3219,29 +3240,29 @@
       <c r="X12" s="12"/>
     </row>
     <row r="13" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="203"/>
-      <c r="B13" s="208"/>
-      <c r="C13" s="208"/>
-      <c r="D13" s="208"/>
-      <c r="E13" s="209"/>
-      <c r="F13" s="209"/>
-      <c r="G13" s="213"/>
-      <c r="H13" s="223"/>
+      <c r="A13" s="189"/>
+      <c r="B13" s="192"/>
+      <c r="C13" s="192"/>
+      <c r="D13" s="192"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="185"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="181" t="s">
-        <v>176</v>
-      </c>
-      <c r="K13" s="181"/>
-      <c r="L13" s="181"/>
-      <c r="M13" s="181"/>
-      <c r="N13" s="160" t="s">
-        <v>175</v>
-      </c>
-      <c r="O13" s="160"/>
+      <c r="J13" s="220" t="s">
+        <v>173</v>
+      </c>
+      <c r="K13" s="220"/>
+      <c r="L13" s="220"/>
+      <c r="M13" s="220"/>
+      <c r="N13" s="270" t="s">
+        <v>172</v>
+      </c>
+      <c r="O13" s="156"/>
       <c r="P13" s="12"/>
-      <c r="Q13" s="155"/>
-      <c r="R13" s="155"/>
-      <c r="S13" s="155"/>
+      <c r="Q13" s="151"/>
+      <c r="R13" s="151"/>
+      <c r="S13" s="151"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
@@ -3249,29 +3270,29 @@
       <c r="X13" s="12"/>
     </row>
     <row r="14" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="203"/>
-      <c r="B14" s="208"/>
-      <c r="C14" s="208"/>
-      <c r="D14" s="208"/>
-      <c r="E14" s="209"/>
-      <c r="F14" s="209"/>
-      <c r="G14" s="213"/>
-      <c r="H14" s="223"/>
+      <c r="A14" s="189"/>
+      <c r="B14" s="192"/>
+      <c r="C14" s="192"/>
+      <c r="D14" s="192"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="185"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="183" t="s">
+      <c r="J14" s="212" t="s">
         <v>116</v>
       </c>
-      <c r="K14" s="183"/>
-      <c r="L14" s="183"/>
-      <c r="M14" s="183"/>
-      <c r="N14" s="159" t="s">
-        <v>151</v>
-      </c>
-      <c r="O14" s="159"/>
+      <c r="K14" s="212"/>
+      <c r="L14" s="212"/>
+      <c r="M14" s="212"/>
+      <c r="N14" s="271" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" s="155"/>
       <c r="P14" s="12"/>
-      <c r="Q14" s="159"/>
-      <c r="R14" s="159"/>
-      <c r="S14" s="159"/>
+      <c r="Q14" s="155"/>
+      <c r="R14" s="155"/>
+      <c r="S14" s="155"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
@@ -3279,29 +3300,29 @@
       <c r="X14" s="12"/>
     </row>
     <row r="15" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="203"/>
-      <c r="B15" s="208"/>
-      <c r="C15" s="208"/>
-      <c r="D15" s="208"/>
-      <c r="E15" s="209"/>
-      <c r="F15" s="209"/>
-      <c r="G15" s="214"/>
-      <c r="H15" s="223"/>
+      <c r="A15" s="189"/>
+      <c r="B15" s="192"/>
+      <c r="C15" s="192"/>
+      <c r="D15" s="192"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="197"/>
+      <c r="H15" s="185"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="183" t="s">
-        <v>174</v>
-      </c>
-      <c r="K15" s="183"/>
-      <c r="L15" s="183"/>
-      <c r="M15" s="183"/>
-      <c r="N15" s="159" t="s">
-        <v>173</v>
-      </c>
-      <c r="O15" s="159"/>
+      <c r="J15" s="212" t="s">
+        <v>171</v>
+      </c>
+      <c r="K15" s="212"/>
+      <c r="L15" s="212"/>
+      <c r="M15" s="212"/>
+      <c r="N15" s="271" t="s">
+        <v>170</v>
+      </c>
+      <c r="O15" s="155"/>
       <c r="P15" s="12"/>
-      <c r="Q15" s="159"/>
-      <c r="R15" s="159"/>
-      <c r="S15" s="159"/>
+      <c r="Q15" s="155"/>
+      <c r="R15" s="155"/>
+      <c r="S15" s="155"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
@@ -3309,31 +3330,31 @@
       <c r="X15" s="12"/>
     </row>
     <row r="16" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="203"/>
-      <c r="B16" s="208"/>
-      <c r="C16" s="208"/>
-      <c r="D16" s="208"/>
-      <c r="E16" s="209"/>
-      <c r="F16" s="209"/>
-      <c r="G16" s="212" t="s">
-        <v>156</v>
-      </c>
-      <c r="H16" s="223"/>
+      <c r="A16" s="189"/>
+      <c r="B16" s="192"/>
+      <c r="C16" s="192"/>
+      <c r="D16" s="192"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="195" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="185"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="183" t="s">
-        <v>172</v>
-      </c>
-      <c r="K16" s="183"/>
-      <c r="L16" s="183"/>
-      <c r="M16" s="183"/>
-      <c r="N16" s="159" t="s">
-        <v>171</v>
-      </c>
-      <c r="O16" s="159"/>
+      <c r="J16" s="212" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" s="212"/>
+      <c r="L16" s="212"/>
+      <c r="M16" s="212"/>
+      <c r="N16" s="271" t="s">
+        <v>168</v>
+      </c>
+      <c r="O16" s="155"/>
       <c r="P16" s="12"/>
-      <c r="Q16" s="159"/>
-      <c r="R16" s="159"/>
-      <c r="S16" s="159"/>
+      <c r="Q16" s="155"/>
+      <c r="R16" s="155"/>
+      <c r="S16" s="155"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
@@ -3341,29 +3362,29 @@
       <c r="X16" s="12"/>
     </row>
     <row r="17" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="203"/>
-      <c r="B17" s="208"/>
-      <c r="C17" s="208"/>
-      <c r="D17" s="208"/>
-      <c r="E17" s="209"/>
-      <c r="F17" s="209"/>
-      <c r="G17" s="213"/>
-      <c r="H17" s="223"/>
+      <c r="A17" s="189"/>
+      <c r="B17" s="192"/>
+      <c r="C17" s="192"/>
+      <c r="D17" s="192"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="185"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="183" t="s">
-        <v>170</v>
-      </c>
-      <c r="K17" s="183"/>
-      <c r="L17" s="183"/>
-      <c r="M17" s="183"/>
-      <c r="N17" s="159" t="s">
-        <v>169</v>
-      </c>
-      <c r="O17" s="159"/>
+      <c r="J17" s="212" t="s">
+        <v>167</v>
+      </c>
+      <c r="K17" s="212"/>
+      <c r="L17" s="212"/>
+      <c r="M17" s="212"/>
+      <c r="N17" s="271" t="s">
+        <v>166</v>
+      </c>
+      <c r="O17" s="155"/>
       <c r="P17" s="12"/>
-      <c r="Q17" s="159"/>
-      <c r="R17" s="159"/>
-      <c r="S17" s="159"/>
+      <c r="Q17" s="155"/>
+      <c r="R17" s="155"/>
+      <c r="S17" s="155"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
@@ -3371,58 +3392,58 @@
       <c r="X17" s="12"/>
     </row>
     <row r="18" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="203"/>
-      <c r="B18" s="208"/>
-      <c r="C18" s="208"/>
-      <c r="D18" s="208"/>
-      <c r="E18" s="209"/>
-      <c r="F18" s="209"/>
-      <c r="G18" s="214"/>
-      <c r="H18" s="223"/>
+      <c r="A18" s="189"/>
+      <c r="B18" s="192"/>
+      <c r="C18" s="192"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="185"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="194" t="s">
+      <c r="J18" s="213" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="194"/>
-      <c r="L18" s="194"/>
-      <c r="M18" s="194"/>
-      <c r="N18" s="155">
+      <c r="K18" s="213"/>
+      <c r="L18" s="213"/>
+      <c r="M18" s="213"/>
+      <c r="N18" s="272">
         <v>500</v>
       </c>
-      <c r="O18" s="159"/>
+      <c r="O18" s="155"/>
       <c r="P18" s="12"/>
-      <c r="Q18" s="159"/>
-      <c r="R18" s="159"/>
-      <c r="S18" s="159"/>
+      <c r="Q18" s="155"/>
+      <c r="R18" s="155"/>
+      <c r="S18" s="155"/>
       <c r="T18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="6"/>
       <c r="X18" s="12"/>
     </row>
     <row r="19" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="119"/>
-      <c r="B19" s="120"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="124"/>
+      <c r="A19" s="118"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="123"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="194" t="s">
+      <c r="J19" s="213" t="s">
         <v>114</v>
       </c>
-      <c r="K19" s="194"/>
-      <c r="L19" s="194"/>
-      <c r="M19" s="194"/>
-      <c r="N19" s="155" t="s">
-        <v>168</v>
-      </c>
-      <c r="O19" s="155"/>
+      <c r="K19" s="213"/>
+      <c r="L19" s="213"/>
+      <c r="M19" s="213"/>
+      <c r="N19" s="272" t="s">
+        <v>165</v>
+      </c>
+      <c r="O19" s="151"/>
       <c r="P19" s="12"/>
-      <c r="Q19" s="155"/>
-      <c r="R19" s="155"/>
-      <c r="S19" s="155"/>
+      <c r="Q19" s="151"/>
+      <c r="R19" s="151"/>
+      <c r="S19" s="151"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
@@ -3430,20 +3451,20 @@
       <c r="X19" s="12"/>
     </row>
     <row r="20" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="119"/>
-      <c r="B20" s="121"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="124"/>
+      <c r="A20" s="118"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="123"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
+      <c r="N20" s="273"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -3464,26 +3485,26 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="178" t="s">
+      <c r="I21" s="217" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="179"/>
-      <c r="K21" s="179"/>
-      <c r="L21" s="179"/>
+      <c r="J21" s="218"/>
+      <c r="K21" s="218"/>
+      <c r="L21" s="218"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
+      <c r="N21" s="273"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="262"/>
-      <c r="V21" s="195" t="s">
-        <v>155</v>
-      </c>
-      <c r="W21" s="184" t="s">
-        <v>154</v>
+      <c r="U21" s="172"/>
+      <c r="V21" s="214" t="s">
+        <v>152</v>
+      </c>
+      <c r="W21" s="202" t="s">
+        <v>151</v>
       </c>
       <c r="X21" s="12"/>
     </row>
@@ -3496,34 +3517,33 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="35"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="175" t="s">
-        <v>153</v>
-      </c>
-      <c r="K22" s="175"/>
-      <c r="L22" s="175"/>
-      <c r="M22" s="182" t="s">
-        <v>15</v>
-      </c>
-      <c r="N22" s="182"/>
-      <c r="O22" s="182"/>
-      <c r="P22" s="182"/>
-      <c r="Q22" s="192" t="s">
+      <c r="I22" s="136"/>
+      <c r="J22" s="223" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="223"/>
+      <c r="L22" s="223"/>
+      <c r="N22" s="225" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="226"/>
+      <c r="P22" s="226"/>
+      <c r="Q22" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="R22" s="192"/>
-      <c r="S22" s="150" t="s">
+      <c r="R22" s="186"/>
+      <c r="S22" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="T22" s="150" t="s">
+      <c r="T22" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="U22" s="260">
+      <c r="U22" s="170">
         <f ca="1">TODAY()</f>
         <v>43502</v>
       </c>
-      <c r="V22" s="196"/>
-      <c r="W22" s="185"/>
+      <c r="V22" s="215"/>
+      <c r="W22" s="203"/>
       <c r="X22" s="12"/>
     </row>
     <row r="23" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3535,23 +3555,23 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="35"/>
-      <c r="I23" s="138"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="156"/>
-      <c r="L23" s="156" t="s">
+      <c r="I23" s="136"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="M23" s="127"/>
-      <c r="N23" s="127"/>
-      <c r="O23" s="127"/>
-      <c r="P23" s="127"/>
-      <c r="Q23" s="127"/>
-      <c r="R23" s="127"/>
-      <c r="S23" s="127"/>
-      <c r="T23" s="127"/>
-      <c r="U23" s="127"/>
-      <c r="V23" s="196"/>
-      <c r="W23" s="185"/>
+      <c r="M23" s="126"/>
+      <c r="N23" s="274"/>
+      <c r="O23" s="126"/>
+      <c r="P23" s="126"/>
+      <c r="Q23" s="126"/>
+      <c r="R23" s="126"/>
+      <c r="S23" s="126"/>
+      <c r="T23" s="126"/>
+      <c r="U23" s="126"/>
+      <c r="V23" s="215"/>
+      <c r="W23" s="203"/>
       <c r="X23" s="12"/>
     </row>
     <row r="24" spans="1:24" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3563,34 +3583,34 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="174" t="s">
+      <c r="I24" s="211" t="s">
         <v>138</v>
       </c>
-      <c r="J24" s="174"/>
-      <c r="K24" s="174"/>
-      <c r="L24" s="174"/>
+      <c r="J24" s="211"/>
+      <c r="K24" s="211"/>
+      <c r="L24" s="211"/>
       <c r="M24" s="12"/>
-      <c r="N24" s="151" t="s">
+      <c r="N24" s="221" t="s">
         <v>15</v>
       </c>
-      <c r="O24" s="151"/>
-      <c r="P24" s="151"/>
-      <c r="Q24" s="154" t="s">
+      <c r="O24" s="222"/>
+      <c r="P24" s="222"/>
+      <c r="Q24" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="R24" s="154"/>
-      <c r="S24" s="154" t="s">
+      <c r="R24" s="150"/>
+      <c r="S24" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="T24" s="154" t="s">
+      <c r="T24" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="U24" s="260">
+      <c r="U24" s="170">
         <f ca="1">TODAY()</f>
         <v>43502</v>
       </c>
-      <c r="V24" s="196"/>
-      <c r="W24" s="185"/>
+      <c r="V24" s="215"/>
+      <c r="W24" s="203"/>
       <c r="X24" s="12"/>
     </row>
     <row r="25" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3602,79 +3622,79 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="174" t="s">
+      <c r="I25" s="211" t="s">
         <v>139</v>
       </c>
-      <c r="J25" s="174"/>
-      <c r="K25" s="174"/>
-      <c r="L25" s="174"/>
+      <c r="J25" s="211"/>
+      <c r="K25" s="211"/>
+      <c r="L25" s="211"/>
       <c r="M25" s="12"/>
-      <c r="N25" s="151" t="s">
+      <c r="N25" s="221" t="s">
         <v>15</v>
       </c>
-      <c r="O25" s="151"/>
-      <c r="P25" s="151"/>
-      <c r="Q25" s="154" t="s">
+      <c r="O25" s="222"/>
+      <c r="P25" s="222"/>
+      <c r="Q25" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="R25" s="154"/>
-      <c r="S25" s="154" t="s">
+      <c r="R25" s="150"/>
+      <c r="S25" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="T25" s="154" t="s">
+      <c r="T25" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="U25" s="260">
+      <c r="U25" s="170">
         <f ca="1">TODAY()</f>
         <v>43502</v>
       </c>
-      <c r="V25" s="196"/>
-      <c r="W25" s="185"/>
+      <c r="V25" s="215"/>
+      <c r="W25" s="203"/>
       <c r="X25" s="12"/>
     </row>
     <row r="26" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="125"/>
+      <c r="A26" s="124"/>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="127"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="126"/>
       <c r="G26" s="35"/>
       <c r="H26" s="35"/>
-      <c r="I26" s="174" t="s">
+      <c r="I26" s="211" t="s">
         <v>140</v>
       </c>
-      <c r="J26" s="174"/>
-      <c r="K26" s="174"/>
-      <c r="L26" s="174"/>
+      <c r="J26" s="211"/>
+      <c r="K26" s="211"/>
+      <c r="L26" s="211"/>
       <c r="M26" s="12"/>
-      <c r="N26" s="151" t="s">
+      <c r="N26" s="221" t="s">
         <v>15</v>
       </c>
-      <c r="O26" s="151"/>
-      <c r="P26" s="151"/>
-      <c r="Q26" s="154" t="s">
+      <c r="O26" s="222"/>
+      <c r="P26" s="222"/>
+      <c r="Q26" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="R26" s="154"/>
-      <c r="S26" s="154" t="s">
+      <c r="R26" s="150"/>
+      <c r="S26" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="154" t="s">
+      <c r="T26" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="U26" s="260">
+      <c r="U26" s="170">
         <f ca="1">TODAY()</f>
         <v>43502</v>
       </c>
-      <c r="V26" s="197"/>
-      <c r="W26" s="185"/>
+      <c r="V26" s="216"/>
+      <c r="W26" s="203"/>
       <c r="X26" s="12"/>
     </row>
     <row r="27" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="128"/>
-      <c r="B27" s="129"/>
-      <c r="C27" s="129"/>
+      <c r="A27" s="127"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="128"/>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
@@ -3684,73 +3704,73 @@
       <c r="J27" s="224"/>
       <c r="K27" s="224"/>
       <c r="L27" s="224"/>
-      <c r="M27" s="187"/>
-      <c r="N27" s="187"/>
-      <c r="O27" s="187"/>
-      <c r="P27" s="187"/>
-      <c r="Q27" s="193"/>
-      <c r="R27" s="193"/>
-      <c r="S27" s="154"/>
-      <c r="T27" s="154"/>
-      <c r="U27" s="154"/>
-      <c r="V27" s="154"/>
-      <c r="W27" s="185"/>
+      <c r="M27" s="205"/>
+      <c r="N27" s="205"/>
+      <c r="O27" s="205"/>
+      <c r="P27" s="205"/>
+      <c r="Q27" s="188"/>
+      <c r="R27" s="188"/>
+      <c r="S27" s="150"/>
+      <c r="T27" s="150"/>
+      <c r="U27" s="150"/>
+      <c r="V27" s="150"/>
+      <c r="W27" s="203"/>
       <c r="X27" s="12"/>
     </row>
     <row r="28" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="130"/>
-      <c r="B28" s="131"/>
-      <c r="C28" s="131"/>
+      <c r="A28" s="129"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="130"/>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
       <c r="H28" s="35"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="175" t="s">
+      <c r="I28" s="126"/>
+      <c r="J28" s="223" t="s">
         <v>137</v>
       </c>
-      <c r="K28" s="175"/>
-      <c r="L28" s="175"/>
+      <c r="K28" s="223"/>
+      <c r="L28" s="223"/>
       <c r="M28" s="12"/>
-      <c r="N28" s="127" t="s">
+      <c r="N28" s="221" t="s">
         <v>15</v>
       </c>
-      <c r="O28" s="127"/>
-      <c r="P28" s="127"/>
-      <c r="Q28" s="193" t="s">
+      <c r="O28" s="222"/>
+      <c r="P28" s="222"/>
+      <c r="Q28" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="R28" s="193"/>
-      <c r="S28" s="154" t="s">
+      <c r="R28" s="188"/>
+      <c r="S28" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="T28" s="154" t="s">
+      <c r="T28" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="U28" s="260">
+      <c r="U28" s="170">
         <f ca="1">TODAY()</f>
         <v>43502</v>
       </c>
-      <c r="V28" s="154"/>
-      <c r="W28" s="185"/>
+      <c r="V28" s="150"/>
+      <c r="W28" s="203"/>
       <c r="X28" s="12"/>
     </row>
     <row r="29" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="221"/>
-      <c r="D29" s="221"/>
-      <c r="E29" s="221"/>
-      <c r="F29" s="221"/>
-      <c r="G29" s="132"/>
+      <c r="C29" s="179"/>
+      <c r="D29" s="179"/>
+      <c r="E29" s="179"/>
+      <c r="F29" s="179"/>
+      <c r="G29" s="131"/>
       <c r="H29" s="35"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
+      <c r="N29" s="268"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
@@ -3758,14 +3778,14 @@
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
-      <c r="V29" s="137"/>
-      <c r="W29" s="186"/>
+      <c r="V29" s="135"/>
+      <c r="W29" s="204"/>
       <c r="X29" s="12"/>
     </row>
     <row r="30" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="130"/>
-      <c r="B30" s="131"/>
-      <c r="C30" s="131"/>
+      <c r="A30" s="129"/>
+      <c r="B30" s="130"/>
+      <c r="C30" s="130"/>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
       <c r="F30" s="35"/>
@@ -3776,7 +3796,7 @@
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
+      <c r="N30" s="268"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
@@ -3791,10 +3811,10 @@
     <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="221"/>
-      <c r="D31" s="221"/>
-      <c r="E31" s="221"/>
-      <c r="F31" s="221"/>
+      <c r="C31" s="179"/>
+      <c r="D31" s="179"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="179"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -3802,7 +3822,7 @@
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
+      <c r="N31" s="268"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
@@ -3820,39 +3840,39 @@
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="198" t="s">
+      <c r="F32" s="187" t="s">
         <v>141</v>
       </c>
-      <c r="G32" s="198"/>
-      <c r="H32" s="198"/>
-      <c r="I32" s="198"/>
-      <c r="J32" s="198"/>
-      <c r="K32" s="198"/>
-      <c r="L32" s="198"/>
-      <c r="M32" s="154" t="s">
-        <v>142</v>
-      </c>
-      <c r="N32" s="127"/>
-      <c r="O32" s="127"/>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="192" t="s">
+      <c r="G32" s="187"/>
+      <c r="H32" s="187"/>
+      <c r="I32" s="187"/>
+      <c r="J32" s="187"/>
+      <c r="K32" s="187"/>
+      <c r="L32" s="187"/>
+      <c r="M32" s="150" t="s">
+        <v>190</v>
+      </c>
+      <c r="N32" s="274"/>
+      <c r="O32" s="126"/>
+      <c r="P32" s="126"/>
+      <c r="Q32" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="R32" s="192"/>
-      <c r="S32" s="150" t="s">
+      <c r="R32" s="186"/>
+      <c r="S32" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="T32" s="150" t="s">
+      <c r="T32" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="U32" s="260">
+      <c r="U32" s="170">
         <f ca="1">TODAY()</f>
         <v>43502</v>
       </c>
-      <c r="V32" s="215" t="s">
-        <v>152</v>
-      </c>
-      <c r="W32" s="216"/>
+      <c r="V32" s="173" t="s">
+        <v>149</v>
+      </c>
+      <c r="W32" s="174"/>
       <c r="X32" s="12"/>
     </row>
     <row r="33" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3861,39 +3881,39 @@
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="198" t="s">
+      <c r="F33" s="187" t="s">
         <v>141</v>
       </c>
-      <c r="G33" s="198"/>
-      <c r="H33" s="198"/>
-      <c r="I33" s="198"/>
-      <c r="J33" s="198"/>
-      <c r="K33" s="198"/>
-      <c r="L33" s="198"/>
-      <c r="M33" s="154" t="s">
+      <c r="G33" s="187"/>
+      <c r="H33" s="187"/>
+      <c r="I33" s="187"/>
+      <c r="J33" s="187"/>
+      <c r="K33" s="187"/>
+      <c r="L33" s="187"/>
+      <c r="M33" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="N33" s="127" t="s">
-        <v>143</v>
-      </c>
-      <c r="O33" s="127"/>
-      <c r="P33" s="127"/>
-      <c r="Q33" s="192" t="s">
+      <c r="N33" s="274" t="s">
+        <v>191</v>
+      </c>
+      <c r="O33" s="126"/>
+      <c r="P33" s="126"/>
+      <c r="Q33" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="R33" s="192"/>
-      <c r="S33" s="150" t="s">
+      <c r="R33" s="186"/>
+      <c r="S33" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="T33" s="150" t="s">
+      <c r="T33" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="U33" s="260">
+      <c r="U33" s="170">
         <f t="shared" ref="U33:U37" ca="1" si="0">TODAY()</f>
         <v>43502</v>
       </c>
-      <c r="V33" s="217"/>
-      <c r="W33" s="218"/>
+      <c r="V33" s="175"/>
+      <c r="W33" s="176"/>
       <c r="X33" s="12"/>
     </row>
     <row r="34" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3902,39 +3922,39 @@
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="198" t="s">
+      <c r="F34" s="187" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" s="187"/>
+      <c r="H34" s="187"/>
+      <c r="I34" s="187"/>
+      <c r="J34" s="187"/>
+      <c r="K34" s="187"/>
+      <c r="L34" s="187"/>
+      <c r="M34" s="150" t="s">
+        <v>143</v>
+      </c>
+      <c r="N34" s="274"/>
+      <c r="O34" s="126" t="s">
         <v>144</v>
       </c>
-      <c r="G34" s="198"/>
-      <c r="H34" s="198"/>
-      <c r="I34" s="198"/>
-      <c r="J34" s="198"/>
-      <c r="K34" s="198"/>
-      <c r="L34" s="198"/>
-      <c r="M34" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="N34" s="127"/>
-      <c r="O34" s="127" t="s">
-        <v>146</v>
-      </c>
-      <c r="P34" s="127"/>
-      <c r="Q34" s="192" t="s">
+      <c r="P34" s="126"/>
+      <c r="Q34" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="R34" s="192"/>
-      <c r="S34" s="150" t="s">
+      <c r="R34" s="186"/>
+      <c r="S34" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="T34" s="150" t="s">
+      <c r="T34" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="U34" s="260">
+      <c r="U34" s="170">
         <f t="shared" ca="1" si="0"/>
         <v>43502</v>
       </c>
-      <c r="V34" s="217"/>
-      <c r="W34" s="218"/>
+      <c r="V34" s="175"/>
+      <c r="W34" s="176"/>
       <c r="X34" s="12"/>
     </row>
     <row r="35" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3950,28 +3970,28 @@
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
-      <c r="M35" s="202" t="s">
-        <v>147</v>
-      </c>
-      <c r="N35" s="202"/>
-      <c r="O35" s="202"/>
-      <c r="P35" s="202"/>
-      <c r="Q35" s="192" t="s">
+      <c r="M35" s="201" t="s">
+        <v>192</v>
+      </c>
+      <c r="N35" s="201"/>
+      <c r="O35" s="201"/>
+      <c r="P35" s="201"/>
+      <c r="Q35" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="R35" s="192"/>
-      <c r="S35" s="150" t="s">
+      <c r="R35" s="186"/>
+      <c r="S35" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="T35" s="150" t="s">
+      <c r="T35" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="U35" s="260">
+      <c r="U35" s="170">
         <f t="shared" ca="1" si="0"/>
         <v>43502</v>
       </c>
-      <c r="V35" s="217"/>
-      <c r="W35" s="218"/>
+      <c r="V35" s="175"/>
+      <c r="W35" s="176"/>
       <c r="X35" s="12"/>
     </row>
     <row r="36" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -3979,66 +3999,66 @@
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
-      <c r="E36" s="133"/>
-      <c r="F36" s="133"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="132"/>
       <c r="G36" s="12"/>
-      <c r="H36" s="134"/>
-      <c r="I36" s="134"/>
-      <c r="J36" s="134"/>
-      <c r="K36" s="134"/>
-      <c r="L36" s="134"/>
-      <c r="M36" s="199"/>
-      <c r="N36" s="199"/>
-      <c r="O36" s="127"/>
-      <c r="P36" s="127"/>
-      <c r="Q36" s="192"/>
-      <c r="R36" s="192"/>
-      <c r="S36" s="150"/>
-      <c r="T36" s="150"/>
-      <c r="U36" s="260"/>
-      <c r="V36" s="217"/>
-      <c r="W36" s="218"/>
+      <c r="H36" s="133"/>
+      <c r="I36" s="133"/>
+      <c r="J36" s="133"/>
+      <c r="K36" s="133"/>
+      <c r="L36" s="133"/>
+      <c r="M36" s="198"/>
+      <c r="N36" s="198"/>
+      <c r="O36" s="126"/>
+      <c r="P36" s="126"/>
+      <c r="Q36" s="186"/>
+      <c r="R36" s="186"/>
+      <c r="S36" s="146"/>
+      <c r="T36" s="146"/>
+      <c r="U36" s="170"/>
+      <c r="V36" s="175"/>
+      <c r="W36" s="176"/>
       <c r="X36" s="12"/>
     </row>
     <row r="37" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="200" t="s">
-        <v>148</v>
-      </c>
-      <c r="E37" s="200"/>
-      <c r="F37" s="200"/>
-      <c r="G37" s="200"/>
-      <c r="H37" s="200"/>
-      <c r="I37" s="200"/>
-      <c r="J37" s="200"/>
-      <c r="K37" s="200"/>
-      <c r="L37" s="201" t="s">
-        <v>149</v>
-      </c>
-      <c r="M37" s="201"/>
-      <c r="N37" s="201"/>
-      <c r="O37" s="127" t="s">
+      <c r="D37" s="199" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="199"/>
+      <c r="F37" s="199"/>
+      <c r="G37" s="199"/>
+      <c r="H37" s="199"/>
+      <c r="I37" s="199"/>
+      <c r="J37" s="199"/>
+      <c r="K37" s="199"/>
+      <c r="L37" s="200" t="s">
         <v>146</v>
       </c>
-      <c r="P37" s="127"/>
-      <c r="Q37" s="192" t="s">
+      <c r="M37" s="200"/>
+      <c r="N37" s="200"/>
+      <c r="O37" s="126" t="s">
+        <v>144</v>
+      </c>
+      <c r="P37" s="126"/>
+      <c r="Q37" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="R37" s="192"/>
-      <c r="S37" s="150" t="s">
+      <c r="R37" s="186"/>
+      <c r="S37" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="T37" s="150" t="s">
+      <c r="T37" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="U37" s="260">
+      <c r="U37" s="170">
         <f t="shared" ca="1" si="0"/>
         <v>43502</v>
       </c>
-      <c r="V37" s="219"/>
-      <c r="W37" s="220"/>
+      <c r="V37" s="177"/>
+      <c r="W37" s="178"/>
       <c r="X37" s="12"/>
     </row>
     <row r="38" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4055,7 +4075,7 @@
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
+      <c r="N38" s="275"/>
       <c r="O38" s="14"/>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
@@ -4081,7 +4101,7 @@
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
+      <c r="N39" s="268"/>
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
@@ -4107,7 +4127,7 @@
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
+      <c r="N40" s="268"/>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
@@ -4133,7 +4153,7 @@
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
+      <c r="N41" s="268"/>
       <c r="O41" s="12"/>
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
@@ -4146,46 +4166,24 @@
       <c r="X41" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="V32:W37"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="F32:L32"/>
-    <mergeCell ref="F34:L34"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="Q27:R27"/>
+  <mergeCells count="71">
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="I24:L24"/>
     <mergeCell ref="I27:L27"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="E12:E18"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C18"/>
-    <mergeCell ref="F12:F18"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="F33:L33"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
     <mergeCell ref="W21:W29"/>
     <mergeCell ref="M27:P27"/>
     <mergeCell ref="I2:N2"/>
@@ -4202,18 +4200,44 @@
     <mergeCell ref="J19:M19"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="V21:V26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="F33:L33"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="E12:E18"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C18"/>
+    <mergeCell ref="F12:F18"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="V32:W37"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="F32:L32"/>
+    <mergeCell ref="F34:L34"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q33:R33"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0"/>
@@ -4252,21 +4276,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="55.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="226"/>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
-      <c r="K1" s="226"/>
-      <c r="L1" s="226"/>
-      <c r="M1" s="227"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="229"/>
     </row>
     <row r="2" spans="1:13" ht="184.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
@@ -4558,11 +4582,11 @@
       <c r="F1" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="228" t="s">
+      <c r="G1" s="230" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="229"/>
-      <c r="I1" s="230"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="232"/>
       <c r="J1" s="109" t="s">
         <v>106</v>
       </c>
@@ -5157,26 +5181,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="173"/>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="172"/>
-      <c r="T1" s="171"/>
+      <c r="A1" s="169"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="167"/>
     </row>
     <row r="2" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
@@ -5185,12 +5209,12 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="240" t="s">
+      <c r="G2" s="233" t="s">
         <v>118</v>
       </c>
-      <c r="H2" s="241"/>
-      <c r="I2" s="241"/>
-      <c r="J2" s="241"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="234"/>
+      <c r="J2" s="234"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -5199,64 +5223,64 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
-      <c r="S2" s="151"/>
+      <c r="S2" s="147"/>
       <c r="T2" s="6"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="242" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="182" t="s">
+      <c r="B3" s="243"/>
+      <c r="C3" s="243"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="243"/>
+      <c r="F3" s="243"/>
+      <c r="G3" s="243"/>
+      <c r="H3" s="243"/>
+      <c r="I3" s="243"/>
+      <c r="J3" s="243"/>
+      <c r="K3" s="221" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="192" t="s">
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
+      <c r="N3" s="221"/>
+      <c r="O3" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="150" t="s">
+      <c r="P3" s="186"/>
+      <c r="Q3" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="150" t="s">
+      <c r="R3" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="261">
+      <c r="S3" s="171">
         <f ca="1">TODAY()</f>
         <v>43502</v>
       </c>
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="170"/>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169"/>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="169"/>
-      <c r="R4" s="169"/>
-      <c r="S4" s="169"/>
+      <c r="A4" s="166"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="165"/>
+      <c r="O4" s="165"/>
+      <c r="P4" s="165"/>
+      <c r="Q4" s="165"/>
+      <c r="R4" s="165"/>
+      <c r="S4" s="165"/>
       <c r="T4" s="6"/>
     </row>
     <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
@@ -5282,11 +5306,11 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="245" t="s">
-        <v>191</v>
-      </c>
-      <c r="B6" s="246"/>
-      <c r="C6" s="246"/>
+      <c r="A6" s="244" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="245"/>
+      <c r="C6" s="245"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -5306,11 +5330,11 @@
       <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="245" t="s">
-        <v>190</v>
-      </c>
-      <c r="B7" s="246"/>
-      <c r="C7" s="246"/>
+      <c r="A7" s="244" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="245"/>
+      <c r="C7" s="245"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -5330,11 +5354,11 @@
       <c r="T7" s="6"/>
     </row>
     <row r="8" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="245" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" s="246"/>
-      <c r="C8" s="246"/>
+      <c r="A8" s="244" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="245"/>
+      <c r="C8" s="245"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -5424,20 +5448,20 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="231" t="s">
-        <v>188</v>
-      </c>
-      <c r="F12" s="232"/>
-      <c r="G12" s="232"/>
-      <c r="H12" s="232"/>
-      <c r="I12" s="232"/>
-      <c r="J12" s="232"/>
-      <c r="K12" s="232"/>
-      <c r="L12" s="232"/>
-      <c r="M12" s="232"/>
-      <c r="N12" s="232"/>
-      <c r="O12" s="232"/>
-      <c r="P12" s="232"/>
+      <c r="E12" s="247" t="s">
+        <v>185</v>
+      </c>
+      <c r="F12" s="248"/>
+      <c r="G12" s="248"/>
+      <c r="H12" s="248"/>
+      <c r="I12" s="248"/>
+      <c r="J12" s="248"/>
+      <c r="K12" s="248"/>
+      <c r="L12" s="248"/>
+      <c r="M12" s="248"/>
+      <c r="N12" s="248"/>
+      <c r="O12" s="248"/>
+      <c r="P12" s="248"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -5448,18 +5472,18 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="232"/>
-      <c r="F13" s="232"/>
-      <c r="G13" s="232"/>
-      <c r="H13" s="232"/>
-      <c r="I13" s="232"/>
-      <c r="J13" s="232"/>
-      <c r="K13" s="232"/>
-      <c r="L13" s="232"/>
-      <c r="M13" s="232"/>
-      <c r="N13" s="232"/>
-      <c r="O13" s="232"/>
-      <c r="P13" s="232"/>
+      <c r="E13" s="248"/>
+      <c r="F13" s="248"/>
+      <c r="G13" s="248"/>
+      <c r="H13" s="248"/>
+      <c r="I13" s="248"/>
+      <c r="J13" s="248"/>
+      <c r="K13" s="248"/>
+      <c r="L13" s="248"/>
+      <c r="M13" s="248"/>
+      <c r="N13" s="248"/>
+      <c r="O13" s="248"/>
+      <c r="P13" s="248"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
@@ -5470,18 +5494,18 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="232"/>
-      <c r="F14" s="232"/>
-      <c r="G14" s="232"/>
-      <c r="H14" s="232"/>
-      <c r="I14" s="232"/>
-      <c r="J14" s="232"/>
-      <c r="K14" s="232"/>
-      <c r="L14" s="232"/>
-      <c r="M14" s="232"/>
-      <c r="N14" s="232"/>
-      <c r="O14" s="232"/>
-      <c r="P14" s="232"/>
+      <c r="E14" s="248"/>
+      <c r="F14" s="248"/>
+      <c r="G14" s="248"/>
+      <c r="H14" s="248"/>
+      <c r="I14" s="248"/>
+      <c r="J14" s="248"/>
+      <c r="K14" s="248"/>
+      <c r="L14" s="248"/>
+      <c r="M14" s="248"/>
+      <c r="N14" s="248"/>
+      <c r="O14" s="248"/>
+      <c r="P14" s="248"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
@@ -5492,18 +5516,18 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="168"/>
-      <c r="J15" s="168"/>
-      <c r="K15" s="168"/>
-      <c r="L15" s="168"/>
-      <c r="M15" s="168"/>
-      <c r="N15" s="168"/>
-      <c r="O15" s="168"/>
-      <c r="P15" s="168"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="164"/>
+      <c r="L15" s="164"/>
+      <c r="M15" s="164"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="164"/>
+      <c r="P15" s="164"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -5515,23 +5539,23 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="183" t="s">
-        <v>187</v>
-      </c>
-      <c r="G16" s="233"/>
-      <c r="H16" s="233"/>
-      <c r="I16" s="233"/>
-      <c r="J16" s="234" t="str">
+      <c r="F16" s="212" t="s">
+        <v>184</v>
+      </c>
+      <c r="G16" s="241"/>
+      <c r="H16" s="241"/>
+      <c r="I16" s="241"/>
+      <c r="J16" s="239" t="str">
         <f>'лист титульный КД'!N12</f>
         <v>Иванов И.И</v>
       </c>
-      <c r="K16" s="234"/>
-      <c r="L16" s="234"/>
-      <c r="M16" s="234"/>
-      <c r="N16" s="234"/>
-      <c r="O16" s="234"/>
-      <c r="P16" s="234"/>
-      <c r="Q16" s="234"/>
+      <c r="K16" s="239"/>
+      <c r="L16" s="239"/>
+      <c r="M16" s="239"/>
+      <c r="N16" s="239"/>
+      <c r="O16" s="239"/>
+      <c r="P16" s="239"/>
+      <c r="Q16" s="239"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="6"/>
@@ -5542,23 +5566,23 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="183" t="s">
-        <v>186</v>
-      </c>
-      <c r="G17" s="233"/>
-      <c r="H17" s="233"/>
-      <c r="I17" s="233"/>
-      <c r="J17" s="234" t="str">
+      <c r="F17" s="212" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="241"/>
+      <c r="H17" s="241"/>
+      <c r="I17" s="241"/>
+      <c r="J17" s="239" t="str">
         <f>'лист титульный КД'!N13</f>
         <v>Петров П.П.</v>
       </c>
-      <c r="K17" s="234"/>
-      <c r="L17" s="234"/>
-      <c r="M17" s="234"/>
-      <c r="N17" s="234"/>
-      <c r="O17" s="234"/>
-      <c r="P17" s="234"/>
-      <c r="Q17" s="234"/>
+      <c r="K17" s="239"/>
+      <c r="L17" s="239"/>
+      <c r="M17" s="239"/>
+      <c r="N17" s="239"/>
+      <c r="O17" s="239"/>
+      <c r="P17" s="239"/>
+      <c r="Q17" s="239"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="6"/>
@@ -5569,23 +5593,23 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="183" t="s">
-        <v>185</v>
-      </c>
-      <c r="G18" s="233"/>
-      <c r="H18" s="233"/>
-      <c r="I18" s="233"/>
-      <c r="J18" s="234" t="str">
+      <c r="F18" s="212" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" s="241"/>
+      <c r="H18" s="241"/>
+      <c r="I18" s="241"/>
+      <c r="J18" s="239" t="str">
         <f>'лист титульный КД'!N14</f>
         <v>г. Москва, ул. Нарвская, д.2</v>
       </c>
-      <c r="K18" s="234"/>
-      <c r="L18" s="234"/>
-      <c r="M18" s="234"/>
-      <c r="N18" s="234"/>
-      <c r="O18" s="234"/>
-      <c r="P18" s="234"/>
-      <c r="Q18" s="234"/>
+      <c r="K18" s="239"/>
+      <c r="L18" s="239"/>
+      <c r="M18" s="239"/>
+      <c r="N18" s="239"/>
+      <c r="O18" s="239"/>
+      <c r="P18" s="239"/>
+      <c r="Q18" s="239"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="6"/>
@@ -5596,23 +5620,23 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="183" t="s">
-        <v>184</v>
-      </c>
-      <c r="G19" s="233"/>
-      <c r="H19" s="233"/>
-      <c r="I19" s="233"/>
-      <c r="J19" s="234" t="str">
+      <c r="F19" s="212" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" s="241"/>
+      <c r="H19" s="241"/>
+      <c r="I19" s="241"/>
+      <c r="J19" s="239" t="str">
         <f>'лист титульный КД'!N15</f>
         <v>восьмой</v>
       </c>
-      <c r="K19" s="234"/>
-      <c r="L19" s="234"/>
-      <c r="M19" s="234"/>
-      <c r="N19" s="234"/>
-      <c r="O19" s="234"/>
-      <c r="P19" s="234"/>
-      <c r="Q19" s="234"/>
+      <c r="K19" s="239"/>
+      <c r="L19" s="239"/>
+      <c r="M19" s="239"/>
+      <c r="N19" s="239"/>
+      <c r="O19" s="239"/>
+      <c r="P19" s="239"/>
+      <c r="Q19" s="239"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="6"/>
@@ -5623,23 +5647,23 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="183" t="s">
-        <v>183</v>
-      </c>
-      <c r="G20" s="233"/>
-      <c r="H20" s="233"/>
-      <c r="I20" s="233"/>
-      <c r="J20" s="234" t="str">
+      <c r="F20" s="212" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" s="241"/>
+      <c r="H20" s="241"/>
+      <c r="I20" s="241"/>
+      <c r="J20" s="239" t="str">
         <f>'лист титульный КД'!N16</f>
         <v>кухня</v>
       </c>
-      <c r="K20" s="234"/>
-      <c r="L20" s="234"/>
-      <c r="M20" s="234"/>
-      <c r="N20" s="234"/>
-      <c r="O20" s="234"/>
-      <c r="P20" s="234"/>
-      <c r="Q20" s="234"/>
+      <c r="K20" s="239"/>
+      <c r="L20" s="239"/>
+      <c r="M20" s="239"/>
+      <c r="N20" s="239"/>
+      <c r="O20" s="239"/>
+      <c r="P20" s="239"/>
+      <c r="Q20" s="239"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="6"/>
@@ -5650,23 +5674,23 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="183" t="s">
-        <v>182</v>
-      </c>
-      <c r="G21" s="233"/>
-      <c r="H21" s="233"/>
-      <c r="I21" s="233"/>
-      <c r="J21" s="234" t="str">
+      <c r="F21" s="212" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" s="241"/>
+      <c r="H21" s="241"/>
+      <c r="I21" s="241"/>
+      <c r="J21" s="239" t="str">
         <f>'лист титульный КД'!N17</f>
         <v>гарнитур кухонный, дверной блок</v>
       </c>
-      <c r="K21" s="234"/>
-      <c r="L21" s="234"/>
-      <c r="M21" s="234"/>
-      <c r="N21" s="234"/>
-      <c r="O21" s="234"/>
-      <c r="P21" s="234"/>
-      <c r="Q21" s="234"/>
+      <c r="K21" s="239"/>
+      <c r="L21" s="239"/>
+      <c r="M21" s="239"/>
+      <c r="N21" s="239"/>
+      <c r="O21" s="239"/>
+      <c r="P21" s="239"/>
+      <c r="Q21" s="239"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="6"/>
@@ -5677,23 +5701,23 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="183" t="s">
-        <v>181</v>
-      </c>
-      <c r="G22" s="233"/>
-      <c r="H22" s="233"/>
-      <c r="I22" s="233"/>
-      <c r="J22" s="234">
+      <c r="F22" s="212" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" s="241"/>
+      <c r="H22" s="241"/>
+      <c r="I22" s="241"/>
+      <c r="J22" s="239">
         <f>'лист титульный КД'!N18</f>
         <v>500</v>
       </c>
-      <c r="K22" s="234"/>
-      <c r="L22" s="234"/>
-      <c r="M22" s="234"/>
-      <c r="N22" s="234"/>
-      <c r="O22" s="234"/>
-      <c r="P22" s="234"/>
-      <c r="Q22" s="234"/>
+      <c r="K22" s="239"/>
+      <c r="L22" s="239"/>
+      <c r="M22" s="239"/>
+      <c r="N22" s="239"/>
+      <c r="O22" s="239"/>
+      <c r="P22" s="239"/>
+      <c r="Q22" s="239"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="6"/>
@@ -5704,23 +5728,23 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="183" t="s">
-        <v>180</v>
-      </c>
-      <c r="G23" s="233"/>
-      <c r="H23" s="233"/>
-      <c r="I23" s="233"/>
-      <c r="J23" s="234" t="str">
+      <c r="F23" s="212" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" s="241"/>
+      <c r="H23" s="241"/>
+      <c r="I23" s="241"/>
+      <c r="J23" s="239" t="str">
         <f>'лист титульный КД'!N19</f>
         <v>1-15,16</v>
       </c>
-      <c r="K23" s="234"/>
-      <c r="L23" s="234"/>
-      <c r="M23" s="234"/>
-      <c r="N23" s="234"/>
-      <c r="O23" s="234"/>
-      <c r="P23" s="234"/>
-      <c r="Q23" s="234"/>
+      <c r="K23" s="239"/>
+      <c r="L23" s="239"/>
+      <c r="M23" s="239"/>
+      <c r="N23" s="239"/>
+      <c r="O23" s="239"/>
+      <c r="P23" s="239"/>
+      <c r="Q23" s="239"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="6"/>
@@ -5908,7 +5932,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="235" t="s">
+      <c r="G32" s="240" t="s">
         <v>9</v>
       </c>
       <c r="H32" s="236"/>
@@ -5922,12 +5946,12 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
-      <c r="S32" s="151"/>
+      <c r="S32" s="147"/>
       <c r="T32" s="6"/>
     </row>
-    <row r="33" spans="1:20" s="165" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="242" t="s">
-        <v>192</v>
+    <row r="33" spans="1:20" s="161" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="235" t="s">
+        <v>189</v>
       </c>
       <c r="B33" s="236"/>
       <c r="C33" s="236"/>
@@ -5938,27 +5962,27 @@
       <c r="H33" s="236"/>
       <c r="I33" s="236"/>
       <c r="J33" s="236"/>
-      <c r="K33" s="238" t="s">
+      <c r="K33" s="237" t="s">
         <v>15</v>
       </c>
-      <c r="L33" s="238"/>
-      <c r="M33" s="238"/>
-      <c r="N33" s="238"/>
-      <c r="O33" s="239" t="s">
+      <c r="L33" s="237"/>
+      <c r="M33" s="237"/>
+      <c r="N33" s="237"/>
+      <c r="O33" s="238" t="s">
         <v>16</v>
       </c>
-      <c r="P33" s="239"/>
-      <c r="Q33" s="167" t="s">
+      <c r="P33" s="238"/>
+      <c r="Q33" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="R33" s="167" t="s">
+      <c r="R33" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="S33" s="261">
+      <c r="S33" s="171">
         <f ca="1">TODAY()</f>
         <v>43502</v>
       </c>
-      <c r="T33" s="166"/>
+      <c r="T33" s="162"/>
     </row>
     <row r="34" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
@@ -5968,18 +5992,18 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="157"/>
-      <c r="I34" s="157"/>
-      <c r="J34" s="157"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="153"/>
+      <c r="J34" s="153"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
-      <c r="Q34" s="158"/>
-      <c r="R34" s="158"/>
-      <c r="S34" s="151"/>
+      <c r="Q34" s="154"/>
+      <c r="R34" s="154"/>
+      <c r="S34" s="147"/>
       <c r="T34" s="6"/>
     </row>
     <row r="35" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5989,7 +6013,7 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="235" t="s">
+      <c r="G35" s="240" t="s">
         <v>13</v>
       </c>
       <c r="H35" s="236"/>
@@ -6001,14 +6025,14 @@
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
-      <c r="Q35" s="158"/>
-      <c r="R35" s="158"/>
-      <c r="S35" s="151"/>
+      <c r="Q35" s="154"/>
+      <c r="R35" s="154"/>
+      <c r="S35" s="147"/>
       <c r="T35" s="6"/>
     </row>
-    <row r="36" spans="1:20" s="165" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="237" t="s">
-        <v>179</v>
+    <row r="36" spans="1:20" s="161" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="246" t="s">
+        <v>176</v>
       </c>
       <c r="B36" s="236"/>
       <c r="C36" s="236"/>
@@ -6019,31 +6043,31 @@
       <c r="H36" s="236"/>
       <c r="I36" s="236"/>
       <c r="J36" s="236"/>
-      <c r="K36" s="238" t="s">
+      <c r="K36" s="237" t="s">
         <v>15</v>
       </c>
-      <c r="L36" s="238"/>
-      <c r="M36" s="238"/>
-      <c r="N36" s="238"/>
-      <c r="O36" s="239" t="s">
+      <c r="L36" s="237"/>
+      <c r="M36" s="237"/>
+      <c r="N36" s="237"/>
+      <c r="O36" s="238" t="s">
         <v>16</v>
       </c>
-      <c r="P36" s="239"/>
-      <c r="Q36" s="167" t="s">
+      <c r="P36" s="238"/>
+      <c r="Q36" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="R36" s="167" t="s">
+      <c r="R36" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="S36" s="261">
+      <c r="S36" s="171">
         <f ca="1">TODAY()</f>
         <v>43502</v>
       </c>
-      <c r="T36" s="166"/>
-    </row>
-    <row r="37" spans="1:20" s="165" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="237" t="s">
-        <v>178</v>
+      <c r="T36" s="162"/>
+    </row>
+    <row r="37" spans="1:20" s="161" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="246" t="s">
+        <v>175</v>
       </c>
       <c r="B37" s="236"/>
       <c r="C37" s="236"/>
@@ -6054,27 +6078,27 @@
       <c r="H37" s="236"/>
       <c r="I37" s="236"/>
       <c r="J37" s="236"/>
-      <c r="K37" s="238" t="s">
+      <c r="K37" s="237" t="s">
         <v>15</v>
       </c>
-      <c r="L37" s="238"/>
-      <c r="M37" s="238"/>
-      <c r="N37" s="238"/>
-      <c r="O37" s="239" t="s">
+      <c r="L37" s="237"/>
+      <c r="M37" s="237"/>
+      <c r="N37" s="237"/>
+      <c r="O37" s="238" t="s">
         <v>16</v>
       </c>
-      <c r="P37" s="239"/>
-      <c r="Q37" s="167" t="s">
+      <c r="P37" s="238"/>
+      <c r="Q37" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="R37" s="167" t="s">
+      <c r="R37" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="S37" s="261">
+      <c r="S37" s="171">
         <f ca="1">TODAY()</f>
         <v>43502</v>
       </c>
-      <c r="T37" s="166"/>
+      <c r="T37" s="162"/>
     </row>
     <row r="38" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
@@ -6084,44 +6108,63 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="157"/>
-      <c r="I38" s="157"/>
-      <c r="J38" s="157"/>
+      <c r="H38" s="153"/>
+      <c r="I38" s="153"/>
+      <c r="J38" s="153"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
-      <c r="Q38" s="158"/>
-      <c r="R38" s="158"/>
-      <c r="S38" s="151"/>
+      <c r="Q38" s="154"/>
+      <c r="R38" s="154"/>
+      <c r="S38" s="147"/>
       <c r="T38" s="6"/>
     </row>
     <row r="39" spans="1:20" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="164"/>
-      <c r="B39" s="163"/>
-      <c r="C39" s="163"/>
-      <c r="D39" s="163"/>
-      <c r="E39" s="163"/>
-      <c r="F39" s="163"/>
-      <c r="G39" s="163"/>
-      <c r="H39" s="163"/>
-      <c r="I39" s="163"/>
-      <c r="J39" s="163"/>
-      <c r="K39" s="163"/>
-      <c r="L39" s="163"/>
-      <c r="M39" s="163"/>
-      <c r="N39" s="163"/>
-      <c r="O39" s="163"/>
-      <c r="P39" s="163"/>
-      <c r="Q39" s="163"/>
-      <c r="R39" s="163"/>
-      <c r="S39" s="163"/>
-      <c r="T39" s="162"/>
+      <c r="A39" s="160"/>
+      <c r="B39" s="159"/>
+      <c r="C39" s="159"/>
+      <c r="D39" s="159"/>
+      <c r="E39" s="159"/>
+      <c r="F39" s="159"/>
+      <c r="G39" s="159"/>
+      <c r="H39" s="159"/>
+      <c r="I39" s="159"/>
+      <c r="J39" s="159"/>
+      <c r="K39" s="159"/>
+      <c r="L39" s="159"/>
+      <c r="M39" s="159"/>
+      <c r="N39" s="159"/>
+      <c r="O39" s="159"/>
+      <c r="P39" s="159"/>
+      <c r="Q39" s="159"/>
+      <c r="R39" s="159"/>
+      <c r="S39" s="159"/>
+      <c r="T39" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="E12:P14"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="O36:P36"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="A33:J33"/>
@@ -6138,25 +6181,6 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="E12:P14"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="J17:Q17"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -6187,19 +6211,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="249" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
-      <c r="E1" s="248"/>
-      <c r="F1" s="248"/>
-      <c r="G1" s="248"/>
-      <c r="H1" s="248"/>
-      <c r="I1" s="248"/>
-      <c r="J1" s="248"/>
-      <c r="K1" s="249"/>
+      <c r="B1" s="250"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="251"/>
     </row>
     <row r="2" spans="1:11" s="47" customFormat="1" ht="124.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="55" t="s">
@@ -6594,48 +6618,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="252" t="s">
+      <c r="A1" s="254" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="253"/>
-      <c r="C1" s="253"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253"/>
-      <c r="M1" s="253"/>
-      <c r="N1" s="253"/>
-      <c r="O1" s="253"/>
-      <c r="P1" s="253"/>
-      <c r="Q1" s="253"/>
-      <c r="R1" s="253"/>
-      <c r="S1" s="254"/>
+      <c r="B1" s="255"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="255"/>
+      <c r="L1" s="255"/>
+      <c r="M1" s="255"/>
+      <c r="N1" s="255"/>
+      <c r="O1" s="255"/>
+      <c r="P1" s="255"/>
+      <c r="Q1" s="255"/>
+      <c r="R1" s="255"/>
+      <c r="S1" s="256"/>
     </row>
     <row r="2" spans="1:19" s="88" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="255" t="s">
+      <c r="A2" s="257" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="255" t="s">
+      <c r="B2" s="257" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="255" t="s">
+      <c r="C2" s="257" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="255" t="s">
+      <c r="D2" s="257" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="255" t="s">
+      <c r="E2" s="257" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="255" t="s">
+      <c r="F2" s="257" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="255" t="s">
+      <c r="G2" s="257" t="s">
         <v>46</v>
       </c>
       <c r="H2" s="89" t="s">
@@ -6644,11 +6668,11 @@
       <c r="I2" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="258" t="s">
+      <c r="J2" s="260" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="259"/>
-      <c r="L2" s="259"/>
+      <c r="K2" s="261"/>
+      <c r="L2" s="261"/>
       <c r="M2" s="89" t="s">
         <v>88</v>
       </c>
@@ -6672,13 +6696,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="78" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="256"/>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
+      <c r="A3" s="258"/>
+      <c r="B3" s="258"/>
+      <c r="C3" s="258"/>
+      <c r="D3" s="258"/>
+      <c r="E3" s="258"/>
+      <c r="F3" s="258"/>
+      <c r="G3" s="258"/>
       <c r="H3" s="84" t="s">
         <v>81</v>
       </c>
@@ -6713,28 +6737,28 @@
         <v>74</v>
       </c>
       <c r="S3" s="87" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="78" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="256"/>
-      <c r="B4" s="256"/>
-      <c r="C4" s="256"/>
-      <c r="D4" s="256"/>
-      <c r="E4" s="256"/>
-      <c r="F4" s="256"/>
-      <c r="G4" s="256"/>
+      <c r="A4" s="258"/>
+      <c r="B4" s="258"/>
+      <c r="C4" s="258"/>
+      <c r="D4" s="258"/>
+      <c r="E4" s="258"/>
+      <c r="F4" s="258"/>
+      <c r="G4" s="258"/>
       <c r="H4" s="84" t="s">
         <v>73</v>
       </c>
       <c r="I4" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="250" t="s">
+      <c r="J4" s="252" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="251"/>
-      <c r="L4" s="251"/>
+      <c r="K4" s="253"/>
+      <c r="L4" s="253"/>
       <c r="M4" s="85" t="s">
         <v>70</v>
       </c>
@@ -6758,24 +6782,24 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="78" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="257"/>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
+      <c r="A5" s="259"/>
+      <c r="B5" s="259"/>
+      <c r="C5" s="259"/>
+      <c r="D5" s="259"/>
+      <c r="E5" s="259"/>
+      <c r="F5" s="259"/>
+      <c r="G5" s="259"/>
       <c r="H5" s="84" t="s">
         <v>63</v>
       </c>
       <c r="I5" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="250" t="s">
+      <c r="J5" s="252" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="251"/>
-      <c r="L5" s="251"/>
+      <c r="K5" s="253"/>
+      <c r="L5" s="253"/>
       <c r="M5" s="83" t="s">
         <v>60</v>
       </c>
@@ -7552,21 +7576,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="249" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
-      <c r="E1" s="248"/>
-      <c r="F1" s="248"/>
-      <c r="G1" s="248"/>
-      <c r="H1" s="248"/>
-      <c r="I1" s="248"/>
-      <c r="J1" s="248"/>
-      <c r="K1" s="248"/>
-      <c r="L1" s="248"/>
-      <c r="M1" s="249"/>
+      <c r="B1" s="250"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="250"/>
+      <c r="L1" s="250"/>
+      <c r="M1" s="251"/>
     </row>
     <row r="2" spans="1:13" s="47" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="98" t="s">

--- a/dist/files/xls/shablon-kd.xlsx
+++ b/dist/files/xls/shablon-kd.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="191">
   <si>
     <t>№заказа</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>единица измерения</t>
-  </si>
-  <si>
-    <t>количесвто</t>
   </si>
   <si>
     <t>серийный номер</t>
@@ -2165,18 +2162,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2440,6 +2425,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2811,7 +2808,7 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="137" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J1" s="136"/>
       <c r="K1" s="136"/>
@@ -2838,23 +2835,23 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="211" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="212"/>
-      <c r="K2" s="212"/>
-      <c r="L2" s="212"/>
-      <c r="M2" s="212"/>
-      <c r="N2" s="213"/>
+      <c r="I2" s="207" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="209"/>
       <c r="O2" s="104"/>
-      <c r="P2" s="214" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="200"/>
+      <c r="P2" s="210" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="196"/>
       <c r="V2" s="141"/>
       <c r="W2" s="30"/>
       <c r="X2" s="12"/>
@@ -2869,33 +2866,33 @@
       <c r="G3" s="12"/>
       <c r="H3" s="29"/>
       <c r="I3" s="105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="107"/>
+      <c r="L3" s="196" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" s="196"/>
+      <c r="N3" s="167" t="s">
         <v>31</v>
-      </c>
-      <c r="K3" s="107"/>
-      <c r="L3" s="200" t="s">
-        <v>118</v>
-      </c>
-      <c r="M3" s="200"/>
-      <c r="N3" s="167" t="s">
-        <v>32</v>
       </c>
       <c r="O3" s="104"/>
       <c r="P3" s="105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="106" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R3" s="107"/>
-      <c r="S3" s="200" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3" s="200"/>
+      <c r="S3" s="196" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="196"/>
       <c r="U3" s="131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V3" s="131"/>
       <c r="W3" s="30"/>
@@ -2911,33 +2908,33 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" s="108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4" s="104"/>
-      <c r="L4" s="201" t="s">
-        <v>118</v>
-      </c>
-      <c r="M4" s="201"/>
+      <c r="L4" s="197" t="s">
+        <v>117</v>
+      </c>
+      <c r="M4" s="197"/>
       <c r="N4" s="168" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O4" s="104"/>
       <c r="P4" s="105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R4" s="104"/>
-      <c r="S4" s="201" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="201"/>
+      <c r="S4" s="197" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="197"/>
       <c r="U4" s="132" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V4" s="132"/>
       <c r="W4" s="31"/>
@@ -2953,33 +2950,33 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="108" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" s="104"/>
-      <c r="L5" s="201" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="201"/>
+      <c r="L5" s="197" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="197"/>
       <c r="N5" s="167" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O5" s="104"/>
       <c r="P5" s="105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="108" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R5" s="104"/>
-      <c r="S5" s="201" t="s">
-        <v>41</v>
-      </c>
-      <c r="T5" s="201"/>
+      <c r="S5" s="197" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="197"/>
       <c r="U5" s="131" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V5" s="131"/>
       <c r="W5" s="11"/>
@@ -3002,18 +2999,18 @@
       <c r="N6" s="169"/>
       <c r="O6" s="104"/>
       <c r="P6" s="105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R6" s="104"/>
-      <c r="S6" s="201" t="s">
-        <v>41</v>
-      </c>
-      <c r="T6" s="201"/>
+      <c r="S6" s="197" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="197"/>
       <c r="U6" s="108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V6" s="108"/>
       <c r="W6" s="32"/>
@@ -3029,33 +3026,33 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7" s="108" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="104"/>
+      <c r="L7" s="197" t="s">
+        <v>117</v>
+      </c>
+      <c r="M7" s="197"/>
+      <c r="N7" s="167" t="s">
         <v>34</v>
-      </c>
-      <c r="K7" s="104"/>
-      <c r="L7" s="201" t="s">
-        <v>118</v>
-      </c>
-      <c r="M7" s="201"/>
-      <c r="N7" s="167" t="s">
-        <v>35</v>
       </c>
       <c r="O7" s="104"/>
       <c r="P7" s="105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="108" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="104"/>
+      <c r="S7" s="197" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="197"/>
+      <c r="U7" s="131" t="s">
         <v>34</v>
-      </c>
-      <c r="R7" s="104"/>
-      <c r="S7" s="201" t="s">
-        <v>41</v>
-      </c>
-      <c r="T7" s="201"/>
-      <c r="U7" s="131" t="s">
-        <v>35</v>
       </c>
       <c r="V7" s="131"/>
       <c r="W7" s="33"/>
@@ -3071,27 +3068,27 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J8" s="108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K8" s="104"/>
       <c r="L8" s="138" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M8" s="138"/>
       <c r="N8" s="170"/>
       <c r="O8" s="104"/>
       <c r="P8" s="105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R8" s="104"/>
       <c r="S8" s="138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T8" s="138"/>
       <c r="U8" s="138"/>
@@ -3100,65 +3097,65 @@
       <c r="X8" s="12"/>
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="227" t="s">
+      <c r="A9" s="223" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="224" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="228" t="s">
+      <c r="C9" s="230" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="234" t="s">
+      <c r="D9" s="225" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="229" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="229"/>
-      <c r="F9" s="229"/>
-      <c r="G9" s="229"/>
-      <c r="H9" s="233"/>
+      <c r="E9" s="225"/>
+      <c r="F9" s="225"/>
+      <c r="G9" s="225"/>
+      <c r="H9" s="229"/>
       <c r="I9" s="109"/>
       <c r="J9" s="110"/>
       <c r="K9" s="110"/>
       <c r="L9" s="130" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M9" s="130"/>
       <c r="N9" s="171" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O9" s="12"/>
       <c r="P9" s="109"/>
       <c r="Q9" s="110"/>
       <c r="R9" s="110"/>
       <c r="S9" s="127" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T9" s="127"/>
       <c r="U9" s="127" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V9" s="127"/>
       <c r="W9" s="15"/>
       <c r="X9" s="12"/>
     </row>
     <row r="10" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="227"/>
-      <c r="B10" s="228"/>
-      <c r="C10" s="234"/>
-      <c r="D10" s="229" t="s">
+      <c r="A10" s="223"/>
+      <c r="B10" s="224"/>
+      <c r="C10" s="230"/>
+      <c r="D10" s="225" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="226" t="s">
         <v>125</v>
       </c>
-      <c r="E10" s="230" t="s">
+      <c r="F10" s="226" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="230" t="s">
+      <c r="G10" s="224" t="s">
         <v>127</v>
       </c>
-      <c r="G10" s="228" t="s">
+      <c r="H10" s="230" t="s">
         <v>128</v>
-      </c>
-      <c r="H10" s="234" t="s">
-        <v>129</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="12"/>
@@ -3178,18 +3175,18 @@
       <c r="X10" s="12"/>
     </row>
     <row r="11" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="227"/>
-      <c r="B11" s="228"/>
-      <c r="C11" s="234"/>
-      <c r="D11" s="229"/>
-      <c r="E11" s="230"/>
-      <c r="F11" s="245"/>
-      <c r="G11" s="228"/>
-      <c r="H11" s="234"/>
+      <c r="A11" s="223"/>
+      <c r="B11" s="224"/>
+      <c r="C11" s="230"/>
+      <c r="D11" s="225"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="241"/>
+      <c r="G11" s="224"/>
+      <c r="H11" s="230"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="150" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L11" s="150"/>
       <c r="M11" s="150"/>
@@ -3206,39 +3203,39 @@
       <c r="X11" s="12"/>
     </row>
     <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="226" t="s">
+      <c r="A12" s="222" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="227" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="227" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="231" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="231" t="s">
+      <c r="D12" s="227" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="231" t="s">
+      <c r="E12" s="228" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="232" t="s">
+      <c r="F12" s="228" t="s">
         <v>133</v>
       </c>
-      <c r="F12" s="232" t="s">
+      <c r="G12" s="231" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" s="242" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="235" t="s">
-        <v>153</v>
-      </c>
-      <c r="H12" s="246" t="s">
-        <v>135</v>
-      </c>
       <c r="I12" s="142"/>
-      <c r="J12" s="204" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="204"/>
-      <c r="L12" s="204"/>
-      <c r="M12" s="204"/>
+      <c r="J12" s="200" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="200"/>
+      <c r="L12" s="200"/>
+      <c r="M12" s="200"/>
       <c r="N12" s="174" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O12" s="149"/>
       <c r="P12" s="12"/>
@@ -3252,23 +3249,23 @@
       <c r="X12" s="12"/>
     </row>
     <row r="13" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="226"/>
-      <c r="B13" s="231"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="231"/>
-      <c r="E13" s="232"/>
-      <c r="F13" s="232"/>
-      <c r="G13" s="236"/>
-      <c r="H13" s="246"/>
+      <c r="A13" s="222"/>
+      <c r="B13" s="227"/>
+      <c r="C13" s="227"/>
+      <c r="D13" s="227"/>
+      <c r="E13" s="228"/>
+      <c r="F13" s="228"/>
+      <c r="G13" s="232"/>
+      <c r="H13" s="242"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="205" t="s">
-        <v>172</v>
-      </c>
-      <c r="K13" s="205"/>
-      <c r="L13" s="205"/>
-      <c r="M13" s="205"/>
+      <c r="J13" s="201" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" s="201"/>
+      <c r="L13" s="201"/>
+      <c r="M13" s="201"/>
       <c r="N13" s="174" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O13" s="149"/>
       <c r="P13" s="12"/>
@@ -3282,23 +3279,23 @@
       <c r="X13" s="12"/>
     </row>
     <row r="14" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="226"/>
-      <c r="B14" s="231"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="231"/>
-      <c r="E14" s="232"/>
-      <c r="F14" s="232"/>
-      <c r="G14" s="236"/>
-      <c r="H14" s="246"/>
+      <c r="A14" s="222"/>
+      <c r="B14" s="227"/>
+      <c r="C14" s="227"/>
+      <c r="D14" s="227"/>
+      <c r="E14" s="228"/>
+      <c r="F14" s="228"/>
+      <c r="G14" s="232"/>
+      <c r="H14" s="242"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="206" t="s">
-        <v>115</v>
-      </c>
-      <c r="K14" s="206"/>
-      <c r="L14" s="206"/>
-      <c r="M14" s="206"/>
+      <c r="J14" s="202" t="s">
+        <v>114</v>
+      </c>
+      <c r="K14" s="202"/>
+      <c r="L14" s="202"/>
+      <c r="M14" s="202"/>
       <c r="N14" s="175" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O14" s="148"/>
       <c r="P14" s="12"/>
@@ -3312,23 +3309,23 @@
       <c r="X14" s="12"/>
     </row>
     <row r="15" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="226"/>
-      <c r="B15" s="231"/>
-      <c r="C15" s="231"/>
-      <c r="D15" s="231"/>
-      <c r="E15" s="232"/>
-      <c r="F15" s="232"/>
-      <c r="G15" s="237"/>
-      <c r="H15" s="246"/>
+      <c r="A15" s="222"/>
+      <c r="B15" s="227"/>
+      <c r="C15" s="227"/>
+      <c r="D15" s="227"/>
+      <c r="E15" s="228"/>
+      <c r="F15" s="228"/>
+      <c r="G15" s="233"/>
+      <c r="H15" s="242"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="206" t="s">
-        <v>170</v>
-      </c>
-      <c r="K15" s="206"/>
-      <c r="L15" s="206"/>
-      <c r="M15" s="206"/>
+      <c r="J15" s="202" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" s="202"/>
+      <c r="L15" s="202"/>
+      <c r="M15" s="202"/>
       <c r="N15" s="175" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O15" s="148"/>
       <c r="P15" s="12"/>
@@ -3342,25 +3339,25 @@
       <c r="X15" s="12"/>
     </row>
     <row r="16" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="226"/>
-      <c r="B16" s="231"/>
-      <c r="C16" s="231"/>
-      <c r="D16" s="231"/>
-      <c r="E16" s="232"/>
-      <c r="F16" s="232"/>
-      <c r="G16" s="235" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="246"/>
+      <c r="A16" s="222"/>
+      <c r="B16" s="227"/>
+      <c r="C16" s="227"/>
+      <c r="D16" s="227"/>
+      <c r="E16" s="228"/>
+      <c r="F16" s="228"/>
+      <c r="G16" s="231" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="242"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="206" t="s">
-        <v>168</v>
-      </c>
-      <c r="K16" s="206"/>
-      <c r="L16" s="206"/>
-      <c r="M16" s="206"/>
+      <c r="J16" s="202" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" s="202"/>
+      <c r="L16" s="202"/>
+      <c r="M16" s="202"/>
       <c r="N16" s="175" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O16" s="148"/>
       <c r="P16" s="12"/>
@@ -3374,23 +3371,23 @@
       <c r="X16" s="12"/>
     </row>
     <row r="17" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="226"/>
-      <c r="B17" s="231"/>
-      <c r="C17" s="231"/>
-      <c r="D17" s="231"/>
-      <c r="E17" s="232"/>
-      <c r="F17" s="232"/>
-      <c r="G17" s="236"/>
-      <c r="H17" s="246"/>
+      <c r="A17" s="222"/>
+      <c r="B17" s="227"/>
+      <c r="C17" s="227"/>
+      <c r="D17" s="227"/>
+      <c r="E17" s="228"/>
+      <c r="F17" s="228"/>
+      <c r="G17" s="232"/>
+      <c r="H17" s="242"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="206" t="s">
-        <v>166</v>
-      </c>
-      <c r="K17" s="206"/>
-      <c r="L17" s="206"/>
-      <c r="M17" s="206"/>
+      <c r="J17" s="202" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" s="202"/>
+      <c r="L17" s="202"/>
+      <c r="M17" s="202"/>
       <c r="N17" s="175" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O17" s="148"/>
       <c r="P17" s="12"/>
@@ -3404,21 +3401,21 @@
       <c r="X17" s="12"/>
     </row>
     <row r="18" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="226"/>
-      <c r="B18" s="231"/>
-      <c r="C18" s="231"/>
-      <c r="D18" s="231"/>
-      <c r="E18" s="232"/>
-      <c r="F18" s="232"/>
-      <c r="G18" s="237"/>
-      <c r="H18" s="246"/>
+      <c r="A18" s="222"/>
+      <c r="B18" s="227"/>
+      <c r="C18" s="227"/>
+      <c r="D18" s="227"/>
+      <c r="E18" s="228"/>
+      <c r="F18" s="228"/>
+      <c r="G18" s="233"/>
+      <c r="H18" s="242"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="217" t="s">
-        <v>114</v>
-      </c>
-      <c r="K18" s="217"/>
-      <c r="L18" s="217"/>
-      <c r="M18" s="217"/>
+      <c r="J18" s="213" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="213"/>
+      <c r="L18" s="213"/>
+      <c r="M18" s="213"/>
       <c r="N18" s="176">
         <v>500</v>
       </c>
@@ -3442,14 +3439,14 @@
       <c r="G19" s="115"/>
       <c r="H19" s="116"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="217" t="s">
-        <v>113</v>
-      </c>
-      <c r="K19" s="217"/>
-      <c r="L19" s="217"/>
-      <c r="M19" s="217"/>
+      <c r="J19" s="213" t="s">
+        <v>112</v>
+      </c>
+      <c r="K19" s="213"/>
+      <c r="L19" s="213"/>
+      <c r="M19" s="213"/>
       <c r="N19" s="176" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O19" s="144"/>
       <c r="P19" s="12"/>
@@ -3497,12 +3494,12 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="202" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" s="203"/>
-      <c r="K21" s="203"/>
-      <c r="L21" s="203"/>
+      <c r="I21" s="198" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="199"/>
+      <c r="K21" s="199"/>
+      <c r="L21" s="199"/>
       <c r="M21" s="5"/>
       <c r="N21" s="177"/>
       <c r="O21" s="5"/>
@@ -3512,11 +3509,11 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="165"/>
-      <c r="V21" s="218" t="s">
-        <v>151</v>
-      </c>
-      <c r="W21" s="207" t="s">
+      <c r="V21" s="214" t="s">
         <v>150</v>
+      </c>
+      <c r="W21" s="203" t="s">
+        <v>149</v>
       </c>
       <c r="X21" s="12"/>
     </row>
@@ -3530,32 +3527,32 @@
       <c r="G22" s="12"/>
       <c r="H22" s="28"/>
       <c r="I22" s="129"/>
-      <c r="J22" s="195" t="s">
-        <v>149</v>
-      </c>
-      <c r="K22" s="195"/>
-      <c r="L22" s="195"/>
-      <c r="N22" s="198" t="s">
-        <v>41</v>
-      </c>
-      <c r="O22" s="199"/>
-      <c r="P22" s="199"/>
-      <c r="Q22" s="215" t="s">
-        <v>16</v>
-      </c>
-      <c r="R22" s="215"/>
+      <c r="J22" s="191" t="s">
+        <v>148</v>
+      </c>
+      <c r="K22" s="191"/>
+      <c r="L22" s="191"/>
+      <c r="N22" s="194" t="s">
+        <v>40</v>
+      </c>
+      <c r="O22" s="195"/>
+      <c r="P22" s="195"/>
+      <c r="Q22" s="211" t="s">
+        <v>15</v>
+      </c>
+      <c r="R22" s="211"/>
       <c r="S22" s="139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T22" s="139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U22" s="163">
         <f ca="1">TODAY()</f>
         <v>43503</v>
       </c>
-      <c r="V22" s="219"/>
-      <c r="W22" s="208"/>
+      <c r="V22" s="215"/>
+      <c r="W22" s="204"/>
       <c r="X22" s="12"/>
     </row>
     <row r="23" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3571,7 +3568,7 @@
       <c r="J23" s="145"/>
       <c r="K23" s="145"/>
       <c r="L23" s="145" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M23" s="119"/>
       <c r="N23" s="178"/>
@@ -3582,8 +3579,8 @@
       <c r="S23" s="119"/>
       <c r="T23" s="119"/>
       <c r="U23" s="119"/>
-      <c r="V23" s="219"/>
-      <c r="W23" s="208"/>
+      <c r="V23" s="215"/>
+      <c r="W23" s="204"/>
       <c r="X23" s="12"/>
     </row>
     <row r="24" spans="1:24" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3595,34 +3592,34 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="196" t="s">
-        <v>137</v>
-      </c>
-      <c r="J24" s="196"/>
-      <c r="K24" s="196"/>
-      <c r="L24" s="196"/>
+      <c r="I24" s="192" t="s">
+        <v>136</v>
+      </c>
+      <c r="J24" s="192"/>
+      <c r="K24" s="192"/>
+      <c r="L24" s="192"/>
       <c r="M24" s="12"/>
-      <c r="N24" s="193" t="s">
+      <c r="N24" s="189" t="s">
+        <v>14</v>
+      </c>
+      <c r="O24" s="190"/>
+      <c r="P24" s="190"/>
+      <c r="Q24" s="143" t="s">
         <v>15</v>
-      </c>
-      <c r="O24" s="194"/>
-      <c r="P24" s="194"/>
-      <c r="Q24" s="143" t="s">
-        <v>16</v>
       </c>
       <c r="R24" s="143"/>
       <c r="S24" s="143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T24" s="143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U24" s="163">
         <f ca="1">TODAY()</f>
         <v>43503</v>
       </c>
-      <c r="V24" s="219"/>
-      <c r="W24" s="208"/>
+      <c r="V24" s="215"/>
+      <c r="W24" s="204"/>
       <c r="X24" s="12"/>
     </row>
     <row r="25" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3634,34 +3631,34 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="196" t="s">
-        <v>138</v>
-      </c>
-      <c r="J25" s="196"/>
-      <c r="K25" s="196"/>
-      <c r="L25" s="196"/>
+      <c r="I25" s="192" t="s">
+        <v>137</v>
+      </c>
+      <c r="J25" s="192"/>
+      <c r="K25" s="192"/>
+      <c r="L25" s="192"/>
       <c r="M25" s="12"/>
-      <c r="N25" s="193" t="s">
+      <c r="N25" s="189" t="s">
+        <v>14</v>
+      </c>
+      <c r="O25" s="190"/>
+      <c r="P25" s="190"/>
+      <c r="Q25" s="143" t="s">
         <v>15</v>
-      </c>
-      <c r="O25" s="194"/>
-      <c r="P25" s="194"/>
-      <c r="Q25" s="143" t="s">
-        <v>16</v>
       </c>
       <c r="R25" s="143"/>
       <c r="S25" s="143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T25" s="143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U25" s="163">
         <f ca="1">TODAY()</f>
         <v>43503</v>
       </c>
-      <c r="V25" s="219"/>
-      <c r="W25" s="208"/>
+      <c r="V25" s="215"/>
+      <c r="W25" s="204"/>
       <c r="X25" s="12"/>
     </row>
     <row r="26" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3673,34 +3670,34 @@
       <c r="F26" s="119"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
-      <c r="I26" s="196" t="s">
-        <v>139</v>
-      </c>
-      <c r="J26" s="196"/>
-      <c r="K26" s="196"/>
-      <c r="L26" s="196"/>
+      <c r="I26" s="192" t="s">
+        <v>138</v>
+      </c>
+      <c r="J26" s="192"/>
+      <c r="K26" s="192"/>
+      <c r="L26" s="192"/>
       <c r="M26" s="12"/>
-      <c r="N26" s="193" t="s">
+      <c r="N26" s="189" t="s">
+        <v>14</v>
+      </c>
+      <c r="O26" s="190"/>
+      <c r="P26" s="190"/>
+      <c r="Q26" s="143" t="s">
         <v>15</v>
-      </c>
-      <c r="O26" s="194"/>
-      <c r="P26" s="194"/>
-      <c r="Q26" s="143" t="s">
-        <v>16</v>
       </c>
       <c r="R26" s="143"/>
       <c r="S26" s="143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T26" s="143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U26" s="163">
         <f ca="1">TODAY()</f>
         <v>43503</v>
       </c>
-      <c r="V26" s="220"/>
-      <c r="W26" s="208"/>
+      <c r="V26" s="216"/>
+      <c r="W26" s="204"/>
       <c r="X26" s="12"/>
     </row>
     <row r="27" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3712,21 +3709,21 @@
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
-      <c r="I27" s="197"/>
-      <c r="J27" s="197"/>
-      <c r="K27" s="197"/>
-      <c r="L27" s="197"/>
-      <c r="M27" s="210"/>
-      <c r="N27" s="210"/>
-      <c r="O27" s="210"/>
-      <c r="P27" s="210"/>
-      <c r="Q27" s="216"/>
-      <c r="R27" s="216"/>
+      <c r="I27" s="193"/>
+      <c r="J27" s="193"/>
+      <c r="K27" s="193"/>
+      <c r="L27" s="193"/>
+      <c r="M27" s="206"/>
+      <c r="N27" s="206"/>
+      <c r="O27" s="206"/>
+      <c r="P27" s="206"/>
+      <c r="Q27" s="212"/>
+      <c r="R27" s="212"/>
       <c r="S27" s="143"/>
       <c r="T27" s="143"/>
       <c r="U27" s="143"/>
       <c r="V27" s="143"/>
-      <c r="W27" s="208"/>
+      <c r="W27" s="204"/>
       <c r="X27" s="12"/>
     </row>
     <row r="28" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -3739,42 +3736,42 @@
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="I28" s="119"/>
-      <c r="J28" s="195" t="s">
-        <v>136</v>
-      </c>
-      <c r="K28" s="195"/>
-      <c r="L28" s="195"/>
+      <c r="J28" s="191" t="s">
+        <v>135</v>
+      </c>
+      <c r="K28" s="191"/>
+      <c r="L28" s="191"/>
       <c r="M28" s="12"/>
-      <c r="N28" s="193" t="s">
+      <c r="N28" s="189" t="s">
+        <v>14</v>
+      </c>
+      <c r="O28" s="190"/>
+      <c r="P28" s="190"/>
+      <c r="Q28" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="O28" s="194"/>
-      <c r="P28" s="194"/>
-      <c r="Q28" s="216" t="s">
-        <v>16</v>
-      </c>
-      <c r="R28" s="216"/>
+      <c r="R28" s="212"/>
       <c r="S28" s="143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T28" s="143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U28" s="163">
         <f ca="1">TODAY()</f>
         <v>43503</v>
       </c>
       <c r="V28" s="143"/>
-      <c r="W28" s="208"/>
+      <c r="W28" s="204"/>
       <c r="X28" s="12"/>
     </row>
     <row r="29" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="244"/>
-      <c r="D29" s="244"/>
-      <c r="E29" s="244"/>
-      <c r="F29" s="244"/>
+      <c r="C29" s="240"/>
+      <c r="D29" s="240"/>
+      <c r="E29" s="240"/>
+      <c r="F29" s="240"/>
       <c r="G29" s="124"/>
       <c r="H29" s="28"/>
       <c r="I29" s="12"/>
@@ -3791,7 +3788,7 @@
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
       <c r="V29" s="128"/>
-      <c r="W29" s="209"/>
+      <c r="W29" s="205"/>
       <c r="X29" s="12"/>
     </row>
     <row r="30" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3823,10 +3820,10 @@
     <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="244"/>
-      <c r="D31" s="244"/>
-      <c r="E31" s="244"/>
-      <c r="F31" s="244"/>
+      <c r="C31" s="240"/>
+      <c r="D31" s="240"/>
+      <c r="E31" s="240"/>
+      <c r="F31" s="240"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -3852,39 +3849,39 @@
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="221" t="s">
-        <v>140</v>
-      </c>
-      <c r="G32" s="221"/>
-      <c r="H32" s="221"/>
-      <c r="I32" s="221"/>
-      <c r="J32" s="221"/>
-      <c r="K32" s="221"/>
-      <c r="L32" s="221"/>
+      <c r="F32" s="217" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="217"/>
+      <c r="H32" s="217"/>
+      <c r="I32" s="217"/>
+      <c r="J32" s="217"/>
+      <c r="K32" s="217"/>
+      <c r="L32" s="217"/>
       <c r="M32" s="143" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N32" s="178"/>
       <c r="O32" s="119"/>
       <c r="P32" s="119"/>
-      <c r="Q32" s="215" t="s">
-        <v>16</v>
-      </c>
-      <c r="R32" s="215"/>
+      <c r="Q32" s="211" t="s">
+        <v>15</v>
+      </c>
+      <c r="R32" s="211"/>
       <c r="S32" s="139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T32" s="139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U32" s="163">
         <f ca="1">TODAY()</f>
         <v>43503</v>
       </c>
-      <c r="V32" s="238" t="s">
-        <v>148</v>
-      </c>
-      <c r="W32" s="239"/>
+      <c r="V32" s="234" t="s">
+        <v>147</v>
+      </c>
+      <c r="W32" s="235"/>
       <c r="X32" s="12"/>
     </row>
     <row r="33" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3893,39 +3890,39 @@
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="221" t="s">
-        <v>140</v>
-      </c>
-      <c r="G33" s="221"/>
-      <c r="H33" s="221"/>
-      <c r="I33" s="221"/>
-      <c r="J33" s="221"/>
-      <c r="K33" s="221"/>
-      <c r="L33" s="221"/>
+      <c r="F33" s="217" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" s="217"/>
+      <c r="H33" s="217"/>
+      <c r="I33" s="217"/>
+      <c r="J33" s="217"/>
+      <c r="K33" s="217"/>
+      <c r="L33" s="217"/>
       <c r="M33" s="143" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N33" s="178" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O33" s="119"/>
       <c r="P33" s="119"/>
-      <c r="Q33" s="215" t="s">
-        <v>16</v>
-      </c>
-      <c r="R33" s="215"/>
+      <c r="Q33" s="211" t="s">
+        <v>15</v>
+      </c>
+      <c r="R33" s="211"/>
       <c r="S33" s="139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T33" s="139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U33" s="163">
         <f t="shared" ref="U33:U37" ca="1" si="0">TODAY()</f>
         <v>43503</v>
       </c>
-      <c r="V33" s="240"/>
-      <c r="W33" s="241"/>
+      <c r="V33" s="236"/>
+      <c r="W33" s="237"/>
       <c r="X33" s="12"/>
     </row>
     <row r="34" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3934,39 +3931,39 @@
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="221" t="s">
+      <c r="F34" s="217" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" s="217"/>
+      <c r="H34" s="217"/>
+      <c r="I34" s="217"/>
+      <c r="J34" s="217"/>
+      <c r="K34" s="217"/>
+      <c r="L34" s="217"/>
+      <c r="M34" s="143" t="s">
         <v>141</v>
-      </c>
-      <c r="G34" s="221"/>
-      <c r="H34" s="221"/>
-      <c r="I34" s="221"/>
-      <c r="J34" s="221"/>
-      <c r="K34" s="221"/>
-      <c r="L34" s="221"/>
-      <c r="M34" s="143" t="s">
-        <v>142</v>
       </c>
       <c r="N34" s="178"/>
       <c r="O34" s="119" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P34" s="119"/>
-      <c r="Q34" s="215" t="s">
-        <v>16</v>
-      </c>
-      <c r="R34" s="215"/>
+      <c r="Q34" s="211" t="s">
+        <v>15</v>
+      </c>
+      <c r="R34" s="211"/>
       <c r="S34" s="139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T34" s="139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U34" s="163">
         <f t="shared" ca="1" si="0"/>
         <v>43503</v>
       </c>
-      <c r="V34" s="240"/>
-      <c r="W34" s="241"/>
+      <c r="V34" s="236"/>
+      <c r="W34" s="237"/>
       <c r="X34" s="12"/>
     </row>
     <row r="35" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3982,28 +3979,28 @@
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
-      <c r="M35" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="N35" s="225"/>
-      <c r="O35" s="225"/>
-      <c r="P35" s="225"/>
-      <c r="Q35" s="215" t="s">
-        <v>16</v>
-      </c>
-      <c r="R35" s="215"/>
+      <c r="M35" s="221" t="s">
+        <v>190</v>
+      </c>
+      <c r="N35" s="221"/>
+      <c r="O35" s="221"/>
+      <c r="P35" s="221"/>
+      <c r="Q35" s="211" t="s">
+        <v>15</v>
+      </c>
+      <c r="R35" s="211"/>
       <c r="S35" s="139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T35" s="139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U35" s="163">
         <f t="shared" ca="1" si="0"/>
         <v>43503</v>
       </c>
-      <c r="V35" s="240"/>
-      <c r="W35" s="241"/>
+      <c r="V35" s="236"/>
+      <c r="W35" s="237"/>
       <c r="X35" s="12"/>
     </row>
     <row r="36" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -4019,58 +4016,58 @@
       <c r="J36" s="126"/>
       <c r="K36" s="126"/>
       <c r="L36" s="126"/>
-      <c r="M36" s="222"/>
-      <c r="N36" s="222"/>
+      <c r="M36" s="218"/>
+      <c r="N36" s="218"/>
       <c r="O36" s="119"/>
       <c r="P36" s="119"/>
-      <c r="Q36" s="215"/>
-      <c r="R36" s="215"/>
+      <c r="Q36" s="211"/>
+      <c r="R36" s="211"/>
       <c r="S36" s="139"/>
       <c r="T36" s="139"/>
       <c r="U36" s="163"/>
-      <c r="V36" s="240"/>
-      <c r="W36" s="241"/>
+      <c r="V36" s="236"/>
+      <c r="W36" s="237"/>
       <c r="X36" s="12"/>
     </row>
     <row r="37" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="223" t="s">
+      <c r="D37" s="219" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="219"/>
+      <c r="F37" s="219"/>
+      <c r="G37" s="219"/>
+      <c r="H37" s="219"/>
+      <c r="I37" s="219"/>
+      <c r="J37" s="219"/>
+      <c r="K37" s="219"/>
+      <c r="L37" s="220" t="s">
         <v>144</v>
       </c>
-      <c r="E37" s="223"/>
-      <c r="F37" s="223"/>
-      <c r="G37" s="223"/>
-      <c r="H37" s="223"/>
-      <c r="I37" s="223"/>
-      <c r="J37" s="223"/>
-      <c r="K37" s="223"/>
-      <c r="L37" s="224" t="s">
-        <v>145</v>
-      </c>
-      <c r="M37" s="224"/>
-      <c r="N37" s="224"/>
+      <c r="M37" s="220"/>
+      <c r="N37" s="220"/>
       <c r="O37" s="119" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P37" s="119"/>
-      <c r="Q37" s="215" t="s">
-        <v>16</v>
-      </c>
-      <c r="R37" s="215"/>
+      <c r="Q37" s="211" t="s">
+        <v>15</v>
+      </c>
+      <c r="R37" s="211"/>
       <c r="S37" s="139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T37" s="139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U37" s="163">
         <f t="shared" ca="1" si="0"/>
         <v>43503</v>
       </c>
-      <c r="V37" s="242"/>
-      <c r="W37" s="243"/>
+      <c r="V37" s="238"/>
+      <c r="W37" s="239"/>
       <c r="X37" s="12"/>
     </row>
     <row r="38" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4281,7 +4278,7 @@
     <col min="5" max="5" width="20.75" style="181"/>
     <col min="6" max="6" width="25.75" style="181" customWidth="1"/>
     <col min="7" max="7" width="14.75" style="181" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="192" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="281" customWidth="1"/>
     <col min="9" max="10" width="15.75" style="181" customWidth="1"/>
     <col min="11" max="11" width="18.5" style="181" customWidth="1"/>
     <col min="12" max="12" width="20.5" style="181" customWidth="1"/>
@@ -4290,21 +4287,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="55.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="247" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
-      <c r="E1" s="248"/>
-      <c r="F1" s="248"/>
-      <c r="G1" s="248"/>
-      <c r="H1" s="248"/>
-      <c r="I1" s="248"/>
-      <c r="J1" s="248"/>
-      <c r="K1" s="248"/>
-      <c r="L1" s="248"/>
-      <c r="M1" s="249"/>
+      <c r="A1" s="243" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
+      <c r="H1" s="244"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="244"/>
+      <c r="K1" s="244"/>
+      <c r="L1" s="244"/>
+      <c r="M1" s="245"/>
     </row>
     <row r="2" spans="1:13" ht="184.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
@@ -4314,7 +4311,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>2</v>
@@ -4328,23 +4325,23 @@
       <c r="G2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="189" t="s">
+      <c r="H2" s="278" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>7</v>
-      </c>
       <c r="J2" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.55000000000000004">
@@ -4356,32 +4353,32 @@
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="20">
         <v>2</v>
       </c>
       <c r="F3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="190">
+      <c r="H3" s="279">
         <v>14</v>
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M3" s="184" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.55000000000000004">
@@ -4392,7 +4389,7 @@
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
-      <c r="H4" s="190"/>
+      <c r="H4" s="279"/>
       <c r="I4" s="182"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
@@ -4407,7 +4404,7 @@
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
-      <c r="H5" s="190"/>
+      <c r="H5" s="279"/>
       <c r="I5" s="182"/>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
@@ -4422,7 +4419,7 @@
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
-      <c r="H6" s="190"/>
+      <c r="H6" s="279"/>
       <c r="I6" s="182"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
@@ -4437,7 +4434,7 @@
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
-      <c r="H7" s="190"/>
+      <c r="H7" s="279"/>
       <c r="I7" s="182"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
@@ -4452,7 +4449,7 @@
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
-      <c r="H8" s="190"/>
+      <c r="H8" s="279"/>
       <c r="I8" s="182"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
@@ -4467,7 +4464,7 @@
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
-      <c r="H9" s="190"/>
+      <c r="H9" s="279"/>
       <c r="I9" s="182"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
@@ -4482,7 +4479,7 @@
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
-      <c r="H10" s="190"/>
+      <c r="H10" s="279"/>
       <c r="I10" s="182"/>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
@@ -4497,7 +4494,7 @@
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="190"/>
+      <c r="H11" s="279"/>
       <c r="I11" s="182"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
@@ -4512,7 +4509,7 @@
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
-      <c r="H12" s="190"/>
+      <c r="H12" s="279"/>
       <c r="I12" s="182"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
@@ -4527,7 +4524,7 @@
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
-      <c r="H13" s="190"/>
+      <c r="H13" s="279"/>
       <c r="I13" s="182"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
@@ -4542,7 +4539,7 @@
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
-      <c r="H14" s="191"/>
+      <c r="H14" s="280"/>
       <c r="I14" s="183"/>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
@@ -4579,91 +4576,91 @@
   <sheetData>
     <row r="1" spans="1:13" ht="25.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C1" s="102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D1" s="102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E1" s="102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F1" s="102" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="250" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" s="251"/>
-      <c r="I1" s="252"/>
+        <v>104</v>
+      </c>
+      <c r="G1" s="246" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="247"/>
+      <c r="I1" s="248"/>
       <c r="J1" s="102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K1" s="102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L1" s="102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M1" s="102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="96" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E2" s="96" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F2" s="101" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G2" s="100" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H2" s="99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I2" s="98" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J2" s="97" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K2" s="96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L2" s="96" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M2" s="95" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" s="94"/>
       <c r="E3" s="94"/>
@@ -4673,13 +4670,13 @@
       <c r="I3" s="94"/>
       <c r="J3" s="94"/>
       <c r="K3" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L3" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M3" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5223,12 +5220,12 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="262" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" s="263"/>
-      <c r="I2" s="263"/>
-      <c r="J2" s="263"/>
+      <c r="G2" s="258" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="259"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="259"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -5241,33 +5238,33 @@
       <c r="T2" s="6"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="265" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="266"/>
-      <c r="C3" s="266"/>
-      <c r="D3" s="266"/>
-      <c r="E3" s="266"/>
-      <c r="F3" s="266"/>
-      <c r="G3" s="266"/>
-      <c r="H3" s="266"/>
-      <c r="I3" s="266"/>
-      <c r="J3" s="266"/>
-      <c r="K3" s="193" t="s">
+      <c r="A3" s="261" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="262"/>
+      <c r="C3" s="262"/>
+      <c r="D3" s="262"/>
+      <c r="E3" s="262"/>
+      <c r="F3" s="262"/>
+      <c r="G3" s="262"/>
+      <c r="H3" s="262"/>
+      <c r="I3" s="262"/>
+      <c r="J3" s="262"/>
+      <c r="K3" s="189" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="189"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="189"/>
+      <c r="O3" s="211" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="193"/>
-      <c r="M3" s="193"/>
-      <c r="N3" s="193"/>
-      <c r="O3" s="215" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="215"/>
+      <c r="P3" s="211"/>
       <c r="Q3" s="139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R3" s="139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S3" s="164">
         <f ca="1">TODAY()</f>
@@ -5320,11 +5317,11 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="267" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="268"/>
-      <c r="C6" s="268"/>
+      <c r="A6" s="263" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="264"/>
+      <c r="C6" s="264"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -5344,11 +5341,11 @@
       <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="267" t="s">
-        <v>186</v>
-      </c>
-      <c r="B7" s="268"/>
-      <c r="C7" s="268"/>
+      <c r="A7" s="263" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="264"/>
+      <c r="C7" s="264"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -5368,11 +5365,11 @@
       <c r="T7" s="6"/>
     </row>
     <row r="8" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="267" t="s">
-        <v>185</v>
-      </c>
-      <c r="B8" s="268"/>
-      <c r="C8" s="268"/>
+      <c r="A8" s="263" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="264"/>
+      <c r="C8" s="264"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -5462,20 +5459,20 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="253" t="s">
-        <v>184</v>
-      </c>
-      <c r="F12" s="254"/>
-      <c r="G12" s="254"/>
-      <c r="H12" s="254"/>
-      <c r="I12" s="254"/>
-      <c r="J12" s="254"/>
-      <c r="K12" s="254"/>
-      <c r="L12" s="254"/>
-      <c r="M12" s="254"/>
-      <c r="N12" s="254"/>
-      <c r="O12" s="254"/>
-      <c r="P12" s="254"/>
+      <c r="E12" s="249" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" s="250"/>
+      <c r="G12" s="250"/>
+      <c r="H12" s="250"/>
+      <c r="I12" s="250"/>
+      <c r="J12" s="250"/>
+      <c r="K12" s="250"/>
+      <c r="L12" s="250"/>
+      <c r="M12" s="250"/>
+      <c r="N12" s="250"/>
+      <c r="O12" s="250"/>
+      <c r="P12" s="250"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -5486,18 +5483,18 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="254"/>
-      <c r="F13" s="254"/>
-      <c r="G13" s="254"/>
-      <c r="H13" s="254"/>
-      <c r="I13" s="254"/>
-      <c r="J13" s="254"/>
-      <c r="K13" s="254"/>
-      <c r="L13" s="254"/>
-      <c r="M13" s="254"/>
-      <c r="N13" s="254"/>
-      <c r="O13" s="254"/>
-      <c r="P13" s="254"/>
+      <c r="E13" s="250"/>
+      <c r="F13" s="250"/>
+      <c r="G13" s="250"/>
+      <c r="H13" s="250"/>
+      <c r="I13" s="250"/>
+      <c r="J13" s="250"/>
+      <c r="K13" s="250"/>
+      <c r="L13" s="250"/>
+      <c r="M13" s="250"/>
+      <c r="N13" s="250"/>
+      <c r="O13" s="250"/>
+      <c r="P13" s="250"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
@@ -5508,18 +5505,18 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="254"/>
-      <c r="F14" s="254"/>
-      <c r="G14" s="254"/>
-      <c r="H14" s="254"/>
-      <c r="I14" s="254"/>
-      <c r="J14" s="254"/>
-      <c r="K14" s="254"/>
-      <c r="L14" s="254"/>
-      <c r="M14" s="254"/>
-      <c r="N14" s="254"/>
-      <c r="O14" s="254"/>
-      <c r="P14" s="254"/>
+      <c r="E14" s="250"/>
+      <c r="F14" s="250"/>
+      <c r="G14" s="250"/>
+      <c r="H14" s="250"/>
+      <c r="I14" s="250"/>
+      <c r="J14" s="250"/>
+      <c r="K14" s="250"/>
+      <c r="L14" s="250"/>
+      <c r="M14" s="250"/>
+      <c r="N14" s="250"/>
+      <c r="O14" s="250"/>
+      <c r="P14" s="250"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
@@ -5553,23 +5550,23 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="206" t="s">
-        <v>183</v>
-      </c>
-      <c r="G16" s="255"/>
-      <c r="H16" s="255"/>
-      <c r="I16" s="255"/>
-      <c r="J16" s="256" t="str">
+      <c r="F16" s="202" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="251"/>
+      <c r="H16" s="251"/>
+      <c r="I16" s="251"/>
+      <c r="J16" s="252" t="str">
         <f>'лист титульный КД'!N12</f>
         <v>Иванов И.И</v>
       </c>
-      <c r="K16" s="256"/>
-      <c r="L16" s="256"/>
-      <c r="M16" s="256"/>
-      <c r="N16" s="256"/>
-      <c r="O16" s="256"/>
-      <c r="P16" s="256"/>
-      <c r="Q16" s="256"/>
+      <c r="K16" s="252"/>
+      <c r="L16" s="252"/>
+      <c r="M16" s="252"/>
+      <c r="N16" s="252"/>
+      <c r="O16" s="252"/>
+      <c r="P16" s="252"/>
+      <c r="Q16" s="252"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="6"/>
@@ -5580,23 +5577,23 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="206" t="s">
-        <v>182</v>
-      </c>
-      <c r="G17" s="255"/>
-      <c r="H17" s="255"/>
-      <c r="I17" s="255"/>
-      <c r="J17" s="256" t="str">
+      <c r="F17" s="202" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="251"/>
+      <c r="H17" s="251"/>
+      <c r="I17" s="251"/>
+      <c r="J17" s="252" t="str">
         <f>'лист титульный КД'!N13</f>
         <v>Петров П.П.</v>
       </c>
-      <c r="K17" s="256"/>
-      <c r="L17" s="256"/>
-      <c r="M17" s="256"/>
-      <c r="N17" s="256"/>
-      <c r="O17" s="256"/>
-      <c r="P17" s="256"/>
-      <c r="Q17" s="256"/>
+      <c r="K17" s="252"/>
+      <c r="L17" s="252"/>
+      <c r="M17" s="252"/>
+      <c r="N17" s="252"/>
+      <c r="O17" s="252"/>
+      <c r="P17" s="252"/>
+      <c r="Q17" s="252"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="6"/>
@@ -5607,23 +5604,23 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="206" t="s">
-        <v>181</v>
-      </c>
-      <c r="G18" s="255"/>
-      <c r="H18" s="255"/>
-      <c r="I18" s="255"/>
-      <c r="J18" s="256" t="str">
+      <c r="F18" s="202" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" s="251"/>
+      <c r="H18" s="251"/>
+      <c r="I18" s="251"/>
+      <c r="J18" s="252" t="str">
         <f>'лист титульный КД'!N14</f>
         <v>г. Москва, ул. Нарвская, д.2</v>
       </c>
-      <c r="K18" s="256"/>
-      <c r="L18" s="256"/>
-      <c r="M18" s="256"/>
-      <c r="N18" s="256"/>
-      <c r="O18" s="256"/>
-      <c r="P18" s="256"/>
-      <c r="Q18" s="256"/>
+      <c r="K18" s="252"/>
+      <c r="L18" s="252"/>
+      <c r="M18" s="252"/>
+      <c r="N18" s="252"/>
+      <c r="O18" s="252"/>
+      <c r="P18" s="252"/>
+      <c r="Q18" s="252"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="6"/>
@@ -5634,23 +5631,23 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="206" t="s">
-        <v>180</v>
-      </c>
-      <c r="G19" s="255"/>
-      <c r="H19" s="255"/>
-      <c r="I19" s="255"/>
-      <c r="J19" s="256" t="str">
+      <c r="F19" s="202" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" s="251"/>
+      <c r="H19" s="251"/>
+      <c r="I19" s="251"/>
+      <c r="J19" s="252" t="str">
         <f>'лист титульный КД'!N15</f>
         <v>восьмой</v>
       </c>
-      <c r="K19" s="256"/>
-      <c r="L19" s="256"/>
-      <c r="M19" s="256"/>
-      <c r="N19" s="256"/>
-      <c r="O19" s="256"/>
-      <c r="P19" s="256"/>
-      <c r="Q19" s="256"/>
+      <c r="K19" s="252"/>
+      <c r="L19" s="252"/>
+      <c r="M19" s="252"/>
+      <c r="N19" s="252"/>
+      <c r="O19" s="252"/>
+      <c r="P19" s="252"/>
+      <c r="Q19" s="252"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="6"/>
@@ -5661,23 +5658,23 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="206" t="s">
-        <v>179</v>
-      </c>
-      <c r="G20" s="255"/>
-      <c r="H20" s="255"/>
-      <c r="I20" s="255"/>
-      <c r="J20" s="256" t="str">
+      <c r="F20" s="202" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" s="251"/>
+      <c r="H20" s="251"/>
+      <c r="I20" s="251"/>
+      <c r="J20" s="252" t="str">
         <f>'лист титульный КД'!N16</f>
         <v>кухня</v>
       </c>
-      <c r="K20" s="256"/>
-      <c r="L20" s="256"/>
-      <c r="M20" s="256"/>
-      <c r="N20" s="256"/>
-      <c r="O20" s="256"/>
-      <c r="P20" s="256"/>
-      <c r="Q20" s="256"/>
+      <c r="K20" s="252"/>
+      <c r="L20" s="252"/>
+      <c r="M20" s="252"/>
+      <c r="N20" s="252"/>
+      <c r="O20" s="252"/>
+      <c r="P20" s="252"/>
+      <c r="Q20" s="252"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="6"/>
@@ -5688,23 +5685,23 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="206" t="s">
-        <v>178</v>
-      </c>
-      <c r="G21" s="255"/>
-      <c r="H21" s="255"/>
-      <c r="I21" s="255"/>
-      <c r="J21" s="256" t="str">
+      <c r="F21" s="202" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" s="251"/>
+      <c r="H21" s="251"/>
+      <c r="I21" s="251"/>
+      <c r="J21" s="252" t="str">
         <f>'лист титульный КД'!N17</f>
         <v>гарнитур кухонный, дверной блок</v>
       </c>
-      <c r="K21" s="256"/>
-      <c r="L21" s="256"/>
-      <c r="M21" s="256"/>
-      <c r="N21" s="256"/>
-      <c r="O21" s="256"/>
-      <c r="P21" s="256"/>
-      <c r="Q21" s="256"/>
+      <c r="K21" s="252"/>
+      <c r="L21" s="252"/>
+      <c r="M21" s="252"/>
+      <c r="N21" s="252"/>
+      <c r="O21" s="252"/>
+      <c r="P21" s="252"/>
+      <c r="Q21" s="252"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="6"/>
@@ -5715,23 +5712,23 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="206" t="s">
-        <v>177</v>
-      </c>
-      <c r="G22" s="255"/>
-      <c r="H22" s="255"/>
-      <c r="I22" s="255"/>
-      <c r="J22" s="256">
+      <c r="F22" s="202" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="251"/>
+      <c r="H22" s="251"/>
+      <c r="I22" s="251"/>
+      <c r="J22" s="252">
         <f>'лист титульный КД'!N18</f>
         <v>500</v>
       </c>
-      <c r="K22" s="256"/>
-      <c r="L22" s="256"/>
-      <c r="M22" s="256"/>
-      <c r="N22" s="256"/>
-      <c r="O22" s="256"/>
-      <c r="P22" s="256"/>
-      <c r="Q22" s="256"/>
+      <c r="K22" s="252"/>
+      <c r="L22" s="252"/>
+      <c r="M22" s="252"/>
+      <c r="N22" s="252"/>
+      <c r="O22" s="252"/>
+      <c r="P22" s="252"/>
+      <c r="Q22" s="252"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="6"/>
@@ -5742,23 +5739,23 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="206" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="255"/>
-      <c r="H23" s="255"/>
-      <c r="I23" s="255"/>
-      <c r="J23" s="256" t="str">
+      <c r="F23" s="202" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="251"/>
+      <c r="H23" s="251"/>
+      <c r="I23" s="251"/>
+      <c r="J23" s="252" t="str">
         <f>'лист титульный КД'!N19</f>
         <v>1-15,16</v>
       </c>
-      <c r="K23" s="256"/>
-      <c r="L23" s="256"/>
-      <c r="M23" s="256"/>
-      <c r="N23" s="256"/>
-      <c r="O23" s="256"/>
-      <c r="P23" s="256"/>
-      <c r="Q23" s="256"/>
+      <c r="K23" s="252"/>
+      <c r="L23" s="252"/>
+      <c r="M23" s="252"/>
+      <c r="N23" s="252"/>
+      <c r="O23" s="252"/>
+      <c r="P23" s="252"/>
+      <c r="Q23" s="252"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="6"/>
@@ -5946,12 +5943,12 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="257" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" s="258"/>
-      <c r="I32" s="258"/>
-      <c r="J32" s="258"/>
+      <c r="G32" s="253" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="254"/>
+      <c r="I32" s="254"/>
+      <c r="J32" s="254"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -5964,33 +5961,33 @@
       <c r="T32" s="6"/>
     </row>
     <row r="33" spans="1:20" s="154" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="264" t="s">
-        <v>188</v>
-      </c>
-      <c r="B33" s="258"/>
-      <c r="C33" s="258"/>
-      <c r="D33" s="258"/>
-      <c r="E33" s="258"/>
-      <c r="F33" s="258"/>
-      <c r="G33" s="258"/>
-      <c r="H33" s="258"/>
-      <c r="I33" s="258"/>
-      <c r="J33" s="258"/>
-      <c r="K33" s="260" t="s">
+      <c r="A33" s="260" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" s="254"/>
+      <c r="C33" s="254"/>
+      <c r="D33" s="254"/>
+      <c r="E33" s="254"/>
+      <c r="F33" s="254"/>
+      <c r="G33" s="254"/>
+      <c r="H33" s="254"/>
+      <c r="I33" s="254"/>
+      <c r="J33" s="254"/>
+      <c r="K33" s="256" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="256"/>
+      <c r="M33" s="256"/>
+      <c r="N33" s="256"/>
+      <c r="O33" s="257" t="s">
         <v>15</v>
       </c>
-      <c r="L33" s="260"/>
-      <c r="M33" s="260"/>
-      <c r="N33" s="260"/>
-      <c r="O33" s="261" t="s">
-        <v>16</v>
-      </c>
-      <c r="P33" s="261"/>
+      <c r="P33" s="257"/>
       <c r="Q33" s="156" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R33" s="156" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S33" s="164">
         <f ca="1">TODAY()</f>
@@ -6027,12 +6024,12 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="257" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="258"/>
-      <c r="I35" s="258"/>
-      <c r="J35" s="258"/>
+      <c r="G35" s="253" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="254"/>
+      <c r="I35" s="254"/>
+      <c r="J35" s="254"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
@@ -6045,33 +6042,33 @@
       <c r="T35" s="6"/>
     </row>
     <row r="36" spans="1:20" s="154" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="259" t="s">
-        <v>175</v>
-      </c>
-      <c r="B36" s="258"/>
-      <c r="C36" s="258"/>
-      <c r="D36" s="258"/>
-      <c r="E36" s="258"/>
-      <c r="F36" s="258"/>
-      <c r="G36" s="258"/>
-      <c r="H36" s="258"/>
-      <c r="I36" s="258"/>
-      <c r="J36" s="258"/>
-      <c r="K36" s="260" t="s">
+      <c r="A36" s="255" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" s="254"/>
+      <c r="C36" s="254"/>
+      <c r="D36" s="254"/>
+      <c r="E36" s="254"/>
+      <c r="F36" s="254"/>
+      <c r="G36" s="254"/>
+      <c r="H36" s="254"/>
+      <c r="I36" s="254"/>
+      <c r="J36" s="254"/>
+      <c r="K36" s="256" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="256"/>
+      <c r="M36" s="256"/>
+      <c r="N36" s="256"/>
+      <c r="O36" s="257" t="s">
         <v>15</v>
       </c>
-      <c r="L36" s="260"/>
-      <c r="M36" s="260"/>
-      <c r="N36" s="260"/>
-      <c r="O36" s="261" t="s">
-        <v>16</v>
-      </c>
-      <c r="P36" s="261"/>
+      <c r="P36" s="257"/>
       <c r="Q36" s="156" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R36" s="156" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S36" s="164">
         <f ca="1">TODAY()</f>
@@ -6080,33 +6077,33 @@
       <c r="T36" s="155"/>
     </row>
     <row r="37" spans="1:20" s="154" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="259" t="s">
-        <v>174</v>
-      </c>
-      <c r="B37" s="258"/>
-      <c r="C37" s="258"/>
-      <c r="D37" s="258"/>
-      <c r="E37" s="258"/>
-      <c r="F37" s="258"/>
-      <c r="G37" s="258"/>
-      <c r="H37" s="258"/>
-      <c r="I37" s="258"/>
-      <c r="J37" s="258"/>
-      <c r="K37" s="260" t="s">
+      <c r="A37" s="255" t="s">
+        <v>173</v>
+      </c>
+      <c r="B37" s="254"/>
+      <c r="C37" s="254"/>
+      <c r="D37" s="254"/>
+      <c r="E37" s="254"/>
+      <c r="F37" s="254"/>
+      <c r="G37" s="254"/>
+      <c r="H37" s="254"/>
+      <c r="I37" s="254"/>
+      <c r="J37" s="254"/>
+      <c r="K37" s="256" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="256"/>
+      <c r="M37" s="256"/>
+      <c r="N37" s="256"/>
+      <c r="O37" s="257" t="s">
         <v>15</v>
       </c>
-      <c r="L37" s="260"/>
-      <c r="M37" s="260"/>
-      <c r="N37" s="260"/>
-      <c r="O37" s="261" t="s">
-        <v>16</v>
-      </c>
-      <c r="P37" s="261"/>
+      <c r="P37" s="257"/>
       <c r="Q37" s="156" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R37" s="156" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S37" s="164">
         <f ca="1">TODAY()</f>
@@ -6225,53 +6222,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="269" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="271"/>
+      <c r="A1" s="265" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="266"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
+      <c r="F1" s="266"/>
+      <c r="G1" s="266"/>
+      <c r="H1" s="266"/>
+      <c r="I1" s="266"/>
+      <c r="J1" s="266"/>
+      <c r="K1" s="267"/>
     </row>
     <row r="2" spans="1:11" s="40" customFormat="1" ht="124.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" s="48" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -6632,203 +6629,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="274" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="275"/>
-      <c r="C1" s="275"/>
-      <c r="D1" s="275"/>
-      <c r="E1" s="275"/>
-      <c r="F1" s="275"/>
-      <c r="G1" s="275"/>
-      <c r="H1" s="275"/>
-      <c r="I1" s="275"/>
-      <c r="J1" s="275"/>
-      <c r="K1" s="275"/>
-      <c r="L1" s="275"/>
-      <c r="M1" s="275"/>
-      <c r="N1" s="275"/>
-      <c r="O1" s="275"/>
-      <c r="P1" s="275"/>
-      <c r="Q1" s="275"/>
-      <c r="R1" s="275"/>
-      <c r="S1" s="276"/>
+      <c r="A1" s="270" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="271"/>
+      <c r="C1" s="271"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="271"/>
+      <c r="G1" s="271"/>
+      <c r="H1" s="271"/>
+      <c r="I1" s="271"/>
+      <c r="J1" s="271"/>
+      <c r="K1" s="271"/>
+      <c r="L1" s="271"/>
+      <c r="M1" s="271"/>
+      <c r="N1" s="271"/>
+      <c r="O1" s="271"/>
+      <c r="P1" s="271"/>
+      <c r="Q1" s="271"/>
+      <c r="R1" s="271"/>
+      <c r="S1" s="272"/>
     </row>
     <row r="2" spans="1:19" s="81" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="277" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="277" t="s">
+      <c r="A2" s="273" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="277" t="s">
+      <c r="B2" s="273" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="277" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="277" t="s">
+      <c r="C2" s="273" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="277" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="277" t="s">
-        <v>45</v>
+      <c r="D2" s="273" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="273" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="273" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="273" t="s">
+        <v>44</v>
       </c>
       <c r="H2" s="82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I2" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2" s="280" t="s">
         <v>88</v>
       </c>
-      <c r="K2" s="281"/>
-      <c r="L2" s="281"/>
+      <c r="J2" s="276" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="277"/>
+      <c r="L2" s="277"/>
       <c r="M2" s="82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N2" s="85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O2" s="84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P2" s="82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q2" s="83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R2" s="83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S2" s="82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="71" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="278"/>
-      <c r="B3" s="278"/>
-      <c r="C3" s="278"/>
-      <c r="D3" s="278"/>
-      <c r="E3" s="278"/>
-      <c r="F3" s="278"/>
-      <c r="G3" s="278"/>
+      <c r="A3" s="274"/>
+      <c r="B3" s="274"/>
+      <c r="C3" s="274"/>
+      <c r="D3" s="274"/>
+      <c r="E3" s="274"/>
+      <c r="F3" s="274"/>
+      <c r="G3" s="274"/>
       <c r="H3" s="77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I3" s="76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J3" s="76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K3" s="76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L3" s="76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M3" s="75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N3" s="75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O3" s="75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P3" s="75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q3" s="75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R3" s="73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S3" s="80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="71" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="278"/>
-      <c r="B4" s="278"/>
-      <c r="C4" s="278"/>
-      <c r="D4" s="278"/>
-      <c r="E4" s="278"/>
-      <c r="F4" s="278"/>
-      <c r="G4" s="278"/>
+      <c r="A4" s="274"/>
+      <c r="B4" s="274"/>
+      <c r="C4" s="274"/>
+      <c r="D4" s="274"/>
+      <c r="E4" s="274"/>
+      <c r="F4" s="274"/>
+      <c r="G4" s="274"/>
       <c r="H4" s="77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="272" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="273"/>
-      <c r="L4" s="273"/>
+      <c r="J4" s="268" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="269"/>
+      <c r="L4" s="269"/>
       <c r="M4" s="78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N4" s="75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O4" s="78" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P4" s="75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="75" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R4" s="79" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S4" s="78" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="71" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="279"/>
-      <c r="B5" s="279"/>
-      <c r="C5" s="279"/>
-      <c r="D5" s="279"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="279"/>
-      <c r="G5" s="279"/>
+      <c r="A5" s="275"/>
+      <c r="B5" s="275"/>
+      <c r="C5" s="275"/>
+      <c r="D5" s="275"/>
+      <c r="E5" s="275"/>
+      <c r="F5" s="275"/>
+      <c r="G5" s="275"/>
       <c r="H5" s="77" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I5" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="272" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="273"/>
-      <c r="L5" s="273"/>
+      <c r="J5" s="268" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="269"/>
+      <c r="L5" s="269"/>
       <c r="M5" s="76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N5" s="75" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O5" s="72"/>
       <c r="P5" s="74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R5" s="73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S5" s="72"/>
     </row>
@@ -6870,13 +6867,13 @@
       <c r="H7" s="66"/>
       <c r="I7" s="66"/>
       <c r="J7" s="66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K7" s="66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L7" s="66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M7" s="66"/>
       <c r="N7" s="66"/>
@@ -6897,13 +6894,13 @@
       <c r="H8" s="66"/>
       <c r="I8" s="66"/>
       <c r="J8" s="66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K8" s="66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L8" s="66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M8" s="66"/>
       <c r="N8" s="66"/>
@@ -7590,61 +7587,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="269" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="270"/>
-      <c r="L1" s="270"/>
-      <c r="M1" s="271"/>
+      <c r="A1" s="265" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="266"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
+      <c r="F1" s="266"/>
+      <c r="G1" s="266"/>
+      <c r="H1" s="266"/>
+      <c r="I1" s="266"/>
+      <c r="J1" s="266"/>
+      <c r="K1" s="266"/>
+      <c r="L1" s="266"/>
+      <c r="M1" s="267"/>
     </row>
     <row r="2" spans="1:13" s="40" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="91" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="91" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E2" s="91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G2" s="91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H2" s="91" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I2" s="91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J2" s="91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K2" s="91" t="s">
         <v>5</v>
       </c>
       <c r="L2" s="91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M2" s="91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">

--- a/dist/files/xls/shablon-kd.xlsx
+++ b/dist/files/xls/shablon-kd.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OPEN_SERVER\OSPanel\domains\localhost\www\dist\files\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8190" tabRatio="778"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8190" tabRatio="778" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="лист титульный КД" sheetId="24" r:id="rId1"/>
@@ -43,7 +38,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'спецификация конструкторская'!$A$1:$M$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'ТИТУЛЬНЫЙ ЛИСТ ВПИ'!$A$1:$T$39</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -677,7 +672,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy"/>
   </numFmts>
@@ -2162,6 +2157,160 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2169,9 +2318,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2181,145 +2327,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2338,50 +2345,50 @@
     <xf numFmtId="0" fontId="36" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2425,18 +2432,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2757,7 +2752,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2767,7 +2762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="66" zoomScaleNormal="70" zoomScaleSheetLayoutView="66" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="66" zoomScaleNormal="70" zoomScaleSheetLayoutView="66" workbookViewId="0">
       <selection activeCell="N22" sqref="N22:P22"/>
     </sheetView>
   </sheetViews>
@@ -2835,23 +2830,23 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="207" t="s">
+      <c r="I2" s="226" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="209"/>
+      <c r="J2" s="227"/>
+      <c r="K2" s="227"/>
+      <c r="L2" s="227"/>
+      <c r="M2" s="227"/>
+      <c r="N2" s="228"/>
       <c r="O2" s="104"/>
-      <c r="P2" s="210" t="s">
+      <c r="P2" s="229" t="s">
         <v>161</v>
       </c>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="196"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
+      <c r="Q2" s="230"/>
+      <c r="R2" s="230"/>
+      <c r="S2" s="230"/>
+      <c r="T2" s="230"/>
+      <c r="U2" s="230"/>
       <c r="V2" s="141"/>
       <c r="W2" s="30"/>
       <c r="X2" s="12"/>
@@ -2872,10 +2867,10 @@
         <v>30</v>
       </c>
       <c r="K3" s="107"/>
-      <c r="L3" s="196" t="s">
+      <c r="L3" s="230" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="196"/>
+      <c r="M3" s="230"/>
       <c r="N3" s="167" t="s">
         <v>31</v>
       </c>
@@ -2887,10 +2882,10 @@
         <v>38</v>
       </c>
       <c r="R3" s="107"/>
-      <c r="S3" s="196" t="s">
+      <c r="S3" s="230" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="196"/>
+      <c r="T3" s="230"/>
       <c r="U3" s="131" t="s">
         <v>35</v>
       </c>
@@ -2914,10 +2909,10 @@
         <v>32</v>
       </c>
       <c r="K4" s="104"/>
-      <c r="L4" s="197" t="s">
+      <c r="L4" s="200" t="s">
         <v>117</v>
       </c>
-      <c r="M4" s="197"/>
+      <c r="M4" s="200"/>
       <c r="N4" s="168" t="s">
         <v>160</v>
       </c>
@@ -2929,10 +2924,10 @@
         <v>32</v>
       </c>
       <c r="R4" s="104"/>
-      <c r="S4" s="197" t="s">
+      <c r="S4" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="197"/>
+      <c r="T4" s="200"/>
       <c r="U4" s="132" t="s">
         <v>160</v>
       </c>
@@ -2956,10 +2951,10 @@
         <v>159</v>
       </c>
       <c r="K5" s="104"/>
-      <c r="L5" s="197" t="s">
+      <c r="L5" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="197"/>
+      <c r="M5" s="200"/>
       <c r="N5" s="167" t="s">
         <v>158</v>
       </c>
@@ -2971,10 +2966,10 @@
         <v>159</v>
       </c>
       <c r="R5" s="104"/>
-      <c r="S5" s="197" t="s">
+      <c r="S5" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="T5" s="197"/>
+      <c r="T5" s="200"/>
       <c r="U5" s="131" t="s">
         <v>158</v>
       </c>
@@ -3005,10 +3000,10 @@
         <v>157</v>
       </c>
       <c r="R6" s="104"/>
-      <c r="S6" s="197" t="s">
+      <c r="S6" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="T6" s="197"/>
+      <c r="T6" s="200"/>
       <c r="U6" s="108" t="s">
         <v>156</v>
       </c>
@@ -3032,10 +3027,10 @@
         <v>33</v>
       </c>
       <c r="K7" s="104"/>
-      <c r="L7" s="197" t="s">
+      <c r="L7" s="200" t="s">
         <v>117</v>
       </c>
-      <c r="M7" s="197"/>
+      <c r="M7" s="200"/>
       <c r="N7" s="167" t="s">
         <v>34</v>
       </c>
@@ -3047,10 +3042,10 @@
         <v>33</v>
       </c>
       <c r="R7" s="104"/>
-      <c r="S7" s="197" t="s">
+      <c r="S7" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="T7" s="197"/>
+      <c r="T7" s="200"/>
       <c r="U7" s="131" t="s">
         <v>34</v>
       </c>
@@ -3097,22 +3092,22 @@
       <c r="X8" s="12"/>
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="223" t="s">
+      <c r="A9" s="210" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="224" t="s">
+      <c r="B9" s="204" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="230" t="s">
+      <c r="C9" s="203" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="225" t="s">
+      <c r="D9" s="211" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="225"/>
-      <c r="F9" s="225"/>
-      <c r="G9" s="225"/>
-      <c r="H9" s="229"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="214"/>
       <c r="I9" s="109"/>
       <c r="J9" s="110"/>
       <c r="K9" s="110"/>
@@ -3139,22 +3134,22 @@
       <c r="X9" s="12"/>
     </row>
     <row r="10" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="223"/>
-      <c r="B10" s="224"/>
-      <c r="C10" s="230"/>
-      <c r="D10" s="225" t="s">
+      <c r="A10" s="210"/>
+      <c r="B10" s="204"/>
+      <c r="C10" s="203"/>
+      <c r="D10" s="211" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="226" t="s">
+      <c r="E10" s="201" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="226" t="s">
+      <c r="F10" s="201" t="s">
         <v>126</v>
       </c>
-      <c r="G10" s="224" t="s">
+      <c r="G10" s="204" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="230" t="s">
+      <c r="H10" s="203" t="s">
         <v>128</v>
       </c>
       <c r="I10" s="5"/>
@@ -3175,14 +3170,14 @@
       <c r="X10" s="12"/>
     </row>
     <row r="11" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="223"/>
-      <c r="B11" s="224"/>
-      <c r="C11" s="230"/>
-      <c r="D11" s="225"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="241"/>
-      <c r="G11" s="224"/>
-      <c r="H11" s="230"/>
+      <c r="A11" s="210"/>
+      <c r="B11" s="204"/>
+      <c r="C11" s="203"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="202"/>
+      <c r="G11" s="204"/>
+      <c r="H11" s="203"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="150" t="s">
@@ -3203,37 +3198,37 @@
       <c r="X11" s="12"/>
     </row>
     <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="222" t="s">
+      <c r="A12" s="209" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="227" t="s">
+      <c r="B12" s="212" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="227" t="s">
+      <c r="C12" s="212" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="227" t="s">
+      <c r="D12" s="212" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="228" t="s">
+      <c r="E12" s="213" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="228" t="s">
+      <c r="F12" s="213" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="231" t="s">
+      <c r="G12" s="215" t="s">
         <v>152</v>
       </c>
-      <c r="H12" s="242" t="s">
+      <c r="H12" s="205" t="s">
         <v>134</v>
       </c>
       <c r="I12" s="142"/>
-      <c r="J12" s="200" t="s">
+      <c r="J12" s="239" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="200"/>
-      <c r="L12" s="200"/>
-      <c r="M12" s="200"/>
+      <c r="K12" s="239"/>
+      <c r="L12" s="239"/>
+      <c r="M12" s="239"/>
       <c r="N12" s="174" t="s">
         <v>172</v>
       </c>
@@ -3249,21 +3244,21 @@
       <c r="X12" s="12"/>
     </row>
     <row r="13" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="222"/>
-      <c r="B13" s="227"/>
-      <c r="C13" s="227"/>
-      <c r="D13" s="227"/>
-      <c r="E13" s="228"/>
-      <c r="F13" s="228"/>
-      <c r="G13" s="232"/>
-      <c r="H13" s="242"/>
+      <c r="A13" s="209"/>
+      <c r="B13" s="212"/>
+      <c r="C13" s="212"/>
+      <c r="D13" s="212"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="213"/>
+      <c r="G13" s="216"/>
+      <c r="H13" s="205"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="201" t="s">
+      <c r="J13" s="240" t="s">
         <v>171</v>
       </c>
-      <c r="K13" s="201"/>
-      <c r="L13" s="201"/>
-      <c r="M13" s="201"/>
+      <c r="K13" s="240"/>
+      <c r="L13" s="240"/>
+      <c r="M13" s="240"/>
       <c r="N13" s="174" t="s">
         <v>170</v>
       </c>
@@ -3279,21 +3274,21 @@
       <c r="X13" s="12"/>
     </row>
     <row r="14" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="222"/>
-      <c r="B14" s="227"/>
-      <c r="C14" s="227"/>
-      <c r="D14" s="227"/>
-      <c r="E14" s="228"/>
-      <c r="F14" s="228"/>
-      <c r="G14" s="232"/>
-      <c r="H14" s="242"/>
+      <c r="A14" s="209"/>
+      <c r="B14" s="212"/>
+      <c r="C14" s="212"/>
+      <c r="D14" s="212"/>
+      <c r="E14" s="213"/>
+      <c r="F14" s="213"/>
+      <c r="G14" s="216"/>
+      <c r="H14" s="205"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="202" t="s">
+      <c r="J14" s="232" t="s">
         <v>114</v>
       </c>
-      <c r="K14" s="202"/>
-      <c r="L14" s="202"/>
-      <c r="M14" s="202"/>
+      <c r="K14" s="232"/>
+      <c r="L14" s="232"/>
+      <c r="M14" s="232"/>
       <c r="N14" s="175" t="s">
         <v>146</v>
       </c>
@@ -3309,21 +3304,21 @@
       <c r="X14" s="12"/>
     </row>
     <row r="15" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="222"/>
-      <c r="B15" s="227"/>
-      <c r="C15" s="227"/>
-      <c r="D15" s="227"/>
-      <c r="E15" s="228"/>
-      <c r="F15" s="228"/>
-      <c r="G15" s="233"/>
-      <c r="H15" s="242"/>
+      <c r="A15" s="209"/>
+      <c r="B15" s="212"/>
+      <c r="C15" s="212"/>
+      <c r="D15" s="212"/>
+      <c r="E15" s="213"/>
+      <c r="F15" s="213"/>
+      <c r="G15" s="217"/>
+      <c r="H15" s="205"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="202" t="s">
+      <c r="J15" s="232" t="s">
         <v>169</v>
       </c>
-      <c r="K15" s="202"/>
-      <c r="L15" s="202"/>
-      <c r="M15" s="202"/>
+      <c r="K15" s="232"/>
+      <c r="L15" s="232"/>
+      <c r="M15" s="232"/>
       <c r="N15" s="175" t="s">
         <v>168</v>
       </c>
@@ -3339,23 +3334,23 @@
       <c r="X15" s="12"/>
     </row>
     <row r="16" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="222"/>
-      <c r="B16" s="227"/>
-      <c r="C16" s="227"/>
-      <c r="D16" s="227"/>
-      <c r="E16" s="228"/>
-      <c r="F16" s="228"/>
-      <c r="G16" s="231" t="s">
+      <c r="A16" s="209"/>
+      <c r="B16" s="212"/>
+      <c r="C16" s="212"/>
+      <c r="D16" s="212"/>
+      <c r="E16" s="213"/>
+      <c r="F16" s="213"/>
+      <c r="G16" s="215" t="s">
         <v>151</v>
       </c>
-      <c r="H16" s="242"/>
+      <c r="H16" s="205"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="202" t="s">
+      <c r="J16" s="232" t="s">
         <v>167</v>
       </c>
-      <c r="K16" s="202"/>
-      <c r="L16" s="202"/>
-      <c r="M16" s="202"/>
+      <c r="K16" s="232"/>
+      <c r="L16" s="232"/>
+      <c r="M16" s="232"/>
       <c r="N16" s="175" t="s">
         <v>166</v>
       </c>
@@ -3371,21 +3366,21 @@
       <c r="X16" s="12"/>
     </row>
     <row r="17" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="222"/>
-      <c r="B17" s="227"/>
-      <c r="C17" s="227"/>
-      <c r="D17" s="227"/>
-      <c r="E17" s="228"/>
-      <c r="F17" s="228"/>
-      <c r="G17" s="232"/>
-      <c r="H17" s="242"/>
+      <c r="A17" s="209"/>
+      <c r="B17" s="212"/>
+      <c r="C17" s="212"/>
+      <c r="D17" s="212"/>
+      <c r="E17" s="213"/>
+      <c r="F17" s="213"/>
+      <c r="G17" s="216"/>
+      <c r="H17" s="205"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="202" t="s">
+      <c r="J17" s="232" t="s">
         <v>165</v>
       </c>
-      <c r="K17" s="202"/>
-      <c r="L17" s="202"/>
-      <c r="M17" s="202"/>
+      <c r="K17" s="232"/>
+      <c r="L17" s="232"/>
+      <c r="M17" s="232"/>
       <c r="N17" s="175" t="s">
         <v>164</v>
       </c>
@@ -3401,21 +3396,21 @@
       <c r="X17" s="12"/>
     </row>
     <row r="18" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="222"/>
-      <c r="B18" s="227"/>
-      <c r="C18" s="227"/>
-      <c r="D18" s="227"/>
-      <c r="E18" s="228"/>
-      <c r="F18" s="228"/>
-      <c r="G18" s="233"/>
-      <c r="H18" s="242"/>
+      <c r="A18" s="209"/>
+      <c r="B18" s="212"/>
+      <c r="C18" s="212"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="213"/>
+      <c r="F18" s="213"/>
+      <c r="G18" s="217"/>
+      <c r="H18" s="205"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="213" t="s">
+      <c r="J18" s="233" t="s">
         <v>113</v>
       </c>
-      <c r="K18" s="213"/>
-      <c r="L18" s="213"/>
-      <c r="M18" s="213"/>
+      <c r="K18" s="233"/>
+      <c r="L18" s="233"/>
+      <c r="M18" s="233"/>
       <c r="N18" s="176">
         <v>500</v>
       </c>
@@ -3439,12 +3434,12 @@
       <c r="G19" s="115"/>
       <c r="H19" s="116"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="213" t="s">
+      <c r="J19" s="233" t="s">
         <v>112</v>
       </c>
-      <c r="K19" s="213"/>
-      <c r="L19" s="213"/>
-      <c r="M19" s="213"/>
+      <c r="K19" s="233"/>
+      <c r="L19" s="233"/>
+      <c r="M19" s="233"/>
       <c r="N19" s="176" t="s">
         <v>163</v>
       </c>
@@ -3494,12 +3489,12 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="198" t="s">
+      <c r="I21" s="237" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="199"/>
-      <c r="K21" s="199"/>
-      <c r="L21" s="199"/>
+      <c r="J21" s="238"/>
+      <c r="K21" s="238"/>
+      <c r="L21" s="238"/>
       <c r="M21" s="5"/>
       <c r="N21" s="177"/>
       <c r="O21" s="5"/>
@@ -3509,10 +3504,10 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="165"/>
-      <c r="V21" s="214" t="s">
+      <c r="V21" s="234" t="s">
         <v>150</v>
       </c>
-      <c r="W21" s="203" t="s">
+      <c r="W21" s="222" t="s">
         <v>149</v>
       </c>
       <c r="X21" s="12"/>
@@ -3527,20 +3522,20 @@
       <c r="G22" s="12"/>
       <c r="H22" s="28"/>
       <c r="I22" s="129"/>
-      <c r="J22" s="191" t="s">
+      <c r="J22" s="243" t="s">
         <v>148</v>
       </c>
-      <c r="K22" s="191"/>
-      <c r="L22" s="191"/>
-      <c r="N22" s="194" t="s">
+      <c r="K22" s="243"/>
+      <c r="L22" s="243"/>
+      <c r="N22" s="245" t="s">
         <v>40</v>
       </c>
-      <c r="O22" s="195"/>
-      <c r="P22" s="195"/>
-      <c r="Q22" s="211" t="s">
+      <c r="O22" s="246"/>
+      <c r="P22" s="246"/>
+      <c r="Q22" s="206" t="s">
         <v>15</v>
       </c>
-      <c r="R22" s="211"/>
+      <c r="R22" s="206"/>
       <c r="S22" s="139" t="s">
         <v>13</v>
       </c>
@@ -3551,8 +3546,8 @@
         <f ca="1">TODAY()</f>
         <v>43503</v>
       </c>
-      <c r="V22" s="215"/>
-      <c r="W22" s="204"/>
+      <c r="V22" s="235"/>
+      <c r="W22" s="223"/>
       <c r="X22" s="12"/>
     </row>
     <row r="23" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3579,8 +3574,8 @@
       <c r="S23" s="119"/>
       <c r="T23" s="119"/>
       <c r="U23" s="119"/>
-      <c r="V23" s="215"/>
-      <c r="W23" s="204"/>
+      <c r="V23" s="235"/>
+      <c r="W23" s="223"/>
       <c r="X23" s="12"/>
     </row>
     <row r="24" spans="1:24" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3592,18 +3587,18 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="192" t="s">
+      <c r="I24" s="231" t="s">
         <v>136</v>
       </c>
-      <c r="J24" s="192"/>
-      <c r="K24" s="192"/>
-      <c r="L24" s="192"/>
+      <c r="J24" s="231"/>
+      <c r="K24" s="231"/>
+      <c r="L24" s="231"/>
       <c r="M24" s="12"/>
-      <c r="N24" s="189" t="s">
+      <c r="N24" s="241" t="s">
         <v>14</v>
       </c>
-      <c r="O24" s="190"/>
-      <c r="P24" s="190"/>
+      <c r="O24" s="242"/>
+      <c r="P24" s="242"/>
       <c r="Q24" s="143" t="s">
         <v>15</v>
       </c>
@@ -3618,8 +3613,8 @@
         <f ca="1">TODAY()</f>
         <v>43503</v>
       </c>
-      <c r="V24" s="215"/>
-      <c r="W24" s="204"/>
+      <c r="V24" s="235"/>
+      <c r="W24" s="223"/>
       <c r="X24" s="12"/>
     </row>
     <row r="25" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3631,18 +3626,18 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="192" t="s">
+      <c r="I25" s="231" t="s">
         <v>137</v>
       </c>
-      <c r="J25" s="192"/>
-      <c r="K25" s="192"/>
-      <c r="L25" s="192"/>
+      <c r="J25" s="231"/>
+      <c r="K25" s="231"/>
+      <c r="L25" s="231"/>
       <c r="M25" s="12"/>
-      <c r="N25" s="189" t="s">
+      <c r="N25" s="241" t="s">
         <v>14</v>
       </c>
-      <c r="O25" s="190"/>
-      <c r="P25" s="190"/>
+      <c r="O25" s="242"/>
+      <c r="P25" s="242"/>
       <c r="Q25" s="143" t="s">
         <v>15</v>
       </c>
@@ -3657,8 +3652,8 @@
         <f ca="1">TODAY()</f>
         <v>43503</v>
       </c>
-      <c r="V25" s="215"/>
-      <c r="W25" s="204"/>
+      <c r="V25" s="235"/>
+      <c r="W25" s="223"/>
       <c r="X25" s="12"/>
     </row>
     <row r="26" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3670,18 +3665,18 @@
       <c r="F26" s="119"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
-      <c r="I26" s="192" t="s">
+      <c r="I26" s="231" t="s">
         <v>138</v>
       </c>
-      <c r="J26" s="192"/>
-      <c r="K26" s="192"/>
-      <c r="L26" s="192"/>
+      <c r="J26" s="231"/>
+      <c r="K26" s="231"/>
+      <c r="L26" s="231"/>
       <c r="M26" s="12"/>
-      <c r="N26" s="189" t="s">
+      <c r="N26" s="241" t="s">
         <v>14</v>
       </c>
-      <c r="O26" s="190"/>
-      <c r="P26" s="190"/>
+      <c r="O26" s="242"/>
+      <c r="P26" s="242"/>
       <c r="Q26" s="143" t="s">
         <v>15</v>
       </c>
@@ -3696,8 +3691,8 @@
         <f ca="1">TODAY()</f>
         <v>43503</v>
       </c>
-      <c r="V26" s="216"/>
-      <c r="W26" s="204"/>
+      <c r="V26" s="236"/>
+      <c r="W26" s="223"/>
       <c r="X26" s="12"/>
     </row>
     <row r="27" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3709,21 +3704,21 @@
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
-      <c r="I27" s="193"/>
-      <c r="J27" s="193"/>
-      <c r="K27" s="193"/>
-      <c r="L27" s="193"/>
-      <c r="M27" s="206"/>
-      <c r="N27" s="206"/>
-      <c r="O27" s="206"/>
-      <c r="P27" s="206"/>
-      <c r="Q27" s="212"/>
-      <c r="R27" s="212"/>
+      <c r="I27" s="244"/>
+      <c r="J27" s="244"/>
+      <c r="K27" s="244"/>
+      <c r="L27" s="244"/>
+      <c r="M27" s="225"/>
+      <c r="N27" s="225"/>
+      <c r="O27" s="225"/>
+      <c r="P27" s="225"/>
+      <c r="Q27" s="208"/>
+      <c r="R27" s="208"/>
       <c r="S27" s="143"/>
       <c r="T27" s="143"/>
       <c r="U27" s="143"/>
       <c r="V27" s="143"/>
-      <c r="W27" s="204"/>
+      <c r="W27" s="223"/>
       <c r="X27" s="12"/>
     </row>
     <row r="28" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -3736,21 +3731,21 @@
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="I28" s="119"/>
-      <c r="J28" s="191" t="s">
+      <c r="J28" s="243" t="s">
         <v>135</v>
       </c>
-      <c r="K28" s="191"/>
-      <c r="L28" s="191"/>
+      <c r="K28" s="243"/>
+      <c r="L28" s="243"/>
       <c r="M28" s="12"/>
-      <c r="N28" s="189" t="s">
+      <c r="N28" s="241" t="s">
         <v>14</v>
       </c>
-      <c r="O28" s="190"/>
-      <c r="P28" s="190"/>
-      <c r="Q28" s="212" t="s">
+      <c r="O28" s="242"/>
+      <c r="P28" s="242"/>
+      <c r="Q28" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="R28" s="212"/>
+      <c r="R28" s="208"/>
       <c r="S28" s="143" t="s">
         <v>13</v>
       </c>
@@ -3762,16 +3757,16 @@
         <v>43503</v>
       </c>
       <c r="V28" s="143"/>
-      <c r="W28" s="204"/>
+      <c r="W28" s="223"/>
       <c r="X28" s="12"/>
     </row>
     <row r="29" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="240"/>
-      <c r="D29" s="240"/>
-      <c r="E29" s="240"/>
-      <c r="F29" s="240"/>
+      <c r="C29" s="199"/>
+      <c r="D29" s="199"/>
+      <c r="E29" s="199"/>
+      <c r="F29" s="199"/>
       <c r="G29" s="124"/>
       <c r="H29" s="28"/>
       <c r="I29" s="12"/>
@@ -3788,7 +3783,7 @@
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
       <c r="V29" s="128"/>
-      <c r="W29" s="205"/>
+      <c r="W29" s="224"/>
       <c r="X29" s="12"/>
     </row>
     <row r="30" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3820,10 +3815,10 @@
     <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="240"/>
-      <c r="D31" s="240"/>
-      <c r="E31" s="240"/>
-      <c r="F31" s="240"/>
+      <c r="C31" s="199"/>
+      <c r="D31" s="199"/>
+      <c r="E31" s="199"/>
+      <c r="F31" s="199"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -3849,25 +3844,25 @@
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="217" t="s">
+      <c r="F32" s="207" t="s">
         <v>139</v>
       </c>
-      <c r="G32" s="217"/>
-      <c r="H32" s="217"/>
-      <c r="I32" s="217"/>
-      <c r="J32" s="217"/>
-      <c r="K32" s="217"/>
-      <c r="L32" s="217"/>
+      <c r="G32" s="207"/>
+      <c r="H32" s="207"/>
+      <c r="I32" s="207"/>
+      <c r="J32" s="207"/>
+      <c r="K32" s="207"/>
+      <c r="L32" s="207"/>
       <c r="M32" s="143" t="s">
         <v>188</v>
       </c>
       <c r="N32" s="178"/>
       <c r="O32" s="119"/>
       <c r="P32" s="119"/>
-      <c r="Q32" s="211" t="s">
+      <c r="Q32" s="206" t="s">
         <v>15</v>
       </c>
-      <c r="R32" s="211"/>
+      <c r="R32" s="206"/>
       <c r="S32" s="139" t="s">
         <v>13</v>
       </c>
@@ -3878,10 +3873,10 @@
         <f ca="1">TODAY()</f>
         <v>43503</v>
       </c>
-      <c r="V32" s="234" t="s">
+      <c r="V32" s="193" t="s">
         <v>147</v>
       </c>
-      <c r="W32" s="235"/>
+      <c r="W32" s="194"/>
       <c r="X32" s="12"/>
     </row>
     <row r="33" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3890,15 +3885,15 @@
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="217" t="s">
+      <c r="F33" s="207" t="s">
         <v>139</v>
       </c>
-      <c r="G33" s="217"/>
-      <c r="H33" s="217"/>
-      <c r="I33" s="217"/>
-      <c r="J33" s="217"/>
-      <c r="K33" s="217"/>
-      <c r="L33" s="217"/>
+      <c r="G33" s="207"/>
+      <c r="H33" s="207"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="207"/>
+      <c r="K33" s="207"/>
+      <c r="L33" s="207"/>
       <c r="M33" s="143" t="s">
         <v>118</v>
       </c>
@@ -3907,10 +3902,10 @@
       </c>
       <c r="O33" s="119"/>
       <c r="P33" s="119"/>
-      <c r="Q33" s="211" t="s">
+      <c r="Q33" s="206" t="s">
         <v>15</v>
       </c>
-      <c r="R33" s="211"/>
+      <c r="R33" s="206"/>
       <c r="S33" s="139" t="s">
         <v>13</v>
       </c>
@@ -3921,8 +3916,8 @@
         <f t="shared" ref="U33:U37" ca="1" si="0">TODAY()</f>
         <v>43503</v>
       </c>
-      <c r="V33" s="236"/>
-      <c r="W33" s="237"/>
+      <c r="V33" s="195"/>
+      <c r="W33" s="196"/>
       <c r="X33" s="12"/>
     </row>
     <row r="34" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3931,15 +3926,15 @@
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="217" t="s">
+      <c r="F34" s="207" t="s">
         <v>140</v>
       </c>
-      <c r="G34" s="217"/>
-      <c r="H34" s="217"/>
-      <c r="I34" s="217"/>
-      <c r="J34" s="217"/>
-      <c r="K34" s="217"/>
-      <c r="L34" s="217"/>
+      <c r="G34" s="207"/>
+      <c r="H34" s="207"/>
+      <c r="I34" s="207"/>
+      <c r="J34" s="207"/>
+      <c r="K34" s="207"/>
+      <c r="L34" s="207"/>
       <c r="M34" s="143" t="s">
         <v>141</v>
       </c>
@@ -3948,10 +3943,10 @@
         <v>142</v>
       </c>
       <c r="P34" s="119"/>
-      <c r="Q34" s="211" t="s">
+      <c r="Q34" s="206" t="s">
         <v>15</v>
       </c>
-      <c r="R34" s="211"/>
+      <c r="R34" s="206"/>
       <c r="S34" s="139" t="s">
         <v>13</v>
       </c>
@@ -3962,8 +3957,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>43503</v>
       </c>
-      <c r="V34" s="236"/>
-      <c r="W34" s="237"/>
+      <c r="V34" s="195"/>
+      <c r="W34" s="196"/>
       <c r="X34" s="12"/>
     </row>
     <row r="35" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3985,10 +3980,10 @@
       <c r="N35" s="221"/>
       <c r="O35" s="221"/>
       <c r="P35" s="221"/>
-      <c r="Q35" s="211" t="s">
+      <c r="Q35" s="206" t="s">
         <v>15</v>
       </c>
-      <c r="R35" s="211"/>
+      <c r="R35" s="206"/>
       <c r="S35" s="139" t="s">
         <v>13</v>
       </c>
@@ -3999,8 +3994,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>43503</v>
       </c>
-      <c r="V35" s="236"/>
-      <c r="W35" s="237"/>
+      <c r="V35" s="195"/>
+      <c r="W35" s="196"/>
       <c r="X35" s="12"/>
     </row>
     <row r="36" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -4020,13 +4015,13 @@
       <c r="N36" s="218"/>
       <c r="O36" s="119"/>
       <c r="P36" s="119"/>
-      <c r="Q36" s="211"/>
-      <c r="R36" s="211"/>
+      <c r="Q36" s="206"/>
+      <c r="R36" s="206"/>
       <c r="S36" s="139"/>
       <c r="T36" s="139"/>
       <c r="U36" s="163"/>
-      <c r="V36" s="236"/>
-      <c r="W36" s="237"/>
+      <c r="V36" s="195"/>
+      <c r="W36" s="196"/>
       <c r="X36" s="12"/>
     </row>
     <row r="37" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4052,10 +4047,10 @@
         <v>142</v>
       </c>
       <c r="P37" s="119"/>
-      <c r="Q37" s="211" t="s">
+      <c r="Q37" s="206" t="s">
         <v>15</v>
       </c>
-      <c r="R37" s="211"/>
+      <c r="R37" s="206"/>
       <c r="S37" s="139" t="s">
         <v>13</v>
       </c>
@@ -4066,8 +4061,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>43503</v>
       </c>
-      <c r="V37" s="238"/>
-      <c r="W37" s="239"/>
+      <c r="V37" s="197"/>
+      <c r="W37" s="198"/>
       <c r="X37" s="12"/>
     </row>
     <row r="38" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4176,6 +4171,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="W21:W29"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="V21:V26"/>
+    <mergeCell ref="F33:L33"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="E12:E18"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C18"/>
+    <mergeCell ref="F12:F18"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="G16:G18"/>
     <mergeCell ref="V32:W37"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="S5:T5"/>
@@ -4192,61 +4242,6 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="Q27:R27"/>
     <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="E12:E18"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C18"/>
-    <mergeCell ref="F12:F18"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="F33:L33"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="W21:W29"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="V21:V26"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="N22:P22"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0"/>
@@ -4266,7 +4261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="51" zoomScaleNormal="70" zoomScaleSheetLayoutView="51" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="51" zoomScaleNormal="70" zoomScaleSheetLayoutView="51" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -4278,7 +4273,7 @@
     <col min="5" max="5" width="20.75" style="181"/>
     <col min="6" max="6" width="25.75" style="181" customWidth="1"/>
     <col min="7" max="7" width="14.75" style="181" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="281" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="192" customWidth="1"/>
     <col min="9" max="10" width="15.75" style="181" customWidth="1"/>
     <col min="11" max="11" width="18.5" style="181" customWidth="1"/>
     <col min="12" max="12" width="20.5" style="181" customWidth="1"/>
@@ -4287,21 +4282,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="55.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="247" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="245"/>
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="248"/>
+      <c r="G1" s="248"/>
+      <c r="H1" s="248"/>
+      <c r="I1" s="248"/>
+      <c r="J1" s="248"/>
+      <c r="K1" s="248"/>
+      <c r="L1" s="248"/>
+      <c r="M1" s="249"/>
     </row>
     <row r="2" spans="1:13" ht="184.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
@@ -4325,7 +4320,7 @@
       <c r="G2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="278" t="s">
+      <c r="H2" s="189" t="s">
         <v>90</v>
       </c>
       <c r="I2" s="17" t="s">
@@ -4364,7 +4359,7 @@
       <c r="G3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="279">
+      <c r="H3" s="190">
         <v>14</v>
       </c>
       <c r="I3" s="21"/>
@@ -4389,7 +4384,7 @@
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
-      <c r="H4" s="279"/>
+      <c r="H4" s="190"/>
       <c r="I4" s="182"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
@@ -4404,7 +4399,7 @@
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
-      <c r="H5" s="279"/>
+      <c r="H5" s="190"/>
       <c r="I5" s="182"/>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
@@ -4419,7 +4414,7 @@
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
-      <c r="H6" s="279"/>
+      <c r="H6" s="190"/>
       <c r="I6" s="182"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
@@ -4434,7 +4429,7 @@
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
-      <c r="H7" s="279"/>
+      <c r="H7" s="190"/>
       <c r="I7" s="182"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
@@ -4449,7 +4444,7 @@
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
-      <c r="H8" s="279"/>
+      <c r="H8" s="190"/>
       <c r="I8" s="182"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
@@ -4464,7 +4459,7 @@
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
-      <c r="H9" s="279"/>
+      <c r="H9" s="190"/>
       <c r="I9" s="182"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
@@ -4479,7 +4474,7 @@
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
-      <c r="H10" s="279"/>
+      <c r="H10" s="190"/>
       <c r="I10" s="182"/>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
@@ -4494,7 +4489,7 @@
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="279"/>
+      <c r="H11" s="190"/>
       <c r="I11" s="182"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
@@ -4509,7 +4504,7 @@
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
-      <c r="H12" s="279"/>
+      <c r="H12" s="190"/>
       <c r="I12" s="182"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
@@ -4524,7 +4519,7 @@
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
-      <c r="H13" s="279"/>
+      <c r="H13" s="190"/>
       <c r="I13" s="182"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
@@ -4539,7 +4534,7 @@
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
-      <c r="H14" s="280"/>
+      <c r="H14" s="191"/>
       <c r="I14" s="183"/>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
@@ -4593,11 +4588,11 @@
       <c r="F1" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="246" t="s">
+      <c r="G1" s="250" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="247"/>
-      <c r="I1" s="248"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="252"/>
       <c r="J1" s="102" t="s">
         <v>104</v>
       </c>
@@ -5220,12 +5215,12 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="258" t="s">
+      <c r="G2" s="253" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="259"/>
-      <c r="I2" s="259"/>
-      <c r="J2" s="259"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -5238,28 +5233,28 @@
       <c r="T2" s="6"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="261" t="s">
+      <c r="A3" s="262" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="262"/>
-      <c r="C3" s="262"/>
-      <c r="D3" s="262"/>
-      <c r="E3" s="262"/>
-      <c r="F3" s="262"/>
-      <c r="G3" s="262"/>
-      <c r="H3" s="262"/>
-      <c r="I3" s="262"/>
-      <c r="J3" s="262"/>
-      <c r="K3" s="189" t="s">
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="263"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="263"/>
+      <c r="K3" s="241" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
-      <c r="O3" s="211" t="s">
+      <c r="L3" s="241"/>
+      <c r="M3" s="241"/>
+      <c r="N3" s="241"/>
+      <c r="O3" s="206" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="211"/>
+      <c r="P3" s="206"/>
       <c r="Q3" s="139" t="s">
         <v>13</v>
       </c>
@@ -5317,11 +5312,11 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="263" t="s">
+      <c r="A6" s="264" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="264"/>
-      <c r="C6" s="264"/>
+      <c r="B6" s="265"/>
+      <c r="C6" s="265"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -5341,11 +5336,11 @@
       <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="263" t="s">
+      <c r="A7" s="264" t="s">
         <v>185</v>
       </c>
-      <c r="B7" s="264"/>
-      <c r="C7" s="264"/>
+      <c r="B7" s="265"/>
+      <c r="C7" s="265"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -5365,11 +5360,11 @@
       <c r="T7" s="6"/>
     </row>
     <row r="8" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="263" t="s">
+      <c r="A8" s="264" t="s">
         <v>184</v>
       </c>
-      <c r="B8" s="264"/>
-      <c r="C8" s="264"/>
+      <c r="B8" s="265"/>
+      <c r="C8" s="265"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -5459,20 +5454,20 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="249" t="s">
+      <c r="E12" s="267" t="s">
         <v>183</v>
       </c>
-      <c r="F12" s="250"/>
-      <c r="G12" s="250"/>
-      <c r="H12" s="250"/>
-      <c r="I12" s="250"/>
-      <c r="J12" s="250"/>
-      <c r="K12" s="250"/>
-      <c r="L12" s="250"/>
-      <c r="M12" s="250"/>
-      <c r="N12" s="250"/>
-      <c r="O12" s="250"/>
-      <c r="P12" s="250"/>
+      <c r="F12" s="268"/>
+      <c r="G12" s="268"/>
+      <c r="H12" s="268"/>
+      <c r="I12" s="268"/>
+      <c r="J12" s="268"/>
+      <c r="K12" s="268"/>
+      <c r="L12" s="268"/>
+      <c r="M12" s="268"/>
+      <c r="N12" s="268"/>
+      <c r="O12" s="268"/>
+      <c r="P12" s="268"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -5483,18 +5478,18 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="250"/>
-      <c r="F13" s="250"/>
-      <c r="G13" s="250"/>
-      <c r="H13" s="250"/>
-      <c r="I13" s="250"/>
-      <c r="J13" s="250"/>
-      <c r="K13" s="250"/>
-      <c r="L13" s="250"/>
-      <c r="M13" s="250"/>
-      <c r="N13" s="250"/>
-      <c r="O13" s="250"/>
-      <c r="P13" s="250"/>
+      <c r="E13" s="268"/>
+      <c r="F13" s="268"/>
+      <c r="G13" s="268"/>
+      <c r="H13" s="268"/>
+      <c r="I13" s="268"/>
+      <c r="J13" s="268"/>
+      <c r="K13" s="268"/>
+      <c r="L13" s="268"/>
+      <c r="M13" s="268"/>
+      <c r="N13" s="268"/>
+      <c r="O13" s="268"/>
+      <c r="P13" s="268"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
@@ -5505,18 +5500,18 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="250"/>
-      <c r="F14" s="250"/>
-      <c r="G14" s="250"/>
-      <c r="H14" s="250"/>
-      <c r="I14" s="250"/>
-      <c r="J14" s="250"/>
-      <c r="K14" s="250"/>
-      <c r="L14" s="250"/>
-      <c r="M14" s="250"/>
-      <c r="N14" s="250"/>
-      <c r="O14" s="250"/>
-      <c r="P14" s="250"/>
+      <c r="E14" s="268"/>
+      <c r="F14" s="268"/>
+      <c r="G14" s="268"/>
+      <c r="H14" s="268"/>
+      <c r="I14" s="268"/>
+      <c r="J14" s="268"/>
+      <c r="K14" s="268"/>
+      <c r="L14" s="268"/>
+      <c r="M14" s="268"/>
+      <c r="N14" s="268"/>
+      <c r="O14" s="268"/>
+      <c r="P14" s="268"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
@@ -5550,23 +5545,23 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="202" t="s">
+      <c r="F16" s="232" t="s">
         <v>182</v>
       </c>
-      <c r="G16" s="251"/>
-      <c r="H16" s="251"/>
-      <c r="I16" s="251"/>
-      <c r="J16" s="252" t="str">
+      <c r="G16" s="261"/>
+      <c r="H16" s="261"/>
+      <c r="I16" s="261"/>
+      <c r="J16" s="259" t="str">
         <f>'лист титульный КД'!N12</f>
         <v>Иванов И.И</v>
       </c>
-      <c r="K16" s="252"/>
-      <c r="L16" s="252"/>
-      <c r="M16" s="252"/>
-      <c r="N16" s="252"/>
-      <c r="O16" s="252"/>
-      <c r="P16" s="252"/>
-      <c r="Q16" s="252"/>
+      <c r="K16" s="259"/>
+      <c r="L16" s="259"/>
+      <c r="M16" s="259"/>
+      <c r="N16" s="259"/>
+      <c r="O16" s="259"/>
+      <c r="P16" s="259"/>
+      <c r="Q16" s="259"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="6"/>
@@ -5577,23 +5572,23 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="202" t="s">
+      <c r="F17" s="232" t="s">
         <v>181</v>
       </c>
-      <c r="G17" s="251"/>
-      <c r="H17" s="251"/>
-      <c r="I17" s="251"/>
-      <c r="J17" s="252" t="str">
+      <c r="G17" s="261"/>
+      <c r="H17" s="261"/>
+      <c r="I17" s="261"/>
+      <c r="J17" s="259" t="str">
         <f>'лист титульный КД'!N13</f>
         <v>Петров П.П.</v>
       </c>
-      <c r="K17" s="252"/>
-      <c r="L17" s="252"/>
-      <c r="M17" s="252"/>
-      <c r="N17" s="252"/>
-      <c r="O17" s="252"/>
-      <c r="P17" s="252"/>
-      <c r="Q17" s="252"/>
+      <c r="K17" s="259"/>
+      <c r="L17" s="259"/>
+      <c r="M17" s="259"/>
+      <c r="N17" s="259"/>
+      <c r="O17" s="259"/>
+      <c r="P17" s="259"/>
+      <c r="Q17" s="259"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="6"/>
@@ -5604,23 +5599,23 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="202" t="s">
+      <c r="F18" s="232" t="s">
         <v>180</v>
       </c>
-      <c r="G18" s="251"/>
-      <c r="H18" s="251"/>
-      <c r="I18" s="251"/>
-      <c r="J18" s="252" t="str">
+      <c r="G18" s="261"/>
+      <c r="H18" s="261"/>
+      <c r="I18" s="261"/>
+      <c r="J18" s="259" t="str">
         <f>'лист титульный КД'!N14</f>
         <v>г. Москва, ул. Нарвская, д.2</v>
       </c>
-      <c r="K18" s="252"/>
-      <c r="L18" s="252"/>
-      <c r="M18" s="252"/>
-      <c r="N18" s="252"/>
-      <c r="O18" s="252"/>
-      <c r="P18" s="252"/>
-      <c r="Q18" s="252"/>
+      <c r="K18" s="259"/>
+      <c r="L18" s="259"/>
+      <c r="M18" s="259"/>
+      <c r="N18" s="259"/>
+      <c r="O18" s="259"/>
+      <c r="P18" s="259"/>
+      <c r="Q18" s="259"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="6"/>
@@ -5631,23 +5626,23 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="202" t="s">
+      <c r="F19" s="232" t="s">
         <v>179</v>
       </c>
-      <c r="G19" s="251"/>
-      <c r="H19" s="251"/>
-      <c r="I19" s="251"/>
-      <c r="J19" s="252" t="str">
+      <c r="G19" s="261"/>
+      <c r="H19" s="261"/>
+      <c r="I19" s="261"/>
+      <c r="J19" s="259" t="str">
         <f>'лист титульный КД'!N15</f>
         <v>восьмой</v>
       </c>
-      <c r="K19" s="252"/>
-      <c r="L19" s="252"/>
-      <c r="M19" s="252"/>
-      <c r="N19" s="252"/>
-      <c r="O19" s="252"/>
-      <c r="P19" s="252"/>
-      <c r="Q19" s="252"/>
+      <c r="K19" s="259"/>
+      <c r="L19" s="259"/>
+      <c r="M19" s="259"/>
+      <c r="N19" s="259"/>
+      <c r="O19" s="259"/>
+      <c r="P19" s="259"/>
+      <c r="Q19" s="259"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="6"/>
@@ -5658,23 +5653,23 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="202" t="s">
+      <c r="F20" s="232" t="s">
         <v>178</v>
       </c>
-      <c r="G20" s="251"/>
-      <c r="H20" s="251"/>
-      <c r="I20" s="251"/>
-      <c r="J20" s="252" t="str">
+      <c r="G20" s="261"/>
+      <c r="H20" s="261"/>
+      <c r="I20" s="261"/>
+      <c r="J20" s="259" t="str">
         <f>'лист титульный КД'!N16</f>
         <v>кухня</v>
       </c>
-      <c r="K20" s="252"/>
-      <c r="L20" s="252"/>
-      <c r="M20" s="252"/>
-      <c r="N20" s="252"/>
-      <c r="O20" s="252"/>
-      <c r="P20" s="252"/>
-      <c r="Q20" s="252"/>
+      <c r="K20" s="259"/>
+      <c r="L20" s="259"/>
+      <c r="M20" s="259"/>
+      <c r="N20" s="259"/>
+      <c r="O20" s="259"/>
+      <c r="P20" s="259"/>
+      <c r="Q20" s="259"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="6"/>
@@ -5685,23 +5680,23 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="202" t="s">
+      <c r="F21" s="232" t="s">
         <v>177</v>
       </c>
-      <c r="G21" s="251"/>
-      <c r="H21" s="251"/>
-      <c r="I21" s="251"/>
-      <c r="J21" s="252" t="str">
+      <c r="G21" s="261"/>
+      <c r="H21" s="261"/>
+      <c r="I21" s="261"/>
+      <c r="J21" s="259" t="str">
         <f>'лист титульный КД'!N17</f>
         <v>гарнитур кухонный, дверной блок</v>
       </c>
-      <c r="K21" s="252"/>
-      <c r="L21" s="252"/>
-      <c r="M21" s="252"/>
-      <c r="N21" s="252"/>
-      <c r="O21" s="252"/>
-      <c r="P21" s="252"/>
-      <c r="Q21" s="252"/>
+      <c r="K21" s="259"/>
+      <c r="L21" s="259"/>
+      <c r="M21" s="259"/>
+      <c r="N21" s="259"/>
+      <c r="O21" s="259"/>
+      <c r="P21" s="259"/>
+      <c r="Q21" s="259"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="6"/>
@@ -5712,23 +5707,23 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="202" t="s">
+      <c r="F22" s="232" t="s">
         <v>176</v>
       </c>
-      <c r="G22" s="251"/>
-      <c r="H22" s="251"/>
-      <c r="I22" s="251"/>
-      <c r="J22" s="252">
+      <c r="G22" s="261"/>
+      <c r="H22" s="261"/>
+      <c r="I22" s="261"/>
+      <c r="J22" s="259">
         <f>'лист титульный КД'!N18</f>
         <v>500</v>
       </c>
-      <c r="K22" s="252"/>
-      <c r="L22" s="252"/>
-      <c r="M22" s="252"/>
-      <c r="N22" s="252"/>
-      <c r="O22" s="252"/>
-      <c r="P22" s="252"/>
-      <c r="Q22" s="252"/>
+      <c r="K22" s="259"/>
+      <c r="L22" s="259"/>
+      <c r="M22" s="259"/>
+      <c r="N22" s="259"/>
+      <c r="O22" s="259"/>
+      <c r="P22" s="259"/>
+      <c r="Q22" s="259"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="6"/>
@@ -5739,23 +5734,23 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="202" t="s">
+      <c r="F23" s="232" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="251"/>
-      <c r="H23" s="251"/>
-      <c r="I23" s="251"/>
-      <c r="J23" s="252" t="str">
+      <c r="G23" s="261"/>
+      <c r="H23" s="261"/>
+      <c r="I23" s="261"/>
+      <c r="J23" s="259" t="str">
         <f>'лист титульный КД'!N19</f>
         <v>1-15,16</v>
       </c>
-      <c r="K23" s="252"/>
-      <c r="L23" s="252"/>
-      <c r="M23" s="252"/>
-      <c r="N23" s="252"/>
-      <c r="O23" s="252"/>
-      <c r="P23" s="252"/>
-      <c r="Q23" s="252"/>
+      <c r="K23" s="259"/>
+      <c r="L23" s="259"/>
+      <c r="M23" s="259"/>
+      <c r="N23" s="259"/>
+      <c r="O23" s="259"/>
+      <c r="P23" s="259"/>
+      <c r="Q23" s="259"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="6"/>
@@ -5943,12 +5938,12 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="253" t="s">
+      <c r="G32" s="260" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="254"/>
-      <c r="I32" s="254"/>
-      <c r="J32" s="254"/>
+      <c r="H32" s="256"/>
+      <c r="I32" s="256"/>
+      <c r="J32" s="256"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -5961,28 +5956,28 @@
       <c r="T32" s="6"/>
     </row>
     <row r="33" spans="1:20" s="154" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="260" t="s">
+      <c r="A33" s="255" t="s">
         <v>187</v>
       </c>
-      <c r="B33" s="254"/>
-      <c r="C33" s="254"/>
-      <c r="D33" s="254"/>
-      <c r="E33" s="254"/>
-      <c r="F33" s="254"/>
-      <c r="G33" s="254"/>
-      <c r="H33" s="254"/>
-      <c r="I33" s="254"/>
-      <c r="J33" s="254"/>
-      <c r="K33" s="256" t="s">
+      <c r="B33" s="256"/>
+      <c r="C33" s="256"/>
+      <c r="D33" s="256"/>
+      <c r="E33" s="256"/>
+      <c r="F33" s="256"/>
+      <c r="G33" s="256"/>
+      <c r="H33" s="256"/>
+      <c r="I33" s="256"/>
+      <c r="J33" s="256"/>
+      <c r="K33" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="256"/>
-      <c r="M33" s="256"/>
-      <c r="N33" s="256"/>
-      <c r="O33" s="257" t="s">
+      <c r="L33" s="257"/>
+      <c r="M33" s="257"/>
+      <c r="N33" s="257"/>
+      <c r="O33" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="P33" s="257"/>
+      <c r="P33" s="258"/>
       <c r="Q33" s="156" t="s">
         <v>13</v>
       </c>
@@ -6024,12 +6019,12 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="253" t="s">
+      <c r="G35" s="260" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="254"/>
-      <c r="I35" s="254"/>
-      <c r="J35" s="254"/>
+      <c r="H35" s="256"/>
+      <c r="I35" s="256"/>
+      <c r="J35" s="256"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
@@ -6042,28 +6037,28 @@
       <c r="T35" s="6"/>
     </row>
     <row r="36" spans="1:20" s="154" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="255" t="s">
+      <c r="A36" s="266" t="s">
         <v>174</v>
       </c>
-      <c r="B36" s="254"/>
-      <c r="C36" s="254"/>
-      <c r="D36" s="254"/>
-      <c r="E36" s="254"/>
-      <c r="F36" s="254"/>
-      <c r="G36" s="254"/>
-      <c r="H36" s="254"/>
-      <c r="I36" s="254"/>
-      <c r="J36" s="254"/>
-      <c r="K36" s="256" t="s">
+      <c r="B36" s="256"/>
+      <c r="C36" s="256"/>
+      <c r="D36" s="256"/>
+      <c r="E36" s="256"/>
+      <c r="F36" s="256"/>
+      <c r="G36" s="256"/>
+      <c r="H36" s="256"/>
+      <c r="I36" s="256"/>
+      <c r="J36" s="256"/>
+      <c r="K36" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="L36" s="256"/>
-      <c r="M36" s="256"/>
-      <c r="N36" s="256"/>
-      <c r="O36" s="257" t="s">
+      <c r="L36" s="257"/>
+      <c r="M36" s="257"/>
+      <c r="N36" s="257"/>
+      <c r="O36" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="P36" s="257"/>
+      <c r="P36" s="258"/>
       <c r="Q36" s="156" t="s">
         <v>13</v>
       </c>
@@ -6077,28 +6072,28 @@
       <c r="T36" s="155"/>
     </row>
     <row r="37" spans="1:20" s="154" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="255" t="s">
+      <c r="A37" s="266" t="s">
         <v>173</v>
       </c>
-      <c r="B37" s="254"/>
-      <c r="C37" s="254"/>
-      <c r="D37" s="254"/>
-      <c r="E37" s="254"/>
-      <c r="F37" s="254"/>
-      <c r="G37" s="254"/>
-      <c r="H37" s="254"/>
-      <c r="I37" s="254"/>
-      <c r="J37" s="254"/>
-      <c r="K37" s="256" t="s">
+      <c r="B37" s="256"/>
+      <c r="C37" s="256"/>
+      <c r="D37" s="256"/>
+      <c r="E37" s="256"/>
+      <c r="F37" s="256"/>
+      <c r="G37" s="256"/>
+      <c r="H37" s="256"/>
+      <c r="I37" s="256"/>
+      <c r="J37" s="256"/>
+      <c r="K37" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="L37" s="256"/>
-      <c r="M37" s="256"/>
-      <c r="N37" s="256"/>
-      <c r="O37" s="257" t="s">
+      <c r="L37" s="257"/>
+      <c r="M37" s="257"/>
+      <c r="N37" s="257"/>
+      <c r="O37" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="P37" s="257"/>
+      <c r="P37" s="258"/>
       <c r="Q37" s="156" t="s">
         <v>13</v>
       </c>
@@ -6157,6 +6152,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="E12:P14"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="O36:P36"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="A33:J33"/>
@@ -6173,25 +6187,6 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="E12:P14"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="J17:Q17"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -6222,19 +6217,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="265" t="s">
+      <c r="A1" s="269" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="266"/>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="266"/>
-      <c r="G1" s="266"/>
-      <c r="H1" s="266"/>
-      <c r="I1" s="266"/>
-      <c r="J1" s="266"/>
-      <c r="K1" s="267"/>
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="271"/>
     </row>
     <row r="2" spans="1:11" s="40" customFormat="1" ht="124.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="48" t="s">
@@ -6629,48 +6624,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="274" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="271"/>
-      <c r="C1" s="271"/>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="271"/>
-      <c r="G1" s="271"/>
-      <c r="H1" s="271"/>
-      <c r="I1" s="271"/>
-      <c r="J1" s="271"/>
-      <c r="K1" s="271"/>
-      <c r="L1" s="271"/>
-      <c r="M1" s="271"/>
-      <c r="N1" s="271"/>
-      <c r="O1" s="271"/>
-      <c r="P1" s="271"/>
-      <c r="Q1" s="271"/>
-      <c r="R1" s="271"/>
-      <c r="S1" s="272"/>
+      <c r="B1" s="275"/>
+      <c r="C1" s="275"/>
+      <c r="D1" s="275"/>
+      <c r="E1" s="275"/>
+      <c r="F1" s="275"/>
+      <c r="G1" s="275"/>
+      <c r="H1" s="275"/>
+      <c r="I1" s="275"/>
+      <c r="J1" s="275"/>
+      <c r="K1" s="275"/>
+      <c r="L1" s="275"/>
+      <c r="M1" s="275"/>
+      <c r="N1" s="275"/>
+      <c r="O1" s="275"/>
+      <c r="P1" s="275"/>
+      <c r="Q1" s="275"/>
+      <c r="R1" s="275"/>
+      <c r="S1" s="276"/>
     </row>
     <row r="2" spans="1:19" s="81" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="273" t="s">
+      <c r="A2" s="277" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="273" t="s">
+      <c r="B2" s="277" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="273" t="s">
+      <c r="C2" s="277" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="273" t="s">
+      <c r="D2" s="277" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="273" t="s">
+      <c r="E2" s="277" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="273" t="s">
+      <c r="F2" s="277" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="273" t="s">
+      <c r="G2" s="277" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="82" t="s">
@@ -6679,11 +6674,11 @@
       <c r="I2" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="276" t="s">
+      <c r="J2" s="280" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="277"/>
-      <c r="L2" s="277"/>
+      <c r="K2" s="281"/>
+      <c r="L2" s="281"/>
       <c r="M2" s="82" t="s">
         <v>86</v>
       </c>
@@ -6707,13 +6702,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="71" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="274"/>
-      <c r="B3" s="274"/>
-      <c r="C3" s="274"/>
-      <c r="D3" s="274"/>
-      <c r="E3" s="274"/>
-      <c r="F3" s="274"/>
-      <c r="G3" s="274"/>
+      <c r="A3" s="278"/>
+      <c r="B3" s="278"/>
+      <c r="C3" s="278"/>
+      <c r="D3" s="278"/>
+      <c r="E3" s="278"/>
+      <c r="F3" s="278"/>
+      <c r="G3" s="278"/>
       <c r="H3" s="77" t="s">
         <v>79</v>
       </c>
@@ -6752,24 +6747,24 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="71" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="274"/>
-      <c r="B4" s="274"/>
-      <c r="C4" s="274"/>
-      <c r="D4" s="274"/>
-      <c r="E4" s="274"/>
-      <c r="F4" s="274"/>
-      <c r="G4" s="274"/>
+      <c r="A4" s="278"/>
+      <c r="B4" s="278"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="278"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="278"/>
       <c r="H4" s="77" t="s">
         <v>71</v>
       </c>
       <c r="I4" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="268" t="s">
+      <c r="J4" s="272" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="269"/>
-      <c r="L4" s="269"/>
+      <c r="K4" s="273"/>
+      <c r="L4" s="273"/>
       <c r="M4" s="78" t="s">
         <v>68</v>
       </c>
@@ -6793,24 +6788,24 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="71" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="275"/>
-      <c r="B5" s="275"/>
-      <c r="C5" s="275"/>
-      <c r="D5" s="275"/>
-      <c r="E5" s="275"/>
-      <c r="F5" s="275"/>
-      <c r="G5" s="275"/>
+      <c r="A5" s="279"/>
+      <c r="B5" s="279"/>
+      <c r="C5" s="279"/>
+      <c r="D5" s="279"/>
+      <c r="E5" s="279"/>
+      <c r="F5" s="279"/>
+      <c r="G5" s="279"/>
       <c r="H5" s="77" t="s">
         <v>61</v>
       </c>
       <c r="I5" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="268" t="s">
+      <c r="J5" s="272" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="269"/>
-      <c r="L5" s="269"/>
+      <c r="K5" s="273"/>
+      <c r="L5" s="273"/>
       <c r="M5" s="76" t="s">
         <v>58</v>
       </c>
@@ -7587,21 +7582,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="265" t="s">
+      <c r="A1" s="269" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="266"/>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="266"/>
-      <c r="G1" s="266"/>
-      <c r="H1" s="266"/>
-      <c r="I1" s="266"/>
-      <c r="J1" s="266"/>
-      <c r="K1" s="266"/>
-      <c r="L1" s="266"/>
-      <c r="M1" s="267"/>
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="270"/>
+      <c r="L1" s="270"/>
+      <c r="M1" s="271"/>
     </row>
     <row r="2" spans="1:13" s="40" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="91" t="s">

--- a/dist/files/xls/shablon-kd.xlsx
+++ b/dist/files/xls/shablon-kd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8190" tabRatio="778" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8190" tabRatio="778"/>
   </bookViews>
   <sheets>
     <sheet name="лист титульный КД" sheetId="24" r:id="rId1"/>
@@ -27,16 +27,16 @@
     <definedName name="floor">'лист титульный КД'!$N$15</definedName>
     <definedName name="order">'лист титульный КД'!$N$18</definedName>
     <definedName name="Print_Area" localSheetId="0">'лист титульный КД'!$A$2:$W$30</definedName>
-    <definedName name="Print_Area" localSheetId="3">'ТИТУЛЬНЫЙ ЛИСТ ВПИ'!$A$1:$T$39</definedName>
+    <definedName name="Print_Area" localSheetId="3">'ТИТУЛЬНЫЙ ЛИСТ ВПИ'!$A$1:$T$36</definedName>
     <definedName name="product">'лист титульный КД'!$N$19</definedName>
     <definedName name="room">'лист титульный КД'!$N$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'ВЕДОМОСТЬ МАТЕРИАЛОВ'!$A$1:$M$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'ВЕДОМОСТЬ СТЕКОЛ И ЗЕРКАЛ'!$A$1:$S$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'ВЕДОМОСТЬ ФУРНИТУРЫ'!$A$1:$K$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'лист титульный КД'!$A$1:$W$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'паспорт изделий заказа'!$A$1:$M$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'паспорт изделий заказа'!$A$1:$M$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'спецификация конструкторская'!$A$1:$M$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'ТИТУЛЬНЫЙ ЛИСТ ВПИ'!$A$1:$T$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'ТИТУЛЬНЫЙ ЛИСТ ВПИ'!$A$1:$T$36</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="191">
   <si>
     <t>№заказа</t>
   </si>
@@ -676,7 +676,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy"/>
   </numFmts>
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -799,14 +799,6 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="28"/>
-      <color theme="1"/>
-      <name val="ISOCPEUR"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <i/>
       <sz val="28"/>
       <color theme="1"/>
@@ -1706,10 +1698,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="282">
+  <cellXfs count="277">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1752,15 +1744,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1771,7 +1754,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1790,55 +1773,76 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="26" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1862,80 +1866,59 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="28" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="27" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="30" fillId="5" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="29" fillId="5" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="30" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="29" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1954,100 +1937,99 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2059,7 +2041,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2086,12 +2068,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2106,18 +2088,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="20" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2139,33 +2121,21 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2187,116 +2157,122 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2305,22 +2281,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2336,13 +2312,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2354,79 +2330,84 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2762,7 +2743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="66" zoomScaleNormal="70" zoomScaleSheetLayoutView="66" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="66" zoomScaleNormal="70" zoomScaleSheetLayoutView="66" workbookViewId="0">
       <selection activeCell="N22" sqref="N22:P22"/>
     </sheetView>
   </sheetViews>
@@ -2780,7 +2761,7 @@
     <col min="11" max="11" width="9.125" style="3" customWidth="1"/>
     <col min="12" max="12" width="6.25" style="3" customWidth="1"/>
     <col min="13" max="13" width="5" style="3" customWidth="1"/>
-    <col min="14" max="14" width="17.375" style="180" customWidth="1"/>
+    <col min="14" max="14" width="17.375" style="176" customWidth="1"/>
     <col min="15" max="15" width="5.5" style="3" customWidth="1"/>
     <col min="16" max="16" width="10.625" style="3" customWidth="1"/>
     <col min="17" max="17" width="9.625" style="3" customWidth="1"/>
@@ -2802,24 +2783,24 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
-      <c r="I1" s="137" t="s">
+      <c r="I1" s="133" t="s">
         <v>162</v>
       </c>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="136"/>
-      <c r="S1" s="136"/>
-      <c r="T1" s="136"/>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135"/>
-      <c r="W1" s="134"/>
-      <c r="X1" s="133"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="129"/>
     </row>
     <row r="2" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
@@ -2830,25 +2811,25 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="226" t="s">
+      <c r="I2" s="220" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="227"/>
-      <c r="K2" s="227"/>
-      <c r="L2" s="227"/>
-      <c r="M2" s="227"/>
-      <c r="N2" s="228"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="229" t="s">
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="222"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="223" t="s">
         <v>161</v>
       </c>
-      <c r="Q2" s="230"/>
-      <c r="R2" s="230"/>
-      <c r="S2" s="230"/>
-      <c r="T2" s="230"/>
-      <c r="U2" s="230"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="30"/>
+      <c r="Q2" s="224"/>
+      <c r="R2" s="224"/>
+      <c r="S2" s="224"/>
+      <c r="T2" s="224"/>
+      <c r="U2" s="224"/>
+      <c r="V2" s="137"/>
+      <c r="W2" s="27"/>
       <c r="X2" s="12"/>
     </row>
     <row r="3" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2859,38 +2840,38 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="105" t="s">
+      <c r="H3" s="26"/>
+      <c r="I3" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="106" t="s">
+      <c r="J3" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="107"/>
-      <c r="L3" s="230" t="s">
+      <c r="K3" s="103"/>
+      <c r="L3" s="224" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="230"/>
-      <c r="N3" s="167" t="s">
+      <c r="M3" s="224"/>
+      <c r="N3" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="104"/>
-      <c r="P3" s="105" t="s">
+      <c r="O3" s="100"/>
+      <c r="P3" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="106" t="s">
+      <c r="Q3" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="107"/>
-      <c r="S3" s="230" t="s">
+      <c r="R3" s="103"/>
+      <c r="S3" s="224" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="230"/>
-      <c r="U3" s="131" t="s">
+      <c r="T3" s="224"/>
+      <c r="U3" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="131"/>
-      <c r="W3" s="30"/>
+      <c r="V3" s="127"/>
+      <c r="W3" s="27"/>
       <c r="X3" s="12"/>
     </row>
     <row r="4" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2902,37 +2883,37 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="105" t="s">
+      <c r="I4" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="108" t="s">
+      <c r="J4" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="104"/>
-      <c r="L4" s="200" t="s">
+      <c r="K4" s="100"/>
+      <c r="L4" s="192" t="s">
         <v>117</v>
       </c>
-      <c r="M4" s="200"/>
-      <c r="N4" s="168" t="s">
+      <c r="M4" s="192"/>
+      <c r="N4" s="164" t="s">
         <v>160</v>
       </c>
-      <c r="O4" s="104"/>
-      <c r="P4" s="105" t="s">
+      <c r="O4" s="100"/>
+      <c r="P4" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="108" t="s">
+      <c r="Q4" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="R4" s="104"/>
-      <c r="S4" s="200" t="s">
+      <c r="R4" s="100"/>
+      <c r="S4" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="200"/>
-      <c r="U4" s="132" t="s">
+      <c r="T4" s="192"/>
+      <c r="U4" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="V4" s="132"/>
-      <c r="W4" s="31"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="28"/>
       <c r="X4" s="12"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
@@ -2944,36 +2925,36 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="105" t="s">
+      <c r="I5" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="108" t="s">
+      <c r="J5" s="104" t="s">
         <v>159</v>
       </c>
-      <c r="K5" s="104"/>
-      <c r="L5" s="200" t="s">
+      <c r="K5" s="100"/>
+      <c r="L5" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="200"/>
-      <c r="N5" s="167" t="s">
+      <c r="M5" s="192"/>
+      <c r="N5" s="163" t="s">
         <v>158</v>
       </c>
-      <c r="O5" s="104"/>
-      <c r="P5" s="105" t="s">
+      <c r="O5" s="100"/>
+      <c r="P5" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="108" t="s">
+      <c r="Q5" s="104" t="s">
         <v>159</v>
       </c>
-      <c r="R5" s="104"/>
-      <c r="S5" s="200" t="s">
+      <c r="R5" s="100"/>
+      <c r="S5" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="T5" s="200"/>
-      <c r="U5" s="131" t="s">
+      <c r="T5" s="192"/>
+      <c r="U5" s="127" t="s">
         <v>158</v>
       </c>
-      <c r="V5" s="131"/>
+      <c r="V5" s="127"/>
       <c r="W5" s="11"/>
       <c r="X5" s="12"/>
     </row>
@@ -2991,24 +2972,24 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
-      <c r="N6" s="169"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="105" t="s">
+      <c r="N6" s="165"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="108" t="s">
+      <c r="Q6" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="R6" s="104"/>
-      <c r="S6" s="200" t="s">
+      <c r="R6" s="100"/>
+      <c r="S6" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="T6" s="200"/>
-      <c r="U6" s="108" t="s">
+      <c r="T6" s="192"/>
+      <c r="U6" s="104" t="s">
         <v>156</v>
       </c>
-      <c r="V6" s="108"/>
-      <c r="W6" s="32"/>
+      <c r="V6" s="104"/>
+      <c r="W6" s="29"/>
       <c r="X6" s="12"/>
     </row>
     <row r="7" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3020,37 +3001,37 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="105" t="s">
+      <c r="I7" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="108" t="s">
+      <c r="J7" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="104"/>
-      <c r="L7" s="200" t="s">
+      <c r="K7" s="100"/>
+      <c r="L7" s="192" t="s">
         <v>117</v>
       </c>
-      <c r="M7" s="200"/>
-      <c r="N7" s="167" t="s">
+      <c r="M7" s="192"/>
+      <c r="N7" s="163" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="104"/>
-      <c r="P7" s="105" t="s">
+      <c r="O7" s="100"/>
+      <c r="P7" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" s="108" t="s">
+      <c r="Q7" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="R7" s="104"/>
-      <c r="S7" s="200" t="s">
+      <c r="R7" s="100"/>
+      <c r="S7" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="T7" s="200"/>
-      <c r="U7" s="131" t="s">
+      <c r="T7" s="192"/>
+      <c r="U7" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="131"/>
-      <c r="W7" s="33"/>
+      <c r="V7" s="127"/>
+      <c r="W7" s="30"/>
       <c r="X7" s="12"/>
     </row>
     <row r="8" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3062,94 +3043,94 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="105" t="s">
+      <c r="I8" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="108" t="s">
+      <c r="J8" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="K8" s="104"/>
-      <c r="L8" s="138" t="s">
+      <c r="K8" s="100"/>
+      <c r="L8" s="134" t="s">
         <v>119</v>
       </c>
-      <c r="M8" s="138"/>
-      <c r="N8" s="170"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="105" t="s">
+      <c r="M8" s="134"/>
+      <c r="N8" s="166"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="Q8" s="108" t="s">
+      <c r="Q8" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="R8" s="104"/>
-      <c r="S8" s="138" t="s">
+      <c r="R8" s="100"/>
+      <c r="S8" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="T8" s="138"/>
-      <c r="U8" s="138"/>
-      <c r="V8" s="138"/>
-      <c r="W8" s="33"/>
+      <c r="T8" s="134"/>
+      <c r="U8" s="134"/>
+      <c r="V8" s="134"/>
+      <c r="W8" s="30"/>
       <c r="X8" s="12"/>
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="210" t="s">
+      <c r="A9" s="204" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="204" t="s">
+      <c r="B9" s="196" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="203" t="s">
+      <c r="C9" s="195" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="211" t="s">
+      <c r="D9" s="205" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="211"/>
-      <c r="F9" s="211"/>
-      <c r="G9" s="211"/>
-      <c r="H9" s="214"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="130" t="s">
+      <c r="E9" s="205"/>
+      <c r="F9" s="205"/>
+      <c r="G9" s="205"/>
+      <c r="H9" s="208"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="M9" s="130"/>
-      <c r="N9" s="171" t="s">
+      <c r="M9" s="126"/>
+      <c r="N9" s="167" t="s">
         <v>154</v>
       </c>
       <c r="O9" s="12"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="110"/>
-      <c r="S9" s="127" t="s">
+      <c r="P9" s="105"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="T9" s="127"/>
-      <c r="U9" s="127" t="s">
+      <c r="T9" s="123"/>
+      <c r="U9" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="V9" s="127"/>
+      <c r="V9" s="123"/>
       <c r="W9" s="15"/>
       <c r="X9" s="12"/>
     </row>
     <row r="10" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="210"/>
-      <c r="B10" s="204"/>
-      <c r="C10" s="203"/>
-      <c r="D10" s="211" t="s">
+      <c r="A10" s="204"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="205" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="201" t="s">
+      <c r="E10" s="193" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="201" t="s">
+      <c r="F10" s="193" t="s">
         <v>126</v>
       </c>
-      <c r="G10" s="204" t="s">
+      <c r="G10" s="196" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="203" t="s">
+      <c r="H10" s="195" t="s">
         <v>128</v>
       </c>
       <c r="I10" s="5"/>
@@ -3157,7 +3138,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="172"/>
+      <c r="N10" s="168"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
@@ -3170,26 +3151,26 @@
       <c r="X10" s="12"/>
     </row>
     <row r="11" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="210"/>
-      <c r="B11" s="204"/>
-      <c r="C11" s="203"/>
-      <c r="D11" s="211"/>
-      <c r="E11" s="201"/>
-      <c r="F11" s="202"/>
-      <c r="G11" s="204"/>
-      <c r="H11" s="203"/>
+      <c r="A11" s="204"/>
+      <c r="B11" s="196"/>
+      <c r="C11" s="195"/>
+      <c r="D11" s="205"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="194"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="195"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="150" t="s">
+      <c r="K11" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="150"/>
-      <c r="M11" s="150"/>
-      <c r="N11" s="173"/>
-      <c r="O11" s="150"/>
-      <c r="P11" s="150"/>
-      <c r="Q11" s="150"/>
-      <c r="R11" s="150"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="146"/>
+      <c r="N11" s="169"/>
+      <c r="O11" s="146"/>
+      <c r="P11" s="146"/>
+      <c r="Q11" s="146"/>
+      <c r="R11" s="146"/>
       <c r="S11" s="7"/>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
@@ -3197,76 +3178,76 @@
       <c r="W11" s="6"/>
       <c r="X11" s="12"/>
     </row>
-    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="209" t="s">
+    <row r="12" spans="1:24" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="203" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="212" t="s">
+      <c r="B12" s="206" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="212" t="s">
+      <c r="C12" s="206" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="212" t="s">
+      <c r="D12" s="206" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="213" t="s">
+      <c r="E12" s="207" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="213" t="s">
+      <c r="F12" s="207" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="215" t="s">
+      <c r="G12" s="209" t="s">
         <v>152</v>
       </c>
-      <c r="H12" s="205" t="s">
+      <c r="H12" s="197" t="s">
         <v>134</v>
       </c>
-      <c r="I12" s="142"/>
-      <c r="J12" s="239" t="s">
+      <c r="I12" s="138"/>
+      <c r="J12" s="227" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="239"/>
-      <c r="L12" s="239"/>
-      <c r="M12" s="239"/>
-      <c r="N12" s="174" t="s">
+      <c r="K12" s="227"/>
+      <c r="L12" s="227"/>
+      <c r="M12" s="227"/>
+      <c r="N12" s="201" t="s">
         <v>172</v>
       </c>
-      <c r="O12" s="149"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="142"/>
-      <c r="R12" s="103"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
+      <c r="O12" s="202"/>
+      <c r="P12" s="202"/>
+      <c r="Q12" s="202"/>
+      <c r="R12" s="202"/>
+      <c r="S12" s="202"/>
+      <c r="T12" s="202"/>
+      <c r="U12" s="202"/>
+      <c r="V12" s="202"/>
       <c r="W12" s="6"/>
       <c r="X12" s="12"/>
     </row>
     <row r="13" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="209"/>
-      <c r="B13" s="212"/>
-      <c r="C13" s="212"/>
-      <c r="D13" s="212"/>
-      <c r="E13" s="213"/>
-      <c r="F13" s="213"/>
-      <c r="G13" s="216"/>
-      <c r="H13" s="205"/>
+      <c r="A13" s="203"/>
+      <c r="B13" s="206"/>
+      <c r="C13" s="206"/>
+      <c r="D13" s="206"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="210"/>
+      <c r="H13" s="197"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="240" t="s">
+      <c r="J13" s="226" t="s">
         <v>171</v>
       </c>
-      <c r="K13" s="240"/>
-      <c r="L13" s="240"/>
-      <c r="M13" s="240"/>
-      <c r="N13" s="174" t="s">
+      <c r="K13" s="226"/>
+      <c r="L13" s="226"/>
+      <c r="M13" s="226"/>
+      <c r="N13" s="170" t="s">
         <v>170</v>
       </c>
-      <c r="O13" s="149"/>
+      <c r="O13" s="145"/>
       <c r="P13" s="12"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="144"/>
-      <c r="S13" s="144"/>
+      <c r="Q13" s="140"/>
+      <c r="R13" s="140"/>
+      <c r="S13" s="140"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
@@ -3274,29 +3255,29 @@
       <c r="X13" s="12"/>
     </row>
     <row r="14" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="209"/>
-      <c r="B14" s="212"/>
-      <c r="C14" s="212"/>
-      <c r="D14" s="212"/>
-      <c r="E14" s="213"/>
-      <c r="F14" s="213"/>
-      <c r="G14" s="216"/>
-      <c r="H14" s="205"/>
+      <c r="A14" s="203"/>
+      <c r="B14" s="206"/>
+      <c r="C14" s="206"/>
+      <c r="D14" s="206"/>
+      <c r="E14" s="207"/>
+      <c r="F14" s="207"/>
+      <c r="G14" s="210"/>
+      <c r="H14" s="197"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="232" t="s">
+      <c r="J14" s="226" t="s">
         <v>114</v>
       </c>
-      <c r="K14" s="232"/>
-      <c r="L14" s="232"/>
-      <c r="M14" s="232"/>
-      <c r="N14" s="175" t="s">
+      <c r="K14" s="226"/>
+      <c r="L14" s="226"/>
+      <c r="M14" s="226"/>
+      <c r="N14" s="171" t="s">
         <v>146</v>
       </c>
-      <c r="O14" s="148"/>
+      <c r="O14" s="144"/>
       <c r="P14" s="12"/>
-      <c r="Q14" s="148"/>
-      <c r="R14" s="148"/>
-      <c r="S14" s="148"/>
+      <c r="Q14" s="144"/>
+      <c r="R14" s="144"/>
+      <c r="S14" s="144"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
@@ -3304,29 +3285,29 @@
       <c r="X14" s="12"/>
     </row>
     <row r="15" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="209"/>
-      <c r="B15" s="212"/>
-      <c r="C15" s="212"/>
-      <c r="D15" s="212"/>
-      <c r="E15" s="213"/>
-      <c r="F15" s="213"/>
-      <c r="G15" s="217"/>
-      <c r="H15" s="205"/>
+      <c r="A15" s="203"/>
+      <c r="B15" s="206"/>
+      <c r="C15" s="206"/>
+      <c r="D15" s="206"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="197"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="232" t="s">
+      <c r="J15" s="226" t="s">
         <v>169</v>
       </c>
-      <c r="K15" s="232"/>
-      <c r="L15" s="232"/>
-      <c r="M15" s="232"/>
-      <c r="N15" s="175" t="s">
+      <c r="K15" s="226"/>
+      <c r="L15" s="226"/>
+      <c r="M15" s="226"/>
+      <c r="N15" s="171" t="s">
         <v>168</v>
       </c>
-      <c r="O15" s="148"/>
+      <c r="O15" s="144"/>
       <c r="P15" s="12"/>
-      <c r="Q15" s="148"/>
-      <c r="R15" s="148"/>
-      <c r="S15" s="148"/>
+      <c r="Q15" s="144"/>
+      <c r="R15" s="144"/>
+      <c r="S15" s="144"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
@@ -3334,120 +3315,120 @@
       <c r="X15" s="12"/>
     </row>
     <row r="16" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="209"/>
-      <c r="B16" s="212"/>
-      <c r="C16" s="212"/>
-      <c r="D16" s="212"/>
-      <c r="E16" s="213"/>
-      <c r="F16" s="213"/>
-      <c r="G16" s="215" t="s">
+      <c r="A16" s="203"/>
+      <c r="B16" s="206"/>
+      <c r="C16" s="206"/>
+      <c r="D16" s="206"/>
+      <c r="E16" s="207"/>
+      <c r="F16" s="207"/>
+      <c r="G16" s="209" t="s">
         <v>151</v>
       </c>
-      <c r="H16" s="205"/>
+      <c r="H16" s="197"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="232" t="s">
+      <c r="J16" s="226" t="s">
         <v>167</v>
       </c>
-      <c r="K16" s="232"/>
-      <c r="L16" s="232"/>
-      <c r="M16" s="232"/>
-      <c r="N16" s="175" t="s">
+      <c r="K16" s="226"/>
+      <c r="L16" s="226"/>
+      <c r="M16" s="226"/>
+      <c r="N16" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="O16" s="148"/>
+      <c r="O16" s="144"/>
       <c r="P16" s="12"/>
-      <c r="Q16" s="148"/>
-      <c r="R16" s="148"/>
-      <c r="S16" s="148"/>
+      <c r="Q16" s="144"/>
+      <c r="R16" s="144"/>
+      <c r="S16" s="144"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="6"/>
       <c r="X16" s="12"/>
     </row>
-    <row r="17" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="209"/>
-      <c r="B17" s="212"/>
-      <c r="C17" s="212"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="213"/>
-      <c r="F17" s="213"/>
-      <c r="G17" s="216"/>
-      <c r="H17" s="205"/>
+    <row r="17" spans="1:24" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="203"/>
+      <c r="B17" s="206"/>
+      <c r="C17" s="206"/>
+      <c r="D17" s="206"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="207"/>
+      <c r="G17" s="210"/>
+      <c r="H17" s="197"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="232" t="s">
+      <c r="J17" s="226" t="s">
         <v>165</v>
       </c>
-      <c r="K17" s="232"/>
-      <c r="L17" s="232"/>
-      <c r="M17" s="232"/>
-      <c r="N17" s="175" t="s">
+      <c r="K17" s="226"/>
+      <c r="L17" s="226"/>
+      <c r="M17" s="226"/>
+      <c r="N17" s="235" t="s">
         <v>164</v>
       </c>
-      <c r="O17" s="148"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="148"/>
-      <c r="R17" s="148"/>
-      <c r="S17" s="148"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
+      <c r="O17" s="236"/>
+      <c r="P17" s="236"/>
+      <c r="Q17" s="236"/>
+      <c r="R17" s="236"/>
+      <c r="S17" s="236"/>
+      <c r="T17" s="236"/>
+      <c r="U17" s="236"/>
+      <c r="V17" s="236"/>
       <c r="W17" s="6"/>
       <c r="X17" s="12"/>
     </row>
     <row r="18" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="209"/>
-      <c r="B18" s="212"/>
-      <c r="C18" s="212"/>
-      <c r="D18" s="212"/>
-      <c r="E18" s="213"/>
-      <c r="F18" s="213"/>
-      <c r="G18" s="217"/>
-      <c r="H18" s="205"/>
+      <c r="A18" s="203"/>
+      <c r="B18" s="206"/>
+      <c r="C18" s="206"/>
+      <c r="D18" s="206"/>
+      <c r="E18" s="207"/>
+      <c r="F18" s="207"/>
+      <c r="G18" s="211"/>
+      <c r="H18" s="197"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="233" t="s">
+      <c r="J18" s="227" t="s">
         <v>113</v>
       </c>
-      <c r="K18" s="233"/>
-      <c r="L18" s="233"/>
-      <c r="M18" s="233"/>
-      <c r="N18" s="176">
+      <c r="K18" s="227"/>
+      <c r="L18" s="227"/>
+      <c r="M18" s="227"/>
+      <c r="N18" s="172">
         <v>500</v>
       </c>
-      <c r="O18" s="148"/>
+      <c r="O18" s="144"/>
       <c r="P18" s="12"/>
-      <c r="Q18" s="148"/>
-      <c r="R18" s="148"/>
-      <c r="S18" s="148"/>
+      <c r="Q18" s="144"/>
+      <c r="R18" s="144"/>
+      <c r="S18" s="144"/>
       <c r="T18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="6"/>
       <c r="X18" s="12"/>
     </row>
     <row r="19" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="111"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="116"/>
+      <c r="A19" s="107"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="112"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="233" t="s">
+      <c r="J19" s="227" t="s">
         <v>112</v>
       </c>
-      <c r="K19" s="233"/>
-      <c r="L19" s="233"/>
-      <c r="M19" s="233"/>
-      <c r="N19" s="176" t="s">
+      <c r="K19" s="227"/>
+      <c r="L19" s="227"/>
+      <c r="M19" s="227"/>
+      <c r="N19" s="172" t="s">
         <v>163</v>
       </c>
-      <c r="O19" s="144"/>
+      <c r="O19" s="140"/>
       <c r="P19" s="12"/>
-      <c r="Q19" s="144"/>
-      <c r="R19" s="144"/>
-      <c r="S19" s="144"/>
+      <c r="Q19" s="140"/>
+      <c r="R19" s="140"/>
+      <c r="S19" s="140"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
@@ -3455,20 +3436,20 @@
       <c r="X19" s="12"/>
     </row>
     <row r="20" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="111"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="116"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="112"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="177"/>
+      <c r="N20" s="173"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -3489,25 +3470,25 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="237" t="s">
+      <c r="I21" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="238"/>
-      <c r="K21" s="238"/>
-      <c r="L21" s="238"/>
+      <c r="J21" s="232"/>
+      <c r="K21" s="232"/>
+      <c r="L21" s="232"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="177"/>
+      <c r="N21" s="173"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="165"/>
-      <c r="V21" s="234" t="s">
+      <c r="U21" s="161"/>
+      <c r="V21" s="228" t="s">
         <v>150</v>
       </c>
-      <c r="W21" s="222" t="s">
+      <c r="W21" s="216" t="s">
         <v>149</v>
       </c>
       <c r="X21" s="12"/>
@@ -3520,34 +3501,34 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="243" t="s">
+      <c r="H22" s="25"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="237" t="s">
         <v>148</v>
       </c>
-      <c r="K22" s="243"/>
-      <c r="L22" s="243"/>
-      <c r="N22" s="245" t="s">
+      <c r="K22" s="237"/>
+      <c r="L22" s="237"/>
+      <c r="N22" s="239" t="s">
         <v>40</v>
       </c>
-      <c r="O22" s="246"/>
-      <c r="P22" s="246"/>
-      <c r="Q22" s="206" t="s">
+      <c r="O22" s="240"/>
+      <c r="P22" s="240"/>
+      <c r="Q22" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="R22" s="206"/>
-      <c r="S22" s="139" t="s">
+      <c r="R22" s="198"/>
+      <c r="S22" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="T22" s="139" t="s">
+      <c r="T22" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="U22" s="163">
+      <c r="U22" s="159">
         <f ca="1">TODAY()</f>
-        <v>43503</v>
-      </c>
-      <c r="V22" s="235"/>
-      <c r="W22" s="223"/>
+        <v>43505</v>
+      </c>
+      <c r="V22" s="229"/>
+      <c r="W22" s="217"/>
       <c r="X22" s="12"/>
     </row>
     <row r="23" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3558,24 +3539,24 @@
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="145"/>
-      <c r="K23" s="145"/>
-      <c r="L23" s="145" t="s">
+      <c r="H23" s="25"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="M23" s="119"/>
-      <c r="N23" s="178"/>
-      <c r="O23" s="119"/>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="119"/>
-      <c r="R23" s="119"/>
-      <c r="S23" s="119"/>
-      <c r="T23" s="119"/>
-      <c r="U23" s="119"/>
-      <c r="V23" s="235"/>
-      <c r="W23" s="223"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="174"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="115"/>
+      <c r="Q23" s="115"/>
+      <c r="R23" s="115"/>
+      <c r="S23" s="115"/>
+      <c r="T23" s="115"/>
+      <c r="U23" s="115"/>
+      <c r="V23" s="229"/>
+      <c r="W23" s="217"/>
       <c r="X23" s="12"/>
     </row>
     <row r="24" spans="1:24" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3587,34 +3568,34 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="231" t="s">
+      <c r="I24" s="225" t="s">
         <v>136</v>
       </c>
-      <c r="J24" s="231"/>
-      <c r="K24" s="231"/>
-      <c r="L24" s="231"/>
+      <c r="J24" s="225"/>
+      <c r="K24" s="225"/>
+      <c r="L24" s="225"/>
       <c r="M24" s="12"/>
-      <c r="N24" s="241" t="s">
+      <c r="N24" s="233" t="s">
         <v>14</v>
       </c>
-      <c r="O24" s="242"/>
-      <c r="P24" s="242"/>
-      <c r="Q24" s="143" t="s">
+      <c r="O24" s="234"/>
+      <c r="P24" s="234"/>
+      <c r="Q24" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="R24" s="143"/>
-      <c r="S24" s="143" t="s">
+      <c r="R24" s="139"/>
+      <c r="S24" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="T24" s="143" t="s">
+      <c r="T24" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="U24" s="163">
+      <c r="U24" s="159">
         <f ca="1">TODAY()</f>
-        <v>43503</v>
-      </c>
-      <c r="V24" s="235"/>
-      <c r="W24" s="223"/>
+        <v>43505</v>
+      </c>
+      <c r="V24" s="229"/>
+      <c r="W24" s="217"/>
       <c r="X24" s="12"/>
     </row>
     <row r="25" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3626,155 +3607,155 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="231" t="s">
+      <c r="I25" s="225" t="s">
         <v>137</v>
       </c>
-      <c r="J25" s="231"/>
-      <c r="K25" s="231"/>
-      <c r="L25" s="231"/>
+      <c r="J25" s="225"/>
+      <c r="K25" s="225"/>
+      <c r="L25" s="225"/>
       <c r="M25" s="12"/>
-      <c r="N25" s="241" t="s">
+      <c r="N25" s="233" t="s">
         <v>14</v>
       </c>
-      <c r="O25" s="242"/>
-      <c r="P25" s="242"/>
-      <c r="Q25" s="143" t="s">
+      <c r="O25" s="234"/>
+      <c r="P25" s="234"/>
+      <c r="Q25" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="R25" s="143"/>
-      <c r="S25" s="143" t="s">
+      <c r="R25" s="139"/>
+      <c r="S25" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="T25" s="143" t="s">
+      <c r="T25" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="U25" s="163">
+      <c r="U25" s="159">
         <f ca="1">TODAY()</f>
-        <v>43503</v>
-      </c>
-      <c r="V25" s="235"/>
-      <c r="W25" s="223"/>
+        <v>43505</v>
+      </c>
+      <c r="V25" s="229"/>
+      <c r="W25" s="217"/>
       <c r="X25" s="12"/>
     </row>
     <row r="26" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="117"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="231" t="s">
+      <c r="A26" s="113"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="225" t="s">
         <v>138</v>
       </c>
-      <c r="J26" s="231"/>
-      <c r="K26" s="231"/>
-      <c r="L26" s="231"/>
+      <c r="J26" s="225"/>
+      <c r="K26" s="225"/>
+      <c r="L26" s="225"/>
       <c r="M26" s="12"/>
-      <c r="N26" s="241" t="s">
+      <c r="N26" s="233" t="s">
         <v>14</v>
       </c>
-      <c r="O26" s="242"/>
-      <c r="P26" s="242"/>
-      <c r="Q26" s="143" t="s">
+      <c r="O26" s="234"/>
+      <c r="P26" s="234"/>
+      <c r="Q26" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="R26" s="143"/>
-      <c r="S26" s="143" t="s">
+      <c r="R26" s="139"/>
+      <c r="S26" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="T26" s="143" t="s">
+      <c r="T26" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="U26" s="163">
+      <c r="U26" s="159">
         <f ca="1">TODAY()</f>
-        <v>43503</v>
-      </c>
-      <c r="V26" s="236"/>
-      <c r="W26" s="223"/>
+        <v>43505</v>
+      </c>
+      <c r="V26" s="230"/>
+      <c r="W26" s="217"/>
       <c r="X26" s="12"/>
     </row>
     <row r="27" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="120"/>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="244"/>
-      <c r="J27" s="244"/>
-      <c r="K27" s="244"/>
-      <c r="L27" s="244"/>
-      <c r="M27" s="225"/>
-      <c r="N27" s="225"/>
-      <c r="O27" s="225"/>
-      <c r="P27" s="225"/>
-      <c r="Q27" s="208"/>
-      <c r="R27" s="208"/>
-      <c r="S27" s="143"/>
-      <c r="T27" s="143"/>
-      <c r="U27" s="143"/>
-      <c r="V27" s="143"/>
-      <c r="W27" s="223"/>
+      <c r="A27" s="116"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="238"/>
+      <c r="J27" s="238"/>
+      <c r="K27" s="238"/>
+      <c r="L27" s="238"/>
+      <c r="M27" s="219"/>
+      <c r="N27" s="219"/>
+      <c r="O27" s="219"/>
+      <c r="P27" s="219"/>
+      <c r="Q27" s="200"/>
+      <c r="R27" s="200"/>
+      <c r="S27" s="139"/>
+      <c r="T27" s="139"/>
+      <c r="U27" s="139"/>
+      <c r="V27" s="139"/>
+      <c r="W27" s="217"/>
       <c r="X27" s="12"/>
     </row>
     <row r="28" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="122"/>
-      <c r="B28" s="123"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="243" t="s">
+      <c r="A28" s="118"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="237" t="s">
         <v>135</v>
       </c>
-      <c r="K28" s="243"/>
-      <c r="L28" s="243"/>
+      <c r="K28" s="237"/>
+      <c r="L28" s="237"/>
       <c r="M28" s="12"/>
-      <c r="N28" s="241" t="s">
+      <c r="N28" s="233" t="s">
         <v>14</v>
       </c>
-      <c r="O28" s="242"/>
-      <c r="P28" s="242"/>
-      <c r="Q28" s="208" t="s">
+      <c r="O28" s="234"/>
+      <c r="P28" s="234"/>
+      <c r="Q28" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="R28" s="208"/>
-      <c r="S28" s="143" t="s">
+      <c r="R28" s="200"/>
+      <c r="S28" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="T28" s="143" t="s">
+      <c r="T28" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="U28" s="163">
+      <c r="U28" s="159">
         <f ca="1">TODAY()</f>
-        <v>43503</v>
-      </c>
-      <c r="V28" s="143"/>
-      <c r="W28" s="223"/>
+        <v>43505</v>
+      </c>
+      <c r="V28" s="139"/>
+      <c r="W28" s="217"/>
       <c r="X28" s="12"/>
     </row>
     <row r="29" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="199"/>
-      <c r="D29" s="199"/>
-      <c r="E29" s="199"/>
-      <c r="F29" s="199"/>
-      <c r="G29" s="124"/>
-      <c r="H29" s="28"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="191"/>
+      <c r="E29" s="191"/>
+      <c r="F29" s="191"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="25"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
-      <c r="N29" s="172"/>
+      <c r="N29" s="168"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
@@ -3782,17 +3763,17 @@
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
-      <c r="V29" s="128"/>
-      <c r="W29" s="224"/>
+      <c r="V29" s="124"/>
+      <c r="W29" s="218"/>
       <c r="X29" s="12"/>
     </row>
     <row r="30" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="122"/>
-      <c r="B30" s="123"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
+      <c r="A30" s="118"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
       <c r="I30" s="12"/>
@@ -3800,7 +3781,7 @@
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
-      <c r="N30" s="172"/>
+      <c r="N30" s="168"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
@@ -3815,10 +3796,10 @@
     <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="199"/>
-      <c r="D31" s="199"/>
-      <c r="E31" s="199"/>
-      <c r="F31" s="199"/>
+      <c r="C31" s="191"/>
+      <c r="D31" s="191"/>
+      <c r="E31" s="191"/>
+      <c r="F31" s="191"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -3826,7 +3807,7 @@
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
-      <c r="N31" s="172"/>
+      <c r="N31" s="168"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
@@ -3844,39 +3825,39 @@
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="207" t="s">
+      <c r="F32" s="199" t="s">
         <v>139</v>
       </c>
-      <c r="G32" s="207"/>
-      <c r="H32" s="207"/>
-      <c r="I32" s="207"/>
-      <c r="J32" s="207"/>
-      <c r="K32" s="207"/>
-      <c r="L32" s="207"/>
-      <c r="M32" s="143" t="s">
+      <c r="G32" s="199"/>
+      <c r="H32" s="199"/>
+      <c r="I32" s="199"/>
+      <c r="J32" s="199"/>
+      <c r="K32" s="199"/>
+      <c r="L32" s="199"/>
+      <c r="M32" s="139" t="s">
         <v>188</v>
       </c>
-      <c r="N32" s="178"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="206" t="s">
+      <c r="N32" s="174"/>
+      <c r="O32" s="115"/>
+      <c r="P32" s="115"/>
+      <c r="Q32" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="R32" s="206"/>
-      <c r="S32" s="139" t="s">
+      <c r="R32" s="198"/>
+      <c r="S32" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="T32" s="139" t="s">
+      <c r="T32" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="U32" s="163">
+      <c r="U32" s="159">
         <f ca="1">TODAY()</f>
-        <v>43503</v>
-      </c>
-      <c r="V32" s="193" t="s">
+        <v>43505</v>
+      </c>
+      <c r="V32" s="185" t="s">
         <v>147</v>
       </c>
-      <c r="W32" s="194"/>
+      <c r="W32" s="186"/>
       <c r="X32" s="12"/>
     </row>
     <row r="33" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3885,39 +3866,39 @@
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="207" t="s">
+      <c r="F33" s="199" t="s">
         <v>139</v>
       </c>
-      <c r="G33" s="207"/>
-      <c r="H33" s="207"/>
-      <c r="I33" s="207"/>
-      <c r="J33" s="207"/>
-      <c r="K33" s="207"/>
-      <c r="L33" s="207"/>
-      <c r="M33" s="143" t="s">
+      <c r="G33" s="199"/>
+      <c r="H33" s="199"/>
+      <c r="I33" s="199"/>
+      <c r="J33" s="199"/>
+      <c r="K33" s="199"/>
+      <c r="L33" s="199"/>
+      <c r="M33" s="139" t="s">
         <v>118</v>
       </c>
-      <c r="N33" s="178" t="s">
+      <c r="N33" s="174" t="s">
         <v>189</v>
       </c>
-      <c r="O33" s="119"/>
-      <c r="P33" s="119"/>
-      <c r="Q33" s="206" t="s">
+      <c r="O33" s="115"/>
+      <c r="P33" s="115"/>
+      <c r="Q33" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="R33" s="206"/>
-      <c r="S33" s="139" t="s">
+      <c r="R33" s="198"/>
+      <c r="S33" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="T33" s="139" t="s">
+      <c r="T33" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="U33" s="163">
+      <c r="U33" s="159">
         <f t="shared" ref="U33:U37" ca="1" si="0">TODAY()</f>
-        <v>43503</v>
-      </c>
-      <c r="V33" s="195"/>
-      <c r="W33" s="196"/>
+        <v>43505</v>
+      </c>
+      <c r="V33" s="187"/>
+      <c r="W33" s="188"/>
       <c r="X33" s="12"/>
     </row>
     <row r="34" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3926,39 +3907,39 @@
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="207" t="s">
+      <c r="F34" s="199" t="s">
         <v>140</v>
       </c>
-      <c r="G34" s="207"/>
-      <c r="H34" s="207"/>
-      <c r="I34" s="207"/>
-      <c r="J34" s="207"/>
-      <c r="K34" s="207"/>
-      <c r="L34" s="207"/>
-      <c r="M34" s="143" t="s">
+      <c r="G34" s="199"/>
+      <c r="H34" s="199"/>
+      <c r="I34" s="199"/>
+      <c r="J34" s="199"/>
+      <c r="K34" s="199"/>
+      <c r="L34" s="199"/>
+      <c r="M34" s="139" t="s">
         <v>141</v>
       </c>
-      <c r="N34" s="178"/>
-      <c r="O34" s="119" t="s">
+      <c r="N34" s="174"/>
+      <c r="O34" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="P34" s="119"/>
-      <c r="Q34" s="206" t="s">
+      <c r="P34" s="115"/>
+      <c r="Q34" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="R34" s="206"/>
-      <c r="S34" s="139" t="s">
+      <c r="R34" s="198"/>
+      <c r="S34" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="T34" s="139" t="s">
+      <c r="T34" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="U34" s="163">
+      <c r="U34" s="159">
         <f t="shared" ca="1" si="0"/>
-        <v>43503</v>
-      </c>
-      <c r="V34" s="195"/>
-      <c r="W34" s="196"/>
+        <v>43505</v>
+      </c>
+      <c r="V34" s="187"/>
+      <c r="W34" s="188"/>
       <c r="X34" s="12"/>
     </row>
     <row r="35" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3974,28 +3955,28 @@
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
-      <c r="M35" s="221" t="s">
+      <c r="M35" s="215" t="s">
         <v>190</v>
       </c>
-      <c r="N35" s="221"/>
-      <c r="O35" s="221"/>
-      <c r="P35" s="221"/>
-      <c r="Q35" s="206" t="s">
+      <c r="N35" s="215"/>
+      <c r="O35" s="215"/>
+      <c r="P35" s="215"/>
+      <c r="Q35" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="R35" s="206"/>
-      <c r="S35" s="139" t="s">
+      <c r="R35" s="198"/>
+      <c r="S35" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="T35" s="139" t="s">
+      <c r="T35" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="U35" s="163">
+      <c r="U35" s="159">
         <f t="shared" ca="1" si="0"/>
-        <v>43503</v>
-      </c>
-      <c r="V35" s="195"/>
-      <c r="W35" s="196"/>
+        <v>43505</v>
+      </c>
+      <c r="V35" s="187"/>
+      <c r="W35" s="188"/>
       <c r="X35" s="12"/>
     </row>
     <row r="36" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -4003,66 +3984,66 @@
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="125"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="121"/>
       <c r="G36" s="12"/>
-      <c r="H36" s="126"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="126"/>
-      <c r="K36" s="126"/>
-      <c r="L36" s="126"/>
-      <c r="M36" s="218"/>
-      <c r="N36" s="218"/>
-      <c r="O36" s="119"/>
-      <c r="P36" s="119"/>
-      <c r="Q36" s="206"/>
-      <c r="R36" s="206"/>
-      <c r="S36" s="139"/>
-      <c r="T36" s="139"/>
-      <c r="U36" s="163"/>
-      <c r="V36" s="195"/>
-      <c r="W36" s="196"/>
+      <c r="H36" s="122"/>
+      <c r="I36" s="122"/>
+      <c r="J36" s="122"/>
+      <c r="K36" s="122"/>
+      <c r="L36" s="122"/>
+      <c r="M36" s="212"/>
+      <c r="N36" s="212"/>
+      <c r="O36" s="115"/>
+      <c r="P36" s="115"/>
+      <c r="Q36" s="198"/>
+      <c r="R36" s="198"/>
+      <c r="S36" s="135"/>
+      <c r="T36" s="135"/>
+      <c r="U36" s="159"/>
+      <c r="V36" s="187"/>
+      <c r="W36" s="188"/>
       <c r="X36" s="12"/>
     </row>
     <row r="37" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="219" t="s">
+      <c r="D37" s="213" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="219"/>
-      <c r="F37" s="219"/>
-      <c r="G37" s="219"/>
-      <c r="H37" s="219"/>
-      <c r="I37" s="219"/>
-      <c r="J37" s="219"/>
-      <c r="K37" s="219"/>
-      <c r="L37" s="220" t="s">
+      <c r="E37" s="213"/>
+      <c r="F37" s="213"/>
+      <c r="G37" s="213"/>
+      <c r="H37" s="213"/>
+      <c r="I37" s="213"/>
+      <c r="J37" s="213"/>
+      <c r="K37" s="213"/>
+      <c r="L37" s="214" t="s">
         <v>144</v>
       </c>
-      <c r="M37" s="220"/>
-      <c r="N37" s="220"/>
-      <c r="O37" s="119" t="s">
+      <c r="M37" s="214"/>
+      <c r="N37" s="214"/>
+      <c r="O37" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="P37" s="119"/>
-      <c r="Q37" s="206" t="s">
+      <c r="P37" s="115"/>
+      <c r="Q37" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="R37" s="206"/>
-      <c r="S37" s="139" t="s">
+      <c r="R37" s="198"/>
+      <c r="S37" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="T37" s="139" t="s">
+      <c r="T37" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="U37" s="163">
+      <c r="U37" s="159">
         <f t="shared" ca="1" si="0"/>
-        <v>43503</v>
-      </c>
-      <c r="V37" s="197"/>
-      <c r="W37" s="198"/>
+        <v>43505</v>
+      </c>
+      <c r="V37" s="189"/>
+      <c r="W37" s="190"/>
       <c r="X37" s="12"/>
     </row>
     <row r="38" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4079,7 +4060,7 @@
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
-      <c r="N38" s="179"/>
+      <c r="N38" s="175"/>
       <c r="O38" s="14"/>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
@@ -4105,7 +4086,7 @@
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
-      <c r="N39" s="172"/>
+      <c r="N39" s="168"/>
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
@@ -4131,7 +4112,7 @@
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
-      <c r="N40" s="172"/>
+      <c r="N40" s="168"/>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
@@ -4157,7 +4138,7 @@
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
-      <c r="N41" s="172"/>
+      <c r="N41" s="168"/>
       <c r="O41" s="12"/>
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
@@ -4170,10 +4151,7 @@
       <c r="X41" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
+  <mergeCells count="73">
     <mergeCell ref="N28:P28"/>
     <mergeCell ref="J22:L22"/>
     <mergeCell ref="J28:L28"/>
@@ -4181,6 +4159,8 @@
     <mergeCell ref="I27:L27"/>
     <mergeCell ref="I26:L26"/>
     <mergeCell ref="N22:P22"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="V21:V26"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="I21:L21"/>
@@ -4188,6 +4168,12 @@
     <mergeCell ref="J13:M13"/>
     <mergeCell ref="J14:M14"/>
     <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N17:V17"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="M35:P35"/>
     <mergeCell ref="W21:W29"/>
     <mergeCell ref="M27:P27"/>
     <mergeCell ref="I2:N2"/>
@@ -4202,16 +4188,12 @@
     <mergeCell ref="J17:M17"/>
     <mergeCell ref="J18:M18"/>
     <mergeCell ref="J19:M19"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="V21:V26"/>
-    <mergeCell ref="F33:L33"/>
     <mergeCell ref="Q36:R36"/>
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="D37:K37"/>
     <mergeCell ref="Q37:R37"/>
     <mergeCell ref="L37:N37"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="Q33:R33"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
@@ -4226,6 +4208,7 @@
     <mergeCell ref="F12:F18"/>
     <mergeCell ref="G12:G15"/>
     <mergeCell ref="G16:G18"/>
+    <mergeCell ref="F33:L33"/>
     <mergeCell ref="V32:W37"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="S5:T5"/>
@@ -4241,7 +4224,7 @@
     <mergeCell ref="F34:L34"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="N12:V12"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0"/>
@@ -4259,9 +4242,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="51" zoomScaleNormal="70" zoomScaleSheetLayoutView="51" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="51" zoomScaleNormal="70" zoomScaleSheetLayoutView="51" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -4269,34 +4252,35 @@
   <cols>
     <col min="1" max="1" width="12.625" style="1" customWidth="1"/>
     <col min="2" max="3" width="10.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="104.75" style="181" customWidth="1"/>
-    <col min="5" max="5" width="20.75" style="181"/>
-    <col min="6" max="6" width="25.75" style="181" customWidth="1"/>
-    <col min="7" max="7" width="14.75" style="181" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="192" customWidth="1"/>
-    <col min="9" max="10" width="15.75" style="181" customWidth="1"/>
-    <col min="11" max="11" width="18.5" style="181" customWidth="1"/>
-    <col min="12" max="12" width="20.5" style="181" customWidth="1"/>
-    <col min="13" max="13" width="23.875" style="187" customWidth="1"/>
+    <col min="4" max="4" width="104.75" style="177" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="177"/>
+    <col min="6" max="6" width="25.75" style="177" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="177" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="184" customWidth="1"/>
+    <col min="9" max="9" width="22" style="177" customWidth="1"/>
+    <col min="10" max="10" width="15.75" style="177" customWidth="1"/>
+    <col min="11" max="11" width="18.5" style="177" customWidth="1"/>
+    <col min="12" max="12" width="20.5" style="177" customWidth="1"/>
+    <col min="13" max="13" width="23.875" style="181" customWidth="1"/>
     <col min="14" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="55.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="241" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
-      <c r="E1" s="248"/>
-      <c r="F1" s="248"/>
-      <c r="G1" s="248"/>
-      <c r="H1" s="248"/>
-      <c r="I1" s="248"/>
-      <c r="J1" s="248"/>
-      <c r="K1" s="248"/>
-      <c r="L1" s="248"/>
-      <c r="M1" s="249"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="243"/>
     </row>
     <row r="2" spans="1:13" ht="184.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
@@ -4320,7 +4304,7 @@
       <c r="G2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="189" t="s">
+      <c r="H2" s="182" t="s">
         <v>90</v>
       </c>
       <c r="I2" s="17" t="s">
@@ -4359,7 +4343,7 @@
       <c r="G3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="190">
+      <c r="H3" s="183">
         <v>14</v>
       </c>
       <c r="I3" s="21"/>
@@ -4372,7 +4356,7 @@
       <c r="L3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="184" t="s">
+      <c r="M3" s="179" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4384,162 +4368,12 @@
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
-      <c r="H4" s="190"/>
-      <c r="I4" s="182"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="178"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
-      <c r="M4" s="185"/>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="23"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="190"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="185"/>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="23"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="190"/>
-      <c r="I6" s="182"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="185"/>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="23"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="190"/>
-      <c r="I7" s="182"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="185"/>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="23"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="190"/>
-      <c r="I8" s="182"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="185"/>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="23"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="190"/>
-      <c r="I9" s="182"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="185"/>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="23"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="190"/>
-      <c r="I10" s="182"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="185"/>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="23"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="190"/>
-      <c r="I11" s="182"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="185"/>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="23"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="190"/>
-      <c r="I12" s="182"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="185"/>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="23"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="190"/>
-      <c r="I13" s="182"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="185"/>
-    </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="188"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="191"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="186"/>
+      <c r="M4" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4556,603 +4390,603 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="92" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="92" customWidth="1"/>
-    <col min="3" max="4" width="11.125" style="92" customWidth="1"/>
-    <col min="5" max="5" width="44.375" style="92" customWidth="1"/>
-    <col min="6" max="12" width="13.75" style="92" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="92"/>
+    <col min="1" max="1" width="11.125" style="89" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="89" customWidth="1"/>
+    <col min="3" max="4" width="11.125" style="89" customWidth="1"/>
+    <col min="5" max="5" width="44.375" style="89" customWidth="1"/>
+    <col min="6" max="12" width="13.75" style="89" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="89"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="102" t="s">
+      <c r="F1" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="250" t="s">
+      <c r="G1" s="244" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="251"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="102" t="s">
+      <c r="H1" s="245"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="102" t="s">
+      <c r="K1" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="102" t="s">
+      <c r="L1" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="M1" s="102" t="s">
+      <c r="M1" s="99" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="101" t="s">
+      <c r="F2" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="99" t="s">
+      <c r="H2" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="98" t="s">
+      <c r="I2" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="97" t="s">
+      <c r="J2" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="96" t="s">
+      <c r="K2" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="L2" s="96" t="s">
+      <c r="L2" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="95" t="s">
+      <c r="M2" s="92" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94" t="s">
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="94" t="s">
+      <c r="L3" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="M3" s="94" t="s">
+      <c r="M3" s="91" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="93"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
     </row>
     <row r="5" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="93"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
     </row>
     <row r="6" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="93"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
     </row>
     <row r="7" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="93"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
     </row>
     <row r="8" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
     </row>
     <row r="9" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="93"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
     </row>
     <row r="10" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
     </row>
     <row r="11" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="93"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
     </row>
     <row r="12" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="93"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
     </row>
     <row r="13" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="93"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
+      <c r="A13" s="90"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
     </row>
     <row r="14" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="93"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
+      <c r="A14" s="90"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
     </row>
     <row r="15" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="93"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
     </row>
     <row r="16" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="93"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
     </row>
     <row r="17" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="93"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
+      <c r="A17" s="90"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
     </row>
     <row r="18" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="93"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
     </row>
     <row r="19" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="93"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
     </row>
     <row r="20" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="93"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
     </row>
     <row r="21" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="A21" s="90"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
     </row>
     <row r="22" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="93"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
+      <c r="A22" s="90"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
     </row>
     <row r="23" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="93"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
     </row>
     <row r="24" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="93"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
     </row>
     <row r="25" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="93"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
     </row>
     <row r="26" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="93"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="93"/>
+      <c r="A26" s="90"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="90"/>
     </row>
     <row r="27" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="93"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
+      <c r="A27" s="90"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="90"/>
     </row>
     <row r="28" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="93"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="93"/>
-      <c r="M28" s="93"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
     </row>
     <row r="29" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="93"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="93"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="90"/>
     </row>
     <row r="30" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="93"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
+      <c r="A30" s="90"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="90"/>
     </row>
     <row r="31" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="93"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="93"/>
-      <c r="L31" s="93"/>
-      <c r="M31" s="93"/>
+      <c r="A31" s="90"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="90"/>
     </row>
     <row r="32" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="93"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="93"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="93"/>
+      <c r="A32" s="90"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="90"/>
     </row>
     <row r="33" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="93"/>
-      <c r="B33" s="93"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="93"/>
+      <c r="A33" s="90"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
     </row>
     <row r="34" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="93"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="93"/>
+      <c r="A34" s="90"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="90"/>
     </row>
     <row r="35" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="93"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="93"/>
-      <c r="L35" s="93"/>
-      <c r="M35" s="93"/>
+      <c r="A35" s="90"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="90"/>
+      <c r="M35" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5169,10 +5003,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="K30" sqref="K30:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5187,26 +5021,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="162"/>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="161"/>
-      <c r="R1" s="161"/>
-      <c r="S1" s="161"/>
-      <c r="T1" s="160"/>
+      <c r="A1" s="158"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="157"/>
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="157"/>
+      <c r="S1" s="157"/>
+      <c r="T1" s="156"/>
     </row>
     <row r="2" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
@@ -5215,12 +5049,12 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="253" t="s">
+      <c r="G2" s="247" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
+      <c r="H2" s="248"/>
+      <c r="I2" s="248"/>
+      <c r="J2" s="248"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -5229,64 +5063,64 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
-      <c r="S2" s="140"/>
+      <c r="S2" s="136"/>
       <c r="T2" s="6"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="262" t="s">
+      <c r="A3" s="256" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="263"/>
-      <c r="C3" s="263"/>
-      <c r="D3" s="263"/>
-      <c r="E3" s="263"/>
-      <c r="F3" s="263"/>
-      <c r="G3" s="263"/>
-      <c r="H3" s="263"/>
-      <c r="I3" s="263"/>
-      <c r="J3" s="263"/>
-      <c r="K3" s="241" t="s">
+      <c r="B3" s="257"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="257"/>
+      <c r="G3" s="257"/>
+      <c r="H3" s="257"/>
+      <c r="I3" s="257"/>
+      <c r="J3" s="257"/>
+      <c r="K3" s="233" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="241"/>
-      <c r="M3" s="241"/>
-      <c r="N3" s="241"/>
-      <c r="O3" s="206" t="s">
+      <c r="L3" s="233"/>
+      <c r="M3" s="233"/>
+      <c r="N3" s="233"/>
+      <c r="O3" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="139" t="s">
+      <c r="P3" s="198"/>
+      <c r="Q3" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="139" t="s">
+      <c r="R3" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="164">
+      <c r="S3" s="160">
         <f ca="1">TODAY()</f>
-        <v>43503</v>
+        <v>43505</v>
       </c>
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="159"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="158"/>
-      <c r="P4" s="158"/>
-      <c r="Q4" s="158"/>
-      <c r="R4" s="158"/>
-      <c r="S4" s="158"/>
+      <c r="A4" s="155"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="154"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="154"/>
+      <c r="S4" s="154"/>
       <c r="T4" s="6"/>
     </row>
     <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
@@ -5312,11 +5146,11 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="264" t="s">
+      <c r="A6" s="258" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="265"/>
-      <c r="C6" s="265"/>
+      <c r="B6" s="259"/>
+      <c r="C6" s="259"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -5336,11 +5170,11 @@
       <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="264" t="s">
+      <c r="A7" s="258" t="s">
         <v>185</v>
       </c>
-      <c r="B7" s="265"/>
-      <c r="C7" s="265"/>
+      <c r="B7" s="259"/>
+      <c r="C7" s="259"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -5360,11 +5194,11 @@
       <c r="T7" s="6"/>
     </row>
     <row r="8" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="264" t="s">
+      <c r="A8" s="258" t="s">
         <v>184</v>
       </c>
-      <c r="B8" s="265"/>
-      <c r="C8" s="265"/>
+      <c r="B8" s="259"/>
+      <c r="C8" s="259"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -5454,20 +5288,20 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="267" t="s">
+      <c r="E12" s="262" t="s">
         <v>183</v>
       </c>
-      <c r="F12" s="268"/>
-      <c r="G12" s="268"/>
-      <c r="H12" s="268"/>
-      <c r="I12" s="268"/>
-      <c r="J12" s="268"/>
-      <c r="K12" s="268"/>
-      <c r="L12" s="268"/>
-      <c r="M12" s="268"/>
-      <c r="N12" s="268"/>
-      <c r="O12" s="268"/>
-      <c r="P12" s="268"/>
+      <c r="F12" s="263"/>
+      <c r="G12" s="263"/>
+      <c r="H12" s="263"/>
+      <c r="I12" s="263"/>
+      <c r="J12" s="263"/>
+      <c r="K12" s="263"/>
+      <c r="L12" s="263"/>
+      <c r="M12" s="263"/>
+      <c r="N12" s="263"/>
+      <c r="O12" s="263"/>
+      <c r="P12" s="263"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -5478,18 +5312,18 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="268"/>
-      <c r="F13" s="268"/>
-      <c r="G13" s="268"/>
-      <c r="H13" s="268"/>
-      <c r="I13" s="268"/>
-      <c r="J13" s="268"/>
-      <c r="K13" s="268"/>
-      <c r="L13" s="268"/>
-      <c r="M13" s="268"/>
-      <c r="N13" s="268"/>
-      <c r="O13" s="268"/>
-      <c r="P13" s="268"/>
+      <c r="E13" s="263"/>
+      <c r="F13" s="263"/>
+      <c r="G13" s="263"/>
+      <c r="H13" s="263"/>
+      <c r="I13" s="263"/>
+      <c r="J13" s="263"/>
+      <c r="K13" s="263"/>
+      <c r="L13" s="263"/>
+      <c r="M13" s="263"/>
+      <c r="N13" s="263"/>
+      <c r="O13" s="263"/>
+      <c r="P13" s="263"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
@@ -5500,18 +5334,18 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="268"/>
-      <c r="F14" s="268"/>
-      <c r="G14" s="268"/>
-      <c r="H14" s="268"/>
-      <c r="I14" s="268"/>
-      <c r="J14" s="268"/>
-      <c r="K14" s="268"/>
-      <c r="L14" s="268"/>
-      <c r="M14" s="268"/>
-      <c r="N14" s="268"/>
-      <c r="O14" s="268"/>
-      <c r="P14" s="268"/>
+      <c r="E14" s="263"/>
+      <c r="F14" s="263"/>
+      <c r="G14" s="263"/>
+      <c r="H14" s="263"/>
+      <c r="I14" s="263"/>
+      <c r="J14" s="263"/>
+      <c r="K14" s="263"/>
+      <c r="L14" s="263"/>
+      <c r="M14" s="263"/>
+      <c r="N14" s="263"/>
+      <c r="O14" s="263"/>
+      <c r="P14" s="263"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
@@ -5522,46 +5356,46 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="157"/>
-      <c r="K15" s="157"/>
-      <c r="L15" s="157"/>
-      <c r="M15" s="157"/>
-      <c r="N15" s="157"/>
-      <c r="O15" s="157"/>
-      <c r="P15" s="157"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="153"/>
+      <c r="M15" s="153"/>
+      <c r="N15" s="153"/>
+      <c r="O15" s="153"/>
+      <c r="P15" s="153"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="6"/>
     </row>
-    <row r="16" spans="1:20" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="232" t="s">
+      <c r="F16" s="226" t="s">
         <v>182</v>
       </c>
-      <c r="G16" s="261"/>
-      <c r="H16" s="261"/>
-      <c r="I16" s="261"/>
-      <c r="J16" s="259" t="str">
+      <c r="G16" s="255"/>
+      <c r="H16" s="255"/>
+      <c r="I16" s="255"/>
+      <c r="J16" s="261" t="str">
         <f>'лист титульный КД'!N12</f>
         <v>Иванов И.И</v>
       </c>
-      <c r="K16" s="259"/>
-      <c r="L16" s="259"/>
-      <c r="M16" s="259"/>
-      <c r="N16" s="259"/>
-      <c r="O16" s="259"/>
-      <c r="P16" s="259"/>
-      <c r="Q16" s="259"/>
+      <c r="K16" s="261"/>
+      <c r="L16" s="261"/>
+      <c r="M16" s="261"/>
+      <c r="N16" s="261"/>
+      <c r="O16" s="261"/>
+      <c r="P16" s="261"/>
+      <c r="Q16" s="261"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="6"/>
@@ -5572,23 +5406,23 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="232" t="s">
+      <c r="F17" s="226" t="s">
         <v>181</v>
       </c>
-      <c r="G17" s="261"/>
-      <c r="H17" s="261"/>
-      <c r="I17" s="261"/>
-      <c r="J17" s="259" t="str">
+      <c r="G17" s="255"/>
+      <c r="H17" s="255"/>
+      <c r="I17" s="255"/>
+      <c r="J17" s="253" t="str">
         <f>'лист титульный КД'!N13</f>
         <v>Петров П.П.</v>
       </c>
-      <c r="K17" s="259"/>
-      <c r="L17" s="259"/>
-      <c r="M17" s="259"/>
-      <c r="N17" s="259"/>
-      <c r="O17" s="259"/>
-      <c r="P17" s="259"/>
-      <c r="Q17" s="259"/>
+      <c r="K17" s="253"/>
+      <c r="L17" s="253"/>
+      <c r="M17" s="253"/>
+      <c r="N17" s="253"/>
+      <c r="O17" s="253"/>
+      <c r="P17" s="253"/>
+      <c r="Q17" s="253"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="6"/>
@@ -5599,23 +5433,23 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="232" t="s">
+      <c r="F18" s="226" t="s">
         <v>180</v>
       </c>
-      <c r="G18" s="261"/>
-      <c r="H18" s="261"/>
-      <c r="I18" s="261"/>
-      <c r="J18" s="259" t="str">
+      <c r="G18" s="255"/>
+      <c r="H18" s="255"/>
+      <c r="I18" s="255"/>
+      <c r="J18" s="253" t="str">
         <f>'лист титульный КД'!N14</f>
         <v>г. Москва, ул. Нарвская, д.2</v>
       </c>
-      <c r="K18" s="259"/>
-      <c r="L18" s="259"/>
-      <c r="M18" s="259"/>
-      <c r="N18" s="259"/>
-      <c r="O18" s="259"/>
-      <c r="P18" s="259"/>
-      <c r="Q18" s="259"/>
+      <c r="K18" s="253"/>
+      <c r="L18" s="253"/>
+      <c r="M18" s="253"/>
+      <c r="N18" s="253"/>
+      <c r="O18" s="253"/>
+      <c r="P18" s="253"/>
+      <c r="Q18" s="253"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="6"/>
@@ -5626,23 +5460,23 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="232" t="s">
+      <c r="F19" s="226" t="s">
         <v>179</v>
       </c>
-      <c r="G19" s="261"/>
-      <c r="H19" s="261"/>
-      <c r="I19" s="261"/>
-      <c r="J19" s="259" t="str">
+      <c r="G19" s="255"/>
+      <c r="H19" s="255"/>
+      <c r="I19" s="255"/>
+      <c r="J19" s="253" t="str">
         <f>'лист титульный КД'!N15</f>
         <v>восьмой</v>
       </c>
-      <c r="K19" s="259"/>
-      <c r="L19" s="259"/>
-      <c r="M19" s="259"/>
-      <c r="N19" s="259"/>
-      <c r="O19" s="259"/>
-      <c r="P19" s="259"/>
-      <c r="Q19" s="259"/>
+      <c r="K19" s="253"/>
+      <c r="L19" s="253"/>
+      <c r="M19" s="253"/>
+      <c r="N19" s="253"/>
+      <c r="O19" s="253"/>
+      <c r="P19" s="253"/>
+      <c r="Q19" s="253"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="6"/>
@@ -5653,50 +5487,50 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="232" t="s">
+      <c r="F20" s="226" t="s">
         <v>178</v>
       </c>
-      <c r="G20" s="261"/>
-      <c r="H20" s="261"/>
-      <c r="I20" s="261"/>
-      <c r="J20" s="259" t="str">
+      <c r="G20" s="255"/>
+      <c r="H20" s="255"/>
+      <c r="I20" s="255"/>
+      <c r="J20" s="253" t="str">
         <f>'лист титульный КД'!N16</f>
         <v>кухня</v>
       </c>
-      <c r="K20" s="259"/>
-      <c r="L20" s="259"/>
-      <c r="M20" s="259"/>
-      <c r="N20" s="259"/>
-      <c r="O20" s="259"/>
-      <c r="P20" s="259"/>
-      <c r="Q20" s="259"/>
+      <c r="K20" s="253"/>
+      <c r="L20" s="253"/>
+      <c r="M20" s="253"/>
+      <c r="N20" s="253"/>
+      <c r="O20" s="253"/>
+      <c r="P20" s="253"/>
+      <c r="Q20" s="253"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="6"/>
     </row>
-    <row r="21" spans="1:20" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="232" t="s">
+      <c r="F21" s="226" t="s">
         <v>177</v>
       </c>
-      <c r="G21" s="261"/>
-      <c r="H21" s="261"/>
-      <c r="I21" s="261"/>
-      <c r="J21" s="259" t="str">
+      <c r="G21" s="255"/>
+      <c r="H21" s="255"/>
+      <c r="I21" s="255"/>
+      <c r="J21" s="261" t="str">
         <f>'лист титульный КД'!N17</f>
         <v>гарнитур кухонный, дверной блок</v>
       </c>
-      <c r="K21" s="259"/>
-      <c r="L21" s="259"/>
-      <c r="M21" s="259"/>
-      <c r="N21" s="259"/>
-      <c r="O21" s="259"/>
-      <c r="P21" s="259"/>
-      <c r="Q21" s="259"/>
+      <c r="K21" s="261"/>
+      <c r="L21" s="261"/>
+      <c r="M21" s="261"/>
+      <c r="N21" s="261"/>
+      <c r="O21" s="261"/>
+      <c r="P21" s="261"/>
+      <c r="Q21" s="261"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="6"/>
@@ -5707,23 +5541,23 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="232" t="s">
+      <c r="F22" s="226" t="s">
         <v>176</v>
       </c>
-      <c r="G22" s="261"/>
-      <c r="H22" s="261"/>
-      <c r="I22" s="261"/>
-      <c r="J22" s="259">
+      <c r="G22" s="255"/>
+      <c r="H22" s="255"/>
+      <c r="I22" s="255"/>
+      <c r="J22" s="253">
         <f>'лист титульный КД'!N18</f>
         <v>500</v>
       </c>
-      <c r="K22" s="259"/>
-      <c r="L22" s="259"/>
-      <c r="M22" s="259"/>
-      <c r="N22" s="259"/>
-      <c r="O22" s="259"/>
-      <c r="P22" s="259"/>
-      <c r="Q22" s="259"/>
+      <c r="K22" s="253"/>
+      <c r="L22" s="253"/>
+      <c r="M22" s="253"/>
+      <c r="N22" s="253"/>
+      <c r="O22" s="253"/>
+      <c r="P22" s="253"/>
+      <c r="Q22" s="253"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="6"/>
@@ -5734,23 +5568,23 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="232" t="s">
+      <c r="F23" s="226" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="261"/>
-      <c r="H23" s="261"/>
-      <c r="I23" s="261"/>
-      <c r="J23" s="259" t="str">
+      <c r="G23" s="255"/>
+      <c r="H23" s="255"/>
+      <c r="I23" s="255"/>
+      <c r="J23" s="253" t="str">
         <f>'лист титульный КД'!N19</f>
         <v>1-15,16</v>
       </c>
-      <c r="K23" s="259"/>
-      <c r="L23" s="259"/>
-      <c r="M23" s="259"/>
-      <c r="N23" s="259"/>
-      <c r="O23" s="259"/>
-      <c r="P23" s="259"/>
-      <c r="Q23" s="259"/>
+      <c r="K23" s="253"/>
+      <c r="L23" s="253"/>
+      <c r="M23" s="253"/>
+      <c r="N23" s="253"/>
+      <c r="O23" s="253"/>
+      <c r="P23" s="253"/>
+      <c r="Q23" s="253"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="6"/>
@@ -5865,17 +5699,19 @@
       <c r="S28" s="5"/>
       <c r="T28" s="6"/>
     </row>
-    <row r="29" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="G29" s="254" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="250"/>
+      <c r="I29" s="250"/>
+      <c r="J29" s="250"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -5884,32 +5720,46 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
+      <c r="S29" s="136"/>
       <c r="T29" s="6"/>
     </row>
-    <row r="30" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="6"/>
-    </row>
-    <row r="31" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" s="150" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="249" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30" s="250"/>
+      <c r="C30" s="250"/>
+      <c r="D30" s="250"/>
+      <c r="E30" s="250"/>
+      <c r="F30" s="250"/>
+      <c r="G30" s="250"/>
+      <c r="H30" s="250"/>
+      <c r="I30" s="250"/>
+      <c r="J30" s="250"/>
+      <c r="K30" s="252" t="str">
+        <f>builder</f>
+        <v>_____________</v>
+      </c>
+      <c r="L30" s="252"/>
+      <c r="M30" s="252"/>
+      <c r="N30" s="252"/>
+      <c r="O30" s="252" t="s">
+        <v>15</v>
+      </c>
+      <c r="P30" s="252"/>
+      <c r="Q30" s="152" t="s">
+        <v>13</v>
+      </c>
+      <c r="R30" s="152" t="s">
+        <v>13</v>
+      </c>
+      <c r="S30" s="160">
+        <f ca="1">TODAY()</f>
+        <v>43505</v>
+      </c>
+      <c r="T30" s="151"/>
+    </row>
+    <row r="31" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -5917,18 +5767,18 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="142"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
+      <c r="Q31" s="143"/>
+      <c r="R31" s="143"/>
+      <c r="S31" s="136"/>
       <c r="T31" s="6"/>
     </row>
     <row r="32" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5938,217 +5788,136 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="260" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="256"/>
-      <c r="I32" s="256"/>
-      <c r="J32" s="256"/>
+      <c r="G32" s="254" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="250"/>
+      <c r="I32" s="250"/>
+      <c r="J32" s="250"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="140"/>
+      <c r="Q32" s="143"/>
+      <c r="R32" s="143"/>
+      <c r="S32" s="136"/>
       <c r="T32" s="6"/>
     </row>
-    <row r="33" spans="1:20" s="154" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="255" t="s">
-        <v>187</v>
-      </c>
-      <c r="B33" s="256"/>
-      <c r="C33" s="256"/>
-      <c r="D33" s="256"/>
-      <c r="E33" s="256"/>
-      <c r="F33" s="256"/>
-      <c r="G33" s="256"/>
-      <c r="H33" s="256"/>
-      <c r="I33" s="256"/>
-      <c r="J33" s="256"/>
-      <c r="K33" s="257" t="s">
+    <row r="33" spans="1:20" s="150" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="260" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="250"/>
+      <c r="C33" s="250"/>
+      <c r="D33" s="250"/>
+      <c r="E33" s="250"/>
+      <c r="F33" s="250"/>
+      <c r="G33" s="250"/>
+      <c r="H33" s="250"/>
+      <c r="I33" s="250"/>
+      <c r="J33" s="250"/>
+      <c r="K33" s="251" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="257"/>
-      <c r="M33" s="257"/>
-      <c r="N33" s="257"/>
-      <c r="O33" s="258" t="s">
+      <c r="L33" s="251"/>
+      <c r="M33" s="251"/>
+      <c r="N33" s="251"/>
+      <c r="O33" s="252" t="s">
         <v>15</v>
       </c>
-      <c r="P33" s="258"/>
-      <c r="Q33" s="156" t="s">
+      <c r="P33" s="252"/>
+      <c r="Q33" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="R33" s="156" t="s">
+      <c r="R33" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="S33" s="164">
+      <c r="S33" s="160">
         <f ca="1">TODAY()</f>
-        <v>43503</v>
-      </c>
-      <c r="T33" s="155"/>
-    </row>
-    <row r="34" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="146"/>
-      <c r="I34" s="146"/>
-      <c r="J34" s="146"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="147"/>
-      <c r="R34" s="147"/>
-      <c r="S34" s="140"/>
-      <c r="T34" s="6"/>
-    </row>
-    <row r="35" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>43505</v>
+      </c>
+      <c r="T33" s="151"/>
+    </row>
+    <row r="34" spans="1:20" s="150" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="260" t="s">
+        <v>173</v>
+      </c>
+      <c r="B34" s="250"/>
+      <c r="C34" s="250"/>
+      <c r="D34" s="250"/>
+      <c r="E34" s="250"/>
+      <c r="F34" s="250"/>
+      <c r="G34" s="250"/>
+      <c r="H34" s="250"/>
+      <c r="I34" s="250"/>
+      <c r="J34" s="250"/>
+      <c r="K34" s="251" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="251"/>
+      <c r="M34" s="251"/>
+      <c r="N34" s="251"/>
+      <c r="O34" s="252" t="s">
+        <v>15</v>
+      </c>
+      <c r="P34" s="252"/>
+      <c r="Q34" s="152" t="s">
+        <v>13</v>
+      </c>
+      <c r="R34" s="152" t="s">
+        <v>13</v>
+      </c>
+      <c r="S34" s="160">
+        <f ca="1">TODAY()</f>
+        <v>43505</v>
+      </c>
+      <c r="T34" s="151"/>
+    </row>
+    <row r="35" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="260" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="256"/>
-      <c r="I35" s="256"/>
-      <c r="J35" s="256"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="142"/>
+      <c r="I35" s="142"/>
+      <c r="J35" s="142"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
-      <c r="Q35" s="147"/>
-      <c r="R35" s="147"/>
-      <c r="S35" s="140"/>
+      <c r="Q35" s="143"/>
+      <c r="R35" s="143"/>
+      <c r="S35" s="136"/>
       <c r="T35" s="6"/>
     </row>
-    <row r="36" spans="1:20" s="154" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="266" t="s">
-        <v>174</v>
-      </c>
-      <c r="B36" s="256"/>
-      <c r="C36" s="256"/>
-      <c r="D36" s="256"/>
-      <c r="E36" s="256"/>
-      <c r="F36" s="256"/>
-      <c r="G36" s="256"/>
-      <c r="H36" s="256"/>
-      <c r="I36" s="256"/>
-      <c r="J36" s="256"/>
-      <c r="K36" s="257" t="s">
-        <v>14</v>
-      </c>
-      <c r="L36" s="257"/>
-      <c r="M36" s="257"/>
-      <c r="N36" s="257"/>
-      <c r="O36" s="258" t="s">
-        <v>15</v>
-      </c>
-      <c r="P36" s="258"/>
-      <c r="Q36" s="156" t="s">
-        <v>13</v>
-      </c>
-      <c r="R36" s="156" t="s">
-        <v>13</v>
-      </c>
-      <c r="S36" s="164">
-        <f ca="1">TODAY()</f>
-        <v>43503</v>
-      </c>
-      <c r="T36" s="155"/>
-    </row>
-    <row r="37" spans="1:20" s="154" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="266" t="s">
-        <v>173</v>
-      </c>
-      <c r="B37" s="256"/>
-      <c r="C37" s="256"/>
-      <c r="D37" s="256"/>
-      <c r="E37" s="256"/>
-      <c r="F37" s="256"/>
-      <c r="G37" s="256"/>
-      <c r="H37" s="256"/>
-      <c r="I37" s="256"/>
-      <c r="J37" s="256"/>
-      <c r="K37" s="257" t="s">
-        <v>14</v>
-      </c>
-      <c r="L37" s="257"/>
-      <c r="M37" s="257"/>
-      <c r="N37" s="257"/>
-      <c r="O37" s="258" t="s">
-        <v>15</v>
-      </c>
-      <c r="P37" s="258"/>
-      <c r="Q37" s="156" t="s">
-        <v>13</v>
-      </c>
-      <c r="R37" s="156" t="s">
-        <v>13</v>
-      </c>
-      <c r="S37" s="164">
-        <f ca="1">TODAY()</f>
-        <v>43503</v>
-      </c>
-      <c r="T37" s="155"/>
-    </row>
-    <row r="38" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="146"/>
-      <c r="I38" s="146"/>
-      <c r="J38" s="146"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="147"/>
-      <c r="R38" s="147"/>
-      <c r="S38" s="140"/>
-      <c r="T38" s="6"/>
-    </row>
-    <row r="39" spans="1:20" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="153"/>
-      <c r="B39" s="152"/>
-      <c r="C39" s="152"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="152"/>
-      <c r="F39" s="152"/>
-      <c r="G39" s="152"/>
-      <c r="H39" s="152"/>
-      <c r="I39" s="152"/>
-      <c r="J39" s="152"/>
-      <c r="K39" s="152"/>
-      <c r="L39" s="152"/>
-      <c r="M39" s="152"/>
-      <c r="N39" s="152"/>
-      <c r="O39" s="152"/>
-      <c r="P39" s="152"/>
-      <c r="Q39" s="152"/>
-      <c r="R39" s="152"/>
-      <c r="S39" s="152"/>
-      <c r="T39" s="151"/>
+    <row r="36" spans="1:20" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="149"/>
+      <c r="B36" s="148"/>
+      <c r="C36" s="148"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
+      <c r="N36" s="148"/>
+      <c r="O36" s="148"/>
+      <c r="P36" s="148"/>
+      <c r="Q36" s="148"/>
+      <c r="R36" s="148"/>
+      <c r="S36" s="148"/>
+      <c r="T36" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -6158,26 +5927,26 @@
     <mergeCell ref="J16:Q16"/>
     <mergeCell ref="J18:Q18"/>
     <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G32:J32"/>
     <mergeCell ref="J21:Q21"/>
     <mergeCell ref="J19:Q19"/>
     <mergeCell ref="J20:Q20"/>
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="F18:I18"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="O34:P34"/>
     <mergeCell ref="A33:J33"/>
     <mergeCell ref="K33:N33"/>
     <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="O30:P30"/>
     <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G29:J29"/>
     <mergeCell ref="J22:Q22"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="F20:I20"/>
@@ -6202,394 +5971,394 @@
     <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" sqref="A1:K27"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="11.125" style="34" customWidth="1"/>
-    <col min="5" max="5" width="31.25" style="34" customWidth="1"/>
-    <col min="6" max="6" width="48.75" style="34" customWidth="1"/>
-    <col min="7" max="8" width="31.25" style="34" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="34" customWidth="1"/>
-    <col min="11" max="11" width="22.5" style="34" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="34"/>
+    <col min="1" max="4" width="11.125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="31" customWidth="1"/>
+    <col min="6" max="6" width="48.75" style="31" customWidth="1"/>
+    <col min="7" max="8" width="31.25" style="31" customWidth="1"/>
+    <col min="9" max="10" width="12.875" style="31" customWidth="1"/>
+    <col min="11" max="11" width="22.5" style="31" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="264" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="271"/>
-    </row>
-    <row r="2" spans="1:11" s="40" customFormat="1" ht="124.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="48" t="s">
+      <c r="B1" s="265"/>
+      <c r="C1" s="265"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
+      <c r="I1" s="265"/>
+      <c r="J1" s="265"/>
+      <c r="K1" s="266"/>
+    </row>
+    <row r="2" spans="1:11" s="37" customFormat="1" ht="124.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="45"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="41"/>
-    </row>
-    <row r="4" spans="1:11" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="45"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="41"/>
-    </row>
-    <row r="5" spans="1:11" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="45"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="41"/>
-    </row>
-    <row r="6" spans="1:11" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="45"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="41"/>
-    </row>
-    <row r="7" spans="1:11" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="45"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="41"/>
-    </row>
-    <row r="8" spans="1:11" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="45"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="41"/>
-    </row>
-    <row r="9" spans="1:11" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="45"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="41"/>
-    </row>
-    <row r="10" spans="1:11" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="45"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="41"/>
+    <row r="3" spans="1:11" s="37" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="42"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="38"/>
+    </row>
+    <row r="4" spans="1:11" s="37" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="42"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="38"/>
+    </row>
+    <row r="5" spans="1:11" s="37" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="42"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="38"/>
+    </row>
+    <row r="6" spans="1:11" s="37" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="42"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="38"/>
+    </row>
+    <row r="7" spans="1:11" s="37" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="42"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="38"/>
+    </row>
+    <row r="8" spans="1:11" s="37" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="42"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="38"/>
+    </row>
+    <row r="9" spans="1:11" s="37" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="42"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="38"/>
+    </row>
+    <row r="10" spans="1:11" s="37" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="42"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="38"/>
     </row>
     <row r="11" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="39"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="35"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="39"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="35"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="39"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="35"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="32"/>
     </row>
     <row r="14" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="39"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="35"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="39"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="35"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="39"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="35"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="39"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="35"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="39"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="35"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="39"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="35"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="39"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="35"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="32"/>
     </row>
     <row r="21" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="39"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="35"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="39"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="35"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="32"/>
     </row>
     <row r="23" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="39"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="35"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="32"/>
     </row>
     <row r="24" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="39"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="35"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="32"/>
     </row>
     <row r="25" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="39"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="35"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="32"/>
     </row>
     <row r="26" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="39"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="35"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="32"/>
     </row>
     <row r="27" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="39"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="35"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:K27"/>
@@ -6610,930 +6379,930 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="33" zoomScaleNormal="40" zoomScaleSheetLayoutView="33" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:S38"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="11.125" style="34" customWidth="1"/>
-    <col min="7" max="7" width="32.125" style="34" customWidth="1"/>
-    <col min="8" max="9" width="26.875" style="34" customWidth="1"/>
-    <col min="10" max="12" width="13.75" style="34" customWidth="1"/>
-    <col min="13" max="19" width="26.875" style="34" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="34"/>
+    <col min="1" max="6" width="11.125" style="31" customWidth="1"/>
+    <col min="7" max="7" width="32.125" style="31" customWidth="1"/>
+    <col min="8" max="9" width="26.875" style="31" customWidth="1"/>
+    <col min="10" max="12" width="13.75" style="31" customWidth="1"/>
+    <col min="13" max="19" width="26.875" style="31" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="274" t="s">
+      <c r="A1" s="269" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="275"/>
-      <c r="C1" s="275"/>
-      <c r="D1" s="275"/>
-      <c r="E1" s="275"/>
-      <c r="F1" s="275"/>
-      <c r="G1" s="275"/>
-      <c r="H1" s="275"/>
-      <c r="I1" s="275"/>
-      <c r="J1" s="275"/>
-      <c r="K1" s="275"/>
-      <c r="L1" s="275"/>
-      <c r="M1" s="275"/>
-      <c r="N1" s="275"/>
-      <c r="O1" s="275"/>
-      <c r="P1" s="275"/>
-      <c r="Q1" s="275"/>
-      <c r="R1" s="275"/>
-      <c r="S1" s="276"/>
-    </row>
-    <row r="2" spans="1:19" s="81" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="277" t="s">
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="270"/>
+      <c r="L1" s="270"/>
+      <c r="M1" s="270"/>
+      <c r="N1" s="270"/>
+      <c r="O1" s="270"/>
+      <c r="P1" s="270"/>
+      <c r="Q1" s="270"/>
+      <c r="R1" s="270"/>
+      <c r="S1" s="271"/>
+    </row>
+    <row r="2" spans="1:19" s="78" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="272" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="277" t="s">
+      <c r="B2" s="272" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="277" t="s">
+      <c r="C2" s="272" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="277" t="s">
+      <c r="D2" s="272" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="277" t="s">
+      <c r="E2" s="272" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="277" t="s">
+      <c r="F2" s="272" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="277" t="s">
+      <c r="G2" s="272" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="82" t="s">
+      <c r="H2" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="85" t="s">
+      <c r="I2" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="280" t="s">
+      <c r="J2" s="275" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="281"/>
-      <c r="L2" s="281"/>
-      <c r="M2" s="82" t="s">
+      <c r="K2" s="276"/>
+      <c r="L2" s="276"/>
+      <c r="M2" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="85" t="s">
+      <c r="N2" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="O2" s="84" t="s">
+      <c r="O2" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="82" t="s">
+      <c r="P2" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="Q2" s="83" t="s">
+      <c r="Q2" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="R2" s="83" t="s">
+      <c r="R2" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="S2" s="82" t="s">
+      <c r="S2" s="79" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="71" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="278"/>
-      <c r="B3" s="278"/>
-      <c r="C3" s="278"/>
-      <c r="D3" s="278"/>
-      <c r="E3" s="278"/>
-      <c r="F3" s="278"/>
-      <c r="G3" s="278"/>
-      <c r="H3" s="77" t="s">
+    <row r="3" spans="1:19" s="68" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="273"/>
+      <c r="B3" s="273"/>
+      <c r="C3" s="273"/>
+      <c r="D3" s="273"/>
+      <c r="E3" s="273"/>
+      <c r="F3" s="273"/>
+      <c r="G3" s="273"/>
+      <c r="H3" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="76" t="s">
+      <c r="I3" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="76" t="s">
+      <c r="J3" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="K3" s="76" t="s">
+      <c r="K3" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="L3" s="76" t="s">
+      <c r="L3" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="M3" s="75" t="s">
+      <c r="M3" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="N3" s="75" t="s">
+      <c r="N3" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="O3" s="75" t="s">
+      <c r="O3" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="P3" s="75" t="s">
+      <c r="P3" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" s="75" t="s">
+      <c r="Q3" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="73" t="s">
+      <c r="R3" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="S3" s="80" t="s">
+      <c r="S3" s="77" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="71" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="278"/>
-      <c r="B4" s="278"/>
-      <c r="C4" s="278"/>
-      <c r="D4" s="278"/>
-      <c r="E4" s="278"/>
-      <c r="F4" s="278"/>
-      <c r="G4" s="278"/>
-      <c r="H4" s="77" t="s">
+    <row r="4" spans="1:19" s="68" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="273"/>
+      <c r="B4" s="273"/>
+      <c r="C4" s="273"/>
+      <c r="D4" s="273"/>
+      <c r="E4" s="273"/>
+      <c r="F4" s="273"/>
+      <c r="G4" s="273"/>
+      <c r="H4" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="272" t="s">
+      <c r="J4" s="267" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="273"/>
-      <c r="L4" s="273"/>
-      <c r="M4" s="78" t="s">
+      <c r="K4" s="268"/>
+      <c r="L4" s="268"/>
+      <c r="M4" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="75" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="71" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="279"/>
-      <c r="B5" s="279"/>
-      <c r="C5" s="279"/>
-      <c r="D5" s="279"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="279"/>
-      <c r="G5" s="279"/>
-      <c r="H5" s="77" t="s">
+    <row r="5" spans="1:19" s="68" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="274"/>
+      <c r="B5" s="274"/>
+      <c r="C5" s="274"/>
+      <c r="D5" s="274"/>
+      <c r="E5" s="274"/>
+      <c r="F5" s="274"/>
+      <c r="G5" s="274"/>
+      <c r="H5" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="76" t="s">
+      <c r="I5" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="272" t="s">
+      <c r="J5" s="267" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="273"/>
-      <c r="L5" s="273"/>
-      <c r="M5" s="76" t="s">
+      <c r="K5" s="268"/>
+      <c r="L5" s="268"/>
+      <c r="M5" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="75" t="s">
+      <c r="N5" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="72"/>
-      <c r="P5" s="74" t="s">
+      <c r="O5" s="69"/>
+      <c r="P5" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="74" t="s">
+      <c r="Q5" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="R5" s="73" t="s">
+      <c r="R5" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="72"/>
-    </row>
-    <row r="6" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="70"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66">
+      <c r="S5" s="69"/>
+    </row>
+    <row r="6" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="67"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63">
         <v>1500</v>
       </c>
-      <c r="K6" s="66">
+      <c r="K6" s="63">
         <v>800</v>
       </c>
-      <c r="L6" s="66">
+      <c r="L6" s="63">
         <v>8</v>
       </c>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="64"/>
-    </row>
-    <row r="7" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="70"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66" t="s">
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="61"/>
+    </row>
+    <row r="7" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="67"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="66" t="s">
+      <c r="K7" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="66" t="s">
+      <c r="L7" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="64"/>
-    </row>
-    <row r="8" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="70"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66" t="s">
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="61"/>
+    </row>
+    <row r="8" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="67"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="66" t="s">
+      <c r="K8" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="66" t="s">
+      <c r="L8" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="64"/>
-    </row>
-    <row r="9" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="63"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="57"/>
-    </row>
-    <row r="10" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="63"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="57"/>
-    </row>
-    <row r="11" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="63"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="57"/>
-    </row>
-    <row r="12" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="63"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="57"/>
-    </row>
-    <row r="13" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="63"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="57"/>
-    </row>
-    <row r="14" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="63"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="57"/>
-    </row>
-    <row r="15" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="63"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="57"/>
-    </row>
-    <row r="16" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="63"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="57"/>
-    </row>
-    <row r="17" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="63"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="57"/>
-    </row>
-    <row r="18" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="63"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="57"/>
-    </row>
-    <row r="19" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="63"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="57"/>
-    </row>
-    <row r="20" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="63"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="57"/>
-    </row>
-    <row r="21" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="63"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="57"/>
-    </row>
-    <row r="22" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="63"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="57"/>
-    </row>
-    <row r="23" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="63"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="57"/>
-    </row>
-    <row r="24" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="63"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="57"/>
-    </row>
-    <row r="25" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="63"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="57"/>
-    </row>
-    <row r="26" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="63"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="57"/>
-    </row>
-    <row r="27" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="63"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="57"/>
-    </row>
-    <row r="28" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="63"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="57"/>
-    </row>
-    <row r="29" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="63"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="57"/>
-    </row>
-    <row r="30" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="63"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="57"/>
-    </row>
-    <row r="31" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="63"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="57"/>
-    </row>
-    <row r="32" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="63"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="57"/>
-    </row>
-    <row r="33" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="63"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="58"/>
-      <c r="S33" s="57"/>
-    </row>
-    <row r="34" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="63"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="57"/>
-    </row>
-    <row r="35" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="63"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="58"/>
-      <c r="S35" s="57"/>
-    </row>
-    <row r="36" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="63"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="58"/>
-      <c r="S36" s="57"/>
-    </row>
-    <row r="37" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="63"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="58"/>
-      <c r="S37" s="57"/>
-    </row>
-    <row r="38" spans="1:19" s="49" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="56"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="51"/>
-      <c r="S38" s="50"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="61"/>
+    </row>
+    <row r="9" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="60"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="54"/>
+    </row>
+    <row r="10" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="60"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="54"/>
+    </row>
+    <row r="11" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="60"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="54"/>
+    </row>
+    <row r="12" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="60"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="54"/>
+    </row>
+    <row r="13" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="60"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="54"/>
+    </row>
+    <row r="14" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="60"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="54"/>
+    </row>
+    <row r="15" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="60"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="54"/>
+    </row>
+    <row r="16" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="60"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="54"/>
+    </row>
+    <row r="17" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="60"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="54"/>
+    </row>
+    <row r="18" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="60"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="54"/>
+    </row>
+    <row r="19" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="60"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="54"/>
+    </row>
+    <row r="20" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="60"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="54"/>
+    </row>
+    <row r="21" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="60"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="54"/>
+    </row>
+    <row r="22" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="60"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="54"/>
+    </row>
+    <row r="23" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="60"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="54"/>
+    </row>
+    <row r="24" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="60"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="54"/>
+    </row>
+    <row r="25" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="60"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="54"/>
+    </row>
+    <row r="26" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="60"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="54"/>
+    </row>
+    <row r="27" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="60"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="54"/>
+    </row>
+    <row r="28" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="60"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="54"/>
+    </row>
+    <row r="29" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="60"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="54"/>
+    </row>
+    <row r="30" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="60"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="54"/>
+    </row>
+    <row r="31" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="60"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="54"/>
+    </row>
+    <row r="32" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="60"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="54"/>
+    </row>
+    <row r="33" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="60"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="54"/>
+    </row>
+    <row r="34" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="60"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="54"/>
+    </row>
+    <row r="35" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="60"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="54"/>
+    </row>
+    <row r="36" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="60"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="54"/>
+    </row>
+    <row r="37" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="60"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="55"/>
+      <c r="S37" s="54"/>
+    </row>
+    <row r="38" spans="1:19" s="46" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="53"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7562,472 +7331,472 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="34" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="13" style="34" customWidth="1"/>
-    <col min="5" max="5" width="26.875" style="34" customWidth="1"/>
-    <col min="6" max="6" width="36.5" style="34" customWidth="1"/>
-    <col min="7" max="9" width="18.125" style="34" customWidth="1"/>
-    <col min="10" max="10" width="22.5" style="34" customWidth="1"/>
-    <col min="11" max="11" width="15.875" style="34" customWidth="1"/>
-    <col min="12" max="12" width="12.875" style="34" customWidth="1"/>
-    <col min="13" max="13" width="18.125" style="34" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="34"/>
+    <col min="1" max="1" width="11.125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="31" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="13" style="31" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="31" customWidth="1"/>
+    <col min="6" max="6" width="36.5" style="31" customWidth="1"/>
+    <col min="7" max="9" width="18.125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="22.5" style="31" customWidth="1"/>
+    <col min="11" max="11" width="15.875" style="31" customWidth="1"/>
+    <col min="12" max="12" width="12.875" style="31" customWidth="1"/>
+    <col min="13" max="13" width="18.125" style="31" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="264" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="270"/>
-      <c r="L1" s="270"/>
-      <c r="M1" s="271"/>
-    </row>
-    <row r="2" spans="1:13" s="40" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="91" t="s">
+      <c r="B1" s="265"/>
+      <c r="C1" s="265"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
+      <c r="I1" s="265"/>
+      <c r="J1" s="265"/>
+      <c r="K1" s="265"/>
+      <c r="L1" s="265"/>
+      <c r="M1" s="266"/>
+    </row>
+    <row r="2" spans="1:13" s="37" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="91" t="s">
+      <c r="F2" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="91" t="s">
+      <c r="H2" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="91" t="s">
+      <c r="I2" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="91" t="s">
+      <c r="J2" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="K2" s="91" t="s">
+      <c r="K2" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="91" t="s">
+      <c r="L2" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="M2" s="88" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="39"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="35"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="39"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="35"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="39"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="35"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="39"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="35"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="39"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="35"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="39"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="35"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="39"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="35"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="39"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="35"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="39"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="35"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="39"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="35"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="39"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="35"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="39"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="35"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="39"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="35"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="32"/>
     </row>
     <row r="16" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="39"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="35"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="32"/>
     </row>
     <row r="17" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="39"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="35"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="32"/>
     </row>
     <row r="18" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="39"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="35"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="32"/>
     </row>
     <row r="19" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="39"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="35"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="32"/>
     </row>
     <row r="20" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="39"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="35"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="32"/>
     </row>
     <row r="21" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="39"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="35"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="32"/>
     </row>
     <row r="22" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="39"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="35"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="32"/>
     </row>
     <row r="23" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="39"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="35"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="39"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="35"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="32"/>
     </row>
     <row r="25" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="39"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="35"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="32"/>
     </row>
     <row r="26" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="39"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="35"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="32"/>
     </row>
     <row r="27" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="39"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="35"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="32"/>
     </row>
     <row r="28" spans="1:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="90"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="86"/>
+      <c r="A28" s="87"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="83"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:M28"/>

--- a/dist/files/xls/shablon-kd.xlsx
+++ b/dist/files/xls/shablon-kd.xlsx
@@ -2139,161 +2139,16 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2303,6 +2158,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2321,6 +2321,36 @@
     <xf numFmtId="0" fontId="35" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -2330,24 +2360,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -2358,18 +2370,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2733,7 +2733,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2811,23 +2811,23 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="220" t="s">
+      <c r="I2" s="209" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="222"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="211"/>
       <c r="O2" s="100"/>
-      <c r="P2" s="223" t="s">
+      <c r="P2" s="212" t="s">
         <v>161</v>
       </c>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="224"/>
-      <c r="U2" s="224"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="196"/>
       <c r="V2" s="137"/>
       <c r="W2" s="27"/>
       <c r="X2" s="12"/>
@@ -2848,10 +2848,10 @@
         <v>30</v>
       </c>
       <c r="K3" s="103"/>
-      <c r="L3" s="224" t="s">
+      <c r="L3" s="196" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="224"/>
+      <c r="M3" s="196"/>
       <c r="N3" s="163" t="s">
         <v>31</v>
       </c>
@@ -2863,10 +2863,10 @@
         <v>38</v>
       </c>
       <c r="R3" s="103"/>
-      <c r="S3" s="224" t="s">
+      <c r="S3" s="196" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="224"/>
+      <c r="T3" s="196"/>
       <c r="U3" s="127" t="s">
         <v>35</v>
       </c>
@@ -3073,22 +3073,22 @@
       <c r="X8" s="12"/>
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="204" t="s">
+      <c r="A9" s="218" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="196" t="s">
+      <c r="B9" s="219" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="195" t="s">
+      <c r="C9" s="225" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="205" t="s">
+      <c r="D9" s="220" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="205"/>
-      <c r="F9" s="205"/>
-      <c r="G9" s="205"/>
-      <c r="H9" s="208"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="220"/>
+      <c r="G9" s="220"/>
+      <c r="H9" s="224"/>
       <c r="I9" s="105"/>
       <c r="J9" s="106"/>
       <c r="K9" s="106"/>
@@ -3115,22 +3115,22 @@
       <c r="X9" s="12"/>
     </row>
     <row r="10" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="204"/>
-      <c r="B10" s="196"/>
-      <c r="C10" s="195"/>
-      <c r="D10" s="205" t="s">
+      <c r="A10" s="218"/>
+      <c r="B10" s="219"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="220" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="193" t="s">
+      <c r="E10" s="221" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="193" t="s">
+      <c r="F10" s="221" t="s">
         <v>126</v>
       </c>
-      <c r="G10" s="196" t="s">
+      <c r="G10" s="219" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="195" t="s">
+      <c r="H10" s="225" t="s">
         <v>128</v>
       </c>
       <c r="I10" s="5"/>
@@ -3151,14 +3151,14 @@
       <c r="X10" s="12"/>
     </row>
     <row r="11" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="204"/>
-      <c r="B11" s="196"/>
-      <c r="C11" s="195"/>
-      <c r="D11" s="205"/>
-      <c r="E11" s="193"/>
-      <c r="F11" s="194"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="195"/>
+      <c r="A11" s="218"/>
+      <c r="B11" s="219"/>
+      <c r="C11" s="225"/>
+      <c r="D11" s="220"/>
+      <c r="E11" s="221"/>
+      <c r="F11" s="237"/>
+      <c r="G11" s="219"/>
+      <c r="H11" s="225"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="146" t="s">
@@ -3179,67 +3179,67 @@
       <c r="X11" s="12"/>
     </row>
     <row r="12" spans="1:24" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="203" t="s">
+      <c r="A12" s="217" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="206" t="s">
+      <c r="B12" s="222" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="206" t="s">
+      <c r="C12" s="222" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="206" t="s">
+      <c r="D12" s="222" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="207" t="s">
+      <c r="E12" s="223" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="207" t="s">
+      <c r="F12" s="223" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="209" t="s">
+      <c r="G12" s="226" t="s">
         <v>152</v>
       </c>
-      <c r="H12" s="197" t="s">
+      <c r="H12" s="238" t="s">
         <v>134</v>
       </c>
       <c r="I12" s="138"/>
-      <c r="J12" s="227" t="s">
+      <c r="J12" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="227"/>
-      <c r="L12" s="227"/>
-      <c r="M12" s="227"/>
-      <c r="N12" s="201" t="s">
+      <c r="K12" s="199"/>
+      <c r="L12" s="199"/>
+      <c r="M12" s="199"/>
+      <c r="N12" s="239" t="s">
         <v>172</v>
       </c>
-      <c r="O12" s="202"/>
-      <c r="P12" s="202"/>
-      <c r="Q12" s="202"/>
-      <c r="R12" s="202"/>
-      <c r="S12" s="202"/>
-      <c r="T12" s="202"/>
-      <c r="U12" s="202"/>
-      <c r="V12" s="202"/>
+      <c r="O12" s="240"/>
+      <c r="P12" s="240"/>
+      <c r="Q12" s="240"/>
+      <c r="R12" s="240"/>
+      <c r="S12" s="240"/>
+      <c r="T12" s="240"/>
+      <c r="U12" s="240"/>
+      <c r="V12" s="240"/>
       <c r="W12" s="6"/>
       <c r="X12" s="12"/>
     </row>
     <row r="13" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="203"/>
-      <c r="B13" s="206"/>
-      <c r="C13" s="206"/>
-      <c r="D13" s="206"/>
-      <c r="E13" s="207"/>
-      <c r="F13" s="207"/>
-      <c r="G13" s="210"/>
-      <c r="H13" s="197"/>
+      <c r="A13" s="217"/>
+      <c r="B13" s="222"/>
+      <c r="C13" s="222"/>
+      <c r="D13" s="222"/>
+      <c r="E13" s="223"/>
+      <c r="F13" s="223"/>
+      <c r="G13" s="227"/>
+      <c r="H13" s="238"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="226" t="s">
+      <c r="J13" s="200" t="s">
         <v>171</v>
       </c>
-      <c r="K13" s="226"/>
-      <c r="L13" s="226"/>
-      <c r="M13" s="226"/>
+      <c r="K13" s="200"/>
+      <c r="L13" s="200"/>
+      <c r="M13" s="200"/>
       <c r="N13" s="170" t="s">
         <v>170</v>
       </c>
@@ -3255,21 +3255,21 @@
       <c r="X13" s="12"/>
     </row>
     <row r="14" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="203"/>
-      <c r="B14" s="206"/>
-      <c r="C14" s="206"/>
-      <c r="D14" s="206"/>
-      <c r="E14" s="207"/>
-      <c r="F14" s="207"/>
-      <c r="G14" s="210"/>
-      <c r="H14" s="197"/>
+      <c r="A14" s="217"/>
+      <c r="B14" s="222"/>
+      <c r="C14" s="222"/>
+      <c r="D14" s="222"/>
+      <c r="E14" s="223"/>
+      <c r="F14" s="223"/>
+      <c r="G14" s="227"/>
+      <c r="H14" s="238"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="226" t="s">
+      <c r="J14" s="200" t="s">
         <v>114</v>
       </c>
-      <c r="K14" s="226"/>
-      <c r="L14" s="226"/>
-      <c r="M14" s="226"/>
+      <c r="K14" s="200"/>
+      <c r="L14" s="200"/>
+      <c r="M14" s="200"/>
       <c r="N14" s="171" t="s">
         <v>146</v>
       </c>
@@ -3285,21 +3285,21 @@
       <c r="X14" s="12"/>
     </row>
     <row r="15" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="203"/>
-      <c r="B15" s="206"/>
-      <c r="C15" s="206"/>
-      <c r="D15" s="206"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="211"/>
-      <c r="H15" s="197"/>
+      <c r="A15" s="217"/>
+      <c r="B15" s="222"/>
+      <c r="C15" s="222"/>
+      <c r="D15" s="222"/>
+      <c r="E15" s="223"/>
+      <c r="F15" s="223"/>
+      <c r="G15" s="228"/>
+      <c r="H15" s="238"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="226" t="s">
+      <c r="J15" s="200" t="s">
         <v>169</v>
       </c>
-      <c r="K15" s="226"/>
-      <c r="L15" s="226"/>
-      <c r="M15" s="226"/>
+      <c r="K15" s="200"/>
+      <c r="L15" s="200"/>
+      <c r="M15" s="200"/>
       <c r="N15" s="171" t="s">
         <v>168</v>
       </c>
@@ -3315,23 +3315,23 @@
       <c r="X15" s="12"/>
     </row>
     <row r="16" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="203"/>
-      <c r="B16" s="206"/>
-      <c r="C16" s="206"/>
-      <c r="D16" s="206"/>
-      <c r="E16" s="207"/>
-      <c r="F16" s="207"/>
-      <c r="G16" s="209" t="s">
+      <c r="A16" s="217"/>
+      <c r="B16" s="222"/>
+      <c r="C16" s="222"/>
+      <c r="D16" s="222"/>
+      <c r="E16" s="223"/>
+      <c r="F16" s="223"/>
+      <c r="G16" s="226" t="s">
         <v>151</v>
       </c>
-      <c r="H16" s="197"/>
+      <c r="H16" s="238"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="226" t="s">
+      <c r="J16" s="200" t="s">
         <v>167</v>
       </c>
-      <c r="K16" s="226"/>
-      <c r="L16" s="226"/>
-      <c r="M16" s="226"/>
+      <c r="K16" s="200"/>
+      <c r="L16" s="200"/>
+      <c r="M16" s="200"/>
       <c r="N16" s="171" t="s">
         <v>166</v>
       </c>
@@ -3347,51 +3347,51 @@
       <c r="X16" s="12"/>
     </row>
     <row r="17" spans="1:24" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="203"/>
-      <c r="B17" s="206"/>
-      <c r="C17" s="206"/>
-      <c r="D17" s="206"/>
-      <c r="E17" s="207"/>
-      <c r="F17" s="207"/>
-      <c r="G17" s="210"/>
-      <c r="H17" s="197"/>
+      <c r="A17" s="217"/>
+      <c r="B17" s="222"/>
+      <c r="C17" s="222"/>
+      <c r="D17" s="222"/>
+      <c r="E17" s="223"/>
+      <c r="F17" s="223"/>
+      <c r="G17" s="227"/>
+      <c r="H17" s="238"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="226" t="s">
+      <c r="J17" s="200" t="s">
         <v>165</v>
       </c>
-      <c r="K17" s="226"/>
-      <c r="L17" s="226"/>
-      <c r="M17" s="226"/>
-      <c r="N17" s="235" t="s">
+      <c r="K17" s="200"/>
+      <c r="L17" s="200"/>
+      <c r="M17" s="200"/>
+      <c r="N17" s="201" t="s">
         <v>164</v>
       </c>
-      <c r="O17" s="236"/>
-      <c r="P17" s="236"/>
-      <c r="Q17" s="236"/>
-      <c r="R17" s="236"/>
-      <c r="S17" s="236"/>
-      <c r="T17" s="236"/>
-      <c r="U17" s="236"/>
-      <c r="V17" s="236"/>
+      <c r="O17" s="202"/>
+      <c r="P17" s="202"/>
+      <c r="Q17" s="202"/>
+      <c r="R17" s="202"/>
+      <c r="S17" s="202"/>
+      <c r="T17" s="202"/>
+      <c r="U17" s="202"/>
+      <c r="V17" s="202"/>
       <c r="W17" s="6"/>
       <c r="X17" s="12"/>
     </row>
     <row r="18" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="203"/>
-      <c r="B18" s="206"/>
-      <c r="C18" s="206"/>
-      <c r="D18" s="206"/>
-      <c r="E18" s="207"/>
-      <c r="F18" s="207"/>
-      <c r="G18" s="211"/>
-      <c r="H18" s="197"/>
+      <c r="A18" s="217"/>
+      <c r="B18" s="222"/>
+      <c r="C18" s="222"/>
+      <c r="D18" s="222"/>
+      <c r="E18" s="223"/>
+      <c r="F18" s="223"/>
+      <c r="G18" s="228"/>
+      <c r="H18" s="238"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="227" t="s">
+      <c r="J18" s="199" t="s">
         <v>113</v>
       </c>
-      <c r="K18" s="227"/>
-      <c r="L18" s="227"/>
-      <c r="M18" s="227"/>
+      <c r="K18" s="199"/>
+      <c r="L18" s="199"/>
+      <c r="M18" s="199"/>
       <c r="N18" s="172">
         <v>500</v>
       </c>
@@ -3415,12 +3415,12 @@
       <c r="G19" s="111"/>
       <c r="H19" s="112"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="227" t="s">
+      <c r="J19" s="199" t="s">
         <v>112</v>
       </c>
-      <c r="K19" s="227"/>
-      <c r="L19" s="227"/>
-      <c r="M19" s="227"/>
+      <c r="K19" s="199"/>
+      <c r="L19" s="199"/>
+      <c r="M19" s="199"/>
       <c r="N19" s="172" t="s">
         <v>163</v>
       </c>
@@ -3470,12 +3470,12 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="231" t="s">
+      <c r="I21" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="232"/>
-      <c r="K21" s="232"/>
-      <c r="L21" s="232"/>
+      <c r="J21" s="198"/>
+      <c r="K21" s="198"/>
+      <c r="L21" s="198"/>
       <c r="M21" s="5"/>
       <c r="N21" s="173"/>
       <c r="O21" s="5"/>
@@ -3485,10 +3485,10 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="161"/>
-      <c r="V21" s="228" t="s">
+      <c r="V21" s="193" t="s">
         <v>150</v>
       </c>
-      <c r="W21" s="216" t="s">
+      <c r="W21" s="205" t="s">
         <v>149</v>
       </c>
       <c r="X21" s="12"/>
@@ -3503,20 +3503,20 @@
       <c r="G22" s="12"/>
       <c r="H22" s="25"/>
       <c r="I22" s="125"/>
-      <c r="J22" s="237" t="s">
+      <c r="J22" s="187" t="s">
         <v>148</v>
       </c>
-      <c r="K22" s="237"/>
-      <c r="L22" s="237"/>
-      <c r="N22" s="239" t="s">
+      <c r="K22" s="187"/>
+      <c r="L22" s="187"/>
+      <c r="N22" s="190" t="s">
         <v>40</v>
       </c>
-      <c r="O22" s="240"/>
-      <c r="P22" s="240"/>
-      <c r="Q22" s="198" t="s">
+      <c r="O22" s="191"/>
+      <c r="P22" s="191"/>
+      <c r="Q22" s="203" t="s">
         <v>15</v>
       </c>
-      <c r="R22" s="198"/>
+      <c r="R22" s="203"/>
       <c r="S22" s="135" t="s">
         <v>13</v>
       </c>
@@ -3525,10 +3525,10 @@
       </c>
       <c r="U22" s="159">
         <f ca="1">TODAY()</f>
-        <v>43505</v>
-      </c>
-      <c r="V22" s="229"/>
-      <c r="W22" s="217"/>
+        <v>43506</v>
+      </c>
+      <c r="V22" s="194"/>
+      <c r="W22" s="206"/>
       <c r="X22" s="12"/>
     </row>
     <row r="23" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3555,8 +3555,8 @@
       <c r="S23" s="115"/>
       <c r="T23" s="115"/>
       <c r="U23" s="115"/>
-      <c r="V23" s="229"/>
-      <c r="W23" s="217"/>
+      <c r="V23" s="194"/>
+      <c r="W23" s="206"/>
       <c r="X23" s="12"/>
     </row>
     <row r="24" spans="1:24" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3568,18 +3568,18 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="225" t="s">
+      <c r="I24" s="188" t="s">
         <v>136</v>
       </c>
-      <c r="J24" s="225"/>
-      <c r="K24" s="225"/>
-      <c r="L24" s="225"/>
+      <c r="J24" s="188"/>
+      <c r="K24" s="188"/>
+      <c r="L24" s="188"/>
       <c r="M24" s="12"/>
-      <c r="N24" s="233" t="s">
+      <c r="N24" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="O24" s="234"/>
-      <c r="P24" s="234"/>
+      <c r="O24" s="186"/>
+      <c r="P24" s="186"/>
       <c r="Q24" s="139" t="s">
         <v>15</v>
       </c>
@@ -3592,10 +3592,10 @@
       </c>
       <c r="U24" s="159">
         <f ca="1">TODAY()</f>
-        <v>43505</v>
-      </c>
-      <c r="V24" s="229"/>
-      <c r="W24" s="217"/>
+        <v>43506</v>
+      </c>
+      <c r="V24" s="194"/>
+      <c r="W24" s="206"/>
       <c r="X24" s="12"/>
     </row>
     <row r="25" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3607,18 +3607,18 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="225" t="s">
+      <c r="I25" s="188" t="s">
         <v>137</v>
       </c>
-      <c r="J25" s="225"/>
-      <c r="K25" s="225"/>
-      <c r="L25" s="225"/>
+      <c r="J25" s="188"/>
+      <c r="K25" s="188"/>
+      <c r="L25" s="188"/>
       <c r="M25" s="12"/>
-      <c r="N25" s="233" t="s">
+      <c r="N25" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="O25" s="234"/>
-      <c r="P25" s="234"/>
+      <c r="O25" s="186"/>
+      <c r="P25" s="186"/>
       <c r="Q25" s="139" t="s">
         <v>15</v>
       </c>
@@ -3631,10 +3631,10 @@
       </c>
       <c r="U25" s="159">
         <f ca="1">TODAY()</f>
-        <v>43505</v>
-      </c>
-      <c r="V25" s="229"/>
-      <c r="W25" s="217"/>
+        <v>43506</v>
+      </c>
+      <c r="V25" s="194"/>
+      <c r="W25" s="206"/>
       <c r="X25" s="12"/>
     </row>
     <row r="26" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3646,18 +3646,18 @@
       <c r="F26" s="115"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="225" t="s">
+      <c r="I26" s="188" t="s">
         <v>138</v>
       </c>
-      <c r="J26" s="225"/>
-      <c r="K26" s="225"/>
-      <c r="L26" s="225"/>
+      <c r="J26" s="188"/>
+      <c r="K26" s="188"/>
+      <c r="L26" s="188"/>
       <c r="M26" s="12"/>
-      <c r="N26" s="233" t="s">
+      <c r="N26" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="O26" s="234"/>
-      <c r="P26" s="234"/>
+      <c r="O26" s="186"/>
+      <c r="P26" s="186"/>
       <c r="Q26" s="139" t="s">
         <v>15</v>
       </c>
@@ -3670,10 +3670,10 @@
       </c>
       <c r="U26" s="159">
         <f ca="1">TODAY()</f>
-        <v>43505</v>
-      </c>
-      <c r="V26" s="230"/>
-      <c r="W26" s="217"/>
+        <v>43506</v>
+      </c>
+      <c r="V26" s="195"/>
+      <c r="W26" s="206"/>
       <c r="X26" s="12"/>
     </row>
     <row r="27" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3685,21 +3685,21 @@
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
-      <c r="I27" s="238"/>
-      <c r="J27" s="238"/>
-      <c r="K27" s="238"/>
-      <c r="L27" s="238"/>
-      <c r="M27" s="219"/>
-      <c r="N27" s="219"/>
-      <c r="O27" s="219"/>
-      <c r="P27" s="219"/>
-      <c r="Q27" s="200"/>
-      <c r="R27" s="200"/>
+      <c r="I27" s="189"/>
+      <c r="J27" s="189"/>
+      <c r="K27" s="189"/>
+      <c r="L27" s="189"/>
+      <c r="M27" s="208"/>
+      <c r="N27" s="208"/>
+      <c r="O27" s="208"/>
+      <c r="P27" s="208"/>
+      <c r="Q27" s="213"/>
+      <c r="R27" s="213"/>
       <c r="S27" s="139"/>
       <c r="T27" s="139"/>
       <c r="U27" s="139"/>
       <c r="V27" s="139"/>
-      <c r="W27" s="217"/>
+      <c r="W27" s="206"/>
       <c r="X27" s="12"/>
     </row>
     <row r="28" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -3712,21 +3712,21 @@
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="115"/>
-      <c r="J28" s="237" t="s">
+      <c r="J28" s="187" t="s">
         <v>135</v>
       </c>
-      <c r="K28" s="237"/>
-      <c r="L28" s="237"/>
+      <c r="K28" s="187"/>
+      <c r="L28" s="187"/>
       <c r="M28" s="12"/>
-      <c r="N28" s="233" t="s">
+      <c r="N28" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="O28" s="234"/>
-      <c r="P28" s="234"/>
-      <c r="Q28" s="200" t="s">
+      <c r="O28" s="186"/>
+      <c r="P28" s="186"/>
+      <c r="Q28" s="213" t="s">
         <v>15</v>
       </c>
-      <c r="R28" s="200"/>
+      <c r="R28" s="213"/>
       <c r="S28" s="139" t="s">
         <v>13</v>
       </c>
@@ -3735,19 +3735,19 @@
       </c>
       <c r="U28" s="159">
         <f ca="1">TODAY()</f>
-        <v>43505</v>
+        <v>43506</v>
       </c>
       <c r="V28" s="139"/>
-      <c r="W28" s="217"/>
+      <c r="W28" s="206"/>
       <c r="X28" s="12"/>
     </row>
     <row r="29" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="191"/>
-      <c r="D29" s="191"/>
-      <c r="E29" s="191"/>
-      <c r="F29" s="191"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="236"/>
+      <c r="E29" s="236"/>
+      <c r="F29" s="236"/>
       <c r="G29" s="120"/>
       <c r="H29" s="25"/>
       <c r="I29" s="12"/>
@@ -3764,7 +3764,7 @@
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
       <c r="V29" s="124"/>
-      <c r="W29" s="218"/>
+      <c r="W29" s="207"/>
       <c r="X29" s="12"/>
     </row>
     <row r="30" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3796,10 +3796,10 @@
     <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="191"/>
-      <c r="D31" s="191"/>
-      <c r="E31" s="191"/>
-      <c r="F31" s="191"/>
+      <c r="C31" s="236"/>
+      <c r="D31" s="236"/>
+      <c r="E31" s="236"/>
+      <c r="F31" s="236"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -3825,25 +3825,25 @@
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="199" t="s">
+      <c r="F32" s="229" t="s">
         <v>139</v>
       </c>
-      <c r="G32" s="199"/>
-      <c r="H32" s="199"/>
-      <c r="I32" s="199"/>
-      <c r="J32" s="199"/>
-      <c r="K32" s="199"/>
-      <c r="L32" s="199"/>
+      <c r="G32" s="229"/>
+      <c r="H32" s="229"/>
+      <c r="I32" s="229"/>
+      <c r="J32" s="229"/>
+      <c r="K32" s="229"/>
+      <c r="L32" s="229"/>
       <c r="M32" s="139" t="s">
         <v>188</v>
       </c>
       <c r="N32" s="174"/>
       <c r="O32" s="115"/>
       <c r="P32" s="115"/>
-      <c r="Q32" s="198" t="s">
+      <c r="Q32" s="203" t="s">
         <v>15</v>
       </c>
-      <c r="R32" s="198"/>
+      <c r="R32" s="203"/>
       <c r="S32" s="135" t="s">
         <v>13</v>
       </c>
@@ -3852,12 +3852,12 @@
       </c>
       <c r="U32" s="159">
         <f ca="1">TODAY()</f>
-        <v>43505</v>
-      </c>
-      <c r="V32" s="185" t="s">
+        <v>43506</v>
+      </c>
+      <c r="V32" s="230" t="s">
         <v>147</v>
       </c>
-      <c r="W32" s="186"/>
+      <c r="W32" s="231"/>
       <c r="X32" s="12"/>
     </row>
     <row r="33" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3866,15 +3866,15 @@
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="199" t="s">
+      <c r="F33" s="229" t="s">
         <v>139</v>
       </c>
-      <c r="G33" s="199"/>
-      <c r="H33" s="199"/>
-      <c r="I33" s="199"/>
-      <c r="J33" s="199"/>
-      <c r="K33" s="199"/>
-      <c r="L33" s="199"/>
+      <c r="G33" s="229"/>
+      <c r="H33" s="229"/>
+      <c r="I33" s="229"/>
+      <c r="J33" s="229"/>
+      <c r="K33" s="229"/>
+      <c r="L33" s="229"/>
       <c r="M33" s="139" t="s">
         <v>118</v>
       </c>
@@ -3883,10 +3883,10 @@
       </c>
       <c r="O33" s="115"/>
       <c r="P33" s="115"/>
-      <c r="Q33" s="198" t="s">
+      <c r="Q33" s="203" t="s">
         <v>15</v>
       </c>
-      <c r="R33" s="198"/>
+      <c r="R33" s="203"/>
       <c r="S33" s="135" t="s">
         <v>13</v>
       </c>
@@ -3895,10 +3895,10 @@
       </c>
       <c r="U33" s="159">
         <f t="shared" ref="U33:U37" ca="1" si="0">TODAY()</f>
-        <v>43505</v>
-      </c>
-      <c r="V33" s="187"/>
-      <c r="W33" s="188"/>
+        <v>43506</v>
+      </c>
+      <c r="V33" s="232"/>
+      <c r="W33" s="233"/>
       <c r="X33" s="12"/>
     </row>
     <row r="34" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3907,15 +3907,15 @@
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="199" t="s">
+      <c r="F34" s="229" t="s">
         <v>140</v>
       </c>
-      <c r="G34" s="199"/>
-      <c r="H34" s="199"/>
-      <c r="I34" s="199"/>
-      <c r="J34" s="199"/>
-      <c r="K34" s="199"/>
-      <c r="L34" s="199"/>
+      <c r="G34" s="229"/>
+      <c r="H34" s="229"/>
+      <c r="I34" s="229"/>
+      <c r="J34" s="229"/>
+      <c r="K34" s="229"/>
+      <c r="L34" s="229"/>
       <c r="M34" s="139" t="s">
         <v>141</v>
       </c>
@@ -3924,10 +3924,10 @@
         <v>142</v>
       </c>
       <c r="P34" s="115"/>
-      <c r="Q34" s="198" t="s">
+      <c r="Q34" s="203" t="s">
         <v>15</v>
       </c>
-      <c r="R34" s="198"/>
+      <c r="R34" s="203"/>
       <c r="S34" s="135" t="s">
         <v>13</v>
       </c>
@@ -3936,10 +3936,10 @@
       </c>
       <c r="U34" s="159">
         <f t="shared" ca="1" si="0"/>
-        <v>43505</v>
-      </c>
-      <c r="V34" s="187"/>
-      <c r="W34" s="188"/>
+        <v>43506</v>
+      </c>
+      <c r="V34" s="232"/>
+      <c r="W34" s="233"/>
       <c r="X34" s="12"/>
     </row>
     <row r="35" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3955,16 +3955,16 @@
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
-      <c r="M35" s="215" t="s">
+      <c r="M35" s="204" t="s">
         <v>190</v>
       </c>
-      <c r="N35" s="215"/>
-      <c r="O35" s="215"/>
-      <c r="P35" s="215"/>
-      <c r="Q35" s="198" t="s">
+      <c r="N35" s="204"/>
+      <c r="O35" s="204"/>
+      <c r="P35" s="204"/>
+      <c r="Q35" s="203" t="s">
         <v>15</v>
       </c>
-      <c r="R35" s="198"/>
+      <c r="R35" s="203"/>
       <c r="S35" s="135" t="s">
         <v>13</v>
       </c>
@@ -3973,10 +3973,10 @@
       </c>
       <c r="U35" s="159">
         <f t="shared" ca="1" si="0"/>
-        <v>43505</v>
-      </c>
-      <c r="V35" s="187"/>
-      <c r="W35" s="188"/>
+        <v>43506</v>
+      </c>
+      <c r="V35" s="232"/>
+      <c r="W35" s="233"/>
       <c r="X35" s="12"/>
     </row>
     <row r="36" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -3992,46 +3992,46 @@
       <c r="J36" s="122"/>
       <c r="K36" s="122"/>
       <c r="L36" s="122"/>
-      <c r="M36" s="212"/>
-      <c r="N36" s="212"/>
+      <c r="M36" s="214"/>
+      <c r="N36" s="214"/>
       <c r="O36" s="115"/>
       <c r="P36" s="115"/>
-      <c r="Q36" s="198"/>
-      <c r="R36" s="198"/>
+      <c r="Q36" s="203"/>
+      <c r="R36" s="203"/>
       <c r="S36" s="135"/>
       <c r="T36" s="135"/>
       <c r="U36" s="159"/>
-      <c r="V36" s="187"/>
-      <c r="W36" s="188"/>
+      <c r="V36" s="232"/>
+      <c r="W36" s="233"/>
       <c r="X36" s="12"/>
     </row>
     <row r="37" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="213" t="s">
+      <c r="D37" s="215" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="213"/>
-      <c r="F37" s="213"/>
-      <c r="G37" s="213"/>
-      <c r="H37" s="213"/>
-      <c r="I37" s="213"/>
-      <c r="J37" s="213"/>
-      <c r="K37" s="213"/>
-      <c r="L37" s="214" t="s">
+      <c r="E37" s="215"/>
+      <c r="F37" s="215"/>
+      <c r="G37" s="215"/>
+      <c r="H37" s="215"/>
+      <c r="I37" s="215"/>
+      <c r="J37" s="215"/>
+      <c r="K37" s="215"/>
+      <c r="L37" s="216" t="s">
         <v>144</v>
       </c>
-      <c r="M37" s="214"/>
-      <c r="N37" s="214"/>
+      <c r="M37" s="216"/>
+      <c r="N37" s="216"/>
       <c r="O37" s="115" t="s">
         <v>142</v>
       </c>
       <c r="P37" s="115"/>
-      <c r="Q37" s="198" t="s">
+      <c r="Q37" s="203" t="s">
         <v>15</v>
       </c>
-      <c r="R37" s="198"/>
+      <c r="R37" s="203"/>
       <c r="S37" s="135" t="s">
         <v>13</v>
       </c>
@@ -4040,10 +4040,10 @@
       </c>
       <c r="U37" s="159">
         <f t="shared" ca="1" si="0"/>
-        <v>43505</v>
-      </c>
-      <c r="V37" s="189"/>
-      <c r="W37" s="190"/>
+        <v>43506</v>
+      </c>
+      <c r="V37" s="234"/>
+      <c r="W37" s="235"/>
       <c r="X37" s="12"/>
     </row>
     <row r="38" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4152,26 +4152,43 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="V21:V26"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N17:V17"/>
+    <mergeCell ref="V32:W37"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="F32:L32"/>
+    <mergeCell ref="F34:L34"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="N12:V12"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="E12:E18"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C18"/>
+    <mergeCell ref="F12:F18"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="F33:L33"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="L37:N37"/>
     <mergeCell ref="Q35:R35"/>
     <mergeCell ref="M35:P35"/>
     <mergeCell ref="W21:W29"/>
@@ -4188,43 +4205,26 @@
     <mergeCell ref="J17:M17"/>
     <mergeCell ref="J18:M18"/>
     <mergeCell ref="J19:M19"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="E12:E18"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C18"/>
-    <mergeCell ref="F12:F18"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="F33:L33"/>
-    <mergeCell ref="V32:W37"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="F32:L32"/>
-    <mergeCell ref="F34:L34"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="N12:V12"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="V21:V26"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N17:V17"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="N22:P22"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0"/>
@@ -5049,12 +5049,12 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="247" t="s">
+      <c r="G2" s="257" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="248"/>
-      <c r="I2" s="248"/>
-      <c r="J2" s="248"/>
+      <c r="H2" s="258"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="258"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -5067,28 +5067,28 @@
       <c r="T2" s="6"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="260" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="257"/>
-      <c r="C3" s="257"/>
-      <c r="D3" s="257"/>
-      <c r="E3" s="257"/>
-      <c r="F3" s="257"/>
-      <c r="G3" s="257"/>
-      <c r="H3" s="257"/>
-      <c r="I3" s="257"/>
-      <c r="J3" s="257"/>
-      <c r="K3" s="233" t="s">
+      <c r="B3" s="261"/>
+      <c r="C3" s="261"/>
+      <c r="D3" s="261"/>
+      <c r="E3" s="261"/>
+      <c r="F3" s="261"/>
+      <c r="G3" s="261"/>
+      <c r="H3" s="261"/>
+      <c r="I3" s="261"/>
+      <c r="J3" s="261"/>
+      <c r="K3" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="233"/>
-      <c r="M3" s="233"/>
-      <c r="N3" s="233"/>
-      <c r="O3" s="198" t="s">
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="203" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="198"/>
+      <c r="P3" s="203"/>
       <c r="Q3" s="135" t="s">
         <v>13</v>
       </c>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="S3" s="160">
         <f ca="1">TODAY()</f>
-        <v>43505</v>
+        <v>43506</v>
       </c>
       <c r="T3" s="6"/>
     </row>
@@ -5146,11 +5146,11 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="258" t="s">
+      <c r="A6" s="262" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="259"/>
-      <c r="C6" s="259"/>
+      <c r="B6" s="263"/>
+      <c r="C6" s="263"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -5170,11 +5170,11 @@
       <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="258" t="s">
+      <c r="A7" s="262" t="s">
         <v>185</v>
       </c>
-      <c r="B7" s="259"/>
-      <c r="C7" s="259"/>
+      <c r="B7" s="263"/>
+      <c r="C7" s="263"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -5194,11 +5194,11 @@
       <c r="T7" s="6"/>
     </row>
     <row r="8" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="258" t="s">
+      <c r="A8" s="262" t="s">
         <v>184</v>
       </c>
-      <c r="B8" s="259"/>
-      <c r="C8" s="259"/>
+      <c r="B8" s="263"/>
+      <c r="C8" s="263"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -5288,20 +5288,20 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="262" t="s">
+      <c r="E12" s="247" t="s">
         <v>183</v>
       </c>
-      <c r="F12" s="263"/>
-      <c r="G12" s="263"/>
-      <c r="H12" s="263"/>
-      <c r="I12" s="263"/>
-      <c r="J12" s="263"/>
-      <c r="K12" s="263"/>
-      <c r="L12" s="263"/>
-      <c r="M12" s="263"/>
-      <c r="N12" s="263"/>
-      <c r="O12" s="263"/>
-      <c r="P12" s="263"/>
+      <c r="F12" s="248"/>
+      <c r="G12" s="248"/>
+      <c r="H12" s="248"/>
+      <c r="I12" s="248"/>
+      <c r="J12" s="248"/>
+      <c r="K12" s="248"/>
+      <c r="L12" s="248"/>
+      <c r="M12" s="248"/>
+      <c r="N12" s="248"/>
+      <c r="O12" s="248"/>
+      <c r="P12" s="248"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -5312,18 +5312,18 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="263"/>
-      <c r="F13" s="263"/>
-      <c r="G13" s="263"/>
-      <c r="H13" s="263"/>
-      <c r="I13" s="263"/>
-      <c r="J13" s="263"/>
-      <c r="K13" s="263"/>
-      <c r="L13" s="263"/>
-      <c r="M13" s="263"/>
-      <c r="N13" s="263"/>
-      <c r="O13" s="263"/>
-      <c r="P13" s="263"/>
+      <c r="E13" s="248"/>
+      <c r="F13" s="248"/>
+      <c r="G13" s="248"/>
+      <c r="H13" s="248"/>
+      <c r="I13" s="248"/>
+      <c r="J13" s="248"/>
+      <c r="K13" s="248"/>
+      <c r="L13" s="248"/>
+      <c r="M13" s="248"/>
+      <c r="N13" s="248"/>
+      <c r="O13" s="248"/>
+      <c r="P13" s="248"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
@@ -5334,18 +5334,18 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="263"/>
-      <c r="F14" s="263"/>
-      <c r="G14" s="263"/>
-      <c r="H14" s="263"/>
-      <c r="I14" s="263"/>
-      <c r="J14" s="263"/>
-      <c r="K14" s="263"/>
-      <c r="L14" s="263"/>
-      <c r="M14" s="263"/>
-      <c r="N14" s="263"/>
-      <c r="O14" s="263"/>
-      <c r="P14" s="263"/>
+      <c r="E14" s="248"/>
+      <c r="F14" s="248"/>
+      <c r="G14" s="248"/>
+      <c r="H14" s="248"/>
+      <c r="I14" s="248"/>
+      <c r="J14" s="248"/>
+      <c r="K14" s="248"/>
+      <c r="L14" s="248"/>
+      <c r="M14" s="248"/>
+      <c r="N14" s="248"/>
+      <c r="O14" s="248"/>
+      <c r="P14" s="248"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
@@ -5379,23 +5379,23 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="226" t="s">
+      <c r="F16" s="200" t="s">
         <v>182</v>
       </c>
-      <c r="G16" s="255"/>
-      <c r="H16" s="255"/>
-      <c r="I16" s="255"/>
-      <c r="J16" s="261" t="str">
+      <c r="G16" s="249"/>
+      <c r="H16" s="249"/>
+      <c r="I16" s="249"/>
+      <c r="J16" s="250" t="str">
         <f>'лист титульный КД'!N12</f>
         <v>Иванов И.И</v>
       </c>
-      <c r="K16" s="261"/>
-      <c r="L16" s="261"/>
-      <c r="M16" s="261"/>
-      <c r="N16" s="261"/>
-      <c r="O16" s="261"/>
-      <c r="P16" s="261"/>
-      <c r="Q16" s="261"/>
+      <c r="K16" s="250"/>
+      <c r="L16" s="250"/>
+      <c r="M16" s="250"/>
+      <c r="N16" s="250"/>
+      <c r="O16" s="250"/>
+      <c r="P16" s="250"/>
+      <c r="Q16" s="250"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="6"/>
@@ -5406,23 +5406,23 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="226" t="s">
+      <c r="F17" s="200" t="s">
         <v>181</v>
       </c>
-      <c r="G17" s="255"/>
-      <c r="H17" s="255"/>
-      <c r="I17" s="255"/>
-      <c r="J17" s="253" t="str">
+      <c r="G17" s="249"/>
+      <c r="H17" s="249"/>
+      <c r="I17" s="249"/>
+      <c r="J17" s="251" t="str">
         <f>'лист титульный КД'!N13</f>
         <v>Петров П.П.</v>
       </c>
-      <c r="K17" s="253"/>
-      <c r="L17" s="253"/>
-      <c r="M17" s="253"/>
-      <c r="N17" s="253"/>
-      <c r="O17" s="253"/>
-      <c r="P17" s="253"/>
-      <c r="Q17" s="253"/>
+      <c r="K17" s="251"/>
+      <c r="L17" s="251"/>
+      <c r="M17" s="251"/>
+      <c r="N17" s="251"/>
+      <c r="O17" s="251"/>
+      <c r="P17" s="251"/>
+      <c r="Q17" s="251"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="6"/>
@@ -5433,23 +5433,23 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="226" t="s">
+      <c r="F18" s="200" t="s">
         <v>180</v>
       </c>
-      <c r="G18" s="255"/>
-      <c r="H18" s="255"/>
-      <c r="I18" s="255"/>
-      <c r="J18" s="253" t="str">
+      <c r="G18" s="249"/>
+      <c r="H18" s="249"/>
+      <c r="I18" s="249"/>
+      <c r="J18" s="251" t="str">
         <f>'лист титульный КД'!N14</f>
         <v>г. Москва, ул. Нарвская, д.2</v>
       </c>
-      <c r="K18" s="253"/>
-      <c r="L18" s="253"/>
-      <c r="M18" s="253"/>
-      <c r="N18" s="253"/>
-      <c r="O18" s="253"/>
-      <c r="P18" s="253"/>
-      <c r="Q18" s="253"/>
+      <c r="K18" s="251"/>
+      <c r="L18" s="251"/>
+      <c r="M18" s="251"/>
+      <c r="N18" s="251"/>
+      <c r="O18" s="251"/>
+      <c r="P18" s="251"/>
+      <c r="Q18" s="251"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="6"/>
@@ -5460,23 +5460,23 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="226" t="s">
+      <c r="F19" s="200" t="s">
         <v>179</v>
       </c>
-      <c r="G19" s="255"/>
-      <c r="H19" s="255"/>
-      <c r="I19" s="255"/>
-      <c r="J19" s="253" t="str">
+      <c r="G19" s="249"/>
+      <c r="H19" s="249"/>
+      <c r="I19" s="249"/>
+      <c r="J19" s="251" t="str">
         <f>'лист титульный КД'!N15</f>
         <v>восьмой</v>
       </c>
-      <c r="K19" s="253"/>
-      <c r="L19" s="253"/>
-      <c r="M19" s="253"/>
-      <c r="N19" s="253"/>
-      <c r="O19" s="253"/>
-      <c r="P19" s="253"/>
-      <c r="Q19" s="253"/>
+      <c r="K19" s="251"/>
+      <c r="L19" s="251"/>
+      <c r="M19" s="251"/>
+      <c r="N19" s="251"/>
+      <c r="O19" s="251"/>
+      <c r="P19" s="251"/>
+      <c r="Q19" s="251"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="6"/>
@@ -5487,23 +5487,23 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="226" t="s">
+      <c r="F20" s="200" t="s">
         <v>178</v>
       </c>
-      <c r="G20" s="255"/>
-      <c r="H20" s="255"/>
-      <c r="I20" s="255"/>
-      <c r="J20" s="253" t="str">
+      <c r="G20" s="249"/>
+      <c r="H20" s="249"/>
+      <c r="I20" s="249"/>
+      <c r="J20" s="251" t="str">
         <f>'лист титульный КД'!N16</f>
         <v>кухня</v>
       </c>
-      <c r="K20" s="253"/>
-      <c r="L20" s="253"/>
-      <c r="M20" s="253"/>
-      <c r="N20" s="253"/>
-      <c r="O20" s="253"/>
-      <c r="P20" s="253"/>
-      <c r="Q20" s="253"/>
+      <c r="K20" s="251"/>
+      <c r="L20" s="251"/>
+      <c r="M20" s="251"/>
+      <c r="N20" s="251"/>
+      <c r="O20" s="251"/>
+      <c r="P20" s="251"/>
+      <c r="Q20" s="251"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="6"/>
@@ -5514,23 +5514,23 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="226" t="s">
+      <c r="F21" s="200" t="s">
         <v>177</v>
       </c>
-      <c r="G21" s="255"/>
-      <c r="H21" s="255"/>
-      <c r="I21" s="255"/>
-      <c r="J21" s="261" t="str">
+      <c r="G21" s="249"/>
+      <c r="H21" s="249"/>
+      <c r="I21" s="249"/>
+      <c r="J21" s="250" t="str">
         <f>'лист титульный КД'!N17</f>
         <v>гарнитур кухонный, дверной блок</v>
       </c>
-      <c r="K21" s="261"/>
-      <c r="L21" s="261"/>
-      <c r="M21" s="261"/>
-      <c r="N21" s="261"/>
-      <c r="O21" s="261"/>
-      <c r="P21" s="261"/>
-      <c r="Q21" s="261"/>
+      <c r="K21" s="250"/>
+      <c r="L21" s="250"/>
+      <c r="M21" s="250"/>
+      <c r="N21" s="250"/>
+      <c r="O21" s="250"/>
+      <c r="P21" s="250"/>
+      <c r="Q21" s="250"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="6"/>
@@ -5541,23 +5541,23 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="226" t="s">
+      <c r="F22" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="G22" s="255"/>
-      <c r="H22" s="255"/>
-      <c r="I22" s="255"/>
-      <c r="J22" s="253">
+      <c r="G22" s="249"/>
+      <c r="H22" s="249"/>
+      <c r="I22" s="249"/>
+      <c r="J22" s="251">
         <f>'лист титульный КД'!N18</f>
         <v>500</v>
       </c>
-      <c r="K22" s="253"/>
-      <c r="L22" s="253"/>
-      <c r="M22" s="253"/>
-      <c r="N22" s="253"/>
-      <c r="O22" s="253"/>
-      <c r="P22" s="253"/>
-      <c r="Q22" s="253"/>
+      <c r="K22" s="251"/>
+      <c r="L22" s="251"/>
+      <c r="M22" s="251"/>
+      <c r="N22" s="251"/>
+      <c r="O22" s="251"/>
+      <c r="P22" s="251"/>
+      <c r="Q22" s="251"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="6"/>
@@ -5568,23 +5568,23 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="226" t="s">
+      <c r="F23" s="200" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="255"/>
-      <c r="H23" s="255"/>
-      <c r="I23" s="255"/>
-      <c r="J23" s="253" t="str">
+      <c r="G23" s="249"/>
+      <c r="H23" s="249"/>
+      <c r="I23" s="249"/>
+      <c r="J23" s="251" t="str">
         <f>'лист титульный КД'!N19</f>
         <v>1-15,16</v>
       </c>
-      <c r="K23" s="253"/>
-      <c r="L23" s="253"/>
-      <c r="M23" s="253"/>
-      <c r="N23" s="253"/>
-      <c r="O23" s="253"/>
-      <c r="P23" s="253"/>
-      <c r="Q23" s="253"/>
+      <c r="K23" s="251"/>
+      <c r="L23" s="251"/>
+      <c r="M23" s="251"/>
+      <c r="N23" s="251"/>
+      <c r="O23" s="251"/>
+      <c r="P23" s="251"/>
+      <c r="Q23" s="251"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="6"/>
@@ -5706,12 +5706,12 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="254" t="s">
+      <c r="G29" s="252" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="250"/>
-      <c r="I29" s="250"/>
-      <c r="J29" s="250"/>
+      <c r="H29" s="253"/>
+      <c r="I29" s="253"/>
+      <c r="J29" s="253"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -5724,29 +5724,29 @@
       <c r="T29" s="6"/>
     </row>
     <row r="30" spans="1:20" s="150" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="249" t="s">
+      <c r="A30" s="259" t="s">
         <v>187</v>
       </c>
-      <c r="B30" s="250"/>
-      <c r="C30" s="250"/>
-      <c r="D30" s="250"/>
-      <c r="E30" s="250"/>
-      <c r="F30" s="250"/>
-      <c r="G30" s="250"/>
-      <c r="H30" s="250"/>
-      <c r="I30" s="250"/>
-      <c r="J30" s="250"/>
-      <c r="K30" s="252" t="str">
-        <f>builder</f>
+      <c r="B30" s="253"/>
+      <c r="C30" s="253"/>
+      <c r="D30" s="253"/>
+      <c r="E30" s="253"/>
+      <c r="F30" s="253"/>
+      <c r="G30" s="253"/>
+      <c r="H30" s="253"/>
+      <c r="I30" s="253"/>
+      <c r="J30" s="253"/>
+      <c r="K30" s="256" t="str">
+        <f>IF(builder=0,"",builder)</f>
         <v>_____________</v>
       </c>
-      <c r="L30" s="252"/>
-      <c r="M30" s="252"/>
-      <c r="N30" s="252"/>
-      <c r="O30" s="252" t="s">
+      <c r="L30" s="256"/>
+      <c r="M30" s="256"/>
+      <c r="N30" s="256"/>
+      <c r="O30" s="256" t="s">
         <v>15</v>
       </c>
-      <c r="P30" s="252"/>
+      <c r="P30" s="256"/>
       <c r="Q30" s="152" t="s">
         <v>13</v>
       </c>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="S30" s="160">
         <f ca="1">TODAY()</f>
-        <v>43505</v>
+        <v>43506</v>
       </c>
       <c r="T30" s="151"/>
     </row>
@@ -5788,12 +5788,12 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="254" t="s">
+      <c r="G32" s="252" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="250"/>
-      <c r="I32" s="250"/>
-      <c r="J32" s="250"/>
+      <c r="H32" s="253"/>
+      <c r="I32" s="253"/>
+      <c r="J32" s="253"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -5806,28 +5806,28 @@
       <c r="T32" s="6"/>
     </row>
     <row r="33" spans="1:20" s="150" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="260" t="s">
+      <c r="A33" s="254" t="s">
         <v>174</v>
       </c>
-      <c r="B33" s="250"/>
-      <c r="C33" s="250"/>
-      <c r="D33" s="250"/>
-      <c r="E33" s="250"/>
-      <c r="F33" s="250"/>
-      <c r="G33" s="250"/>
-      <c r="H33" s="250"/>
-      <c r="I33" s="250"/>
-      <c r="J33" s="250"/>
-      <c r="K33" s="251" t="s">
+      <c r="B33" s="253"/>
+      <c r="C33" s="253"/>
+      <c r="D33" s="253"/>
+      <c r="E33" s="253"/>
+      <c r="F33" s="253"/>
+      <c r="G33" s="253"/>
+      <c r="H33" s="253"/>
+      <c r="I33" s="253"/>
+      <c r="J33" s="253"/>
+      <c r="K33" s="255" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="251"/>
-      <c r="M33" s="251"/>
-      <c r="N33" s="251"/>
-      <c r="O33" s="252" t="s">
+      <c r="L33" s="255"/>
+      <c r="M33" s="255"/>
+      <c r="N33" s="255"/>
+      <c r="O33" s="256" t="s">
         <v>15</v>
       </c>
-      <c r="P33" s="252"/>
+      <c r="P33" s="256"/>
       <c r="Q33" s="152" t="s">
         <v>13</v>
       </c>
@@ -5836,33 +5836,33 @@
       </c>
       <c r="S33" s="160">
         <f ca="1">TODAY()</f>
-        <v>43505</v>
+        <v>43506</v>
       </c>
       <c r="T33" s="151"/>
     </row>
     <row r="34" spans="1:20" s="150" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="260" t="s">
+      <c r="A34" s="254" t="s">
         <v>173</v>
       </c>
-      <c r="B34" s="250"/>
-      <c r="C34" s="250"/>
-      <c r="D34" s="250"/>
-      <c r="E34" s="250"/>
-      <c r="F34" s="250"/>
-      <c r="G34" s="250"/>
-      <c r="H34" s="250"/>
-      <c r="I34" s="250"/>
-      <c r="J34" s="250"/>
-      <c r="K34" s="251" t="s">
+      <c r="B34" s="253"/>
+      <c r="C34" s="253"/>
+      <c r="D34" s="253"/>
+      <c r="E34" s="253"/>
+      <c r="F34" s="253"/>
+      <c r="G34" s="253"/>
+      <c r="H34" s="253"/>
+      <c r="I34" s="253"/>
+      <c r="J34" s="253"/>
+      <c r="K34" s="255" t="s">
         <v>14</v>
       </c>
-      <c r="L34" s="251"/>
-      <c r="M34" s="251"/>
-      <c r="N34" s="251"/>
-      <c r="O34" s="252" t="s">
+      <c r="L34" s="255"/>
+      <c r="M34" s="255"/>
+      <c r="N34" s="255"/>
+      <c r="O34" s="256" t="s">
         <v>15</v>
       </c>
-      <c r="P34" s="252"/>
+      <c r="P34" s="256"/>
       <c r="Q34" s="152" t="s">
         <v>13</v>
       </c>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="S34" s="160">
         <f ca="1">TODAY()</f>
-        <v>43505</v>
+        <v>43506</v>
       </c>
       <c r="T34" s="151"/>
     </row>
@@ -5921,25 +5921,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E12:P14"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="O33:P33"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="A30:J30"/>
@@ -5956,6 +5937,25 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="E12:P14"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="J17:Q17"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>

--- a/dist/files/xls/shablon-kd.xlsx
+++ b/dist/files/xls/shablon-kd.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OPEN_SERVER\OSPanel\domains\localhost\www\dist\files\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8190" tabRatio="778"/>
   </bookViews>
@@ -27,7 +32,7 @@
     <definedName name="floor">'лист титульный КД'!$N$15</definedName>
     <definedName name="order">'лист титульный КД'!$N$18</definedName>
     <definedName name="Print_Area" localSheetId="0">'лист титульный КД'!$A$2:$W$30</definedName>
-    <definedName name="Print_Area" localSheetId="3">'ТИТУЛЬНЫЙ ЛИСТ ВПИ'!$A$1:$T$36</definedName>
+    <definedName name="Print_Area" localSheetId="3">'ТИТУЛЬНЫЙ ЛИСТ ВПИ'!$A$1:$T$35</definedName>
     <definedName name="product">'лист титульный КД'!$N$19</definedName>
     <definedName name="room">'лист титульный КД'!$N$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'ВЕДОМОСТЬ МАТЕРИАЛОВ'!$A$1:$M$28</definedName>
@@ -36,9 +41,9 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'лист титульный КД'!$A$1:$W$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'паспорт изделий заказа'!$A$1:$M$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'спецификация конструкторская'!$A$1:$M$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'ТИТУЛЬНЫЙ ЛИСТ ВПИ'!$A$1:$T$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'ТИТУЛЬНЫЙ ЛИСТ ВПИ'!$A$1:$T$35</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -672,7 +677,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy"/>
   </numFmts>
@@ -2139,16 +2144,161 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2158,151 +2308,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2321,55 +2326,55 @@
     <xf numFmtId="0" fontId="35" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2733,7 +2738,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2811,23 +2816,23 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="209" t="s">
+      <c r="I2" s="220" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="211"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="222"/>
       <c r="O2" s="100"/>
-      <c r="P2" s="212" t="s">
+      <c r="P2" s="223" t="s">
         <v>161</v>
       </c>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="196"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
+      <c r="Q2" s="224"/>
+      <c r="R2" s="224"/>
+      <c r="S2" s="224"/>
+      <c r="T2" s="224"/>
+      <c r="U2" s="224"/>
       <c r="V2" s="137"/>
       <c r="W2" s="27"/>
       <c r="X2" s="12"/>
@@ -2848,10 +2853,10 @@
         <v>30</v>
       </c>
       <c r="K3" s="103"/>
-      <c r="L3" s="196" t="s">
+      <c r="L3" s="224" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="196"/>
+      <c r="M3" s="224"/>
       <c r="N3" s="163" t="s">
         <v>31</v>
       </c>
@@ -2863,10 +2868,10 @@
         <v>38</v>
       </c>
       <c r="R3" s="103"/>
-      <c r="S3" s="196" t="s">
+      <c r="S3" s="224" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="196"/>
+      <c r="T3" s="224"/>
       <c r="U3" s="127" t="s">
         <v>35</v>
       </c>
@@ -3073,22 +3078,22 @@
       <c r="X8" s="12"/>
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="218" t="s">
+      <c r="A9" s="204" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="219" t="s">
+      <c r="B9" s="196" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="225" t="s">
+      <c r="C9" s="195" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="220" t="s">
+      <c r="D9" s="205" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="220"/>
-      <c r="F9" s="220"/>
-      <c r="G9" s="220"/>
-      <c r="H9" s="224"/>
+      <c r="E9" s="205"/>
+      <c r="F9" s="205"/>
+      <c r="G9" s="205"/>
+      <c r="H9" s="208"/>
       <c r="I9" s="105"/>
       <c r="J9" s="106"/>
       <c r="K9" s="106"/>
@@ -3115,22 +3120,22 @@
       <c r="X9" s="12"/>
     </row>
     <row r="10" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="218"/>
-      <c r="B10" s="219"/>
-      <c r="C10" s="225"/>
-      <c r="D10" s="220" t="s">
+      <c r="A10" s="204"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="205" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="221" t="s">
+      <c r="E10" s="193" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="221" t="s">
+      <c r="F10" s="193" t="s">
         <v>126</v>
       </c>
-      <c r="G10" s="219" t="s">
+      <c r="G10" s="196" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="225" t="s">
+      <c r="H10" s="195" t="s">
         <v>128</v>
       </c>
       <c r="I10" s="5"/>
@@ -3151,14 +3156,14 @@
       <c r="X10" s="12"/>
     </row>
     <row r="11" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="218"/>
-      <c r="B11" s="219"/>
-      <c r="C11" s="225"/>
-      <c r="D11" s="220"/>
-      <c r="E11" s="221"/>
-      <c r="F11" s="237"/>
-      <c r="G11" s="219"/>
-      <c r="H11" s="225"/>
+      <c r="A11" s="204"/>
+      <c r="B11" s="196"/>
+      <c r="C11" s="195"/>
+      <c r="D11" s="205"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="194"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="195"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="146" t="s">
@@ -3179,67 +3184,67 @@
       <c r="X11" s="12"/>
     </row>
     <row r="12" spans="1:24" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="217" t="s">
+      <c r="A12" s="203" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="222" t="s">
+      <c r="B12" s="206" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="222" t="s">
+      <c r="C12" s="206" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="222" t="s">
+      <c r="D12" s="206" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="223" t="s">
+      <c r="E12" s="207" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="223" t="s">
+      <c r="F12" s="207" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="226" t="s">
+      <c r="G12" s="209" t="s">
         <v>152</v>
       </c>
-      <c r="H12" s="238" t="s">
+      <c r="H12" s="197" t="s">
         <v>134</v>
       </c>
       <c r="I12" s="138"/>
-      <c r="J12" s="199" t="s">
+      <c r="J12" s="227" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="199"/>
-      <c r="L12" s="199"/>
-      <c r="M12" s="199"/>
-      <c r="N12" s="239" t="s">
+      <c r="K12" s="227"/>
+      <c r="L12" s="227"/>
+      <c r="M12" s="227"/>
+      <c r="N12" s="201" t="s">
         <v>172</v>
       </c>
-      <c r="O12" s="240"/>
-      <c r="P12" s="240"/>
-      <c r="Q12" s="240"/>
-      <c r="R12" s="240"/>
-      <c r="S12" s="240"/>
-      <c r="T12" s="240"/>
-      <c r="U12" s="240"/>
-      <c r="V12" s="240"/>
+      <c r="O12" s="202"/>
+      <c r="P12" s="202"/>
+      <c r="Q12" s="202"/>
+      <c r="R12" s="202"/>
+      <c r="S12" s="202"/>
+      <c r="T12" s="202"/>
+      <c r="U12" s="202"/>
+      <c r="V12" s="202"/>
       <c r="W12" s="6"/>
       <c r="X12" s="12"/>
     </row>
     <row r="13" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="217"/>
-      <c r="B13" s="222"/>
-      <c r="C13" s="222"/>
-      <c r="D13" s="222"/>
-      <c r="E13" s="223"/>
-      <c r="F13" s="223"/>
-      <c r="G13" s="227"/>
-      <c r="H13" s="238"/>
+      <c r="A13" s="203"/>
+      <c r="B13" s="206"/>
+      <c r="C13" s="206"/>
+      <c r="D13" s="206"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="210"/>
+      <c r="H13" s="197"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="200" t="s">
+      <c r="J13" s="226" t="s">
         <v>171</v>
       </c>
-      <c r="K13" s="200"/>
-      <c r="L13" s="200"/>
-      <c r="M13" s="200"/>
+      <c r="K13" s="226"/>
+      <c r="L13" s="226"/>
+      <c r="M13" s="226"/>
       <c r="N13" s="170" t="s">
         <v>170</v>
       </c>
@@ -3254,52 +3259,52 @@
       <c r="W13" s="6"/>
       <c r="X13" s="12"/>
     </row>
-    <row r="14" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="217"/>
-      <c r="B14" s="222"/>
-      <c r="C14" s="222"/>
-      <c r="D14" s="222"/>
-      <c r="E14" s="223"/>
-      <c r="F14" s="223"/>
-      <c r="G14" s="227"/>
-      <c r="H14" s="238"/>
+    <row r="14" spans="1:24" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="203"/>
+      <c r="B14" s="206"/>
+      <c r="C14" s="206"/>
+      <c r="D14" s="206"/>
+      <c r="E14" s="207"/>
+      <c r="F14" s="207"/>
+      <c r="G14" s="210"/>
+      <c r="H14" s="197"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="200" t="s">
+      <c r="J14" s="226" t="s">
         <v>114</v>
       </c>
-      <c r="K14" s="200"/>
-      <c r="L14" s="200"/>
-      <c r="M14" s="200"/>
-      <c r="N14" s="171" t="s">
+      <c r="K14" s="226"/>
+      <c r="L14" s="226"/>
+      <c r="M14" s="226"/>
+      <c r="N14" s="235" t="s">
         <v>146</v>
       </c>
-      <c r="O14" s="144"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="144"/>
-      <c r="S14" s="144"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
+      <c r="O14" s="236"/>
+      <c r="P14" s="236"/>
+      <c r="Q14" s="236"/>
+      <c r="R14" s="236"/>
+      <c r="S14" s="236"/>
+      <c r="T14" s="236"/>
+      <c r="U14" s="236"/>
+      <c r="V14" s="236"/>
       <c r="W14" s="6"/>
       <c r="X14" s="12"/>
     </row>
     <row r="15" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="217"/>
-      <c r="B15" s="222"/>
-      <c r="C15" s="222"/>
-      <c r="D15" s="222"/>
-      <c r="E15" s="223"/>
-      <c r="F15" s="223"/>
-      <c r="G15" s="228"/>
-      <c r="H15" s="238"/>
+      <c r="A15" s="203"/>
+      <c r="B15" s="206"/>
+      <c r="C15" s="206"/>
+      <c r="D15" s="206"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="197"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="200" t="s">
+      <c r="J15" s="226" t="s">
         <v>169</v>
       </c>
-      <c r="K15" s="200"/>
-      <c r="L15" s="200"/>
-      <c r="M15" s="200"/>
+      <c r="K15" s="226"/>
+      <c r="L15" s="226"/>
+      <c r="M15" s="226"/>
       <c r="N15" s="171" t="s">
         <v>168</v>
       </c>
@@ -3315,23 +3320,23 @@
       <c r="X15" s="12"/>
     </row>
     <row r="16" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="217"/>
-      <c r="B16" s="222"/>
-      <c r="C16" s="222"/>
-      <c r="D16" s="222"/>
-      <c r="E16" s="223"/>
-      <c r="F16" s="223"/>
-      <c r="G16" s="226" t="s">
+      <c r="A16" s="203"/>
+      <c r="B16" s="206"/>
+      <c r="C16" s="206"/>
+      <c r="D16" s="206"/>
+      <c r="E16" s="207"/>
+      <c r="F16" s="207"/>
+      <c r="G16" s="209" t="s">
         <v>151</v>
       </c>
-      <c r="H16" s="238"/>
+      <c r="H16" s="197"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="200" t="s">
+      <c r="J16" s="226" t="s">
         <v>167</v>
       </c>
-      <c r="K16" s="200"/>
-      <c r="L16" s="200"/>
-      <c r="M16" s="200"/>
+      <c r="K16" s="226"/>
+      <c r="L16" s="226"/>
+      <c r="M16" s="226"/>
       <c r="N16" s="171" t="s">
         <v>166</v>
       </c>
@@ -3347,51 +3352,51 @@
       <c r="X16" s="12"/>
     </row>
     <row r="17" spans="1:24" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="217"/>
-      <c r="B17" s="222"/>
-      <c r="C17" s="222"/>
-      <c r="D17" s="222"/>
-      <c r="E17" s="223"/>
-      <c r="F17" s="223"/>
-      <c r="G17" s="227"/>
-      <c r="H17" s="238"/>
+      <c r="A17" s="203"/>
+      <c r="B17" s="206"/>
+      <c r="C17" s="206"/>
+      <c r="D17" s="206"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="207"/>
+      <c r="G17" s="210"/>
+      <c r="H17" s="197"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="200" t="s">
+      <c r="J17" s="226" t="s">
         <v>165</v>
       </c>
-      <c r="K17" s="200"/>
-      <c r="L17" s="200"/>
-      <c r="M17" s="200"/>
-      <c r="N17" s="201" t="s">
+      <c r="K17" s="226"/>
+      <c r="L17" s="226"/>
+      <c r="M17" s="226"/>
+      <c r="N17" s="235" t="s">
         <v>164</v>
       </c>
-      <c r="O17" s="202"/>
-      <c r="P17" s="202"/>
-      <c r="Q17" s="202"/>
-      <c r="R17" s="202"/>
-      <c r="S17" s="202"/>
-      <c r="T17" s="202"/>
-      <c r="U17" s="202"/>
-      <c r="V17" s="202"/>
+      <c r="O17" s="236"/>
+      <c r="P17" s="236"/>
+      <c r="Q17" s="236"/>
+      <c r="R17" s="236"/>
+      <c r="S17" s="236"/>
+      <c r="T17" s="236"/>
+      <c r="U17" s="236"/>
+      <c r="V17" s="236"/>
       <c r="W17" s="6"/>
       <c r="X17" s="12"/>
     </row>
     <row r="18" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="217"/>
-      <c r="B18" s="222"/>
-      <c r="C18" s="222"/>
-      <c r="D18" s="222"/>
-      <c r="E18" s="223"/>
-      <c r="F18" s="223"/>
-      <c r="G18" s="228"/>
-      <c r="H18" s="238"/>
+      <c r="A18" s="203"/>
+      <c r="B18" s="206"/>
+      <c r="C18" s="206"/>
+      <c r="D18" s="206"/>
+      <c r="E18" s="207"/>
+      <c r="F18" s="207"/>
+      <c r="G18" s="211"/>
+      <c r="H18" s="197"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="199" t="s">
+      <c r="J18" s="227" t="s">
         <v>113</v>
       </c>
-      <c r="K18" s="199"/>
-      <c r="L18" s="199"/>
-      <c r="M18" s="199"/>
+      <c r="K18" s="227"/>
+      <c r="L18" s="227"/>
+      <c r="M18" s="227"/>
       <c r="N18" s="172">
         <v>500</v>
       </c>
@@ -3415,12 +3420,12 @@
       <c r="G19" s="111"/>
       <c r="H19" s="112"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="199" t="s">
+      <c r="J19" s="227" t="s">
         <v>112</v>
       </c>
-      <c r="K19" s="199"/>
-      <c r="L19" s="199"/>
-      <c r="M19" s="199"/>
+      <c r="K19" s="227"/>
+      <c r="L19" s="227"/>
+      <c r="M19" s="227"/>
       <c r="N19" s="172" t="s">
         <v>163</v>
       </c>
@@ -3470,12 +3475,12 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="197" t="s">
+      <c r="I21" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="198"/>
-      <c r="K21" s="198"/>
-      <c r="L21" s="198"/>
+      <c r="J21" s="232"/>
+      <c r="K21" s="232"/>
+      <c r="L21" s="232"/>
       <c r="M21" s="5"/>
       <c r="N21" s="173"/>
       <c r="O21" s="5"/>
@@ -3485,10 +3490,10 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="161"/>
-      <c r="V21" s="193" t="s">
+      <c r="V21" s="228" t="s">
         <v>150</v>
       </c>
-      <c r="W21" s="205" t="s">
+      <c r="W21" s="216" t="s">
         <v>149</v>
       </c>
       <c r="X21" s="12"/>
@@ -3503,20 +3508,20 @@
       <c r="G22" s="12"/>
       <c r="H22" s="25"/>
       <c r="I22" s="125"/>
-      <c r="J22" s="187" t="s">
+      <c r="J22" s="237" t="s">
         <v>148</v>
       </c>
-      <c r="K22" s="187"/>
-      <c r="L22" s="187"/>
-      <c r="N22" s="190" t="s">
+      <c r="K22" s="237"/>
+      <c r="L22" s="237"/>
+      <c r="N22" s="239" t="s">
         <v>40</v>
       </c>
-      <c r="O22" s="191"/>
-      <c r="P22" s="191"/>
-      <c r="Q22" s="203" t="s">
+      <c r="O22" s="240"/>
+      <c r="P22" s="240"/>
+      <c r="Q22" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="R22" s="203"/>
+      <c r="R22" s="198"/>
       <c r="S22" s="135" t="s">
         <v>13</v>
       </c>
@@ -3525,10 +3530,10 @@
       </c>
       <c r="U22" s="159">
         <f ca="1">TODAY()</f>
-        <v>43506</v>
-      </c>
-      <c r="V22" s="194"/>
-      <c r="W22" s="206"/>
+        <v>43507</v>
+      </c>
+      <c r="V22" s="229"/>
+      <c r="W22" s="217"/>
       <c r="X22" s="12"/>
     </row>
     <row r="23" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3555,8 +3560,8 @@
       <c r="S23" s="115"/>
       <c r="T23" s="115"/>
       <c r="U23" s="115"/>
-      <c r="V23" s="194"/>
-      <c r="W23" s="206"/>
+      <c r="V23" s="229"/>
+      <c r="W23" s="217"/>
       <c r="X23" s="12"/>
     </row>
     <row r="24" spans="1:24" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3568,18 +3573,18 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="188" t="s">
+      <c r="I24" s="225" t="s">
         <v>136</v>
       </c>
-      <c r="J24" s="188"/>
-      <c r="K24" s="188"/>
-      <c r="L24" s="188"/>
+      <c r="J24" s="225"/>
+      <c r="K24" s="225"/>
+      <c r="L24" s="225"/>
       <c r="M24" s="12"/>
-      <c r="N24" s="185" t="s">
+      <c r="N24" s="233" t="s">
         <v>14</v>
       </c>
-      <c r="O24" s="186"/>
-      <c r="P24" s="186"/>
+      <c r="O24" s="234"/>
+      <c r="P24" s="234"/>
       <c r="Q24" s="139" t="s">
         <v>15</v>
       </c>
@@ -3592,10 +3597,10 @@
       </c>
       <c r="U24" s="159">
         <f ca="1">TODAY()</f>
-        <v>43506</v>
-      </c>
-      <c r="V24" s="194"/>
-      <c r="W24" s="206"/>
+        <v>43507</v>
+      </c>
+      <c r="V24" s="229"/>
+      <c r="W24" s="217"/>
       <c r="X24" s="12"/>
     </row>
     <row r="25" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3607,18 +3612,18 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="188" t="s">
+      <c r="I25" s="225" t="s">
         <v>137</v>
       </c>
-      <c r="J25" s="188"/>
-      <c r="K25" s="188"/>
-      <c r="L25" s="188"/>
+      <c r="J25" s="225"/>
+      <c r="K25" s="225"/>
+      <c r="L25" s="225"/>
       <c r="M25" s="12"/>
-      <c r="N25" s="185" t="s">
+      <c r="N25" s="233" t="s">
         <v>14</v>
       </c>
-      <c r="O25" s="186"/>
-      <c r="P25" s="186"/>
+      <c r="O25" s="234"/>
+      <c r="P25" s="234"/>
       <c r="Q25" s="139" t="s">
         <v>15</v>
       </c>
@@ -3631,10 +3636,10 @@
       </c>
       <c r="U25" s="159">
         <f ca="1">TODAY()</f>
-        <v>43506</v>
-      </c>
-      <c r="V25" s="194"/>
-      <c r="W25" s="206"/>
+        <v>43507</v>
+      </c>
+      <c r="V25" s="229"/>
+      <c r="W25" s="217"/>
       <c r="X25" s="12"/>
     </row>
     <row r="26" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3646,18 +3651,18 @@
       <c r="F26" s="115"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="188" t="s">
+      <c r="I26" s="225" t="s">
         <v>138</v>
       </c>
-      <c r="J26" s="188"/>
-      <c r="K26" s="188"/>
-      <c r="L26" s="188"/>
+      <c r="J26" s="225"/>
+      <c r="K26" s="225"/>
+      <c r="L26" s="225"/>
       <c r="M26" s="12"/>
-      <c r="N26" s="185" t="s">
+      <c r="N26" s="233" t="s">
         <v>14</v>
       </c>
-      <c r="O26" s="186"/>
-      <c r="P26" s="186"/>
+      <c r="O26" s="234"/>
+      <c r="P26" s="234"/>
       <c r="Q26" s="139" t="s">
         <v>15</v>
       </c>
@@ -3670,10 +3675,10 @@
       </c>
       <c r="U26" s="159">
         <f ca="1">TODAY()</f>
-        <v>43506</v>
-      </c>
-      <c r="V26" s="195"/>
-      <c r="W26" s="206"/>
+        <v>43507</v>
+      </c>
+      <c r="V26" s="230"/>
+      <c r="W26" s="217"/>
       <c r="X26" s="12"/>
     </row>
     <row r="27" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3685,21 +3690,21 @@
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
-      <c r="I27" s="189"/>
-      <c r="J27" s="189"/>
-      <c r="K27" s="189"/>
-      <c r="L27" s="189"/>
-      <c r="M27" s="208"/>
-      <c r="N27" s="208"/>
-      <c r="O27" s="208"/>
-      <c r="P27" s="208"/>
-      <c r="Q27" s="213"/>
-      <c r="R27" s="213"/>
+      <c r="I27" s="238"/>
+      <c r="J27" s="238"/>
+      <c r="K27" s="238"/>
+      <c r="L27" s="238"/>
+      <c r="M27" s="219"/>
+      <c r="N27" s="219"/>
+      <c r="O27" s="219"/>
+      <c r="P27" s="219"/>
+      <c r="Q27" s="200"/>
+      <c r="R27" s="200"/>
       <c r="S27" s="139"/>
       <c r="T27" s="139"/>
       <c r="U27" s="139"/>
       <c r="V27" s="139"/>
-      <c r="W27" s="206"/>
+      <c r="W27" s="217"/>
       <c r="X27" s="12"/>
     </row>
     <row r="28" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -3712,21 +3717,21 @@
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="115"/>
-      <c r="J28" s="187" t="s">
+      <c r="J28" s="237" t="s">
         <v>135</v>
       </c>
-      <c r="K28" s="187"/>
-      <c r="L28" s="187"/>
+      <c r="K28" s="237"/>
+      <c r="L28" s="237"/>
       <c r="M28" s="12"/>
-      <c r="N28" s="185" t="s">
+      <c r="N28" s="233" t="s">
         <v>14</v>
       </c>
-      <c r="O28" s="186"/>
-      <c r="P28" s="186"/>
-      <c r="Q28" s="213" t="s">
+      <c r="O28" s="234"/>
+      <c r="P28" s="234"/>
+      <c r="Q28" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="R28" s="213"/>
+      <c r="R28" s="200"/>
       <c r="S28" s="139" t="s">
         <v>13</v>
       </c>
@@ -3735,19 +3740,19 @@
       </c>
       <c r="U28" s="159">
         <f ca="1">TODAY()</f>
-        <v>43506</v>
+        <v>43507</v>
       </c>
       <c r="V28" s="139"/>
-      <c r="W28" s="206"/>
+      <c r="W28" s="217"/>
       <c r="X28" s="12"/>
     </row>
     <row r="29" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="236"/>
-      <c r="D29" s="236"/>
-      <c r="E29" s="236"/>
-      <c r="F29" s="236"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="191"/>
+      <c r="E29" s="191"/>
+      <c r="F29" s="191"/>
       <c r="G29" s="120"/>
       <c r="H29" s="25"/>
       <c r="I29" s="12"/>
@@ -3764,10 +3769,10 @@
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
       <c r="V29" s="124"/>
-      <c r="W29" s="207"/>
+      <c r="W29" s="218"/>
       <c r="X29" s="12"/>
     </row>
-    <row r="30" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="118"/>
       <c r="B30" s="119"/>
       <c r="C30" s="119"/>
@@ -3796,10 +3801,10 @@
     <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="236"/>
-      <c r="D31" s="236"/>
-      <c r="E31" s="236"/>
-      <c r="F31" s="236"/>
+      <c r="C31" s="191"/>
+      <c r="D31" s="191"/>
+      <c r="E31" s="191"/>
+      <c r="F31" s="191"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -3825,25 +3830,25 @@
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="229" t="s">
+      <c r="F32" s="199" t="s">
         <v>139</v>
       </c>
-      <c r="G32" s="229"/>
-      <c r="H32" s="229"/>
-      <c r="I32" s="229"/>
-      <c r="J32" s="229"/>
-      <c r="K32" s="229"/>
-      <c r="L32" s="229"/>
+      <c r="G32" s="199"/>
+      <c r="H32" s="199"/>
+      <c r="I32" s="199"/>
+      <c r="J32" s="199"/>
+      <c r="K32" s="199"/>
+      <c r="L32" s="199"/>
       <c r="M32" s="139" t="s">
         <v>188</v>
       </c>
       <c r="N32" s="174"/>
       <c r="O32" s="115"/>
       <c r="P32" s="115"/>
-      <c r="Q32" s="203" t="s">
+      <c r="Q32" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="R32" s="203"/>
+      <c r="R32" s="198"/>
       <c r="S32" s="135" t="s">
         <v>13</v>
       </c>
@@ -3852,12 +3857,12 @@
       </c>
       <c r="U32" s="159">
         <f ca="1">TODAY()</f>
-        <v>43506</v>
-      </c>
-      <c r="V32" s="230" t="s">
+        <v>43507</v>
+      </c>
+      <c r="V32" s="185" t="s">
         <v>147</v>
       </c>
-      <c r="W32" s="231"/>
+      <c r="W32" s="186"/>
       <c r="X32" s="12"/>
     </row>
     <row r="33" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3866,15 +3871,15 @@
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="229" t="s">
+      <c r="F33" s="199" t="s">
         <v>139</v>
       </c>
-      <c r="G33" s="229"/>
-      <c r="H33" s="229"/>
-      <c r="I33" s="229"/>
-      <c r="J33" s="229"/>
-      <c r="K33" s="229"/>
-      <c r="L33" s="229"/>
+      <c r="G33" s="199"/>
+      <c r="H33" s="199"/>
+      <c r="I33" s="199"/>
+      <c r="J33" s="199"/>
+      <c r="K33" s="199"/>
+      <c r="L33" s="199"/>
       <c r="M33" s="139" t="s">
         <v>118</v>
       </c>
@@ -3883,10 +3888,10 @@
       </c>
       <c r="O33" s="115"/>
       <c r="P33" s="115"/>
-      <c r="Q33" s="203" t="s">
+      <c r="Q33" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="R33" s="203"/>
+      <c r="R33" s="198"/>
       <c r="S33" s="135" t="s">
         <v>13</v>
       </c>
@@ -3895,10 +3900,10 @@
       </c>
       <c r="U33" s="159">
         <f t="shared" ref="U33:U37" ca="1" si="0">TODAY()</f>
-        <v>43506</v>
-      </c>
-      <c r="V33" s="232"/>
-      <c r="W33" s="233"/>
+        <v>43507</v>
+      </c>
+      <c r="V33" s="187"/>
+      <c r="W33" s="188"/>
       <c r="X33" s="12"/>
     </row>
     <row r="34" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3907,15 +3912,15 @@
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="229" t="s">
+      <c r="F34" s="199" t="s">
         <v>140</v>
       </c>
-      <c r="G34" s="229"/>
-      <c r="H34" s="229"/>
-      <c r="I34" s="229"/>
-      <c r="J34" s="229"/>
-      <c r="K34" s="229"/>
-      <c r="L34" s="229"/>
+      <c r="G34" s="199"/>
+      <c r="H34" s="199"/>
+      <c r="I34" s="199"/>
+      <c r="J34" s="199"/>
+      <c r="K34" s="199"/>
+      <c r="L34" s="199"/>
       <c r="M34" s="139" t="s">
         <v>141</v>
       </c>
@@ -3924,10 +3929,10 @@
         <v>142</v>
       </c>
       <c r="P34" s="115"/>
-      <c r="Q34" s="203" t="s">
+      <c r="Q34" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="R34" s="203"/>
+      <c r="R34" s="198"/>
       <c r="S34" s="135" t="s">
         <v>13</v>
       </c>
@@ -3936,10 +3941,10 @@
       </c>
       <c r="U34" s="159">
         <f t="shared" ca="1" si="0"/>
-        <v>43506</v>
-      </c>
-      <c r="V34" s="232"/>
-      <c r="W34" s="233"/>
+        <v>43507</v>
+      </c>
+      <c r="V34" s="187"/>
+      <c r="W34" s="188"/>
       <c r="X34" s="12"/>
     </row>
     <row r="35" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3955,16 +3960,16 @@
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
-      <c r="M35" s="204" t="s">
+      <c r="M35" s="215" t="s">
         <v>190</v>
       </c>
-      <c r="N35" s="204"/>
-      <c r="O35" s="204"/>
-      <c r="P35" s="204"/>
-      <c r="Q35" s="203" t="s">
+      <c r="N35" s="215"/>
+      <c r="O35" s="215"/>
+      <c r="P35" s="215"/>
+      <c r="Q35" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="R35" s="203"/>
+      <c r="R35" s="198"/>
       <c r="S35" s="135" t="s">
         <v>13</v>
       </c>
@@ -3973,10 +3978,10 @@
       </c>
       <c r="U35" s="159">
         <f t="shared" ca="1" si="0"/>
-        <v>43506</v>
-      </c>
-      <c r="V35" s="232"/>
-      <c r="W35" s="233"/>
+        <v>43507</v>
+      </c>
+      <c r="V35" s="187"/>
+      <c r="W35" s="188"/>
       <c r="X35" s="12"/>
     </row>
     <row r="36" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -3992,46 +3997,46 @@
       <c r="J36" s="122"/>
       <c r="K36" s="122"/>
       <c r="L36" s="122"/>
-      <c r="M36" s="214"/>
-      <c r="N36" s="214"/>
+      <c r="M36" s="212"/>
+      <c r="N36" s="212"/>
       <c r="O36" s="115"/>
       <c r="P36" s="115"/>
-      <c r="Q36" s="203"/>
-      <c r="R36" s="203"/>
+      <c r="Q36" s="198"/>
+      <c r="R36" s="198"/>
       <c r="S36" s="135"/>
       <c r="T36" s="135"/>
       <c r="U36" s="159"/>
-      <c r="V36" s="232"/>
-      <c r="W36" s="233"/>
+      <c r="V36" s="187"/>
+      <c r="W36" s="188"/>
       <c r="X36" s="12"/>
     </row>
     <row r="37" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="215" t="s">
+      <c r="D37" s="213" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="215"/>
-      <c r="F37" s="215"/>
-      <c r="G37" s="215"/>
-      <c r="H37" s="215"/>
-      <c r="I37" s="215"/>
-      <c r="J37" s="215"/>
-      <c r="K37" s="215"/>
-      <c r="L37" s="216" t="s">
+      <c r="E37" s="213"/>
+      <c r="F37" s="213"/>
+      <c r="G37" s="213"/>
+      <c r="H37" s="213"/>
+      <c r="I37" s="213"/>
+      <c r="J37" s="213"/>
+      <c r="K37" s="213"/>
+      <c r="L37" s="214" t="s">
         <v>144</v>
       </c>
-      <c r="M37" s="216"/>
-      <c r="N37" s="216"/>
+      <c r="M37" s="214"/>
+      <c r="N37" s="214"/>
       <c r="O37" s="115" t="s">
         <v>142</v>
       </c>
       <c r="P37" s="115"/>
-      <c r="Q37" s="203" t="s">
+      <c r="Q37" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="R37" s="203"/>
+      <c r="R37" s="198"/>
       <c r="S37" s="135" t="s">
         <v>13</v>
       </c>
@@ -4040,10 +4045,10 @@
       </c>
       <c r="U37" s="159">
         <f t="shared" ca="1" si="0"/>
-        <v>43506</v>
-      </c>
-      <c r="V37" s="234"/>
-      <c r="W37" s="235"/>
+        <v>43507</v>
+      </c>
+      <c r="V37" s="189"/>
+      <c r="W37" s="190"/>
       <c r="X37" s="12"/>
     </row>
     <row r="38" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4151,7 +4156,65 @@
       <c r="X41" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
+  <mergeCells count="74">
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="V21:V26"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N17:V17"/>
+    <mergeCell ref="N14:V14"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="W21:W29"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="E12:E18"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C18"/>
+    <mergeCell ref="F12:F18"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="F33:L33"/>
     <mergeCell ref="V32:W37"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="S5:T5"/>
@@ -4168,67 +4231,10 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="Q27:R27"/>
     <mergeCell ref="N12:V12"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="E12:E18"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C18"/>
-    <mergeCell ref="F12:F18"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="F33:L33"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="W21:W29"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="V21:V26"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N17:V17"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="N22:P22"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0"/>
-  <pageSetup paperSize="8" scale="88" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="87" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L   Док. №372.10   &amp;8\\1C\GlobArch\Рабочая папка\Выходные документы\Выходные документы (шаблоны)&amp;12
                    &amp;G</oddHeader>
@@ -5003,10 +5009,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30:N30"/>
+      <selection activeCell="K29" sqref="K29:N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5049,12 +5055,12 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="257" t="s">
+      <c r="G2" s="247" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="258"/>
-      <c r="I2" s="258"/>
-      <c r="J2" s="258"/>
+      <c r="H2" s="248"/>
+      <c r="I2" s="248"/>
+      <c r="J2" s="248"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -5067,28 +5073,28 @@
       <c r="T2" s="6"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="260" t="s">
+      <c r="A3" s="255" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="261"/>
-      <c r="C3" s="261"/>
-      <c r="D3" s="261"/>
-      <c r="E3" s="261"/>
-      <c r="F3" s="261"/>
-      <c r="G3" s="261"/>
-      <c r="H3" s="261"/>
-      <c r="I3" s="261"/>
-      <c r="J3" s="261"/>
-      <c r="K3" s="185" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="233" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="185"/>
-      <c r="M3" s="185"/>
-      <c r="N3" s="185"/>
-      <c r="O3" s="203" t="s">
+      <c r="L3" s="233"/>
+      <c r="M3" s="233"/>
+      <c r="N3" s="233"/>
+      <c r="O3" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="203"/>
+      <c r="P3" s="198"/>
       <c r="Q3" s="135" t="s">
         <v>13</v>
       </c>
@@ -5097,7 +5103,7 @@
       </c>
       <c r="S3" s="160">
         <f ca="1">TODAY()</f>
-        <v>43506</v>
+        <v>43507</v>
       </c>
       <c r="T3" s="6"/>
     </row>
@@ -5146,11 +5152,11 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="262" t="s">
+      <c r="A6" s="257" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="263"/>
-      <c r="C6" s="263"/>
+      <c r="B6" s="258"/>
+      <c r="C6" s="258"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -5170,11 +5176,11 @@
       <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="262" t="s">
+      <c r="A7" s="257" t="s">
         <v>185</v>
       </c>
-      <c r="B7" s="263"/>
-      <c r="C7" s="263"/>
+      <c r="B7" s="258"/>
+      <c r="C7" s="258"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -5194,11 +5200,11 @@
       <c r="T7" s="6"/>
     </row>
     <row r="8" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="262" t="s">
+      <c r="A8" s="257" t="s">
         <v>184</v>
       </c>
-      <c r="B8" s="263"/>
-      <c r="C8" s="263"/>
+      <c r="B8" s="258"/>
+      <c r="C8" s="258"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -5288,20 +5294,20 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="247" t="s">
+      <c r="E12" s="262" t="s">
         <v>183</v>
       </c>
-      <c r="F12" s="248"/>
-      <c r="G12" s="248"/>
-      <c r="H12" s="248"/>
-      <c r="I12" s="248"/>
-      <c r="J12" s="248"/>
-      <c r="K12" s="248"/>
-      <c r="L12" s="248"/>
-      <c r="M12" s="248"/>
-      <c r="N12" s="248"/>
-      <c r="O12" s="248"/>
-      <c r="P12" s="248"/>
+      <c r="F12" s="263"/>
+      <c r="G12" s="263"/>
+      <c r="H12" s="263"/>
+      <c r="I12" s="263"/>
+      <c r="J12" s="263"/>
+      <c r="K12" s="263"/>
+      <c r="L12" s="263"/>
+      <c r="M12" s="263"/>
+      <c r="N12" s="263"/>
+      <c r="O12" s="263"/>
+      <c r="P12" s="263"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -5312,18 +5318,18 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="248"/>
-      <c r="F13" s="248"/>
-      <c r="G13" s="248"/>
-      <c r="H13" s="248"/>
-      <c r="I13" s="248"/>
-      <c r="J13" s="248"/>
-      <c r="K13" s="248"/>
-      <c r="L13" s="248"/>
-      <c r="M13" s="248"/>
-      <c r="N13" s="248"/>
-      <c r="O13" s="248"/>
-      <c r="P13" s="248"/>
+      <c r="E13" s="263"/>
+      <c r="F13" s="263"/>
+      <c r="G13" s="263"/>
+      <c r="H13" s="263"/>
+      <c r="I13" s="263"/>
+      <c r="J13" s="263"/>
+      <c r="K13" s="263"/>
+      <c r="L13" s="263"/>
+      <c r="M13" s="263"/>
+      <c r="N13" s="263"/>
+      <c r="O13" s="263"/>
+      <c r="P13" s="263"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
@@ -5334,18 +5340,18 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="248"/>
-      <c r="F14" s="248"/>
-      <c r="G14" s="248"/>
-      <c r="H14" s="248"/>
-      <c r="I14" s="248"/>
-      <c r="J14" s="248"/>
-      <c r="K14" s="248"/>
-      <c r="L14" s="248"/>
-      <c r="M14" s="248"/>
-      <c r="N14" s="248"/>
-      <c r="O14" s="248"/>
-      <c r="P14" s="248"/>
+      <c r="E14" s="263"/>
+      <c r="F14" s="263"/>
+      <c r="G14" s="263"/>
+      <c r="H14" s="263"/>
+      <c r="I14" s="263"/>
+      <c r="J14" s="263"/>
+      <c r="K14" s="263"/>
+      <c r="L14" s="263"/>
+      <c r="M14" s="263"/>
+      <c r="N14" s="263"/>
+      <c r="O14" s="263"/>
+      <c r="P14" s="263"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
@@ -5379,23 +5385,23 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="200" t="s">
+      <c r="F16" s="226" t="s">
         <v>182</v>
       </c>
-      <c r="G16" s="249"/>
-      <c r="H16" s="249"/>
-      <c r="I16" s="249"/>
-      <c r="J16" s="250" t="str">
+      <c r="G16" s="254"/>
+      <c r="H16" s="254"/>
+      <c r="I16" s="254"/>
+      <c r="J16" s="261" t="str">
         <f>'лист титульный КД'!N12</f>
         <v>Иванов И.И</v>
       </c>
-      <c r="K16" s="250"/>
-      <c r="L16" s="250"/>
-      <c r="M16" s="250"/>
-      <c r="N16" s="250"/>
-      <c r="O16" s="250"/>
-      <c r="P16" s="250"/>
-      <c r="Q16" s="250"/>
+      <c r="K16" s="261"/>
+      <c r="L16" s="261"/>
+      <c r="M16" s="261"/>
+      <c r="N16" s="261"/>
+      <c r="O16" s="261"/>
+      <c r="P16" s="261"/>
+      <c r="Q16" s="261"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="6"/>
@@ -5406,52 +5412,52 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="200" t="s">
+      <c r="F17" s="226" t="s">
         <v>181</v>
       </c>
-      <c r="G17" s="249"/>
-      <c r="H17" s="249"/>
-      <c r="I17" s="249"/>
-      <c r="J17" s="251" t="str">
+      <c r="G17" s="254"/>
+      <c r="H17" s="254"/>
+      <c r="I17" s="254"/>
+      <c r="J17" s="252" t="str">
         <f>'лист титульный КД'!N13</f>
         <v>Петров П.П.</v>
       </c>
-      <c r="K17" s="251"/>
-      <c r="L17" s="251"/>
-      <c r="M17" s="251"/>
-      <c r="N17" s="251"/>
-      <c r="O17" s="251"/>
-      <c r="P17" s="251"/>
-      <c r="Q17" s="251"/>
+      <c r="K17" s="252"/>
+      <c r="L17" s="252"/>
+      <c r="M17" s="252"/>
+      <c r="N17" s="252"/>
+      <c r="O17" s="252"/>
+      <c r="P17" s="252"/>
+      <c r="Q17" s="252"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="6"/>
     </row>
-    <row r="18" spans="1:20" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="200" t="s">
+      <c r="F18" s="226" t="s">
         <v>180</v>
       </c>
-      <c r="G18" s="249"/>
-      <c r="H18" s="249"/>
-      <c r="I18" s="249"/>
-      <c r="J18" s="251" t="str">
+      <c r="G18" s="254"/>
+      <c r="H18" s="254"/>
+      <c r="I18" s="254"/>
+      <c r="J18" s="261" t="str">
         <f>'лист титульный КД'!N14</f>
         <v>г. Москва, ул. Нарвская, д.2</v>
       </c>
-      <c r="K18" s="251"/>
-      <c r="L18" s="251"/>
-      <c r="M18" s="251"/>
-      <c r="N18" s="251"/>
-      <c r="O18" s="251"/>
-      <c r="P18" s="251"/>
-      <c r="Q18" s="251"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
+      <c r="K18" s="236"/>
+      <c r="L18" s="236"/>
+      <c r="M18" s="236"/>
+      <c r="N18" s="236"/>
+      <c r="O18" s="236"/>
+      <c r="P18" s="236"/>
+      <c r="Q18" s="236"/>
+      <c r="R18" s="236"/>
+      <c r="S18" s="236"/>
       <c r="T18" s="6"/>
     </row>
     <row r="19" spans="1:20" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -5460,23 +5466,23 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="200" t="s">
+      <c r="F19" s="226" t="s">
         <v>179</v>
       </c>
-      <c r="G19" s="249"/>
-      <c r="H19" s="249"/>
-      <c r="I19" s="249"/>
-      <c r="J19" s="251" t="str">
+      <c r="G19" s="254"/>
+      <c r="H19" s="254"/>
+      <c r="I19" s="254"/>
+      <c r="J19" s="252" t="str">
         <f>'лист титульный КД'!N15</f>
         <v>восьмой</v>
       </c>
-      <c r="K19" s="251"/>
-      <c r="L19" s="251"/>
-      <c r="M19" s="251"/>
-      <c r="N19" s="251"/>
-      <c r="O19" s="251"/>
-      <c r="P19" s="251"/>
-      <c r="Q19" s="251"/>
+      <c r="K19" s="252"/>
+      <c r="L19" s="252"/>
+      <c r="M19" s="252"/>
+      <c r="N19" s="252"/>
+      <c r="O19" s="252"/>
+      <c r="P19" s="252"/>
+      <c r="Q19" s="252"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="6"/>
@@ -5487,23 +5493,23 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="200" t="s">
+      <c r="F20" s="226" t="s">
         <v>178</v>
       </c>
-      <c r="G20" s="249"/>
-      <c r="H20" s="249"/>
-      <c r="I20" s="249"/>
-      <c r="J20" s="251" t="str">
+      <c r="G20" s="254"/>
+      <c r="H20" s="254"/>
+      <c r="I20" s="254"/>
+      <c r="J20" s="252" t="str">
         <f>'лист титульный КД'!N16</f>
         <v>кухня</v>
       </c>
-      <c r="K20" s="251"/>
-      <c r="L20" s="251"/>
-      <c r="M20" s="251"/>
-      <c r="N20" s="251"/>
-      <c r="O20" s="251"/>
-      <c r="P20" s="251"/>
-      <c r="Q20" s="251"/>
+      <c r="K20" s="252"/>
+      <c r="L20" s="252"/>
+      <c r="M20" s="252"/>
+      <c r="N20" s="252"/>
+      <c r="O20" s="252"/>
+      <c r="P20" s="252"/>
+      <c r="Q20" s="252"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="6"/>
@@ -5514,23 +5520,23 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="200" t="s">
+      <c r="F21" s="226" t="s">
         <v>177</v>
       </c>
-      <c r="G21" s="249"/>
-      <c r="H21" s="249"/>
-      <c r="I21" s="249"/>
-      <c r="J21" s="250" t="str">
+      <c r="G21" s="254"/>
+      <c r="H21" s="254"/>
+      <c r="I21" s="254"/>
+      <c r="J21" s="261" t="str">
         <f>'лист титульный КД'!N17</f>
         <v>гарнитур кухонный, дверной блок</v>
       </c>
-      <c r="K21" s="250"/>
-      <c r="L21" s="250"/>
-      <c r="M21" s="250"/>
-      <c r="N21" s="250"/>
-      <c r="O21" s="250"/>
-      <c r="P21" s="250"/>
-      <c r="Q21" s="250"/>
+      <c r="K21" s="261"/>
+      <c r="L21" s="261"/>
+      <c r="M21" s="261"/>
+      <c r="N21" s="261"/>
+      <c r="O21" s="261"/>
+      <c r="P21" s="261"/>
+      <c r="Q21" s="261"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="6"/>
@@ -5541,23 +5547,23 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="200" t="s">
+      <c r="F22" s="226" t="s">
         <v>176</v>
       </c>
-      <c r="G22" s="249"/>
-      <c r="H22" s="249"/>
-      <c r="I22" s="249"/>
-      <c r="J22" s="251">
+      <c r="G22" s="254"/>
+      <c r="H22" s="254"/>
+      <c r="I22" s="254"/>
+      <c r="J22" s="252">
         <f>'лист титульный КД'!N18</f>
         <v>500</v>
       </c>
-      <c r="K22" s="251"/>
-      <c r="L22" s="251"/>
-      <c r="M22" s="251"/>
-      <c r="N22" s="251"/>
-      <c r="O22" s="251"/>
-      <c r="P22" s="251"/>
-      <c r="Q22" s="251"/>
+      <c r="K22" s="252"/>
+      <c r="L22" s="252"/>
+      <c r="M22" s="252"/>
+      <c r="N22" s="252"/>
+      <c r="O22" s="252"/>
+      <c r="P22" s="252"/>
+      <c r="Q22" s="252"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="6"/>
@@ -5568,23 +5574,23 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="200" t="s">
+      <c r="F23" s="226" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="249"/>
-      <c r="H23" s="249"/>
-      <c r="I23" s="249"/>
-      <c r="J23" s="251" t="str">
+      <c r="G23" s="254"/>
+      <c r="H23" s="254"/>
+      <c r="I23" s="254"/>
+      <c r="J23" s="252" t="str">
         <f>'лист титульный КД'!N19</f>
         <v>1-15,16</v>
       </c>
-      <c r="K23" s="251"/>
-      <c r="L23" s="251"/>
-      <c r="M23" s="251"/>
-      <c r="N23" s="251"/>
-      <c r="O23" s="251"/>
-      <c r="P23" s="251"/>
-      <c r="Q23" s="251"/>
+      <c r="K23" s="252"/>
+      <c r="L23" s="252"/>
+      <c r="M23" s="252"/>
+      <c r="N23" s="252"/>
+      <c r="O23" s="252"/>
+      <c r="P23" s="252"/>
+      <c r="Q23" s="252"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="6"/>
@@ -5677,17 +5683,19 @@
       <c r="S27" s="5"/>
       <c r="T27" s="6"/>
     </row>
-    <row r="28" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="G28" s="253" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="250"/>
+      <c r="I28" s="250"/>
+      <c r="J28" s="250"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -5696,80 +5704,80 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
+      <c r="S28" s="136"/>
       <c r="T28" s="6"/>
     </row>
-    <row r="29" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="252" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="253"/>
-      <c r="I29" s="253"/>
-      <c r="J29" s="253"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="136"/>
-      <c r="T29" s="6"/>
-    </row>
-    <row r="30" spans="1:20" s="150" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="259" t="s">
+    <row r="29" spans="1:20" s="150" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="249" t="s">
         <v>187</v>
       </c>
-      <c r="B30" s="253"/>
-      <c r="C30" s="253"/>
-      <c r="D30" s="253"/>
-      <c r="E30" s="253"/>
-      <c r="F30" s="253"/>
-      <c r="G30" s="253"/>
-      <c r="H30" s="253"/>
-      <c r="I30" s="253"/>
-      <c r="J30" s="253"/>
-      <c r="K30" s="256" t="str">
+      <c r="B29" s="250"/>
+      <c r="C29" s="250"/>
+      <c r="D29" s="250"/>
+      <c r="E29" s="250"/>
+      <c r="F29" s="250"/>
+      <c r="G29" s="250"/>
+      <c r="H29" s="250"/>
+      <c r="I29" s="250"/>
+      <c r="J29" s="250"/>
+      <c r="K29" s="251" t="str">
         <f>IF(builder=0,"",builder)</f>
         <v>_____________</v>
       </c>
-      <c r="L30" s="256"/>
-      <c r="M30" s="256"/>
-      <c r="N30" s="256"/>
-      <c r="O30" s="256" t="s">
+      <c r="L29" s="251"/>
+      <c r="M29" s="251"/>
+      <c r="N29" s="251"/>
+      <c r="O29" s="251" t="s">
         <v>15</v>
       </c>
-      <c r="P30" s="256"/>
-      <c r="Q30" s="152" t="s">
+      <c r="P29" s="251"/>
+      <c r="Q29" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="R30" s="152" t="s">
+      <c r="R29" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="S30" s="160">
+      <c r="S29" s="160">
         <f ca="1">TODAY()</f>
-        <v>43506</v>
-      </c>
-      <c r="T30" s="151"/>
-    </row>
-    <row r="31" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43507</v>
+      </c>
+      <c r="T29" s="151"/>
+    </row>
+    <row r="30" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="142"/>
+      <c r="J30" s="142"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="143"/>
+      <c r="R30" s="143"/>
+      <c r="S30" s="136"/>
+      <c r="T30" s="6"/>
+    </row>
+    <row r="31" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="142"/>
+      <c r="G31" s="253" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="250"/>
+      <c r="I31" s="250"/>
+      <c r="J31" s="250"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -5781,53 +5789,64 @@
       <c r="S31" s="136"/>
       <c r="T31" s="6"/>
     </row>
-    <row r="32" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="252" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="253"/>
-      <c r="I32" s="253"/>
-      <c r="J32" s="253"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="143"/>
-      <c r="R32" s="143"/>
-      <c r="S32" s="136"/>
-      <c r="T32" s="6"/>
+    <row r="32" spans="1:20" s="150" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="259" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" s="250"/>
+      <c r="C32" s="250"/>
+      <c r="D32" s="250"/>
+      <c r="E32" s="250"/>
+      <c r="F32" s="250"/>
+      <c r="G32" s="250"/>
+      <c r="H32" s="250"/>
+      <c r="I32" s="250"/>
+      <c r="J32" s="250"/>
+      <c r="K32" s="260" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="260"/>
+      <c r="M32" s="260"/>
+      <c r="N32" s="260"/>
+      <c r="O32" s="251" t="s">
+        <v>15</v>
+      </c>
+      <c r="P32" s="251"/>
+      <c r="Q32" s="152" t="s">
+        <v>13</v>
+      </c>
+      <c r="R32" s="152" t="s">
+        <v>13</v>
+      </c>
+      <c r="S32" s="160">
+        <f ca="1">TODAY()</f>
+        <v>43507</v>
+      </c>
+      <c r="T32" s="151"/>
     </row>
     <row r="33" spans="1:20" s="150" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="254" t="s">
-        <v>174</v>
-      </c>
-      <c r="B33" s="253"/>
-      <c r="C33" s="253"/>
-      <c r="D33" s="253"/>
-      <c r="E33" s="253"/>
-      <c r="F33" s="253"/>
-      <c r="G33" s="253"/>
-      <c r="H33" s="253"/>
-      <c r="I33" s="253"/>
-      <c r="J33" s="253"/>
-      <c r="K33" s="255" t="s">
+      <c r="A33" s="259" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" s="250"/>
+      <c r="C33" s="250"/>
+      <c r="D33" s="250"/>
+      <c r="E33" s="250"/>
+      <c r="F33" s="250"/>
+      <c r="G33" s="250"/>
+      <c r="H33" s="250"/>
+      <c r="I33" s="250"/>
+      <c r="J33" s="250"/>
+      <c r="K33" s="260" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="255"/>
-      <c r="M33" s="255"/>
-      <c r="N33" s="255"/>
-      <c r="O33" s="256" t="s">
+      <c r="L33" s="260"/>
+      <c r="M33" s="260"/>
+      <c r="N33" s="260"/>
+      <c r="O33" s="251" t="s">
         <v>15</v>
       </c>
-      <c r="P33" s="256"/>
+      <c r="P33" s="251"/>
       <c r="Q33" s="152" t="s">
         <v>13</v>
       </c>
@@ -5836,98 +5855,82 @@
       </c>
       <c r="S33" s="160">
         <f ca="1">TODAY()</f>
-        <v>43506</v>
+        <v>43507</v>
       </c>
       <c r="T33" s="151"/>
     </row>
-    <row r="34" spans="1:20" s="150" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="254" t="s">
-        <v>173</v>
-      </c>
-      <c r="B34" s="253"/>
-      <c r="C34" s="253"/>
-      <c r="D34" s="253"/>
-      <c r="E34" s="253"/>
-      <c r="F34" s="253"/>
-      <c r="G34" s="253"/>
-      <c r="H34" s="253"/>
-      <c r="I34" s="253"/>
-      <c r="J34" s="253"/>
-      <c r="K34" s="255" t="s">
-        <v>14</v>
-      </c>
-      <c r="L34" s="255"/>
-      <c r="M34" s="255"/>
-      <c r="N34" s="255"/>
-      <c r="O34" s="256" t="s">
-        <v>15</v>
-      </c>
-      <c r="P34" s="256"/>
-      <c r="Q34" s="152" t="s">
-        <v>13</v>
-      </c>
-      <c r="R34" s="152" t="s">
-        <v>13</v>
-      </c>
-      <c r="S34" s="160">
-        <f ca="1">TODAY()</f>
-        <v>43506</v>
-      </c>
-      <c r="T34" s="151"/>
-    </row>
-    <row r="35" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="142"/>
-      <c r="I35" s="142"/>
-      <c r="J35" s="142"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="143"/>
-      <c r="R35" s="143"/>
-      <c r="S35" s="136"/>
-      <c r="T35" s="6"/>
-    </row>
-    <row r="36" spans="1:20" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="149"/>
-      <c r="B36" s="148"/>
-      <c r="C36" s="148"/>
-      <c r="D36" s="148"/>
-      <c r="E36" s="148"/>
-      <c r="F36" s="148"/>
-      <c r="G36" s="148"/>
-      <c r="H36" s="148"/>
-      <c r="I36" s="148"/>
-      <c r="J36" s="148"/>
-      <c r="K36" s="148"/>
-      <c r="L36" s="148"/>
-      <c r="M36" s="148"/>
-      <c r="N36" s="148"/>
-      <c r="O36" s="148"/>
-      <c r="P36" s="148"/>
-      <c r="Q36" s="148"/>
-      <c r="R36" s="148"/>
-      <c r="S36" s="148"/>
-      <c r="T36" s="147"/>
+    <row r="34" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="142"/>
+      <c r="J34" s="142"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="143"/>
+      <c r="R34" s="143"/>
+      <c r="S34" s="136"/>
+      <c r="T34" s="6"/>
+    </row>
+    <row r="35" spans="1:20" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="149"/>
+      <c r="B35" s="148"/>
+      <c r="C35" s="148"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
+      <c r="N35" s="148"/>
+      <c r="O35" s="148"/>
+      <c r="P35" s="148"/>
+      <c r="Q35" s="148"/>
+      <c r="R35" s="148"/>
+      <c r="S35" s="148"/>
+      <c r="T35" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="E12:P14"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="J18:S18"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="O32:P32"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="O29:P29"/>
     <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G28:J28"/>
     <mergeCell ref="J22:Q22"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="F20:I20"/>
@@ -5937,29 +5940,10 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="E12:P14"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="J17:Q17"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="99" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/dist/files/xls/shablon-kd.xlsx
+++ b/dist/files/xls/shablon-kd.xlsx
@@ -2144,161 +2144,16 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2308,6 +2163,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2326,6 +2326,36 @@
     <xf numFmtId="0" fontId="35" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -2335,21 +2365,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -2360,21 +2375,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2748,7 +2748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="66" zoomScaleNormal="70" zoomScaleSheetLayoutView="66" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="66" zoomScaleNormal="70" zoomScaleSheetLayoutView="66" workbookViewId="0">
       <selection activeCell="N22" sqref="N22:P22"/>
     </sheetView>
   </sheetViews>
@@ -2816,23 +2816,23 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="220" t="s">
+      <c r="I2" s="209" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="222"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="211"/>
       <c r="O2" s="100"/>
-      <c r="P2" s="223" t="s">
+      <c r="P2" s="212" t="s">
         <v>161</v>
       </c>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="224"/>
-      <c r="U2" s="224"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="196"/>
       <c r="V2" s="137"/>
       <c r="W2" s="27"/>
       <c r="X2" s="12"/>
@@ -2853,10 +2853,10 @@
         <v>30</v>
       </c>
       <c r="K3" s="103"/>
-      <c r="L3" s="224" t="s">
+      <c r="L3" s="196" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="224"/>
+      <c r="M3" s="196"/>
       <c r="N3" s="163" t="s">
         <v>31</v>
       </c>
@@ -2868,10 +2868,10 @@
         <v>38</v>
       </c>
       <c r="R3" s="103"/>
-      <c r="S3" s="224" t="s">
+      <c r="S3" s="196" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="224"/>
+      <c r="T3" s="196"/>
       <c r="U3" s="127" t="s">
         <v>35</v>
       </c>
@@ -3078,22 +3078,22 @@
       <c r="X8" s="12"/>
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="204" t="s">
+      <c r="A9" s="218" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="196" t="s">
+      <c r="B9" s="219" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="195" t="s">
+      <c r="C9" s="225" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="205" t="s">
+      <c r="D9" s="220" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="205"/>
-      <c r="F9" s="205"/>
-      <c r="G9" s="205"/>
-      <c r="H9" s="208"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="220"/>
+      <c r="G9" s="220"/>
+      <c r="H9" s="224"/>
       <c r="I9" s="105"/>
       <c r="J9" s="106"/>
       <c r="K9" s="106"/>
@@ -3120,22 +3120,22 @@
       <c r="X9" s="12"/>
     </row>
     <row r="10" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="204"/>
-      <c r="B10" s="196"/>
-      <c r="C10" s="195"/>
-      <c r="D10" s="205" t="s">
+      <c r="A10" s="218"/>
+      <c r="B10" s="219"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="220" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="193" t="s">
+      <c r="E10" s="221" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="193" t="s">
+      <c r="F10" s="221" t="s">
         <v>126</v>
       </c>
-      <c r="G10" s="196" t="s">
+      <c r="G10" s="219" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="195" t="s">
+      <c r="H10" s="225" t="s">
         <v>128</v>
       </c>
       <c r="I10" s="5"/>
@@ -3156,14 +3156,14 @@
       <c r="X10" s="12"/>
     </row>
     <row r="11" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="204"/>
-      <c r="B11" s="196"/>
-      <c r="C11" s="195"/>
-      <c r="D11" s="205"/>
-      <c r="E11" s="193"/>
-      <c r="F11" s="194"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="195"/>
+      <c r="A11" s="218"/>
+      <c r="B11" s="219"/>
+      <c r="C11" s="225"/>
+      <c r="D11" s="220"/>
+      <c r="E11" s="221"/>
+      <c r="F11" s="237"/>
+      <c r="G11" s="219"/>
+      <c r="H11" s="225"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="146" t="s">
@@ -3184,67 +3184,67 @@
       <c r="X11" s="12"/>
     </row>
     <row r="12" spans="1:24" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="203" t="s">
+      <c r="A12" s="217" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="206" t="s">
+      <c r="B12" s="222" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="206" t="s">
+      <c r="C12" s="222" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="206" t="s">
+      <c r="D12" s="222" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="207" t="s">
+      <c r="E12" s="223" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="207" t="s">
+      <c r="F12" s="223" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="209" t="s">
+      <c r="G12" s="226" t="s">
         <v>152</v>
       </c>
-      <c r="H12" s="197" t="s">
+      <c r="H12" s="238" t="s">
         <v>134</v>
       </c>
       <c r="I12" s="138"/>
-      <c r="J12" s="227" t="s">
+      <c r="J12" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="227"/>
-      <c r="L12" s="227"/>
-      <c r="M12" s="227"/>
-      <c r="N12" s="201" t="s">
+      <c r="K12" s="199"/>
+      <c r="L12" s="199"/>
+      <c r="M12" s="199"/>
+      <c r="N12" s="239" t="s">
         <v>172</v>
       </c>
-      <c r="O12" s="202"/>
-      <c r="P12" s="202"/>
-      <c r="Q12" s="202"/>
-      <c r="R12" s="202"/>
-      <c r="S12" s="202"/>
-      <c r="T12" s="202"/>
-      <c r="U12" s="202"/>
-      <c r="V12" s="202"/>
+      <c r="O12" s="240"/>
+      <c r="P12" s="240"/>
+      <c r="Q12" s="240"/>
+      <c r="R12" s="240"/>
+      <c r="S12" s="240"/>
+      <c r="T12" s="240"/>
+      <c r="U12" s="240"/>
+      <c r="V12" s="240"/>
       <c r="W12" s="6"/>
       <c r="X12" s="12"/>
     </row>
     <row r="13" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="203"/>
-      <c r="B13" s="206"/>
-      <c r="C13" s="206"/>
-      <c r="D13" s="206"/>
-      <c r="E13" s="207"/>
-      <c r="F13" s="207"/>
-      <c r="G13" s="210"/>
-      <c r="H13" s="197"/>
+      <c r="A13" s="217"/>
+      <c r="B13" s="222"/>
+      <c r="C13" s="222"/>
+      <c r="D13" s="222"/>
+      <c r="E13" s="223"/>
+      <c r="F13" s="223"/>
+      <c r="G13" s="227"/>
+      <c r="H13" s="238"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="226" t="s">
+      <c r="J13" s="200" t="s">
         <v>171</v>
       </c>
-      <c r="K13" s="226"/>
-      <c r="L13" s="226"/>
-      <c r="M13" s="226"/>
+      <c r="K13" s="200"/>
+      <c r="L13" s="200"/>
+      <c r="M13" s="200"/>
       <c r="N13" s="170" t="s">
         <v>170</v>
       </c>
@@ -3260,51 +3260,51 @@
       <c r="X13" s="12"/>
     </row>
     <row r="14" spans="1:24" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="203"/>
-      <c r="B14" s="206"/>
-      <c r="C14" s="206"/>
-      <c r="D14" s="206"/>
-      <c r="E14" s="207"/>
-      <c r="F14" s="207"/>
-      <c r="G14" s="210"/>
-      <c r="H14" s="197"/>
+      <c r="A14" s="217"/>
+      <c r="B14" s="222"/>
+      <c r="C14" s="222"/>
+      <c r="D14" s="222"/>
+      <c r="E14" s="223"/>
+      <c r="F14" s="223"/>
+      <c r="G14" s="227"/>
+      <c r="H14" s="238"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="226" t="s">
+      <c r="J14" s="200" t="s">
         <v>114</v>
       </c>
-      <c r="K14" s="226"/>
-      <c r="L14" s="226"/>
-      <c r="M14" s="226"/>
-      <c r="N14" s="235" t="s">
+      <c r="K14" s="200"/>
+      <c r="L14" s="200"/>
+      <c r="M14" s="200"/>
+      <c r="N14" s="201" t="s">
         <v>146</v>
       </c>
-      <c r="O14" s="236"/>
-      <c r="P14" s="236"/>
-      <c r="Q14" s="236"/>
-      <c r="R14" s="236"/>
-      <c r="S14" s="236"/>
-      <c r="T14" s="236"/>
-      <c r="U14" s="236"/>
-      <c r="V14" s="236"/>
+      <c r="O14" s="202"/>
+      <c r="P14" s="202"/>
+      <c r="Q14" s="202"/>
+      <c r="R14" s="202"/>
+      <c r="S14" s="202"/>
+      <c r="T14" s="202"/>
+      <c r="U14" s="202"/>
+      <c r="V14" s="202"/>
       <c r="W14" s="6"/>
       <c r="X14" s="12"/>
     </row>
     <row r="15" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="203"/>
-      <c r="B15" s="206"/>
-      <c r="C15" s="206"/>
-      <c r="D15" s="206"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="211"/>
-      <c r="H15" s="197"/>
+      <c r="A15" s="217"/>
+      <c r="B15" s="222"/>
+      <c r="C15" s="222"/>
+      <c r="D15" s="222"/>
+      <c r="E15" s="223"/>
+      <c r="F15" s="223"/>
+      <c r="G15" s="228"/>
+      <c r="H15" s="238"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="226" t="s">
+      <c r="J15" s="200" t="s">
         <v>169</v>
       </c>
-      <c r="K15" s="226"/>
-      <c r="L15" s="226"/>
-      <c r="M15" s="226"/>
+      <c r="K15" s="200"/>
+      <c r="L15" s="200"/>
+      <c r="M15" s="200"/>
       <c r="N15" s="171" t="s">
         <v>168</v>
       </c>
@@ -3320,23 +3320,23 @@
       <c r="X15" s="12"/>
     </row>
     <row r="16" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="203"/>
-      <c r="B16" s="206"/>
-      <c r="C16" s="206"/>
-      <c r="D16" s="206"/>
-      <c r="E16" s="207"/>
-      <c r="F16" s="207"/>
-      <c r="G16" s="209" t="s">
+      <c r="A16" s="217"/>
+      <c r="B16" s="222"/>
+      <c r="C16" s="222"/>
+      <c r="D16" s="222"/>
+      <c r="E16" s="223"/>
+      <c r="F16" s="223"/>
+      <c r="G16" s="226" t="s">
         <v>151</v>
       </c>
-      <c r="H16" s="197"/>
+      <c r="H16" s="238"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="226" t="s">
+      <c r="J16" s="200" t="s">
         <v>167</v>
       </c>
-      <c r="K16" s="226"/>
-      <c r="L16" s="226"/>
-      <c r="M16" s="226"/>
+      <c r="K16" s="200"/>
+      <c r="L16" s="200"/>
+      <c r="M16" s="200"/>
       <c r="N16" s="171" t="s">
         <v>166</v>
       </c>
@@ -3352,51 +3352,51 @@
       <c r="X16" s="12"/>
     </row>
     <row r="17" spans="1:24" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="203"/>
-      <c r="B17" s="206"/>
-      <c r="C17" s="206"/>
-      <c r="D17" s="206"/>
-      <c r="E17" s="207"/>
-      <c r="F17" s="207"/>
-      <c r="G17" s="210"/>
-      <c r="H17" s="197"/>
+      <c r="A17" s="217"/>
+      <c r="B17" s="222"/>
+      <c r="C17" s="222"/>
+      <c r="D17" s="222"/>
+      <c r="E17" s="223"/>
+      <c r="F17" s="223"/>
+      <c r="G17" s="227"/>
+      <c r="H17" s="238"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="226" t="s">
+      <c r="J17" s="200" t="s">
         <v>165</v>
       </c>
-      <c r="K17" s="226"/>
-      <c r="L17" s="226"/>
-      <c r="M17" s="226"/>
-      <c r="N17" s="235" t="s">
+      <c r="K17" s="200"/>
+      <c r="L17" s="200"/>
+      <c r="M17" s="200"/>
+      <c r="N17" s="201" t="s">
         <v>164</v>
       </c>
-      <c r="O17" s="236"/>
-      <c r="P17" s="236"/>
-      <c r="Q17" s="236"/>
-      <c r="R17" s="236"/>
-      <c r="S17" s="236"/>
-      <c r="T17" s="236"/>
-      <c r="U17" s="236"/>
-      <c r="V17" s="236"/>
+      <c r="O17" s="202"/>
+      <c r="P17" s="202"/>
+      <c r="Q17" s="202"/>
+      <c r="R17" s="202"/>
+      <c r="S17" s="202"/>
+      <c r="T17" s="202"/>
+      <c r="U17" s="202"/>
+      <c r="V17" s="202"/>
       <c r="W17" s="6"/>
       <c r="X17" s="12"/>
     </row>
     <row r="18" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="203"/>
-      <c r="B18" s="206"/>
-      <c r="C18" s="206"/>
-      <c r="D18" s="206"/>
-      <c r="E18" s="207"/>
-      <c r="F18" s="207"/>
-      <c r="G18" s="211"/>
-      <c r="H18" s="197"/>
+      <c r="A18" s="217"/>
+      <c r="B18" s="222"/>
+      <c r="C18" s="222"/>
+      <c r="D18" s="222"/>
+      <c r="E18" s="223"/>
+      <c r="F18" s="223"/>
+      <c r="G18" s="228"/>
+      <c r="H18" s="238"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="227" t="s">
+      <c r="J18" s="199" t="s">
         <v>113</v>
       </c>
-      <c r="K18" s="227"/>
-      <c r="L18" s="227"/>
-      <c r="M18" s="227"/>
+      <c r="K18" s="199"/>
+      <c r="L18" s="199"/>
+      <c r="M18" s="199"/>
       <c r="N18" s="172">
         <v>500</v>
       </c>
@@ -3420,12 +3420,12 @@
       <c r="G19" s="111"/>
       <c r="H19" s="112"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="227" t="s">
+      <c r="J19" s="199" t="s">
         <v>112</v>
       </c>
-      <c r="K19" s="227"/>
-      <c r="L19" s="227"/>
-      <c r="M19" s="227"/>
+      <c r="K19" s="199"/>
+      <c r="L19" s="199"/>
+      <c r="M19" s="199"/>
       <c r="N19" s="172" t="s">
         <v>163</v>
       </c>
@@ -3475,12 +3475,12 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="231" t="s">
+      <c r="I21" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="232"/>
-      <c r="K21" s="232"/>
-      <c r="L21" s="232"/>
+      <c r="J21" s="198"/>
+      <c r="K21" s="198"/>
+      <c r="L21" s="198"/>
       <c r="M21" s="5"/>
       <c r="N21" s="173"/>
       <c r="O21" s="5"/>
@@ -3490,10 +3490,10 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="161"/>
-      <c r="V21" s="228" t="s">
+      <c r="V21" s="193" t="s">
         <v>150</v>
       </c>
-      <c r="W21" s="216" t="s">
+      <c r="W21" s="205" t="s">
         <v>149</v>
       </c>
       <c r="X21" s="12"/>
@@ -3508,20 +3508,20 @@
       <c r="G22" s="12"/>
       <c r="H22" s="25"/>
       <c r="I22" s="125"/>
-      <c r="J22" s="237" t="s">
+      <c r="J22" s="187" t="s">
         <v>148</v>
       </c>
-      <c r="K22" s="237"/>
-      <c r="L22" s="237"/>
-      <c r="N22" s="239" t="s">
+      <c r="K22" s="187"/>
+      <c r="L22" s="187"/>
+      <c r="N22" s="190" t="s">
         <v>40</v>
       </c>
-      <c r="O22" s="240"/>
-      <c r="P22" s="240"/>
-      <c r="Q22" s="198" t="s">
+      <c r="O22" s="191"/>
+      <c r="P22" s="191"/>
+      <c r="Q22" s="203" t="s">
         <v>15</v>
       </c>
-      <c r="R22" s="198"/>
+      <c r="R22" s="203"/>
       <c r="S22" s="135" t="s">
         <v>13</v>
       </c>
@@ -3530,10 +3530,10 @@
       </c>
       <c r="U22" s="159">
         <f ca="1">TODAY()</f>
-        <v>43507</v>
-      </c>
-      <c r="V22" s="229"/>
-      <c r="W22" s="217"/>
+        <v>43552</v>
+      </c>
+      <c r="V22" s="194"/>
+      <c r="W22" s="206"/>
       <c r="X22" s="12"/>
     </row>
     <row r="23" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3560,8 +3560,8 @@
       <c r="S23" s="115"/>
       <c r="T23" s="115"/>
       <c r="U23" s="115"/>
-      <c r="V23" s="229"/>
-      <c r="W23" s="217"/>
+      <c r="V23" s="194"/>
+      <c r="W23" s="206"/>
       <c r="X23" s="12"/>
     </row>
     <row r="24" spans="1:24" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3573,18 +3573,18 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="225" t="s">
+      <c r="I24" s="188" t="s">
         <v>136</v>
       </c>
-      <c r="J24" s="225"/>
-      <c r="K24" s="225"/>
-      <c r="L24" s="225"/>
+      <c r="J24" s="188"/>
+      <c r="K24" s="188"/>
+      <c r="L24" s="188"/>
       <c r="M24" s="12"/>
-      <c r="N24" s="233" t="s">
+      <c r="N24" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="O24" s="234"/>
-      <c r="P24" s="234"/>
+      <c r="O24" s="186"/>
+      <c r="P24" s="186"/>
       <c r="Q24" s="139" t="s">
         <v>15</v>
       </c>
@@ -3597,10 +3597,10 @@
       </c>
       <c r="U24" s="159">
         <f ca="1">TODAY()</f>
-        <v>43507</v>
-      </c>
-      <c r="V24" s="229"/>
-      <c r="W24" s="217"/>
+        <v>43552</v>
+      </c>
+      <c r="V24" s="194"/>
+      <c r="W24" s="206"/>
       <c r="X24" s="12"/>
     </row>
     <row r="25" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3612,18 +3612,18 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="225" t="s">
+      <c r="I25" s="188" t="s">
         <v>137</v>
       </c>
-      <c r="J25" s="225"/>
-      <c r="K25" s="225"/>
-      <c r="L25" s="225"/>
+      <c r="J25" s="188"/>
+      <c r="K25" s="188"/>
+      <c r="L25" s="188"/>
       <c r="M25" s="12"/>
-      <c r="N25" s="233" t="s">
+      <c r="N25" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="O25" s="234"/>
-      <c r="P25" s="234"/>
+      <c r="O25" s="186"/>
+      <c r="P25" s="186"/>
       <c r="Q25" s="139" t="s">
         <v>15</v>
       </c>
@@ -3636,10 +3636,10 @@
       </c>
       <c r="U25" s="159">
         <f ca="1">TODAY()</f>
-        <v>43507</v>
-      </c>
-      <c r="V25" s="229"/>
-      <c r="W25" s="217"/>
+        <v>43552</v>
+      </c>
+      <c r="V25" s="194"/>
+      <c r="W25" s="206"/>
       <c r="X25" s="12"/>
     </row>
     <row r="26" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3651,18 +3651,18 @@
       <c r="F26" s="115"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="225" t="s">
+      <c r="I26" s="188" t="s">
         <v>138</v>
       </c>
-      <c r="J26" s="225"/>
-      <c r="K26" s="225"/>
-      <c r="L26" s="225"/>
+      <c r="J26" s="188"/>
+      <c r="K26" s="188"/>
+      <c r="L26" s="188"/>
       <c r="M26" s="12"/>
-      <c r="N26" s="233" t="s">
+      <c r="N26" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="O26" s="234"/>
-      <c r="P26" s="234"/>
+      <c r="O26" s="186"/>
+      <c r="P26" s="186"/>
       <c r="Q26" s="139" t="s">
         <v>15</v>
       </c>
@@ -3675,10 +3675,10 @@
       </c>
       <c r="U26" s="159">
         <f ca="1">TODAY()</f>
-        <v>43507</v>
-      </c>
-      <c r="V26" s="230"/>
-      <c r="W26" s="217"/>
+        <v>43552</v>
+      </c>
+      <c r="V26" s="195"/>
+      <c r="W26" s="206"/>
       <c r="X26" s="12"/>
     </row>
     <row r="27" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3690,21 +3690,21 @@
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
-      <c r="I27" s="238"/>
-      <c r="J27" s="238"/>
-      <c r="K27" s="238"/>
-      <c r="L27" s="238"/>
-      <c r="M27" s="219"/>
-      <c r="N27" s="219"/>
-      <c r="O27" s="219"/>
-      <c r="P27" s="219"/>
-      <c r="Q27" s="200"/>
-      <c r="R27" s="200"/>
+      <c r="I27" s="189"/>
+      <c r="J27" s="189"/>
+      <c r="K27" s="189"/>
+      <c r="L27" s="189"/>
+      <c r="M27" s="208"/>
+      <c r="N27" s="208"/>
+      <c r="O27" s="208"/>
+      <c r="P27" s="208"/>
+      <c r="Q27" s="213"/>
+      <c r="R27" s="213"/>
       <c r="S27" s="139"/>
       <c r="T27" s="139"/>
       <c r="U27" s="139"/>
       <c r="V27" s="139"/>
-      <c r="W27" s="217"/>
+      <c r="W27" s="206"/>
       <c r="X27" s="12"/>
     </row>
     <row r="28" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -3717,21 +3717,21 @@
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="115"/>
-      <c r="J28" s="237" t="s">
+      <c r="J28" s="187" t="s">
         <v>135</v>
       </c>
-      <c r="K28" s="237"/>
-      <c r="L28" s="237"/>
+      <c r="K28" s="187"/>
+      <c r="L28" s="187"/>
       <c r="M28" s="12"/>
-      <c r="N28" s="233" t="s">
+      <c r="N28" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="O28" s="234"/>
-      <c r="P28" s="234"/>
-      <c r="Q28" s="200" t="s">
+      <c r="O28" s="186"/>
+      <c r="P28" s="186"/>
+      <c r="Q28" s="213" t="s">
         <v>15</v>
       </c>
-      <c r="R28" s="200"/>
+      <c r="R28" s="213"/>
       <c r="S28" s="139" t="s">
         <v>13</v>
       </c>
@@ -3740,19 +3740,19 @@
       </c>
       <c r="U28" s="159">
         <f ca="1">TODAY()</f>
-        <v>43507</v>
+        <v>43552</v>
       </c>
       <c r="V28" s="139"/>
-      <c r="W28" s="217"/>
+      <c r="W28" s="206"/>
       <c r="X28" s="12"/>
     </row>
     <row r="29" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="191"/>
-      <c r="D29" s="191"/>
-      <c r="E29" s="191"/>
-      <c r="F29" s="191"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="236"/>
+      <c r="E29" s="236"/>
+      <c r="F29" s="236"/>
       <c r="G29" s="120"/>
       <c r="H29" s="25"/>
       <c r="I29" s="12"/>
@@ -3769,7 +3769,7 @@
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
       <c r="V29" s="124"/>
-      <c r="W29" s="218"/>
+      <c r="W29" s="207"/>
       <c r="X29" s="12"/>
     </row>
     <row r="30" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3801,10 +3801,10 @@
     <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="191"/>
-      <c r="D31" s="191"/>
-      <c r="E31" s="191"/>
-      <c r="F31" s="191"/>
+      <c r="C31" s="236"/>
+      <c r="D31" s="236"/>
+      <c r="E31" s="236"/>
+      <c r="F31" s="236"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -3830,25 +3830,25 @@
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="199" t="s">
+      <c r="F32" s="229" t="s">
         <v>139</v>
       </c>
-      <c r="G32" s="199"/>
-      <c r="H32" s="199"/>
-      <c r="I32" s="199"/>
-      <c r="J32" s="199"/>
-      <c r="K32" s="199"/>
-      <c r="L32" s="199"/>
+      <c r="G32" s="229"/>
+      <c r="H32" s="229"/>
+      <c r="I32" s="229"/>
+      <c r="J32" s="229"/>
+      <c r="K32" s="229"/>
+      <c r="L32" s="229"/>
       <c r="M32" s="139" t="s">
         <v>188</v>
       </c>
       <c r="N32" s="174"/>
       <c r="O32" s="115"/>
       <c r="P32" s="115"/>
-      <c r="Q32" s="198" t="s">
+      <c r="Q32" s="203" t="s">
         <v>15</v>
       </c>
-      <c r="R32" s="198"/>
+      <c r="R32" s="203"/>
       <c r="S32" s="135" t="s">
         <v>13</v>
       </c>
@@ -3857,12 +3857,12 @@
       </c>
       <c r="U32" s="159">
         <f ca="1">TODAY()</f>
-        <v>43507</v>
-      </c>
-      <c r="V32" s="185" t="s">
+        <v>43552</v>
+      </c>
+      <c r="V32" s="230" t="s">
         <v>147</v>
       </c>
-      <c r="W32" s="186"/>
+      <c r="W32" s="231"/>
       <c r="X32" s="12"/>
     </row>
     <row r="33" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3871,15 +3871,15 @@
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="199" t="s">
+      <c r="F33" s="229" t="s">
         <v>139</v>
       </c>
-      <c r="G33" s="199"/>
-      <c r="H33" s="199"/>
-      <c r="I33" s="199"/>
-      <c r="J33" s="199"/>
-      <c r="K33" s="199"/>
-      <c r="L33" s="199"/>
+      <c r="G33" s="229"/>
+      <c r="H33" s="229"/>
+      <c r="I33" s="229"/>
+      <c r="J33" s="229"/>
+      <c r="K33" s="229"/>
+      <c r="L33" s="229"/>
       <c r="M33" s="139" t="s">
         <v>118</v>
       </c>
@@ -3888,10 +3888,10 @@
       </c>
       <c r="O33" s="115"/>
       <c r="P33" s="115"/>
-      <c r="Q33" s="198" t="s">
+      <c r="Q33" s="203" t="s">
         <v>15</v>
       </c>
-      <c r="R33" s="198"/>
+      <c r="R33" s="203"/>
       <c r="S33" s="135" t="s">
         <v>13</v>
       </c>
@@ -3900,10 +3900,10 @@
       </c>
       <c r="U33" s="159">
         <f t="shared" ref="U33:U37" ca="1" si="0">TODAY()</f>
-        <v>43507</v>
-      </c>
-      <c r="V33" s="187"/>
-      <c r="W33" s="188"/>
+        <v>43552</v>
+      </c>
+      <c r="V33" s="232"/>
+      <c r="W33" s="233"/>
       <c r="X33" s="12"/>
     </row>
     <row r="34" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3912,15 +3912,15 @@
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="199" t="s">
+      <c r="F34" s="229" t="s">
         <v>140</v>
       </c>
-      <c r="G34" s="199"/>
-      <c r="H34" s="199"/>
-      <c r="I34" s="199"/>
-      <c r="J34" s="199"/>
-      <c r="K34" s="199"/>
-      <c r="L34" s="199"/>
+      <c r="G34" s="229"/>
+      <c r="H34" s="229"/>
+      <c r="I34" s="229"/>
+      <c r="J34" s="229"/>
+      <c r="K34" s="229"/>
+      <c r="L34" s="229"/>
       <c r="M34" s="139" t="s">
         <v>141</v>
       </c>
@@ -3929,10 +3929,10 @@
         <v>142</v>
       </c>
       <c r="P34" s="115"/>
-      <c r="Q34" s="198" t="s">
+      <c r="Q34" s="203" t="s">
         <v>15</v>
       </c>
-      <c r="R34" s="198"/>
+      <c r="R34" s="203"/>
       <c r="S34" s="135" t="s">
         <v>13</v>
       </c>
@@ -3941,10 +3941,10 @@
       </c>
       <c r="U34" s="159">
         <f t="shared" ca="1" si="0"/>
-        <v>43507</v>
-      </c>
-      <c r="V34" s="187"/>
-      <c r="W34" s="188"/>
+        <v>43552</v>
+      </c>
+      <c r="V34" s="232"/>
+      <c r="W34" s="233"/>
       <c r="X34" s="12"/>
     </row>
     <row r="35" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3960,16 +3960,16 @@
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
-      <c r="M35" s="215" t="s">
+      <c r="M35" s="204" t="s">
         <v>190</v>
       </c>
-      <c r="N35" s="215"/>
-      <c r="O35" s="215"/>
-      <c r="P35" s="215"/>
-      <c r="Q35" s="198" t="s">
+      <c r="N35" s="204"/>
+      <c r="O35" s="204"/>
+      <c r="P35" s="204"/>
+      <c r="Q35" s="203" t="s">
         <v>15</v>
       </c>
-      <c r="R35" s="198"/>
+      <c r="R35" s="203"/>
       <c r="S35" s="135" t="s">
         <v>13</v>
       </c>
@@ -3978,10 +3978,10 @@
       </c>
       <c r="U35" s="159">
         <f t="shared" ca="1" si="0"/>
-        <v>43507</v>
-      </c>
-      <c r="V35" s="187"/>
-      <c r="W35" s="188"/>
+        <v>43552</v>
+      </c>
+      <c r="V35" s="232"/>
+      <c r="W35" s="233"/>
       <c r="X35" s="12"/>
     </row>
     <row r="36" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -3997,46 +3997,46 @@
       <c r="J36" s="122"/>
       <c r="K36" s="122"/>
       <c r="L36" s="122"/>
-      <c r="M36" s="212"/>
-      <c r="N36" s="212"/>
+      <c r="M36" s="214"/>
+      <c r="N36" s="214"/>
       <c r="O36" s="115"/>
       <c r="P36" s="115"/>
-      <c r="Q36" s="198"/>
-      <c r="R36" s="198"/>
+      <c r="Q36" s="203"/>
+      <c r="R36" s="203"/>
       <c r="S36" s="135"/>
       <c r="T36" s="135"/>
       <c r="U36" s="159"/>
-      <c r="V36" s="187"/>
-      <c r="W36" s="188"/>
+      <c r="V36" s="232"/>
+      <c r="W36" s="233"/>
       <c r="X36" s="12"/>
     </row>
     <row r="37" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="213" t="s">
+      <c r="D37" s="215" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="213"/>
-      <c r="F37" s="213"/>
-      <c r="G37" s="213"/>
-      <c r="H37" s="213"/>
-      <c r="I37" s="213"/>
-      <c r="J37" s="213"/>
-      <c r="K37" s="213"/>
-      <c r="L37" s="214" t="s">
+      <c r="E37" s="215"/>
+      <c r="F37" s="215"/>
+      <c r="G37" s="215"/>
+      <c r="H37" s="215"/>
+      <c r="I37" s="215"/>
+      <c r="J37" s="215"/>
+      <c r="K37" s="215"/>
+      <c r="L37" s="216" t="s">
         <v>144</v>
       </c>
-      <c r="M37" s="214"/>
-      <c r="N37" s="214"/>
+      <c r="M37" s="216"/>
+      <c r="N37" s="216"/>
       <c r="O37" s="115" t="s">
         <v>142</v>
       </c>
       <c r="P37" s="115"/>
-      <c r="Q37" s="198" t="s">
+      <c r="Q37" s="203" t="s">
         <v>15</v>
       </c>
-      <c r="R37" s="198"/>
+      <c r="R37" s="203"/>
       <c r="S37" s="135" t="s">
         <v>13</v>
       </c>
@@ -4045,10 +4045,10 @@
       </c>
       <c r="U37" s="159">
         <f t="shared" ca="1" si="0"/>
-        <v>43507</v>
-      </c>
-      <c r="V37" s="189"/>
-      <c r="W37" s="190"/>
+        <v>43552</v>
+      </c>
+      <c r="V37" s="234"/>
+      <c r="W37" s="235"/>
       <c r="X37" s="12"/>
     </row>
     <row r="38" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4157,27 +4157,43 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="V21:V26"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N17:V17"/>
-    <mergeCell ref="N14:V14"/>
+    <mergeCell ref="V32:W37"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="F32:L32"/>
+    <mergeCell ref="F34:L34"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="N12:V12"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="E12:E18"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C18"/>
+    <mergeCell ref="F12:F18"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="F33:L33"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="L37:N37"/>
     <mergeCell ref="Q35:R35"/>
     <mergeCell ref="M35:P35"/>
     <mergeCell ref="W21:W29"/>
@@ -4194,49 +4210,33 @@
     <mergeCell ref="J17:M17"/>
     <mergeCell ref="J18:M18"/>
     <mergeCell ref="J19:M19"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="E12:E18"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C18"/>
-    <mergeCell ref="F12:F18"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="F33:L33"/>
-    <mergeCell ref="V32:W37"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="F32:L32"/>
-    <mergeCell ref="F34:L34"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="N12:V12"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="V21:V26"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N17:V17"/>
+    <mergeCell ref="N14:V14"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="N22:P22"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0"/>
   <pageSetup paperSize="8" scale="87" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L   Док. №372.10   &amp;8\\1C\GlobArch\Рабочая папка\Выходные документы\Выходные документы (шаблоны)&amp;12
+    <oddHeader>&amp;L                    Док. №372.10   &amp;8https://500stp.website/shablony-dokumentov-titulnyy-kd.php&amp;12
                    &amp;G</oddHeader>
   </headerFooter>
   <colBreaks count="1" manualBreakCount="1">
@@ -5055,12 +5055,12 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="247" t="s">
+      <c r="G2" s="257" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="248"/>
-      <c r="I2" s="248"/>
-      <c r="J2" s="248"/>
+      <c r="H2" s="258"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="258"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -5073,28 +5073,28 @@
       <c r="T2" s="6"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="255" t="s">
+      <c r="A3" s="260" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="233" t="s">
+      <c r="B3" s="261"/>
+      <c r="C3" s="261"/>
+      <c r="D3" s="261"/>
+      <c r="E3" s="261"/>
+      <c r="F3" s="261"/>
+      <c r="G3" s="261"/>
+      <c r="H3" s="261"/>
+      <c r="I3" s="261"/>
+      <c r="J3" s="261"/>
+      <c r="K3" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="233"/>
-      <c r="M3" s="233"/>
-      <c r="N3" s="233"/>
-      <c r="O3" s="198" t="s">
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="203" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="198"/>
+      <c r="P3" s="203"/>
       <c r="Q3" s="135" t="s">
         <v>13</v>
       </c>
@@ -5103,7 +5103,7 @@
       </c>
       <c r="S3" s="160">
         <f ca="1">TODAY()</f>
-        <v>43507</v>
+        <v>43552</v>
       </c>
       <c r="T3" s="6"/>
     </row>
@@ -5152,11 +5152,11 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="257" t="s">
+      <c r="A6" s="262" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="258"/>
-      <c r="C6" s="258"/>
+      <c r="B6" s="263"/>
+      <c r="C6" s="263"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -5176,11 +5176,11 @@
       <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="257" t="s">
+      <c r="A7" s="262" t="s">
         <v>185</v>
       </c>
-      <c r="B7" s="258"/>
-      <c r="C7" s="258"/>
+      <c r="B7" s="263"/>
+      <c r="C7" s="263"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -5200,11 +5200,11 @@
       <c r="T7" s="6"/>
     </row>
     <row r="8" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="257" t="s">
+      <c r="A8" s="262" t="s">
         <v>184</v>
       </c>
-      <c r="B8" s="258"/>
-      <c r="C8" s="258"/>
+      <c r="B8" s="263"/>
+      <c r="C8" s="263"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -5294,20 +5294,20 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="262" t="s">
+      <c r="E12" s="247" t="s">
         <v>183</v>
       </c>
-      <c r="F12" s="263"/>
-      <c r="G12" s="263"/>
-      <c r="H12" s="263"/>
-      <c r="I12" s="263"/>
-      <c r="J12" s="263"/>
-      <c r="K12" s="263"/>
-      <c r="L12" s="263"/>
-      <c r="M12" s="263"/>
-      <c r="N12" s="263"/>
-      <c r="O12" s="263"/>
-      <c r="P12" s="263"/>
+      <c r="F12" s="248"/>
+      <c r="G12" s="248"/>
+      <c r="H12" s="248"/>
+      <c r="I12" s="248"/>
+      <c r="J12" s="248"/>
+      <c r="K12" s="248"/>
+      <c r="L12" s="248"/>
+      <c r="M12" s="248"/>
+      <c r="N12" s="248"/>
+      <c r="O12" s="248"/>
+      <c r="P12" s="248"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -5318,18 +5318,18 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="263"/>
-      <c r="F13" s="263"/>
-      <c r="G13" s="263"/>
-      <c r="H13" s="263"/>
-      <c r="I13" s="263"/>
-      <c r="J13" s="263"/>
-      <c r="K13" s="263"/>
-      <c r="L13" s="263"/>
-      <c r="M13" s="263"/>
-      <c r="N13" s="263"/>
-      <c r="O13" s="263"/>
-      <c r="P13" s="263"/>
+      <c r="E13" s="248"/>
+      <c r="F13" s="248"/>
+      <c r="G13" s="248"/>
+      <c r="H13" s="248"/>
+      <c r="I13" s="248"/>
+      <c r="J13" s="248"/>
+      <c r="K13" s="248"/>
+      <c r="L13" s="248"/>
+      <c r="M13" s="248"/>
+      <c r="N13" s="248"/>
+      <c r="O13" s="248"/>
+      <c r="P13" s="248"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
@@ -5340,18 +5340,18 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="263"/>
-      <c r="F14" s="263"/>
-      <c r="G14" s="263"/>
-      <c r="H14" s="263"/>
-      <c r="I14" s="263"/>
-      <c r="J14" s="263"/>
-      <c r="K14" s="263"/>
-      <c r="L14" s="263"/>
-      <c r="M14" s="263"/>
-      <c r="N14" s="263"/>
-      <c r="O14" s="263"/>
-      <c r="P14" s="263"/>
+      <c r="E14" s="248"/>
+      <c r="F14" s="248"/>
+      <c r="G14" s="248"/>
+      <c r="H14" s="248"/>
+      <c r="I14" s="248"/>
+      <c r="J14" s="248"/>
+      <c r="K14" s="248"/>
+      <c r="L14" s="248"/>
+      <c r="M14" s="248"/>
+      <c r="N14" s="248"/>
+      <c r="O14" s="248"/>
+      <c r="P14" s="248"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
@@ -5385,23 +5385,23 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="226" t="s">
+      <c r="F16" s="200" t="s">
         <v>182</v>
       </c>
-      <c r="G16" s="254"/>
-      <c r="H16" s="254"/>
-      <c r="I16" s="254"/>
-      <c r="J16" s="261" t="str">
+      <c r="G16" s="249"/>
+      <c r="H16" s="249"/>
+      <c r="I16" s="249"/>
+      <c r="J16" s="250" t="str">
         <f>'лист титульный КД'!N12</f>
         <v>Иванов И.И</v>
       </c>
-      <c r="K16" s="261"/>
-      <c r="L16" s="261"/>
-      <c r="M16" s="261"/>
-      <c r="N16" s="261"/>
-      <c r="O16" s="261"/>
-      <c r="P16" s="261"/>
-      <c r="Q16" s="261"/>
+      <c r="K16" s="250"/>
+      <c r="L16" s="250"/>
+      <c r="M16" s="250"/>
+      <c r="N16" s="250"/>
+      <c r="O16" s="250"/>
+      <c r="P16" s="250"/>
+      <c r="Q16" s="250"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="6"/>
@@ -5412,23 +5412,23 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="226" t="s">
+      <c r="F17" s="200" t="s">
         <v>181</v>
       </c>
-      <c r="G17" s="254"/>
-      <c r="H17" s="254"/>
-      <c r="I17" s="254"/>
-      <c r="J17" s="252" t="str">
+      <c r="G17" s="249"/>
+      <c r="H17" s="249"/>
+      <c r="I17" s="249"/>
+      <c r="J17" s="251" t="str">
         <f>'лист титульный КД'!N13</f>
         <v>Петров П.П.</v>
       </c>
-      <c r="K17" s="252"/>
-      <c r="L17" s="252"/>
-      <c r="M17" s="252"/>
-      <c r="N17" s="252"/>
-      <c r="O17" s="252"/>
-      <c r="P17" s="252"/>
-      <c r="Q17" s="252"/>
+      <c r="K17" s="251"/>
+      <c r="L17" s="251"/>
+      <c r="M17" s="251"/>
+      <c r="N17" s="251"/>
+      <c r="O17" s="251"/>
+      <c r="P17" s="251"/>
+      <c r="Q17" s="251"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="6"/>
@@ -5439,25 +5439,25 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="226" t="s">
+      <c r="F18" s="200" t="s">
         <v>180</v>
       </c>
-      <c r="G18" s="254"/>
-      <c r="H18" s="254"/>
-      <c r="I18" s="254"/>
-      <c r="J18" s="261" t="str">
+      <c r="G18" s="249"/>
+      <c r="H18" s="249"/>
+      <c r="I18" s="249"/>
+      <c r="J18" s="250" t="str">
         <f>'лист титульный КД'!N14</f>
         <v>г. Москва, ул. Нарвская, д.2</v>
       </c>
-      <c r="K18" s="236"/>
-      <c r="L18" s="236"/>
-      <c r="M18" s="236"/>
-      <c r="N18" s="236"/>
-      <c r="O18" s="236"/>
-      <c r="P18" s="236"/>
-      <c r="Q18" s="236"/>
-      <c r="R18" s="236"/>
-      <c r="S18" s="236"/>
+      <c r="K18" s="202"/>
+      <c r="L18" s="202"/>
+      <c r="M18" s="202"/>
+      <c r="N18" s="202"/>
+      <c r="O18" s="202"/>
+      <c r="P18" s="202"/>
+      <c r="Q18" s="202"/>
+      <c r="R18" s="202"/>
+      <c r="S18" s="202"/>
       <c r="T18" s="6"/>
     </row>
     <row r="19" spans="1:20" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -5466,23 +5466,23 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="226" t="s">
+      <c r="F19" s="200" t="s">
         <v>179</v>
       </c>
-      <c r="G19" s="254"/>
-      <c r="H19" s="254"/>
-      <c r="I19" s="254"/>
-      <c r="J19" s="252" t="str">
+      <c r="G19" s="249"/>
+      <c r="H19" s="249"/>
+      <c r="I19" s="249"/>
+      <c r="J19" s="251" t="str">
         <f>'лист титульный КД'!N15</f>
         <v>восьмой</v>
       </c>
-      <c r="K19" s="252"/>
-      <c r="L19" s="252"/>
-      <c r="M19" s="252"/>
-      <c r="N19" s="252"/>
-      <c r="O19" s="252"/>
-      <c r="P19" s="252"/>
-      <c r="Q19" s="252"/>
+      <c r="K19" s="251"/>
+      <c r="L19" s="251"/>
+      <c r="M19" s="251"/>
+      <c r="N19" s="251"/>
+      <c r="O19" s="251"/>
+      <c r="P19" s="251"/>
+      <c r="Q19" s="251"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="6"/>
@@ -5493,23 +5493,23 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="226" t="s">
+      <c r="F20" s="200" t="s">
         <v>178</v>
       </c>
-      <c r="G20" s="254"/>
-      <c r="H20" s="254"/>
-      <c r="I20" s="254"/>
-      <c r="J20" s="252" t="str">
+      <c r="G20" s="249"/>
+      <c r="H20" s="249"/>
+      <c r="I20" s="249"/>
+      <c r="J20" s="251" t="str">
         <f>'лист титульный КД'!N16</f>
         <v>кухня</v>
       </c>
-      <c r="K20" s="252"/>
-      <c r="L20" s="252"/>
-      <c r="M20" s="252"/>
-      <c r="N20" s="252"/>
-      <c r="O20" s="252"/>
-      <c r="P20" s="252"/>
-      <c r="Q20" s="252"/>
+      <c r="K20" s="251"/>
+      <c r="L20" s="251"/>
+      <c r="M20" s="251"/>
+      <c r="N20" s="251"/>
+      <c r="O20" s="251"/>
+      <c r="P20" s="251"/>
+      <c r="Q20" s="251"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="6"/>
@@ -5520,23 +5520,23 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="226" t="s">
+      <c r="F21" s="200" t="s">
         <v>177</v>
       </c>
-      <c r="G21" s="254"/>
-      <c r="H21" s="254"/>
-      <c r="I21" s="254"/>
-      <c r="J21" s="261" t="str">
+      <c r="G21" s="249"/>
+      <c r="H21" s="249"/>
+      <c r="I21" s="249"/>
+      <c r="J21" s="250" t="str">
         <f>'лист титульный КД'!N17</f>
         <v>гарнитур кухонный, дверной блок</v>
       </c>
-      <c r="K21" s="261"/>
-      <c r="L21" s="261"/>
-      <c r="M21" s="261"/>
-      <c r="N21" s="261"/>
-      <c r="O21" s="261"/>
-      <c r="P21" s="261"/>
-      <c r="Q21" s="261"/>
+      <c r="K21" s="250"/>
+      <c r="L21" s="250"/>
+      <c r="M21" s="250"/>
+      <c r="N21" s="250"/>
+      <c r="O21" s="250"/>
+      <c r="P21" s="250"/>
+      <c r="Q21" s="250"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="6"/>
@@ -5547,23 +5547,23 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="226" t="s">
+      <c r="F22" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="G22" s="254"/>
-      <c r="H22" s="254"/>
-      <c r="I22" s="254"/>
-      <c r="J22" s="252">
+      <c r="G22" s="249"/>
+      <c r="H22" s="249"/>
+      <c r="I22" s="249"/>
+      <c r="J22" s="251">
         <f>'лист титульный КД'!N18</f>
         <v>500</v>
       </c>
-      <c r="K22" s="252"/>
-      <c r="L22" s="252"/>
-      <c r="M22" s="252"/>
-      <c r="N22" s="252"/>
-      <c r="O22" s="252"/>
-      <c r="P22" s="252"/>
-      <c r="Q22" s="252"/>
+      <c r="K22" s="251"/>
+      <c r="L22" s="251"/>
+      <c r="M22" s="251"/>
+      <c r="N22" s="251"/>
+      <c r="O22" s="251"/>
+      <c r="P22" s="251"/>
+      <c r="Q22" s="251"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="6"/>
@@ -5574,23 +5574,23 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="226" t="s">
+      <c r="F23" s="200" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="254"/>
-      <c r="H23" s="254"/>
-      <c r="I23" s="254"/>
-      <c r="J23" s="252" t="str">
+      <c r="G23" s="249"/>
+      <c r="H23" s="249"/>
+      <c r="I23" s="249"/>
+      <c r="J23" s="251" t="str">
         <f>'лист титульный КД'!N19</f>
         <v>1-15,16</v>
       </c>
-      <c r="K23" s="252"/>
-      <c r="L23" s="252"/>
-      <c r="M23" s="252"/>
-      <c r="N23" s="252"/>
-      <c r="O23" s="252"/>
-      <c r="P23" s="252"/>
-      <c r="Q23" s="252"/>
+      <c r="K23" s="251"/>
+      <c r="L23" s="251"/>
+      <c r="M23" s="251"/>
+      <c r="N23" s="251"/>
+      <c r="O23" s="251"/>
+      <c r="P23" s="251"/>
+      <c r="Q23" s="251"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="6"/>
@@ -5690,12 +5690,12 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="253" t="s">
+      <c r="G28" s="252" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="250"/>
-      <c r="I28" s="250"/>
-      <c r="J28" s="250"/>
+      <c r="H28" s="253"/>
+      <c r="I28" s="253"/>
+      <c r="J28" s="253"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -5708,29 +5708,29 @@
       <c r="T28" s="6"/>
     </row>
     <row r="29" spans="1:20" s="150" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="249" t="s">
+      <c r="A29" s="259" t="s">
         <v>187</v>
       </c>
-      <c r="B29" s="250"/>
-      <c r="C29" s="250"/>
-      <c r="D29" s="250"/>
-      <c r="E29" s="250"/>
-      <c r="F29" s="250"/>
-      <c r="G29" s="250"/>
-      <c r="H29" s="250"/>
-      <c r="I29" s="250"/>
-      <c r="J29" s="250"/>
-      <c r="K29" s="251" t="str">
+      <c r="B29" s="253"/>
+      <c r="C29" s="253"/>
+      <c r="D29" s="253"/>
+      <c r="E29" s="253"/>
+      <c r="F29" s="253"/>
+      <c r="G29" s="253"/>
+      <c r="H29" s="253"/>
+      <c r="I29" s="253"/>
+      <c r="J29" s="253"/>
+      <c r="K29" s="256" t="str">
         <f>IF(builder=0,"",builder)</f>
         <v>_____________</v>
       </c>
-      <c r="L29" s="251"/>
-      <c r="M29" s="251"/>
-      <c r="N29" s="251"/>
-      <c r="O29" s="251" t="s">
+      <c r="L29" s="256"/>
+      <c r="M29" s="256"/>
+      <c r="N29" s="256"/>
+      <c r="O29" s="256" t="s">
         <v>15</v>
       </c>
-      <c r="P29" s="251"/>
+      <c r="P29" s="256"/>
       <c r="Q29" s="152" t="s">
         <v>13</v>
       </c>
@@ -5739,7 +5739,7 @@
       </c>
       <c r="S29" s="160">
         <f ca="1">TODAY()</f>
-        <v>43507</v>
+        <v>43552</v>
       </c>
       <c r="T29" s="151"/>
     </row>
@@ -5772,12 +5772,12 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="253" t="s">
+      <c r="G31" s="252" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="250"/>
-      <c r="I31" s="250"/>
-      <c r="J31" s="250"/>
+      <c r="H31" s="253"/>
+      <c r="I31" s="253"/>
+      <c r="J31" s="253"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -5790,28 +5790,28 @@
       <c r="T31" s="6"/>
     </row>
     <row r="32" spans="1:20" s="150" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="259" t="s">
+      <c r="A32" s="254" t="s">
         <v>174</v>
       </c>
-      <c r="B32" s="250"/>
-      <c r="C32" s="250"/>
-      <c r="D32" s="250"/>
-      <c r="E32" s="250"/>
-      <c r="F32" s="250"/>
-      <c r="G32" s="250"/>
-      <c r="H32" s="250"/>
-      <c r="I32" s="250"/>
-      <c r="J32" s="250"/>
-      <c r="K32" s="260" t="s">
+      <c r="B32" s="253"/>
+      <c r="C32" s="253"/>
+      <c r="D32" s="253"/>
+      <c r="E32" s="253"/>
+      <c r="F32" s="253"/>
+      <c r="G32" s="253"/>
+      <c r="H32" s="253"/>
+      <c r="I32" s="253"/>
+      <c r="J32" s="253"/>
+      <c r="K32" s="255" t="s">
         <v>14</v>
       </c>
-      <c r="L32" s="260"/>
-      <c r="M32" s="260"/>
-      <c r="N32" s="260"/>
-      <c r="O32" s="251" t="s">
+      <c r="L32" s="255"/>
+      <c r="M32" s="255"/>
+      <c r="N32" s="255"/>
+      <c r="O32" s="256" t="s">
         <v>15</v>
       </c>
-      <c r="P32" s="251"/>
+      <c r="P32" s="256"/>
       <c r="Q32" s="152" t="s">
         <v>13</v>
       </c>
@@ -5820,33 +5820,33 @@
       </c>
       <c r="S32" s="160">
         <f ca="1">TODAY()</f>
-        <v>43507</v>
+        <v>43552</v>
       </c>
       <c r="T32" s="151"/>
     </row>
     <row r="33" spans="1:20" s="150" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="259" t="s">
+      <c r="A33" s="254" t="s">
         <v>173</v>
       </c>
-      <c r="B33" s="250"/>
-      <c r="C33" s="250"/>
-      <c r="D33" s="250"/>
-      <c r="E33" s="250"/>
-      <c r="F33" s="250"/>
-      <c r="G33" s="250"/>
-      <c r="H33" s="250"/>
-      <c r="I33" s="250"/>
-      <c r="J33" s="250"/>
-      <c r="K33" s="260" t="s">
+      <c r="B33" s="253"/>
+      <c r="C33" s="253"/>
+      <c r="D33" s="253"/>
+      <c r="E33" s="253"/>
+      <c r="F33" s="253"/>
+      <c r="G33" s="253"/>
+      <c r="H33" s="253"/>
+      <c r="I33" s="253"/>
+      <c r="J33" s="253"/>
+      <c r="K33" s="255" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="260"/>
-      <c r="M33" s="260"/>
-      <c r="N33" s="260"/>
-      <c r="O33" s="251" t="s">
+      <c r="L33" s="255"/>
+      <c r="M33" s="255"/>
+      <c r="N33" s="255"/>
+      <c r="O33" s="256" t="s">
         <v>15</v>
       </c>
-      <c r="P33" s="251"/>
+      <c r="P33" s="256"/>
       <c r="Q33" s="152" t="s">
         <v>13</v>
       </c>
@@ -5855,7 +5855,7 @@
       </c>
       <c r="S33" s="160">
         <f ca="1">TODAY()</f>
-        <v>43507</v>
+        <v>43552</v>
       </c>
       <c r="T33" s="151"/>
     </row>
@@ -5905,25 +5905,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E12:P14"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="J18:S18"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="O32:P32"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="A29:J29"/>
@@ -5940,6 +5921,25 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="E12:P14"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="J18:S18"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>

--- a/dist/files/xls/shablon-kd.xlsx
+++ b/dist/files/xls/shablon-kd.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sshishenko\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8190" tabRatio="778"/>
   </bookViews>
@@ -43,7 +38,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'спецификация конструкторская'!$A$1:$M$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'ТИТУЛЬНЫЙ ЛИСТ ВПИ'!$A$1:$T$35</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -702,11 +697,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy"/>
   </numFmts>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1088,6 +1083,15 @@
       <name val="AIGDT"/>
       <charset val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2175,208 +2179,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2386,45 +2193,6 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2445,39 +2213,6 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2492,6 +2227,39 @@
     <xf numFmtId="0" fontId="41" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2504,35 +2272,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -2552,32 +2445,143 @@
     <xf numFmtId="0" fontId="40" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2898,7 +2902,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2948,14 +2952,14 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
-      <c r="I1" s="231" t="s">
+      <c r="I1" s="168" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="232"/>
-      <c r="K1" s="232"/>
-      <c r="L1" s="232"/>
-      <c r="M1" s="232"/>
-      <c r="N1" s="232"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="169"/>
+      <c r="N1" s="169"/>
       <c r="O1" s="123"/>
       <c r="P1" s="123"/>
       <c r="Q1" s="123"/>
@@ -2992,41 +2996,41 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="233" t="s">
+      <c r="I2" s="221" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="234"/>
-      <c r="K2" s="234"/>
-      <c r="L2" s="234"/>
-      <c r="M2" s="234"/>
-      <c r="N2" s="235"/>
+      <c r="J2" s="222"/>
+      <c r="K2" s="222"/>
+      <c r="L2" s="222"/>
+      <c r="M2" s="222"/>
+      <c r="N2" s="223"/>
       <c r="O2" s="99"/>
-      <c r="P2" s="278" t="s">
+      <c r="P2" s="201" t="s">
         <v>159</v>
       </c>
-      <c r="Q2" s="279"/>
-      <c r="R2" s="279"/>
-      <c r="S2" s="279"/>
-      <c r="T2" s="279"/>
-      <c r="U2" s="279"/>
-      <c r="V2" s="280"/>
-      <c r="W2" s="281"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="202"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="204"/>
       <c r="X2" s="12"/>
       <c r="Z2" s="12"/>
       <c r="AA2" s="12"/>
-      <c r="AB2" s="253"/>
-      <c r="AC2" s="253"/>
-      <c r="AD2" s="253"/>
-      <c r="AE2" s="253"/>
-      <c r="AF2" s="254"/>
-      <c r="AG2" s="253"/>
-      <c r="AH2" s="253"/>
-      <c r="AI2" s="253"/>
-      <c r="AJ2" s="253"/>
-      <c r="AK2" s="253"/>
-      <c r="AL2" s="253"/>
-      <c r="AM2" s="253"/>
-      <c r="AN2" s="253"/>
+      <c r="AB2" s="174"/>
+      <c r="AC2" s="174"/>
+      <c r="AD2" s="174"/>
+      <c r="AE2" s="174"/>
+      <c r="AF2" s="175"/>
+      <c r="AG2" s="174"/>
+      <c r="AH2" s="174"/>
+      <c r="AI2" s="174"/>
+      <c r="AJ2" s="174"/>
+      <c r="AK2" s="174"/>
+      <c r="AL2" s="174"/>
+      <c r="AM2" s="174"/>
+      <c r="AN2" s="174"/>
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="1:41" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3045,11 +3049,11 @@
         <v>30</v>
       </c>
       <c r="K3" s="102"/>
-      <c r="L3" s="183" t="s">
+      <c r="L3" s="224" t="s">
         <v>192</v>
       </c>
-      <c r="M3" s="183"/>
-      <c r="N3" s="274" t="s">
+      <c r="M3" s="224"/>
+      <c r="N3" s="184" t="s">
         <v>31</v>
       </c>
       <c r="O3" s="99"/>
@@ -3060,10 +3064,10 @@
         <v>38</v>
       </c>
       <c r="R3" s="102"/>
-      <c r="S3" s="183" t="s">
+      <c r="S3" s="224" t="s">
         <v>192</v>
       </c>
-      <c r="T3" s="183"/>
+      <c r="T3" s="224"/>
       <c r="U3" s="103" t="s">
         <v>35</v>
       </c>
@@ -3071,19 +3075,19 @@
       <c r="W3" s="27"/>
       <c r="X3" s="12"/>
       <c r="Z3" s="12"/>
-      <c r="AA3" s="182"/>
-      <c r="AB3" s="182"/>
-      <c r="AC3" s="182"/>
-      <c r="AD3" s="182"/>
-      <c r="AE3" s="182"/>
-      <c r="AF3" s="182"/>
+      <c r="AA3" s="245"/>
+      <c r="AB3" s="245"/>
+      <c r="AC3" s="245"/>
+      <c r="AD3" s="245"/>
+      <c r="AE3" s="245"/>
+      <c r="AF3" s="245"/>
       <c r="AG3" s="99"/>
-      <c r="AH3" s="183"/>
-      <c r="AI3" s="183"/>
-      <c r="AJ3" s="183"/>
-      <c r="AK3" s="183"/>
-      <c r="AL3" s="183"/>
-      <c r="AM3" s="183"/>
+      <c r="AH3" s="224"/>
+      <c r="AI3" s="224"/>
+      <c r="AJ3" s="224"/>
+      <c r="AK3" s="224"/>
+      <c r="AL3" s="224"/>
+      <c r="AM3" s="224"/>
       <c r="AN3" s="164"/>
       <c r="AO3" s="26"/>
     </row>
@@ -3103,44 +3107,44 @@
         <v>32</v>
       </c>
       <c r="K4" s="99"/>
-      <c r="L4" s="169" t="s">
+      <c r="L4" s="214" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="169"/>
-      <c r="N4" s="275" t="s">
+      <c r="M4" s="214"/>
+      <c r="N4" s="185" t="s">
         <v>158</v>
       </c>
       <c r="O4" s="99"/>
       <c r="P4" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="288" t="s">
+      <c r="Q4" s="189" t="s">
         <v>195</v>
       </c>
       <c r="R4" s="99"/>
-      <c r="S4" s="169" t="s">
+      <c r="S4" s="214" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="169"/>
-      <c r="U4" s="272" t="s">
+      <c r="T4" s="214"/>
+      <c r="U4" s="182" t="s">
         <v>158</v>
       </c>
-      <c r="V4" s="236"/>
-      <c r="W4" s="237"/>
+      <c r="V4" s="170"/>
+      <c r="W4" s="171"/>
       <c r="X4" s="12"/>
       <c r="Z4" s="12"/>
-      <c r="AA4" s="255"/>
+      <c r="AA4" s="176"/>
       <c r="AB4" s="101"/>
       <c r="AC4" s="102"/>
-      <c r="AD4" s="183"/>
-      <c r="AE4" s="183"/>
-      <c r="AF4" s="256"/>
+      <c r="AD4" s="224"/>
+      <c r="AE4" s="224"/>
+      <c r="AF4" s="177"/>
       <c r="AG4" s="99"/>
-      <c r="AH4" s="255"/>
+      <c r="AH4" s="176"/>
       <c r="AI4" s="101"/>
       <c r="AJ4" s="102"/>
-      <c r="AK4" s="183"/>
-      <c r="AL4" s="183"/>
+      <c r="AK4" s="224"/>
+      <c r="AL4" s="224"/>
       <c r="AM4" s="118"/>
       <c r="AN4" s="118"/>
       <c r="AO4" s="26"/>
@@ -3161,11 +3165,11 @@
         <v>157</v>
       </c>
       <c r="K5" s="99"/>
-      <c r="L5" s="169" t="s">
+      <c r="L5" s="214" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="169"/>
-      <c r="N5" s="274" t="s">
+      <c r="M5" s="214"/>
+      <c r="N5" s="184" t="s">
         <v>156</v>
       </c>
       <c r="O5" s="99"/>
@@ -3176,10 +3180,10 @@
         <v>157</v>
       </c>
       <c r="R5" s="99"/>
-      <c r="S5" s="169" t="s">
+      <c r="S5" s="214" t="s">
         <v>40</v>
       </c>
-      <c r="T5" s="169"/>
+      <c r="T5" s="214"/>
       <c r="U5" s="103" t="s">
         <v>156</v>
       </c>
@@ -3187,18 +3191,18 @@
       <c r="W5" s="11"/>
       <c r="X5" s="12"/>
       <c r="Z5" s="12"/>
-      <c r="AA5" s="255"/>
+      <c r="AA5" s="176"/>
       <c r="AB5" s="103"/>
       <c r="AC5" s="99"/>
-      <c r="AD5" s="169"/>
-      <c r="AE5" s="169"/>
-      <c r="AF5" s="257"/>
+      <c r="AD5" s="214"/>
+      <c r="AE5" s="214"/>
+      <c r="AF5" s="178"/>
       <c r="AG5" s="99"/>
-      <c r="AH5" s="255"/>
+      <c r="AH5" s="176"/>
       <c r="AI5" s="103"/>
       <c r="AJ5" s="99"/>
-      <c r="AK5" s="169"/>
-      <c r="AL5" s="169"/>
+      <c r="AK5" s="214"/>
+      <c r="AL5" s="214"/>
       <c r="AM5" s="119"/>
       <c r="AN5" s="119"/>
       <c r="AO5" s="139"/>
@@ -3217,7 +3221,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
-      <c r="N6" s="276"/>
+      <c r="N6" s="186"/>
       <c r="O6" s="99"/>
       <c r="P6" s="100" t="s">
         <v>29</v>
@@ -3226,10 +3230,10 @@
         <v>155</v>
       </c>
       <c r="R6" s="99"/>
-      <c r="S6" s="169" t="s">
+      <c r="S6" s="214" t="s">
         <v>40</v>
       </c>
-      <c r="T6" s="169"/>
+      <c r="T6" s="214"/>
       <c r="U6" s="103" t="s">
         <v>154</v>
       </c>
@@ -3237,18 +3241,18 @@
       <c r="W6" s="28"/>
       <c r="X6" s="12"/>
       <c r="Z6" s="12"/>
-      <c r="AA6" s="255"/>
+      <c r="AA6" s="176"/>
       <c r="AB6" s="103"/>
       <c r="AC6" s="99"/>
-      <c r="AD6" s="169"/>
-      <c r="AE6" s="169"/>
-      <c r="AF6" s="256"/>
+      <c r="AD6" s="214"/>
+      <c r="AE6" s="214"/>
+      <c r="AF6" s="177"/>
       <c r="AG6" s="99"/>
-      <c r="AH6" s="255"/>
+      <c r="AH6" s="176"/>
       <c r="AI6" s="103"/>
       <c r="AJ6" s="99"/>
-      <c r="AK6" s="169"/>
-      <c r="AL6" s="169"/>
+      <c r="AK6" s="214"/>
+      <c r="AL6" s="214"/>
       <c r="AM6" s="118"/>
       <c r="AN6" s="118"/>
       <c r="AO6" s="12"/>
@@ -3269,11 +3273,11 @@
         <v>33</v>
       </c>
       <c r="K7" s="99"/>
-      <c r="L7" s="169" t="s">
+      <c r="L7" s="214" t="s">
         <v>193</v>
       </c>
-      <c r="M7" s="169"/>
-      <c r="N7" s="274" t="s">
+      <c r="M7" s="214"/>
+      <c r="N7" s="184" t="s">
         <v>34</v>
       </c>
       <c r="O7" s="99"/>
@@ -3284,10 +3288,10 @@
         <v>189</v>
       </c>
       <c r="R7" s="99"/>
-      <c r="S7" s="169" t="s">
+      <c r="S7" s="214" t="s">
         <v>40</v>
       </c>
-      <c r="T7" s="169"/>
+      <c r="T7" s="214"/>
       <c r="U7" s="103" t="s">
         <v>190</v>
       </c>
@@ -3302,11 +3306,11 @@
       <c r="AE7" s="12"/>
       <c r="AF7" s="147"/>
       <c r="AG7" s="99"/>
-      <c r="AH7" s="255"/>
+      <c r="AH7" s="176"/>
       <c r="AI7" s="103"/>
       <c r="AJ7" s="99"/>
-      <c r="AK7" s="169"/>
-      <c r="AL7" s="169"/>
+      <c r="AK7" s="214"/>
+      <c r="AL7" s="214"/>
       <c r="AM7" s="103"/>
       <c r="AN7" s="103"/>
       <c r="AO7" s="25"/>
@@ -3331,7 +3335,7 @@
         <v>118</v>
       </c>
       <c r="M8" s="163"/>
-      <c r="N8" s="277"/>
+      <c r="N8" s="187"/>
       <c r="O8" s="99"/>
       <c r="P8" s="100" t="s">
         <v>36</v>
@@ -3340,10 +3344,10 @@
         <v>33</v>
       </c>
       <c r="R8" s="99"/>
-      <c r="S8" s="169" t="s">
+      <c r="S8" s="214" t="s">
         <v>40</v>
       </c>
-      <c r="T8" s="169"/>
+      <c r="T8" s="214"/>
       <c r="U8" s="103" t="s">
         <v>196</v>
       </c>
@@ -3351,18 +3355,18 @@
       <c r="W8" s="29"/>
       <c r="X8" s="12"/>
       <c r="Z8" s="12"/>
-      <c r="AA8" s="255"/>
+      <c r="AA8" s="176"/>
       <c r="AB8" s="103"/>
       <c r="AC8" s="99"/>
-      <c r="AD8" s="169"/>
-      <c r="AE8" s="169"/>
-      <c r="AF8" s="256"/>
+      <c r="AD8" s="214"/>
+      <c r="AE8" s="214"/>
+      <c r="AF8" s="177"/>
       <c r="AG8" s="99"/>
-      <c r="AH8" s="255"/>
+      <c r="AH8" s="176"/>
       <c r="AI8" s="103"/>
       <c r="AJ8" s="99"/>
-      <c r="AK8" s="169"/>
-      <c r="AL8" s="169"/>
+      <c r="AK8" s="214"/>
+      <c r="AL8" s="214"/>
       <c r="AM8" s="118"/>
       <c r="AN8" s="118"/>
       <c r="AO8" s="113"/>
@@ -3376,16 +3380,16 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="238"/>
+      <c r="I9" s="172"/>
       <c r="J9" s="99"/>
       <c r="K9" s="99"/>
-      <c r="L9" s="239" t="s">
+      <c r="L9" s="173" t="s">
         <v>153</v>
       </c>
-      <c r="M9" s="306" t="s">
+      <c r="M9" s="210" t="s">
         <v>152</v>
       </c>
-      <c r="N9" s="307"/>
+      <c r="N9" s="211"/>
       <c r="O9" s="12"/>
       <c r="P9" s="100" t="s">
         <v>36</v>
@@ -3398,19 +3402,19 @@
         <v>41</v>
       </c>
       <c r="T9" s="163"/>
-      <c r="U9" s="273"/>
+      <c r="U9" s="183"/>
       <c r="V9" s="163"/>
       <c r="W9" s="29"/>
       <c r="X9" s="12"/>
       <c r="Z9" s="12"/>
-      <c r="AA9" s="255"/>
+      <c r="AA9" s="176"/>
       <c r="AB9" s="103"/>
       <c r="AC9" s="99"/>
       <c r="AD9" s="163"/>
       <c r="AE9" s="163"/>
-      <c r="AF9" s="258"/>
+      <c r="AF9" s="179"/>
       <c r="AG9" s="99"/>
-      <c r="AH9" s="255"/>
+      <c r="AH9" s="176"/>
       <c r="AI9" s="103"/>
       <c r="AJ9" s="99"/>
       <c r="AK9" s="163"/>
@@ -3438,69 +3442,69 @@
       <c r="P10" s="104"/>
       <c r="Q10" s="105"/>
       <c r="R10" s="105"/>
-      <c r="S10" s="260" t="s">
+      <c r="S10" s="181" t="s">
         <v>39</v>
       </c>
-      <c r="T10" s="260"/>
-      <c r="U10" s="308" t="s">
+      <c r="T10" s="181"/>
+      <c r="U10" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="V10" s="308"/>
+      <c r="V10" s="191"/>
       <c r="W10" s="11"/>
       <c r="X10" s="12"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="99"/>
       <c r="AB10" s="99"/>
       <c r="AC10" s="99"/>
-      <c r="AD10" s="239"/>
-      <c r="AE10" s="239"/>
-      <c r="AF10" s="259"/>
+      <c r="AD10" s="173"/>
+      <c r="AE10" s="173"/>
+      <c r="AF10" s="180"/>
       <c r="AG10" s="12"/>
       <c r="AH10" s="99"/>
       <c r="AI10" s="99"/>
       <c r="AJ10" s="99"/>
-      <c r="AK10" s="260"/>
-      <c r="AL10" s="260"/>
-      <c r="AM10" s="260"/>
-      <c r="AN10" s="260"/>
+      <c r="AK10" s="181"/>
+      <c r="AL10" s="181"/>
+      <c r="AM10" s="181"/>
+      <c r="AN10" s="181"/>
       <c r="AO10" s="12"/>
     </row>
     <row r="11" spans="1:41" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="240" t="s">
+      <c r="A11" s="215" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="241" t="s">
+      <c r="B11" s="216" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="242" t="s">
+      <c r="C11" s="218" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="242" t="s">
+      <c r="D11" s="218" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="242"/>
-      <c r="F11" s="242"/>
-      <c r="G11" s="242"/>
-      <c r="H11" s="243"/>
-      <c r="I11" s="290" t="s">
+      <c r="E11" s="218"/>
+      <c r="F11" s="218"/>
+      <c r="G11" s="218"/>
+      <c r="H11" s="219"/>
+      <c r="I11" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="194"/>
-      <c r="K11" s="194"/>
-      <c r="L11" s="194"/>
-      <c r="M11" s="194"/>
-      <c r="N11" s="194"/>
-      <c r="O11" s="194"/>
-      <c r="P11" s="194"/>
-      <c r="Q11" s="194"/>
-      <c r="R11" s="291"/>
-      <c r="S11" s="292" t="s">
+      <c r="J11" s="208"/>
+      <c r="K11" s="208"/>
+      <c r="L11" s="208"/>
+      <c r="M11" s="208"/>
+      <c r="N11" s="208"/>
+      <c r="O11" s="208"/>
+      <c r="P11" s="208"/>
+      <c r="Q11" s="208"/>
+      <c r="R11" s="209"/>
+      <c r="S11" s="205" t="s">
         <v>197</v>
       </c>
-      <c r="T11" s="292"/>
-      <c r="U11" s="292"/>
-      <c r="V11" s="292"/>
-      <c r="W11" s="293"/>
+      <c r="T11" s="205"/>
+      <c r="U11" s="205"/>
+      <c r="V11" s="205"/>
+      <c r="W11" s="206"/>
       <c r="X11" s="12"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
@@ -3520,42 +3524,42 @@
       <c r="AO11" s="12"/>
     </row>
     <row r="12" spans="1:41" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="174"/>
-      <c r="B12" s="244"/>
-      <c r="C12" s="245"/>
-      <c r="D12" s="175" t="s">
+      <c r="A12" s="212"/>
+      <c r="B12" s="217"/>
+      <c r="C12" s="192"/>
+      <c r="D12" s="194" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="175" t="s">
+      <c r="E12" s="194" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="175" t="s">
+      <c r="F12" s="194" t="s">
         <v>125</v>
       </c>
-      <c r="G12" s="175" t="s">
+      <c r="G12" s="194" t="s">
         <v>126</v>
       </c>
-      <c r="H12" s="246" t="s">
+      <c r="H12" s="197" t="s">
         <v>127</v>
       </c>
       <c r="I12" s="126"/>
-      <c r="J12" s="186" t="s">
+      <c r="J12" s="235" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="186"/>
-      <c r="L12" s="186"/>
-      <c r="M12" s="186"/>
-      <c r="N12" s="173" t="s">
+      <c r="K12" s="235"/>
+      <c r="L12" s="235"/>
+      <c r="M12" s="235"/>
+      <c r="N12" s="267" t="s">
         <v>170</v>
       </c>
-      <c r="O12" s="270"/>
-      <c r="P12" s="270"/>
-      <c r="Q12" s="270"/>
-      <c r="R12" s="270"/>
-      <c r="S12" s="270"/>
-      <c r="T12" s="270"/>
-      <c r="U12" s="270"/>
-      <c r="V12" s="270"/>
+      <c r="O12" s="268"/>
+      <c r="P12" s="268"/>
+      <c r="Q12" s="268"/>
+      <c r="R12" s="268"/>
+      <c r="S12" s="268"/>
+      <c r="T12" s="268"/>
+      <c r="U12" s="268"/>
+      <c r="V12" s="268"/>
       <c r="W12" s="6"/>
       <c r="X12" s="12"/>
       <c r="Z12" s="12"/>
@@ -3571,26 +3575,26 @@
       <c r="AJ12" s="12"/>
       <c r="AK12" s="12"/>
       <c r="AL12" s="12"/>
-      <c r="AM12" s="253"/>
+      <c r="AM12" s="174"/>
       <c r="AN12" s="12"/>
       <c r="AO12" s="12"/>
     </row>
     <row r="13" spans="1:41" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="174"/>
-      <c r="B13" s="244"/>
-      <c r="C13" s="245"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="177"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="247"/>
+      <c r="A13" s="212"/>
+      <c r="B13" s="217"/>
+      <c r="C13" s="192"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="196"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="220"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="185" t="s">
+      <c r="J13" s="236" t="s">
         <v>169</v>
       </c>
-      <c r="K13" s="185"/>
-      <c r="L13" s="185"/>
-      <c r="M13" s="185"/>
+      <c r="K13" s="236"/>
+      <c r="L13" s="236"/>
+      <c r="M13" s="236"/>
       <c r="N13" s="148" t="s">
         <v>168</v>
       </c>
@@ -3622,48 +3626,48 @@
       <c r="AO13" s="12"/>
     </row>
     <row r="14" spans="1:41" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="174" t="s">
+      <c r="A14" s="212" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="245" t="s">
+      <c r="B14" s="192" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="245" t="s">
+      <c r="C14" s="192" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="245" t="s">
+      <c r="D14" s="192" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="245" t="s">
+      <c r="E14" s="192" t="s">
         <v>131</v>
       </c>
-      <c r="F14" s="245" t="s">
+      <c r="F14" s="192" t="s">
         <v>191</v>
       </c>
-      <c r="G14" s="175" t="s">
+      <c r="G14" s="194" t="s">
         <v>150</v>
       </c>
-      <c r="H14" s="246" t="s">
+      <c r="H14" s="197" t="s">
         <v>132</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="J14" s="185" t="s">
+      <c r="J14" s="236" t="s">
         <v>114</v>
       </c>
-      <c r="K14" s="185"/>
-      <c r="L14" s="185"/>
-      <c r="M14" s="185"/>
-      <c r="N14" s="190" t="s">
+      <c r="K14" s="236"/>
+      <c r="L14" s="236"/>
+      <c r="M14" s="236"/>
+      <c r="N14" s="237" t="s">
         <v>144</v>
       </c>
-      <c r="O14" s="271"/>
-      <c r="P14" s="271"/>
-      <c r="Q14" s="271"/>
-      <c r="R14" s="271"/>
-      <c r="S14" s="271"/>
-      <c r="T14" s="271"/>
-      <c r="U14" s="271"/>
-      <c r="V14" s="271"/>
+      <c r="O14" s="238"/>
+      <c r="P14" s="238"/>
+      <c r="Q14" s="238"/>
+      <c r="R14" s="238"/>
+      <c r="S14" s="238"/>
+      <c r="T14" s="238"/>
+      <c r="U14" s="238"/>
+      <c r="V14" s="238"/>
       <c r="W14" s="6"/>
       <c r="X14" s="12"/>
       <c r="Z14" s="12"/>
@@ -3684,21 +3688,21 @@
       <c r="AO14" s="12"/>
     </row>
     <row r="15" spans="1:41" ht="24" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="174"/>
-      <c r="B15" s="245"/>
-      <c r="C15" s="245"/>
-      <c r="D15" s="245"/>
-      <c r="E15" s="245"/>
-      <c r="F15" s="245"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="248"/>
+      <c r="A15" s="212"/>
+      <c r="B15" s="192"/>
+      <c r="C15" s="192"/>
+      <c r="D15" s="192"/>
+      <c r="E15" s="192"/>
+      <c r="F15" s="192"/>
+      <c r="G15" s="195"/>
+      <c r="H15" s="198"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="185" t="s">
+      <c r="J15" s="236" t="s">
         <v>167</v>
       </c>
-      <c r="K15" s="185"/>
-      <c r="L15" s="185"/>
-      <c r="M15" s="185"/>
+      <c r="K15" s="236"/>
+      <c r="L15" s="236"/>
+      <c r="M15" s="236"/>
       <c r="N15" s="149" t="s">
         <v>166</v>
       </c>
@@ -3709,7 +3713,7 @@
       <c r="S15" s="130"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
-      <c r="V15" s="289"/>
+      <c r="V15" s="190"/>
       <c r="W15" s="6"/>
       <c r="X15" s="12"/>
       <c r="Z15" s="12"/>
@@ -3730,21 +3734,21 @@
       <c r="AO15" s="12"/>
     </row>
     <row r="16" spans="1:41" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="174"/>
-      <c r="B16" s="245"/>
-      <c r="C16" s="245"/>
-      <c r="D16" s="245"/>
-      <c r="E16" s="245"/>
-      <c r="F16" s="245"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="248"/>
+      <c r="A16" s="212"/>
+      <c r="B16" s="192"/>
+      <c r="C16" s="192"/>
+      <c r="D16" s="192"/>
+      <c r="E16" s="192"/>
+      <c r="F16" s="192"/>
+      <c r="G16" s="195"/>
+      <c r="H16" s="198"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="185" t="s">
+      <c r="J16" s="236" t="s">
         <v>165</v>
       </c>
-      <c r="K16" s="185"/>
-      <c r="L16" s="185"/>
-      <c r="M16" s="185"/>
+      <c r="K16" s="236"/>
+      <c r="L16" s="236"/>
+      <c r="M16" s="236"/>
       <c r="N16" s="149" t="s">
         <v>164</v>
       </c>
@@ -3774,67 +3778,67 @@
       <c r="AM16" s="12"/>
     </row>
     <row r="17" spans="1:39" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="174"/>
-      <c r="B17" s="245"/>
-      <c r="C17" s="245"/>
-      <c r="D17" s="245"/>
-      <c r="E17" s="245"/>
-      <c r="F17" s="245"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="248"/>
+      <c r="A17" s="212"/>
+      <c r="B17" s="192"/>
+      <c r="C17" s="192"/>
+      <c r="D17" s="192"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="198"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="185" t="s">
+      <c r="J17" s="236" t="s">
         <v>163</v>
       </c>
-      <c r="K17" s="185"/>
-      <c r="L17" s="185"/>
-      <c r="M17" s="185"/>
-      <c r="N17" s="190" t="s">
+      <c r="K17" s="236"/>
+      <c r="L17" s="236"/>
+      <c r="M17" s="236"/>
+      <c r="N17" s="237" t="s">
         <v>162</v>
       </c>
-      <c r="O17" s="271"/>
-      <c r="P17" s="271"/>
-      <c r="Q17" s="271"/>
-      <c r="R17" s="271"/>
-      <c r="S17" s="271"/>
-      <c r="T17" s="271"/>
-      <c r="U17" s="271"/>
-      <c r="V17" s="271"/>
+      <c r="O17" s="238"/>
+      <c r="P17" s="238"/>
+      <c r="Q17" s="238"/>
+      <c r="R17" s="238"/>
+      <c r="S17" s="238"/>
+      <c r="T17" s="238"/>
+      <c r="U17" s="238"/>
+      <c r="V17" s="238"/>
       <c r="W17" s="6"/>
       <c r="X17" s="12"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
-      <c r="AC17" s="261"/>
-      <c r="AD17" s="262"/>
-      <c r="AE17" s="263"/>
-      <c r="AF17" s="261"/>
-      <c r="AG17" s="261"/>
-      <c r="AH17" s="261"/>
-      <c r="AI17" s="261"/>
-      <c r="AJ17" s="261"/>
+      <c r="AC17" s="251"/>
+      <c r="AD17" s="252"/>
+      <c r="AE17" s="256"/>
+      <c r="AF17" s="251"/>
+      <c r="AG17" s="251"/>
+      <c r="AH17" s="251"/>
+      <c r="AI17" s="251"/>
+      <c r="AJ17" s="251"/>
       <c r="AK17" s="12"/>
       <c r="AL17" s="12"/>
       <c r="AM17" s="12"/>
     </row>
     <row r="18" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="174"/>
-      <c r="B18" s="245"/>
-      <c r="C18" s="245"/>
-      <c r="D18" s="245"/>
-      <c r="E18" s="245"/>
-      <c r="F18" s="245"/>
-      <c r="G18" s="175" t="s">
+      <c r="A18" s="212"/>
+      <c r="B18" s="192"/>
+      <c r="C18" s="192"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="194" t="s">
         <v>149</v>
       </c>
-      <c r="H18" s="248"/>
+      <c r="H18" s="198"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="186" t="s">
+      <c r="J18" s="235" t="s">
         <v>113</v>
       </c>
-      <c r="K18" s="186"/>
-      <c r="L18" s="186"/>
-      <c r="M18" s="186"/>
+      <c r="K18" s="235"/>
+      <c r="L18" s="235"/>
+      <c r="M18" s="235"/>
       <c r="N18" s="150">
         <v>500</v>
       </c>
@@ -3851,34 +3855,34 @@
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
-      <c r="AC18" s="261"/>
-      <c r="AD18" s="262"/>
-      <c r="AE18" s="263"/>
-      <c r="AF18" s="261"/>
-      <c r="AG18" s="264"/>
-      <c r="AH18" s="264"/>
-      <c r="AI18" s="262"/>
-      <c r="AJ18" s="263"/>
+      <c r="AC18" s="251"/>
+      <c r="AD18" s="252"/>
+      <c r="AE18" s="256"/>
+      <c r="AF18" s="251"/>
+      <c r="AG18" s="253"/>
+      <c r="AH18" s="253"/>
+      <c r="AI18" s="252"/>
+      <c r="AJ18" s="256"/>
       <c r="AK18" s="12"/>
       <c r="AL18" s="12"/>
       <c r="AM18" s="12"/>
     </row>
     <row r="19" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="174"/>
-      <c r="B19" s="245"/>
-      <c r="C19" s="245"/>
-      <c r="D19" s="245"/>
-      <c r="E19" s="245"/>
-      <c r="F19" s="245"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="248"/>
+      <c r="A19" s="212"/>
+      <c r="B19" s="192"/>
+      <c r="C19" s="192"/>
+      <c r="D19" s="192"/>
+      <c r="E19" s="192"/>
+      <c r="F19" s="192"/>
+      <c r="G19" s="195"/>
+      <c r="H19" s="198"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="186" t="s">
+      <c r="J19" s="235" t="s">
         <v>112</v>
       </c>
-      <c r="K19" s="186"/>
-      <c r="L19" s="186"/>
-      <c r="M19" s="186"/>
+      <c r="K19" s="235"/>
+      <c r="L19" s="235"/>
+      <c r="M19" s="235"/>
       <c r="N19" s="150" t="s">
         <v>161</v>
       </c>
@@ -3895,27 +3899,27 @@
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="12"/>
-      <c r="AC19" s="261"/>
-      <c r="AD19" s="262"/>
-      <c r="AE19" s="263"/>
-      <c r="AF19" s="261"/>
-      <c r="AG19" s="264"/>
+      <c r="AC19" s="251"/>
+      <c r="AD19" s="252"/>
+      <c r="AE19" s="256"/>
+      <c r="AF19" s="251"/>
+      <c r="AG19" s="253"/>
       <c r="AH19" s="265"/>
-      <c r="AI19" s="262"/>
-      <c r="AJ19" s="263"/>
+      <c r="AI19" s="252"/>
+      <c r="AJ19" s="256"/>
       <c r="AK19" s="12"/>
       <c r="AL19" s="12"/>
       <c r="AM19" s="12"/>
     </row>
     <row r="20" spans="1:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="249"/>
-      <c r="B20" s="250"/>
-      <c r="C20" s="250"/>
-      <c r="D20" s="250"/>
-      <c r="E20" s="250"/>
-      <c r="F20" s="250"/>
-      <c r="G20" s="251"/>
-      <c r="H20" s="252"/>
+      <c r="A20" s="213"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="193"/>
+      <c r="D20" s="193"/>
+      <c r="E20" s="193"/>
+      <c r="F20" s="193"/>
+      <c r="G20" s="200"/>
+      <c r="H20" s="199"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -3935,14 +3939,14 @@
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
-      <c r="AC20" s="266"/>
-      <c r="AD20" s="267"/>
-      <c r="AE20" s="267"/>
-      <c r="AF20" s="267"/>
-      <c r="AG20" s="268"/>
-      <c r="AH20" s="268"/>
-      <c r="AI20" s="266"/>
-      <c r="AJ20" s="269"/>
+      <c r="AC20" s="250"/>
+      <c r="AD20" s="254"/>
+      <c r="AE20" s="254"/>
+      <c r="AF20" s="254"/>
+      <c r="AG20" s="255"/>
+      <c r="AH20" s="255"/>
+      <c r="AI20" s="250"/>
+      <c r="AJ20" s="266"/>
       <c r="AK20" s="12"/>
       <c r="AL20" s="12"/>
       <c r="AM20" s="12"/>
@@ -3956,12 +3960,12 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="187" t="s">
+      <c r="I21" s="233" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="188"/>
-      <c r="K21" s="188"/>
-      <c r="L21" s="188"/>
+      <c r="J21" s="234"/>
+      <c r="K21" s="234"/>
+      <c r="L21" s="234"/>
       <c r="M21" s="5"/>
       <c r="N21" s="151"/>
       <c r="O21" s="5"/>
@@ -3971,24 +3975,24 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="146"/>
-      <c r="V21" s="303" t="s">
+      <c r="V21" s="230" t="s">
         <v>148</v>
       </c>
-      <c r="W21" s="300" t="s">
+      <c r="W21" s="241" t="s">
         <v>147</v>
       </c>
       <c r="X21" s="12"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
-      <c r="AC21" s="266"/>
-      <c r="AD21" s="267"/>
-      <c r="AE21" s="267"/>
-      <c r="AF21" s="267"/>
-      <c r="AG21" s="268"/>
-      <c r="AH21" s="268"/>
-      <c r="AI21" s="266"/>
-      <c r="AJ21" s="269"/>
+      <c r="AC21" s="250"/>
+      <c r="AD21" s="254"/>
+      <c r="AE21" s="254"/>
+      <c r="AF21" s="254"/>
+      <c r="AG21" s="255"/>
+      <c r="AH21" s="255"/>
+      <c r="AI21" s="250"/>
+      <c r="AJ21" s="266"/>
       <c r="AK21" s="12"/>
       <c r="AL21" s="12"/>
       <c r="AM21" s="12"/>
@@ -4003,21 +4007,21 @@
       <c r="G22" s="12"/>
       <c r="H22" s="25"/>
       <c r="I22" s="117"/>
-      <c r="J22" s="192" t="s">
+      <c r="J22" s="227" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="192"/>
-      <c r="L22" s="192"/>
+      <c r="K22" s="227"/>
+      <c r="L22" s="227"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="282" t="s">
+      <c r="N22" s="307" t="s">
         <v>194</v>
       </c>
-      <c r="O22" s="283"/>
-      <c r="P22" s="283"/>
-      <c r="Q22" s="170" t="s">
+      <c r="O22" s="308"/>
+      <c r="P22" s="308"/>
+      <c r="Q22" s="239" t="s">
         <v>15</v>
       </c>
-      <c r="R22" s="170"/>
+      <c r="R22" s="239"/>
       <c r="S22" s="166" t="s">
         <v>13</v>
       </c>
@@ -4026,22 +4030,22 @@
       </c>
       <c r="U22" s="144">
         <f ca="1">TODAY()</f>
-        <v>43553</v>
-      </c>
-      <c r="V22" s="304"/>
-      <c r="W22" s="301"/>
+        <v>43568</v>
+      </c>
+      <c r="V22" s="231"/>
+      <c r="W22" s="242"/>
       <c r="X22" s="12"/>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="12"/>
-      <c r="AC22" s="266"/>
-      <c r="AD22" s="267"/>
-      <c r="AE22" s="267"/>
-      <c r="AF22" s="267"/>
-      <c r="AG22" s="268"/>
-      <c r="AH22" s="268"/>
-      <c r="AI22" s="266"/>
-      <c r="AJ22" s="269"/>
+      <c r="AC22" s="250"/>
+      <c r="AD22" s="254"/>
+      <c r="AE22" s="254"/>
+      <c r="AF22" s="254"/>
+      <c r="AG22" s="255"/>
+      <c r="AH22" s="255"/>
+      <c r="AI22" s="250"/>
+      <c r="AJ22" s="266"/>
       <c r="AK22" s="12"/>
       <c r="AL22" s="12"/>
       <c r="AM22" s="12"/>
@@ -4070,20 +4074,20 @@
       <c r="S23" s="108"/>
       <c r="T23" s="108"/>
       <c r="U23" s="108"/>
-      <c r="V23" s="304"/>
-      <c r="W23" s="301"/>
+      <c r="V23" s="231"/>
+      <c r="W23" s="242"/>
       <c r="X23" s="12"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
-      <c r="AC23" s="266"/>
-      <c r="AD23" s="267"/>
-      <c r="AE23" s="267"/>
-      <c r="AF23" s="267"/>
-      <c r="AG23" s="268"/>
-      <c r="AH23" s="268"/>
-      <c r="AI23" s="266"/>
-      <c r="AJ23" s="269"/>
+      <c r="AC23" s="250"/>
+      <c r="AD23" s="254"/>
+      <c r="AE23" s="254"/>
+      <c r="AF23" s="254"/>
+      <c r="AG23" s="255"/>
+      <c r="AH23" s="255"/>
+      <c r="AI23" s="250"/>
+      <c r="AJ23" s="266"/>
       <c r="AK23" s="12"/>
       <c r="AL23" s="12"/>
       <c r="AM23" s="12"/>
@@ -4097,18 +4101,18 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="184" t="s">
+      <c r="I24" s="228" t="s">
         <v>134</v>
       </c>
-      <c r="J24" s="184"/>
-      <c r="K24" s="184"/>
-      <c r="L24" s="184"/>
-      <c r="M24" s="284"/>
-      <c r="N24" s="285" t="s">
+      <c r="J24" s="228"/>
+      <c r="K24" s="228"/>
+      <c r="L24" s="228"/>
+      <c r="M24" s="188"/>
+      <c r="N24" s="225" t="s">
         <v>14</v>
       </c>
-      <c r="O24" s="286"/>
-      <c r="P24" s="286"/>
+      <c r="O24" s="226"/>
+      <c r="P24" s="226"/>
       <c r="Q24" s="167" t="s">
         <v>15</v>
       </c>
@@ -4121,22 +4125,22 @@
       </c>
       <c r="U24" s="144">
         <f ca="1">TODAY()</f>
-        <v>43553</v>
-      </c>
-      <c r="V24" s="304"/>
-      <c r="W24" s="301"/>
+        <v>43568</v>
+      </c>
+      <c r="V24" s="231"/>
+      <c r="W24" s="242"/>
       <c r="X24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
-      <c r="AC24" s="266"/>
-      <c r="AD24" s="267"/>
-      <c r="AE24" s="267"/>
-      <c r="AF24" s="267"/>
-      <c r="AG24" s="268"/>
-      <c r="AH24" s="268"/>
-      <c r="AI24" s="266"/>
-      <c r="AJ24" s="269"/>
+      <c r="AC24" s="250"/>
+      <c r="AD24" s="254"/>
+      <c r="AE24" s="254"/>
+      <c r="AF24" s="254"/>
+      <c r="AG24" s="255"/>
+      <c r="AH24" s="255"/>
+      <c r="AI24" s="250"/>
+      <c r="AJ24" s="266"/>
       <c r="AK24" s="12"/>
       <c r="AL24" s="12"/>
       <c r="AM24" s="12"/>
@@ -4150,18 +4154,18 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="184" t="s">
+      <c r="I25" s="228" t="s">
         <v>135</v>
       </c>
-      <c r="J25" s="184"/>
-      <c r="K25" s="184"/>
-      <c r="L25" s="184"/>
-      <c r="M25" s="284"/>
-      <c r="N25" s="285" t="s">
+      <c r="J25" s="228"/>
+      <c r="K25" s="228"/>
+      <c r="L25" s="228"/>
+      <c r="M25" s="188"/>
+      <c r="N25" s="225" t="s">
         <v>14</v>
       </c>
-      <c r="O25" s="286"/>
-      <c r="P25" s="286"/>
+      <c r="O25" s="226"/>
+      <c r="P25" s="226"/>
       <c r="Q25" s="167" t="s">
         <v>15</v>
       </c>
@@ -4174,22 +4178,22 @@
       </c>
       <c r="U25" s="144">
         <f ca="1">TODAY()</f>
-        <v>43553</v>
-      </c>
-      <c r="V25" s="304"/>
-      <c r="W25" s="301"/>
+        <v>43568</v>
+      </c>
+      <c r="V25" s="231"/>
+      <c r="W25" s="242"/>
       <c r="X25" s="12"/>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="12"/>
-      <c r="AC25" s="266"/>
-      <c r="AD25" s="267"/>
-      <c r="AE25" s="267"/>
-      <c r="AF25" s="267"/>
-      <c r="AG25" s="268"/>
-      <c r="AH25" s="268"/>
-      <c r="AI25" s="266"/>
-      <c r="AJ25" s="269"/>
+      <c r="AC25" s="250"/>
+      <c r="AD25" s="254"/>
+      <c r="AE25" s="254"/>
+      <c r="AF25" s="254"/>
+      <c r="AG25" s="255"/>
+      <c r="AH25" s="255"/>
+      <c r="AI25" s="250"/>
+      <c r="AJ25" s="266"/>
       <c r="AK25" s="12"/>
       <c r="AL25" s="12"/>
       <c r="AM25" s="12"/>
@@ -4203,18 +4207,18 @@
       <c r="F26" s="108"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="184" t="s">
+      <c r="I26" s="228" t="s">
         <v>136</v>
       </c>
-      <c r="J26" s="184"/>
-      <c r="K26" s="184"/>
-      <c r="L26" s="184"/>
-      <c r="M26" s="284"/>
-      <c r="N26" s="285" t="s">
+      <c r="J26" s="228"/>
+      <c r="K26" s="228"/>
+      <c r="L26" s="228"/>
+      <c r="M26" s="188"/>
+      <c r="N26" s="225" t="s">
         <v>14</v>
       </c>
-      <c r="O26" s="286"/>
-      <c r="P26" s="286"/>
+      <c r="O26" s="226"/>
+      <c r="P26" s="226"/>
       <c r="Q26" s="167" t="s">
         <v>15</v>
       </c>
@@ -4227,22 +4231,22 @@
       </c>
       <c r="U26" s="144">
         <f ca="1">TODAY()</f>
-        <v>43553</v>
-      </c>
-      <c r="V26" s="305"/>
-      <c r="W26" s="301"/>
+        <v>43568</v>
+      </c>
+      <c r="V26" s="232"/>
+      <c r="W26" s="242"/>
       <c r="X26" s="12"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
-      <c r="AC26" s="266"/>
-      <c r="AD26" s="267"/>
-      <c r="AE26" s="267"/>
-      <c r="AF26" s="267"/>
-      <c r="AG26" s="268"/>
-      <c r="AH26" s="268"/>
-      <c r="AI26" s="266"/>
-      <c r="AJ26" s="269"/>
+      <c r="AC26" s="250"/>
+      <c r="AD26" s="254"/>
+      <c r="AE26" s="254"/>
+      <c r="AF26" s="254"/>
+      <c r="AG26" s="255"/>
+      <c r="AH26" s="255"/>
+      <c r="AI26" s="250"/>
+      <c r="AJ26" s="266"/>
       <c r="AK26" s="12"/>
       <c r="AL26" s="12"/>
       <c r="AM26" s="12"/>
@@ -4256,21 +4260,21 @@
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
-      <c r="I27" s="193"/>
-      <c r="J27" s="193"/>
-      <c r="K27" s="193"/>
-      <c r="L27" s="193"/>
-      <c r="M27" s="287"/>
-      <c r="N27" s="287"/>
-      <c r="O27" s="287"/>
-      <c r="P27" s="287"/>
-      <c r="Q27" s="172"/>
-      <c r="R27" s="172"/>
+      <c r="I27" s="229"/>
+      <c r="J27" s="229"/>
+      <c r="K27" s="229"/>
+      <c r="L27" s="229"/>
+      <c r="M27" s="244"/>
+      <c r="N27" s="244"/>
+      <c r="O27" s="244"/>
+      <c r="P27" s="244"/>
+      <c r="Q27" s="246"/>
+      <c r="R27" s="246"/>
       <c r="S27" s="167"/>
       <c r="T27" s="167"/>
       <c r="U27" s="167"/>
       <c r="V27" s="167"/>
-      <c r="W27" s="301"/>
+      <c r="W27" s="242"/>
       <c r="X27" s="12"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
@@ -4297,21 +4301,21 @@
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="108"/>
-      <c r="J28" s="192" t="s">
+      <c r="J28" s="227" t="s">
         <v>133</v>
       </c>
-      <c r="K28" s="192"/>
-      <c r="L28" s="192"/>
-      <c r="M28" s="284"/>
-      <c r="N28" s="285" t="s">
+      <c r="K28" s="227"/>
+      <c r="L28" s="227"/>
+      <c r="M28" s="188"/>
+      <c r="N28" s="225" t="s">
         <v>14</v>
       </c>
-      <c r="O28" s="286"/>
-      <c r="P28" s="286"/>
-      <c r="Q28" s="172" t="s">
+      <c r="O28" s="226"/>
+      <c r="P28" s="226"/>
+      <c r="Q28" s="246" t="s">
         <v>15</v>
       </c>
-      <c r="R28" s="172"/>
+      <c r="R28" s="246"/>
       <c r="S28" s="167" t="s">
         <v>13</v>
       </c>
@@ -4320,10 +4324,10 @@
       </c>
       <c r="U28" s="144">
         <f ca="1">TODAY()</f>
-        <v>43553</v>
+        <v>43568</v>
       </c>
       <c r="V28" s="167"/>
-      <c r="W28" s="301"/>
+      <c r="W28" s="242"/>
       <c r="X28" s="12"/>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
@@ -4343,10 +4347,10 @@
     <row r="29" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="168"/>
-      <c r="D29" s="168"/>
-      <c r="E29" s="168"/>
-      <c r="F29" s="168"/>
+      <c r="C29" s="264"/>
+      <c r="D29" s="264"/>
+      <c r="E29" s="264"/>
+      <c r="F29" s="264"/>
       <c r="G29" s="113"/>
       <c r="H29" s="25"/>
       <c r="I29" s="12"/>
@@ -4363,7 +4367,7 @@
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
       <c r="V29" s="116"/>
-      <c r="W29" s="302"/>
+      <c r="W29" s="243"/>
       <c r="X29" s="12"/>
     </row>
     <row r="30" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4395,10 +4399,10 @@
     <row r="31" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168"/>
+      <c r="C31" s="264"/>
+      <c r="D31" s="264"/>
+      <c r="E31" s="264"/>
+      <c r="F31" s="264"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -4424,25 +4428,25 @@
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="171" t="s">
+      <c r="F32" s="257" t="s">
         <v>137</v>
       </c>
-      <c r="G32" s="171"/>
-      <c r="H32" s="171"/>
-      <c r="I32" s="171"/>
-      <c r="J32" s="171"/>
-      <c r="K32" s="171"/>
-      <c r="L32" s="171"/>
+      <c r="G32" s="257"/>
+      <c r="H32" s="257"/>
+      <c r="I32" s="257"/>
+      <c r="J32" s="257"/>
+      <c r="K32" s="257"/>
+      <c r="L32" s="257"/>
       <c r="M32" s="167" t="s">
         <v>186</v>
       </c>
       <c r="N32" s="152"/>
       <c r="O32" s="108"/>
       <c r="P32" s="108"/>
-      <c r="Q32" s="170" t="s">
+      <c r="Q32" s="239" t="s">
         <v>15</v>
       </c>
-      <c r="R32" s="170"/>
+      <c r="R32" s="239"/>
       <c r="S32" s="166" t="s">
         <v>13</v>
       </c>
@@ -4451,12 +4455,12 @@
       </c>
       <c r="U32" s="144">
         <f ca="1">TODAY()</f>
-        <v>43553</v>
-      </c>
-      <c r="V32" s="294" t="s">
+        <v>43568</v>
+      </c>
+      <c r="V32" s="258" t="s">
         <v>145</v>
       </c>
-      <c r="W32" s="295"/>
+      <c r="W32" s="259"/>
       <c r="X32" s="12"/>
     </row>
     <row r="33" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4465,15 +4469,15 @@
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="171" t="s">
+      <c r="F33" s="257" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="171"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="171"/>
-      <c r="J33" s="171"/>
-      <c r="K33" s="171"/>
-      <c r="L33" s="171"/>
+      <c r="G33" s="257"/>
+      <c r="H33" s="257"/>
+      <c r="I33" s="257"/>
+      <c r="J33" s="257"/>
+      <c r="K33" s="257"/>
+      <c r="L33" s="257"/>
       <c r="M33" s="167" t="s">
         <v>117</v>
       </c>
@@ -4482,10 +4486,10 @@
       </c>
       <c r="O33" s="108"/>
       <c r="P33" s="108"/>
-      <c r="Q33" s="170" t="s">
+      <c r="Q33" s="239" t="s">
         <v>15</v>
       </c>
-      <c r="R33" s="170"/>
+      <c r="R33" s="239"/>
       <c r="S33" s="166" t="s">
         <v>13</v>
       </c>
@@ -4494,10 +4498,10 @@
       </c>
       <c r="U33" s="144">
         <f t="shared" ref="U33:U37" ca="1" si="0">TODAY()</f>
-        <v>43553</v>
-      </c>
-      <c r="V33" s="296"/>
-      <c r="W33" s="297"/>
+        <v>43568</v>
+      </c>
+      <c r="V33" s="260"/>
+      <c r="W33" s="261"/>
       <c r="X33" s="12"/>
     </row>
     <row r="34" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4506,15 +4510,15 @@
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="171" t="s">
+      <c r="F34" s="257" t="s">
         <v>138</v>
       </c>
-      <c r="G34" s="171"/>
-      <c r="H34" s="171"/>
-      <c r="I34" s="171"/>
-      <c r="J34" s="171"/>
-      <c r="K34" s="171"/>
-      <c r="L34" s="171"/>
+      <c r="G34" s="257"/>
+      <c r="H34" s="257"/>
+      <c r="I34" s="257"/>
+      <c r="J34" s="257"/>
+      <c r="K34" s="257"/>
+      <c r="L34" s="257"/>
       <c r="M34" s="167" t="s">
         <v>139</v>
       </c>
@@ -4523,10 +4527,10 @@
         <v>140</v>
       </c>
       <c r="P34" s="108"/>
-      <c r="Q34" s="170" t="s">
+      <c r="Q34" s="239" t="s">
         <v>15</v>
       </c>
-      <c r="R34" s="170"/>
+      <c r="R34" s="239"/>
       <c r="S34" s="166" t="s">
         <v>13</v>
       </c>
@@ -4535,10 +4539,10 @@
       </c>
       <c r="U34" s="144">
         <f t="shared" ca="1" si="0"/>
-        <v>43553</v>
-      </c>
-      <c r="V34" s="296"/>
-      <c r="W34" s="297"/>
+        <v>43568</v>
+      </c>
+      <c r="V34" s="260"/>
+      <c r="W34" s="261"/>
       <c r="X34" s="12"/>
     </row>
     <row r="35" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4554,16 +4558,16 @@
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
-      <c r="M35" s="181" t="s">
+      <c r="M35" s="240" t="s">
         <v>188</v>
       </c>
-      <c r="N35" s="181"/>
-      <c r="O35" s="181"/>
-      <c r="P35" s="181"/>
-      <c r="Q35" s="170" t="s">
+      <c r="N35" s="240"/>
+      <c r="O35" s="240"/>
+      <c r="P35" s="240"/>
+      <c r="Q35" s="239" t="s">
         <v>15</v>
       </c>
-      <c r="R35" s="170"/>
+      <c r="R35" s="239"/>
       <c r="S35" s="166" t="s">
         <v>13</v>
       </c>
@@ -4572,10 +4576,10 @@
       </c>
       <c r="U35" s="144">
         <f t="shared" ca="1" si="0"/>
-        <v>43553</v>
-      </c>
-      <c r="V35" s="296"/>
-      <c r="W35" s="297"/>
+        <v>43568</v>
+      </c>
+      <c r="V35" s="260"/>
+      <c r="W35" s="261"/>
       <c r="X35" s="12"/>
     </row>
     <row r="36" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -4591,46 +4595,46 @@
       <c r="J36" s="115"/>
       <c r="K36" s="115"/>
       <c r="L36" s="115"/>
-      <c r="M36" s="178"/>
-      <c r="N36" s="178"/>
+      <c r="M36" s="247"/>
+      <c r="N36" s="247"/>
       <c r="O36" s="108"/>
       <c r="P36" s="108"/>
-      <c r="Q36" s="170"/>
-      <c r="R36" s="170"/>
+      <c r="Q36" s="239"/>
+      <c r="R36" s="239"/>
       <c r="S36" s="166"/>
       <c r="T36" s="166"/>
       <c r="U36" s="144"/>
-      <c r="V36" s="296"/>
-      <c r="W36" s="297"/>
+      <c r="V36" s="260"/>
+      <c r="W36" s="261"/>
       <c r="X36" s="12"/>
     </row>
     <row r="37" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="179" t="s">
+      <c r="D37" s="248" t="s">
         <v>141</v>
       </c>
-      <c r="E37" s="179"/>
-      <c r="F37" s="179"/>
-      <c r="G37" s="179"/>
-      <c r="H37" s="179"/>
-      <c r="I37" s="179"/>
-      <c r="J37" s="179"/>
-      <c r="K37" s="179"/>
-      <c r="L37" s="180" t="s">
+      <c r="E37" s="248"/>
+      <c r="F37" s="248"/>
+      <c r="G37" s="248"/>
+      <c r="H37" s="248"/>
+      <c r="I37" s="248"/>
+      <c r="J37" s="248"/>
+      <c r="K37" s="248"/>
+      <c r="L37" s="249" t="s">
         <v>142</v>
       </c>
-      <c r="M37" s="180"/>
-      <c r="N37" s="180"/>
+      <c r="M37" s="249"/>
+      <c r="N37" s="249"/>
       <c r="O37" s="108" t="s">
         <v>140</v>
       </c>
       <c r="P37" s="108"/>
-      <c r="Q37" s="170" t="s">
+      <c r="Q37" s="239" t="s">
         <v>15</v>
       </c>
-      <c r="R37" s="170"/>
+      <c r="R37" s="239"/>
       <c r="S37" s="166" t="s">
         <v>13</v>
       </c>
@@ -4639,10 +4643,10 @@
       </c>
       <c r="U37" s="144">
         <f t="shared" ca="1" si="0"/>
-        <v>43553</v>
-      </c>
-      <c r="V37" s="298"/>
-      <c r="W37" s="299"/>
+        <v>43568</v>
+      </c>
+      <c r="V37" s="262"/>
+      <c r="W37" s="263"/>
       <c r="X37" s="12"/>
     </row>
     <row r="38" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4751,6 +4755,89 @@
     </row>
   </sheetData>
   <mergeCells count="107">
+    <mergeCell ref="AI24:AI26"/>
+    <mergeCell ref="F33:L33"/>
+    <mergeCell ref="V32:W37"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="AH18:AH19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="AI18:AI19"/>
+    <mergeCell ref="AJ20:AJ26"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="F32:L32"/>
+    <mergeCell ref="F34:L34"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="N12:V12"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="AC20:AC26"/>
+    <mergeCell ref="AC17:AC19"/>
+    <mergeCell ref="AD17:AD19"/>
+    <mergeCell ref="AD20:AD26"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="W21:W29"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="AA3:AF3"/>
+    <mergeCell ref="AH3:AM3"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="AF20:AF26"/>
+    <mergeCell ref="AG20:AG26"/>
+    <mergeCell ref="AF17:AJ17"/>
+    <mergeCell ref="AE17:AE19"/>
+    <mergeCell ref="AE20:AE26"/>
+    <mergeCell ref="AH20:AH26"/>
+    <mergeCell ref="AI20:AI23"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="V21:V26"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N17:V17"/>
+    <mergeCell ref="N14:V14"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="N22:P22"/>
     <mergeCell ref="F14:F20"/>
     <mergeCell ref="G14:G17"/>
     <mergeCell ref="H14:H20"/>
@@ -4775,89 +4862,6 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="V21:V26"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N17:V17"/>
-    <mergeCell ref="N14:V14"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="W21:W29"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="AA3:AF3"/>
-    <mergeCell ref="AH3:AM3"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="AC20:AC26"/>
-    <mergeCell ref="AC17:AC19"/>
-    <mergeCell ref="AD17:AD19"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AG18:AG19"/>
-    <mergeCell ref="AD20:AD26"/>
-    <mergeCell ref="AF20:AF26"/>
-    <mergeCell ref="AG20:AG26"/>
-    <mergeCell ref="AF17:AJ17"/>
-    <mergeCell ref="AE17:AE19"/>
-    <mergeCell ref="AE20:AE26"/>
-    <mergeCell ref="AH20:AH26"/>
-    <mergeCell ref="AI20:AI23"/>
-    <mergeCell ref="AI24:AI26"/>
-    <mergeCell ref="F33:L33"/>
-    <mergeCell ref="V32:W37"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="AH18:AH19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="AI18:AI19"/>
-    <mergeCell ref="AJ20:AJ26"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="F32:L32"/>
-    <mergeCell ref="F34:L34"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="N12:V12"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0"/>
@@ -4900,21 +4904,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="55.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="269" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="196"/>
-      <c r="L1" s="196"/>
-      <c r="M1" s="197"/>
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="270"/>
+      <c r="L1" s="270"/>
+      <c r="M1" s="271"/>
     </row>
     <row r="2" spans="1:13" ht="184.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
@@ -5056,11 +5060,11 @@
       <c r="F1" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="198" t="s">
+      <c r="G1" s="272" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="199"/>
-      <c r="I1" s="200"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="274"/>
       <c r="J1" s="98" t="s">
         <v>104</v>
       </c>
@@ -5683,12 +5687,12 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="201" t="s">
+      <c r="G2" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
+      <c r="H2" s="287"/>
+      <c r="I2" s="287"/>
+      <c r="J2" s="287"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -5701,28 +5705,28 @@
       <c r="T2" s="6"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="209" t="s">
+      <c r="A3" s="289" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="210"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="210"/>
-      <c r="J3" s="210"/>
-      <c r="K3" s="189" t="s">
+      <c r="B3" s="290"/>
+      <c r="C3" s="290"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="290"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290"/>
+      <c r="H3" s="290"/>
+      <c r="I3" s="290"/>
+      <c r="J3" s="290"/>
+      <c r="K3" s="291" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
-      <c r="O3" s="170" t="s">
+      <c r="L3" s="291"/>
+      <c r="M3" s="291"/>
+      <c r="N3" s="291"/>
+      <c r="O3" s="239" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="170"/>
+      <c r="P3" s="239"/>
       <c r="Q3" s="124" t="s">
         <v>13</v>
       </c>
@@ -5731,7 +5735,7 @@
       </c>
       <c r="S3" s="145">
         <f ca="1">TODAY()</f>
-        <v>43553</v>
+        <v>43568</v>
       </c>
       <c r="T3" s="6"/>
     </row>
@@ -5780,11 +5784,11 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="211" t="s">
+      <c r="A6" s="292" t="s">
         <v>184</v>
       </c>
-      <c r="B6" s="212"/>
-      <c r="C6" s="212"/>
+      <c r="B6" s="293"/>
+      <c r="C6" s="293"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -5804,11 +5808,11 @@
       <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="211" t="s">
+      <c r="A7" s="292" t="s">
         <v>183</v>
       </c>
-      <c r="B7" s="212"/>
-      <c r="C7" s="212"/>
+      <c r="B7" s="293"/>
+      <c r="C7" s="293"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -5828,11 +5832,11 @@
       <c r="T7" s="6"/>
     </row>
     <row r="8" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="211" t="s">
+      <c r="A8" s="292" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="212"/>
-      <c r="C8" s="212"/>
+      <c r="B8" s="293"/>
+      <c r="C8" s="293"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -5922,20 +5926,20 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="216" t="s">
+      <c r="E12" s="275" t="s">
         <v>181</v>
       </c>
-      <c r="F12" s="217"/>
-      <c r="G12" s="217"/>
-      <c r="H12" s="217"/>
-      <c r="I12" s="217"/>
-      <c r="J12" s="217"/>
-      <c r="K12" s="217"/>
-      <c r="L12" s="217"/>
-      <c r="M12" s="217"/>
-      <c r="N12" s="217"/>
-      <c r="O12" s="217"/>
-      <c r="P12" s="217"/>
+      <c r="F12" s="276"/>
+      <c r="G12" s="276"/>
+      <c r="H12" s="276"/>
+      <c r="I12" s="276"/>
+      <c r="J12" s="276"/>
+      <c r="K12" s="276"/>
+      <c r="L12" s="276"/>
+      <c r="M12" s="276"/>
+      <c r="N12" s="276"/>
+      <c r="O12" s="276"/>
+      <c r="P12" s="276"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -5946,18 +5950,18 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="217"/>
-      <c r="F13" s="217"/>
-      <c r="G13" s="217"/>
-      <c r="H13" s="217"/>
-      <c r="I13" s="217"/>
-      <c r="J13" s="217"/>
-      <c r="K13" s="217"/>
-      <c r="L13" s="217"/>
-      <c r="M13" s="217"/>
-      <c r="N13" s="217"/>
-      <c r="O13" s="217"/>
-      <c r="P13" s="217"/>
+      <c r="E13" s="276"/>
+      <c r="F13" s="276"/>
+      <c r="G13" s="276"/>
+      <c r="H13" s="276"/>
+      <c r="I13" s="276"/>
+      <c r="J13" s="276"/>
+      <c r="K13" s="276"/>
+      <c r="L13" s="276"/>
+      <c r="M13" s="276"/>
+      <c r="N13" s="276"/>
+      <c r="O13" s="276"/>
+      <c r="P13" s="276"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
@@ -5968,18 +5972,18 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="217"/>
-      <c r="F14" s="217"/>
-      <c r="G14" s="217"/>
-      <c r="H14" s="217"/>
-      <c r="I14" s="217"/>
-      <c r="J14" s="217"/>
-      <c r="K14" s="217"/>
-      <c r="L14" s="217"/>
-      <c r="M14" s="217"/>
-      <c r="N14" s="217"/>
-      <c r="O14" s="217"/>
-      <c r="P14" s="217"/>
+      <c r="E14" s="276"/>
+      <c r="F14" s="276"/>
+      <c r="G14" s="276"/>
+      <c r="H14" s="276"/>
+      <c r="I14" s="276"/>
+      <c r="J14" s="276"/>
+      <c r="K14" s="276"/>
+      <c r="L14" s="276"/>
+      <c r="M14" s="276"/>
+      <c r="N14" s="276"/>
+      <c r="O14" s="276"/>
+      <c r="P14" s="276"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
@@ -6013,23 +6017,23 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="185" t="s">
+      <c r="F16" s="236" t="s">
         <v>180</v>
       </c>
-      <c r="G16" s="208"/>
-      <c r="H16" s="208"/>
-      <c r="I16" s="208"/>
-      <c r="J16" s="215" t="str">
+      <c r="G16" s="277"/>
+      <c r="H16" s="277"/>
+      <c r="I16" s="277"/>
+      <c r="J16" s="278" t="str">
         <f>'лист титульный КД'!N12</f>
         <v>Иванов И.И</v>
       </c>
-      <c r="K16" s="215"/>
-      <c r="L16" s="215"/>
-      <c r="M16" s="215"/>
-      <c r="N16" s="215"/>
-      <c r="O16" s="215"/>
-      <c r="P16" s="215"/>
-      <c r="Q16" s="215"/>
+      <c r="K16" s="278"/>
+      <c r="L16" s="278"/>
+      <c r="M16" s="278"/>
+      <c r="N16" s="278"/>
+      <c r="O16" s="278"/>
+      <c r="P16" s="278"/>
+      <c r="Q16" s="278"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="6"/>
@@ -6040,23 +6044,23 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="185" t="s">
+      <c r="F17" s="236" t="s">
         <v>179</v>
       </c>
-      <c r="G17" s="208"/>
-      <c r="H17" s="208"/>
-      <c r="I17" s="208"/>
-      <c r="J17" s="206" t="str">
+      <c r="G17" s="277"/>
+      <c r="H17" s="277"/>
+      <c r="I17" s="277"/>
+      <c r="J17" s="279" t="str">
         <f>'лист титульный КД'!N13</f>
         <v>Петров П.П.</v>
       </c>
-      <c r="K17" s="206"/>
-      <c r="L17" s="206"/>
-      <c r="M17" s="206"/>
-      <c r="N17" s="206"/>
-      <c r="O17" s="206"/>
-      <c r="P17" s="206"/>
-      <c r="Q17" s="206"/>
+      <c r="K17" s="279"/>
+      <c r="L17" s="279"/>
+      <c r="M17" s="279"/>
+      <c r="N17" s="279"/>
+      <c r="O17" s="279"/>
+      <c r="P17" s="279"/>
+      <c r="Q17" s="279"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="6"/>
@@ -6067,25 +6071,25 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="185" t="s">
+      <c r="F18" s="236" t="s">
         <v>178</v>
       </c>
-      <c r="G18" s="208"/>
-      <c r="H18" s="208"/>
-      <c r="I18" s="208"/>
-      <c r="J18" s="215" t="str">
+      <c r="G18" s="277"/>
+      <c r="H18" s="277"/>
+      <c r="I18" s="277"/>
+      <c r="J18" s="278" t="str">
         <f>'лист титульный КД'!N14</f>
         <v>г. Москва, ул. Нарвская, д.2</v>
       </c>
-      <c r="K18" s="191"/>
-      <c r="L18" s="191"/>
-      <c r="M18" s="191"/>
-      <c r="N18" s="191"/>
-      <c r="O18" s="191"/>
-      <c r="P18" s="191"/>
-      <c r="Q18" s="191"/>
-      <c r="R18" s="191"/>
-      <c r="S18" s="191"/>
+      <c r="K18" s="280"/>
+      <c r="L18" s="280"/>
+      <c r="M18" s="280"/>
+      <c r="N18" s="280"/>
+      <c r="O18" s="280"/>
+      <c r="P18" s="280"/>
+      <c r="Q18" s="280"/>
+      <c r="R18" s="280"/>
+      <c r="S18" s="280"/>
       <c r="T18" s="6"/>
     </row>
     <row r="19" spans="1:20" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -6094,23 +6098,23 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="185" t="s">
+      <c r="F19" s="236" t="s">
         <v>177</v>
       </c>
-      <c r="G19" s="208"/>
-      <c r="H19" s="208"/>
-      <c r="I19" s="208"/>
-      <c r="J19" s="206" t="str">
+      <c r="G19" s="277"/>
+      <c r="H19" s="277"/>
+      <c r="I19" s="277"/>
+      <c r="J19" s="279" t="str">
         <f>'лист титульный КД'!N15</f>
         <v>восьмой</v>
       </c>
-      <c r="K19" s="206"/>
-      <c r="L19" s="206"/>
-      <c r="M19" s="206"/>
-      <c r="N19" s="206"/>
-      <c r="O19" s="206"/>
-      <c r="P19" s="206"/>
-      <c r="Q19" s="206"/>
+      <c r="K19" s="279"/>
+      <c r="L19" s="279"/>
+      <c r="M19" s="279"/>
+      <c r="N19" s="279"/>
+      <c r="O19" s="279"/>
+      <c r="P19" s="279"/>
+      <c r="Q19" s="279"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="6"/>
@@ -6121,23 +6125,23 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="185" t="s">
+      <c r="F20" s="236" t="s">
         <v>176</v>
       </c>
-      <c r="G20" s="208"/>
-      <c r="H20" s="208"/>
-      <c r="I20" s="208"/>
-      <c r="J20" s="206" t="str">
+      <c r="G20" s="277"/>
+      <c r="H20" s="277"/>
+      <c r="I20" s="277"/>
+      <c r="J20" s="279" t="str">
         <f>'лист титульный КД'!N16</f>
         <v>кухня</v>
       </c>
-      <c r="K20" s="206"/>
-      <c r="L20" s="206"/>
-      <c r="M20" s="206"/>
-      <c r="N20" s="206"/>
-      <c r="O20" s="206"/>
-      <c r="P20" s="206"/>
-      <c r="Q20" s="206"/>
+      <c r="K20" s="279"/>
+      <c r="L20" s="279"/>
+      <c r="M20" s="279"/>
+      <c r="N20" s="279"/>
+      <c r="O20" s="279"/>
+      <c r="P20" s="279"/>
+      <c r="Q20" s="279"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="6"/>
@@ -6148,23 +6152,23 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="185" t="s">
+      <c r="F21" s="236" t="s">
         <v>175</v>
       </c>
-      <c r="G21" s="208"/>
-      <c r="H21" s="208"/>
-      <c r="I21" s="208"/>
-      <c r="J21" s="215" t="str">
+      <c r="G21" s="277"/>
+      <c r="H21" s="277"/>
+      <c r="I21" s="277"/>
+      <c r="J21" s="278" t="str">
         <f>'лист титульный КД'!N17</f>
         <v>гарнитур кухонный, дверной блок</v>
       </c>
-      <c r="K21" s="215"/>
-      <c r="L21" s="215"/>
-      <c r="M21" s="215"/>
-      <c r="N21" s="215"/>
-      <c r="O21" s="215"/>
-      <c r="P21" s="215"/>
-      <c r="Q21" s="215"/>
+      <c r="K21" s="278"/>
+      <c r="L21" s="278"/>
+      <c r="M21" s="278"/>
+      <c r="N21" s="278"/>
+      <c r="O21" s="278"/>
+      <c r="P21" s="278"/>
+      <c r="Q21" s="278"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="6"/>
@@ -6175,23 +6179,23 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="185" t="s">
+      <c r="F22" s="236" t="s">
         <v>174</v>
       </c>
-      <c r="G22" s="208"/>
-      <c r="H22" s="208"/>
-      <c r="I22" s="208"/>
-      <c r="J22" s="206">
+      <c r="G22" s="277"/>
+      <c r="H22" s="277"/>
+      <c r="I22" s="277"/>
+      <c r="J22" s="279">
         <f>'лист титульный КД'!N18</f>
         <v>500</v>
       </c>
-      <c r="K22" s="206"/>
-      <c r="L22" s="206"/>
-      <c r="M22" s="206"/>
-      <c r="N22" s="206"/>
-      <c r="O22" s="206"/>
-      <c r="P22" s="206"/>
-      <c r="Q22" s="206"/>
+      <c r="K22" s="279"/>
+      <c r="L22" s="279"/>
+      <c r="M22" s="279"/>
+      <c r="N22" s="279"/>
+      <c r="O22" s="279"/>
+      <c r="P22" s="279"/>
+      <c r="Q22" s="279"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="6"/>
@@ -6202,23 +6206,23 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="185" t="s">
+      <c r="F23" s="236" t="s">
         <v>173</v>
       </c>
-      <c r="G23" s="208"/>
-      <c r="H23" s="208"/>
-      <c r="I23" s="208"/>
-      <c r="J23" s="206" t="str">
+      <c r="G23" s="277"/>
+      <c r="H23" s="277"/>
+      <c r="I23" s="277"/>
+      <c r="J23" s="279" t="str">
         <f>'лист титульный КД'!N19</f>
         <v>1-15,16</v>
       </c>
-      <c r="K23" s="206"/>
-      <c r="L23" s="206"/>
-      <c r="M23" s="206"/>
-      <c r="N23" s="206"/>
-      <c r="O23" s="206"/>
-      <c r="P23" s="206"/>
-      <c r="Q23" s="206"/>
+      <c r="K23" s="279"/>
+      <c r="L23" s="279"/>
+      <c r="M23" s="279"/>
+      <c r="N23" s="279"/>
+      <c r="O23" s="279"/>
+      <c r="P23" s="279"/>
+      <c r="Q23" s="279"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="6"/>
@@ -6318,12 +6322,12 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="207" t="s">
+      <c r="G28" s="281" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="204"/>
-      <c r="I28" s="204"/>
-      <c r="J28" s="204"/>
+      <c r="H28" s="282"/>
+      <c r="I28" s="282"/>
+      <c r="J28" s="282"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -6336,29 +6340,29 @@
       <c r="T28" s="6"/>
     </row>
     <row r="29" spans="1:20" s="135" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="203" t="s">
+      <c r="A29" s="288" t="s">
         <v>185</v>
       </c>
-      <c r="B29" s="204"/>
-      <c r="C29" s="204"/>
-      <c r="D29" s="204"/>
-      <c r="E29" s="204"/>
-      <c r="F29" s="204"/>
-      <c r="G29" s="204"/>
-      <c r="H29" s="204"/>
-      <c r="I29" s="204"/>
-      <c r="J29" s="204"/>
-      <c r="K29" s="205" t="str">
+      <c r="B29" s="282"/>
+      <c r="C29" s="282"/>
+      <c r="D29" s="282"/>
+      <c r="E29" s="282"/>
+      <c r="F29" s="282"/>
+      <c r="G29" s="282"/>
+      <c r="H29" s="282"/>
+      <c r="I29" s="282"/>
+      <c r="J29" s="282"/>
+      <c r="K29" s="285" t="str">
         <f>IF(builder=0,"",builder)</f>
         <v>_________________</v>
       </c>
-      <c r="L29" s="205"/>
-      <c r="M29" s="205"/>
-      <c r="N29" s="205"/>
-      <c r="O29" s="205" t="s">
+      <c r="L29" s="285"/>
+      <c r="M29" s="285"/>
+      <c r="N29" s="285"/>
+      <c r="O29" s="285" t="s">
         <v>15</v>
       </c>
-      <c r="P29" s="205"/>
+      <c r="P29" s="285"/>
       <c r="Q29" s="137" t="s">
         <v>13</v>
       </c>
@@ -6367,7 +6371,7 @@
       </c>
       <c r="S29" s="145">
         <f ca="1">TODAY()</f>
-        <v>43553</v>
+        <v>43568</v>
       </c>
       <c r="T29" s="136"/>
     </row>
@@ -6400,12 +6404,12 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="207" t="s">
+      <c r="G31" s="281" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="204"/>
-      <c r="I31" s="204"/>
-      <c r="J31" s="204"/>
+      <c r="H31" s="282"/>
+      <c r="I31" s="282"/>
+      <c r="J31" s="282"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -6418,28 +6422,28 @@
       <c r="T31" s="6"/>
     </row>
     <row r="32" spans="1:20" s="135" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="213" t="s">
+      <c r="A32" s="283" t="s">
         <v>172</v>
       </c>
-      <c r="B32" s="204"/>
-      <c r="C32" s="204"/>
-      <c r="D32" s="204"/>
-      <c r="E32" s="204"/>
-      <c r="F32" s="204"/>
-      <c r="G32" s="204"/>
-      <c r="H32" s="204"/>
-      <c r="I32" s="204"/>
-      <c r="J32" s="204"/>
-      <c r="K32" s="214" t="s">
+      <c r="B32" s="282"/>
+      <c r="C32" s="282"/>
+      <c r="D32" s="282"/>
+      <c r="E32" s="282"/>
+      <c r="F32" s="282"/>
+      <c r="G32" s="282"/>
+      <c r="H32" s="282"/>
+      <c r="I32" s="282"/>
+      <c r="J32" s="282"/>
+      <c r="K32" s="284" t="s">
         <v>14</v>
       </c>
-      <c r="L32" s="214"/>
-      <c r="M32" s="214"/>
-      <c r="N32" s="214"/>
-      <c r="O32" s="205" t="s">
+      <c r="L32" s="284"/>
+      <c r="M32" s="284"/>
+      <c r="N32" s="284"/>
+      <c r="O32" s="285" t="s">
         <v>15</v>
       </c>
-      <c r="P32" s="205"/>
+      <c r="P32" s="285"/>
       <c r="Q32" s="137" t="s">
         <v>13</v>
       </c>
@@ -6448,33 +6452,33 @@
       </c>
       <c r="S32" s="145">
         <f ca="1">TODAY()</f>
-        <v>43553</v>
+        <v>43568</v>
       </c>
       <c r="T32" s="136"/>
     </row>
     <row r="33" spans="1:20" s="135" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="213" t="s">
+      <c r="A33" s="283" t="s">
         <v>171</v>
       </c>
-      <c r="B33" s="204"/>
-      <c r="C33" s="204"/>
-      <c r="D33" s="204"/>
-      <c r="E33" s="204"/>
-      <c r="F33" s="204"/>
-      <c r="G33" s="204"/>
-      <c r="H33" s="204"/>
-      <c r="I33" s="204"/>
-      <c r="J33" s="204"/>
-      <c r="K33" s="214" t="s">
+      <c r="B33" s="282"/>
+      <c r="C33" s="282"/>
+      <c r="D33" s="282"/>
+      <c r="E33" s="282"/>
+      <c r="F33" s="282"/>
+      <c r="G33" s="282"/>
+      <c r="H33" s="282"/>
+      <c r="I33" s="282"/>
+      <c r="J33" s="282"/>
+      <c r="K33" s="284" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="214"/>
-      <c r="M33" s="214"/>
-      <c r="N33" s="214"/>
-      <c r="O33" s="205" t="s">
+      <c r="L33" s="284"/>
+      <c r="M33" s="284"/>
+      <c r="N33" s="284"/>
+      <c r="O33" s="285" t="s">
         <v>15</v>
       </c>
-      <c r="P33" s="205"/>
+      <c r="P33" s="285"/>
       <c r="Q33" s="137" t="s">
         <v>13</v>
       </c>
@@ -6483,7 +6487,7 @@
       </c>
       <c r="S33" s="145">
         <f ca="1">TODAY()</f>
-        <v>43553</v>
+        <v>43568</v>
       </c>
       <c r="T33" s="136"/>
     </row>
@@ -6533,25 +6537,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E12:P14"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="J18:S18"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="O32:P32"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="A29:J29"/>
@@ -6568,6 +6553,25 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="E12:P14"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="J18:S18"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -6598,19 +6602,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="294" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
-      <c r="K1" s="220"/>
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
+      <c r="F1" s="295"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="295"/>
+      <c r="I1" s="295"/>
+      <c r="J1" s="295"/>
+      <c r="K1" s="296"/>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="124.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="44" t="s">
@@ -7005,48 +7009,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="223" t="s">
+      <c r="A1" s="299" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="224"/>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="224"/>
-      <c r="K1" s="224"/>
-      <c r="L1" s="224"/>
-      <c r="M1" s="224"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="224"/>
-      <c r="P1" s="224"/>
-      <c r="Q1" s="224"/>
-      <c r="R1" s="224"/>
-      <c r="S1" s="225"/>
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="300"/>
+      <c r="H1" s="300"/>
+      <c r="I1" s="300"/>
+      <c r="J1" s="300"/>
+      <c r="K1" s="300"/>
+      <c r="L1" s="300"/>
+      <c r="M1" s="300"/>
+      <c r="N1" s="300"/>
+      <c r="O1" s="300"/>
+      <c r="P1" s="300"/>
+      <c r="Q1" s="300"/>
+      <c r="R1" s="300"/>
+      <c r="S1" s="301"/>
     </row>
     <row r="2" spans="1:19" s="77" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="226" t="s">
+      <c r="A2" s="302" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="226" t="s">
+      <c r="B2" s="302" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="226" t="s">
+      <c r="C2" s="302" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="226" t="s">
+      <c r="D2" s="302" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="226" t="s">
+      <c r="E2" s="302" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="226" t="s">
+      <c r="F2" s="302" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="226" t="s">
+      <c r="G2" s="302" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="78" t="s">
@@ -7055,11 +7059,11 @@
       <c r="I2" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="229" t="s">
+      <c r="J2" s="305" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="230"/>
-      <c r="L2" s="230"/>
+      <c r="K2" s="306"/>
+      <c r="L2" s="306"/>
       <c r="M2" s="78" t="s">
         <v>86</v>
       </c>
@@ -7083,13 +7087,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="67" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="227"/>
-      <c r="B3" s="227"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="227"/>
+      <c r="A3" s="303"/>
+      <c r="B3" s="303"/>
+      <c r="C3" s="303"/>
+      <c r="D3" s="303"/>
+      <c r="E3" s="303"/>
+      <c r="F3" s="303"/>
+      <c r="G3" s="303"/>
       <c r="H3" s="73" t="s">
         <v>79</v>
       </c>
@@ -7128,24 +7132,24 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="67" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="227"/>
-      <c r="B4" s="227"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="227"/>
+      <c r="A4" s="303"/>
+      <c r="B4" s="303"/>
+      <c r="C4" s="303"/>
+      <c r="D4" s="303"/>
+      <c r="E4" s="303"/>
+      <c r="F4" s="303"/>
+      <c r="G4" s="303"/>
       <c r="H4" s="73" t="s">
         <v>71</v>
       </c>
       <c r="I4" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="221" t="s">
+      <c r="J4" s="297" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="222"/>
-      <c r="L4" s="222"/>
+      <c r="K4" s="298"/>
+      <c r="L4" s="298"/>
       <c r="M4" s="74" t="s">
         <v>68</v>
       </c>
@@ -7169,24 +7173,24 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="67" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="228"/>
-      <c r="B5" s="228"/>
-      <c r="C5" s="228"/>
-      <c r="D5" s="228"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="228"/>
-      <c r="G5" s="228"/>
+      <c r="A5" s="304"/>
+      <c r="B5" s="304"/>
+      <c r="C5" s="304"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="304"/>
+      <c r="F5" s="304"/>
+      <c r="G5" s="304"/>
       <c r="H5" s="73" t="s">
         <v>61</v>
       </c>
       <c r="I5" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="221" t="s">
+      <c r="J5" s="297" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="222"/>
-      <c r="L5" s="222"/>
+      <c r="K5" s="298"/>
+      <c r="L5" s="298"/>
       <c r="M5" s="72" t="s">
         <v>58</v>
       </c>
@@ -7963,21 +7967,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="294" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
-      <c r="K1" s="219"/>
-      <c r="L1" s="219"/>
-      <c r="M1" s="220"/>
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
+      <c r="F1" s="295"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="295"/>
+      <c r="I1" s="295"/>
+      <c r="J1" s="295"/>
+      <c r="K1" s="295"/>
+      <c r="L1" s="295"/>
+      <c r="M1" s="296"/>
     </row>
     <row r="2" spans="1:13" s="36" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="87" t="s">

--- a/dist/files/xls/shablon-kd.xlsx
+++ b/dist/files/xls/shablon-kd.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sshishenko\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8190" tabRatio="778"/>
   </bookViews>
@@ -38,7 +43,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'спецификация конструкторская'!$A$1:$M$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'ТИТУЛЬНЫЙ ЛИСТ ВПИ'!$A$1:$T$35</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="205">
   <si>
     <t>№заказа</t>
   </si>
@@ -693,11 +698,32 @@
       <t xml:space="preserve"> в части размеров, МП, глубины сборки элементов изделий</t>
     </r>
   </si>
+  <si>
+    <t>ОБРАЗЕЦ_№</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>СЫРЬЕ</t>
+  </si>
+  <si>
+    <t>___________________________________</t>
+  </si>
+  <si>
+    <t>толщина шпона</t>
+  </si>
+  <si>
+    <t>ПОЛИРОВКА</t>
+  </si>
+  <si>
+    <t>(есть/нет)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy"/>
   </numFmts>
@@ -1143,7 +1169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -1648,17 +1674,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1771,6 +1786,28 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1782,7 +1819,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="309">
+  <cellXfs count="321">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1825,7 +1862,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2055,11 +2091,7 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2069,7 +2101,6 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2129,7 +2160,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2233,27 +2264,179 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2284,7 +2467,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2296,169 +2479,23 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2478,6 +2515,54 @@
     <xf numFmtId="0" fontId="35" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2485,55 +2570,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2577,12 +2614,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2902,7 +2973,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2912,7 +2983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="N22" sqref="N22:P22"/>
     </sheetView>
   </sheetViews>
@@ -2930,7 +3001,7 @@
     <col min="11" max="11" width="9.5" style="3" customWidth="1"/>
     <col min="12" max="12" width="9.25" style="3" customWidth="1"/>
     <col min="13" max="13" width="8" style="3" customWidth="1"/>
-    <col min="14" max="14" width="23.875" style="154" customWidth="1"/>
+    <col min="14" max="14" width="23.875" style="148" customWidth="1"/>
     <col min="15" max="15" width="1.75" style="3" customWidth="1"/>
     <col min="16" max="16" width="10.625" style="3" customWidth="1"/>
     <col min="17" max="17" width="9.625" style="3" customWidth="1"/>
@@ -2952,24 +3023,24 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
-      <c r="I1" s="168" t="s">
+      <c r="I1" s="162" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="122"/>
-      <c r="V1" s="122"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="120"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="116"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="114"/>
       <c r="Z1" s="12"/>
       <c r="AA1" s="12"/>
       <c r="AB1" s="12"/>
@@ -2996,41 +3067,41 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="221" t="s">
+      <c r="I2" s="234" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="222"/>
-      <c r="K2" s="222"/>
-      <c r="L2" s="222"/>
-      <c r="M2" s="222"/>
-      <c r="N2" s="223"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="201" t="s">
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="236"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="247" t="s">
         <v>159</v>
       </c>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="202"/>
-      <c r="T2" s="202"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="203"/>
-      <c r="W2" s="204"/>
+      <c r="Q2" s="248"/>
+      <c r="R2" s="248"/>
+      <c r="S2" s="248"/>
+      <c r="T2" s="248"/>
+      <c r="U2" s="248"/>
+      <c r="V2" s="249"/>
+      <c r="W2" s="250"/>
       <c r="X2" s="12"/>
       <c r="Z2" s="12"/>
       <c r="AA2" s="12"/>
-      <c r="AB2" s="174"/>
-      <c r="AC2" s="174"/>
-      <c r="AD2" s="174"/>
-      <c r="AE2" s="174"/>
-      <c r="AF2" s="175"/>
-      <c r="AG2" s="174"/>
-      <c r="AH2" s="174"/>
-      <c r="AI2" s="174"/>
-      <c r="AJ2" s="174"/>
-      <c r="AK2" s="174"/>
-      <c r="AL2" s="174"/>
-      <c r="AM2" s="174"/>
-      <c r="AN2" s="174"/>
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="168"/>
+      <c r="AD2" s="168"/>
+      <c r="AE2" s="168"/>
+      <c r="AF2" s="169"/>
+      <c r="AG2" s="168"/>
+      <c r="AH2" s="168"/>
+      <c r="AI2" s="168"/>
+      <c r="AJ2" s="168"/>
+      <c r="AK2" s="168"/>
+      <c r="AL2" s="168"/>
+      <c r="AM2" s="168"/>
+      <c r="AN2" s="168"/>
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="1:41" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3041,55 +3112,55 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="100" t="s">
+      <c r="H3" s="25"/>
+      <c r="I3" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="101" t="s">
+      <c r="J3" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="102"/>
-      <c r="L3" s="224" t="s">
+      <c r="K3" s="101"/>
+      <c r="L3" s="216" t="s">
         <v>192</v>
       </c>
-      <c r="M3" s="224"/>
-      <c r="N3" s="184" t="s">
+      <c r="M3" s="216"/>
+      <c r="N3" s="178" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="99"/>
-      <c r="P3" s="100" t="s">
+      <c r="O3" s="98"/>
+      <c r="P3" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="101" t="s">
+      <c r="Q3" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="102"/>
-      <c r="S3" s="224" t="s">
+      <c r="R3" s="101"/>
+      <c r="S3" s="216" t="s">
         <v>192</v>
       </c>
-      <c r="T3" s="224"/>
-      <c r="U3" s="103" t="s">
+      <c r="T3" s="216"/>
+      <c r="U3" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="118"/>
-      <c r="W3" s="27"/>
+      <c r="V3" s="112"/>
+      <c r="W3" s="26"/>
       <c r="X3" s="12"/>
       <c r="Z3" s="12"/>
-      <c r="AA3" s="245"/>
-      <c r="AB3" s="245"/>
-      <c r="AC3" s="245"/>
-      <c r="AD3" s="245"/>
-      <c r="AE3" s="245"/>
-      <c r="AF3" s="245"/>
-      <c r="AG3" s="99"/>
-      <c r="AH3" s="224"/>
-      <c r="AI3" s="224"/>
-      <c r="AJ3" s="224"/>
-      <c r="AK3" s="224"/>
-      <c r="AL3" s="224"/>
-      <c r="AM3" s="224"/>
-      <c r="AN3" s="164"/>
-      <c r="AO3" s="26"/>
+      <c r="AA3" s="215"/>
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="215"/>
+      <c r="AD3" s="215"/>
+      <c r="AE3" s="215"/>
+      <c r="AF3" s="215"/>
+      <c r="AG3" s="98"/>
+      <c r="AH3" s="216"/>
+      <c r="AI3" s="216"/>
+      <c r="AJ3" s="216"/>
+      <c r="AK3" s="216"/>
+      <c r="AL3" s="216"/>
+      <c r="AM3" s="216"/>
+      <c r="AN3" s="158"/>
+      <c r="AO3" s="25"/>
     </row>
     <row r="4" spans="1:41" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10"/>
@@ -3100,54 +3171,54 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="100" t="s">
+      <c r="I4" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="103" t="s">
+      <c r="J4" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="99"/>
-      <c r="L4" s="214" t="s">
+      <c r="K4" s="98"/>
+      <c r="L4" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="214"/>
-      <c r="N4" s="185" t="s">
+      <c r="M4" s="195"/>
+      <c r="N4" s="179" t="s">
         <v>158</v>
       </c>
-      <c r="O4" s="99"/>
-      <c r="P4" s="100" t="s">
+      <c r="O4" s="98"/>
+      <c r="P4" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="189" t="s">
+      <c r="Q4" s="183" t="s">
         <v>195</v>
       </c>
-      <c r="R4" s="99"/>
-      <c r="S4" s="214" t="s">
+      <c r="R4" s="98"/>
+      <c r="S4" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="214"/>
-      <c r="U4" s="182" t="s">
+      <c r="T4" s="195"/>
+      <c r="U4" s="176" t="s">
         <v>158</v>
       </c>
-      <c r="V4" s="170"/>
-      <c r="W4" s="171"/>
+      <c r="V4" s="164"/>
+      <c r="W4" s="165"/>
       <c r="X4" s="12"/>
       <c r="Z4" s="12"/>
-      <c r="AA4" s="176"/>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="102"/>
-      <c r="AD4" s="224"/>
-      <c r="AE4" s="224"/>
-      <c r="AF4" s="177"/>
-      <c r="AG4" s="99"/>
-      <c r="AH4" s="176"/>
-      <c r="AI4" s="101"/>
-      <c r="AJ4" s="102"/>
-      <c r="AK4" s="224"/>
-      <c r="AL4" s="224"/>
-      <c r="AM4" s="118"/>
-      <c r="AN4" s="118"/>
-      <c r="AO4" s="26"/>
+      <c r="AA4" s="170"/>
+      <c r="AB4" s="100"/>
+      <c r="AC4" s="101"/>
+      <c r="AD4" s="216"/>
+      <c r="AE4" s="216"/>
+      <c r="AF4" s="171"/>
+      <c r="AG4" s="98"/>
+      <c r="AH4" s="170"/>
+      <c r="AI4" s="100"/>
+      <c r="AJ4" s="101"/>
+      <c r="AK4" s="216"/>
+      <c r="AL4" s="216"/>
+      <c r="AM4" s="112"/>
+      <c r="AN4" s="112"/>
+      <c r="AO4" s="25"/>
     </row>
     <row r="5" spans="1:41" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
@@ -3158,54 +3229,54 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="100" t="s">
+      <c r="I5" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="103" t="s">
+      <c r="J5" s="102" t="s">
         <v>157</v>
       </c>
-      <c r="K5" s="99"/>
-      <c r="L5" s="214" t="s">
+      <c r="K5" s="98"/>
+      <c r="L5" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="214"/>
-      <c r="N5" s="184" t="s">
+      <c r="M5" s="195"/>
+      <c r="N5" s="178" t="s">
         <v>156</v>
       </c>
-      <c r="O5" s="99"/>
-      <c r="P5" s="100" t="s">
+      <c r="O5" s="98"/>
+      <c r="P5" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="103" t="s">
+      <c r="Q5" s="102" t="s">
         <v>157</v>
       </c>
-      <c r="R5" s="99"/>
-      <c r="S5" s="214" t="s">
+      <c r="R5" s="98"/>
+      <c r="S5" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="T5" s="214"/>
-      <c r="U5" s="103" t="s">
+      <c r="T5" s="195"/>
+      <c r="U5" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="V5" s="118"/>
+      <c r="V5" s="112"/>
       <c r="W5" s="11"/>
       <c r="X5" s="12"/>
       <c r="Z5" s="12"/>
-      <c r="AA5" s="176"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="99"/>
-      <c r="AD5" s="214"/>
-      <c r="AE5" s="214"/>
-      <c r="AF5" s="178"/>
-      <c r="AG5" s="99"/>
-      <c r="AH5" s="176"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="99"/>
-      <c r="AK5" s="214"/>
-      <c r="AL5" s="214"/>
-      <c r="AM5" s="119"/>
-      <c r="AN5" s="119"/>
-      <c r="AO5" s="139"/>
+      <c r="AA5" s="170"/>
+      <c r="AB5" s="102"/>
+      <c r="AC5" s="98"/>
+      <c r="AD5" s="195"/>
+      <c r="AE5" s="195"/>
+      <c r="AF5" s="172"/>
+      <c r="AG5" s="98"/>
+      <c r="AH5" s="170"/>
+      <c r="AI5" s="102"/>
+      <c r="AJ5" s="98"/>
+      <c r="AK5" s="195"/>
+      <c r="AL5" s="195"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="133"/>
     </row>
     <row r="6" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
@@ -3221,40 +3292,40 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
-      <c r="N6" s="186"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="100" t="s">
+      <c r="N6" s="180"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="103" t="s">
+      <c r="Q6" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="R6" s="99"/>
-      <c r="S6" s="214" t="s">
+      <c r="R6" s="98"/>
+      <c r="S6" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="T6" s="214"/>
-      <c r="U6" s="103" t="s">
+      <c r="T6" s="195"/>
+      <c r="U6" s="102" t="s">
         <v>154</v>
       </c>
-      <c r="V6" s="103"/>
-      <c r="W6" s="28"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="27"/>
       <c r="X6" s="12"/>
       <c r="Z6" s="12"/>
-      <c r="AA6" s="176"/>
-      <c r="AB6" s="103"/>
-      <c r="AC6" s="99"/>
-      <c r="AD6" s="214"/>
-      <c r="AE6" s="214"/>
-      <c r="AF6" s="177"/>
-      <c r="AG6" s="99"/>
-      <c r="AH6" s="176"/>
-      <c r="AI6" s="103"/>
-      <c r="AJ6" s="99"/>
-      <c r="AK6" s="214"/>
-      <c r="AL6" s="214"/>
-      <c r="AM6" s="118"/>
-      <c r="AN6" s="118"/>
+      <c r="AA6" s="170"/>
+      <c r="AB6" s="102"/>
+      <c r="AC6" s="98"/>
+      <c r="AD6" s="195"/>
+      <c r="AE6" s="195"/>
+      <c r="AF6" s="171"/>
+      <c r="AG6" s="98"/>
+      <c r="AH6" s="170"/>
+      <c r="AI6" s="102"/>
+      <c r="AJ6" s="98"/>
+      <c r="AK6" s="195"/>
+      <c r="AL6" s="195"/>
+      <c r="AM6" s="112"/>
+      <c r="AN6" s="112"/>
       <c r="AO6" s="12"/>
     </row>
     <row r="7" spans="1:41" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3266,37 +3337,37 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="100" t="s">
+      <c r="I7" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="103" t="s">
+      <c r="J7" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="99"/>
-      <c r="L7" s="214" t="s">
+      <c r="K7" s="98"/>
+      <c r="L7" s="195" t="s">
         <v>193</v>
       </c>
-      <c r="M7" s="214"/>
-      <c r="N7" s="184" t="s">
+      <c r="M7" s="195"/>
+      <c r="N7" s="178" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="99"/>
-      <c r="P7" s="100" t="s">
+      <c r="O7" s="98"/>
+      <c r="P7" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" s="103" t="s">
+      <c r="Q7" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="R7" s="99"/>
-      <c r="S7" s="214" t="s">
+      <c r="R7" s="98"/>
+      <c r="S7" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="T7" s="214"/>
-      <c r="U7" s="103" t="s">
+      <c r="T7" s="195"/>
+      <c r="U7" s="102" t="s">
         <v>190</v>
       </c>
-      <c r="V7" s="118"/>
-      <c r="W7" s="29"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="28"/>
       <c r="X7" s="12"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
@@ -3304,16 +3375,16 @@
       <c r="AC7" s="12"/>
       <c r="AD7" s="12"/>
       <c r="AE7" s="12"/>
-      <c r="AF7" s="147"/>
-      <c r="AG7" s="99"/>
-      <c r="AH7" s="176"/>
-      <c r="AI7" s="103"/>
-      <c r="AJ7" s="99"/>
-      <c r="AK7" s="214"/>
-      <c r="AL7" s="214"/>
-      <c r="AM7" s="103"/>
-      <c r="AN7" s="103"/>
-      <c r="AO7" s="25"/>
+      <c r="AF7" s="141"/>
+      <c r="AG7" s="98"/>
+      <c r="AH7" s="170"/>
+      <c r="AI7" s="102"/>
+      <c r="AJ7" s="98"/>
+      <c r="AK7" s="195"/>
+      <c r="AL7" s="195"/>
+      <c r="AM7" s="102"/>
+      <c r="AN7" s="102"/>
+      <c r="AO7" s="24"/>
     </row>
     <row r="8" spans="1:41" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
@@ -3324,52 +3395,52 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="100" t="s">
+      <c r="I8" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="103" t="s">
+      <c r="J8" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="K8" s="99"/>
-      <c r="L8" s="163" t="s">
+      <c r="K8" s="98"/>
+      <c r="L8" s="157" t="s">
         <v>118</v>
       </c>
-      <c r="M8" s="163"/>
-      <c r="N8" s="187"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="100" t="s">
+      <c r="M8" s="157"/>
+      <c r="N8" s="181"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="Q8" s="103" t="s">
+      <c r="Q8" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="R8" s="99"/>
-      <c r="S8" s="214" t="s">
+      <c r="R8" s="98"/>
+      <c r="S8" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="T8" s="214"/>
-      <c r="U8" s="103" t="s">
+      <c r="T8" s="195"/>
+      <c r="U8" s="102" t="s">
         <v>196</v>
       </c>
-      <c r="V8" s="118"/>
-      <c r="W8" s="29"/>
+      <c r="V8" s="112"/>
+      <c r="W8" s="28"/>
       <c r="X8" s="12"/>
       <c r="Z8" s="12"/>
-      <c r="AA8" s="176"/>
-      <c r="AB8" s="103"/>
-      <c r="AC8" s="99"/>
-      <c r="AD8" s="214"/>
-      <c r="AE8" s="214"/>
-      <c r="AF8" s="177"/>
-      <c r="AG8" s="99"/>
-      <c r="AH8" s="176"/>
-      <c r="AI8" s="103"/>
-      <c r="AJ8" s="99"/>
-      <c r="AK8" s="214"/>
-      <c r="AL8" s="214"/>
-      <c r="AM8" s="118"/>
-      <c r="AN8" s="118"/>
-      <c r="AO8" s="113"/>
+      <c r="AA8" s="170"/>
+      <c r="AB8" s="102"/>
+      <c r="AC8" s="98"/>
+      <c r="AD8" s="195"/>
+      <c r="AE8" s="195"/>
+      <c r="AF8" s="171"/>
+      <c r="AG8" s="98"/>
+      <c r="AH8" s="170"/>
+      <c r="AI8" s="102"/>
+      <c r="AJ8" s="98"/>
+      <c r="AK8" s="195"/>
+      <c r="AL8" s="195"/>
+      <c r="AM8" s="112"/>
+      <c r="AN8" s="112"/>
+      <c r="AO8" s="108"/>
     </row>
     <row r="9" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
@@ -3380,48 +3451,48 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="173" t="s">
+      <c r="I9" s="166"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="167" t="s">
         <v>153</v>
       </c>
-      <c r="M9" s="210" t="s">
+      <c r="M9" s="256" t="s">
         <v>152</v>
       </c>
-      <c r="N9" s="211"/>
+      <c r="N9" s="257"/>
       <c r="O9" s="12"/>
-      <c r="P9" s="100" t="s">
+      <c r="P9" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="Q9" s="103" t="s">
+      <c r="Q9" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="R9" s="99"/>
-      <c r="S9" s="163" t="s">
+      <c r="R9" s="98"/>
+      <c r="S9" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="T9" s="163"/>
-      <c r="U9" s="183"/>
-      <c r="V9" s="163"/>
-      <c r="W9" s="29"/>
+      <c r="T9" s="157"/>
+      <c r="U9" s="177"/>
+      <c r="V9" s="157"/>
+      <c r="W9" s="28"/>
       <c r="X9" s="12"/>
       <c r="Z9" s="12"/>
-      <c r="AA9" s="176"/>
-      <c r="AB9" s="103"/>
-      <c r="AC9" s="99"/>
-      <c r="AD9" s="163"/>
-      <c r="AE9" s="163"/>
-      <c r="AF9" s="179"/>
-      <c r="AG9" s="99"/>
-      <c r="AH9" s="176"/>
-      <c r="AI9" s="103"/>
-      <c r="AJ9" s="99"/>
-      <c r="AK9" s="163"/>
-      <c r="AL9" s="163"/>
-      <c r="AM9" s="163"/>
-      <c r="AN9" s="163"/>
-      <c r="AO9" s="113"/>
+      <c r="AA9" s="170"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="98"/>
+      <c r="AD9" s="157"/>
+      <c r="AE9" s="157"/>
+      <c r="AF9" s="173"/>
+      <c r="AG9" s="98"/>
+      <c r="AH9" s="170"/>
+      <c r="AI9" s="102"/>
+      <c r="AJ9" s="98"/>
+      <c r="AK9" s="157"/>
+      <c r="AL9" s="157"/>
+      <c r="AM9" s="157"/>
+      <c r="AN9" s="157"/>
+      <c r="AO9" s="108"/>
     </row>
     <row r="10" spans="1:41" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
@@ -3432,79 +3503,79 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="134"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="15"/>
       <c r="O10" s="12"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="181" t="s">
+      <c r="P10" s="103"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="T10" s="181"/>
-      <c r="U10" s="191" t="s">
+      <c r="T10" s="175"/>
+      <c r="U10" s="185" t="s">
         <v>37</v>
       </c>
-      <c r="V10" s="191"/>
+      <c r="V10" s="185"/>
       <c r="W10" s="11"/>
       <c r="X10" s="12"/>
       <c r="Z10" s="12"/>
-      <c r="AA10" s="99"/>
-      <c r="AB10" s="99"/>
-      <c r="AC10" s="99"/>
-      <c r="AD10" s="173"/>
-      <c r="AE10" s="173"/>
-      <c r="AF10" s="180"/>
+      <c r="AA10" s="98"/>
+      <c r="AB10" s="98"/>
+      <c r="AC10" s="98"/>
+      <c r="AD10" s="167"/>
+      <c r="AE10" s="167"/>
+      <c r="AF10" s="174"/>
       <c r="AG10" s="12"/>
-      <c r="AH10" s="99"/>
-      <c r="AI10" s="99"/>
-      <c r="AJ10" s="99"/>
-      <c r="AK10" s="181"/>
-      <c r="AL10" s="181"/>
-      <c r="AM10" s="181"/>
-      <c r="AN10" s="181"/>
+      <c r="AH10" s="98"/>
+      <c r="AI10" s="98"/>
+      <c r="AJ10" s="98"/>
+      <c r="AK10" s="175"/>
+      <c r="AL10" s="175"/>
+      <c r="AM10" s="175"/>
+      <c r="AN10" s="175"/>
       <c r="AO10" s="12"/>
     </row>
     <row r="11" spans="1:41" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="215" t="s">
+      <c r="A11" s="260" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="216" t="s">
+      <c r="B11" s="261" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="218" t="s">
+      <c r="C11" s="263" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="218" t="s">
+      <c r="D11" s="263" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="218"/>
-      <c r="F11" s="218"/>
-      <c r="G11" s="218"/>
-      <c r="H11" s="219"/>
-      <c r="I11" s="207" t="s">
+      <c r="E11" s="263"/>
+      <c r="F11" s="263"/>
+      <c r="G11" s="263"/>
+      <c r="H11" s="264"/>
+      <c r="I11" s="253" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="208"/>
-      <c r="K11" s="208"/>
-      <c r="L11" s="208"/>
-      <c r="M11" s="208"/>
-      <c r="N11" s="208"/>
-      <c r="O11" s="208"/>
-      <c r="P11" s="208"/>
-      <c r="Q11" s="208"/>
-      <c r="R11" s="209"/>
-      <c r="S11" s="205" t="s">
+      <c r="J11" s="254"/>
+      <c r="K11" s="254"/>
+      <c r="L11" s="254"/>
+      <c r="M11" s="254"/>
+      <c r="N11" s="254"/>
+      <c r="O11" s="254"/>
+      <c r="P11" s="254"/>
+      <c r="Q11" s="254"/>
+      <c r="R11" s="255"/>
+      <c r="S11" s="251" t="s">
         <v>197</v>
       </c>
-      <c r="T11" s="205"/>
-      <c r="U11" s="205"/>
-      <c r="V11" s="205"/>
-      <c r="W11" s="206"/>
+      <c r="T11" s="251"/>
+      <c r="U11" s="251"/>
+      <c r="V11" s="251"/>
+      <c r="W11" s="252"/>
       <c r="X11" s="12"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
@@ -3524,42 +3595,42 @@
       <c r="AO11" s="12"/>
     </row>
     <row r="12" spans="1:41" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="212"/>
-      <c r="B12" s="217"/>
-      <c r="C12" s="192"/>
-      <c r="D12" s="194" t="s">
+      <c r="A12" s="258"/>
+      <c r="B12" s="262"/>
+      <c r="C12" s="241"/>
+      <c r="D12" s="230" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="194" t="s">
+      <c r="E12" s="230" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="194" t="s">
+      <c r="F12" s="230" t="s">
         <v>125</v>
       </c>
-      <c r="G12" s="194" t="s">
+      <c r="G12" s="230" t="s">
         <v>126</v>
       </c>
-      <c r="H12" s="197" t="s">
+      <c r="H12" s="232" t="s">
         <v>127</v>
       </c>
-      <c r="I12" s="126"/>
-      <c r="J12" s="235" t="s">
+      <c r="I12" s="120"/>
+      <c r="J12" s="218" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="235"/>
-      <c r="L12" s="235"/>
-      <c r="M12" s="235"/>
-      <c r="N12" s="267" t="s">
+      <c r="K12" s="218"/>
+      <c r="L12" s="218"/>
+      <c r="M12" s="218"/>
+      <c r="N12" s="203" t="s">
         <v>170</v>
       </c>
-      <c r="O12" s="268"/>
-      <c r="P12" s="268"/>
-      <c r="Q12" s="268"/>
-      <c r="R12" s="268"/>
-      <c r="S12" s="268"/>
-      <c r="T12" s="268"/>
-      <c r="U12" s="268"/>
-      <c r="V12" s="268"/>
+      <c r="O12" s="204"/>
+      <c r="P12" s="204"/>
+      <c r="Q12" s="204"/>
+      <c r="R12" s="204"/>
+      <c r="S12" s="204"/>
+      <c r="T12" s="204"/>
+      <c r="U12" s="204"/>
+      <c r="V12" s="204"/>
       <c r="W12" s="6"/>
       <c r="X12" s="12"/>
       <c r="Z12" s="12"/>
@@ -3575,34 +3646,34 @@
       <c r="AJ12" s="12"/>
       <c r="AK12" s="12"/>
       <c r="AL12" s="12"/>
-      <c r="AM12" s="174"/>
+      <c r="AM12" s="168"/>
       <c r="AN12" s="12"/>
       <c r="AO12" s="12"/>
     </row>
     <row r="13" spans="1:41" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="212"/>
-      <c r="B13" s="217"/>
-      <c r="C13" s="192"/>
-      <c r="D13" s="196"/>
-      <c r="E13" s="196"/>
-      <c r="F13" s="196"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="220"/>
+      <c r="A13" s="258"/>
+      <c r="B13" s="262"/>
+      <c r="C13" s="241"/>
+      <c r="D13" s="231"/>
+      <c r="E13" s="231"/>
+      <c r="F13" s="231"/>
+      <c r="G13" s="231"/>
+      <c r="H13" s="233"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="236" t="s">
+      <c r="J13" s="217" t="s">
         <v>169</v>
       </c>
-      <c r="K13" s="236"/>
-      <c r="L13" s="236"/>
-      <c r="M13" s="236"/>
-      <c r="N13" s="148" t="s">
+      <c r="K13" s="217"/>
+      <c r="L13" s="217"/>
+      <c r="M13" s="217"/>
+      <c r="N13" s="142" t="s">
         <v>168</v>
       </c>
-      <c r="O13" s="131"/>
+      <c r="O13" s="125"/>
       <c r="P13" s="12"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="127"/>
-      <c r="S13" s="127"/>
+      <c r="Q13" s="121"/>
+      <c r="R13" s="121"/>
+      <c r="S13" s="121"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
@@ -3626,48 +3697,48 @@
       <c r="AO13" s="12"/>
     </row>
     <row r="14" spans="1:41" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="212" t="s">
+      <c r="A14" s="258" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="241" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="192" t="s">
+      <c r="C14" s="241" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="192" t="s">
+      <c r="D14" s="241" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="192" t="s">
+      <c r="E14" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="F14" s="192" t="s">
+      <c r="F14" s="241" t="s">
         <v>191</v>
       </c>
-      <c r="G14" s="194" t="s">
+      <c r="G14" s="230" t="s">
         <v>150</v>
       </c>
-      <c r="H14" s="197" t="s">
+      <c r="H14" s="232" t="s">
         <v>132</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="J14" s="236" t="s">
+      <c r="J14" s="217" t="s">
         <v>114</v>
       </c>
-      <c r="K14" s="236"/>
-      <c r="L14" s="236"/>
-      <c r="M14" s="236"/>
-      <c r="N14" s="237" t="s">
+      <c r="K14" s="217"/>
+      <c r="L14" s="217"/>
+      <c r="M14" s="217"/>
+      <c r="N14" s="227" t="s">
         <v>144</v>
       </c>
-      <c r="O14" s="238"/>
-      <c r="P14" s="238"/>
-      <c r="Q14" s="238"/>
-      <c r="R14" s="238"/>
-      <c r="S14" s="238"/>
-      <c r="T14" s="238"/>
-      <c r="U14" s="238"/>
-      <c r="V14" s="238"/>
+      <c r="O14" s="228"/>
+      <c r="P14" s="228"/>
+      <c r="Q14" s="228"/>
+      <c r="R14" s="228"/>
+      <c r="S14" s="228"/>
+      <c r="T14" s="228"/>
+      <c r="U14" s="228"/>
+      <c r="V14" s="228"/>
       <c r="W14" s="6"/>
       <c r="X14" s="12"/>
       <c r="Z14" s="12"/>
@@ -3688,32 +3759,32 @@
       <c r="AO14" s="12"/>
     </row>
     <row r="15" spans="1:41" ht="24" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="212"/>
-      <c r="B15" s="192"/>
-      <c r="C15" s="192"/>
-      <c r="D15" s="192"/>
-      <c r="E15" s="192"/>
-      <c r="F15" s="192"/>
-      <c r="G15" s="195"/>
-      <c r="H15" s="198"/>
+      <c r="A15" s="258"/>
+      <c r="B15" s="241"/>
+      <c r="C15" s="241"/>
+      <c r="D15" s="241"/>
+      <c r="E15" s="241"/>
+      <c r="F15" s="241"/>
+      <c r="G15" s="243"/>
+      <c r="H15" s="244"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="236" t="s">
+      <c r="J15" s="217" t="s">
         <v>167</v>
       </c>
-      <c r="K15" s="236"/>
-      <c r="L15" s="236"/>
-      <c r="M15" s="236"/>
-      <c r="N15" s="149" t="s">
+      <c r="K15" s="217"/>
+      <c r="L15" s="217"/>
+      <c r="M15" s="217"/>
+      <c r="N15" s="143" t="s">
         <v>166</v>
       </c>
-      <c r="O15" s="130"/>
+      <c r="O15" s="124"/>
       <c r="P15" s="12"/>
-      <c r="Q15" s="130"/>
-      <c r="R15" s="130"/>
-      <c r="S15" s="130"/>
+      <c r="Q15" s="124"/>
+      <c r="R15" s="124"/>
+      <c r="S15" s="124"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
-      <c r="V15" s="190"/>
+      <c r="V15" s="184"/>
       <c r="W15" s="6"/>
       <c r="X15" s="12"/>
       <c r="Z15" s="12"/>
@@ -3734,29 +3805,29 @@
       <c r="AO15" s="12"/>
     </row>
     <row r="16" spans="1:41" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="212"/>
-      <c r="B16" s="192"/>
-      <c r="C16" s="192"/>
-      <c r="D16" s="192"/>
-      <c r="E16" s="192"/>
-      <c r="F16" s="192"/>
-      <c r="G16" s="195"/>
-      <c r="H16" s="198"/>
+      <c r="A16" s="258"/>
+      <c r="B16" s="241"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="241"/>
+      <c r="F16" s="241"/>
+      <c r="G16" s="243"/>
+      <c r="H16" s="244"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="236" t="s">
+      <c r="J16" s="217" t="s">
         <v>165</v>
       </c>
-      <c r="K16" s="236"/>
-      <c r="L16" s="236"/>
-      <c r="M16" s="236"/>
-      <c r="N16" s="149" t="s">
+      <c r="K16" s="217"/>
+      <c r="L16" s="217"/>
+      <c r="M16" s="217"/>
+      <c r="N16" s="143" t="s">
         <v>164</v>
       </c>
-      <c r="O16" s="130"/>
+      <c r="O16" s="124"/>
       <c r="P16" s="12"/>
-      <c r="Q16" s="130"/>
-      <c r="R16" s="130"/>
-      <c r="S16" s="130"/>
+      <c r="Q16" s="124"/>
+      <c r="R16" s="124"/>
+      <c r="S16" s="124"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
@@ -3778,75 +3849,75 @@
       <c r="AM16" s="12"/>
     </row>
     <row r="17" spans="1:39" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="212"/>
-      <c r="B17" s="192"/>
-      <c r="C17" s="192"/>
-      <c r="D17" s="192"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="198"/>
+      <c r="A17" s="258"/>
+      <c r="B17" s="241"/>
+      <c r="C17" s="241"/>
+      <c r="D17" s="241"/>
+      <c r="E17" s="241"/>
+      <c r="F17" s="241"/>
+      <c r="G17" s="231"/>
+      <c r="H17" s="244"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="236" t="s">
+      <c r="J17" s="217" t="s">
         <v>163</v>
       </c>
-      <c r="K17" s="236"/>
-      <c r="L17" s="236"/>
-      <c r="M17" s="236"/>
-      <c r="N17" s="237" t="s">
+      <c r="K17" s="217"/>
+      <c r="L17" s="217"/>
+      <c r="M17" s="217"/>
+      <c r="N17" s="227" t="s">
         <v>162</v>
       </c>
-      <c r="O17" s="238"/>
-      <c r="P17" s="238"/>
-      <c r="Q17" s="238"/>
-      <c r="R17" s="238"/>
-      <c r="S17" s="238"/>
-      <c r="T17" s="238"/>
-      <c r="U17" s="238"/>
-      <c r="V17" s="238"/>
+      <c r="O17" s="228"/>
+      <c r="P17" s="228"/>
+      <c r="Q17" s="228"/>
+      <c r="R17" s="228"/>
+      <c r="S17" s="228"/>
+      <c r="T17" s="228"/>
+      <c r="U17" s="228"/>
+      <c r="V17" s="228"/>
       <c r="W17" s="6"/>
       <c r="X17" s="12"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
-      <c r="AC17" s="251"/>
-      <c r="AD17" s="252"/>
-      <c r="AE17" s="256"/>
-      <c r="AF17" s="251"/>
-      <c r="AG17" s="251"/>
-      <c r="AH17" s="251"/>
-      <c r="AI17" s="251"/>
-      <c r="AJ17" s="251"/>
+      <c r="AC17" s="208"/>
+      <c r="AD17" s="199"/>
+      <c r="AE17" s="198"/>
+      <c r="AF17" s="208"/>
+      <c r="AG17" s="208"/>
+      <c r="AH17" s="208"/>
+      <c r="AI17" s="208"/>
+      <c r="AJ17" s="208"/>
       <c r="AK17" s="12"/>
       <c r="AL17" s="12"/>
       <c r="AM17" s="12"/>
     </row>
     <row r="18" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="212"/>
-      <c r="B18" s="192"/>
-      <c r="C18" s="192"/>
-      <c r="D18" s="192"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="194" t="s">
+      <c r="A18" s="258"/>
+      <c r="B18" s="241"/>
+      <c r="C18" s="241"/>
+      <c r="D18" s="241"/>
+      <c r="E18" s="241"/>
+      <c r="F18" s="241"/>
+      <c r="G18" s="230" t="s">
         <v>149</v>
       </c>
-      <c r="H18" s="198"/>
+      <c r="H18" s="244"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="235" t="s">
+      <c r="J18" s="218" t="s">
         <v>113</v>
       </c>
-      <c r="K18" s="235"/>
-      <c r="L18" s="235"/>
-      <c r="M18" s="235"/>
-      <c r="N18" s="150">
+      <c r="K18" s="218"/>
+      <c r="L18" s="218"/>
+      <c r="M18" s="218"/>
+      <c r="N18" s="144">
         <v>500</v>
       </c>
-      <c r="O18" s="130"/>
+      <c r="O18" s="124"/>
       <c r="P18" s="12"/>
-      <c r="Q18" s="130"/>
-      <c r="R18" s="130"/>
-      <c r="S18" s="130"/>
+      <c r="Q18" s="124"/>
+      <c r="R18" s="124"/>
+      <c r="S18" s="124"/>
       <c r="T18" s="5"/>
       <c r="U18" s="12"/>
       <c r="V18" s="5"/>
@@ -3855,42 +3926,42 @@
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
-      <c r="AC18" s="251"/>
-      <c r="AD18" s="252"/>
-      <c r="AE18" s="256"/>
-      <c r="AF18" s="251"/>
-      <c r="AG18" s="253"/>
-      <c r="AH18" s="253"/>
-      <c r="AI18" s="252"/>
-      <c r="AJ18" s="256"/>
+      <c r="AC18" s="208"/>
+      <c r="AD18" s="199"/>
+      <c r="AE18" s="198"/>
+      <c r="AF18" s="208"/>
+      <c r="AG18" s="196"/>
+      <c r="AH18" s="196"/>
+      <c r="AI18" s="199"/>
+      <c r="AJ18" s="198"/>
       <c r="AK18" s="12"/>
       <c r="AL18" s="12"/>
       <c r="AM18" s="12"/>
     </row>
     <row r="19" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="212"/>
-      <c r="B19" s="192"/>
-      <c r="C19" s="192"/>
-      <c r="D19" s="192"/>
-      <c r="E19" s="192"/>
-      <c r="F19" s="192"/>
-      <c r="G19" s="195"/>
-      <c r="H19" s="198"/>
+      <c r="A19" s="258"/>
+      <c r="B19" s="241"/>
+      <c r="C19" s="241"/>
+      <c r="D19" s="241"/>
+      <c r="E19" s="241"/>
+      <c r="F19" s="241"/>
+      <c r="G19" s="243"/>
+      <c r="H19" s="244"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="235" t="s">
+      <c r="J19" s="218" t="s">
         <v>112</v>
       </c>
-      <c r="K19" s="235"/>
-      <c r="L19" s="235"/>
-      <c r="M19" s="235"/>
-      <c r="N19" s="150" t="s">
+      <c r="K19" s="218"/>
+      <c r="L19" s="218"/>
+      <c r="M19" s="218"/>
+      <c r="N19" s="144" t="s">
         <v>161</v>
       </c>
-      <c r="O19" s="127"/>
+      <c r="O19" s="121"/>
       <c r="P19" s="12"/>
-      <c r="Q19" s="127"/>
-      <c r="R19" s="127"/>
-      <c r="S19" s="127"/>
+      <c r="Q19" s="121"/>
+      <c r="R19" s="121"/>
+      <c r="S19" s="121"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
@@ -3899,33 +3970,33 @@
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="12"/>
-      <c r="AC19" s="251"/>
-      <c r="AD19" s="252"/>
-      <c r="AE19" s="256"/>
-      <c r="AF19" s="251"/>
-      <c r="AG19" s="253"/>
-      <c r="AH19" s="265"/>
-      <c r="AI19" s="252"/>
-      <c r="AJ19" s="256"/>
+      <c r="AC19" s="208"/>
+      <c r="AD19" s="199"/>
+      <c r="AE19" s="198"/>
+      <c r="AF19" s="208"/>
+      <c r="AG19" s="196"/>
+      <c r="AH19" s="197"/>
+      <c r="AI19" s="199"/>
+      <c r="AJ19" s="198"/>
       <c r="AK19" s="12"/>
       <c r="AL19" s="12"/>
       <c r="AM19" s="12"/>
     </row>
     <row r="20" spans="1:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="213"/>
-      <c r="B20" s="193"/>
-      <c r="C20" s="193"/>
-      <c r="D20" s="193"/>
-      <c r="E20" s="193"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="200"/>
-      <c r="H20" s="199"/>
+      <c r="A20" s="259"/>
+      <c r="B20" s="242"/>
+      <c r="C20" s="242"/>
+      <c r="D20" s="242"/>
+      <c r="E20" s="242"/>
+      <c r="F20" s="242"/>
+      <c r="G20" s="246"/>
+      <c r="H20" s="245"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="151"/>
+      <c r="N20" s="145"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -3939,19 +4010,19 @@
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
-      <c r="AC20" s="250"/>
-      <c r="AD20" s="254"/>
-      <c r="AE20" s="254"/>
-      <c r="AF20" s="254"/>
-      <c r="AG20" s="255"/>
-      <c r="AH20" s="255"/>
-      <c r="AI20" s="250"/>
-      <c r="AJ20" s="266"/>
+      <c r="AC20" s="186"/>
+      <c r="AD20" s="209"/>
+      <c r="AE20" s="209"/>
+      <c r="AF20" s="209"/>
+      <c r="AG20" s="219"/>
+      <c r="AH20" s="219"/>
+      <c r="AI20" s="186"/>
+      <c r="AJ20" s="200"/>
       <c r="AK20" s="12"/>
       <c r="AL20" s="12"/>
       <c r="AM20" s="12"/>
     </row>
-    <row r="21" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -3960,321 +4031,341 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="233" t="s">
+      <c r="I21" s="223" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="234"/>
-      <c r="K21" s="234"/>
-      <c r="L21" s="234"/>
+      <c r="J21" s="224"/>
+      <c r="K21" s="224"/>
+      <c r="L21" s="224"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="151"/>
+      <c r="N21" s="145"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="146"/>
-      <c r="V21" s="230" t="s">
+      <c r="U21" s="140"/>
+      <c r="V21" s="220" t="s">
         <v>148</v>
       </c>
-      <c r="W21" s="241" t="s">
+      <c r="W21" s="211" t="s">
         <v>147</v>
       </c>
       <c r="X21" s="12"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
-      <c r="AC21" s="250"/>
-      <c r="AD21" s="254"/>
-      <c r="AE21" s="254"/>
-      <c r="AF21" s="254"/>
-      <c r="AG21" s="255"/>
-      <c r="AH21" s="255"/>
-      <c r="AI21" s="250"/>
-      <c r="AJ21" s="266"/>
+      <c r="AC21" s="186"/>
+      <c r="AD21" s="209"/>
+      <c r="AE21" s="209"/>
+      <c r="AF21" s="209"/>
+      <c r="AG21" s="219"/>
+      <c r="AH21" s="219"/>
+      <c r="AI21" s="186"/>
+      <c r="AJ21" s="200"/>
       <c r="AK21" s="12"/>
       <c r="AL21" s="12"/>
       <c r="AM21" s="12"/>
     </row>
     <row r="22" spans="1:39" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="227" t="s">
+      <c r="A22" s="303" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" s="304"/>
+      <c r="C22" s="305" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="305" t="s">
+        <v>199</v>
+      </c>
+      <c r="E22" s="305" t="s">
+        <v>199</v>
+      </c>
+      <c r="F22" s="305" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" s="306"/>
+      <c r="H22" s="307"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="237" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="227"/>
-      <c r="L22" s="227"/>
+      <c r="K22" s="237"/>
+      <c r="L22" s="237"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="307" t="s">
+      <c r="N22" s="239" t="s">
         <v>194</v>
       </c>
-      <c r="O22" s="308"/>
-      <c r="P22" s="308"/>
-      <c r="Q22" s="239" t="s">
+      <c r="O22" s="240"/>
+      <c r="P22" s="240"/>
+      <c r="Q22" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="R22" s="239"/>
-      <c r="S22" s="166" t="s">
+      <c r="R22" s="201"/>
+      <c r="S22" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="T22" s="166" t="s">
+      <c r="T22" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="U22" s="144">
+      <c r="U22" s="138">
         <f ca="1">TODAY()</f>
-        <v>43568</v>
-      </c>
-      <c r="V22" s="231"/>
-      <c r="W22" s="242"/>
+        <v>43572</v>
+      </c>
+      <c r="V22" s="221"/>
+      <c r="W22" s="212"/>
       <c r="X22" s="12"/>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="12"/>
-      <c r="AC22" s="250"/>
-      <c r="AD22" s="254"/>
-      <c r="AE22" s="254"/>
-      <c r="AF22" s="254"/>
-      <c r="AG22" s="255"/>
-      <c r="AH22" s="255"/>
-      <c r="AI22" s="250"/>
-      <c r="AJ22" s="266"/>
+      <c r="AC22" s="186"/>
+      <c r="AD22" s="209"/>
+      <c r="AE22" s="209"/>
+      <c r="AF22" s="209"/>
+      <c r="AG22" s="219"/>
+      <c r="AH22" s="219"/>
+      <c r="AI22" s="186"/>
+      <c r="AJ22" s="200"/>
       <c r="AK22" s="12"/>
       <c r="AL22" s="12"/>
       <c r="AM22" s="12"/>
     </row>
-    <row r="23" spans="1:39" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="165"/>
-      <c r="K23" s="165"/>
-      <c r="L23" s="165" t="s">
+    <row r="23" spans="1:39" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="308" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="187"/>
+      <c r="C23" s="309" t="s">
+        <v>201</v>
+      </c>
+      <c r="D23" s="309"/>
+      <c r="E23" s="309"/>
+      <c r="F23" s="309"/>
+      <c r="G23" s="309"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="159"/>
+      <c r="K23" s="159"/>
+      <c r="L23" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="M23" s="108"/>
-      <c r="N23" s="152"/>
-      <c r="O23" s="108"/>
-      <c r="P23" s="108"/>
-      <c r="Q23" s="108"/>
-      <c r="R23" s="108"/>
-      <c r="S23" s="108"/>
-      <c r="T23" s="108"/>
-      <c r="U23" s="108"/>
-      <c r="V23" s="231"/>
-      <c r="W23" s="242"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="146"/>
+      <c r="O23" s="105"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="105"/>
+      <c r="R23" s="105"/>
+      <c r="S23" s="105"/>
+      <c r="T23" s="105"/>
+      <c r="U23" s="105"/>
+      <c r="V23" s="221"/>
+      <c r="W23" s="212"/>
       <c r="X23" s="12"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
-      <c r="AC23" s="250"/>
-      <c r="AD23" s="254"/>
-      <c r="AE23" s="254"/>
-      <c r="AF23" s="254"/>
-      <c r="AG23" s="255"/>
-      <c r="AH23" s="255"/>
-      <c r="AI23" s="250"/>
-      <c r="AJ23" s="266"/>
+      <c r="AC23" s="186"/>
+      <c r="AD23" s="209"/>
+      <c r="AE23" s="209"/>
+      <c r="AF23" s="209"/>
+      <c r="AG23" s="219"/>
+      <c r="AH23" s="219"/>
+      <c r="AI23" s="186"/>
+      <c r="AJ23" s="200"/>
       <c r="AK23" s="12"/>
       <c r="AL23" s="12"/>
       <c r="AM23" s="12"/>
     </row>
     <row r="24" spans="1:39" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="10"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="228" t="s">
+      <c r="A24" s="310"/>
+      <c r="B24" s="311"/>
+      <c r="C24" s="312" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="312"/>
+      <c r="E24" s="312" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="312"/>
+      <c r="G24" s="313" t="s">
+        <v>202</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="229" t="s">
         <v>134</v>
       </c>
-      <c r="J24" s="228"/>
-      <c r="K24" s="228"/>
-      <c r="L24" s="228"/>
-      <c r="M24" s="188"/>
+      <c r="J24" s="229"/>
+      <c r="K24" s="229"/>
+      <c r="L24" s="229"/>
+      <c r="M24" s="182"/>
       <c r="N24" s="225" t="s">
         <v>14</v>
       </c>
       <c r="O24" s="226"/>
       <c r="P24" s="226"/>
-      <c r="Q24" s="167" t="s">
+      <c r="Q24" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="R24" s="167"/>
-      <c r="S24" s="167" t="s">
+      <c r="R24" s="161"/>
+      <c r="S24" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="T24" s="167" t="s">
+      <c r="T24" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="U24" s="144">
+      <c r="U24" s="138">
         <f ca="1">TODAY()</f>
-        <v>43568</v>
-      </c>
-      <c r="V24" s="231"/>
-      <c r="W24" s="242"/>
+        <v>43572</v>
+      </c>
+      <c r="V24" s="221"/>
+      <c r="W24" s="212"/>
       <c r="X24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
-      <c r="AC24" s="250"/>
-      <c r="AD24" s="254"/>
-      <c r="AE24" s="254"/>
-      <c r="AF24" s="254"/>
-      <c r="AG24" s="255"/>
-      <c r="AH24" s="255"/>
-      <c r="AI24" s="250"/>
-      <c r="AJ24" s="266"/>
+      <c r="AC24" s="186"/>
+      <c r="AD24" s="209"/>
+      <c r="AE24" s="209"/>
+      <c r="AF24" s="209"/>
+      <c r="AG24" s="219"/>
+      <c r="AH24" s="219"/>
+      <c r="AI24" s="186"/>
+      <c r="AJ24" s="200"/>
       <c r="AK24" s="12"/>
       <c r="AL24" s="12"/>
       <c r="AM24" s="12"/>
     </row>
     <row r="25" spans="1:39" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="10"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="228" t="s">
+      <c r="A25" s="310"/>
+      <c r="B25" s="311"/>
+      <c r="C25" s="314"/>
+      <c r="D25" s="314"/>
+      <c r="E25" s="314"/>
+      <c r="F25" s="314"/>
+      <c r="G25" s="315"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="229" t="s">
         <v>135</v>
       </c>
-      <c r="J25" s="228"/>
-      <c r="K25" s="228"/>
-      <c r="L25" s="228"/>
-      <c r="M25" s="188"/>
+      <c r="J25" s="229"/>
+      <c r="K25" s="229"/>
+      <c r="L25" s="229"/>
+      <c r="M25" s="182"/>
       <c r="N25" s="225" t="s">
         <v>14</v>
       </c>
       <c r="O25" s="226"/>
       <c r="P25" s="226"/>
-      <c r="Q25" s="167" t="s">
+      <c r="Q25" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="R25" s="167"/>
-      <c r="S25" s="167" t="s">
+      <c r="R25" s="161"/>
+      <c r="S25" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="T25" s="167" t="s">
+      <c r="T25" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="U25" s="144">
+      <c r="U25" s="138">
         <f ca="1">TODAY()</f>
-        <v>43568</v>
-      </c>
-      <c r="V25" s="231"/>
-      <c r="W25" s="242"/>
+        <v>43572</v>
+      </c>
+      <c r="V25" s="221"/>
+      <c r="W25" s="212"/>
       <c r="X25" s="12"/>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="12"/>
-      <c r="AC25" s="250"/>
-      <c r="AD25" s="254"/>
-      <c r="AE25" s="254"/>
-      <c r="AF25" s="254"/>
-      <c r="AG25" s="255"/>
-      <c r="AH25" s="255"/>
-      <c r="AI25" s="250"/>
-      <c r="AJ25" s="266"/>
+      <c r="AC25" s="186"/>
+      <c r="AD25" s="209"/>
+      <c r="AE25" s="209"/>
+      <c r="AF25" s="209"/>
+      <c r="AG25" s="219"/>
+      <c r="AH25" s="219"/>
+      <c r="AI25" s="186"/>
+      <c r="AJ25" s="200"/>
       <c r="AK25" s="12"/>
       <c r="AL25" s="12"/>
       <c r="AM25" s="12"/>
     </row>
     <row r="26" spans="1:39" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="106"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="228" t="s">
+      <c r="A26" s="310"/>
+      <c r="B26" s="311"/>
+      <c r="C26" s="314"/>
+      <c r="D26" s="314"/>
+      <c r="E26" s="314"/>
+      <c r="F26" s="314"/>
+      <c r="G26" s="315"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="229" t="s">
         <v>136</v>
       </c>
-      <c r="J26" s="228"/>
-      <c r="K26" s="228"/>
-      <c r="L26" s="228"/>
-      <c r="M26" s="188"/>
+      <c r="J26" s="229"/>
+      <c r="K26" s="229"/>
+      <c r="L26" s="229"/>
+      <c r="M26" s="182"/>
       <c r="N26" s="225" t="s">
         <v>14</v>
       </c>
       <c r="O26" s="226"/>
       <c r="P26" s="226"/>
-      <c r="Q26" s="167" t="s">
+      <c r="Q26" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="R26" s="167"/>
-      <c r="S26" s="167" t="s">
+      <c r="R26" s="161"/>
+      <c r="S26" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="T26" s="167" t="s">
+      <c r="T26" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="U26" s="144">
+      <c r="U26" s="138">
         <f ca="1">TODAY()</f>
-        <v>43568</v>
-      </c>
-      <c r="V26" s="232"/>
-      <c r="W26" s="242"/>
+        <v>43572</v>
+      </c>
+      <c r="V26" s="222"/>
+      <c r="W26" s="212"/>
       <c r="X26" s="12"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
-      <c r="AC26" s="250"/>
-      <c r="AD26" s="254"/>
-      <c r="AE26" s="254"/>
-      <c r="AF26" s="254"/>
-      <c r="AG26" s="255"/>
-      <c r="AH26" s="255"/>
-      <c r="AI26" s="250"/>
-      <c r="AJ26" s="266"/>
+      <c r="AC26" s="186"/>
+      <c r="AD26" s="209"/>
+      <c r="AE26" s="209"/>
+      <c r="AF26" s="209"/>
+      <c r="AG26" s="219"/>
+      <c r="AH26" s="219"/>
+      <c r="AI26" s="186"/>
+      <c r="AJ26" s="200"/>
       <c r="AK26" s="12"/>
       <c r="AL26" s="12"/>
       <c r="AM26" s="12"/>
     </row>
     <row r="27" spans="1:39" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="109"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="229"/>
-      <c r="J27" s="229"/>
-      <c r="K27" s="229"/>
-      <c r="L27" s="229"/>
-      <c r="M27" s="244"/>
-      <c r="N27" s="244"/>
-      <c r="O27" s="244"/>
-      <c r="P27" s="244"/>
-      <c r="Q27" s="246"/>
-      <c r="R27" s="246"/>
-      <c r="S27" s="167"/>
-      <c r="T27" s="167"/>
-      <c r="U27" s="167"/>
-      <c r="V27" s="167"/>
-      <c r="W27" s="242"/>
+      <c r="A27" s="310"/>
+      <c r="B27" s="311"/>
+      <c r="C27" s="314"/>
+      <c r="D27" s="314"/>
+      <c r="E27" s="314"/>
+      <c r="F27" s="314"/>
+      <c r="G27" s="315"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="238"/>
+      <c r="J27" s="238"/>
+      <c r="K27" s="238"/>
+      <c r="L27" s="238"/>
+      <c r="M27" s="214"/>
+      <c r="N27" s="214"/>
+      <c r="O27" s="214"/>
+      <c r="P27" s="214"/>
+      <c r="Q27" s="202"/>
+      <c r="R27" s="202"/>
+      <c r="S27" s="161"/>
+      <c r="T27" s="161"/>
+      <c r="U27" s="161"/>
+      <c r="V27" s="161"/>
+      <c r="W27" s="212"/>
       <c r="X27" s="12"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
@@ -4292,42 +4383,44 @@
       <c r="AM27" s="12"/>
     </row>
     <row r="28" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="111"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="108"/>
-      <c r="J28" s="227" t="s">
+      <c r="A28" s="308" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" s="187"/>
+      <c r="C28" s="309"/>
+      <c r="D28" s="309"/>
+      <c r="E28" s="309"/>
+      <c r="F28" s="316"/>
+      <c r="G28" s="316"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="237" t="s">
         <v>133</v>
       </c>
-      <c r="K28" s="227"/>
-      <c r="L28" s="227"/>
-      <c r="M28" s="188"/>
+      <c r="K28" s="237"/>
+      <c r="L28" s="237"/>
+      <c r="M28" s="182"/>
       <c r="N28" s="225" t="s">
         <v>14</v>
       </c>
       <c r="O28" s="226"/>
       <c r="P28" s="226"/>
-      <c r="Q28" s="246" t="s">
+      <c r="Q28" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="R28" s="246"/>
-      <c r="S28" s="167" t="s">
+      <c r="R28" s="202"/>
+      <c r="S28" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="T28" s="167" t="s">
+      <c r="T28" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="U28" s="144">
+      <c r="U28" s="138">
         <f ca="1">TODAY()</f>
-        <v>43568</v>
-      </c>
-      <c r="V28" s="167"/>
-      <c r="W28" s="242"/>
+        <v>43572</v>
+      </c>
+      <c r="V28" s="161"/>
+      <c r="W28" s="212"/>
       <c r="X28" s="12"/>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
@@ -4344,21 +4437,23 @@
       <c r="AL28" s="12"/>
       <c r="AM28" s="12"/>
     </row>
-    <row r="29" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="264"/>
-      <c r="D29" s="264"/>
-      <c r="E29" s="264"/>
-      <c r="F29" s="264"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="25"/>
+    <row r="29" spans="1:39" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="128"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="317" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" s="317"/>
+      <c r="E29" s="317"/>
+      <c r="F29" s="317"/>
+      <c r="G29" s="318"/>
+      <c r="H29" s="319"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
-      <c r="N29" s="147"/>
+      <c r="N29" s="141"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
@@ -4366,17 +4461,17 @@
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
-      <c r="V29" s="116"/>
-      <c r="W29" s="243"/>
+      <c r="V29" s="320"/>
+      <c r="W29" s="213"/>
       <c r="X29" s="12"/>
     </row>
-    <row r="30" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="111"/>
-      <c r="B30" s="112"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
+    <row r="30" spans="1:39" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="106"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
       <c r="I30" s="12"/>
@@ -4384,7 +4479,7 @@
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
-      <c r="N30" s="147"/>
+      <c r="N30" s="141"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
@@ -4396,13 +4491,13 @@
       <c r="W30" s="6"/>
       <c r="X30" s="12"/>
     </row>
-    <row r="31" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="264"/>
-      <c r="D31" s="264"/>
-      <c r="E31" s="264"/>
-      <c r="F31" s="264"/>
+      <c r="C31" s="194"/>
+      <c r="D31" s="194"/>
+      <c r="E31" s="194"/>
+      <c r="F31" s="194"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -4410,7 +4505,7 @@
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
-      <c r="N31" s="147"/>
+      <c r="N31" s="141"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
@@ -4428,39 +4523,39 @@
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="257" t="s">
+      <c r="F32" s="187" t="s">
         <v>137</v>
       </c>
-      <c r="G32" s="257"/>
-      <c r="H32" s="257"/>
-      <c r="I32" s="257"/>
-      <c r="J32" s="257"/>
-      <c r="K32" s="257"/>
-      <c r="L32" s="257"/>
-      <c r="M32" s="167" t="s">
+      <c r="G32" s="187"/>
+      <c r="H32" s="187"/>
+      <c r="I32" s="187"/>
+      <c r="J32" s="187"/>
+      <c r="K32" s="187"/>
+      <c r="L32" s="187"/>
+      <c r="M32" s="161" t="s">
         <v>186</v>
       </c>
-      <c r="N32" s="152"/>
-      <c r="O32" s="108"/>
-      <c r="P32" s="108"/>
-      <c r="Q32" s="239" t="s">
+      <c r="N32" s="146"/>
+      <c r="O32" s="105"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="R32" s="239"/>
-      <c r="S32" s="166" t="s">
+      <c r="R32" s="201"/>
+      <c r="S32" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="T32" s="166" t="s">
+      <c r="T32" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="U32" s="144">
+      <c r="U32" s="138">
         <f ca="1">TODAY()</f>
-        <v>43568</v>
-      </c>
-      <c r="V32" s="258" t="s">
+        <v>43572</v>
+      </c>
+      <c r="V32" s="188" t="s">
         <v>145</v>
       </c>
-      <c r="W32" s="259"/>
+      <c r="W32" s="189"/>
       <c r="X32" s="12"/>
     </row>
     <row r="33" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4469,39 +4564,39 @@
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="257" t="s">
+      <c r="F33" s="187" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="257"/>
-      <c r="H33" s="257"/>
-      <c r="I33" s="257"/>
-      <c r="J33" s="257"/>
-      <c r="K33" s="257"/>
-      <c r="L33" s="257"/>
-      <c r="M33" s="167" t="s">
+      <c r="G33" s="187"/>
+      <c r="H33" s="187"/>
+      <c r="I33" s="187"/>
+      <c r="J33" s="187"/>
+      <c r="K33" s="187"/>
+      <c r="L33" s="187"/>
+      <c r="M33" s="161" t="s">
         <v>117</v>
       </c>
-      <c r="N33" s="152" t="s">
+      <c r="N33" s="146" t="s">
         <v>187</v>
       </c>
-      <c r="O33" s="108"/>
-      <c r="P33" s="108"/>
-      <c r="Q33" s="239" t="s">
+      <c r="O33" s="105"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="R33" s="239"/>
-      <c r="S33" s="166" t="s">
+      <c r="R33" s="201"/>
+      <c r="S33" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="T33" s="166" t="s">
+      <c r="T33" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="U33" s="144">
+      <c r="U33" s="138">
         <f t="shared" ref="U33:U37" ca="1" si="0">TODAY()</f>
-        <v>43568</v>
-      </c>
-      <c r="V33" s="260"/>
-      <c r="W33" s="261"/>
+        <v>43572</v>
+      </c>
+      <c r="V33" s="190"/>
+      <c r="W33" s="191"/>
       <c r="X33" s="12"/>
     </row>
     <row r="34" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4510,39 +4605,39 @@
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="257" t="s">
+      <c r="F34" s="187" t="s">
         <v>138</v>
       </c>
-      <c r="G34" s="257"/>
-      <c r="H34" s="257"/>
-      <c r="I34" s="257"/>
-      <c r="J34" s="257"/>
-      <c r="K34" s="257"/>
-      <c r="L34" s="257"/>
-      <c r="M34" s="167" t="s">
+      <c r="G34" s="187"/>
+      <c r="H34" s="187"/>
+      <c r="I34" s="187"/>
+      <c r="J34" s="187"/>
+      <c r="K34" s="187"/>
+      <c r="L34" s="187"/>
+      <c r="M34" s="161" t="s">
         <v>139</v>
       </c>
-      <c r="N34" s="152"/>
-      <c r="O34" s="108" t="s">
+      <c r="N34" s="146"/>
+      <c r="O34" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="P34" s="108"/>
-      <c r="Q34" s="239" t="s">
+      <c r="P34" s="105"/>
+      <c r="Q34" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="R34" s="239"/>
-      <c r="S34" s="166" t="s">
+      <c r="R34" s="201"/>
+      <c r="S34" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="T34" s="166" t="s">
+      <c r="T34" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="U34" s="144">
+      <c r="U34" s="138">
         <f t="shared" ca="1" si="0"/>
-        <v>43568</v>
-      </c>
-      <c r="V34" s="260"/>
-      <c r="W34" s="261"/>
+        <v>43572</v>
+      </c>
+      <c r="V34" s="190"/>
+      <c r="W34" s="191"/>
       <c r="X34" s="12"/>
     </row>
     <row r="35" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4558,28 +4653,28 @@
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
-      <c r="M35" s="240" t="s">
+      <c r="M35" s="210" t="s">
         <v>188</v>
       </c>
-      <c r="N35" s="240"/>
-      <c r="O35" s="240"/>
-      <c r="P35" s="240"/>
-      <c r="Q35" s="239" t="s">
+      <c r="N35" s="210"/>
+      <c r="O35" s="210"/>
+      <c r="P35" s="210"/>
+      <c r="Q35" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="R35" s="239"/>
-      <c r="S35" s="166" t="s">
+      <c r="R35" s="201"/>
+      <c r="S35" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="T35" s="166" t="s">
+      <c r="T35" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="U35" s="144">
+      <c r="U35" s="138">
         <f t="shared" ca="1" si="0"/>
-        <v>43568</v>
-      </c>
-      <c r="V35" s="260"/>
-      <c r="W35" s="261"/>
+        <v>43572</v>
+      </c>
+      <c r="V35" s="190"/>
+      <c r="W35" s="191"/>
       <c r="X35" s="12"/>
     </row>
     <row r="36" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -4587,66 +4682,66 @@
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="109"/>
       <c r="G36" s="12"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="115"/>
-      <c r="K36" s="115"/>
-      <c r="L36" s="115"/>
-      <c r="M36" s="247"/>
-      <c r="N36" s="247"/>
-      <c r="O36" s="108"/>
-      <c r="P36" s="108"/>
-      <c r="Q36" s="239"/>
-      <c r="R36" s="239"/>
-      <c r="S36" s="166"/>
-      <c r="T36" s="166"/>
-      <c r="U36" s="144"/>
-      <c r="V36" s="260"/>
-      <c r="W36" s="261"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="110"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="110"/>
+      <c r="L36" s="110"/>
+      <c r="M36" s="205"/>
+      <c r="N36" s="205"/>
+      <c r="O36" s="105"/>
+      <c r="P36" s="105"/>
+      <c r="Q36" s="201"/>
+      <c r="R36" s="201"/>
+      <c r="S36" s="160"/>
+      <c r="T36" s="160"/>
+      <c r="U36" s="138"/>
+      <c r="V36" s="190"/>
+      <c r="W36" s="191"/>
       <c r="X36" s="12"/>
     </row>
     <row r="37" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="248" t="s">
+      <c r="D37" s="206" t="s">
         <v>141</v>
       </c>
-      <c r="E37" s="248"/>
-      <c r="F37" s="248"/>
-      <c r="G37" s="248"/>
-      <c r="H37" s="248"/>
-      <c r="I37" s="248"/>
-      <c r="J37" s="248"/>
-      <c r="K37" s="248"/>
-      <c r="L37" s="249" t="s">
+      <c r="E37" s="206"/>
+      <c r="F37" s="206"/>
+      <c r="G37" s="206"/>
+      <c r="H37" s="206"/>
+      <c r="I37" s="206"/>
+      <c r="J37" s="206"/>
+      <c r="K37" s="206"/>
+      <c r="L37" s="207" t="s">
         <v>142</v>
       </c>
-      <c r="M37" s="249"/>
-      <c r="N37" s="249"/>
-      <c r="O37" s="108" t="s">
+      <c r="M37" s="207"/>
+      <c r="N37" s="207"/>
+      <c r="O37" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="P37" s="108"/>
-      <c r="Q37" s="239" t="s">
+      <c r="P37" s="105"/>
+      <c r="Q37" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="R37" s="239"/>
-      <c r="S37" s="166" t="s">
+      <c r="R37" s="201"/>
+      <c r="S37" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="T37" s="166" t="s">
+      <c r="T37" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="U37" s="144">
+      <c r="U37" s="138">
         <f t="shared" ca="1" si="0"/>
-        <v>43568</v>
-      </c>
-      <c r="V37" s="262"/>
-      <c r="W37" s="263"/>
+        <v>43572</v>
+      </c>
+      <c r="V37" s="192"/>
+      <c r="W37" s="193"/>
       <c r="X37" s="12"/>
     </row>
     <row r="38" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4663,7 +4758,7 @@
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
-      <c r="N38" s="153"/>
+      <c r="N38" s="147"/>
       <c r="O38" s="14"/>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
@@ -4689,7 +4784,7 @@
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
-      <c r="N39" s="147"/>
+      <c r="N39" s="141"/>
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
@@ -4715,7 +4810,7 @@
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
-      <c r="N40" s="147"/>
+      <c r="N40" s="141"/>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
@@ -4741,7 +4836,7 @@
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
-      <c r="N41" s="147"/>
+      <c r="N41" s="141"/>
       <c r="O41" s="12"/>
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
@@ -4754,7 +4849,102 @@
       <c r="X41" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="119">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="F14:F20"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="P2:W2"/>
+    <mergeCell ref="S11:W11"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="AH3:AM3"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="AF20:AF26"/>
+    <mergeCell ref="AG20:AG26"/>
+    <mergeCell ref="AF17:AJ17"/>
+    <mergeCell ref="AE17:AE19"/>
+    <mergeCell ref="AE20:AE26"/>
+    <mergeCell ref="AH20:AH26"/>
+    <mergeCell ref="AI20:AI23"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="V21:V26"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="AC20:AC26"/>
+    <mergeCell ref="AC17:AC19"/>
+    <mergeCell ref="AD17:AD19"/>
+    <mergeCell ref="AD20:AD26"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="W21:W29"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="AA3:AF3"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N17:V17"/>
+    <mergeCell ref="N14:V14"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="I25:L25"/>
     <mergeCell ref="AI24:AI26"/>
     <mergeCell ref="F33:L33"/>
     <mergeCell ref="V32:W37"/>
@@ -4779,89 +4969,6 @@
     <mergeCell ref="Q37:R37"/>
     <mergeCell ref="L37:N37"/>
     <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="AC20:AC26"/>
-    <mergeCell ref="AC17:AC19"/>
-    <mergeCell ref="AD17:AD19"/>
-    <mergeCell ref="AD20:AD26"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="W21:W29"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="AA3:AF3"/>
-    <mergeCell ref="AH3:AM3"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AG18:AG19"/>
-    <mergeCell ref="AF20:AF26"/>
-    <mergeCell ref="AG20:AG26"/>
-    <mergeCell ref="AF17:AJ17"/>
-    <mergeCell ref="AE17:AE19"/>
-    <mergeCell ref="AE20:AE26"/>
-    <mergeCell ref="AH20:AH26"/>
-    <mergeCell ref="AI20:AI23"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="V21:V26"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N17:V17"/>
-    <mergeCell ref="N14:V14"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="F14:F20"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="P2:W2"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="C14:C20"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="E14:E20"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0"/>
@@ -4890,35 +4997,35 @@
   <cols>
     <col min="1" max="1" width="12.625" style="1" customWidth="1"/>
     <col min="2" max="3" width="10.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="104.75" style="155" customWidth="1"/>
-    <col min="5" max="5" width="20.75" style="155"/>
-    <col min="6" max="6" width="25.75" style="155" customWidth="1"/>
-    <col min="7" max="7" width="14.75" style="155" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="162" customWidth="1"/>
-    <col min="9" max="9" width="22" style="155" customWidth="1"/>
-    <col min="10" max="10" width="15.75" style="155" customWidth="1"/>
-    <col min="11" max="11" width="18.5" style="155" customWidth="1"/>
-    <col min="12" max="12" width="20.5" style="155" customWidth="1"/>
-    <col min="13" max="13" width="23.875" style="159" customWidth="1"/>
+    <col min="4" max="4" width="104.75" style="149" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="149"/>
+    <col min="6" max="6" width="25.75" style="149" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="149" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="156" customWidth="1"/>
+    <col min="9" max="9" width="22" style="149" customWidth="1"/>
+    <col min="10" max="10" width="15.75" style="149" customWidth="1"/>
+    <col min="11" max="11" width="18.5" style="149" customWidth="1"/>
+    <col min="12" max="12" width="20.5" style="149" customWidth="1"/>
+    <col min="13" max="13" width="23.875" style="153" customWidth="1"/>
     <col min="14" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="55.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="265" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="270"/>
-      <c r="L1" s="270"/>
-      <c r="M1" s="271"/>
+      <c r="B1" s="266"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
+      <c r="F1" s="266"/>
+      <c r="G1" s="266"/>
+      <c r="H1" s="266"/>
+      <c r="I1" s="266"/>
+      <c r="J1" s="266"/>
+      <c r="K1" s="266"/>
+      <c r="L1" s="266"/>
+      <c r="M1" s="267"/>
     </row>
     <row r="2" spans="1:13" ht="184.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
@@ -4942,7 +5049,7 @@
       <c r="G2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="160" t="s">
+      <c r="H2" s="154" t="s">
         <v>90</v>
       </c>
       <c r="I2" s="17" t="s">
@@ -4981,7 +5088,7 @@
       <c r="G3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="161">
+      <c r="H3" s="155">
         <v>14</v>
       </c>
       <c r="I3" s="21"/>
@@ -4994,7 +5101,7 @@
       <c r="L3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="157" t="s">
+      <c r="M3" s="151" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5006,12 +5113,12 @@
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="156"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="150"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
-      <c r="M4" s="158"/>
+      <c r="M4" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5033,598 +5140,598 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="88" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="88" customWidth="1"/>
-    <col min="3" max="4" width="11.125" style="88" customWidth="1"/>
-    <col min="5" max="5" width="44.375" style="88" customWidth="1"/>
-    <col min="6" max="12" width="13.75" style="88" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="88"/>
+    <col min="1" max="1" width="11.125" style="87" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="87" customWidth="1"/>
+    <col min="3" max="4" width="11.125" style="87" customWidth="1"/>
+    <col min="5" max="5" width="44.375" style="87" customWidth="1"/>
+    <col min="6" max="12" width="13.75" style="87" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="87"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="272" t="s">
+      <c r="G1" s="268" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="273"/>
-      <c r="I1" s="274"/>
-      <c r="J1" s="98" t="s">
+      <c r="H1" s="269"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="98" t="s">
+      <c r="K1" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="97" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="97" t="s">
+      <c r="F2" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="96" t="s">
+      <c r="G2" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="95" t="s">
+      <c r="H2" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="94" t="s">
+      <c r="I2" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="93" t="s">
+      <c r="J2" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="92" t="s">
+      <c r="K2" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="L2" s="92" t="s">
+      <c r="L2" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="M2" s="90" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90" t="s">
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="90" t="s">
+      <c r="L3" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="M3" s="90" t="s">
+      <c r="M3" s="89" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="89"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
     </row>
     <row r="5" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="89"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
     </row>
     <row r="6" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="89"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
     </row>
     <row r="7" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="89"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
     </row>
     <row r="8" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
     </row>
     <row r="9" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="89"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
     </row>
     <row r="10" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="89"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
     </row>
     <row r="11" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="89"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
     </row>
     <row r="12" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="89"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
+      <c r="A12" s="88"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
     </row>
     <row r="13" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="89"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
+      <c r="A13" s="88"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
     </row>
     <row r="14" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="89"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
     </row>
     <row r="15" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="89"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
     </row>
     <row r="16" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="89"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="89"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
     </row>
     <row r="18" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="89"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="88"/>
     </row>
     <row r="19" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="89"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
     </row>
     <row r="20" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="89"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="88"/>
     </row>
     <row r="21" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="89"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="88"/>
     </row>
     <row r="22" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="89"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
     </row>
     <row r="23" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="89"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
+      <c r="A23" s="88"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
     </row>
     <row r="24" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="89"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
+      <c r="A24" s="88"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
     </row>
     <row r="25" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="89"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
+      <c r="A25" s="88"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="88"/>
     </row>
     <row r="26" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="89"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
+      <c r="A26" s="88"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
     </row>
     <row r="27" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="89"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
+      <c r="A27" s="88"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
     </row>
     <row r="28" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="89"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
+      <c r="A28" s="88"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
     </row>
     <row r="29" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="89"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
+      <c r="A29" s="88"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="88"/>
     </row>
     <row r="30" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="89"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
+      <c r="A30" s="88"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
     </row>
     <row r="31" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="89"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="88"/>
     </row>
     <row r="32" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="89"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
+      <c r="A32" s="88"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
     </row>
     <row r="33" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="89"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
+      <c r="A33" s="88"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="88"/>
+      <c r="M33" s="88"/>
     </row>
     <row r="34" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="89"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
+      <c r="A34" s="88"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="88"/>
     </row>
     <row r="35" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="89"/>
-      <c r="B35" s="89"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="89"/>
+      <c r="A35" s="88"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="88"/>
+      <c r="M35" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5659,26 +5766,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="143"/>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="142"/>
-      <c r="P1" s="142"/>
-      <c r="Q1" s="142"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="142"/>
-      <c r="T1" s="141"/>
+      <c r="A1" s="137"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="135"/>
     </row>
     <row r="2" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
@@ -5687,12 +5794,12 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="286" t="s">
+      <c r="G2" s="271" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="287"/>
-      <c r="I2" s="287"/>
-      <c r="J2" s="287"/>
+      <c r="H2" s="272"/>
+      <c r="I2" s="272"/>
+      <c r="J2" s="272"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -5701,64 +5808,64 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
-      <c r="S2" s="125"/>
+      <c r="S2" s="119"/>
       <c r="T2" s="6"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="289" t="s">
+      <c r="A3" s="279" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="290"/>
-      <c r="C3" s="290"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="290"/>
-      <c r="F3" s="290"/>
-      <c r="G3" s="290"/>
-      <c r="H3" s="290"/>
-      <c r="I3" s="290"/>
-      <c r="J3" s="290"/>
-      <c r="K3" s="291" t="s">
+      <c r="B3" s="280"/>
+      <c r="C3" s="280"/>
+      <c r="D3" s="280"/>
+      <c r="E3" s="280"/>
+      <c r="F3" s="280"/>
+      <c r="G3" s="280"/>
+      <c r="H3" s="280"/>
+      <c r="I3" s="280"/>
+      <c r="J3" s="280"/>
+      <c r="K3" s="281" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="291"/>
-      <c r="M3" s="291"/>
-      <c r="N3" s="291"/>
-      <c r="O3" s="239" t="s">
+      <c r="L3" s="281"/>
+      <c r="M3" s="281"/>
+      <c r="N3" s="281"/>
+      <c r="O3" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="239"/>
-      <c r="Q3" s="124" t="s">
+      <c r="P3" s="201"/>
+      <c r="Q3" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="124" t="s">
+      <c r="R3" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="145">
+      <c r="S3" s="139">
         <f ca="1">TODAY()</f>
-        <v>43568</v>
+        <v>43572</v>
       </c>
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="140"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
+      <c r="A4" s="134"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="133"/>
+      <c r="O4" s="133"/>
+      <c r="P4" s="133"/>
+      <c r="Q4" s="133"/>
+      <c r="R4" s="133"/>
+      <c r="S4" s="133"/>
       <c r="T4" s="6"/>
     </row>
     <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
@@ -5784,11 +5891,11 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="292" t="s">
+      <c r="A6" s="282" t="s">
         <v>184</v>
       </c>
-      <c r="B6" s="293"/>
-      <c r="C6" s="293"/>
+      <c r="B6" s="283"/>
+      <c r="C6" s="283"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -5808,11 +5915,11 @@
       <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="292" t="s">
+      <c r="A7" s="282" t="s">
         <v>183</v>
       </c>
-      <c r="B7" s="293"/>
-      <c r="C7" s="293"/>
+      <c r="B7" s="283"/>
+      <c r="C7" s="283"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -5832,11 +5939,11 @@
       <c r="T7" s="6"/>
     </row>
     <row r="8" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="292" t="s">
+      <c r="A8" s="282" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="293"/>
-      <c r="C8" s="293"/>
+      <c r="B8" s="283"/>
+      <c r="C8" s="283"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -5926,20 +6033,20 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="275" t="s">
+      <c r="E12" s="287" t="s">
         <v>181</v>
       </c>
-      <c r="F12" s="276"/>
-      <c r="G12" s="276"/>
-      <c r="H12" s="276"/>
-      <c r="I12" s="276"/>
-      <c r="J12" s="276"/>
-      <c r="K12" s="276"/>
-      <c r="L12" s="276"/>
-      <c r="M12" s="276"/>
-      <c r="N12" s="276"/>
-      <c r="O12" s="276"/>
-      <c r="P12" s="276"/>
+      <c r="F12" s="288"/>
+      <c r="G12" s="288"/>
+      <c r="H12" s="288"/>
+      <c r="I12" s="288"/>
+      <c r="J12" s="288"/>
+      <c r="K12" s="288"/>
+      <c r="L12" s="288"/>
+      <c r="M12" s="288"/>
+      <c r="N12" s="288"/>
+      <c r="O12" s="288"/>
+      <c r="P12" s="288"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -5950,18 +6057,18 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="276"/>
-      <c r="F13" s="276"/>
-      <c r="G13" s="276"/>
-      <c r="H13" s="276"/>
-      <c r="I13" s="276"/>
-      <c r="J13" s="276"/>
-      <c r="K13" s="276"/>
-      <c r="L13" s="276"/>
-      <c r="M13" s="276"/>
-      <c r="N13" s="276"/>
-      <c r="O13" s="276"/>
-      <c r="P13" s="276"/>
+      <c r="E13" s="288"/>
+      <c r="F13" s="288"/>
+      <c r="G13" s="288"/>
+      <c r="H13" s="288"/>
+      <c r="I13" s="288"/>
+      <c r="J13" s="288"/>
+      <c r="K13" s="288"/>
+      <c r="L13" s="288"/>
+      <c r="M13" s="288"/>
+      <c r="N13" s="288"/>
+      <c r="O13" s="288"/>
+      <c r="P13" s="288"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
@@ -5972,18 +6079,18 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="276"/>
-      <c r="F14" s="276"/>
-      <c r="G14" s="276"/>
-      <c r="H14" s="276"/>
-      <c r="I14" s="276"/>
-      <c r="J14" s="276"/>
-      <c r="K14" s="276"/>
-      <c r="L14" s="276"/>
-      <c r="M14" s="276"/>
-      <c r="N14" s="276"/>
-      <c r="O14" s="276"/>
-      <c r="P14" s="276"/>
+      <c r="E14" s="288"/>
+      <c r="F14" s="288"/>
+      <c r="G14" s="288"/>
+      <c r="H14" s="288"/>
+      <c r="I14" s="288"/>
+      <c r="J14" s="288"/>
+      <c r="K14" s="288"/>
+      <c r="L14" s="288"/>
+      <c r="M14" s="288"/>
+      <c r="N14" s="288"/>
+      <c r="O14" s="288"/>
+      <c r="P14" s="288"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
@@ -5994,18 +6101,18 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="138"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="138"/>
-      <c r="K15" s="138"/>
-      <c r="L15" s="138"/>
-      <c r="M15" s="138"/>
-      <c r="N15" s="138"/>
-      <c r="O15" s="138"/>
-      <c r="P15" s="138"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -6017,23 +6124,23 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="236" t="s">
+      <c r="F16" s="217" t="s">
         <v>180</v>
       </c>
-      <c r="G16" s="277"/>
-      <c r="H16" s="277"/>
-      <c r="I16" s="277"/>
-      <c r="J16" s="278" t="str">
+      <c r="G16" s="278"/>
+      <c r="H16" s="278"/>
+      <c r="I16" s="278"/>
+      <c r="J16" s="286" t="str">
         <f>'лист титульный КД'!N12</f>
         <v>Иванов И.И</v>
       </c>
-      <c r="K16" s="278"/>
-      <c r="L16" s="278"/>
-      <c r="M16" s="278"/>
-      <c r="N16" s="278"/>
-      <c r="O16" s="278"/>
-      <c r="P16" s="278"/>
-      <c r="Q16" s="278"/>
+      <c r="K16" s="286"/>
+      <c r="L16" s="286"/>
+      <c r="M16" s="286"/>
+      <c r="N16" s="286"/>
+      <c r="O16" s="286"/>
+      <c r="P16" s="286"/>
+      <c r="Q16" s="286"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="6"/>
@@ -6044,23 +6151,23 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="236" t="s">
+      <c r="F17" s="217" t="s">
         <v>179</v>
       </c>
-      <c r="G17" s="277"/>
-      <c r="H17" s="277"/>
-      <c r="I17" s="277"/>
-      <c r="J17" s="279" t="str">
+      <c r="G17" s="278"/>
+      <c r="H17" s="278"/>
+      <c r="I17" s="278"/>
+      <c r="J17" s="276" t="str">
         <f>'лист титульный КД'!N13</f>
         <v>Петров П.П.</v>
       </c>
-      <c r="K17" s="279"/>
-      <c r="L17" s="279"/>
-      <c r="M17" s="279"/>
-      <c r="N17" s="279"/>
-      <c r="O17" s="279"/>
-      <c r="P17" s="279"/>
-      <c r="Q17" s="279"/>
+      <c r="K17" s="276"/>
+      <c r="L17" s="276"/>
+      <c r="M17" s="276"/>
+      <c r="N17" s="276"/>
+      <c r="O17" s="276"/>
+      <c r="P17" s="276"/>
+      <c r="Q17" s="276"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="6"/>
@@ -6071,25 +6178,25 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="236" t="s">
+      <c r="F18" s="217" t="s">
         <v>178</v>
       </c>
-      <c r="G18" s="277"/>
-      <c r="H18" s="277"/>
-      <c r="I18" s="277"/>
-      <c r="J18" s="278" t="str">
+      <c r="G18" s="278"/>
+      <c r="H18" s="278"/>
+      <c r="I18" s="278"/>
+      <c r="J18" s="286" t="str">
         <f>'лист титульный КД'!N14</f>
         <v>г. Москва, ул. Нарвская, д.2</v>
       </c>
-      <c r="K18" s="280"/>
-      <c r="L18" s="280"/>
-      <c r="M18" s="280"/>
-      <c r="N18" s="280"/>
-      <c r="O18" s="280"/>
-      <c r="P18" s="280"/>
-      <c r="Q18" s="280"/>
-      <c r="R18" s="280"/>
-      <c r="S18" s="280"/>
+      <c r="K18" s="289"/>
+      <c r="L18" s="289"/>
+      <c r="M18" s="289"/>
+      <c r="N18" s="289"/>
+      <c r="O18" s="289"/>
+      <c r="P18" s="289"/>
+      <c r="Q18" s="289"/>
+      <c r="R18" s="289"/>
+      <c r="S18" s="289"/>
       <c r="T18" s="6"/>
     </row>
     <row r="19" spans="1:20" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -6098,23 +6205,23 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="236" t="s">
+      <c r="F19" s="217" t="s">
         <v>177</v>
       </c>
-      <c r="G19" s="277"/>
-      <c r="H19" s="277"/>
-      <c r="I19" s="277"/>
-      <c r="J19" s="279" t="str">
+      <c r="G19" s="278"/>
+      <c r="H19" s="278"/>
+      <c r="I19" s="278"/>
+      <c r="J19" s="276" t="str">
         <f>'лист титульный КД'!N15</f>
         <v>восьмой</v>
       </c>
-      <c r="K19" s="279"/>
-      <c r="L19" s="279"/>
-      <c r="M19" s="279"/>
-      <c r="N19" s="279"/>
-      <c r="O19" s="279"/>
-      <c r="P19" s="279"/>
-      <c r="Q19" s="279"/>
+      <c r="K19" s="276"/>
+      <c r="L19" s="276"/>
+      <c r="M19" s="276"/>
+      <c r="N19" s="276"/>
+      <c r="O19" s="276"/>
+      <c r="P19" s="276"/>
+      <c r="Q19" s="276"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="6"/>
@@ -6125,23 +6232,23 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="236" t="s">
+      <c r="F20" s="217" t="s">
         <v>176</v>
       </c>
-      <c r="G20" s="277"/>
-      <c r="H20" s="277"/>
-      <c r="I20" s="277"/>
-      <c r="J20" s="279" t="str">
+      <c r="G20" s="278"/>
+      <c r="H20" s="278"/>
+      <c r="I20" s="278"/>
+      <c r="J20" s="276" t="str">
         <f>'лист титульный КД'!N16</f>
         <v>кухня</v>
       </c>
-      <c r="K20" s="279"/>
-      <c r="L20" s="279"/>
-      <c r="M20" s="279"/>
-      <c r="N20" s="279"/>
-      <c r="O20" s="279"/>
-      <c r="P20" s="279"/>
-      <c r="Q20" s="279"/>
+      <c r="K20" s="276"/>
+      <c r="L20" s="276"/>
+      <c r="M20" s="276"/>
+      <c r="N20" s="276"/>
+      <c r="O20" s="276"/>
+      <c r="P20" s="276"/>
+      <c r="Q20" s="276"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="6"/>
@@ -6152,23 +6259,23 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="236" t="s">
+      <c r="F21" s="217" t="s">
         <v>175</v>
       </c>
-      <c r="G21" s="277"/>
-      <c r="H21" s="277"/>
-      <c r="I21" s="277"/>
-      <c r="J21" s="278" t="str">
+      <c r="G21" s="278"/>
+      <c r="H21" s="278"/>
+      <c r="I21" s="278"/>
+      <c r="J21" s="286" t="str">
         <f>'лист титульный КД'!N17</f>
         <v>гарнитур кухонный, дверной блок</v>
       </c>
-      <c r="K21" s="278"/>
-      <c r="L21" s="278"/>
-      <c r="M21" s="278"/>
-      <c r="N21" s="278"/>
-      <c r="O21" s="278"/>
-      <c r="P21" s="278"/>
-      <c r="Q21" s="278"/>
+      <c r="K21" s="286"/>
+      <c r="L21" s="286"/>
+      <c r="M21" s="286"/>
+      <c r="N21" s="286"/>
+      <c r="O21" s="286"/>
+      <c r="P21" s="286"/>
+      <c r="Q21" s="286"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="6"/>
@@ -6179,23 +6286,23 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="236" t="s">
+      <c r="F22" s="217" t="s">
         <v>174</v>
       </c>
-      <c r="G22" s="277"/>
-      <c r="H22" s="277"/>
-      <c r="I22" s="277"/>
-      <c r="J22" s="279">
+      <c r="G22" s="278"/>
+      <c r="H22" s="278"/>
+      <c r="I22" s="278"/>
+      <c r="J22" s="276">
         <f>'лист титульный КД'!N18</f>
         <v>500</v>
       </c>
-      <c r="K22" s="279"/>
-      <c r="L22" s="279"/>
-      <c r="M22" s="279"/>
-      <c r="N22" s="279"/>
-      <c r="O22" s="279"/>
-      <c r="P22" s="279"/>
-      <c r="Q22" s="279"/>
+      <c r="K22" s="276"/>
+      <c r="L22" s="276"/>
+      <c r="M22" s="276"/>
+      <c r="N22" s="276"/>
+      <c r="O22" s="276"/>
+      <c r="P22" s="276"/>
+      <c r="Q22" s="276"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="6"/>
@@ -6206,23 +6313,23 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="236" t="s">
+      <c r="F23" s="217" t="s">
         <v>173</v>
       </c>
-      <c r="G23" s="277"/>
-      <c r="H23" s="277"/>
-      <c r="I23" s="277"/>
-      <c r="J23" s="279" t="str">
+      <c r="G23" s="278"/>
+      <c r="H23" s="278"/>
+      <c r="I23" s="278"/>
+      <c r="J23" s="276" t="str">
         <f>'лист титульный КД'!N19</f>
         <v>1-15,16</v>
       </c>
-      <c r="K23" s="279"/>
-      <c r="L23" s="279"/>
-      <c r="M23" s="279"/>
-      <c r="N23" s="279"/>
-      <c r="O23" s="279"/>
-      <c r="P23" s="279"/>
-      <c r="Q23" s="279"/>
+      <c r="K23" s="276"/>
+      <c r="L23" s="276"/>
+      <c r="M23" s="276"/>
+      <c r="N23" s="276"/>
+      <c r="O23" s="276"/>
+      <c r="P23" s="276"/>
+      <c r="Q23" s="276"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="6"/>
@@ -6322,12 +6429,12 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="281" t="s">
+      <c r="G28" s="277" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="282"/>
-      <c r="I28" s="282"/>
-      <c r="J28" s="282"/>
+      <c r="H28" s="274"/>
+      <c r="I28" s="274"/>
+      <c r="J28" s="274"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -6336,44 +6443,44 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
-      <c r="S28" s="125"/>
+      <c r="S28" s="119"/>
       <c r="T28" s="6"/>
     </row>
-    <row r="29" spans="1:20" s="135" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="288" t="s">
+    <row r="29" spans="1:20" s="129" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="273" t="s">
         <v>185</v>
       </c>
-      <c r="B29" s="282"/>
-      <c r="C29" s="282"/>
-      <c r="D29" s="282"/>
-      <c r="E29" s="282"/>
-      <c r="F29" s="282"/>
-      <c r="G29" s="282"/>
-      <c r="H29" s="282"/>
-      <c r="I29" s="282"/>
-      <c r="J29" s="282"/>
-      <c r="K29" s="285" t="str">
+      <c r="B29" s="274"/>
+      <c r="C29" s="274"/>
+      <c r="D29" s="274"/>
+      <c r="E29" s="274"/>
+      <c r="F29" s="274"/>
+      <c r="G29" s="274"/>
+      <c r="H29" s="274"/>
+      <c r="I29" s="274"/>
+      <c r="J29" s="274"/>
+      <c r="K29" s="275" t="str">
         <f>IF(builder=0,"",builder)</f>
         <v>_________________</v>
       </c>
-      <c r="L29" s="285"/>
-      <c r="M29" s="285"/>
-      <c r="N29" s="285"/>
-      <c r="O29" s="285" t="s">
+      <c r="L29" s="275"/>
+      <c r="M29" s="275"/>
+      <c r="N29" s="275"/>
+      <c r="O29" s="275" t="s">
         <v>15</v>
       </c>
-      <c r="P29" s="285"/>
-      <c r="Q29" s="137" t="s">
+      <c r="P29" s="275"/>
+      <c r="Q29" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="R29" s="137" t="s">
+      <c r="R29" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="S29" s="145">
+      <c r="S29" s="139">
         <f ca="1">TODAY()</f>
-        <v>43568</v>
-      </c>
-      <c r="T29" s="136"/>
+        <v>43572</v>
+      </c>
+      <c r="T29" s="130"/>
     </row>
     <row r="30" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
@@ -6383,18 +6490,18 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="128"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="122"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="129"/>
-      <c r="R30" s="129"/>
-      <c r="S30" s="125"/>
+      <c r="Q30" s="123"/>
+      <c r="R30" s="123"/>
+      <c r="S30" s="119"/>
       <c r="T30" s="6"/>
     </row>
     <row r="31" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6404,92 +6511,92 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="281" t="s">
+      <c r="G31" s="277" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="282"/>
-      <c r="I31" s="282"/>
-      <c r="J31" s="282"/>
+      <c r="H31" s="274"/>
+      <c r="I31" s="274"/>
+      <c r="J31" s="274"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
-      <c r="Q31" s="129"/>
-      <c r="R31" s="129"/>
-      <c r="S31" s="125"/>
+      <c r="Q31" s="123"/>
+      <c r="R31" s="123"/>
+      <c r="S31" s="119"/>
       <c r="T31" s="6"/>
     </row>
-    <row r="32" spans="1:20" s="135" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="283" t="s">
+    <row r="32" spans="1:20" s="129" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="284" t="s">
         <v>172</v>
       </c>
-      <c r="B32" s="282"/>
-      <c r="C32" s="282"/>
-      <c r="D32" s="282"/>
-      <c r="E32" s="282"/>
-      <c r="F32" s="282"/>
-      <c r="G32" s="282"/>
-      <c r="H32" s="282"/>
-      <c r="I32" s="282"/>
-      <c r="J32" s="282"/>
-      <c r="K32" s="284" t="s">
+      <c r="B32" s="274"/>
+      <c r="C32" s="274"/>
+      <c r="D32" s="274"/>
+      <c r="E32" s="274"/>
+      <c r="F32" s="274"/>
+      <c r="G32" s="274"/>
+      <c r="H32" s="274"/>
+      <c r="I32" s="274"/>
+      <c r="J32" s="274"/>
+      <c r="K32" s="285" t="s">
         <v>14</v>
       </c>
-      <c r="L32" s="284"/>
-      <c r="M32" s="284"/>
-      <c r="N32" s="284"/>
-      <c r="O32" s="285" t="s">
+      <c r="L32" s="285"/>
+      <c r="M32" s="285"/>
+      <c r="N32" s="285"/>
+      <c r="O32" s="275" t="s">
         <v>15</v>
       </c>
-      <c r="P32" s="285"/>
-      <c r="Q32" s="137" t="s">
+      <c r="P32" s="275"/>
+      <c r="Q32" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="R32" s="137" t="s">
+      <c r="R32" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="S32" s="145">
+      <c r="S32" s="139">
         <f ca="1">TODAY()</f>
-        <v>43568</v>
-      </c>
-      <c r="T32" s="136"/>
-    </row>
-    <row r="33" spans="1:20" s="135" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="283" t="s">
+        <v>43572</v>
+      </c>
+      <c r="T32" s="130"/>
+    </row>
+    <row r="33" spans="1:20" s="129" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="284" t="s">
         <v>171</v>
       </c>
-      <c r="B33" s="282"/>
-      <c r="C33" s="282"/>
-      <c r="D33" s="282"/>
-      <c r="E33" s="282"/>
-      <c r="F33" s="282"/>
-      <c r="G33" s="282"/>
-      <c r="H33" s="282"/>
-      <c r="I33" s="282"/>
-      <c r="J33" s="282"/>
-      <c r="K33" s="284" t="s">
+      <c r="B33" s="274"/>
+      <c r="C33" s="274"/>
+      <c r="D33" s="274"/>
+      <c r="E33" s="274"/>
+      <c r="F33" s="274"/>
+      <c r="G33" s="274"/>
+      <c r="H33" s="274"/>
+      <c r="I33" s="274"/>
+      <c r="J33" s="274"/>
+      <c r="K33" s="285" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="284"/>
-      <c r="M33" s="284"/>
-      <c r="N33" s="284"/>
-      <c r="O33" s="285" t="s">
+      <c r="L33" s="285"/>
+      <c r="M33" s="285"/>
+      <c r="N33" s="285"/>
+      <c r="O33" s="275" t="s">
         <v>15</v>
       </c>
-      <c r="P33" s="285"/>
-      <c r="Q33" s="137" t="s">
+      <c r="P33" s="275"/>
+      <c r="Q33" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="R33" s="137" t="s">
+      <c r="R33" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="S33" s="145">
+      <c r="S33" s="139">
         <f ca="1">TODAY()</f>
-        <v>43568</v>
-      </c>
-      <c r="T33" s="136"/>
+        <v>43572</v>
+      </c>
+      <c r="T33" s="130"/>
     </row>
     <row r="34" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
@@ -6499,44 +6606,63 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="128"/>
-      <c r="I34" s="128"/>
-      <c r="J34" s="128"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="122"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
-      <c r="Q34" s="129"/>
-      <c r="R34" s="129"/>
-      <c r="S34" s="125"/>
+      <c r="Q34" s="123"/>
+      <c r="R34" s="123"/>
+      <c r="S34" s="119"/>
       <c r="T34" s="6"/>
     </row>
     <row r="35" spans="1:20" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="134"/>
-      <c r="B35" s="133"/>
-      <c r="C35" s="133"/>
-      <c r="D35" s="133"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="133"/>
-      <c r="G35" s="133"/>
-      <c r="H35" s="133"/>
-      <c r="I35" s="133"/>
-      <c r="J35" s="133"/>
-      <c r="K35" s="133"/>
-      <c r="L35" s="133"/>
-      <c r="M35" s="133"/>
-      <c r="N35" s="133"/>
-      <c r="O35" s="133"/>
-      <c r="P35" s="133"/>
-      <c r="Q35" s="133"/>
-      <c r="R35" s="133"/>
-      <c r="S35" s="133"/>
-      <c r="T35" s="132"/>
+      <c r="A35" s="128"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="127"/>
+      <c r="G35" s="127"/>
+      <c r="H35" s="127"/>
+      <c r="I35" s="127"/>
+      <c r="J35" s="127"/>
+      <c r="K35" s="127"/>
+      <c r="L35" s="127"/>
+      <c r="M35" s="127"/>
+      <c r="N35" s="127"/>
+      <c r="O35" s="127"/>
+      <c r="P35" s="127"/>
+      <c r="Q35" s="127"/>
+      <c r="R35" s="127"/>
+      <c r="S35" s="127"/>
+      <c r="T35" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="E12:P14"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="J18:S18"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="O32:P32"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="A29:J29"/>
@@ -6553,25 +6679,6 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="E12:P14"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="J18:S18"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -6592,389 +6699,389 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="11.125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="31.25" style="30" customWidth="1"/>
-    <col min="6" max="6" width="48.75" style="30" customWidth="1"/>
-    <col min="7" max="8" width="31.25" style="30" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="30" customWidth="1"/>
-    <col min="11" max="11" width="22.5" style="30" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="30"/>
+    <col min="1" max="4" width="11.125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="29" customWidth="1"/>
+    <col min="6" max="6" width="48.75" style="29" customWidth="1"/>
+    <col min="7" max="8" width="31.25" style="29" customWidth="1"/>
+    <col min="9" max="10" width="12.875" style="29" customWidth="1"/>
+    <col min="11" max="11" width="22.5" style="29" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="294" t="s">
+      <c r="A1" s="290" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="295"/>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="295"/>
-      <c r="I1" s="295"/>
-      <c r="J1" s="295"/>
-      <c r="K1" s="296"/>
-    </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="124.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="44" t="s">
+      <c r="B1" s="291"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="291"/>
+      <c r="H1" s="291"/>
+      <c r="I1" s="291"/>
+      <c r="J1" s="291"/>
+      <c r="K1" s="292"/>
+    </row>
+    <row r="2" spans="1:11" s="35" customFormat="1" ht="124.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="36" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="41"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="37"/>
-    </row>
-    <row r="4" spans="1:11" s="36" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="41"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="37"/>
-    </row>
-    <row r="5" spans="1:11" s="36" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="41"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="37"/>
-    </row>
-    <row r="6" spans="1:11" s="36" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="41"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="37"/>
-    </row>
-    <row r="7" spans="1:11" s="36" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="41"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="37"/>
-    </row>
-    <row r="8" spans="1:11" s="36" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="41"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="37"/>
-    </row>
-    <row r="9" spans="1:11" s="36" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="41"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="37"/>
-    </row>
-    <row r="10" spans="1:11" s="36" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="41"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="37"/>
+    <row r="3" spans="1:11" s="35" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="40"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="36"/>
+    </row>
+    <row r="4" spans="1:11" s="35" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="40"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="36"/>
+    </row>
+    <row r="5" spans="1:11" s="35" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="40"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="36"/>
+    </row>
+    <row r="6" spans="1:11" s="35" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="40"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="36"/>
+    </row>
+    <row r="7" spans="1:11" s="35" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="40"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="36"/>
+    </row>
+    <row r="8" spans="1:11" s="35" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="40"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="36"/>
+    </row>
+    <row r="9" spans="1:11" s="35" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="40"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="36"/>
+    </row>
+    <row r="10" spans="1:11" s="35" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="40"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="35"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="31"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="35"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="31"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="35"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="31"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="35"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="31"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="30"/>
     </row>
     <row r="15" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="35"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="31"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="30"/>
     </row>
     <row r="16" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="35"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="31"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="30"/>
     </row>
     <row r="17" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="35"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="31"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="30"/>
     </row>
     <row r="18" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="35"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="31"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="30"/>
     </row>
     <row r="19" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="35"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="31"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="30"/>
     </row>
     <row r="20" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="35"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="31"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="30"/>
     </row>
     <row r="21" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="35"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="31"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="30"/>
     </row>
     <row r="22" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="35"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="31"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="30"/>
     </row>
     <row r="23" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="35"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="31"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="30"/>
     </row>
     <row r="24" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="35"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="31"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="30"/>
     </row>
     <row r="25" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="35"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="31"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="30"/>
     </row>
     <row r="26" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="35"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="31"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="30"/>
     </row>
     <row r="27" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="35"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="31"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:K27"/>
@@ -7000,925 +7107,925 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="11.125" style="30" customWidth="1"/>
-    <col min="7" max="7" width="32.125" style="30" customWidth="1"/>
-    <col min="8" max="9" width="26.875" style="30" customWidth="1"/>
-    <col min="10" max="12" width="13.75" style="30" customWidth="1"/>
-    <col min="13" max="19" width="26.875" style="30" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="30"/>
+    <col min="1" max="6" width="11.125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="32.125" style="29" customWidth="1"/>
+    <col min="8" max="9" width="26.875" style="29" customWidth="1"/>
+    <col min="10" max="12" width="13.75" style="29" customWidth="1"/>
+    <col min="13" max="19" width="26.875" style="29" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="299" t="s">
+      <c r="A1" s="295" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="300"/>
-      <c r="C1" s="300"/>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
-      <c r="G1" s="300"/>
-      <c r="H1" s="300"/>
-      <c r="I1" s="300"/>
-      <c r="J1" s="300"/>
-      <c r="K1" s="300"/>
-      <c r="L1" s="300"/>
-      <c r="M1" s="300"/>
-      <c r="N1" s="300"/>
-      <c r="O1" s="300"/>
-      <c r="P1" s="300"/>
-      <c r="Q1" s="300"/>
-      <c r="R1" s="300"/>
-      <c r="S1" s="301"/>
-    </row>
-    <row r="2" spans="1:19" s="77" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="302" t="s">
+      <c r="B1" s="296"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="296"/>
+      <c r="L1" s="296"/>
+      <c r="M1" s="296"/>
+      <c r="N1" s="296"/>
+      <c r="O1" s="296"/>
+      <c r="P1" s="296"/>
+      <c r="Q1" s="296"/>
+      <c r="R1" s="296"/>
+      <c r="S1" s="297"/>
+    </row>
+    <row r="2" spans="1:19" s="76" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="298" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="302" t="s">
+      <c r="B2" s="298" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="302" t="s">
+      <c r="C2" s="298" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="302" t="s">
+      <c r="D2" s="298" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="302" t="s">
+      <c r="E2" s="298" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="302" t="s">
+      <c r="F2" s="298" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="302" t="s">
+      <c r="G2" s="298" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="81" t="s">
+      <c r="I2" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="305" t="s">
+      <c r="J2" s="301" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="306"/>
-      <c r="L2" s="306"/>
-      <c r="M2" s="78" t="s">
+      <c r="K2" s="302"/>
+      <c r="L2" s="302"/>
+      <c r="M2" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="81" t="s">
+      <c r="N2" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="O2" s="80" t="s">
+      <c r="O2" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="78" t="s">
+      <c r="P2" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="Q2" s="79" t="s">
+      <c r="Q2" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="R2" s="79" t="s">
+      <c r="R2" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="S2" s="78" t="s">
+      <c r="S2" s="77" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="67" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="303"/>
-      <c r="B3" s="303"/>
-      <c r="C3" s="303"/>
-      <c r="D3" s="303"/>
-      <c r="E3" s="303"/>
-      <c r="F3" s="303"/>
-      <c r="G3" s="303"/>
-      <c r="H3" s="73" t="s">
+    <row r="3" spans="1:19" s="66" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="299"/>
+      <c r="B3" s="299"/>
+      <c r="C3" s="299"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="299"/>
+      <c r="F3" s="299"/>
+      <c r="G3" s="299"/>
+      <c r="H3" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="72" t="s">
+      <c r="I3" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="72" t="s">
+      <c r="J3" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="K3" s="72" t="s">
+      <c r="K3" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="L3" s="72" t="s">
+      <c r="L3" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="M3" s="71" t="s">
+      <c r="M3" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="N3" s="71" t="s">
+      <c r="N3" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="O3" s="71" t="s">
+      <c r="O3" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="P3" s="71" t="s">
+      <c r="P3" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" s="71" t="s">
+      <c r="Q3" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="69" t="s">
+      <c r="R3" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="S3" s="76" t="s">
+      <c r="S3" s="75" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="67" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="303"/>
-      <c r="B4" s="303"/>
-      <c r="C4" s="303"/>
-      <c r="D4" s="303"/>
-      <c r="E4" s="303"/>
-      <c r="F4" s="303"/>
-      <c r="G4" s="303"/>
-      <c r="H4" s="73" t="s">
+    <row r="4" spans="1:19" s="66" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="299"/>
+      <c r="B4" s="299"/>
+      <c r="C4" s="299"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="70" t="s">
+      <c r="I4" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="297" t="s">
+      <c r="J4" s="293" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="298"/>
-      <c r="L4" s="298"/>
-      <c r="M4" s="74" t="s">
+      <c r="K4" s="294"/>
+      <c r="L4" s="294"/>
+      <c r="M4" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="73" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="67" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="304"/>
-      <c r="B5" s="304"/>
-      <c r="C5" s="304"/>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
-      <c r="F5" s="304"/>
-      <c r="G5" s="304"/>
-      <c r="H5" s="73" t="s">
+    <row r="5" spans="1:19" s="66" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="300"/>
+      <c r="B5" s="300"/>
+      <c r="C5" s="300"/>
+      <c r="D5" s="300"/>
+      <c r="E5" s="300"/>
+      <c r="F5" s="300"/>
+      <c r="G5" s="300"/>
+      <c r="H5" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="297" t="s">
+      <c r="J5" s="293" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="298"/>
-      <c r="L5" s="298"/>
-      <c r="M5" s="72" t="s">
+      <c r="K5" s="294"/>
+      <c r="L5" s="294"/>
+      <c r="M5" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="71" t="s">
+      <c r="N5" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="68"/>
-      <c r="P5" s="70" t="s">
+      <c r="O5" s="67"/>
+      <c r="P5" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="70" t="s">
+      <c r="Q5" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="R5" s="69" t="s">
+      <c r="R5" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="68"/>
-    </row>
-    <row r="6" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="66"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62">
+      <c r="S5" s="67"/>
+    </row>
+    <row r="6" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="65"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61">
         <v>1500</v>
       </c>
-      <c r="K6" s="62">
+      <c r="K6" s="61">
         <v>800</v>
       </c>
-      <c r="L6" s="62">
+      <c r="L6" s="61">
         <v>8</v>
       </c>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="60"/>
-    </row>
-    <row r="7" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="66"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62" t="s">
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="59"/>
+    </row>
+    <row r="7" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="65"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="62" t="s">
+      <c r="K7" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="62" t="s">
+      <c r="L7" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="60"/>
-    </row>
-    <row r="8" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="66"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62" t="s">
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="59"/>
+    </row>
+    <row r="8" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="65"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="62" t="s">
+      <c r="K8" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="62" t="s">
+      <c r="L8" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="60"/>
-    </row>
-    <row r="9" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="59"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="53"/>
-    </row>
-    <row r="10" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="59"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="53"/>
-    </row>
-    <row r="11" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="59"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="53"/>
-    </row>
-    <row r="12" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="59"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="53"/>
-    </row>
-    <row r="13" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="59"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="53"/>
-    </row>
-    <row r="14" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="59"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="53"/>
-    </row>
-    <row r="15" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="59"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="53"/>
-    </row>
-    <row r="16" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="59"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="53"/>
-    </row>
-    <row r="17" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="59"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="53"/>
-    </row>
-    <row r="18" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="59"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="53"/>
-    </row>
-    <row r="19" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="59"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="53"/>
-    </row>
-    <row r="20" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="59"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="53"/>
-    </row>
-    <row r="21" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="59"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="53"/>
-    </row>
-    <row r="22" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="59"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="53"/>
-    </row>
-    <row r="23" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="59"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="53"/>
-    </row>
-    <row r="24" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="59"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="53"/>
-    </row>
-    <row r="25" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="59"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="53"/>
-    </row>
-    <row r="26" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="59"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="53"/>
-    </row>
-    <row r="27" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="59"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="53"/>
-    </row>
-    <row r="28" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="59"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="53"/>
-    </row>
-    <row r="29" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="59"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="53"/>
-    </row>
-    <row r="30" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="59"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="53"/>
-    </row>
-    <row r="31" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="59"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="53"/>
-    </row>
-    <row r="32" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="59"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="53"/>
-    </row>
-    <row r="33" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="59"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="53"/>
-    </row>
-    <row r="34" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="59"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="53"/>
-    </row>
-    <row r="35" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="59"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="53"/>
-    </row>
-    <row r="36" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="59"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="53"/>
-    </row>
-    <row r="37" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="59"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="55"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="55"/>
-      <c r="R37" s="54"/>
-      <c r="S37" s="53"/>
-    </row>
-    <row r="38" spans="1:19" s="45" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="52"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="47"/>
-      <c r="S38" s="46"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="59"/>
+    </row>
+    <row r="9" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="58"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="52"/>
+    </row>
+    <row r="10" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="58"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="52"/>
+    </row>
+    <row r="11" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="58"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="52"/>
+    </row>
+    <row r="12" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="58"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="52"/>
+    </row>
+    <row r="13" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="58"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="52"/>
+    </row>
+    <row r="14" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="58"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="52"/>
+    </row>
+    <row r="15" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="58"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="52"/>
+    </row>
+    <row r="16" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="58"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="52"/>
+    </row>
+    <row r="17" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="58"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="52"/>
+    </row>
+    <row r="18" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="58"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="52"/>
+    </row>
+    <row r="19" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="58"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="52"/>
+    </row>
+    <row r="20" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="58"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="52"/>
+    </row>
+    <row r="21" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="58"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="52"/>
+    </row>
+    <row r="22" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="58"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="52"/>
+    </row>
+    <row r="23" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="58"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="52"/>
+    </row>
+    <row r="24" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="58"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="52"/>
+    </row>
+    <row r="25" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="58"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="52"/>
+    </row>
+    <row r="26" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="58"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="52"/>
+    </row>
+    <row r="27" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="58"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="52"/>
+    </row>
+    <row r="28" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="58"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="52"/>
+    </row>
+    <row r="29" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="58"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="52"/>
+    </row>
+    <row r="30" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="58"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="52"/>
+    </row>
+    <row r="31" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="58"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="52"/>
+    </row>
+    <row r="32" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="58"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="52"/>
+    </row>
+    <row r="33" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="58"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="52"/>
+    </row>
+    <row r="34" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="58"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="52"/>
+    </row>
+    <row r="35" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="58"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="52"/>
+    </row>
+    <row r="36" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="58"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="52"/>
+    </row>
+    <row r="37" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="58"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="52"/>
+    </row>
+    <row r="38" spans="1:19" s="44" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="51"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7952,467 +8059,467 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="30" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="30" customWidth="1"/>
-    <col min="4" max="4" width="13" style="30" customWidth="1"/>
-    <col min="5" max="5" width="26.875" style="30" customWidth="1"/>
-    <col min="6" max="6" width="36.5" style="30" customWidth="1"/>
-    <col min="7" max="9" width="18.125" style="30" customWidth="1"/>
-    <col min="10" max="10" width="22.5" style="30" customWidth="1"/>
-    <col min="11" max="11" width="15.875" style="30" customWidth="1"/>
-    <col min="12" max="12" width="12.875" style="30" customWidth="1"/>
-    <col min="13" max="13" width="18.125" style="30" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="30"/>
+    <col min="1" max="1" width="11.125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="29" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="13" style="29" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="36.5" style="29" customWidth="1"/>
+    <col min="7" max="9" width="18.125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="22.5" style="29" customWidth="1"/>
+    <col min="11" max="11" width="15.875" style="29" customWidth="1"/>
+    <col min="12" max="12" width="12.875" style="29" customWidth="1"/>
+    <col min="13" max="13" width="18.125" style="29" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="294" t="s">
+      <c r="A1" s="290" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="295"/>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="295"/>
-      <c r="I1" s="295"/>
-      <c r="J1" s="295"/>
-      <c r="K1" s="295"/>
-      <c r="L1" s="295"/>
-      <c r="M1" s="296"/>
-    </row>
-    <row r="2" spans="1:13" s="36" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="87" t="s">
+      <c r="B1" s="291"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="291"/>
+      <c r="H1" s="291"/>
+      <c r="I1" s="291"/>
+      <c r="J1" s="291"/>
+      <c r="K1" s="291"/>
+      <c r="L1" s="291"/>
+      <c r="M1" s="292"/>
+    </row>
+    <row r="2" spans="1:13" s="35" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="87" t="s">
+      <c r="J2" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="K2" s="87" t="s">
+      <c r="K2" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="87" t="s">
+      <c r="L2" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="M2" s="87" t="s">
+      <c r="M2" s="86" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="35"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="31"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="30"/>
     </row>
     <row r="4" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="35"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="31"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="30"/>
     </row>
     <row r="5" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="35"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="31"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="30"/>
     </row>
     <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="35"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="31"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="30"/>
     </row>
     <row r="7" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="35"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="31"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="30"/>
     </row>
     <row r="8" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="35"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="31"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="30"/>
     </row>
     <row r="9" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="35"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="31"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="30"/>
     </row>
     <row r="10" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="35"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="31"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="30"/>
     </row>
     <row r="11" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="35"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="31"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="35"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="31"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="30"/>
     </row>
     <row r="13" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="35"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="31"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="30"/>
     </row>
     <row r="14" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="35"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="31"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="30"/>
     </row>
     <row r="15" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="35"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="31"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="30"/>
     </row>
     <row r="16" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="35"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="31"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="30"/>
     </row>
     <row r="17" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="35"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="31"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="30"/>
     </row>
     <row r="18" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="35"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="31"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="30"/>
     </row>
     <row r="19" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="35"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="31"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="30"/>
     </row>
     <row r="20" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="35"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="31"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="30"/>
     </row>
     <row r="21" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="35"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="31"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="30"/>
     </row>
     <row r="22" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="35"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="31"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="30"/>
     </row>
     <row r="23" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="35"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="31"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="30"/>
     </row>
     <row r="24" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="35"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="31"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="30"/>
     </row>
     <row r="25" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="35"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="31"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="30"/>
     </row>
     <row r="26" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="35"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="31"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="30"/>
     </row>
     <row r="27" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="35"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="31"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="30"/>
     </row>
     <row r="28" spans="1:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="86"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="82"/>
+      <c r="A28" s="85"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="81"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:M28"/>

--- a/dist/files/xls/shablon-kd.xlsx
+++ b/dist/files/xls/shablon-kd.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sshishenko\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OPEN_SERVER\OSPanel\domains\localhost\www\dist\files\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -727,7 +727,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy"/>
   </numFmts>
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1096,14 +1096,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="AIGDT"/>
@@ -1819,7 +1811,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="321">
+  <cellXfs count="323">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2258,244 +2250,275 @@
     <xf numFmtId="0" fontId="41" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2515,6 +2538,39 @@
     <xf numFmtId="0" fontId="35" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -2524,21 +2580,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -2553,24 +2594,6 @@
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2614,46 +2637,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3067,25 +3061,25 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="234" t="s">
+      <c r="I2" s="233" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="235"/>
-      <c r="K2" s="235"/>
-      <c r="L2" s="235"/>
-      <c r="M2" s="235"/>
-      <c r="N2" s="236"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
+      <c r="M2" s="234"/>
+      <c r="N2" s="235"/>
       <c r="O2" s="98"/>
-      <c r="P2" s="247" t="s">
+      <c r="P2" s="213" t="s">
         <v>159</v>
       </c>
-      <c r="Q2" s="248"/>
-      <c r="R2" s="248"/>
-      <c r="S2" s="248"/>
-      <c r="T2" s="248"/>
-      <c r="U2" s="248"/>
-      <c r="V2" s="249"/>
-      <c r="W2" s="250"/>
+      <c r="Q2" s="214"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="214"/>
+      <c r="T2" s="214"/>
+      <c r="U2" s="214"/>
+      <c r="V2" s="215"/>
+      <c r="W2" s="216"/>
       <c r="X2" s="12"/>
       <c r="Z2" s="12"/>
       <c r="AA2" s="12"/>
@@ -3120,10 +3114,10 @@
         <v>30</v>
       </c>
       <c r="K3" s="101"/>
-      <c r="L3" s="216" t="s">
+      <c r="L3" s="236" t="s">
         <v>192</v>
       </c>
-      <c r="M3" s="216"/>
+      <c r="M3" s="236"/>
       <c r="N3" s="178" t="s">
         <v>31</v>
       </c>
@@ -3135,10 +3129,10 @@
         <v>38</v>
       </c>
       <c r="R3" s="101"/>
-      <c r="S3" s="216" t="s">
+      <c r="S3" s="236" t="s">
         <v>192</v>
       </c>
-      <c r="T3" s="216"/>
+      <c r="T3" s="236"/>
       <c r="U3" s="102" t="s">
         <v>35</v>
       </c>
@@ -3146,19 +3140,19 @@
       <c r="W3" s="26"/>
       <c r="X3" s="12"/>
       <c r="Z3" s="12"/>
-      <c r="AA3" s="215"/>
-      <c r="AB3" s="215"/>
-      <c r="AC3" s="215"/>
-      <c r="AD3" s="215"/>
-      <c r="AE3" s="215"/>
-      <c r="AF3" s="215"/>
+      <c r="AA3" s="262"/>
+      <c r="AB3" s="262"/>
+      <c r="AC3" s="262"/>
+      <c r="AD3" s="262"/>
+      <c r="AE3" s="262"/>
+      <c r="AF3" s="262"/>
       <c r="AG3" s="98"/>
-      <c r="AH3" s="216"/>
-      <c r="AI3" s="216"/>
-      <c r="AJ3" s="216"/>
-      <c r="AK3" s="216"/>
-      <c r="AL3" s="216"/>
-      <c r="AM3" s="216"/>
+      <c r="AH3" s="236"/>
+      <c r="AI3" s="236"/>
+      <c r="AJ3" s="236"/>
+      <c r="AK3" s="236"/>
+      <c r="AL3" s="236"/>
+      <c r="AM3" s="236"/>
       <c r="AN3" s="158"/>
       <c r="AO3" s="25"/>
     </row>
@@ -3178,10 +3172,10 @@
         <v>32</v>
       </c>
       <c r="K4" s="98"/>
-      <c r="L4" s="195" t="s">
+      <c r="L4" s="226" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="195"/>
+      <c r="M4" s="226"/>
       <c r="N4" s="179" t="s">
         <v>158</v>
       </c>
@@ -3189,14 +3183,14 @@
       <c r="P4" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="183" t="s">
+      <c r="Q4" s="182" t="s">
         <v>195</v>
       </c>
       <c r="R4" s="98"/>
-      <c r="S4" s="195" t="s">
+      <c r="S4" s="226" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="195"/>
+      <c r="T4" s="226"/>
       <c r="U4" s="176" t="s">
         <v>158</v>
       </c>
@@ -3207,15 +3201,15 @@
       <c r="AA4" s="170"/>
       <c r="AB4" s="100"/>
       <c r="AC4" s="101"/>
-      <c r="AD4" s="216"/>
-      <c r="AE4" s="216"/>
+      <c r="AD4" s="236"/>
+      <c r="AE4" s="236"/>
       <c r="AF4" s="171"/>
       <c r="AG4" s="98"/>
       <c r="AH4" s="170"/>
       <c r="AI4" s="100"/>
       <c r="AJ4" s="101"/>
-      <c r="AK4" s="216"/>
-      <c r="AL4" s="216"/>
+      <c r="AK4" s="236"/>
+      <c r="AL4" s="236"/>
       <c r="AM4" s="112"/>
       <c r="AN4" s="112"/>
       <c r="AO4" s="25"/>
@@ -3236,10 +3230,10 @@
         <v>157</v>
       </c>
       <c r="K5" s="98"/>
-      <c r="L5" s="195" t="s">
+      <c r="L5" s="226" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="195"/>
+      <c r="M5" s="226"/>
       <c r="N5" s="178" t="s">
         <v>156</v>
       </c>
@@ -3251,10 +3245,10 @@
         <v>157</v>
       </c>
       <c r="R5" s="98"/>
-      <c r="S5" s="195" t="s">
+      <c r="S5" s="226" t="s">
         <v>40</v>
       </c>
-      <c r="T5" s="195"/>
+      <c r="T5" s="226"/>
       <c r="U5" s="102" t="s">
         <v>156</v>
       </c>
@@ -3265,15 +3259,15 @@
       <c r="AA5" s="170"/>
       <c r="AB5" s="102"/>
       <c r="AC5" s="98"/>
-      <c r="AD5" s="195"/>
-      <c r="AE5" s="195"/>
+      <c r="AD5" s="226"/>
+      <c r="AE5" s="226"/>
       <c r="AF5" s="172"/>
       <c r="AG5" s="98"/>
       <c r="AH5" s="170"/>
       <c r="AI5" s="102"/>
       <c r="AJ5" s="98"/>
-      <c r="AK5" s="195"/>
-      <c r="AL5" s="195"/>
+      <c r="AK5" s="226"/>
+      <c r="AL5" s="226"/>
       <c r="AM5" s="113"/>
       <c r="AN5" s="113"/>
       <c r="AO5" s="133"/>
@@ -3301,10 +3295,10 @@
         <v>155</v>
       </c>
       <c r="R6" s="98"/>
-      <c r="S6" s="195" t="s">
+      <c r="S6" s="226" t="s">
         <v>40</v>
       </c>
-      <c r="T6" s="195"/>
+      <c r="T6" s="226"/>
       <c r="U6" s="102" t="s">
         <v>154</v>
       </c>
@@ -3315,15 +3309,15 @@
       <c r="AA6" s="170"/>
       <c r="AB6" s="102"/>
       <c r="AC6" s="98"/>
-      <c r="AD6" s="195"/>
-      <c r="AE6" s="195"/>
+      <c r="AD6" s="226"/>
+      <c r="AE6" s="226"/>
       <c r="AF6" s="171"/>
       <c r="AG6" s="98"/>
       <c r="AH6" s="170"/>
       <c r="AI6" s="102"/>
       <c r="AJ6" s="98"/>
-      <c r="AK6" s="195"/>
-      <c r="AL6" s="195"/>
+      <c r="AK6" s="226"/>
+      <c r="AL6" s="226"/>
       <c r="AM6" s="112"/>
       <c r="AN6" s="112"/>
       <c r="AO6" s="12"/>
@@ -3344,10 +3338,10 @@
         <v>33</v>
       </c>
       <c r="K7" s="98"/>
-      <c r="L7" s="195" t="s">
+      <c r="L7" s="226" t="s">
         <v>193</v>
       </c>
-      <c r="M7" s="195"/>
+      <c r="M7" s="226"/>
       <c r="N7" s="178" t="s">
         <v>34</v>
       </c>
@@ -3359,10 +3353,10 @@
         <v>189</v>
       </c>
       <c r="R7" s="98"/>
-      <c r="S7" s="195" t="s">
+      <c r="S7" s="226" t="s">
         <v>40</v>
       </c>
-      <c r="T7" s="195"/>
+      <c r="T7" s="226"/>
       <c r="U7" s="102" t="s">
         <v>190</v>
       </c>
@@ -3380,8 +3374,8 @@
       <c r="AH7" s="170"/>
       <c r="AI7" s="102"/>
       <c r="AJ7" s="98"/>
-      <c r="AK7" s="195"/>
-      <c r="AL7" s="195"/>
+      <c r="AK7" s="226"/>
+      <c r="AL7" s="226"/>
       <c r="AM7" s="102"/>
       <c r="AN7" s="102"/>
       <c r="AO7" s="24"/>
@@ -3415,10 +3409,10 @@
         <v>33</v>
       </c>
       <c r="R8" s="98"/>
-      <c r="S8" s="195" t="s">
+      <c r="S8" s="226" t="s">
         <v>40</v>
       </c>
-      <c r="T8" s="195"/>
+      <c r="T8" s="226"/>
       <c r="U8" s="102" t="s">
         <v>196</v>
       </c>
@@ -3429,15 +3423,15 @@
       <c r="AA8" s="170"/>
       <c r="AB8" s="102"/>
       <c r="AC8" s="98"/>
-      <c r="AD8" s="195"/>
-      <c r="AE8" s="195"/>
+      <c r="AD8" s="226"/>
+      <c r="AE8" s="226"/>
       <c r="AF8" s="171"/>
       <c r="AG8" s="98"/>
       <c r="AH8" s="170"/>
       <c r="AI8" s="102"/>
       <c r="AJ8" s="98"/>
-      <c r="AK8" s="195"/>
-      <c r="AL8" s="195"/>
+      <c r="AK8" s="226"/>
+      <c r="AL8" s="226"/>
       <c r="AM8" s="112"/>
       <c r="AN8" s="112"/>
       <c r="AO8" s="108"/>
@@ -3457,10 +3451,10 @@
       <c r="L9" s="167" t="s">
         <v>153</v>
       </c>
-      <c r="M9" s="256" t="s">
+      <c r="M9" s="222" t="s">
         <v>152</v>
       </c>
-      <c r="N9" s="257"/>
+      <c r="N9" s="223"/>
       <c r="O9" s="12"/>
       <c r="P9" s="99" t="s">
         <v>36</v>
@@ -3517,10 +3511,10 @@
         <v>39</v>
       </c>
       <c r="T10" s="175"/>
-      <c r="U10" s="185" t="s">
+      <c r="U10" s="184" t="s">
         <v>37</v>
       </c>
-      <c r="V10" s="185"/>
+      <c r="V10" s="184"/>
       <c r="W10" s="11"/>
       <c r="X10" s="12"/>
       <c r="Z10" s="12"/>
@@ -3541,41 +3535,41 @@
       <c r="AO10" s="12"/>
     </row>
     <row r="11" spans="1:41" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="260" t="s">
+      <c r="A11" s="227" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="261" t="s">
+      <c r="B11" s="228" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="263" t="s">
+      <c r="C11" s="230" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="263" t="s">
+      <c r="D11" s="230" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="263"/>
-      <c r="F11" s="263"/>
-      <c r="G11" s="263"/>
-      <c r="H11" s="264"/>
-      <c r="I11" s="253" t="s">
+      <c r="E11" s="230"/>
+      <c r="F11" s="230"/>
+      <c r="G11" s="230"/>
+      <c r="H11" s="231"/>
+      <c r="I11" s="219" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="254"/>
-      <c r="K11" s="254"/>
-      <c r="L11" s="254"/>
-      <c r="M11" s="254"/>
-      <c r="N11" s="254"/>
-      <c r="O11" s="254"/>
-      <c r="P11" s="254"/>
-      <c r="Q11" s="254"/>
-      <c r="R11" s="255"/>
-      <c r="S11" s="251" t="s">
+      <c r="J11" s="220"/>
+      <c r="K11" s="220"/>
+      <c r="L11" s="220"/>
+      <c r="M11" s="220"/>
+      <c r="N11" s="220"/>
+      <c r="O11" s="220"/>
+      <c r="P11" s="220"/>
+      <c r="Q11" s="220"/>
+      <c r="R11" s="221"/>
+      <c r="S11" s="217" t="s">
         <v>197</v>
       </c>
-      <c r="T11" s="251"/>
-      <c r="U11" s="251"/>
-      <c r="V11" s="251"/>
-      <c r="W11" s="252"/>
+      <c r="T11" s="217"/>
+      <c r="U11" s="217"/>
+      <c r="V11" s="217"/>
+      <c r="W11" s="218"/>
       <c r="X11" s="12"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
@@ -3595,42 +3589,42 @@
       <c r="AO11" s="12"/>
     </row>
     <row r="12" spans="1:41" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="258"/>
-      <c r="B12" s="262"/>
-      <c r="C12" s="241"/>
-      <c r="D12" s="230" t="s">
+      <c r="A12" s="224"/>
+      <c r="B12" s="229"/>
+      <c r="C12" s="204"/>
+      <c r="D12" s="206" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="230" t="s">
+      <c r="E12" s="206" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="230" t="s">
+      <c r="F12" s="206" t="s">
         <v>125</v>
       </c>
-      <c r="G12" s="230" t="s">
+      <c r="G12" s="206" t="s">
         <v>126</v>
       </c>
-      <c r="H12" s="232" t="s">
+      <c r="H12" s="209" t="s">
         <v>127</v>
       </c>
       <c r="I12" s="120"/>
-      <c r="J12" s="218" t="s">
+      <c r="J12" s="245" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="218"/>
-      <c r="L12" s="218"/>
-      <c r="M12" s="218"/>
-      <c r="N12" s="203" t="s">
+      <c r="K12" s="245"/>
+      <c r="L12" s="245"/>
+      <c r="M12" s="245"/>
+      <c r="N12" s="275" t="s">
         <v>170</v>
       </c>
-      <c r="O12" s="204"/>
-      <c r="P12" s="204"/>
-      <c r="Q12" s="204"/>
-      <c r="R12" s="204"/>
-      <c r="S12" s="204"/>
-      <c r="T12" s="204"/>
-      <c r="U12" s="204"/>
-      <c r="V12" s="204"/>
+      <c r="O12" s="276"/>
+      <c r="P12" s="276"/>
+      <c r="Q12" s="276"/>
+      <c r="R12" s="276"/>
+      <c r="S12" s="276"/>
+      <c r="T12" s="276"/>
+      <c r="U12" s="276"/>
+      <c r="V12" s="276"/>
       <c r="W12" s="6"/>
       <c r="X12" s="12"/>
       <c r="Z12" s="12"/>
@@ -3651,21 +3645,21 @@
       <c r="AO12" s="12"/>
     </row>
     <row r="13" spans="1:41" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="258"/>
-      <c r="B13" s="262"/>
-      <c r="C13" s="241"/>
-      <c r="D13" s="231"/>
-      <c r="E13" s="231"/>
-      <c r="F13" s="231"/>
-      <c r="G13" s="231"/>
-      <c r="H13" s="233"/>
+      <c r="A13" s="224"/>
+      <c r="B13" s="229"/>
+      <c r="C13" s="204"/>
+      <c r="D13" s="208"/>
+      <c r="E13" s="208"/>
+      <c r="F13" s="208"/>
+      <c r="G13" s="208"/>
+      <c r="H13" s="232"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="217" t="s">
+      <c r="J13" s="244" t="s">
         <v>169</v>
       </c>
-      <c r="K13" s="217"/>
-      <c r="L13" s="217"/>
-      <c r="M13" s="217"/>
+      <c r="K13" s="244"/>
+      <c r="L13" s="244"/>
+      <c r="M13" s="244"/>
       <c r="N13" s="142" t="s">
         <v>168</v>
       </c>
@@ -3697,48 +3691,48 @@
       <c r="AO13" s="12"/>
     </row>
     <row r="14" spans="1:41" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="258" t="s">
+      <c r="A14" s="224" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="241" t="s">
+      <c r="B14" s="204" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="241" t="s">
+      <c r="C14" s="204" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="241" t="s">
+      <c r="D14" s="204" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="241" t="s">
+      <c r="E14" s="204" t="s">
         <v>131</v>
       </c>
-      <c r="F14" s="241" t="s">
+      <c r="F14" s="204" t="s">
         <v>191</v>
       </c>
-      <c r="G14" s="230" t="s">
+      <c r="G14" s="206" t="s">
         <v>150</v>
       </c>
-      <c r="H14" s="232" t="s">
+      <c r="H14" s="209" t="s">
         <v>132</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="J14" s="217" t="s">
+      <c r="J14" s="244" t="s">
         <v>114</v>
       </c>
-      <c r="K14" s="217"/>
-      <c r="L14" s="217"/>
-      <c r="M14" s="217"/>
-      <c r="N14" s="227" t="s">
+      <c r="K14" s="244"/>
+      <c r="L14" s="244"/>
+      <c r="M14" s="244"/>
+      <c r="N14" s="263" t="s">
         <v>144</v>
       </c>
-      <c r="O14" s="228"/>
-      <c r="P14" s="228"/>
-      <c r="Q14" s="228"/>
-      <c r="R14" s="228"/>
-      <c r="S14" s="228"/>
-      <c r="T14" s="228"/>
-      <c r="U14" s="228"/>
-      <c r="V14" s="228"/>
+      <c r="O14" s="264"/>
+      <c r="P14" s="264"/>
+      <c r="Q14" s="264"/>
+      <c r="R14" s="264"/>
+      <c r="S14" s="264"/>
+      <c r="T14" s="264"/>
+      <c r="U14" s="264"/>
+      <c r="V14" s="264"/>
       <c r="W14" s="6"/>
       <c r="X14" s="12"/>
       <c r="Z14" s="12"/>
@@ -3759,21 +3753,21 @@
       <c r="AO14" s="12"/>
     </row>
     <row r="15" spans="1:41" ht="24" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="258"/>
-      <c r="B15" s="241"/>
-      <c r="C15" s="241"/>
-      <c r="D15" s="241"/>
-      <c r="E15" s="241"/>
-      <c r="F15" s="241"/>
-      <c r="G15" s="243"/>
-      <c r="H15" s="244"/>
+      <c r="A15" s="224"/>
+      <c r="B15" s="204"/>
+      <c r="C15" s="204"/>
+      <c r="D15" s="204"/>
+      <c r="E15" s="204"/>
+      <c r="F15" s="204"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="210"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="217" t="s">
+      <c r="J15" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="K15" s="217"/>
-      <c r="L15" s="217"/>
-      <c r="M15" s="217"/>
+      <c r="K15" s="244"/>
+      <c r="L15" s="244"/>
+      <c r="M15" s="244"/>
       <c r="N15" s="143" t="s">
         <v>166</v>
       </c>
@@ -3784,7 +3778,7 @@
       <c r="S15" s="124"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
-      <c r="V15" s="184"/>
+      <c r="V15" s="183"/>
       <c r="W15" s="6"/>
       <c r="X15" s="12"/>
       <c r="Z15" s="12"/>
@@ -3805,21 +3799,21 @@
       <c r="AO15" s="12"/>
     </row>
     <row r="16" spans="1:41" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="258"/>
-      <c r="B16" s="241"/>
-      <c r="C16" s="241"/>
-      <c r="D16" s="241"/>
-      <c r="E16" s="241"/>
-      <c r="F16" s="241"/>
-      <c r="G16" s="243"/>
-      <c r="H16" s="244"/>
+      <c r="A16" s="224"/>
+      <c r="B16" s="204"/>
+      <c r="C16" s="204"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="207"/>
+      <c r="H16" s="210"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="217" t="s">
+      <c r="J16" s="244" t="s">
         <v>165</v>
       </c>
-      <c r="K16" s="217"/>
-      <c r="L16" s="217"/>
-      <c r="M16" s="217"/>
+      <c r="K16" s="244"/>
+      <c r="L16" s="244"/>
+      <c r="M16" s="244"/>
       <c r="N16" s="143" t="s">
         <v>164</v>
       </c>
@@ -3849,67 +3843,67 @@
       <c r="AM16" s="12"/>
     </row>
     <row r="17" spans="1:39" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="258"/>
-      <c r="B17" s="241"/>
-      <c r="C17" s="241"/>
-      <c r="D17" s="241"/>
-      <c r="E17" s="241"/>
-      <c r="F17" s="241"/>
-      <c r="G17" s="231"/>
-      <c r="H17" s="244"/>
+      <c r="A17" s="224"/>
+      <c r="B17" s="204"/>
+      <c r="C17" s="204"/>
+      <c r="D17" s="204"/>
+      <c r="E17" s="204"/>
+      <c r="F17" s="204"/>
+      <c r="G17" s="208"/>
+      <c r="H17" s="210"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="217" t="s">
+      <c r="J17" s="244" t="s">
         <v>163</v>
       </c>
-      <c r="K17" s="217"/>
-      <c r="L17" s="217"/>
-      <c r="M17" s="217"/>
-      <c r="N17" s="227" t="s">
+      <c r="K17" s="244"/>
+      <c r="L17" s="244"/>
+      <c r="M17" s="244"/>
+      <c r="N17" s="263" t="s">
         <v>162</v>
       </c>
-      <c r="O17" s="228"/>
-      <c r="P17" s="228"/>
-      <c r="Q17" s="228"/>
-      <c r="R17" s="228"/>
-      <c r="S17" s="228"/>
-      <c r="T17" s="228"/>
-      <c r="U17" s="228"/>
-      <c r="V17" s="228"/>
+      <c r="O17" s="264"/>
+      <c r="P17" s="264"/>
+      <c r="Q17" s="264"/>
+      <c r="R17" s="264"/>
+      <c r="S17" s="264"/>
+      <c r="T17" s="264"/>
+      <c r="U17" s="264"/>
+      <c r="V17" s="264"/>
       <c r="W17" s="6"/>
       <c r="X17" s="12"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
-      <c r="AC17" s="208"/>
-      <c r="AD17" s="199"/>
-      <c r="AE17" s="198"/>
-      <c r="AF17" s="208"/>
-      <c r="AG17" s="208"/>
-      <c r="AH17" s="208"/>
-      <c r="AI17" s="208"/>
-      <c r="AJ17" s="208"/>
+      <c r="AC17" s="246"/>
+      <c r="AD17" s="257"/>
+      <c r="AE17" s="250"/>
+      <c r="AF17" s="246"/>
+      <c r="AG17" s="246"/>
+      <c r="AH17" s="246"/>
+      <c r="AI17" s="246"/>
+      <c r="AJ17" s="246"/>
       <c r="AK17" s="12"/>
       <c r="AL17" s="12"/>
       <c r="AM17" s="12"/>
     </row>
     <row r="18" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="258"/>
-      <c r="B18" s="241"/>
-      <c r="C18" s="241"/>
-      <c r="D18" s="241"/>
-      <c r="E18" s="241"/>
-      <c r="F18" s="241"/>
-      <c r="G18" s="230" t="s">
+      <c r="A18" s="224"/>
+      <c r="B18" s="204"/>
+      <c r="C18" s="204"/>
+      <c r="D18" s="204"/>
+      <c r="E18" s="204"/>
+      <c r="F18" s="204"/>
+      <c r="G18" s="206" t="s">
         <v>149</v>
       </c>
-      <c r="H18" s="244"/>
+      <c r="H18" s="210"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="218" t="s">
+      <c r="J18" s="245" t="s">
         <v>113</v>
       </c>
-      <c r="K18" s="218"/>
-      <c r="L18" s="218"/>
-      <c r="M18" s="218"/>
+      <c r="K18" s="245"/>
+      <c r="L18" s="245"/>
+      <c r="M18" s="245"/>
       <c r="N18" s="144">
         <v>500</v>
       </c>
@@ -3926,34 +3920,34 @@
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
-      <c r="AC18" s="208"/>
-      <c r="AD18" s="199"/>
-      <c r="AE18" s="198"/>
-      <c r="AF18" s="208"/>
-      <c r="AG18" s="196"/>
-      <c r="AH18" s="196"/>
-      <c r="AI18" s="199"/>
-      <c r="AJ18" s="198"/>
+      <c r="AC18" s="246"/>
+      <c r="AD18" s="257"/>
+      <c r="AE18" s="250"/>
+      <c r="AF18" s="246"/>
+      <c r="AG18" s="247"/>
+      <c r="AH18" s="247"/>
+      <c r="AI18" s="257"/>
+      <c r="AJ18" s="250"/>
       <c r="AK18" s="12"/>
       <c r="AL18" s="12"/>
       <c r="AM18" s="12"/>
     </row>
     <row r="19" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="258"/>
-      <c r="B19" s="241"/>
-      <c r="C19" s="241"/>
-      <c r="D19" s="241"/>
-      <c r="E19" s="241"/>
-      <c r="F19" s="241"/>
-      <c r="G19" s="243"/>
-      <c r="H19" s="244"/>
+      <c r="A19" s="224"/>
+      <c r="B19" s="204"/>
+      <c r="C19" s="204"/>
+      <c r="D19" s="204"/>
+      <c r="E19" s="204"/>
+      <c r="F19" s="204"/>
+      <c r="G19" s="207"/>
+      <c r="H19" s="210"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="218" t="s">
+      <c r="J19" s="245" t="s">
         <v>112</v>
       </c>
-      <c r="K19" s="218"/>
-      <c r="L19" s="218"/>
-      <c r="M19" s="218"/>
+      <c r="K19" s="245"/>
+      <c r="L19" s="245"/>
+      <c r="M19" s="245"/>
       <c r="N19" s="144" t="s">
         <v>161</v>
       </c>
@@ -3970,27 +3964,27 @@
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="12"/>
-      <c r="AC19" s="208"/>
-      <c r="AD19" s="199"/>
-      <c r="AE19" s="198"/>
-      <c r="AF19" s="208"/>
-      <c r="AG19" s="196"/>
-      <c r="AH19" s="197"/>
-      <c r="AI19" s="199"/>
-      <c r="AJ19" s="198"/>
+      <c r="AC19" s="246"/>
+      <c r="AD19" s="257"/>
+      <c r="AE19" s="250"/>
+      <c r="AF19" s="246"/>
+      <c r="AG19" s="247"/>
+      <c r="AH19" s="273"/>
+      <c r="AI19" s="257"/>
+      <c r="AJ19" s="250"/>
       <c r="AK19" s="12"/>
       <c r="AL19" s="12"/>
       <c r="AM19" s="12"/>
     </row>
     <row r="20" spans="1:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="259"/>
-      <c r="B20" s="242"/>
-      <c r="C20" s="242"/>
-      <c r="D20" s="242"/>
-      <c r="E20" s="242"/>
-      <c r="F20" s="242"/>
-      <c r="G20" s="246"/>
-      <c r="H20" s="245"/>
+      <c r="A20" s="225"/>
+      <c r="B20" s="205"/>
+      <c r="C20" s="205"/>
+      <c r="D20" s="205"/>
+      <c r="E20" s="205"/>
+      <c r="F20" s="205"/>
+      <c r="G20" s="212"/>
+      <c r="H20" s="211"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -4010,14 +4004,14 @@
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
-      <c r="AC20" s="186"/>
-      <c r="AD20" s="209"/>
-      <c r="AE20" s="209"/>
-      <c r="AF20" s="209"/>
-      <c r="AG20" s="219"/>
-      <c r="AH20" s="219"/>
-      <c r="AI20" s="186"/>
-      <c r="AJ20" s="200"/>
+      <c r="AC20" s="251"/>
+      <c r="AD20" s="248"/>
+      <c r="AE20" s="248"/>
+      <c r="AF20" s="248"/>
+      <c r="AG20" s="249"/>
+      <c r="AH20" s="249"/>
+      <c r="AI20" s="251"/>
+      <c r="AJ20" s="274"/>
       <c r="AK20" s="12"/>
       <c r="AL20" s="12"/>
       <c r="AM20" s="12"/>
@@ -4031,12 +4025,12 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="223" t="s">
+      <c r="I21" s="255" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="224"/>
-      <c r="K21" s="224"/>
-      <c r="L21" s="224"/>
+      <c r="J21" s="256"/>
+      <c r="K21" s="256"/>
+      <c r="L21" s="256"/>
       <c r="M21" s="5"/>
       <c r="N21" s="145"/>
       <c r="O21" s="5"/>
@@ -4046,47 +4040,47 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="140"/>
-      <c r="V21" s="220" t="s">
+      <c r="V21" s="252" t="s">
         <v>148</v>
       </c>
-      <c r="W21" s="211" t="s">
+      <c r="W21" s="259" t="s">
         <v>147</v>
       </c>
       <c r="X21" s="12"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
-      <c r="AC21" s="186"/>
-      <c r="AD21" s="209"/>
-      <c r="AE21" s="209"/>
-      <c r="AF21" s="209"/>
-      <c r="AG21" s="219"/>
-      <c r="AH21" s="219"/>
-      <c r="AI21" s="186"/>
-      <c r="AJ21" s="200"/>
+      <c r="AC21" s="251"/>
+      <c r="AD21" s="248"/>
+      <c r="AE21" s="248"/>
+      <c r="AF21" s="248"/>
+      <c r="AG21" s="249"/>
+      <c r="AH21" s="249"/>
+      <c r="AI21" s="251"/>
+      <c r="AJ21" s="274"/>
       <c r="AK21" s="12"/>
       <c r="AL21" s="12"/>
       <c r="AM21" s="12"/>
     </row>
     <row r="22" spans="1:39" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="303" t="s">
+      <c r="A22" s="198" t="s">
         <v>198</v>
       </c>
-      <c r="B22" s="304"/>
-      <c r="C22" s="305" t="s">
+      <c r="B22" s="199"/>
+      <c r="C22" s="186" t="s">
         <v>199</v>
       </c>
-      <c r="D22" s="305" t="s">
+      <c r="D22" s="186" t="s">
         <v>199</v>
       </c>
-      <c r="E22" s="305" t="s">
+      <c r="E22" s="186" t="s">
         <v>199</v>
       </c>
-      <c r="F22" s="305" t="s">
+      <c r="F22" s="186" t="s">
         <v>199</v>
       </c>
-      <c r="G22" s="306"/>
-      <c r="H22" s="307"/>
+      <c r="G22" s="187"/>
+      <c r="H22" s="188"/>
       <c r="I22" s="111"/>
       <c r="J22" s="237" t="s">
         <v>146</v>
@@ -4094,15 +4088,15 @@
       <c r="K22" s="237"/>
       <c r="L22" s="237"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="239" t="s">
+      <c r="N22" s="240" t="s">
         <v>194</v>
       </c>
-      <c r="O22" s="240"/>
-      <c r="P22" s="240"/>
-      <c r="Q22" s="201" t="s">
+      <c r="O22" s="241"/>
+      <c r="P22" s="241"/>
+      <c r="Q22" s="242" t="s">
         <v>15</v>
       </c>
-      <c r="R22" s="201"/>
+      <c r="R22" s="242"/>
       <c r="S22" s="160" t="s">
         <v>13</v>
       </c>
@@ -4111,38 +4105,38 @@
       </c>
       <c r="U22" s="138">
         <f ca="1">TODAY()</f>
-        <v>43572</v>
-      </c>
-      <c r="V22" s="221"/>
-      <c r="W22" s="212"/>
+        <v>43573</v>
+      </c>
+      <c r="V22" s="253"/>
+      <c r="W22" s="260"/>
       <c r="X22" s="12"/>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="12"/>
-      <c r="AC22" s="186"/>
-      <c r="AD22" s="209"/>
-      <c r="AE22" s="209"/>
-      <c r="AF22" s="209"/>
-      <c r="AG22" s="219"/>
-      <c r="AH22" s="219"/>
-      <c r="AI22" s="186"/>
-      <c r="AJ22" s="200"/>
+      <c r="AC22" s="251"/>
+      <c r="AD22" s="248"/>
+      <c r="AE22" s="248"/>
+      <c r="AF22" s="248"/>
+      <c r="AG22" s="249"/>
+      <c r="AH22" s="249"/>
+      <c r="AI22" s="251"/>
+      <c r="AJ22" s="274"/>
       <c r="AK22" s="12"/>
       <c r="AL22" s="12"/>
       <c r="AM22" s="12"/>
     </row>
     <row r="23" spans="1:39" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="308" t="s">
+      <c r="A23" s="196" t="s">
         <v>200</v>
       </c>
-      <c r="B23" s="187"/>
-      <c r="C23" s="309" t="s">
+      <c r="B23" s="197"/>
+      <c r="C23" s="189" t="s">
         <v>201</v>
       </c>
-      <c r="D23" s="309"/>
-      <c r="E23" s="309"/>
-      <c r="F23" s="309"/>
-      <c r="G23" s="309"/>
+      <c r="D23" s="189"/>
+      <c r="E23" s="189"/>
+      <c r="F23" s="189"/>
+      <c r="G23" s="189"/>
       <c r="H23" s="27"/>
       <c r="I23" s="111"/>
       <c r="J23" s="159"/>
@@ -4150,60 +4144,60 @@
       <c r="L23" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="M23" s="105"/>
-      <c r="N23" s="146"/>
-      <c r="O23" s="105"/>
-      <c r="P23" s="105"/>
+      <c r="M23" s="185"/>
+      <c r="N23" s="318"/>
+      <c r="O23" s="185"/>
+      <c r="P23" s="185"/>
       <c r="Q23" s="105"/>
       <c r="R23" s="105"/>
       <c r="S23" s="105"/>
       <c r="T23" s="105"/>
       <c r="U23" s="105"/>
-      <c r="V23" s="221"/>
-      <c r="W23" s="212"/>
+      <c r="V23" s="253"/>
+      <c r="W23" s="260"/>
       <c r="X23" s="12"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
-      <c r="AC23" s="186"/>
-      <c r="AD23" s="209"/>
-      <c r="AE23" s="209"/>
-      <c r="AF23" s="209"/>
-      <c r="AG23" s="219"/>
-      <c r="AH23" s="219"/>
-      <c r="AI23" s="186"/>
-      <c r="AJ23" s="200"/>
+      <c r="AC23" s="251"/>
+      <c r="AD23" s="248"/>
+      <c r="AE23" s="248"/>
+      <c r="AF23" s="248"/>
+      <c r="AG23" s="249"/>
+      <c r="AH23" s="249"/>
+      <c r="AI23" s="251"/>
+      <c r="AJ23" s="274"/>
       <c r="AK23" s="12"/>
       <c r="AL23" s="12"/>
       <c r="AM23" s="12"/>
     </row>
     <row r="24" spans="1:39" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="310"/>
-      <c r="B24" s="311"/>
-      <c r="C24" s="312" t="s">
+      <c r="A24" s="200"/>
+      <c r="B24" s="201"/>
+      <c r="C24" s="202" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="312"/>
-      <c r="E24" s="312" t="s">
+      <c r="D24" s="202"/>
+      <c r="E24" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="312"/>
-      <c r="G24" s="313" t="s">
+      <c r="F24" s="202"/>
+      <c r="G24" s="190" t="s">
         <v>202</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="229" t="s">
+      <c r="I24" s="238" t="s">
         <v>134</v>
       </c>
-      <c r="J24" s="229"/>
-      <c r="K24" s="229"/>
-      <c r="L24" s="229"/>
-      <c r="M24" s="182"/>
-      <c r="N24" s="225" t="s">
+      <c r="J24" s="238"/>
+      <c r="K24" s="238"/>
+      <c r="L24" s="238"/>
+      <c r="M24" s="319"/>
+      <c r="N24" s="320" t="s">
         <v>14</v>
       </c>
-      <c r="O24" s="226"/>
-      <c r="P24" s="226"/>
+      <c r="O24" s="321"/>
+      <c r="P24" s="321"/>
       <c r="Q24" s="161" t="s">
         <v>15</v>
       </c>
@@ -4216,47 +4210,47 @@
       </c>
       <c r="U24" s="138">
         <f ca="1">TODAY()</f>
-        <v>43572</v>
-      </c>
-      <c r="V24" s="221"/>
-      <c r="W24" s="212"/>
+        <v>43573</v>
+      </c>
+      <c r="V24" s="253"/>
+      <c r="W24" s="260"/>
       <c r="X24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
-      <c r="AC24" s="186"/>
-      <c r="AD24" s="209"/>
-      <c r="AE24" s="209"/>
-      <c r="AF24" s="209"/>
-      <c r="AG24" s="219"/>
-      <c r="AH24" s="219"/>
-      <c r="AI24" s="186"/>
-      <c r="AJ24" s="200"/>
+      <c r="AC24" s="251"/>
+      <c r="AD24" s="248"/>
+      <c r="AE24" s="248"/>
+      <c r="AF24" s="248"/>
+      <c r="AG24" s="249"/>
+      <c r="AH24" s="249"/>
+      <c r="AI24" s="251"/>
+      <c r="AJ24" s="274"/>
       <c r="AK24" s="12"/>
       <c r="AL24" s="12"/>
       <c r="AM24" s="12"/>
     </row>
     <row r="25" spans="1:39" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="310"/>
-      <c r="B25" s="311"/>
-      <c r="C25" s="314"/>
-      <c r="D25" s="314"/>
-      <c r="E25" s="314"/>
-      <c r="F25" s="314"/>
-      <c r="G25" s="315"/>
+      <c r="A25" s="200"/>
+      <c r="B25" s="201"/>
+      <c r="C25" s="203"/>
+      <c r="D25" s="203"/>
+      <c r="E25" s="203"/>
+      <c r="F25" s="203"/>
+      <c r="G25" s="191"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="229" t="s">
+      <c r="I25" s="238" t="s">
         <v>135</v>
       </c>
-      <c r="J25" s="229"/>
-      <c r="K25" s="229"/>
-      <c r="L25" s="229"/>
-      <c r="M25" s="182"/>
-      <c r="N25" s="225" t="s">
+      <c r="J25" s="238"/>
+      <c r="K25" s="238"/>
+      <c r="L25" s="238"/>
+      <c r="M25" s="319"/>
+      <c r="N25" s="320" t="s">
         <v>14</v>
       </c>
-      <c r="O25" s="226"/>
-      <c r="P25" s="226"/>
+      <c r="O25" s="321"/>
+      <c r="P25" s="321"/>
       <c r="Q25" s="161" t="s">
         <v>15</v>
       </c>
@@ -4269,47 +4263,47 @@
       </c>
       <c r="U25" s="138">
         <f ca="1">TODAY()</f>
-        <v>43572</v>
-      </c>
-      <c r="V25" s="221"/>
-      <c r="W25" s="212"/>
+        <v>43573</v>
+      </c>
+      <c r="V25" s="253"/>
+      <c r="W25" s="260"/>
       <c r="X25" s="12"/>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="12"/>
-      <c r="AC25" s="186"/>
-      <c r="AD25" s="209"/>
-      <c r="AE25" s="209"/>
-      <c r="AF25" s="209"/>
-      <c r="AG25" s="219"/>
-      <c r="AH25" s="219"/>
-      <c r="AI25" s="186"/>
-      <c r="AJ25" s="200"/>
+      <c r="AC25" s="251"/>
+      <c r="AD25" s="248"/>
+      <c r="AE25" s="248"/>
+      <c r="AF25" s="248"/>
+      <c r="AG25" s="249"/>
+      <c r="AH25" s="249"/>
+      <c r="AI25" s="251"/>
+      <c r="AJ25" s="274"/>
       <c r="AK25" s="12"/>
       <c r="AL25" s="12"/>
       <c r="AM25" s="12"/>
     </row>
     <row r="26" spans="1:39" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="310"/>
-      <c r="B26" s="311"/>
-      <c r="C26" s="314"/>
-      <c r="D26" s="314"/>
-      <c r="E26" s="314"/>
-      <c r="F26" s="314"/>
-      <c r="G26" s="315"/>
+      <c r="A26" s="200"/>
+      <c r="B26" s="201"/>
+      <c r="C26" s="203"/>
+      <c r="D26" s="203"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="203"/>
+      <c r="G26" s="191"/>
       <c r="H26" s="27"/>
-      <c r="I26" s="229" t="s">
+      <c r="I26" s="238" t="s">
         <v>136</v>
       </c>
-      <c r="J26" s="229"/>
-      <c r="K26" s="229"/>
-      <c r="L26" s="229"/>
-      <c r="M26" s="182"/>
-      <c r="N26" s="225" t="s">
+      <c r="J26" s="238"/>
+      <c r="K26" s="238"/>
+      <c r="L26" s="238"/>
+      <c r="M26" s="319"/>
+      <c r="N26" s="320" t="s">
         <v>14</v>
       </c>
-      <c r="O26" s="226"/>
-      <c r="P26" s="226"/>
+      <c r="O26" s="321"/>
+      <c r="P26" s="321"/>
       <c r="Q26" s="161" t="s">
         <v>15</v>
       </c>
@@ -4322,50 +4316,50 @@
       </c>
       <c r="U26" s="138">
         <f ca="1">TODAY()</f>
-        <v>43572</v>
-      </c>
-      <c r="V26" s="222"/>
-      <c r="W26" s="212"/>
+        <v>43573</v>
+      </c>
+      <c r="V26" s="254"/>
+      <c r="W26" s="260"/>
       <c r="X26" s="12"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
-      <c r="AC26" s="186"/>
-      <c r="AD26" s="209"/>
-      <c r="AE26" s="209"/>
-      <c r="AF26" s="209"/>
-      <c r="AG26" s="219"/>
-      <c r="AH26" s="219"/>
-      <c r="AI26" s="186"/>
-      <c r="AJ26" s="200"/>
+      <c r="AC26" s="251"/>
+      <c r="AD26" s="248"/>
+      <c r="AE26" s="248"/>
+      <c r="AF26" s="248"/>
+      <c r="AG26" s="249"/>
+      <c r="AH26" s="249"/>
+      <c r="AI26" s="251"/>
+      <c r="AJ26" s="274"/>
       <c r="AK26" s="12"/>
       <c r="AL26" s="12"/>
       <c r="AM26" s="12"/>
     </row>
     <row r="27" spans="1:39" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="310"/>
-      <c r="B27" s="311"/>
-      <c r="C27" s="314"/>
-      <c r="D27" s="314"/>
-      <c r="E27" s="314"/>
-      <c r="F27" s="314"/>
-      <c r="G27" s="315"/>
+      <c r="A27" s="200"/>
+      <c r="B27" s="201"/>
+      <c r="C27" s="203"/>
+      <c r="D27" s="203"/>
+      <c r="E27" s="203"/>
+      <c r="F27" s="203"/>
+      <c r="G27" s="191"/>
       <c r="H27" s="27"/>
-      <c r="I27" s="238"/>
-      <c r="J27" s="238"/>
-      <c r="K27" s="238"/>
-      <c r="L27" s="238"/>
-      <c r="M27" s="214"/>
-      <c r="N27" s="214"/>
-      <c r="O27" s="214"/>
-      <c r="P27" s="214"/>
-      <c r="Q27" s="202"/>
-      <c r="R27" s="202"/>
+      <c r="I27" s="239"/>
+      <c r="J27" s="239"/>
+      <c r="K27" s="239"/>
+      <c r="L27" s="239"/>
+      <c r="M27" s="322"/>
+      <c r="N27" s="322"/>
+      <c r="O27" s="322"/>
+      <c r="P27" s="322"/>
+      <c r="Q27" s="243"/>
+      <c r="R27" s="243"/>
       <c r="S27" s="161"/>
       <c r="T27" s="161"/>
       <c r="U27" s="161"/>
       <c r="V27" s="161"/>
-      <c r="W27" s="212"/>
+      <c r="W27" s="260"/>
       <c r="X27" s="12"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
@@ -4383,15 +4377,15 @@
       <c r="AM27" s="12"/>
     </row>
     <row r="28" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="308" t="s">
+      <c r="A28" s="196" t="s">
         <v>203</v>
       </c>
-      <c r="B28" s="187"/>
-      <c r="C28" s="309"/>
-      <c r="D28" s="309"/>
-      <c r="E28" s="309"/>
-      <c r="F28" s="316"/>
-      <c r="G28" s="316"/>
+      <c r="B28" s="197"/>
+      <c r="C28" s="189"/>
+      <c r="D28" s="189"/>
+      <c r="E28" s="189"/>
+      <c r="F28" s="192"/>
+      <c r="G28" s="192"/>
       <c r="H28" s="27"/>
       <c r="I28" s="105"/>
       <c r="J28" s="237" t="s">
@@ -4399,16 +4393,16 @@
       </c>
       <c r="K28" s="237"/>
       <c r="L28" s="237"/>
-      <c r="M28" s="182"/>
-      <c r="N28" s="225" t="s">
+      <c r="M28" s="319"/>
+      <c r="N28" s="320" t="s">
         <v>14</v>
       </c>
-      <c r="O28" s="226"/>
-      <c r="P28" s="226"/>
-      <c r="Q28" s="202" t="s">
+      <c r="O28" s="321"/>
+      <c r="P28" s="321"/>
+      <c r="Q28" s="243" t="s">
         <v>15</v>
       </c>
-      <c r="R28" s="202"/>
+      <c r="R28" s="243"/>
       <c r="S28" s="161" t="s">
         <v>13</v>
       </c>
@@ -4417,10 +4411,10 @@
       </c>
       <c r="U28" s="138">
         <f ca="1">TODAY()</f>
-        <v>43572</v>
+        <v>43573</v>
       </c>
       <c r="V28" s="161"/>
-      <c r="W28" s="212"/>
+      <c r="W28" s="260"/>
       <c r="X28" s="12"/>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
@@ -4440,14 +4434,14 @@
     <row r="29" spans="1:39" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="128"/>
       <c r="B29" s="127"/>
-      <c r="C29" s="317" t="s">
+      <c r="C29" s="272" t="s">
         <v>204</v>
       </c>
-      <c r="D29" s="317"/>
-      <c r="E29" s="317"/>
-      <c r="F29" s="317"/>
-      <c r="G29" s="318"/>
-      <c r="H29" s="319"/>
+      <c r="D29" s="272"/>
+      <c r="E29" s="272"/>
+      <c r="F29" s="272"/>
+      <c r="G29" s="193"/>
+      <c r="H29" s="194"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
@@ -4461,8 +4455,8 @@
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
-      <c r="V29" s="320"/>
-      <c r="W29" s="213"/>
+      <c r="V29" s="195"/>
+      <c r="W29" s="261"/>
       <c r="X29" s="12"/>
     </row>
     <row r="30" spans="1:39" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4494,10 +4488,10 @@
     <row r="31" spans="1:39" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="194"/>
-      <c r="D31" s="194"/>
-      <c r="E31" s="194"/>
-      <c r="F31" s="194"/>
+      <c r="C31" s="271"/>
+      <c r="D31" s="271"/>
+      <c r="E31" s="271"/>
+      <c r="F31" s="271"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -4523,25 +4517,25 @@
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="187" t="s">
+      <c r="F32" s="197" t="s">
         <v>137</v>
       </c>
-      <c r="G32" s="187"/>
-      <c r="H32" s="187"/>
-      <c r="I32" s="187"/>
-      <c r="J32" s="187"/>
-      <c r="K32" s="187"/>
-      <c r="L32" s="187"/>
+      <c r="G32" s="197"/>
+      <c r="H32" s="197"/>
+      <c r="I32" s="197"/>
+      <c r="J32" s="197"/>
+      <c r="K32" s="197"/>
+      <c r="L32" s="197"/>
       <c r="M32" s="161" t="s">
         <v>186</v>
       </c>
       <c r="N32" s="146"/>
       <c r="O32" s="105"/>
       <c r="P32" s="105"/>
-      <c r="Q32" s="201" t="s">
+      <c r="Q32" s="242" t="s">
         <v>15</v>
       </c>
-      <c r="R32" s="201"/>
+      <c r="R32" s="242"/>
       <c r="S32" s="160" t="s">
         <v>13</v>
       </c>
@@ -4550,12 +4544,12 @@
       </c>
       <c r="U32" s="138">
         <f ca="1">TODAY()</f>
-        <v>43572</v>
-      </c>
-      <c r="V32" s="188" t="s">
+        <v>43573</v>
+      </c>
+      <c r="V32" s="265" t="s">
         <v>145</v>
       </c>
-      <c r="W32" s="189"/>
+      <c r="W32" s="266"/>
       <c r="X32" s="12"/>
     </row>
     <row r="33" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4564,15 +4558,15 @@
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="187" t="s">
+      <c r="F33" s="197" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="187"/>
-      <c r="H33" s="187"/>
-      <c r="I33" s="187"/>
-      <c r="J33" s="187"/>
-      <c r="K33" s="187"/>
-      <c r="L33" s="187"/>
+      <c r="G33" s="197"/>
+      <c r="H33" s="197"/>
+      <c r="I33" s="197"/>
+      <c r="J33" s="197"/>
+      <c r="K33" s="197"/>
+      <c r="L33" s="197"/>
       <c r="M33" s="161" t="s">
         <v>117</v>
       </c>
@@ -4581,10 +4575,10 @@
       </c>
       <c r="O33" s="105"/>
       <c r="P33" s="105"/>
-      <c r="Q33" s="201" t="s">
+      <c r="Q33" s="242" t="s">
         <v>15</v>
       </c>
-      <c r="R33" s="201"/>
+      <c r="R33" s="242"/>
       <c r="S33" s="160" t="s">
         <v>13</v>
       </c>
@@ -4593,10 +4587,10 @@
       </c>
       <c r="U33" s="138">
         <f t="shared" ref="U33:U37" ca="1" si="0">TODAY()</f>
-        <v>43572</v>
-      </c>
-      <c r="V33" s="190"/>
-      <c r="W33" s="191"/>
+        <v>43573</v>
+      </c>
+      <c r="V33" s="267"/>
+      <c r="W33" s="268"/>
       <c r="X33" s="12"/>
     </row>
     <row r="34" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4605,15 +4599,15 @@
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="187" t="s">
+      <c r="F34" s="197" t="s">
         <v>138</v>
       </c>
-      <c r="G34" s="187"/>
-      <c r="H34" s="187"/>
-      <c r="I34" s="187"/>
-      <c r="J34" s="187"/>
-      <c r="K34" s="187"/>
-      <c r="L34" s="187"/>
+      <c r="G34" s="197"/>
+      <c r="H34" s="197"/>
+      <c r="I34" s="197"/>
+      <c r="J34" s="197"/>
+      <c r="K34" s="197"/>
+      <c r="L34" s="197"/>
       <c r="M34" s="161" t="s">
         <v>139</v>
       </c>
@@ -4622,10 +4616,10 @@
         <v>140</v>
       </c>
       <c r="P34" s="105"/>
-      <c r="Q34" s="201" t="s">
+      <c r="Q34" s="242" t="s">
         <v>15</v>
       </c>
-      <c r="R34" s="201"/>
+      <c r="R34" s="242"/>
       <c r="S34" s="160" t="s">
         <v>13</v>
       </c>
@@ -4634,10 +4628,10 @@
       </c>
       <c r="U34" s="138">
         <f t="shared" ca="1" si="0"/>
-        <v>43572</v>
-      </c>
-      <c r="V34" s="190"/>
-      <c r="W34" s="191"/>
+        <v>43573</v>
+      </c>
+      <c r="V34" s="267"/>
+      <c r="W34" s="268"/>
       <c r="X34" s="12"/>
     </row>
     <row r="35" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4653,16 +4647,16 @@
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
-      <c r="M35" s="210" t="s">
+      <c r="M35" s="258" t="s">
         <v>188</v>
       </c>
-      <c r="N35" s="210"/>
-      <c r="O35" s="210"/>
-      <c r="P35" s="210"/>
-      <c r="Q35" s="201" t="s">
+      <c r="N35" s="258"/>
+      <c r="O35" s="258"/>
+      <c r="P35" s="258"/>
+      <c r="Q35" s="242" t="s">
         <v>15</v>
       </c>
-      <c r="R35" s="201"/>
+      <c r="R35" s="242"/>
       <c r="S35" s="160" t="s">
         <v>13</v>
       </c>
@@ -4671,10 +4665,10 @@
       </c>
       <c r="U35" s="138">
         <f t="shared" ca="1" si="0"/>
-        <v>43572</v>
-      </c>
-      <c r="V35" s="190"/>
-      <c r="W35" s="191"/>
+        <v>43573</v>
+      </c>
+      <c r="V35" s="267"/>
+      <c r="W35" s="268"/>
       <c r="X35" s="12"/>
     </row>
     <row r="36" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -4690,46 +4684,46 @@
       <c r="J36" s="110"/>
       <c r="K36" s="110"/>
       <c r="L36" s="110"/>
-      <c r="M36" s="205"/>
-      <c r="N36" s="205"/>
+      <c r="M36" s="277"/>
+      <c r="N36" s="277"/>
       <c r="O36" s="105"/>
       <c r="P36" s="105"/>
-      <c r="Q36" s="201"/>
-      <c r="R36" s="201"/>
+      <c r="Q36" s="242"/>
+      <c r="R36" s="242"/>
       <c r="S36" s="160"/>
       <c r="T36" s="160"/>
       <c r="U36" s="138"/>
-      <c r="V36" s="190"/>
-      <c r="W36" s="191"/>
+      <c r="V36" s="267"/>
+      <c r="W36" s="268"/>
       <c r="X36" s="12"/>
     </row>
     <row r="37" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="206" t="s">
+      <c r="D37" s="278" t="s">
         <v>141</v>
       </c>
-      <c r="E37" s="206"/>
-      <c r="F37" s="206"/>
-      <c r="G37" s="206"/>
-      <c r="H37" s="206"/>
-      <c r="I37" s="206"/>
-      <c r="J37" s="206"/>
-      <c r="K37" s="206"/>
-      <c r="L37" s="207" t="s">
+      <c r="E37" s="278"/>
+      <c r="F37" s="278"/>
+      <c r="G37" s="278"/>
+      <c r="H37" s="278"/>
+      <c r="I37" s="278"/>
+      <c r="J37" s="278"/>
+      <c r="K37" s="278"/>
+      <c r="L37" s="279" t="s">
         <v>142</v>
       </c>
-      <c r="M37" s="207"/>
-      <c r="N37" s="207"/>
+      <c r="M37" s="279"/>
+      <c r="N37" s="279"/>
       <c r="O37" s="105" t="s">
         <v>140</v>
       </c>
       <c r="P37" s="105"/>
-      <c r="Q37" s="201" t="s">
+      <c r="Q37" s="242" t="s">
         <v>15</v>
       </c>
-      <c r="R37" s="201"/>
+      <c r="R37" s="242"/>
       <c r="S37" s="160" t="s">
         <v>13</v>
       </c>
@@ -4738,10 +4732,10 @@
       </c>
       <c r="U37" s="138">
         <f t="shared" ca="1" si="0"/>
-        <v>43572</v>
-      </c>
-      <c r="V37" s="192"/>
-      <c r="W37" s="193"/>
+        <v>43573</v>
+      </c>
+      <c r="V37" s="269"/>
+      <c r="W37" s="270"/>
       <c r="X37" s="12"/>
     </row>
     <row r="38" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4850,18 +4844,89 @@
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="AI24:AI26"/>
+    <mergeCell ref="F33:L33"/>
+    <mergeCell ref="V32:W37"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="AH18:AH19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="AI18:AI19"/>
+    <mergeCell ref="AJ20:AJ26"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="F32:L32"/>
+    <mergeCell ref="F34:L34"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="N12:V12"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="AC20:AC26"/>
+    <mergeCell ref="AC17:AC19"/>
+    <mergeCell ref="AD17:AD19"/>
+    <mergeCell ref="AD20:AD26"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="W21:W29"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="AA3:AF3"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N17:V17"/>
+    <mergeCell ref="N14:V14"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="AH3:AM3"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="AF20:AF26"/>
+    <mergeCell ref="AG20:AG26"/>
+    <mergeCell ref="AF17:AJ17"/>
+    <mergeCell ref="AE17:AE19"/>
+    <mergeCell ref="AE20:AE26"/>
+    <mergeCell ref="AH20:AH26"/>
+    <mergeCell ref="AI20:AI23"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="V21:V26"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="N22:P22"/>
     <mergeCell ref="F14:F20"/>
     <mergeCell ref="G14:G17"/>
     <mergeCell ref="H14:H20"/>
@@ -4886,89 +4951,18 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="AH3:AM3"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AG18:AG19"/>
-    <mergeCell ref="AF20:AF26"/>
-    <mergeCell ref="AG20:AG26"/>
-    <mergeCell ref="AF17:AJ17"/>
-    <mergeCell ref="AE17:AE19"/>
-    <mergeCell ref="AE20:AE26"/>
-    <mergeCell ref="AH20:AH26"/>
-    <mergeCell ref="AI20:AI23"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="V21:V26"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="AC20:AC26"/>
-    <mergeCell ref="AC17:AC19"/>
-    <mergeCell ref="AD17:AD19"/>
-    <mergeCell ref="AD20:AD26"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="W21:W29"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="AA3:AF3"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N17:V17"/>
-    <mergeCell ref="N14:V14"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="AI24:AI26"/>
-    <mergeCell ref="F33:L33"/>
-    <mergeCell ref="V32:W37"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="AH18:AH19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="AI18:AI19"/>
-    <mergeCell ref="AJ20:AJ26"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="F32:L32"/>
-    <mergeCell ref="F34:L34"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="N12:V12"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0"/>
@@ -5011,21 +5005,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="55.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="265" t="s">
+      <c r="A1" s="280" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="266"/>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="266"/>
-      <c r="G1" s="266"/>
-      <c r="H1" s="266"/>
-      <c r="I1" s="266"/>
-      <c r="J1" s="266"/>
-      <c r="K1" s="266"/>
-      <c r="L1" s="266"/>
-      <c r="M1" s="267"/>
+      <c r="B1" s="281"/>
+      <c r="C1" s="281"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="281"/>
+      <c r="G1" s="281"/>
+      <c r="H1" s="281"/>
+      <c r="I1" s="281"/>
+      <c r="J1" s="281"/>
+      <c r="K1" s="281"/>
+      <c r="L1" s="281"/>
+      <c r="M1" s="282"/>
     </row>
     <row r="2" spans="1:13" ht="184.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
@@ -5167,11 +5161,11 @@
       <c r="F1" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="268" t="s">
+      <c r="G1" s="283" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="269"/>
-      <c r="I1" s="270"/>
+      <c r="H1" s="284"/>
+      <c r="I1" s="285"/>
       <c r="J1" s="97" t="s">
         <v>104</v>
       </c>
@@ -5794,12 +5788,12 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="271" t="s">
+      <c r="G2" s="297" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="272"/>
-      <c r="I2" s="272"/>
-      <c r="J2" s="272"/>
+      <c r="H2" s="298"/>
+      <c r="I2" s="298"/>
+      <c r="J2" s="298"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -5812,28 +5806,28 @@
       <c r="T2" s="6"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="279" t="s">
+      <c r="A3" s="300" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="280"/>
-      <c r="C3" s="280"/>
-      <c r="D3" s="280"/>
-      <c r="E3" s="280"/>
-      <c r="F3" s="280"/>
-      <c r="G3" s="280"/>
-      <c r="H3" s="280"/>
-      <c r="I3" s="280"/>
-      <c r="J3" s="280"/>
-      <c r="K3" s="281" t="s">
+      <c r="B3" s="301"/>
+      <c r="C3" s="301"/>
+      <c r="D3" s="301"/>
+      <c r="E3" s="301"/>
+      <c r="F3" s="301"/>
+      <c r="G3" s="301"/>
+      <c r="H3" s="301"/>
+      <c r="I3" s="301"/>
+      <c r="J3" s="301"/>
+      <c r="K3" s="302" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="281"/>
-      <c r="M3" s="281"/>
-      <c r="N3" s="281"/>
-      <c r="O3" s="201" t="s">
+      <c r="L3" s="302"/>
+      <c r="M3" s="302"/>
+      <c r="N3" s="302"/>
+      <c r="O3" s="242" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="201"/>
+      <c r="P3" s="242"/>
       <c r="Q3" s="118" t="s">
         <v>13</v>
       </c>
@@ -5842,7 +5836,7 @@
       </c>
       <c r="S3" s="139">
         <f ca="1">TODAY()</f>
-        <v>43572</v>
+        <v>43573</v>
       </c>
       <c r="T3" s="6"/>
     </row>
@@ -5891,11 +5885,11 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="282" t="s">
+      <c r="A6" s="303" t="s">
         <v>184</v>
       </c>
-      <c r="B6" s="283"/>
-      <c r="C6" s="283"/>
+      <c r="B6" s="304"/>
+      <c r="C6" s="304"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -5915,11 +5909,11 @@
       <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="282" t="s">
+      <c r="A7" s="303" t="s">
         <v>183</v>
       </c>
-      <c r="B7" s="283"/>
-      <c r="C7" s="283"/>
+      <c r="B7" s="304"/>
+      <c r="C7" s="304"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -5939,11 +5933,11 @@
       <c r="T7" s="6"/>
     </row>
     <row r="8" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="282" t="s">
+      <c r="A8" s="303" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="283"/>
-      <c r="C8" s="283"/>
+      <c r="B8" s="304"/>
+      <c r="C8" s="304"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -6033,20 +6027,20 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="287" t="s">
+      <c r="E12" s="286" t="s">
         <v>181</v>
       </c>
-      <c r="F12" s="288"/>
-      <c r="G12" s="288"/>
-      <c r="H12" s="288"/>
-      <c r="I12" s="288"/>
-      <c r="J12" s="288"/>
-      <c r="K12" s="288"/>
-      <c r="L12" s="288"/>
-      <c r="M12" s="288"/>
-      <c r="N12" s="288"/>
-      <c r="O12" s="288"/>
-      <c r="P12" s="288"/>
+      <c r="F12" s="287"/>
+      <c r="G12" s="287"/>
+      <c r="H12" s="287"/>
+      <c r="I12" s="287"/>
+      <c r="J12" s="287"/>
+      <c r="K12" s="287"/>
+      <c r="L12" s="287"/>
+      <c r="M12" s="287"/>
+      <c r="N12" s="287"/>
+      <c r="O12" s="287"/>
+      <c r="P12" s="287"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -6057,18 +6051,18 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="288"/>
-      <c r="F13" s="288"/>
-      <c r="G13" s="288"/>
-      <c r="H13" s="288"/>
-      <c r="I13" s="288"/>
-      <c r="J13" s="288"/>
-      <c r="K13" s="288"/>
-      <c r="L13" s="288"/>
-      <c r="M13" s="288"/>
-      <c r="N13" s="288"/>
-      <c r="O13" s="288"/>
-      <c r="P13" s="288"/>
+      <c r="E13" s="287"/>
+      <c r="F13" s="287"/>
+      <c r="G13" s="287"/>
+      <c r="H13" s="287"/>
+      <c r="I13" s="287"/>
+      <c r="J13" s="287"/>
+      <c r="K13" s="287"/>
+      <c r="L13" s="287"/>
+      <c r="M13" s="287"/>
+      <c r="N13" s="287"/>
+      <c r="O13" s="287"/>
+      <c r="P13" s="287"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
@@ -6079,18 +6073,18 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="288"/>
-      <c r="F14" s="288"/>
-      <c r="G14" s="288"/>
-      <c r="H14" s="288"/>
-      <c r="I14" s="288"/>
-      <c r="J14" s="288"/>
-      <c r="K14" s="288"/>
-      <c r="L14" s="288"/>
-      <c r="M14" s="288"/>
-      <c r="N14" s="288"/>
-      <c r="O14" s="288"/>
-      <c r="P14" s="288"/>
+      <c r="E14" s="287"/>
+      <c r="F14" s="287"/>
+      <c r="G14" s="287"/>
+      <c r="H14" s="287"/>
+      <c r="I14" s="287"/>
+      <c r="J14" s="287"/>
+      <c r="K14" s="287"/>
+      <c r="L14" s="287"/>
+      <c r="M14" s="287"/>
+      <c r="N14" s="287"/>
+      <c r="O14" s="287"/>
+      <c r="P14" s="287"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
@@ -6124,23 +6118,23 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="217" t="s">
+      <c r="F16" s="244" t="s">
         <v>180</v>
       </c>
-      <c r="G16" s="278"/>
-      <c r="H16" s="278"/>
-      <c r="I16" s="278"/>
-      <c r="J16" s="286" t="str">
+      <c r="G16" s="288"/>
+      <c r="H16" s="288"/>
+      <c r="I16" s="288"/>
+      <c r="J16" s="289" t="str">
         <f>'лист титульный КД'!N12</f>
         <v>Иванов И.И</v>
       </c>
-      <c r="K16" s="286"/>
-      <c r="L16" s="286"/>
-      <c r="M16" s="286"/>
-      <c r="N16" s="286"/>
-      <c r="O16" s="286"/>
-      <c r="P16" s="286"/>
-      <c r="Q16" s="286"/>
+      <c r="K16" s="289"/>
+      <c r="L16" s="289"/>
+      <c r="M16" s="289"/>
+      <c r="N16" s="289"/>
+      <c r="O16" s="289"/>
+      <c r="P16" s="289"/>
+      <c r="Q16" s="289"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="6"/>
@@ -6151,23 +6145,23 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="217" t="s">
+      <c r="F17" s="244" t="s">
         <v>179</v>
       </c>
-      <c r="G17" s="278"/>
-      <c r="H17" s="278"/>
-      <c r="I17" s="278"/>
-      <c r="J17" s="276" t="str">
+      <c r="G17" s="288"/>
+      <c r="H17" s="288"/>
+      <c r="I17" s="288"/>
+      <c r="J17" s="290" t="str">
         <f>'лист титульный КД'!N13</f>
         <v>Петров П.П.</v>
       </c>
-      <c r="K17" s="276"/>
-      <c r="L17" s="276"/>
-      <c r="M17" s="276"/>
-      <c r="N17" s="276"/>
-      <c r="O17" s="276"/>
-      <c r="P17" s="276"/>
-      <c r="Q17" s="276"/>
+      <c r="K17" s="290"/>
+      <c r="L17" s="290"/>
+      <c r="M17" s="290"/>
+      <c r="N17" s="290"/>
+      <c r="O17" s="290"/>
+      <c r="P17" s="290"/>
+      <c r="Q17" s="290"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="6"/>
@@ -6178,25 +6172,25 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="217" t="s">
+      <c r="F18" s="244" t="s">
         <v>178</v>
       </c>
-      <c r="G18" s="278"/>
-      <c r="H18" s="278"/>
-      <c r="I18" s="278"/>
-      <c r="J18" s="286" t="str">
+      <c r="G18" s="288"/>
+      <c r="H18" s="288"/>
+      <c r="I18" s="288"/>
+      <c r="J18" s="289" t="str">
         <f>'лист титульный КД'!N14</f>
         <v>г. Москва, ул. Нарвская, д.2</v>
       </c>
-      <c r="K18" s="289"/>
-      <c r="L18" s="289"/>
-      <c r="M18" s="289"/>
-      <c r="N18" s="289"/>
-      <c r="O18" s="289"/>
-      <c r="P18" s="289"/>
-      <c r="Q18" s="289"/>
-      <c r="R18" s="289"/>
-      <c r="S18" s="289"/>
+      <c r="K18" s="291"/>
+      <c r="L18" s="291"/>
+      <c r="M18" s="291"/>
+      <c r="N18" s="291"/>
+      <c r="O18" s="291"/>
+      <c r="P18" s="291"/>
+      <c r="Q18" s="291"/>
+      <c r="R18" s="291"/>
+      <c r="S18" s="291"/>
       <c r="T18" s="6"/>
     </row>
     <row r="19" spans="1:20" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -6205,23 +6199,23 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="217" t="s">
+      <c r="F19" s="244" t="s">
         <v>177</v>
       </c>
-      <c r="G19" s="278"/>
-      <c r="H19" s="278"/>
-      <c r="I19" s="278"/>
-      <c r="J19" s="276" t="str">
+      <c r="G19" s="288"/>
+      <c r="H19" s="288"/>
+      <c r="I19" s="288"/>
+      <c r="J19" s="290" t="str">
         <f>'лист титульный КД'!N15</f>
         <v>восьмой</v>
       </c>
-      <c r="K19" s="276"/>
-      <c r="L19" s="276"/>
-      <c r="M19" s="276"/>
-      <c r="N19" s="276"/>
-      <c r="O19" s="276"/>
-      <c r="P19" s="276"/>
-      <c r="Q19" s="276"/>
+      <c r="K19" s="290"/>
+      <c r="L19" s="290"/>
+      <c r="M19" s="290"/>
+      <c r="N19" s="290"/>
+      <c r="O19" s="290"/>
+      <c r="P19" s="290"/>
+      <c r="Q19" s="290"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="6"/>
@@ -6232,23 +6226,23 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="217" t="s">
+      <c r="F20" s="244" t="s">
         <v>176</v>
       </c>
-      <c r="G20" s="278"/>
-      <c r="H20" s="278"/>
-      <c r="I20" s="278"/>
-      <c r="J20" s="276" t="str">
+      <c r="G20" s="288"/>
+      <c r="H20" s="288"/>
+      <c r="I20" s="288"/>
+      <c r="J20" s="290" t="str">
         <f>'лист титульный КД'!N16</f>
         <v>кухня</v>
       </c>
-      <c r="K20" s="276"/>
-      <c r="L20" s="276"/>
-      <c r="M20" s="276"/>
-      <c r="N20" s="276"/>
-      <c r="O20" s="276"/>
-      <c r="P20" s="276"/>
-      <c r="Q20" s="276"/>
+      <c r="K20" s="290"/>
+      <c r="L20" s="290"/>
+      <c r="M20" s="290"/>
+      <c r="N20" s="290"/>
+      <c r="O20" s="290"/>
+      <c r="P20" s="290"/>
+      <c r="Q20" s="290"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="6"/>
@@ -6259,23 +6253,23 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="217" t="s">
+      <c r="F21" s="244" t="s">
         <v>175</v>
       </c>
-      <c r="G21" s="278"/>
-      <c r="H21" s="278"/>
-      <c r="I21" s="278"/>
-      <c r="J21" s="286" t="str">
+      <c r="G21" s="288"/>
+      <c r="H21" s="288"/>
+      <c r="I21" s="288"/>
+      <c r="J21" s="289" t="str">
         <f>'лист титульный КД'!N17</f>
         <v>гарнитур кухонный, дверной блок</v>
       </c>
-      <c r="K21" s="286"/>
-      <c r="L21" s="286"/>
-      <c r="M21" s="286"/>
-      <c r="N21" s="286"/>
-      <c r="O21" s="286"/>
-      <c r="P21" s="286"/>
-      <c r="Q21" s="286"/>
+      <c r="K21" s="289"/>
+      <c r="L21" s="289"/>
+      <c r="M21" s="289"/>
+      <c r="N21" s="289"/>
+      <c r="O21" s="289"/>
+      <c r="P21" s="289"/>
+      <c r="Q21" s="289"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="6"/>
@@ -6286,23 +6280,23 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="217" t="s">
+      <c r="F22" s="244" t="s">
         <v>174</v>
       </c>
-      <c r="G22" s="278"/>
-      <c r="H22" s="278"/>
-      <c r="I22" s="278"/>
-      <c r="J22" s="276">
+      <c r="G22" s="288"/>
+      <c r="H22" s="288"/>
+      <c r="I22" s="288"/>
+      <c r="J22" s="290">
         <f>'лист титульный КД'!N18</f>
         <v>500</v>
       </c>
-      <c r="K22" s="276"/>
-      <c r="L22" s="276"/>
-      <c r="M22" s="276"/>
-      <c r="N22" s="276"/>
-      <c r="O22" s="276"/>
-      <c r="P22" s="276"/>
-      <c r="Q22" s="276"/>
+      <c r="K22" s="290"/>
+      <c r="L22" s="290"/>
+      <c r="M22" s="290"/>
+      <c r="N22" s="290"/>
+      <c r="O22" s="290"/>
+      <c r="P22" s="290"/>
+      <c r="Q22" s="290"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="6"/>
@@ -6313,23 +6307,23 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="217" t="s">
+      <c r="F23" s="244" t="s">
         <v>173</v>
       </c>
-      <c r="G23" s="278"/>
-      <c r="H23" s="278"/>
-      <c r="I23" s="278"/>
-      <c r="J23" s="276" t="str">
+      <c r="G23" s="288"/>
+      <c r="H23" s="288"/>
+      <c r="I23" s="288"/>
+      <c r="J23" s="290" t="str">
         <f>'лист титульный КД'!N19</f>
         <v>1-15,16</v>
       </c>
-      <c r="K23" s="276"/>
-      <c r="L23" s="276"/>
-      <c r="M23" s="276"/>
-      <c r="N23" s="276"/>
-      <c r="O23" s="276"/>
-      <c r="P23" s="276"/>
-      <c r="Q23" s="276"/>
+      <c r="K23" s="290"/>
+      <c r="L23" s="290"/>
+      <c r="M23" s="290"/>
+      <c r="N23" s="290"/>
+      <c r="O23" s="290"/>
+      <c r="P23" s="290"/>
+      <c r="Q23" s="290"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="6"/>
@@ -6429,12 +6423,12 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="277" t="s">
+      <c r="G28" s="292" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="274"/>
-      <c r="I28" s="274"/>
-      <c r="J28" s="274"/>
+      <c r="H28" s="293"/>
+      <c r="I28" s="293"/>
+      <c r="J28" s="293"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -6447,29 +6441,29 @@
       <c r="T28" s="6"/>
     </row>
     <row r="29" spans="1:20" s="129" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="273" t="s">
+      <c r="A29" s="299" t="s">
         <v>185</v>
       </c>
-      <c r="B29" s="274"/>
-      <c r="C29" s="274"/>
-      <c r="D29" s="274"/>
-      <c r="E29" s="274"/>
-      <c r="F29" s="274"/>
-      <c r="G29" s="274"/>
-      <c r="H29" s="274"/>
-      <c r="I29" s="274"/>
-      <c r="J29" s="274"/>
-      <c r="K29" s="275" t="str">
+      <c r="B29" s="293"/>
+      <c r="C29" s="293"/>
+      <c r="D29" s="293"/>
+      <c r="E29" s="293"/>
+      <c r="F29" s="293"/>
+      <c r="G29" s="293"/>
+      <c r="H29" s="293"/>
+      <c r="I29" s="293"/>
+      <c r="J29" s="293"/>
+      <c r="K29" s="296" t="str">
         <f>IF(builder=0,"",builder)</f>
         <v>_________________</v>
       </c>
-      <c r="L29" s="275"/>
-      <c r="M29" s="275"/>
-      <c r="N29" s="275"/>
-      <c r="O29" s="275" t="s">
+      <c r="L29" s="296"/>
+      <c r="M29" s="296"/>
+      <c r="N29" s="296"/>
+      <c r="O29" s="296" t="s">
         <v>15</v>
       </c>
-      <c r="P29" s="275"/>
+      <c r="P29" s="296"/>
       <c r="Q29" s="131" t="s">
         <v>13</v>
       </c>
@@ -6478,7 +6472,7 @@
       </c>
       <c r="S29" s="139">
         <f ca="1">TODAY()</f>
-        <v>43572</v>
+        <v>43573</v>
       </c>
       <c r="T29" s="130"/>
     </row>
@@ -6511,12 +6505,12 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="277" t="s">
+      <c r="G31" s="292" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="274"/>
-      <c r="I31" s="274"/>
-      <c r="J31" s="274"/>
+      <c r="H31" s="293"/>
+      <c r="I31" s="293"/>
+      <c r="J31" s="293"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -6529,28 +6523,28 @@
       <c r="T31" s="6"/>
     </row>
     <row r="32" spans="1:20" s="129" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="284" t="s">
+      <c r="A32" s="294" t="s">
         <v>172</v>
       </c>
-      <c r="B32" s="274"/>
-      <c r="C32" s="274"/>
-      <c r="D32" s="274"/>
-      <c r="E32" s="274"/>
-      <c r="F32" s="274"/>
-      <c r="G32" s="274"/>
-      <c r="H32" s="274"/>
-      <c r="I32" s="274"/>
-      <c r="J32" s="274"/>
-      <c r="K32" s="285" t="s">
+      <c r="B32" s="293"/>
+      <c r="C32" s="293"/>
+      <c r="D32" s="293"/>
+      <c r="E32" s="293"/>
+      <c r="F32" s="293"/>
+      <c r="G32" s="293"/>
+      <c r="H32" s="293"/>
+      <c r="I32" s="293"/>
+      <c r="J32" s="293"/>
+      <c r="K32" s="295" t="s">
         <v>14</v>
       </c>
-      <c r="L32" s="285"/>
-      <c r="M32" s="285"/>
-      <c r="N32" s="285"/>
-      <c r="O32" s="275" t="s">
+      <c r="L32" s="295"/>
+      <c r="M32" s="295"/>
+      <c r="N32" s="295"/>
+      <c r="O32" s="296" t="s">
         <v>15</v>
       </c>
-      <c r="P32" s="275"/>
+      <c r="P32" s="296"/>
       <c r="Q32" s="131" t="s">
         <v>13</v>
       </c>
@@ -6559,33 +6553,33 @@
       </c>
       <c r="S32" s="139">
         <f ca="1">TODAY()</f>
-        <v>43572</v>
+        <v>43573</v>
       </c>
       <c r="T32" s="130"/>
     </row>
     <row r="33" spans="1:20" s="129" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="284" t="s">
+      <c r="A33" s="294" t="s">
         <v>171</v>
       </c>
-      <c r="B33" s="274"/>
-      <c r="C33" s="274"/>
-      <c r="D33" s="274"/>
-      <c r="E33" s="274"/>
-      <c r="F33" s="274"/>
-      <c r="G33" s="274"/>
-      <c r="H33" s="274"/>
-      <c r="I33" s="274"/>
-      <c r="J33" s="274"/>
-      <c r="K33" s="285" t="s">
+      <c r="B33" s="293"/>
+      <c r="C33" s="293"/>
+      <c r="D33" s="293"/>
+      <c r="E33" s="293"/>
+      <c r="F33" s="293"/>
+      <c r="G33" s="293"/>
+      <c r="H33" s="293"/>
+      <c r="I33" s="293"/>
+      <c r="J33" s="293"/>
+      <c r="K33" s="295" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="285"/>
-      <c r="M33" s="285"/>
-      <c r="N33" s="285"/>
-      <c r="O33" s="275" t="s">
+      <c r="L33" s="295"/>
+      <c r="M33" s="295"/>
+      <c r="N33" s="295"/>
+      <c r="O33" s="296" t="s">
         <v>15</v>
       </c>
-      <c r="P33" s="275"/>
+      <c r="P33" s="296"/>
       <c r="Q33" s="131" t="s">
         <v>13</v>
       </c>
@@ -6594,7 +6588,7 @@
       </c>
       <c r="S33" s="139">
         <f ca="1">TODAY()</f>
-        <v>43572</v>
+        <v>43573</v>
       </c>
       <c r="T33" s="130"/>
     </row>
@@ -6644,25 +6638,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E12:P14"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="J18:S18"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="O32:P32"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="A29:J29"/>
@@ -6679,6 +6654,25 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="E12:P14"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="J18:S18"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -6709,19 +6703,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="290" t="s">
+      <c r="A1" s="305" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="291"/>
-      <c r="H1" s="291"/>
-      <c r="I1" s="291"/>
-      <c r="J1" s="291"/>
-      <c r="K1" s="292"/>
+      <c r="B1" s="306"/>
+      <c r="C1" s="306"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="306"/>
+      <c r="F1" s="306"/>
+      <c r="G1" s="306"/>
+      <c r="H1" s="306"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="306"/>
+      <c r="K1" s="307"/>
     </row>
     <row r="2" spans="1:11" s="35" customFormat="1" ht="124.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="43" t="s">
@@ -7116,48 +7110,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="295" t="s">
+      <c r="A1" s="310" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="296"/>
-      <c r="C1" s="296"/>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="296"/>
-      <c r="G1" s="296"/>
-      <c r="H1" s="296"/>
-      <c r="I1" s="296"/>
-      <c r="J1" s="296"/>
-      <c r="K1" s="296"/>
-      <c r="L1" s="296"/>
-      <c r="M1" s="296"/>
-      <c r="N1" s="296"/>
-      <c r="O1" s="296"/>
-      <c r="P1" s="296"/>
-      <c r="Q1" s="296"/>
-      <c r="R1" s="296"/>
-      <c r="S1" s="297"/>
+      <c r="B1" s="311"/>
+      <c r="C1" s="311"/>
+      <c r="D1" s="311"/>
+      <c r="E1" s="311"/>
+      <c r="F1" s="311"/>
+      <c r="G1" s="311"/>
+      <c r="H1" s="311"/>
+      <c r="I1" s="311"/>
+      <c r="J1" s="311"/>
+      <c r="K1" s="311"/>
+      <c r="L1" s="311"/>
+      <c r="M1" s="311"/>
+      <c r="N1" s="311"/>
+      <c r="O1" s="311"/>
+      <c r="P1" s="311"/>
+      <c r="Q1" s="311"/>
+      <c r="R1" s="311"/>
+      <c r="S1" s="312"/>
     </row>
     <row r="2" spans="1:19" s="76" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="298" t="s">
+      <c r="A2" s="313" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="298" t="s">
+      <c r="B2" s="313" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="298" t="s">
+      <c r="C2" s="313" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="298" t="s">
+      <c r="D2" s="313" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="298" t="s">
+      <c r="E2" s="313" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="298" t="s">
+      <c r="F2" s="313" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="298" t="s">
+      <c r="G2" s="313" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="77" t="s">
@@ -7166,11 +7160,11 @@
       <c r="I2" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="301" t="s">
+      <c r="J2" s="316" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="302"/>
-      <c r="L2" s="302"/>
+      <c r="K2" s="317"/>
+      <c r="L2" s="317"/>
       <c r="M2" s="77" t="s">
         <v>86</v>
       </c>
@@ -7194,13 +7188,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="66" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="299"/>
-      <c r="B3" s="299"/>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="299"/>
-      <c r="F3" s="299"/>
-      <c r="G3" s="299"/>
+      <c r="A3" s="314"/>
+      <c r="B3" s="314"/>
+      <c r="C3" s="314"/>
+      <c r="D3" s="314"/>
+      <c r="E3" s="314"/>
+      <c r="F3" s="314"/>
+      <c r="G3" s="314"/>
       <c r="H3" s="72" t="s">
         <v>79</v>
       </c>
@@ -7239,24 +7233,24 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="66" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="299"/>
-      <c r="B4" s="299"/>
-      <c r="C4" s="299"/>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
+      <c r="A4" s="314"/>
+      <c r="B4" s="314"/>
+      <c r="C4" s="314"/>
+      <c r="D4" s="314"/>
+      <c r="E4" s="314"/>
+      <c r="F4" s="314"/>
+      <c r="G4" s="314"/>
       <c r="H4" s="72" t="s">
         <v>71</v>
       </c>
       <c r="I4" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="293" t="s">
+      <c r="J4" s="308" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="294"/>
-      <c r="L4" s="294"/>
+      <c r="K4" s="309"/>
+      <c r="L4" s="309"/>
       <c r="M4" s="73" t="s">
         <v>68</v>
       </c>
@@ -7280,24 +7274,24 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="66" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="300"/>
-      <c r="B5" s="300"/>
-      <c r="C5" s="300"/>
-      <c r="D5" s="300"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="300"/>
-      <c r="G5" s="300"/>
+      <c r="A5" s="315"/>
+      <c r="B5" s="315"/>
+      <c r="C5" s="315"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
       <c r="H5" s="72" t="s">
         <v>61</v>
       </c>
       <c r="I5" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="293" t="s">
+      <c r="J5" s="308" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="294"/>
-      <c r="L5" s="294"/>
+      <c r="K5" s="309"/>
+      <c r="L5" s="309"/>
       <c r="M5" s="71" t="s">
         <v>58</v>
       </c>
@@ -8074,21 +8068,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="290" t="s">
+      <c r="A1" s="305" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="291"/>
-      <c r="H1" s="291"/>
-      <c r="I1" s="291"/>
-      <c r="J1" s="291"/>
-      <c r="K1" s="291"/>
-      <c r="L1" s="291"/>
-      <c r="M1" s="292"/>
+      <c r="B1" s="306"/>
+      <c r="C1" s="306"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="306"/>
+      <c r="F1" s="306"/>
+      <c r="G1" s="306"/>
+      <c r="H1" s="306"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="306"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="306"/>
+      <c r="M1" s="307"/>
     </row>
     <row r="2" spans="1:13" s="35" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="86" t="s">

--- a/dist/files/xls/shablon-kd.xlsx
+++ b/dist/files/xls/shablon-kd.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OPEN_SERVER\OSPanel\domains\localhost\www\dist\files\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sshishenko\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="205">
   <si>
     <t>№заказа</t>
   </si>
@@ -711,13 +711,13 @@
     <t>___________________________________</t>
   </si>
   <si>
-    <t>толщина шпона</t>
-  </si>
-  <si>
     <t>ПОЛИРОВКА</t>
   </si>
   <si>
     <t>(есть/нет)</t>
+  </si>
+  <si>
+    <t>№ ОБРАЗЦА</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1804,6 +1804,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1811,7 +1872,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="329">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2260,18 +2321,23 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2284,16 +2350,16 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2394,6 +2460,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2408,6 +2480,15 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2466,6 +2547,9 @@
     <xf numFmtId="0" fontId="40" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2636,17 +2720,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2977,7 +3050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="N22" sqref="N22:P22"/>
     </sheetView>
   </sheetViews>
@@ -3061,25 +3134,25 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="233" t="s">
+      <c r="I2" s="238" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="234"/>
-      <c r="K2" s="234"/>
-      <c r="L2" s="234"/>
-      <c r="M2" s="234"/>
-      <c r="N2" s="235"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="239"/>
+      <c r="L2" s="239"/>
+      <c r="M2" s="239"/>
+      <c r="N2" s="240"/>
       <c r="O2" s="98"/>
-      <c r="P2" s="213" t="s">
+      <c r="P2" s="218" t="s">
         <v>159</v>
       </c>
-      <c r="Q2" s="214"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="214"/>
-      <c r="T2" s="214"/>
-      <c r="U2" s="214"/>
-      <c r="V2" s="215"/>
-      <c r="W2" s="216"/>
+      <c r="Q2" s="219"/>
+      <c r="R2" s="219"/>
+      <c r="S2" s="219"/>
+      <c r="T2" s="219"/>
+      <c r="U2" s="219"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="221"/>
       <c r="X2" s="12"/>
       <c r="Z2" s="12"/>
       <c r="AA2" s="12"/>
@@ -3114,10 +3187,10 @@
         <v>30</v>
       </c>
       <c r="K3" s="101"/>
-      <c r="L3" s="236" t="s">
+      <c r="L3" s="241" t="s">
         <v>192</v>
       </c>
-      <c r="M3" s="236"/>
+      <c r="M3" s="241"/>
       <c r="N3" s="178" t="s">
         <v>31</v>
       </c>
@@ -3129,10 +3202,10 @@
         <v>38</v>
       </c>
       <c r="R3" s="101"/>
-      <c r="S3" s="236" t="s">
+      <c r="S3" s="241" t="s">
         <v>192</v>
       </c>
-      <c r="T3" s="236"/>
+      <c r="T3" s="241"/>
       <c r="U3" s="102" t="s">
         <v>35</v>
       </c>
@@ -3140,19 +3213,19 @@
       <c r="W3" s="26"/>
       <c r="X3" s="12"/>
       <c r="Z3" s="12"/>
-      <c r="AA3" s="262"/>
-      <c r="AB3" s="262"/>
-      <c r="AC3" s="262"/>
-      <c r="AD3" s="262"/>
-      <c r="AE3" s="262"/>
-      <c r="AF3" s="262"/>
+      <c r="AA3" s="273"/>
+      <c r="AB3" s="273"/>
+      <c r="AC3" s="273"/>
+      <c r="AD3" s="273"/>
+      <c r="AE3" s="273"/>
+      <c r="AF3" s="273"/>
       <c r="AG3" s="98"/>
-      <c r="AH3" s="236"/>
-      <c r="AI3" s="236"/>
-      <c r="AJ3" s="236"/>
-      <c r="AK3" s="236"/>
-      <c r="AL3" s="236"/>
-      <c r="AM3" s="236"/>
+      <c r="AH3" s="241"/>
+      <c r="AI3" s="241"/>
+      <c r="AJ3" s="241"/>
+      <c r="AK3" s="241"/>
+      <c r="AL3" s="241"/>
+      <c r="AM3" s="241"/>
       <c r="AN3" s="158"/>
       <c r="AO3" s="25"/>
     </row>
@@ -3172,10 +3245,10 @@
         <v>32</v>
       </c>
       <c r="K4" s="98"/>
-      <c r="L4" s="226" t="s">
+      <c r="L4" s="231" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="226"/>
+      <c r="M4" s="231"/>
       <c r="N4" s="179" t="s">
         <v>158</v>
       </c>
@@ -3187,10 +3260,10 @@
         <v>195</v>
       </c>
       <c r="R4" s="98"/>
-      <c r="S4" s="226" t="s">
+      <c r="S4" s="231" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="226"/>
+      <c r="T4" s="231"/>
       <c r="U4" s="176" t="s">
         <v>158</v>
       </c>
@@ -3201,15 +3274,15 @@
       <c r="AA4" s="170"/>
       <c r="AB4" s="100"/>
       <c r="AC4" s="101"/>
-      <c r="AD4" s="236"/>
-      <c r="AE4" s="236"/>
+      <c r="AD4" s="241"/>
+      <c r="AE4" s="241"/>
       <c r="AF4" s="171"/>
       <c r="AG4" s="98"/>
       <c r="AH4" s="170"/>
       <c r="AI4" s="100"/>
       <c r="AJ4" s="101"/>
-      <c r="AK4" s="236"/>
-      <c r="AL4" s="236"/>
+      <c r="AK4" s="241"/>
+      <c r="AL4" s="241"/>
       <c r="AM4" s="112"/>
       <c r="AN4" s="112"/>
       <c r="AO4" s="25"/>
@@ -3230,10 +3303,10 @@
         <v>157</v>
       </c>
       <c r="K5" s="98"/>
-      <c r="L5" s="226" t="s">
+      <c r="L5" s="231" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="226"/>
+      <c r="M5" s="231"/>
       <c r="N5" s="178" t="s">
         <v>156</v>
       </c>
@@ -3245,10 +3318,10 @@
         <v>157</v>
       </c>
       <c r="R5" s="98"/>
-      <c r="S5" s="226" t="s">
+      <c r="S5" s="231" t="s">
         <v>40</v>
       </c>
-      <c r="T5" s="226"/>
+      <c r="T5" s="231"/>
       <c r="U5" s="102" t="s">
         <v>156</v>
       </c>
@@ -3259,15 +3332,15 @@
       <c r="AA5" s="170"/>
       <c r="AB5" s="102"/>
       <c r="AC5" s="98"/>
-      <c r="AD5" s="226"/>
-      <c r="AE5" s="226"/>
+      <c r="AD5" s="231"/>
+      <c r="AE5" s="231"/>
       <c r="AF5" s="172"/>
       <c r="AG5" s="98"/>
       <c r="AH5" s="170"/>
       <c r="AI5" s="102"/>
       <c r="AJ5" s="98"/>
-      <c r="AK5" s="226"/>
-      <c r="AL5" s="226"/>
+      <c r="AK5" s="231"/>
+      <c r="AL5" s="231"/>
       <c r="AM5" s="113"/>
       <c r="AN5" s="113"/>
       <c r="AO5" s="133"/>
@@ -3295,10 +3368,10 @@
         <v>155</v>
       </c>
       <c r="R6" s="98"/>
-      <c r="S6" s="226" t="s">
+      <c r="S6" s="231" t="s">
         <v>40</v>
       </c>
-      <c r="T6" s="226"/>
+      <c r="T6" s="231"/>
       <c r="U6" s="102" t="s">
         <v>154</v>
       </c>
@@ -3309,15 +3382,15 @@
       <c r="AA6" s="170"/>
       <c r="AB6" s="102"/>
       <c r="AC6" s="98"/>
-      <c r="AD6" s="226"/>
-      <c r="AE6" s="226"/>
+      <c r="AD6" s="231"/>
+      <c r="AE6" s="231"/>
       <c r="AF6" s="171"/>
       <c r="AG6" s="98"/>
       <c r="AH6" s="170"/>
       <c r="AI6" s="102"/>
       <c r="AJ6" s="98"/>
-      <c r="AK6" s="226"/>
-      <c r="AL6" s="226"/>
+      <c r="AK6" s="231"/>
+      <c r="AL6" s="231"/>
       <c r="AM6" s="112"/>
       <c r="AN6" s="112"/>
       <c r="AO6" s="12"/>
@@ -3338,10 +3411,10 @@
         <v>33</v>
       </c>
       <c r="K7" s="98"/>
-      <c r="L7" s="226" t="s">
+      <c r="L7" s="231" t="s">
         <v>193</v>
       </c>
-      <c r="M7" s="226"/>
+      <c r="M7" s="231"/>
       <c r="N7" s="178" t="s">
         <v>34</v>
       </c>
@@ -3353,10 +3426,10 @@
         <v>189</v>
       </c>
       <c r="R7" s="98"/>
-      <c r="S7" s="226" t="s">
+      <c r="S7" s="231" t="s">
         <v>40</v>
       </c>
-      <c r="T7" s="226"/>
+      <c r="T7" s="231"/>
       <c r="U7" s="102" t="s">
         <v>190</v>
       </c>
@@ -3374,8 +3447,8 @@
       <c r="AH7" s="170"/>
       <c r="AI7" s="102"/>
       <c r="AJ7" s="98"/>
-      <c r="AK7" s="226"/>
-      <c r="AL7" s="226"/>
+      <c r="AK7" s="231"/>
+      <c r="AL7" s="231"/>
       <c r="AM7" s="102"/>
       <c r="AN7" s="102"/>
       <c r="AO7" s="24"/>
@@ -3409,10 +3482,10 @@
         <v>33</v>
       </c>
       <c r="R8" s="98"/>
-      <c r="S8" s="226" t="s">
+      <c r="S8" s="231" t="s">
         <v>40</v>
       </c>
-      <c r="T8" s="226"/>
+      <c r="T8" s="231"/>
       <c r="U8" s="102" t="s">
         <v>196</v>
       </c>
@@ -3423,15 +3496,15 @@
       <c r="AA8" s="170"/>
       <c r="AB8" s="102"/>
       <c r="AC8" s="98"/>
-      <c r="AD8" s="226"/>
-      <c r="AE8" s="226"/>
+      <c r="AD8" s="231"/>
+      <c r="AE8" s="231"/>
       <c r="AF8" s="171"/>
       <c r="AG8" s="98"/>
       <c r="AH8" s="170"/>
       <c r="AI8" s="102"/>
       <c r="AJ8" s="98"/>
-      <c r="AK8" s="226"/>
-      <c r="AL8" s="226"/>
+      <c r="AK8" s="231"/>
+      <c r="AL8" s="231"/>
       <c r="AM8" s="112"/>
       <c r="AN8" s="112"/>
       <c r="AO8" s="108"/>
@@ -3451,10 +3524,10 @@
       <c r="L9" s="167" t="s">
         <v>153</v>
       </c>
-      <c r="M9" s="222" t="s">
+      <c r="M9" s="227" t="s">
         <v>152</v>
       </c>
-      <c r="N9" s="223"/>
+      <c r="N9" s="228"/>
       <c r="O9" s="12"/>
       <c r="P9" s="99" t="s">
         <v>36</v>
@@ -3535,41 +3608,41 @@
       <c r="AO10" s="12"/>
     </row>
     <row r="11" spans="1:41" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="227" t="s">
+      <c r="A11" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="228" t="s">
+      <c r="B11" s="233" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="230" t="s">
+      <c r="C11" s="235" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="230" t="s">
+      <c r="D11" s="235" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="230"/>
-      <c r="F11" s="230"/>
-      <c r="G11" s="230"/>
-      <c r="H11" s="231"/>
-      <c r="I11" s="219" t="s">
+      <c r="E11" s="235"/>
+      <c r="F11" s="235"/>
+      <c r="G11" s="235"/>
+      <c r="H11" s="236"/>
+      <c r="I11" s="224" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="220"/>
-      <c r="K11" s="220"/>
-      <c r="L11" s="220"/>
-      <c r="M11" s="220"/>
-      <c r="N11" s="220"/>
-      <c r="O11" s="220"/>
-      <c r="P11" s="220"/>
-      <c r="Q11" s="220"/>
-      <c r="R11" s="221"/>
-      <c r="S11" s="217" t="s">
+      <c r="J11" s="225"/>
+      <c r="K11" s="225"/>
+      <c r="L11" s="225"/>
+      <c r="M11" s="225"/>
+      <c r="N11" s="225"/>
+      <c r="O11" s="225"/>
+      <c r="P11" s="225"/>
+      <c r="Q11" s="225"/>
+      <c r="R11" s="226"/>
+      <c r="S11" s="222" t="s">
         <v>197</v>
       </c>
-      <c r="T11" s="217"/>
-      <c r="U11" s="217"/>
-      <c r="V11" s="217"/>
-      <c r="W11" s="218"/>
+      <c r="T11" s="222"/>
+      <c r="U11" s="222"/>
+      <c r="V11" s="222"/>
+      <c r="W11" s="223"/>
       <c r="X11" s="12"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
@@ -3589,42 +3662,42 @@
       <c r="AO11" s="12"/>
     </row>
     <row r="12" spans="1:41" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="224"/>
-      <c r="B12" s="229"/>
-      <c r="C12" s="204"/>
-      <c r="D12" s="206" t="s">
+      <c r="A12" s="229"/>
+      <c r="B12" s="234"/>
+      <c r="C12" s="209"/>
+      <c r="D12" s="211" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="206" t="s">
+      <c r="E12" s="211" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="206" t="s">
+      <c r="F12" s="211" t="s">
         <v>125</v>
       </c>
-      <c r="G12" s="206" t="s">
+      <c r="G12" s="211" t="s">
         <v>126</v>
       </c>
-      <c r="H12" s="209" t="s">
+      <c r="H12" s="214" t="s">
         <v>127</v>
       </c>
       <c r="I12" s="120"/>
-      <c r="J12" s="245" t="s">
+      <c r="J12" s="255" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="245"/>
-      <c r="L12" s="245"/>
-      <c r="M12" s="245"/>
-      <c r="N12" s="275" t="s">
+      <c r="K12" s="255"/>
+      <c r="L12" s="255"/>
+      <c r="M12" s="255"/>
+      <c r="N12" s="286" t="s">
         <v>170</v>
       </c>
-      <c r="O12" s="276"/>
-      <c r="P12" s="276"/>
-      <c r="Q12" s="276"/>
-      <c r="R12" s="276"/>
-      <c r="S12" s="276"/>
-      <c r="T12" s="276"/>
-      <c r="U12" s="276"/>
-      <c r="V12" s="276"/>
+      <c r="O12" s="287"/>
+      <c r="P12" s="287"/>
+      <c r="Q12" s="287"/>
+      <c r="R12" s="287"/>
+      <c r="S12" s="287"/>
+      <c r="T12" s="287"/>
+      <c r="U12" s="287"/>
+      <c r="V12" s="287"/>
       <c r="W12" s="6"/>
       <c r="X12" s="12"/>
       <c r="Z12" s="12"/>
@@ -3645,21 +3718,21 @@
       <c r="AO12" s="12"/>
     </row>
     <row r="13" spans="1:41" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="224"/>
-      <c r="B13" s="229"/>
-      <c r="C13" s="204"/>
-      <c r="D13" s="208"/>
-      <c r="E13" s="208"/>
-      <c r="F13" s="208"/>
-      <c r="G13" s="208"/>
-      <c r="H13" s="232"/>
+      <c r="A13" s="229"/>
+      <c r="B13" s="234"/>
+      <c r="C13" s="209"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="213"/>
+      <c r="G13" s="213"/>
+      <c r="H13" s="237"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="244" t="s">
+      <c r="J13" s="254" t="s">
         <v>169</v>
       </c>
-      <c r="K13" s="244"/>
-      <c r="L13" s="244"/>
-      <c r="M13" s="244"/>
+      <c r="K13" s="254"/>
+      <c r="L13" s="254"/>
+      <c r="M13" s="254"/>
       <c r="N13" s="142" t="s">
         <v>168</v>
       </c>
@@ -3691,48 +3764,48 @@
       <c r="AO13" s="12"/>
     </row>
     <row r="14" spans="1:41" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="224" t="s">
+      <c r="A14" s="229" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="204" t="s">
+      <c r="B14" s="209" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="204" t="s">
+      <c r="C14" s="209" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="204" t="s">
+      <c r="D14" s="209" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="204" t="s">
+      <c r="E14" s="209" t="s">
         <v>131</v>
       </c>
-      <c r="F14" s="204" t="s">
+      <c r="F14" s="209" t="s">
         <v>191</v>
       </c>
-      <c r="G14" s="206" t="s">
+      <c r="G14" s="211" t="s">
         <v>150</v>
       </c>
-      <c r="H14" s="209" t="s">
+      <c r="H14" s="214" t="s">
         <v>132</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="J14" s="244" t="s">
+      <c r="J14" s="254" t="s">
         <v>114</v>
       </c>
-      <c r="K14" s="244"/>
-      <c r="L14" s="244"/>
-      <c r="M14" s="244"/>
-      <c r="N14" s="263" t="s">
+      <c r="K14" s="254"/>
+      <c r="L14" s="254"/>
+      <c r="M14" s="254"/>
+      <c r="N14" s="274" t="s">
         <v>144</v>
       </c>
-      <c r="O14" s="264"/>
-      <c r="P14" s="264"/>
-      <c r="Q14" s="264"/>
-      <c r="R14" s="264"/>
-      <c r="S14" s="264"/>
-      <c r="T14" s="264"/>
-      <c r="U14" s="264"/>
-      <c r="V14" s="264"/>
+      <c r="O14" s="275"/>
+      <c r="P14" s="275"/>
+      <c r="Q14" s="275"/>
+      <c r="R14" s="275"/>
+      <c r="S14" s="275"/>
+      <c r="T14" s="275"/>
+      <c r="U14" s="275"/>
+      <c r="V14" s="275"/>
       <c r="W14" s="6"/>
       <c r="X14" s="12"/>
       <c r="Z14" s="12"/>
@@ -3753,21 +3826,21 @@
       <c r="AO14" s="12"/>
     </row>
     <row r="15" spans="1:41" ht="24" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="224"/>
-      <c r="B15" s="204"/>
-      <c r="C15" s="204"/>
-      <c r="D15" s="204"/>
-      <c r="E15" s="204"/>
-      <c r="F15" s="204"/>
-      <c r="G15" s="207"/>
-      <c r="H15" s="210"/>
+      <c r="A15" s="229"/>
+      <c r="B15" s="209"/>
+      <c r="C15" s="209"/>
+      <c r="D15" s="209"/>
+      <c r="E15" s="209"/>
+      <c r="F15" s="209"/>
+      <c r="G15" s="212"/>
+      <c r="H15" s="215"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="244" t="s">
+      <c r="J15" s="254" t="s">
         <v>167</v>
       </c>
-      <c r="K15" s="244"/>
-      <c r="L15" s="244"/>
-      <c r="M15" s="244"/>
+      <c r="K15" s="254"/>
+      <c r="L15" s="254"/>
+      <c r="M15" s="254"/>
       <c r="N15" s="143" t="s">
         <v>166</v>
       </c>
@@ -3799,21 +3872,21 @@
       <c r="AO15" s="12"/>
     </row>
     <row r="16" spans="1:41" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="224"/>
-      <c r="B16" s="204"/>
-      <c r="C16" s="204"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="204"/>
-      <c r="F16" s="204"/>
-      <c r="G16" s="207"/>
-      <c r="H16" s="210"/>
+      <c r="A16" s="229"/>
+      <c r="B16" s="209"/>
+      <c r="C16" s="209"/>
+      <c r="D16" s="209"/>
+      <c r="E16" s="209"/>
+      <c r="F16" s="209"/>
+      <c r="G16" s="212"/>
+      <c r="H16" s="215"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="244" t="s">
+      <c r="J16" s="254" t="s">
         <v>165</v>
       </c>
-      <c r="K16" s="244"/>
-      <c r="L16" s="244"/>
-      <c r="M16" s="244"/>
+      <c r="K16" s="254"/>
+      <c r="L16" s="254"/>
+      <c r="M16" s="254"/>
       <c r="N16" s="143" t="s">
         <v>164</v>
       </c>
@@ -3843,67 +3916,67 @@
       <c r="AM16" s="12"/>
     </row>
     <row r="17" spans="1:39" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="224"/>
-      <c r="B17" s="204"/>
-      <c r="C17" s="204"/>
-      <c r="D17" s="204"/>
-      <c r="E17" s="204"/>
-      <c r="F17" s="204"/>
-      <c r="G17" s="208"/>
-      <c r="H17" s="210"/>
+      <c r="A17" s="229"/>
+      <c r="B17" s="209"/>
+      <c r="C17" s="209"/>
+      <c r="D17" s="209"/>
+      <c r="E17" s="209"/>
+      <c r="F17" s="209"/>
+      <c r="G17" s="213"/>
+      <c r="H17" s="215"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="244" t="s">
+      <c r="J17" s="254" t="s">
         <v>163</v>
       </c>
-      <c r="K17" s="244"/>
-      <c r="L17" s="244"/>
-      <c r="M17" s="244"/>
-      <c r="N17" s="263" t="s">
+      <c r="K17" s="254"/>
+      <c r="L17" s="254"/>
+      <c r="M17" s="254"/>
+      <c r="N17" s="274" t="s">
         <v>162</v>
       </c>
-      <c r="O17" s="264"/>
-      <c r="P17" s="264"/>
-      <c r="Q17" s="264"/>
-      <c r="R17" s="264"/>
-      <c r="S17" s="264"/>
-      <c r="T17" s="264"/>
-      <c r="U17" s="264"/>
-      <c r="V17" s="264"/>
+      <c r="O17" s="275"/>
+      <c r="P17" s="275"/>
+      <c r="Q17" s="275"/>
+      <c r="R17" s="275"/>
+      <c r="S17" s="275"/>
+      <c r="T17" s="275"/>
+      <c r="U17" s="275"/>
+      <c r="V17" s="275"/>
       <c r="W17" s="6"/>
       <c r="X17" s="12"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
-      <c r="AC17" s="246"/>
-      <c r="AD17" s="257"/>
-      <c r="AE17" s="250"/>
-      <c r="AF17" s="246"/>
-      <c r="AG17" s="246"/>
-      <c r="AH17" s="246"/>
-      <c r="AI17" s="246"/>
-      <c r="AJ17" s="246"/>
+      <c r="AC17" s="256"/>
+      <c r="AD17" s="267"/>
+      <c r="AE17" s="260"/>
+      <c r="AF17" s="256"/>
+      <c r="AG17" s="256"/>
+      <c r="AH17" s="256"/>
+      <c r="AI17" s="256"/>
+      <c r="AJ17" s="256"/>
       <c r="AK17" s="12"/>
       <c r="AL17" s="12"/>
       <c r="AM17" s="12"/>
     </row>
     <row r="18" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="224"/>
-      <c r="B18" s="204"/>
-      <c r="C18" s="204"/>
-      <c r="D18" s="204"/>
-      <c r="E18" s="204"/>
-      <c r="F18" s="204"/>
-      <c r="G18" s="206" t="s">
+      <c r="A18" s="229"/>
+      <c r="B18" s="209"/>
+      <c r="C18" s="209"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="211" t="s">
         <v>149</v>
       </c>
-      <c r="H18" s="210"/>
+      <c r="H18" s="215"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="245" t="s">
+      <c r="J18" s="255" t="s">
         <v>113</v>
       </c>
-      <c r="K18" s="245"/>
-      <c r="L18" s="245"/>
-      <c r="M18" s="245"/>
+      <c r="K18" s="255"/>
+      <c r="L18" s="255"/>
+      <c r="M18" s="255"/>
       <c r="N18" s="144">
         <v>500</v>
       </c>
@@ -3920,34 +3993,34 @@
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
-      <c r="AC18" s="246"/>
-      <c r="AD18" s="257"/>
-      <c r="AE18" s="250"/>
-      <c r="AF18" s="246"/>
-      <c r="AG18" s="247"/>
-      <c r="AH18" s="247"/>
-      <c r="AI18" s="257"/>
-      <c r="AJ18" s="250"/>
+      <c r="AC18" s="256"/>
+      <c r="AD18" s="267"/>
+      <c r="AE18" s="260"/>
+      <c r="AF18" s="256"/>
+      <c r="AG18" s="257"/>
+      <c r="AH18" s="257"/>
+      <c r="AI18" s="267"/>
+      <c r="AJ18" s="260"/>
       <c r="AK18" s="12"/>
       <c r="AL18" s="12"/>
       <c r="AM18" s="12"/>
     </row>
     <row r="19" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="224"/>
-      <c r="B19" s="204"/>
-      <c r="C19" s="204"/>
-      <c r="D19" s="204"/>
-      <c r="E19" s="204"/>
-      <c r="F19" s="204"/>
-      <c r="G19" s="207"/>
-      <c r="H19" s="210"/>
+      <c r="A19" s="229"/>
+      <c r="B19" s="209"/>
+      <c r="C19" s="209"/>
+      <c r="D19" s="209"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="209"/>
+      <c r="G19" s="212"/>
+      <c r="H19" s="215"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="245" t="s">
+      <c r="J19" s="255" t="s">
         <v>112</v>
       </c>
-      <c r="K19" s="245"/>
-      <c r="L19" s="245"/>
-      <c r="M19" s="245"/>
+      <c r="K19" s="255"/>
+      <c r="L19" s="255"/>
+      <c r="M19" s="255"/>
       <c r="N19" s="144" t="s">
         <v>161</v>
       </c>
@@ -3964,27 +4037,27 @@
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="12"/>
-      <c r="AC19" s="246"/>
-      <c r="AD19" s="257"/>
-      <c r="AE19" s="250"/>
-      <c r="AF19" s="246"/>
-      <c r="AG19" s="247"/>
-      <c r="AH19" s="273"/>
-      <c r="AI19" s="257"/>
-      <c r="AJ19" s="250"/>
+      <c r="AC19" s="256"/>
+      <c r="AD19" s="267"/>
+      <c r="AE19" s="260"/>
+      <c r="AF19" s="256"/>
+      <c r="AG19" s="257"/>
+      <c r="AH19" s="284"/>
+      <c r="AI19" s="267"/>
+      <c r="AJ19" s="260"/>
       <c r="AK19" s="12"/>
       <c r="AL19" s="12"/>
       <c r="AM19" s="12"/>
     </row>
     <row r="20" spans="1:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="225"/>
-      <c r="B20" s="205"/>
-      <c r="C20" s="205"/>
-      <c r="D20" s="205"/>
-      <c r="E20" s="205"/>
-      <c r="F20" s="205"/>
-      <c r="G20" s="212"/>
-      <c r="H20" s="211"/>
+      <c r="A20" s="230"/>
+      <c r="B20" s="210"/>
+      <c r="C20" s="210"/>
+      <c r="D20" s="210"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="217"/>
+      <c r="H20" s="216"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -4004,14 +4077,14 @@
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
-      <c r="AC20" s="251"/>
-      <c r="AD20" s="248"/>
-      <c r="AE20" s="248"/>
-      <c r="AF20" s="248"/>
-      <c r="AG20" s="249"/>
-      <c r="AH20" s="249"/>
-      <c r="AI20" s="251"/>
-      <c r="AJ20" s="274"/>
+      <c r="AC20" s="261"/>
+      <c r="AD20" s="258"/>
+      <c r="AE20" s="258"/>
+      <c r="AF20" s="258"/>
+      <c r="AG20" s="259"/>
+      <c r="AH20" s="259"/>
+      <c r="AI20" s="261"/>
+      <c r="AJ20" s="285"/>
       <c r="AK20" s="12"/>
       <c r="AL20" s="12"/>
       <c r="AM20" s="12"/>
@@ -4025,12 +4098,12 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="255" t="s">
+      <c r="I21" s="265" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="256"/>
-      <c r="K21" s="256"/>
-      <c r="L21" s="256"/>
+      <c r="J21" s="266"/>
+      <c r="K21" s="266"/>
+      <c r="L21" s="266"/>
       <c r="M21" s="5"/>
       <c r="N21" s="145"/>
       <c r="O21" s="5"/>
@@ -4040,33 +4113,33 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="140"/>
-      <c r="V21" s="252" t="s">
+      <c r="V21" s="262" t="s">
         <v>148</v>
       </c>
-      <c r="W21" s="259" t="s">
+      <c r="W21" s="269" t="s">
         <v>147</v>
       </c>
       <c r="X21" s="12"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
-      <c r="AC21" s="251"/>
-      <c r="AD21" s="248"/>
-      <c r="AE21" s="248"/>
-      <c r="AF21" s="248"/>
-      <c r="AG21" s="249"/>
-      <c r="AH21" s="249"/>
-      <c r="AI21" s="251"/>
-      <c r="AJ21" s="274"/>
+      <c r="AC21" s="261"/>
+      <c r="AD21" s="258"/>
+      <c r="AE21" s="258"/>
+      <c r="AF21" s="258"/>
+      <c r="AG21" s="259"/>
+      <c r="AH21" s="259"/>
+      <c r="AI21" s="261"/>
+      <c r="AJ21" s="285"/>
       <c r="AK21" s="12"/>
       <c r="AL21" s="12"/>
       <c r="AM21" s="12"/>
     </row>
     <row r="22" spans="1:39" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="198" t="s">
+      <c r="A22" s="203" t="s">
         <v>198</v>
       </c>
-      <c r="B22" s="199"/>
+      <c r="B22" s="204"/>
       <c r="C22" s="186" t="s">
         <v>199</v>
       </c>
@@ -4080,23 +4153,23 @@
         <v>199</v>
       </c>
       <c r="G22" s="187"/>
-      <c r="H22" s="188"/>
+      <c r="H22" s="196"/>
       <c r="I22" s="111"/>
-      <c r="J22" s="237" t="s">
+      <c r="J22" s="244" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="237"/>
-      <c r="L22" s="237"/>
+      <c r="K22" s="244"/>
+      <c r="L22" s="244"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="240" t="s">
+      <c r="N22" s="247" t="s">
         <v>194</v>
       </c>
-      <c r="O22" s="241"/>
-      <c r="P22" s="241"/>
-      <c r="Q22" s="242" t="s">
+      <c r="O22" s="248"/>
+      <c r="P22" s="248"/>
+      <c r="Q22" s="252" t="s">
         <v>15</v>
       </c>
-      <c r="R22" s="242"/>
+      <c r="R22" s="252"/>
       <c r="S22" s="160" t="s">
         <v>13</v>
       </c>
@@ -4105,38 +4178,38 @@
       </c>
       <c r="U22" s="138">
         <f ca="1">TODAY()</f>
-        <v>43573</v>
-      </c>
-      <c r="V22" s="253"/>
-      <c r="W22" s="260"/>
+        <v>43593</v>
+      </c>
+      <c r="V22" s="263"/>
+      <c r="W22" s="270"/>
       <c r="X22" s="12"/>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="12"/>
-      <c r="AC22" s="251"/>
-      <c r="AD22" s="248"/>
-      <c r="AE22" s="248"/>
-      <c r="AF22" s="248"/>
-      <c r="AG22" s="249"/>
-      <c r="AH22" s="249"/>
-      <c r="AI22" s="251"/>
-      <c r="AJ22" s="274"/>
+      <c r="AC22" s="261"/>
+      <c r="AD22" s="258"/>
+      <c r="AE22" s="258"/>
+      <c r="AF22" s="258"/>
+      <c r="AG22" s="259"/>
+      <c r="AH22" s="259"/>
+      <c r="AI22" s="261"/>
+      <c r="AJ22" s="285"/>
       <c r="AK22" s="12"/>
       <c r="AL22" s="12"/>
       <c r="AM22" s="12"/>
     </row>
     <row r="23" spans="1:39" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="196" t="s">
+      <c r="A23" s="201" t="s">
         <v>200</v>
       </c>
-      <c r="B23" s="197"/>
-      <c r="C23" s="189" t="s">
+      <c r="B23" s="202"/>
+      <c r="C23" s="197" t="s">
         <v>201</v>
       </c>
-      <c r="D23" s="189"/>
-      <c r="E23" s="189"/>
-      <c r="F23" s="189"/>
-      <c r="G23" s="189"/>
+      <c r="D23" s="197"/>
+      <c r="E23" s="197"/>
+      <c r="F23" s="197"/>
+      <c r="G23" s="197"/>
       <c r="H23" s="27"/>
       <c r="I23" s="111"/>
       <c r="J23" s="159"/>
@@ -4145,7 +4218,7 @@
         <v>12</v>
       </c>
       <c r="M23" s="185"/>
-      <c r="N23" s="318"/>
+      <c r="N23" s="194"/>
       <c r="O23" s="185"/>
       <c r="P23" s="185"/>
       <c r="Q23" s="105"/>
@@ -4153,51 +4226,53 @@
       <c r="S23" s="105"/>
       <c r="T23" s="105"/>
       <c r="U23" s="105"/>
-      <c r="V23" s="253"/>
-      <c r="W23" s="260"/>
+      <c r="V23" s="263"/>
+      <c r="W23" s="270"/>
       <c r="X23" s="12"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
-      <c r="AC23" s="251"/>
-      <c r="AD23" s="248"/>
-      <c r="AE23" s="248"/>
-      <c r="AF23" s="248"/>
-      <c r="AG23" s="249"/>
-      <c r="AH23" s="249"/>
-      <c r="AI23" s="251"/>
-      <c r="AJ23" s="274"/>
+      <c r="AC23" s="261"/>
+      <c r="AD23" s="258"/>
+      <c r="AE23" s="258"/>
+      <c r="AF23" s="258"/>
+      <c r="AG23" s="259"/>
+      <c r="AH23" s="259"/>
+      <c r="AI23" s="261"/>
+      <c r="AJ23" s="285"/>
       <c r="AK23" s="12"/>
       <c r="AL23" s="12"/>
       <c r="AM23" s="12"/>
     </row>
-    <row r="24" spans="1:39" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="200"/>
-      <c r="B24" s="201"/>
-      <c r="C24" s="202" t="s">
+    <row r="24" spans="1:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="198"/>
+      <c r="B24" s="189" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="202"/>
-      <c r="E24" s="202" t="s">
+      <c r="D24" s="206"/>
+      <c r="E24" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="202"/>
-      <c r="G24" s="190" t="s">
-        <v>202</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="238" t="s">
+      <c r="F24" s="206"/>
+      <c r="G24" s="249" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="250"/>
+      <c r="I24" s="245" t="s">
         <v>134</v>
       </c>
-      <c r="J24" s="238"/>
-      <c r="K24" s="238"/>
-      <c r="L24" s="238"/>
-      <c r="M24" s="319"/>
-      <c r="N24" s="320" t="s">
+      <c r="J24" s="245"/>
+      <c r="K24" s="245"/>
+      <c r="L24" s="245"/>
+      <c r="M24" s="195"/>
+      <c r="N24" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="O24" s="321"/>
-      <c r="P24" s="321"/>
+      <c r="O24" s="243"/>
+      <c r="P24" s="243"/>
       <c r="Q24" s="161" t="s">
         <v>15</v>
       </c>
@@ -4210,47 +4285,47 @@
       </c>
       <c r="U24" s="138">
         <f ca="1">TODAY()</f>
-        <v>43573</v>
-      </c>
-      <c r="V24" s="253"/>
-      <c r="W24" s="260"/>
+        <v>43593</v>
+      </c>
+      <c r="V24" s="263"/>
+      <c r="W24" s="270"/>
       <c r="X24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
-      <c r="AC24" s="251"/>
-      <c r="AD24" s="248"/>
-      <c r="AE24" s="248"/>
-      <c r="AF24" s="248"/>
-      <c r="AG24" s="249"/>
-      <c r="AH24" s="249"/>
-      <c r="AI24" s="251"/>
-      <c r="AJ24" s="274"/>
+      <c r="AC24" s="261"/>
+      <c r="AD24" s="258"/>
+      <c r="AE24" s="258"/>
+      <c r="AF24" s="258"/>
+      <c r="AG24" s="259"/>
+      <c r="AH24" s="259"/>
+      <c r="AI24" s="261"/>
+      <c r="AJ24" s="285"/>
       <c r="AK24" s="12"/>
       <c r="AL24" s="12"/>
       <c r="AM24" s="12"/>
     </row>
-    <row r="25" spans="1:39" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="200"/>
-      <c r="B25" s="201"/>
-      <c r="C25" s="203"/>
-      <c r="D25" s="203"/>
-      <c r="E25" s="203"/>
-      <c r="F25" s="203"/>
-      <c r="G25" s="191"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="238" t="s">
+    <row r="25" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="198"/>
+      <c r="B25" s="199"/>
+      <c r="C25" s="207"/>
+      <c r="D25" s="208"/>
+      <c r="E25" s="207"/>
+      <c r="F25" s="208"/>
+      <c r="G25" s="207"/>
+      <c r="H25" s="251"/>
+      <c r="I25" s="245" t="s">
         <v>135</v>
       </c>
-      <c r="J25" s="238"/>
-      <c r="K25" s="238"/>
-      <c r="L25" s="238"/>
-      <c r="M25" s="319"/>
-      <c r="N25" s="320" t="s">
+      <c r="J25" s="245"/>
+      <c r="K25" s="245"/>
+      <c r="L25" s="245"/>
+      <c r="M25" s="195"/>
+      <c r="N25" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="O25" s="321"/>
-      <c r="P25" s="321"/>
+      <c r="O25" s="243"/>
+      <c r="P25" s="243"/>
       <c r="Q25" s="161" t="s">
         <v>15</v>
       </c>
@@ -4263,47 +4338,47 @@
       </c>
       <c r="U25" s="138">
         <f ca="1">TODAY()</f>
-        <v>43573</v>
-      </c>
-      <c r="V25" s="253"/>
-      <c r="W25" s="260"/>
+        <v>43593</v>
+      </c>
+      <c r="V25" s="263"/>
+      <c r="W25" s="270"/>
       <c r="X25" s="12"/>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="12"/>
-      <c r="AC25" s="251"/>
-      <c r="AD25" s="248"/>
-      <c r="AE25" s="248"/>
-      <c r="AF25" s="248"/>
-      <c r="AG25" s="249"/>
-      <c r="AH25" s="249"/>
-      <c r="AI25" s="251"/>
-      <c r="AJ25" s="274"/>
+      <c r="AC25" s="261"/>
+      <c r="AD25" s="258"/>
+      <c r="AE25" s="258"/>
+      <c r="AF25" s="258"/>
+      <c r="AG25" s="259"/>
+      <c r="AH25" s="259"/>
+      <c r="AI25" s="261"/>
+      <c r="AJ25" s="285"/>
       <c r="AK25" s="12"/>
       <c r="AL25" s="12"/>
       <c r="AM25" s="12"/>
     </row>
     <row r="26" spans="1:39" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="200"/>
-      <c r="B26" s="201"/>
-      <c r="C26" s="203"/>
-      <c r="D26" s="203"/>
-      <c r="E26" s="203"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="191"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="238" t="s">
+      <c r="A26" s="198"/>
+      <c r="B26" s="199"/>
+      <c r="C26" s="207"/>
+      <c r="D26" s="208"/>
+      <c r="E26" s="207"/>
+      <c r="F26" s="208"/>
+      <c r="G26" s="207"/>
+      <c r="H26" s="251"/>
+      <c r="I26" s="245" t="s">
         <v>136</v>
       </c>
-      <c r="J26" s="238"/>
-      <c r="K26" s="238"/>
-      <c r="L26" s="238"/>
-      <c r="M26" s="319"/>
-      <c r="N26" s="320" t="s">
+      <c r="J26" s="245"/>
+      <c r="K26" s="245"/>
+      <c r="L26" s="245"/>
+      <c r="M26" s="195"/>
+      <c r="N26" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="O26" s="321"/>
-      <c r="P26" s="321"/>
+      <c r="O26" s="243"/>
+      <c r="P26" s="243"/>
       <c r="Q26" s="161" t="s">
         <v>15</v>
       </c>
@@ -4316,50 +4391,50 @@
       </c>
       <c r="U26" s="138">
         <f ca="1">TODAY()</f>
-        <v>43573</v>
-      </c>
-      <c r="V26" s="254"/>
-      <c r="W26" s="260"/>
+        <v>43593</v>
+      </c>
+      <c r="V26" s="264"/>
+      <c r="W26" s="270"/>
       <c r="X26" s="12"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
-      <c r="AC26" s="251"/>
-      <c r="AD26" s="248"/>
-      <c r="AE26" s="248"/>
-      <c r="AF26" s="248"/>
-      <c r="AG26" s="249"/>
-      <c r="AH26" s="249"/>
-      <c r="AI26" s="251"/>
-      <c r="AJ26" s="274"/>
+      <c r="AC26" s="261"/>
+      <c r="AD26" s="258"/>
+      <c r="AE26" s="258"/>
+      <c r="AF26" s="258"/>
+      <c r="AG26" s="259"/>
+      <c r="AH26" s="259"/>
+      <c r="AI26" s="261"/>
+      <c r="AJ26" s="285"/>
       <c r="AK26" s="12"/>
       <c r="AL26" s="12"/>
       <c r="AM26" s="12"/>
     </row>
     <row r="27" spans="1:39" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="200"/>
-      <c r="B27" s="201"/>
-      <c r="C27" s="203"/>
-      <c r="D27" s="203"/>
-      <c r="E27" s="203"/>
-      <c r="F27" s="203"/>
-      <c r="G27" s="191"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="239"/>
-      <c r="J27" s="239"/>
-      <c r="K27" s="239"/>
-      <c r="L27" s="239"/>
-      <c r="M27" s="322"/>
-      <c r="N27" s="322"/>
-      <c r="O27" s="322"/>
-      <c r="P27" s="322"/>
-      <c r="Q27" s="243"/>
-      <c r="R27" s="243"/>
+      <c r="A27" s="198"/>
+      <c r="B27" s="199"/>
+      <c r="C27" s="207"/>
+      <c r="D27" s="208"/>
+      <c r="E27" s="207"/>
+      <c r="F27" s="208"/>
+      <c r="G27" s="207"/>
+      <c r="H27" s="251"/>
+      <c r="I27" s="246"/>
+      <c r="J27" s="246"/>
+      <c r="K27" s="246"/>
+      <c r="L27" s="246"/>
+      <c r="M27" s="272"/>
+      <c r="N27" s="272"/>
+      <c r="O27" s="272"/>
+      <c r="P27" s="272"/>
+      <c r="Q27" s="253"/>
+      <c r="R27" s="253"/>
       <c r="S27" s="161"/>
       <c r="T27" s="161"/>
       <c r="U27" s="161"/>
       <c r="V27" s="161"/>
-      <c r="W27" s="260"/>
+      <c r="W27" s="270"/>
       <c r="X27" s="12"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
@@ -4377,32 +4452,32 @@
       <c r="AM27" s="12"/>
     </row>
     <row r="28" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="196" t="s">
-        <v>203</v>
-      </c>
-      <c r="B28" s="197"/>
-      <c r="C28" s="189"/>
-      <c r="D28" s="189"/>
-      <c r="E28" s="189"/>
-      <c r="F28" s="192"/>
-      <c r="G28" s="192"/>
-      <c r="H28" s="27"/>
+      <c r="A28" s="201" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" s="202"/>
+      <c r="C28" s="188"/>
+      <c r="D28" s="188"/>
+      <c r="E28" s="188"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="190"/>
+      <c r="H28" s="200"/>
       <c r="I28" s="105"/>
-      <c r="J28" s="237" t="s">
+      <c r="J28" s="244" t="s">
         <v>133</v>
       </c>
-      <c r="K28" s="237"/>
-      <c r="L28" s="237"/>
-      <c r="M28" s="319"/>
-      <c r="N28" s="320" t="s">
+      <c r="K28" s="244"/>
+      <c r="L28" s="244"/>
+      <c r="M28" s="195"/>
+      <c r="N28" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="O28" s="321"/>
-      <c r="P28" s="321"/>
-      <c r="Q28" s="243" t="s">
+      <c r="O28" s="243"/>
+      <c r="P28" s="243"/>
+      <c r="Q28" s="253" t="s">
         <v>15</v>
       </c>
-      <c r="R28" s="243"/>
+      <c r="R28" s="253"/>
       <c r="S28" s="161" t="s">
         <v>13</v>
       </c>
@@ -4411,10 +4486,10 @@
       </c>
       <c r="U28" s="138">
         <f ca="1">TODAY()</f>
-        <v>43573</v>
+        <v>43593</v>
       </c>
       <c r="V28" s="161"/>
-      <c r="W28" s="260"/>
+      <c r="W28" s="270"/>
       <c r="X28" s="12"/>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
@@ -4434,14 +4509,14 @@
     <row r="29" spans="1:39" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="128"/>
       <c r="B29" s="127"/>
-      <c r="C29" s="272" t="s">
-        <v>204</v>
-      </c>
-      <c r="D29" s="272"/>
-      <c r="E29" s="272"/>
-      <c r="F29" s="272"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="194"/>
+      <c r="C29" s="283" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" s="283"/>
+      <c r="E29" s="283"/>
+      <c r="F29" s="283"/>
+      <c r="G29" s="191"/>
+      <c r="H29" s="192"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
@@ -4455,8 +4530,8 @@
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
-      <c r="V29" s="195"/>
-      <c r="W29" s="261"/>
+      <c r="V29" s="193"/>
+      <c r="W29" s="271"/>
       <c r="X29" s="12"/>
     </row>
     <row r="30" spans="1:39" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4485,13 +4560,13 @@
       <c r="W30" s="6"/>
       <c r="X30" s="12"/>
     </row>
-    <row r="31" spans="1:39" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="271"/>
-      <c r="D31" s="271"/>
-      <c r="E31" s="271"/>
-      <c r="F31" s="271"/>
+      <c r="C31" s="282"/>
+      <c r="D31" s="282"/>
+      <c r="E31" s="282"/>
+      <c r="F31" s="282"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -4517,25 +4592,25 @@
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="197" t="s">
+      <c r="F32" s="202" t="s">
         <v>137</v>
       </c>
-      <c r="G32" s="197"/>
-      <c r="H32" s="197"/>
-      <c r="I32" s="197"/>
-      <c r="J32" s="197"/>
-      <c r="K32" s="197"/>
-      <c r="L32" s="197"/>
+      <c r="G32" s="202"/>
+      <c r="H32" s="202"/>
+      <c r="I32" s="202"/>
+      <c r="J32" s="202"/>
+      <c r="K32" s="202"/>
+      <c r="L32" s="202"/>
       <c r="M32" s="161" t="s">
         <v>186</v>
       </c>
       <c r="N32" s="146"/>
       <c r="O32" s="105"/>
       <c r="P32" s="105"/>
-      <c r="Q32" s="242" t="s">
+      <c r="Q32" s="252" t="s">
         <v>15</v>
       </c>
-      <c r="R32" s="242"/>
+      <c r="R32" s="252"/>
       <c r="S32" s="160" t="s">
         <v>13</v>
       </c>
@@ -4544,12 +4619,12 @@
       </c>
       <c r="U32" s="138">
         <f ca="1">TODAY()</f>
-        <v>43573</v>
-      </c>
-      <c r="V32" s="265" t="s">
+        <v>43593</v>
+      </c>
+      <c r="V32" s="276" t="s">
         <v>145</v>
       </c>
-      <c r="W32" s="266"/>
+      <c r="W32" s="277"/>
       <c r="X32" s="12"/>
     </row>
     <row r="33" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4558,15 +4633,15 @@
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="197" t="s">
+      <c r="F33" s="202" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="197"/>
-      <c r="H33" s="197"/>
-      <c r="I33" s="197"/>
-      <c r="J33" s="197"/>
-      <c r="K33" s="197"/>
-      <c r="L33" s="197"/>
+      <c r="G33" s="202"/>
+      <c r="H33" s="202"/>
+      <c r="I33" s="202"/>
+      <c r="J33" s="202"/>
+      <c r="K33" s="202"/>
+      <c r="L33" s="202"/>
       <c r="M33" s="161" t="s">
         <v>117</v>
       </c>
@@ -4575,10 +4650,10 @@
       </c>
       <c r="O33" s="105"/>
       <c r="P33" s="105"/>
-      <c r="Q33" s="242" t="s">
+      <c r="Q33" s="252" t="s">
         <v>15</v>
       </c>
-      <c r="R33" s="242"/>
+      <c r="R33" s="252"/>
       <c r="S33" s="160" t="s">
         <v>13</v>
       </c>
@@ -4587,10 +4662,10 @@
       </c>
       <c r="U33" s="138">
         <f t="shared" ref="U33:U37" ca="1" si="0">TODAY()</f>
-        <v>43573</v>
-      </c>
-      <c r="V33" s="267"/>
-      <c r="W33" s="268"/>
+        <v>43593</v>
+      </c>
+      <c r="V33" s="278"/>
+      <c r="W33" s="279"/>
       <c r="X33" s="12"/>
     </row>
     <row r="34" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4599,15 +4674,15 @@
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="197" t="s">
+      <c r="F34" s="202" t="s">
         <v>138</v>
       </c>
-      <c r="G34" s="197"/>
-      <c r="H34" s="197"/>
-      <c r="I34" s="197"/>
-      <c r="J34" s="197"/>
-      <c r="K34" s="197"/>
-      <c r="L34" s="197"/>
+      <c r="G34" s="202"/>
+      <c r="H34" s="202"/>
+      <c r="I34" s="202"/>
+      <c r="J34" s="202"/>
+      <c r="K34" s="202"/>
+      <c r="L34" s="202"/>
       <c r="M34" s="161" t="s">
         <v>139</v>
       </c>
@@ -4616,10 +4691,10 @@
         <v>140</v>
       </c>
       <c r="P34" s="105"/>
-      <c r="Q34" s="242" t="s">
+      <c r="Q34" s="252" t="s">
         <v>15</v>
       </c>
-      <c r="R34" s="242"/>
+      <c r="R34" s="252"/>
       <c r="S34" s="160" t="s">
         <v>13</v>
       </c>
@@ -4628,10 +4703,10 @@
       </c>
       <c r="U34" s="138">
         <f t="shared" ca="1" si="0"/>
-        <v>43573</v>
-      </c>
-      <c r="V34" s="267"/>
-      <c r="W34" s="268"/>
+        <v>43593</v>
+      </c>
+      <c r="V34" s="278"/>
+      <c r="W34" s="279"/>
       <c r="X34" s="12"/>
     </row>
     <row r="35" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4647,16 +4722,16 @@
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
-      <c r="M35" s="258" t="s">
+      <c r="M35" s="268" t="s">
         <v>188</v>
       </c>
-      <c r="N35" s="258"/>
-      <c r="O35" s="258"/>
-      <c r="P35" s="258"/>
-      <c r="Q35" s="242" t="s">
+      <c r="N35" s="268"/>
+      <c r="O35" s="268"/>
+      <c r="P35" s="268"/>
+      <c r="Q35" s="252" t="s">
         <v>15</v>
       </c>
-      <c r="R35" s="242"/>
+      <c r="R35" s="252"/>
       <c r="S35" s="160" t="s">
         <v>13</v>
       </c>
@@ -4665,10 +4740,10 @@
       </c>
       <c r="U35" s="138">
         <f t="shared" ca="1" si="0"/>
-        <v>43573</v>
-      </c>
-      <c r="V35" s="267"/>
-      <c r="W35" s="268"/>
+        <v>43593</v>
+      </c>
+      <c r="V35" s="278"/>
+      <c r="W35" s="279"/>
       <c r="X35" s="12"/>
     </row>
     <row r="36" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -4684,46 +4759,46 @@
       <c r="J36" s="110"/>
       <c r="K36" s="110"/>
       <c r="L36" s="110"/>
-      <c r="M36" s="277"/>
-      <c r="N36" s="277"/>
+      <c r="M36" s="288"/>
+      <c r="N36" s="288"/>
       <c r="O36" s="105"/>
       <c r="P36" s="105"/>
-      <c r="Q36" s="242"/>
-      <c r="R36" s="242"/>
+      <c r="Q36" s="252"/>
+      <c r="R36" s="252"/>
       <c r="S36" s="160"/>
       <c r="T36" s="160"/>
       <c r="U36" s="138"/>
-      <c r="V36" s="267"/>
-      <c r="W36" s="268"/>
+      <c r="V36" s="278"/>
+      <c r="W36" s="279"/>
       <c r="X36" s="12"/>
     </row>
     <row r="37" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="278" t="s">
+      <c r="D37" s="289" t="s">
         <v>141</v>
       </c>
-      <c r="E37" s="278"/>
-      <c r="F37" s="278"/>
-      <c r="G37" s="278"/>
-      <c r="H37" s="278"/>
-      <c r="I37" s="278"/>
-      <c r="J37" s="278"/>
-      <c r="K37" s="278"/>
-      <c r="L37" s="279" t="s">
+      <c r="E37" s="289"/>
+      <c r="F37" s="289"/>
+      <c r="G37" s="289"/>
+      <c r="H37" s="289"/>
+      <c r="I37" s="289"/>
+      <c r="J37" s="289"/>
+      <c r="K37" s="289"/>
+      <c r="L37" s="290" t="s">
         <v>142</v>
       </c>
-      <c r="M37" s="279"/>
-      <c r="N37" s="279"/>
+      <c r="M37" s="290"/>
+      <c r="N37" s="290"/>
       <c r="O37" s="105" t="s">
         <v>140</v>
       </c>
       <c r="P37" s="105"/>
-      <c r="Q37" s="242" t="s">
+      <c r="Q37" s="252" t="s">
         <v>15</v>
       </c>
-      <c r="R37" s="242"/>
+      <c r="R37" s="252"/>
       <c r="S37" s="160" t="s">
         <v>13</v>
       </c>
@@ -4732,10 +4807,10 @@
       </c>
       <c r="U37" s="138">
         <f t="shared" ca="1" si="0"/>
-        <v>43573</v>
-      </c>
-      <c r="V37" s="269"/>
-      <c r="W37" s="270"/>
+        <v>43593</v>
+      </c>
+      <c r="V37" s="280"/>
+      <c r="W37" s="281"/>
       <c r="X37" s="12"/>
     </row>
     <row r="38" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4843,7 +4918,7 @@
       <c r="X41" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="119">
+  <mergeCells count="122">
     <mergeCell ref="AI24:AI26"/>
     <mergeCell ref="F33:L33"/>
     <mergeCell ref="V32:W37"/>
@@ -4927,6 +5002,10 @@
     <mergeCell ref="I27:L27"/>
     <mergeCell ref="I26:L26"/>
     <mergeCell ref="N22:P22"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
     <mergeCell ref="F14:F20"/>
     <mergeCell ref="G14:G17"/>
     <mergeCell ref="H14:H20"/>
@@ -4954,7 +5033,6 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B27"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="C25:D25"/>
@@ -5005,21 +5083,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="55.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="291" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="281"/>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="281"/>
-      <c r="K1" s="281"/>
-      <c r="L1" s="281"/>
-      <c r="M1" s="282"/>
+      <c r="B1" s="292"/>
+      <c r="C1" s="292"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="292"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="293"/>
     </row>
     <row r="2" spans="1:13" ht="184.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
@@ -5161,11 +5239,11 @@
       <c r="F1" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="283" t="s">
+      <c r="G1" s="294" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="284"/>
-      <c r="I1" s="285"/>
+      <c r="H1" s="295"/>
+      <c r="I1" s="296"/>
       <c r="J1" s="97" t="s">
         <v>104</v>
       </c>
@@ -5788,12 +5866,12 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="297" t="s">
+      <c r="G2" s="308" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="298"/>
-      <c r="I2" s="298"/>
-      <c r="J2" s="298"/>
+      <c r="H2" s="309"/>
+      <c r="I2" s="309"/>
+      <c r="J2" s="309"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -5806,28 +5884,28 @@
       <c r="T2" s="6"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="300" t="s">
+      <c r="A3" s="311" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="301"/>
-      <c r="C3" s="301"/>
-      <c r="D3" s="301"/>
-      <c r="E3" s="301"/>
-      <c r="F3" s="301"/>
-      <c r="G3" s="301"/>
-      <c r="H3" s="301"/>
-      <c r="I3" s="301"/>
-      <c r="J3" s="301"/>
-      <c r="K3" s="302" t="s">
+      <c r="B3" s="312"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="312"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="312"/>
+      <c r="G3" s="312"/>
+      <c r="H3" s="312"/>
+      <c r="I3" s="312"/>
+      <c r="J3" s="312"/>
+      <c r="K3" s="313" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="302"/>
-      <c r="M3" s="302"/>
-      <c r="N3" s="302"/>
-      <c r="O3" s="242" t="s">
+      <c r="L3" s="313"/>
+      <c r="M3" s="313"/>
+      <c r="N3" s="313"/>
+      <c r="O3" s="252" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="242"/>
+      <c r="P3" s="252"/>
       <c r="Q3" s="118" t="s">
         <v>13</v>
       </c>
@@ -5836,7 +5914,7 @@
       </c>
       <c r="S3" s="139">
         <f ca="1">TODAY()</f>
-        <v>43573</v>
+        <v>43593</v>
       </c>
       <c r="T3" s="6"/>
     </row>
@@ -5885,11 +5963,11 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="303" t="s">
+      <c r="A6" s="314" t="s">
         <v>184</v>
       </c>
-      <c r="B6" s="304"/>
-      <c r="C6" s="304"/>
+      <c r="B6" s="315"/>
+      <c r="C6" s="315"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -5909,11 +5987,11 @@
       <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="303" t="s">
+      <c r="A7" s="314" t="s">
         <v>183</v>
       </c>
-      <c r="B7" s="304"/>
-      <c r="C7" s="304"/>
+      <c r="B7" s="315"/>
+      <c r="C7" s="315"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -5933,11 +6011,11 @@
       <c r="T7" s="6"/>
     </row>
     <row r="8" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="303" t="s">
+      <c r="A8" s="314" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="304"/>
-      <c r="C8" s="304"/>
+      <c r="B8" s="315"/>
+      <c r="C8" s="315"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -6027,20 +6105,20 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="286" t="s">
+      <c r="E12" s="297" t="s">
         <v>181</v>
       </c>
-      <c r="F12" s="287"/>
-      <c r="G12" s="287"/>
-      <c r="H12" s="287"/>
-      <c r="I12" s="287"/>
-      <c r="J12" s="287"/>
-      <c r="K12" s="287"/>
-      <c r="L12" s="287"/>
-      <c r="M12" s="287"/>
-      <c r="N12" s="287"/>
-      <c r="O12" s="287"/>
-      <c r="P12" s="287"/>
+      <c r="F12" s="298"/>
+      <c r="G12" s="298"/>
+      <c r="H12" s="298"/>
+      <c r="I12" s="298"/>
+      <c r="J12" s="298"/>
+      <c r="K12" s="298"/>
+      <c r="L12" s="298"/>
+      <c r="M12" s="298"/>
+      <c r="N12" s="298"/>
+      <c r="O12" s="298"/>
+      <c r="P12" s="298"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -6051,18 +6129,18 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="287"/>
-      <c r="F13" s="287"/>
-      <c r="G13" s="287"/>
-      <c r="H13" s="287"/>
-      <c r="I13" s="287"/>
-      <c r="J13" s="287"/>
-      <c r="K13" s="287"/>
-      <c r="L13" s="287"/>
-      <c r="M13" s="287"/>
-      <c r="N13" s="287"/>
-      <c r="O13" s="287"/>
-      <c r="P13" s="287"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="298"/>
+      <c r="J13" s="298"/>
+      <c r="K13" s="298"/>
+      <c r="L13" s="298"/>
+      <c r="M13" s="298"/>
+      <c r="N13" s="298"/>
+      <c r="O13" s="298"/>
+      <c r="P13" s="298"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
@@ -6073,18 +6151,18 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="287"/>
-      <c r="F14" s="287"/>
-      <c r="G14" s="287"/>
-      <c r="H14" s="287"/>
-      <c r="I14" s="287"/>
-      <c r="J14" s="287"/>
-      <c r="K14" s="287"/>
-      <c r="L14" s="287"/>
-      <c r="M14" s="287"/>
-      <c r="N14" s="287"/>
-      <c r="O14" s="287"/>
-      <c r="P14" s="287"/>
+      <c r="E14" s="298"/>
+      <c r="F14" s="298"/>
+      <c r="G14" s="298"/>
+      <c r="H14" s="298"/>
+      <c r="I14" s="298"/>
+      <c r="J14" s="298"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
+      <c r="M14" s="298"/>
+      <c r="N14" s="298"/>
+      <c r="O14" s="298"/>
+      <c r="P14" s="298"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
@@ -6118,23 +6196,23 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="244" t="s">
+      <c r="F16" s="254" t="s">
         <v>180</v>
       </c>
-      <c r="G16" s="288"/>
-      <c r="H16" s="288"/>
-      <c r="I16" s="288"/>
-      <c r="J16" s="289" t="str">
+      <c r="G16" s="299"/>
+      <c r="H16" s="299"/>
+      <c r="I16" s="299"/>
+      <c r="J16" s="300" t="str">
         <f>'лист титульный КД'!N12</f>
         <v>Иванов И.И</v>
       </c>
-      <c r="K16" s="289"/>
-      <c r="L16" s="289"/>
-      <c r="M16" s="289"/>
-      <c r="N16" s="289"/>
-      <c r="O16" s="289"/>
-      <c r="P16" s="289"/>
-      <c r="Q16" s="289"/>
+      <c r="K16" s="300"/>
+      <c r="L16" s="300"/>
+      <c r="M16" s="300"/>
+      <c r="N16" s="300"/>
+      <c r="O16" s="300"/>
+      <c r="P16" s="300"/>
+      <c r="Q16" s="300"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="6"/>
@@ -6145,23 +6223,23 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="244" t="s">
+      <c r="F17" s="254" t="s">
         <v>179</v>
       </c>
-      <c r="G17" s="288"/>
-      <c r="H17" s="288"/>
-      <c r="I17" s="288"/>
-      <c r="J17" s="290" t="str">
+      <c r="G17" s="299"/>
+      <c r="H17" s="299"/>
+      <c r="I17" s="299"/>
+      <c r="J17" s="301" t="str">
         <f>'лист титульный КД'!N13</f>
         <v>Петров П.П.</v>
       </c>
-      <c r="K17" s="290"/>
-      <c r="L17" s="290"/>
-      <c r="M17" s="290"/>
-      <c r="N17" s="290"/>
-      <c r="O17" s="290"/>
-      <c r="P17" s="290"/>
-      <c r="Q17" s="290"/>
+      <c r="K17" s="301"/>
+      <c r="L17" s="301"/>
+      <c r="M17" s="301"/>
+      <c r="N17" s="301"/>
+      <c r="O17" s="301"/>
+      <c r="P17" s="301"/>
+      <c r="Q17" s="301"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="6"/>
@@ -6172,25 +6250,25 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="244" t="s">
+      <c r="F18" s="254" t="s">
         <v>178</v>
       </c>
-      <c r="G18" s="288"/>
-      <c r="H18" s="288"/>
-      <c r="I18" s="288"/>
-      <c r="J18" s="289" t="str">
+      <c r="G18" s="299"/>
+      <c r="H18" s="299"/>
+      <c r="I18" s="299"/>
+      <c r="J18" s="300" t="str">
         <f>'лист титульный КД'!N14</f>
         <v>г. Москва, ул. Нарвская, д.2</v>
       </c>
-      <c r="K18" s="291"/>
-      <c r="L18" s="291"/>
-      <c r="M18" s="291"/>
-      <c r="N18" s="291"/>
-      <c r="O18" s="291"/>
-      <c r="P18" s="291"/>
-      <c r="Q18" s="291"/>
-      <c r="R18" s="291"/>
-      <c r="S18" s="291"/>
+      <c r="K18" s="302"/>
+      <c r="L18" s="302"/>
+      <c r="M18" s="302"/>
+      <c r="N18" s="302"/>
+      <c r="O18" s="302"/>
+      <c r="P18" s="302"/>
+      <c r="Q18" s="302"/>
+      <c r="R18" s="302"/>
+      <c r="S18" s="302"/>
       <c r="T18" s="6"/>
     </row>
     <row r="19" spans="1:20" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -6199,23 +6277,23 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="244" t="s">
+      <c r="F19" s="254" t="s">
         <v>177</v>
       </c>
-      <c r="G19" s="288"/>
-      <c r="H19" s="288"/>
-      <c r="I19" s="288"/>
-      <c r="J19" s="290" t="str">
+      <c r="G19" s="299"/>
+      <c r="H19" s="299"/>
+      <c r="I19" s="299"/>
+      <c r="J19" s="301" t="str">
         <f>'лист титульный КД'!N15</f>
         <v>восьмой</v>
       </c>
-      <c r="K19" s="290"/>
-      <c r="L19" s="290"/>
-      <c r="M19" s="290"/>
-      <c r="N19" s="290"/>
-      <c r="O19" s="290"/>
-      <c r="P19" s="290"/>
-      <c r="Q19" s="290"/>
+      <c r="K19" s="301"/>
+      <c r="L19" s="301"/>
+      <c r="M19" s="301"/>
+      <c r="N19" s="301"/>
+      <c r="O19" s="301"/>
+      <c r="P19" s="301"/>
+      <c r="Q19" s="301"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="6"/>
@@ -6226,23 +6304,23 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="244" t="s">
+      <c r="F20" s="254" t="s">
         <v>176</v>
       </c>
-      <c r="G20" s="288"/>
-      <c r="H20" s="288"/>
-      <c r="I20" s="288"/>
-      <c r="J20" s="290" t="str">
+      <c r="G20" s="299"/>
+      <c r="H20" s="299"/>
+      <c r="I20" s="299"/>
+      <c r="J20" s="301" t="str">
         <f>'лист титульный КД'!N16</f>
         <v>кухня</v>
       </c>
-      <c r="K20" s="290"/>
-      <c r="L20" s="290"/>
-      <c r="M20" s="290"/>
-      <c r="N20" s="290"/>
-      <c r="O20" s="290"/>
-      <c r="P20" s="290"/>
-      <c r="Q20" s="290"/>
+      <c r="K20" s="301"/>
+      <c r="L20" s="301"/>
+      <c r="M20" s="301"/>
+      <c r="N20" s="301"/>
+      <c r="O20" s="301"/>
+      <c r="P20" s="301"/>
+      <c r="Q20" s="301"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="6"/>
@@ -6253,23 +6331,23 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="244" t="s">
+      <c r="F21" s="254" t="s">
         <v>175</v>
       </c>
-      <c r="G21" s="288"/>
-      <c r="H21" s="288"/>
-      <c r="I21" s="288"/>
-      <c r="J21" s="289" t="str">
+      <c r="G21" s="299"/>
+      <c r="H21" s="299"/>
+      <c r="I21" s="299"/>
+      <c r="J21" s="300" t="str">
         <f>'лист титульный КД'!N17</f>
         <v>гарнитур кухонный, дверной блок</v>
       </c>
-      <c r="K21" s="289"/>
-      <c r="L21" s="289"/>
-      <c r="M21" s="289"/>
-      <c r="N21" s="289"/>
-      <c r="O21" s="289"/>
-      <c r="P21" s="289"/>
-      <c r="Q21" s="289"/>
+      <c r="K21" s="300"/>
+      <c r="L21" s="300"/>
+      <c r="M21" s="300"/>
+      <c r="N21" s="300"/>
+      <c r="O21" s="300"/>
+      <c r="P21" s="300"/>
+      <c r="Q21" s="300"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="6"/>
@@ -6280,23 +6358,23 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="244" t="s">
+      <c r="F22" s="254" t="s">
         <v>174</v>
       </c>
-      <c r="G22" s="288"/>
-      <c r="H22" s="288"/>
-      <c r="I22" s="288"/>
-      <c r="J22" s="290">
+      <c r="G22" s="299"/>
+      <c r="H22" s="299"/>
+      <c r="I22" s="299"/>
+      <c r="J22" s="301">
         <f>'лист титульный КД'!N18</f>
         <v>500</v>
       </c>
-      <c r="K22" s="290"/>
-      <c r="L22" s="290"/>
-      <c r="M22" s="290"/>
-      <c r="N22" s="290"/>
-      <c r="O22" s="290"/>
-      <c r="P22" s="290"/>
-      <c r="Q22" s="290"/>
+      <c r="K22" s="301"/>
+      <c r="L22" s="301"/>
+      <c r="M22" s="301"/>
+      <c r="N22" s="301"/>
+      <c r="O22" s="301"/>
+      <c r="P22" s="301"/>
+      <c r="Q22" s="301"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="6"/>
@@ -6307,23 +6385,23 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="244" t="s">
+      <c r="F23" s="254" t="s">
         <v>173</v>
       </c>
-      <c r="G23" s="288"/>
-      <c r="H23" s="288"/>
-      <c r="I23" s="288"/>
-      <c r="J23" s="290" t="str">
+      <c r="G23" s="299"/>
+      <c r="H23" s="299"/>
+      <c r="I23" s="299"/>
+      <c r="J23" s="301" t="str">
         <f>'лист титульный КД'!N19</f>
         <v>1-15,16</v>
       </c>
-      <c r="K23" s="290"/>
-      <c r="L23" s="290"/>
-      <c r="M23" s="290"/>
-      <c r="N23" s="290"/>
-      <c r="O23" s="290"/>
-      <c r="P23" s="290"/>
-      <c r="Q23" s="290"/>
+      <c r="K23" s="301"/>
+      <c r="L23" s="301"/>
+      <c r="M23" s="301"/>
+      <c r="N23" s="301"/>
+      <c r="O23" s="301"/>
+      <c r="P23" s="301"/>
+      <c r="Q23" s="301"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="6"/>
@@ -6423,12 +6501,12 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="292" t="s">
+      <c r="G28" s="303" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="293"/>
-      <c r="I28" s="293"/>
-      <c r="J28" s="293"/>
+      <c r="H28" s="304"/>
+      <c r="I28" s="304"/>
+      <c r="J28" s="304"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -6441,29 +6519,29 @@
       <c r="T28" s="6"/>
     </row>
     <row r="29" spans="1:20" s="129" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="299" t="s">
+      <c r="A29" s="310" t="s">
         <v>185</v>
       </c>
-      <c r="B29" s="293"/>
-      <c r="C29" s="293"/>
-      <c r="D29" s="293"/>
-      <c r="E29" s="293"/>
-      <c r="F29" s="293"/>
-      <c r="G29" s="293"/>
-      <c r="H29" s="293"/>
-      <c r="I29" s="293"/>
-      <c r="J29" s="293"/>
-      <c r="K29" s="296" t="str">
+      <c r="B29" s="304"/>
+      <c r="C29" s="304"/>
+      <c r="D29" s="304"/>
+      <c r="E29" s="304"/>
+      <c r="F29" s="304"/>
+      <c r="G29" s="304"/>
+      <c r="H29" s="304"/>
+      <c r="I29" s="304"/>
+      <c r="J29" s="304"/>
+      <c r="K29" s="307" t="str">
         <f>IF(builder=0,"",builder)</f>
         <v>_________________</v>
       </c>
-      <c r="L29" s="296"/>
-      <c r="M29" s="296"/>
-      <c r="N29" s="296"/>
-      <c r="O29" s="296" t="s">
+      <c r="L29" s="307"/>
+      <c r="M29" s="307"/>
+      <c r="N29" s="307"/>
+      <c r="O29" s="307" t="s">
         <v>15</v>
       </c>
-      <c r="P29" s="296"/>
+      <c r="P29" s="307"/>
       <c r="Q29" s="131" t="s">
         <v>13</v>
       </c>
@@ -6472,7 +6550,7 @@
       </c>
       <c r="S29" s="139">
         <f ca="1">TODAY()</f>
-        <v>43573</v>
+        <v>43593</v>
       </c>
       <c r="T29" s="130"/>
     </row>
@@ -6505,12 +6583,12 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="292" t="s">
+      <c r="G31" s="303" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="293"/>
-      <c r="I31" s="293"/>
-      <c r="J31" s="293"/>
+      <c r="H31" s="304"/>
+      <c r="I31" s="304"/>
+      <c r="J31" s="304"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -6523,28 +6601,28 @@
       <c r="T31" s="6"/>
     </row>
     <row r="32" spans="1:20" s="129" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="294" t="s">
+      <c r="A32" s="305" t="s">
         <v>172</v>
       </c>
-      <c r="B32" s="293"/>
-      <c r="C32" s="293"/>
-      <c r="D32" s="293"/>
-      <c r="E32" s="293"/>
-      <c r="F32" s="293"/>
-      <c r="G32" s="293"/>
-      <c r="H32" s="293"/>
-      <c r="I32" s="293"/>
-      <c r="J32" s="293"/>
-      <c r="K32" s="295" t="s">
+      <c r="B32" s="304"/>
+      <c r="C32" s="304"/>
+      <c r="D32" s="304"/>
+      <c r="E32" s="304"/>
+      <c r="F32" s="304"/>
+      <c r="G32" s="304"/>
+      <c r="H32" s="304"/>
+      <c r="I32" s="304"/>
+      <c r="J32" s="304"/>
+      <c r="K32" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="L32" s="295"/>
-      <c r="M32" s="295"/>
-      <c r="N32" s="295"/>
-      <c r="O32" s="296" t="s">
+      <c r="L32" s="306"/>
+      <c r="M32" s="306"/>
+      <c r="N32" s="306"/>
+      <c r="O32" s="307" t="s">
         <v>15</v>
       </c>
-      <c r="P32" s="296"/>
+      <c r="P32" s="307"/>
       <c r="Q32" s="131" t="s">
         <v>13</v>
       </c>
@@ -6553,33 +6631,33 @@
       </c>
       <c r="S32" s="139">
         <f ca="1">TODAY()</f>
-        <v>43573</v>
+        <v>43593</v>
       </c>
       <c r="T32" s="130"/>
     </row>
     <row r="33" spans="1:20" s="129" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="294" t="s">
+      <c r="A33" s="305" t="s">
         <v>171</v>
       </c>
-      <c r="B33" s="293"/>
-      <c r="C33" s="293"/>
-      <c r="D33" s="293"/>
-      <c r="E33" s="293"/>
-      <c r="F33" s="293"/>
-      <c r="G33" s="293"/>
-      <c r="H33" s="293"/>
-      <c r="I33" s="293"/>
-      <c r="J33" s="293"/>
-      <c r="K33" s="295" t="s">
+      <c r="B33" s="304"/>
+      <c r="C33" s="304"/>
+      <c r="D33" s="304"/>
+      <c r="E33" s="304"/>
+      <c r="F33" s="304"/>
+      <c r="G33" s="304"/>
+      <c r="H33" s="304"/>
+      <c r="I33" s="304"/>
+      <c r="J33" s="304"/>
+      <c r="K33" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="295"/>
-      <c r="M33" s="295"/>
-      <c r="N33" s="295"/>
-      <c r="O33" s="296" t="s">
+      <c r="L33" s="306"/>
+      <c r="M33" s="306"/>
+      <c r="N33" s="306"/>
+      <c r="O33" s="307" t="s">
         <v>15</v>
       </c>
-      <c r="P33" s="296"/>
+      <c r="P33" s="307"/>
       <c r="Q33" s="131" t="s">
         <v>13</v>
       </c>
@@ -6588,7 +6666,7 @@
       </c>
       <c r="S33" s="139">
         <f ca="1">TODAY()</f>
-        <v>43573</v>
+        <v>43593</v>
       </c>
       <c r="T33" s="130"/>
     </row>
@@ -6703,19 +6781,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="316" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
-      <c r="F1" s="306"/>
-      <c r="G1" s="306"/>
-      <c r="H1" s="306"/>
-      <c r="I1" s="306"/>
-      <c r="J1" s="306"/>
-      <c r="K1" s="307"/>
+      <c r="B1" s="317"/>
+      <c r="C1" s="317"/>
+      <c r="D1" s="317"/>
+      <c r="E1" s="317"/>
+      <c r="F1" s="317"/>
+      <c r="G1" s="317"/>
+      <c r="H1" s="317"/>
+      <c r="I1" s="317"/>
+      <c r="J1" s="317"/>
+      <c r="K1" s="318"/>
     </row>
     <row r="2" spans="1:11" s="35" customFormat="1" ht="124.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="43" t="s">
@@ -7110,48 +7188,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="310" t="s">
+      <c r="A1" s="321" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="311"/>
-      <c r="C1" s="311"/>
-      <c r="D1" s="311"/>
-      <c r="E1" s="311"/>
-      <c r="F1" s="311"/>
-      <c r="G1" s="311"/>
-      <c r="H1" s="311"/>
-      <c r="I1" s="311"/>
-      <c r="J1" s="311"/>
-      <c r="K1" s="311"/>
-      <c r="L1" s="311"/>
-      <c r="M1" s="311"/>
-      <c r="N1" s="311"/>
-      <c r="O1" s="311"/>
-      <c r="P1" s="311"/>
-      <c r="Q1" s="311"/>
-      <c r="R1" s="311"/>
-      <c r="S1" s="312"/>
+      <c r="B1" s="322"/>
+      <c r="C1" s="322"/>
+      <c r="D1" s="322"/>
+      <c r="E1" s="322"/>
+      <c r="F1" s="322"/>
+      <c r="G1" s="322"/>
+      <c r="H1" s="322"/>
+      <c r="I1" s="322"/>
+      <c r="J1" s="322"/>
+      <c r="K1" s="322"/>
+      <c r="L1" s="322"/>
+      <c r="M1" s="322"/>
+      <c r="N1" s="322"/>
+      <c r="O1" s="322"/>
+      <c r="P1" s="322"/>
+      <c r="Q1" s="322"/>
+      <c r="R1" s="322"/>
+      <c r="S1" s="323"/>
     </row>
     <row r="2" spans="1:19" s="76" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="313" t="s">
+      <c r="A2" s="324" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="313" t="s">
+      <c r="B2" s="324" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="313" t="s">
+      <c r="C2" s="324" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="313" t="s">
+      <c r="D2" s="324" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="313" t="s">
+      <c r="E2" s="324" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="313" t="s">
+      <c r="F2" s="324" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="313" t="s">
+      <c r="G2" s="324" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="77" t="s">
@@ -7160,11 +7238,11 @@
       <c r="I2" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="316" t="s">
+      <c r="J2" s="327" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="317"/>
-      <c r="L2" s="317"/>
+      <c r="K2" s="328"/>
+      <c r="L2" s="328"/>
       <c r="M2" s="77" t="s">
         <v>86</v>
       </c>
@@ -7188,13 +7266,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="66" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="314"/>
-      <c r="B3" s="314"/>
-      <c r="C3" s="314"/>
-      <c r="D3" s="314"/>
-      <c r="E3" s="314"/>
-      <c r="F3" s="314"/>
-      <c r="G3" s="314"/>
+      <c r="A3" s="325"/>
+      <c r="B3" s="325"/>
+      <c r="C3" s="325"/>
+      <c r="D3" s="325"/>
+      <c r="E3" s="325"/>
+      <c r="F3" s="325"/>
+      <c r="G3" s="325"/>
       <c r="H3" s="72" t="s">
         <v>79</v>
       </c>
@@ -7233,24 +7311,24 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="66" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="314"/>
-      <c r="B4" s="314"/>
-      <c r="C4" s="314"/>
-      <c r="D4" s="314"/>
-      <c r="E4" s="314"/>
-      <c r="F4" s="314"/>
-      <c r="G4" s="314"/>
+      <c r="A4" s="325"/>
+      <c r="B4" s="325"/>
+      <c r="C4" s="325"/>
+      <c r="D4" s="325"/>
+      <c r="E4" s="325"/>
+      <c r="F4" s="325"/>
+      <c r="G4" s="325"/>
       <c r="H4" s="72" t="s">
         <v>71</v>
       </c>
       <c r="I4" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="308" t="s">
+      <c r="J4" s="319" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="309"/>
-      <c r="L4" s="309"/>
+      <c r="K4" s="320"/>
+      <c r="L4" s="320"/>
       <c r="M4" s="73" t="s">
         <v>68</v>
       </c>
@@ -7274,24 +7352,24 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="66" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="315"/>
-      <c r="B5" s="315"/>
-      <c r="C5" s="315"/>
-      <c r="D5" s="315"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
+      <c r="A5" s="326"/>
+      <c r="B5" s="326"/>
+      <c r="C5" s="326"/>
+      <c r="D5" s="326"/>
+      <c r="E5" s="326"/>
+      <c r="F5" s="326"/>
+      <c r="G5" s="326"/>
       <c r="H5" s="72" t="s">
         <v>61</v>
       </c>
       <c r="I5" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="308" t="s">
+      <c r="J5" s="319" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="309"/>
-      <c r="L5" s="309"/>
+      <c r="K5" s="320"/>
+      <c r="L5" s="320"/>
       <c r="M5" s="71" t="s">
         <v>58</v>
       </c>
@@ -8068,21 +8146,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="316" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
-      <c r="F1" s="306"/>
-      <c r="G1" s="306"/>
-      <c r="H1" s="306"/>
-      <c r="I1" s="306"/>
-      <c r="J1" s="306"/>
-      <c r="K1" s="306"/>
-      <c r="L1" s="306"/>
-      <c r="M1" s="307"/>
+      <c r="B1" s="317"/>
+      <c r="C1" s="317"/>
+      <c r="D1" s="317"/>
+      <c r="E1" s="317"/>
+      <c r="F1" s="317"/>
+      <c r="G1" s="317"/>
+      <c r="H1" s="317"/>
+      <c r="I1" s="317"/>
+      <c r="J1" s="317"/>
+      <c r="K1" s="317"/>
+      <c r="L1" s="317"/>
+      <c r="M1" s="318"/>
     </row>
     <row r="2" spans="1:13" s="35" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="86" t="s">

--- a/dist/files/xls/shablon-kd.xlsx
+++ b/dist/files/xls/shablon-kd.xlsx
@@ -4178,7 +4178,7 @@
       </c>
       <c r="U22" s="138">
         <f ca="1">TODAY()</f>
-        <v>43593</v>
+        <v>43598</v>
       </c>
       <c r="V22" s="263"/>
       <c r="W22" s="270"/>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="U24" s="138">
         <f ca="1">TODAY()</f>
-        <v>43593</v>
+        <v>43598</v>
       </c>
       <c r="V24" s="263"/>
       <c r="W24" s="270"/>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="U25" s="138">
         <f ca="1">TODAY()</f>
-        <v>43593</v>
+        <v>43598</v>
       </c>
       <c r="V25" s="263"/>
       <c r="W25" s="270"/>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="U26" s="138">
         <f ca="1">TODAY()</f>
-        <v>43593</v>
+        <v>43598</v>
       </c>
       <c r="V26" s="264"/>
       <c r="W26" s="270"/>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="U28" s="138">
         <f ca="1">TODAY()</f>
-        <v>43593</v>
+        <v>43598</v>
       </c>
       <c r="V28" s="161"/>
       <c r="W28" s="270"/>
@@ -4619,7 +4619,7 @@
       </c>
       <c r="U32" s="138">
         <f ca="1">TODAY()</f>
-        <v>43593</v>
+        <v>43598</v>
       </c>
       <c r="V32" s="276" t="s">
         <v>145</v>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="U33" s="138">
         <f t="shared" ref="U33:U37" ca="1" si="0">TODAY()</f>
-        <v>43593</v>
+        <v>43598</v>
       </c>
       <c r="V33" s="278"/>
       <c r="W33" s="279"/>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="U34" s="138">
         <f t="shared" ca="1" si="0"/>
-        <v>43593</v>
+        <v>43598</v>
       </c>
       <c r="V34" s="278"/>
       <c r="W34" s="279"/>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="U35" s="138">
         <f t="shared" ca="1" si="0"/>
-        <v>43593</v>
+        <v>43598</v>
       </c>
       <c r="V35" s="278"/>
       <c r="W35" s="279"/>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="U37" s="138">
         <f t="shared" ca="1" si="0"/>
-        <v>43593</v>
+        <v>43598</v>
       </c>
       <c r="V37" s="280"/>
       <c r="W37" s="281"/>
@@ -5046,7 +5046,7 @@
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0"/>
   <pageSetup paperSize="8" scale="87" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L                   &amp;"+,курсив" Док. №372.10&amp;"+,обычный"   &amp;8https://500stp.website/shablony-dokumentov-titulnyy-kd.php
+    <oddHeader>&amp;L                   &amp;"+,курсив" Док. №372.10-v9&amp;"+,обычный"   &amp;8https://500stp.website/shablony-dokumentov-titulnyy-kd.php
 &amp;12
                              &amp;G</oddHeader>
   </headerFooter>
@@ -5914,7 +5914,7 @@
       </c>
       <c r="S3" s="139">
         <f ca="1">TODAY()</f>
-        <v>43593</v>
+        <v>43598</v>
       </c>
       <c r="T3" s="6"/>
     </row>
@@ -6550,7 +6550,7 @@
       </c>
       <c r="S29" s="139">
         <f ca="1">TODAY()</f>
-        <v>43593</v>
+        <v>43598</v>
       </c>
       <c r="T29" s="130"/>
     </row>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="S32" s="139">
         <f ca="1">TODAY()</f>
-        <v>43593</v>
+        <v>43598</v>
       </c>
       <c r="T32" s="130"/>
     </row>
@@ -6666,7 +6666,7 @@
       </c>
       <c r="S33" s="139">
         <f ca="1">TODAY()</f>
-        <v>43593</v>
+        <v>43598</v>
       </c>
       <c r="T33" s="130"/>
     </row>

--- a/dist/files/xls/shablon-kd.xlsx
+++ b/dist/files/xls/shablon-kd.xlsx
@@ -1872,7 +1872,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="329">
+  <cellXfs count="326">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2161,14 +2161,6 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2263,12 +2255,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2338,114 +2324,148 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2458,19 +2478,7 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2486,123 +2494,101 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2622,6 +2608,54 @@
     <xf numFmtId="0" fontId="35" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2629,55 +2663,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2721,6 +2707,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3068,7 +3059,7 @@
     <col min="11" max="11" width="9.5" style="3" customWidth="1"/>
     <col min="12" max="12" width="9.25" style="3" customWidth="1"/>
     <col min="13" max="13" width="8" style="3" customWidth="1"/>
-    <col min="14" max="14" width="23.875" style="148" customWidth="1"/>
+    <col min="14" max="14" width="23.875" style="144" customWidth="1"/>
     <col min="15" max="15" width="1.75" style="3" customWidth="1"/>
     <col min="16" max="16" width="10.625" style="3" customWidth="1"/>
     <col min="17" max="17" width="9.625" style="3" customWidth="1"/>
@@ -3090,24 +3081,24 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
-      <c r="I1" s="162" t="s">
+      <c r="I1" s="323" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="116"/>
-      <c r="V1" s="116"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="114"/>
+      <c r="J1" s="324"/>
+      <c r="K1" s="324"/>
+      <c r="L1" s="324"/>
+      <c r="M1" s="324"/>
+      <c r="N1" s="324"/>
+      <c r="O1" s="324"/>
+      <c r="P1" s="324"/>
+      <c r="Q1" s="324"/>
+      <c r="R1" s="324"/>
+      <c r="S1" s="324"/>
+      <c r="T1" s="324"/>
+      <c r="U1" s="324"/>
+      <c r="V1" s="324"/>
+      <c r="W1" s="325"/>
+      <c r="X1" s="12"/>
       <c r="Z1" s="12"/>
       <c r="AA1" s="12"/>
       <c r="AB1" s="12"/>
@@ -3134,41 +3125,41 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="238" t="s">
+      <c r="I2" s="244" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="239"/>
-      <c r="K2" s="239"/>
-      <c r="L2" s="239"/>
-      <c r="M2" s="239"/>
-      <c r="N2" s="240"/>
+      <c r="J2" s="245"/>
+      <c r="K2" s="245"/>
+      <c r="L2" s="245"/>
+      <c r="M2" s="245"/>
+      <c r="N2" s="246"/>
       <c r="O2" s="98"/>
-      <c r="P2" s="218" t="s">
+      <c r="P2" s="261" t="s">
         <v>159</v>
       </c>
-      <c r="Q2" s="219"/>
-      <c r="R2" s="219"/>
-      <c r="S2" s="219"/>
-      <c r="T2" s="219"/>
-      <c r="U2" s="219"/>
-      <c r="V2" s="220"/>
-      <c r="W2" s="221"/>
+      <c r="Q2" s="262"/>
+      <c r="R2" s="262"/>
+      <c r="S2" s="262"/>
+      <c r="T2" s="262"/>
+      <c r="U2" s="262"/>
+      <c r="V2" s="263"/>
+      <c r="W2" s="264"/>
       <c r="X2" s="12"/>
       <c r="Z2" s="12"/>
       <c r="AA2" s="12"/>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="168"/>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="169"/>
-      <c r="AG2" s="168"/>
-      <c r="AH2" s="168"/>
-      <c r="AI2" s="168"/>
-      <c r="AJ2" s="168"/>
-      <c r="AK2" s="168"/>
-      <c r="AL2" s="168"/>
-      <c r="AM2" s="168"/>
-      <c r="AN2" s="168"/>
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="162"/>
+      <c r="AD2" s="162"/>
+      <c r="AE2" s="162"/>
+      <c r="AF2" s="163"/>
+      <c r="AG2" s="162"/>
+      <c r="AH2" s="162"/>
+      <c r="AI2" s="162"/>
+      <c r="AJ2" s="162"/>
+      <c r="AK2" s="162"/>
+      <c r="AL2" s="162"/>
+      <c r="AM2" s="162"/>
+      <c r="AN2" s="162"/>
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="1:41" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3187,11 +3178,11 @@
         <v>30</v>
       </c>
       <c r="K3" s="101"/>
-      <c r="L3" s="241" t="s">
+      <c r="L3" s="233" t="s">
         <v>192</v>
       </c>
-      <c r="M3" s="241"/>
-      <c r="N3" s="178" t="s">
+      <c r="M3" s="233"/>
+      <c r="N3" s="172" t="s">
         <v>31</v>
       </c>
       <c r="O3" s="98"/>
@@ -3202,10 +3193,10 @@
         <v>38</v>
       </c>
       <c r="R3" s="101"/>
-      <c r="S3" s="241" t="s">
+      <c r="S3" s="233" t="s">
         <v>192</v>
       </c>
-      <c r="T3" s="241"/>
+      <c r="T3" s="233"/>
       <c r="U3" s="102" t="s">
         <v>35</v>
       </c>
@@ -3213,20 +3204,20 @@
       <c r="W3" s="26"/>
       <c r="X3" s="12"/>
       <c r="Z3" s="12"/>
-      <c r="AA3" s="273"/>
-      <c r="AB3" s="273"/>
-      <c r="AC3" s="273"/>
-      <c r="AD3" s="273"/>
-      <c r="AE3" s="273"/>
-      <c r="AF3" s="273"/>
+      <c r="AA3" s="225"/>
+      <c r="AB3" s="225"/>
+      <c r="AC3" s="225"/>
+      <c r="AD3" s="225"/>
+      <c r="AE3" s="225"/>
+      <c r="AF3" s="225"/>
       <c r="AG3" s="98"/>
-      <c r="AH3" s="241"/>
-      <c r="AI3" s="241"/>
-      <c r="AJ3" s="241"/>
-      <c r="AK3" s="241"/>
-      <c r="AL3" s="241"/>
-      <c r="AM3" s="241"/>
-      <c r="AN3" s="158"/>
+      <c r="AH3" s="233"/>
+      <c r="AI3" s="233"/>
+      <c r="AJ3" s="233"/>
+      <c r="AK3" s="233"/>
+      <c r="AL3" s="233"/>
+      <c r="AM3" s="233"/>
+      <c r="AN3" s="154"/>
       <c r="AO3" s="25"/>
     </row>
     <row r="4" spans="1:41" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -3245,44 +3236,44 @@
         <v>32</v>
       </c>
       <c r="K4" s="98"/>
-      <c r="L4" s="231" t="s">
+      <c r="L4" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="231"/>
-      <c r="N4" s="179" t="s">
+      <c r="M4" s="204"/>
+      <c r="N4" s="173" t="s">
         <v>158</v>
       </c>
       <c r="O4" s="98"/>
       <c r="P4" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="182" t="s">
+      <c r="Q4" s="176" t="s">
         <v>195</v>
       </c>
       <c r="R4" s="98"/>
-      <c r="S4" s="231" t="s">
+      <c r="S4" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="231"/>
-      <c r="U4" s="176" t="s">
+      <c r="T4" s="204"/>
+      <c r="U4" s="170" t="s">
         <v>158</v>
       </c>
-      <c r="V4" s="164"/>
-      <c r="W4" s="165"/>
+      <c r="V4" s="158"/>
+      <c r="W4" s="159"/>
       <c r="X4" s="12"/>
       <c r="Z4" s="12"/>
-      <c r="AA4" s="170"/>
+      <c r="AA4" s="164"/>
       <c r="AB4" s="100"/>
       <c r="AC4" s="101"/>
-      <c r="AD4" s="241"/>
-      <c r="AE4" s="241"/>
-      <c r="AF4" s="171"/>
+      <c r="AD4" s="233"/>
+      <c r="AE4" s="233"/>
+      <c r="AF4" s="165"/>
       <c r="AG4" s="98"/>
-      <c r="AH4" s="170"/>
+      <c r="AH4" s="164"/>
       <c r="AI4" s="100"/>
       <c r="AJ4" s="101"/>
-      <c r="AK4" s="241"/>
-      <c r="AL4" s="241"/>
+      <c r="AK4" s="233"/>
+      <c r="AL4" s="233"/>
       <c r="AM4" s="112"/>
       <c r="AN4" s="112"/>
       <c r="AO4" s="25"/>
@@ -3303,11 +3294,11 @@
         <v>157</v>
       </c>
       <c r="K5" s="98"/>
-      <c r="L5" s="231" t="s">
+      <c r="L5" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="231"/>
-      <c r="N5" s="178" t="s">
+      <c r="M5" s="204"/>
+      <c r="N5" s="172" t="s">
         <v>156</v>
       </c>
       <c r="O5" s="98"/>
@@ -3318,10 +3309,10 @@
         <v>157</v>
       </c>
       <c r="R5" s="98"/>
-      <c r="S5" s="231" t="s">
+      <c r="S5" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="T5" s="231"/>
+      <c r="T5" s="204"/>
       <c r="U5" s="102" t="s">
         <v>156</v>
       </c>
@@ -3329,21 +3320,21 @@
       <c r="W5" s="11"/>
       <c r="X5" s="12"/>
       <c r="Z5" s="12"/>
-      <c r="AA5" s="170"/>
+      <c r="AA5" s="164"/>
       <c r="AB5" s="102"/>
       <c r="AC5" s="98"/>
-      <c r="AD5" s="231"/>
-      <c r="AE5" s="231"/>
-      <c r="AF5" s="172"/>
+      <c r="AD5" s="204"/>
+      <c r="AE5" s="204"/>
+      <c r="AF5" s="166"/>
       <c r="AG5" s="98"/>
-      <c r="AH5" s="170"/>
+      <c r="AH5" s="164"/>
       <c r="AI5" s="102"/>
       <c r="AJ5" s="98"/>
-      <c r="AK5" s="231"/>
-      <c r="AL5" s="231"/>
+      <c r="AK5" s="204"/>
+      <c r="AL5" s="204"/>
       <c r="AM5" s="113"/>
       <c r="AN5" s="113"/>
-      <c r="AO5" s="133"/>
+      <c r="AO5" s="129"/>
     </row>
     <row r="6" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
@@ -3359,7 +3350,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
-      <c r="N6" s="180"/>
+      <c r="N6" s="174"/>
       <c r="O6" s="98"/>
       <c r="P6" s="99" t="s">
         <v>29</v>
@@ -3368,10 +3359,10 @@
         <v>155</v>
       </c>
       <c r="R6" s="98"/>
-      <c r="S6" s="231" t="s">
+      <c r="S6" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="T6" s="231"/>
+      <c r="T6" s="204"/>
       <c r="U6" s="102" t="s">
         <v>154</v>
       </c>
@@ -3379,18 +3370,18 @@
       <c r="W6" s="27"/>
       <c r="X6" s="12"/>
       <c r="Z6" s="12"/>
-      <c r="AA6" s="170"/>
+      <c r="AA6" s="164"/>
       <c r="AB6" s="102"/>
       <c r="AC6" s="98"/>
-      <c r="AD6" s="231"/>
-      <c r="AE6" s="231"/>
-      <c r="AF6" s="171"/>
+      <c r="AD6" s="204"/>
+      <c r="AE6" s="204"/>
+      <c r="AF6" s="165"/>
       <c r="AG6" s="98"/>
-      <c r="AH6" s="170"/>
+      <c r="AH6" s="164"/>
       <c r="AI6" s="102"/>
       <c r="AJ6" s="98"/>
-      <c r="AK6" s="231"/>
-      <c r="AL6" s="231"/>
+      <c r="AK6" s="204"/>
+      <c r="AL6" s="204"/>
       <c r="AM6" s="112"/>
       <c r="AN6" s="112"/>
       <c r="AO6" s="12"/>
@@ -3411,11 +3402,11 @@
         <v>33</v>
       </c>
       <c r="K7" s="98"/>
-      <c r="L7" s="231" t="s">
+      <c r="L7" s="204" t="s">
         <v>193</v>
       </c>
-      <c r="M7" s="231"/>
-      <c r="N7" s="178" t="s">
+      <c r="M7" s="204"/>
+      <c r="N7" s="172" t="s">
         <v>34</v>
       </c>
       <c r="O7" s="98"/>
@@ -3426,10 +3417,10 @@
         <v>189</v>
       </c>
       <c r="R7" s="98"/>
-      <c r="S7" s="231" t="s">
+      <c r="S7" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="T7" s="231"/>
+      <c r="T7" s="204"/>
       <c r="U7" s="102" t="s">
         <v>190</v>
       </c>
@@ -3442,13 +3433,13 @@
       <c r="AC7" s="12"/>
       <c r="AD7" s="12"/>
       <c r="AE7" s="12"/>
-      <c r="AF7" s="141"/>
+      <c r="AF7" s="137"/>
       <c r="AG7" s="98"/>
-      <c r="AH7" s="170"/>
+      <c r="AH7" s="164"/>
       <c r="AI7" s="102"/>
       <c r="AJ7" s="98"/>
-      <c r="AK7" s="231"/>
-      <c r="AL7" s="231"/>
+      <c r="AK7" s="204"/>
+      <c r="AL7" s="204"/>
       <c r="AM7" s="102"/>
       <c r="AN7" s="102"/>
       <c r="AO7" s="24"/>
@@ -3469,11 +3460,11 @@
         <v>117</v>
       </c>
       <c r="K8" s="98"/>
-      <c r="L8" s="157" t="s">
+      <c r="L8" s="153" t="s">
         <v>118</v>
       </c>
-      <c r="M8" s="157"/>
-      <c r="N8" s="181"/>
+      <c r="M8" s="153"/>
+      <c r="N8" s="175"/>
       <c r="O8" s="98"/>
       <c r="P8" s="99" t="s">
         <v>36</v>
@@ -3482,10 +3473,10 @@
         <v>33</v>
       </c>
       <c r="R8" s="98"/>
-      <c r="S8" s="231" t="s">
+      <c r="S8" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="T8" s="231"/>
+      <c r="T8" s="204"/>
       <c r="U8" s="102" t="s">
         <v>196</v>
       </c>
@@ -3493,18 +3484,18 @@
       <c r="W8" s="28"/>
       <c r="X8" s="12"/>
       <c r="Z8" s="12"/>
-      <c r="AA8" s="170"/>
+      <c r="AA8" s="164"/>
       <c r="AB8" s="102"/>
       <c r="AC8" s="98"/>
-      <c r="AD8" s="231"/>
-      <c r="AE8" s="231"/>
-      <c r="AF8" s="171"/>
+      <c r="AD8" s="204"/>
+      <c r="AE8" s="204"/>
+      <c r="AF8" s="165"/>
       <c r="AG8" s="98"/>
-      <c r="AH8" s="170"/>
+      <c r="AH8" s="164"/>
       <c r="AI8" s="102"/>
       <c r="AJ8" s="98"/>
-      <c r="AK8" s="231"/>
-      <c r="AL8" s="231"/>
+      <c r="AK8" s="204"/>
+      <c r="AL8" s="204"/>
       <c r="AM8" s="112"/>
       <c r="AN8" s="112"/>
       <c r="AO8" s="108"/>
@@ -3518,16 +3509,16 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="166"/>
+      <c r="I9" s="160"/>
       <c r="J9" s="98"/>
       <c r="K9" s="98"/>
-      <c r="L9" s="167" t="s">
+      <c r="L9" s="161" t="s">
         <v>153</v>
       </c>
-      <c r="M9" s="227" t="s">
+      <c r="M9" s="270" t="s">
         <v>152</v>
       </c>
-      <c r="N9" s="228"/>
+      <c r="N9" s="271"/>
       <c r="O9" s="12"/>
       <c r="P9" s="99" t="s">
         <v>36</v>
@@ -3536,29 +3527,29 @@
         <v>117</v>
       </c>
       <c r="R9" s="98"/>
-      <c r="S9" s="157" t="s">
+      <c r="S9" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="T9" s="157"/>
-      <c r="U9" s="177"/>
-      <c r="V9" s="157"/>
+      <c r="T9" s="153"/>
+      <c r="U9" s="171"/>
+      <c r="V9" s="153"/>
       <c r="W9" s="28"/>
       <c r="X9" s="12"/>
       <c r="Z9" s="12"/>
-      <c r="AA9" s="170"/>
+      <c r="AA9" s="164"/>
       <c r="AB9" s="102"/>
       <c r="AC9" s="98"/>
-      <c r="AD9" s="157"/>
-      <c r="AE9" s="157"/>
-      <c r="AF9" s="173"/>
+      <c r="AD9" s="153"/>
+      <c r="AE9" s="153"/>
+      <c r="AF9" s="167"/>
       <c r="AG9" s="98"/>
-      <c r="AH9" s="170"/>
+      <c r="AH9" s="164"/>
       <c r="AI9" s="102"/>
       <c r="AJ9" s="98"/>
-      <c r="AK9" s="157"/>
-      <c r="AL9" s="157"/>
-      <c r="AM9" s="157"/>
-      <c r="AN9" s="157"/>
+      <c r="AK9" s="153"/>
+      <c r="AL9" s="153"/>
+      <c r="AM9" s="153"/>
+      <c r="AN9" s="153"/>
       <c r="AO9" s="108"/>
     </row>
     <row r="10" spans="1:41" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3570,7 +3561,7 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="128"/>
+      <c r="I10" s="124"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
@@ -3580,69 +3571,69 @@
       <c r="P10" s="103"/>
       <c r="Q10" s="104"/>
       <c r="R10" s="104"/>
-      <c r="S10" s="175" t="s">
+      <c r="S10" s="169" t="s">
         <v>39</v>
       </c>
-      <c r="T10" s="175"/>
-      <c r="U10" s="184" t="s">
+      <c r="T10" s="169"/>
+      <c r="U10" s="178" t="s">
         <v>37</v>
       </c>
-      <c r="V10" s="184"/>
+      <c r="V10" s="178"/>
       <c r="W10" s="11"/>
       <c r="X10" s="12"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="98"/>
       <c r="AB10" s="98"/>
       <c r="AC10" s="98"/>
-      <c r="AD10" s="167"/>
-      <c r="AE10" s="167"/>
-      <c r="AF10" s="174"/>
+      <c r="AD10" s="161"/>
+      <c r="AE10" s="161"/>
+      <c r="AF10" s="168"/>
       <c r="AG10" s="12"/>
       <c r="AH10" s="98"/>
       <c r="AI10" s="98"/>
       <c r="AJ10" s="98"/>
-      <c r="AK10" s="175"/>
-      <c r="AL10" s="175"/>
-      <c r="AM10" s="175"/>
-      <c r="AN10" s="175"/>
+      <c r="AK10" s="169"/>
+      <c r="AL10" s="169"/>
+      <c r="AM10" s="169"/>
+      <c r="AN10" s="169"/>
       <c r="AO10" s="12"/>
     </row>
     <row r="11" spans="1:41" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="232" t="s">
+      <c r="A11" s="274" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="233" t="s">
+      <c r="B11" s="275" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="235" t="s">
+      <c r="C11" s="277" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="235" t="s">
+      <c r="D11" s="277" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="235"/>
-      <c r="F11" s="235"/>
-      <c r="G11" s="235"/>
-      <c r="H11" s="236"/>
-      <c r="I11" s="224" t="s">
+      <c r="E11" s="277"/>
+      <c r="F11" s="277"/>
+      <c r="G11" s="277"/>
+      <c r="H11" s="278"/>
+      <c r="I11" s="267" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="225"/>
-      <c r="K11" s="225"/>
-      <c r="L11" s="225"/>
-      <c r="M11" s="225"/>
-      <c r="N11" s="225"/>
-      <c r="O11" s="225"/>
-      <c r="P11" s="225"/>
-      <c r="Q11" s="225"/>
-      <c r="R11" s="226"/>
-      <c r="S11" s="222" t="s">
+      <c r="J11" s="268"/>
+      <c r="K11" s="268"/>
+      <c r="L11" s="268"/>
+      <c r="M11" s="268"/>
+      <c r="N11" s="268"/>
+      <c r="O11" s="268"/>
+      <c r="P11" s="268"/>
+      <c r="Q11" s="268"/>
+      <c r="R11" s="269"/>
+      <c r="S11" s="265" t="s">
         <v>197</v>
       </c>
-      <c r="T11" s="222"/>
-      <c r="U11" s="222"/>
-      <c r="V11" s="222"/>
-      <c r="W11" s="223"/>
+      <c r="T11" s="265"/>
+      <c r="U11" s="265"/>
+      <c r="V11" s="265"/>
+      <c r="W11" s="266"/>
       <c r="X11" s="12"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
@@ -3662,42 +3653,42 @@
       <c r="AO11" s="12"/>
     </row>
     <row r="12" spans="1:41" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="229"/>
-      <c r="B12" s="234"/>
-      <c r="C12" s="209"/>
-      <c r="D12" s="211" t="s">
+      <c r="A12" s="272"/>
+      <c r="B12" s="276"/>
+      <c r="C12" s="255"/>
+      <c r="D12" s="240" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="211" t="s">
+      <c r="E12" s="240" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="211" t="s">
+      <c r="F12" s="240" t="s">
         <v>125</v>
       </c>
-      <c r="G12" s="211" t="s">
+      <c r="G12" s="240" t="s">
         <v>126</v>
       </c>
-      <c r="H12" s="214" t="s">
+      <c r="H12" s="242" t="s">
         <v>127</v>
       </c>
-      <c r="I12" s="120"/>
-      <c r="J12" s="255" t="s">
+      <c r="I12" s="116"/>
+      <c r="J12" s="226" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="255"/>
-      <c r="L12" s="255"/>
-      <c r="M12" s="255"/>
-      <c r="N12" s="286" t="s">
+      <c r="K12" s="226"/>
+      <c r="L12" s="226"/>
+      <c r="M12" s="226"/>
+      <c r="N12" s="213" t="s">
         <v>170</v>
       </c>
-      <c r="O12" s="287"/>
-      <c r="P12" s="287"/>
-      <c r="Q12" s="287"/>
-      <c r="R12" s="287"/>
-      <c r="S12" s="287"/>
-      <c r="T12" s="287"/>
-      <c r="U12" s="287"/>
-      <c r="V12" s="287"/>
+      <c r="O12" s="214"/>
+      <c r="P12" s="214"/>
+      <c r="Q12" s="214"/>
+      <c r="R12" s="214"/>
+      <c r="S12" s="214"/>
+      <c r="T12" s="214"/>
+      <c r="U12" s="214"/>
+      <c r="V12" s="214"/>
       <c r="W12" s="6"/>
       <c r="X12" s="12"/>
       <c r="Z12" s="12"/>
@@ -3713,34 +3704,34 @@
       <c r="AJ12" s="12"/>
       <c r="AK12" s="12"/>
       <c r="AL12" s="12"/>
-      <c r="AM12" s="168"/>
+      <c r="AM12" s="162"/>
       <c r="AN12" s="12"/>
       <c r="AO12" s="12"/>
     </row>
     <row r="13" spans="1:41" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="229"/>
-      <c r="B13" s="234"/>
-      <c r="C13" s="209"/>
-      <c r="D13" s="213"/>
-      <c r="E13" s="213"/>
-      <c r="F13" s="213"/>
-      <c r="G13" s="213"/>
-      <c r="H13" s="237"/>
+      <c r="A13" s="272"/>
+      <c r="B13" s="276"/>
+      <c r="C13" s="255"/>
+      <c r="D13" s="241"/>
+      <c r="E13" s="241"/>
+      <c r="F13" s="241"/>
+      <c r="G13" s="241"/>
+      <c r="H13" s="243"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="254" t="s">
+      <c r="J13" s="227" t="s">
         <v>169</v>
       </c>
-      <c r="K13" s="254"/>
-      <c r="L13" s="254"/>
-      <c r="M13" s="254"/>
-      <c r="N13" s="142" t="s">
+      <c r="K13" s="227"/>
+      <c r="L13" s="227"/>
+      <c r="M13" s="227"/>
+      <c r="N13" s="138" t="s">
         <v>168</v>
       </c>
-      <c r="O13" s="125"/>
+      <c r="O13" s="121"/>
       <c r="P13" s="12"/>
-      <c r="Q13" s="121"/>
-      <c r="R13" s="121"/>
-      <c r="S13" s="121"/>
+      <c r="Q13" s="117"/>
+      <c r="R13" s="117"/>
+      <c r="S13" s="117"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
@@ -3764,48 +3755,48 @@
       <c r="AO13" s="12"/>
     </row>
     <row r="14" spans="1:41" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="229" t="s">
+      <c r="A14" s="272" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="209" t="s">
+      <c r="B14" s="255" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="209" t="s">
+      <c r="C14" s="255" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="209" t="s">
+      <c r="D14" s="255" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="209" t="s">
+      <c r="E14" s="255" t="s">
         <v>131</v>
       </c>
-      <c r="F14" s="209" t="s">
+      <c r="F14" s="255" t="s">
         <v>191</v>
       </c>
-      <c r="G14" s="211" t="s">
+      <c r="G14" s="240" t="s">
         <v>150</v>
       </c>
-      <c r="H14" s="214" t="s">
+      <c r="H14" s="242" t="s">
         <v>132</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="J14" s="254" t="s">
+      <c r="J14" s="227" t="s">
         <v>114</v>
       </c>
-      <c r="K14" s="254"/>
-      <c r="L14" s="254"/>
-      <c r="M14" s="254"/>
-      <c r="N14" s="274" t="s">
+      <c r="K14" s="227"/>
+      <c r="L14" s="227"/>
+      <c r="M14" s="227"/>
+      <c r="N14" s="230" t="s">
         <v>144</v>
       </c>
-      <c r="O14" s="275"/>
-      <c r="P14" s="275"/>
-      <c r="Q14" s="275"/>
-      <c r="R14" s="275"/>
-      <c r="S14" s="275"/>
-      <c r="T14" s="275"/>
-      <c r="U14" s="275"/>
-      <c r="V14" s="275"/>
+      <c r="O14" s="231"/>
+      <c r="P14" s="231"/>
+      <c r="Q14" s="231"/>
+      <c r="R14" s="231"/>
+      <c r="S14" s="231"/>
+      <c r="T14" s="231"/>
+      <c r="U14" s="231"/>
+      <c r="V14" s="231"/>
       <c r="W14" s="6"/>
       <c r="X14" s="12"/>
       <c r="Z14" s="12"/>
@@ -3826,32 +3817,32 @@
       <c r="AO14" s="12"/>
     </row>
     <row r="15" spans="1:41" ht="24" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="229"/>
-      <c r="B15" s="209"/>
-      <c r="C15" s="209"/>
-      <c r="D15" s="209"/>
-      <c r="E15" s="209"/>
-      <c r="F15" s="209"/>
-      <c r="G15" s="212"/>
-      <c r="H15" s="215"/>
+      <c r="A15" s="272"/>
+      <c r="B15" s="255"/>
+      <c r="C15" s="255"/>
+      <c r="D15" s="255"/>
+      <c r="E15" s="255"/>
+      <c r="F15" s="255"/>
+      <c r="G15" s="257"/>
+      <c r="H15" s="258"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="254" t="s">
+      <c r="J15" s="227" t="s">
         <v>167</v>
       </c>
-      <c r="K15" s="254"/>
-      <c r="L15" s="254"/>
-      <c r="M15" s="254"/>
-      <c r="N15" s="143" t="s">
+      <c r="K15" s="227"/>
+      <c r="L15" s="227"/>
+      <c r="M15" s="227"/>
+      <c r="N15" s="139" t="s">
         <v>166</v>
       </c>
-      <c r="O15" s="124"/>
+      <c r="O15" s="120"/>
       <c r="P15" s="12"/>
-      <c r="Q15" s="124"/>
-      <c r="R15" s="124"/>
-      <c r="S15" s="124"/>
+      <c r="Q15" s="120"/>
+      <c r="R15" s="120"/>
+      <c r="S15" s="120"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
-      <c r="V15" s="183"/>
+      <c r="V15" s="177"/>
       <c r="W15" s="6"/>
       <c r="X15" s="12"/>
       <c r="Z15" s="12"/>
@@ -3872,29 +3863,29 @@
       <c r="AO15" s="12"/>
     </row>
     <row r="16" spans="1:41" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="229"/>
-      <c r="B16" s="209"/>
-      <c r="C16" s="209"/>
-      <c r="D16" s="209"/>
-      <c r="E16" s="209"/>
-      <c r="F16" s="209"/>
-      <c r="G16" s="212"/>
-      <c r="H16" s="215"/>
+      <c r="A16" s="272"/>
+      <c r="B16" s="255"/>
+      <c r="C16" s="255"/>
+      <c r="D16" s="255"/>
+      <c r="E16" s="255"/>
+      <c r="F16" s="255"/>
+      <c r="G16" s="257"/>
+      <c r="H16" s="258"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="254" t="s">
+      <c r="J16" s="227" t="s">
         <v>165</v>
       </c>
-      <c r="K16" s="254"/>
-      <c r="L16" s="254"/>
-      <c r="M16" s="254"/>
-      <c r="N16" s="143" t="s">
+      <c r="K16" s="227"/>
+      <c r="L16" s="227"/>
+      <c r="M16" s="227"/>
+      <c r="N16" s="139" t="s">
         <v>164</v>
       </c>
-      <c r="O16" s="124"/>
+      <c r="O16" s="120"/>
       <c r="P16" s="12"/>
-      <c r="Q16" s="124"/>
-      <c r="R16" s="124"/>
-      <c r="S16" s="124"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="120"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
@@ -3916,75 +3907,75 @@
       <c r="AM16" s="12"/>
     </row>
     <row r="17" spans="1:39" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="229"/>
-      <c r="B17" s="209"/>
-      <c r="C17" s="209"/>
-      <c r="D17" s="209"/>
-      <c r="E17" s="209"/>
-      <c r="F17" s="209"/>
-      <c r="G17" s="213"/>
-      <c r="H17" s="215"/>
+      <c r="A17" s="272"/>
+      <c r="B17" s="255"/>
+      <c r="C17" s="255"/>
+      <c r="D17" s="255"/>
+      <c r="E17" s="255"/>
+      <c r="F17" s="255"/>
+      <c r="G17" s="241"/>
+      <c r="H17" s="258"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="254" t="s">
+      <c r="J17" s="227" t="s">
         <v>163</v>
       </c>
-      <c r="K17" s="254"/>
-      <c r="L17" s="254"/>
-      <c r="M17" s="254"/>
-      <c r="N17" s="274" t="s">
+      <c r="K17" s="227"/>
+      <c r="L17" s="227"/>
+      <c r="M17" s="227"/>
+      <c r="N17" s="230" t="s">
         <v>162</v>
       </c>
-      <c r="O17" s="275"/>
-      <c r="P17" s="275"/>
-      <c r="Q17" s="275"/>
-      <c r="R17" s="275"/>
-      <c r="S17" s="275"/>
-      <c r="T17" s="275"/>
-      <c r="U17" s="275"/>
-      <c r="V17" s="275"/>
+      <c r="O17" s="231"/>
+      <c r="P17" s="231"/>
+      <c r="Q17" s="231"/>
+      <c r="R17" s="231"/>
+      <c r="S17" s="231"/>
+      <c r="T17" s="231"/>
+      <c r="U17" s="231"/>
+      <c r="V17" s="231"/>
       <c r="W17" s="6"/>
       <c r="X17" s="12"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
-      <c r="AC17" s="256"/>
-      <c r="AD17" s="267"/>
-      <c r="AE17" s="260"/>
-      <c r="AF17" s="256"/>
-      <c r="AG17" s="256"/>
-      <c r="AH17" s="256"/>
-      <c r="AI17" s="256"/>
-      <c r="AJ17" s="256"/>
+      <c r="AC17" s="218"/>
+      <c r="AD17" s="209"/>
+      <c r="AE17" s="208"/>
+      <c r="AF17" s="218"/>
+      <c r="AG17" s="218"/>
+      <c r="AH17" s="218"/>
+      <c r="AI17" s="218"/>
+      <c r="AJ17" s="218"/>
       <c r="AK17" s="12"/>
       <c r="AL17" s="12"/>
       <c r="AM17" s="12"/>
     </row>
     <row r="18" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="229"/>
-      <c r="B18" s="209"/>
-      <c r="C18" s="209"/>
-      <c r="D18" s="209"/>
-      <c r="E18" s="209"/>
-      <c r="F18" s="209"/>
-      <c r="G18" s="211" t="s">
+      <c r="A18" s="272"/>
+      <c r="B18" s="255"/>
+      <c r="C18" s="255"/>
+      <c r="D18" s="255"/>
+      <c r="E18" s="255"/>
+      <c r="F18" s="255"/>
+      <c r="G18" s="240" t="s">
         <v>149</v>
       </c>
-      <c r="H18" s="215"/>
+      <c r="H18" s="258"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="255" t="s">
+      <c r="J18" s="226" t="s">
         <v>113</v>
       </c>
-      <c r="K18" s="255"/>
-      <c r="L18" s="255"/>
-      <c r="M18" s="255"/>
-      <c r="N18" s="144">
+      <c r="K18" s="226"/>
+      <c r="L18" s="226"/>
+      <c r="M18" s="226"/>
+      <c r="N18" s="140">
         <v>500</v>
       </c>
-      <c r="O18" s="124"/>
+      <c r="O18" s="120"/>
       <c r="P18" s="12"/>
-      <c r="Q18" s="124"/>
-      <c r="R18" s="124"/>
-      <c r="S18" s="124"/>
+      <c r="Q18" s="120"/>
+      <c r="R18" s="120"/>
+      <c r="S18" s="120"/>
       <c r="T18" s="5"/>
       <c r="U18" s="12"/>
       <c r="V18" s="5"/>
@@ -3993,42 +3984,42 @@
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
-      <c r="AC18" s="256"/>
-      <c r="AD18" s="267"/>
-      <c r="AE18" s="260"/>
-      <c r="AF18" s="256"/>
-      <c r="AG18" s="257"/>
-      <c r="AH18" s="257"/>
-      <c r="AI18" s="267"/>
-      <c r="AJ18" s="260"/>
+      <c r="AC18" s="218"/>
+      <c r="AD18" s="209"/>
+      <c r="AE18" s="208"/>
+      <c r="AF18" s="218"/>
+      <c r="AG18" s="206"/>
+      <c r="AH18" s="206"/>
+      <c r="AI18" s="209"/>
+      <c r="AJ18" s="208"/>
       <c r="AK18" s="12"/>
       <c r="AL18" s="12"/>
       <c r="AM18" s="12"/>
     </row>
     <row r="19" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="229"/>
-      <c r="B19" s="209"/>
-      <c r="C19" s="209"/>
-      <c r="D19" s="209"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="209"/>
-      <c r="G19" s="212"/>
-      <c r="H19" s="215"/>
+      <c r="A19" s="272"/>
+      <c r="B19" s="255"/>
+      <c r="C19" s="255"/>
+      <c r="D19" s="255"/>
+      <c r="E19" s="255"/>
+      <c r="F19" s="255"/>
+      <c r="G19" s="257"/>
+      <c r="H19" s="258"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="255" t="s">
+      <c r="J19" s="226" t="s">
         <v>112</v>
       </c>
-      <c r="K19" s="255"/>
-      <c r="L19" s="255"/>
-      <c r="M19" s="255"/>
-      <c r="N19" s="144" t="s">
+      <c r="K19" s="226"/>
+      <c r="L19" s="226"/>
+      <c r="M19" s="226"/>
+      <c r="N19" s="140" t="s">
         <v>161</v>
       </c>
-      <c r="O19" s="121"/>
+      <c r="O19" s="117"/>
       <c r="P19" s="12"/>
-      <c r="Q19" s="121"/>
-      <c r="R19" s="121"/>
-      <c r="S19" s="121"/>
+      <c r="Q19" s="117"/>
+      <c r="R19" s="117"/>
+      <c r="S19" s="117"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
@@ -4037,33 +4028,33 @@
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="12"/>
-      <c r="AC19" s="256"/>
-      <c r="AD19" s="267"/>
-      <c r="AE19" s="260"/>
-      <c r="AF19" s="256"/>
-      <c r="AG19" s="257"/>
-      <c r="AH19" s="284"/>
-      <c r="AI19" s="267"/>
-      <c r="AJ19" s="260"/>
+      <c r="AC19" s="218"/>
+      <c r="AD19" s="209"/>
+      <c r="AE19" s="208"/>
+      <c r="AF19" s="218"/>
+      <c r="AG19" s="206"/>
+      <c r="AH19" s="207"/>
+      <c r="AI19" s="209"/>
+      <c r="AJ19" s="208"/>
       <c r="AK19" s="12"/>
       <c r="AL19" s="12"/>
       <c r="AM19" s="12"/>
     </row>
     <row r="20" spans="1:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="230"/>
-      <c r="B20" s="210"/>
-      <c r="C20" s="210"/>
-      <c r="D20" s="210"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="217"/>
-      <c r="H20" s="216"/>
+      <c r="A20" s="273"/>
+      <c r="B20" s="256"/>
+      <c r="C20" s="256"/>
+      <c r="D20" s="256"/>
+      <c r="E20" s="256"/>
+      <c r="F20" s="256"/>
+      <c r="G20" s="260"/>
+      <c r="H20" s="259"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="145"/>
+      <c r="N20" s="141"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -4077,14 +4068,14 @@
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
-      <c r="AC20" s="261"/>
-      <c r="AD20" s="258"/>
-      <c r="AE20" s="258"/>
-      <c r="AF20" s="258"/>
-      <c r="AG20" s="259"/>
-      <c r="AH20" s="259"/>
-      <c r="AI20" s="261"/>
-      <c r="AJ20" s="285"/>
+      <c r="AC20" s="195"/>
+      <c r="AD20" s="219"/>
+      <c r="AE20" s="219"/>
+      <c r="AF20" s="219"/>
+      <c r="AG20" s="234"/>
+      <c r="AH20" s="234"/>
+      <c r="AI20" s="195"/>
+      <c r="AJ20" s="210"/>
       <c r="AK20" s="12"/>
       <c r="AL20" s="12"/>
       <c r="AM20" s="12"/>
@@ -4098,343 +4089,343 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="265" t="s">
+      <c r="I21" s="238" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="266"/>
-      <c r="K21" s="266"/>
-      <c r="L21" s="266"/>
+      <c r="J21" s="239"/>
+      <c r="K21" s="239"/>
+      <c r="L21" s="239"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="145"/>
+      <c r="N21" s="141"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="140"/>
-      <c r="V21" s="262" t="s">
+      <c r="U21" s="136"/>
+      <c r="V21" s="235" t="s">
         <v>148</v>
       </c>
-      <c r="W21" s="269" t="s">
+      <c r="W21" s="221" t="s">
         <v>147</v>
       </c>
       <c r="X21" s="12"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
-      <c r="AC21" s="261"/>
-      <c r="AD21" s="258"/>
-      <c r="AE21" s="258"/>
-      <c r="AF21" s="258"/>
-      <c r="AG21" s="259"/>
-      <c r="AH21" s="259"/>
-      <c r="AI21" s="261"/>
-      <c r="AJ21" s="285"/>
+      <c r="AC21" s="195"/>
+      <c r="AD21" s="219"/>
+      <c r="AE21" s="219"/>
+      <c r="AF21" s="219"/>
+      <c r="AG21" s="234"/>
+      <c r="AH21" s="234"/>
+      <c r="AI21" s="195"/>
+      <c r="AJ21" s="210"/>
       <c r="AK21" s="12"/>
       <c r="AL21" s="12"/>
       <c r="AM21" s="12"/>
     </row>
     <row r="22" spans="1:39" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="203" t="s">
+      <c r="A22" s="280" t="s">
         <v>198</v>
       </c>
-      <c r="B22" s="204"/>
-      <c r="C22" s="186" t="s">
+      <c r="B22" s="281"/>
+      <c r="C22" s="180" t="s">
         <v>199</v>
       </c>
-      <c r="D22" s="186" t="s">
+      <c r="D22" s="180" t="s">
         <v>199</v>
       </c>
-      <c r="E22" s="186" t="s">
+      <c r="E22" s="180" t="s">
         <v>199</v>
       </c>
-      <c r="F22" s="186" t="s">
+      <c r="F22" s="180" t="s">
         <v>199</v>
       </c>
-      <c r="G22" s="187"/>
-      <c r="H22" s="196"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="190"/>
       <c r="I22" s="111"/>
-      <c r="J22" s="244" t="s">
+      <c r="J22" s="247" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="244"/>
-      <c r="L22" s="244"/>
+      <c r="K22" s="247"/>
+      <c r="L22" s="247"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="247" t="s">
+      <c r="N22" s="249" t="s">
         <v>194</v>
       </c>
-      <c r="O22" s="248"/>
-      <c r="P22" s="248"/>
-      <c r="Q22" s="252" t="s">
+      <c r="O22" s="250"/>
+      <c r="P22" s="250"/>
+      <c r="Q22" s="211" t="s">
         <v>15</v>
       </c>
-      <c r="R22" s="252"/>
-      <c r="S22" s="160" t="s">
+      <c r="R22" s="211"/>
+      <c r="S22" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="T22" s="160" t="s">
+      <c r="T22" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="U22" s="138">
+      <c r="U22" s="134">
         <f ca="1">TODAY()</f>
         <v>43598</v>
       </c>
-      <c r="V22" s="263"/>
-      <c r="W22" s="270"/>
+      <c r="V22" s="236"/>
+      <c r="W22" s="222"/>
       <c r="X22" s="12"/>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="12"/>
-      <c r="AC22" s="261"/>
-      <c r="AD22" s="258"/>
-      <c r="AE22" s="258"/>
-      <c r="AF22" s="258"/>
-      <c r="AG22" s="259"/>
-      <c r="AH22" s="259"/>
-      <c r="AI22" s="261"/>
-      <c r="AJ22" s="285"/>
+      <c r="AC22" s="195"/>
+      <c r="AD22" s="219"/>
+      <c r="AE22" s="219"/>
+      <c r="AF22" s="219"/>
+      <c r="AG22" s="234"/>
+      <c r="AH22" s="234"/>
+      <c r="AI22" s="195"/>
+      <c r="AJ22" s="210"/>
       <c r="AK22" s="12"/>
       <c r="AL22" s="12"/>
       <c r="AM22" s="12"/>
     </row>
     <row r="23" spans="1:39" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="201" t="s">
+      <c r="A23" s="279" t="s">
         <v>200</v>
       </c>
-      <c r="B23" s="202"/>
-      <c r="C23" s="197" t="s">
+      <c r="B23" s="196"/>
+      <c r="C23" s="191" t="s">
         <v>201</v>
       </c>
-      <c r="D23" s="197"/>
-      <c r="E23" s="197"/>
-      <c r="F23" s="197"/>
-      <c r="G23" s="197"/>
+      <c r="D23" s="191"/>
+      <c r="E23" s="191"/>
+      <c r="F23" s="191"/>
+      <c r="G23" s="191"/>
       <c r="H23" s="27"/>
       <c r="I23" s="111"/>
-      <c r="J23" s="159"/>
-      <c r="K23" s="159"/>
-      <c r="L23" s="159" t="s">
+      <c r="J23" s="155"/>
+      <c r="K23" s="155"/>
+      <c r="L23" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="M23" s="185"/>
-      <c r="N23" s="194"/>
-      <c r="O23" s="185"/>
-      <c r="P23" s="185"/>
+      <c r="M23" s="179"/>
+      <c r="N23" s="188"/>
+      <c r="O23" s="179"/>
+      <c r="P23" s="179"/>
       <c r="Q23" s="105"/>
       <c r="R23" s="105"/>
       <c r="S23" s="105"/>
       <c r="T23" s="105"/>
       <c r="U23" s="105"/>
-      <c r="V23" s="263"/>
-      <c r="W23" s="270"/>
+      <c r="V23" s="236"/>
+      <c r="W23" s="222"/>
       <c r="X23" s="12"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
-      <c r="AC23" s="261"/>
-      <c r="AD23" s="258"/>
-      <c r="AE23" s="258"/>
-      <c r="AF23" s="258"/>
-      <c r="AG23" s="259"/>
-      <c r="AH23" s="259"/>
-      <c r="AI23" s="261"/>
-      <c r="AJ23" s="285"/>
+      <c r="AC23" s="195"/>
+      <c r="AD23" s="219"/>
+      <c r="AE23" s="219"/>
+      <c r="AF23" s="219"/>
+      <c r="AG23" s="234"/>
+      <c r="AH23" s="234"/>
+      <c r="AI23" s="195"/>
+      <c r="AJ23" s="210"/>
       <c r="AK23" s="12"/>
       <c r="AL23" s="12"/>
       <c r="AM23" s="12"/>
     </row>
     <row r="24" spans="1:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="198"/>
-      <c r="B24" s="189" t="s">
+      <c r="A24" s="192"/>
+      <c r="B24" s="183" t="s">
         <v>204</v>
       </c>
-      <c r="C24" s="205" t="s">
+      <c r="C24" s="282" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="206"/>
-      <c r="E24" s="205" t="s">
+      <c r="D24" s="283"/>
+      <c r="E24" s="282" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="206"/>
-      <c r="G24" s="249" t="s">
+      <c r="F24" s="283"/>
+      <c r="G24" s="251" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="250"/>
-      <c r="I24" s="245" t="s">
+      <c r="H24" s="252"/>
+      <c r="I24" s="232" t="s">
         <v>134</v>
       </c>
-      <c r="J24" s="245"/>
-      <c r="K24" s="245"/>
-      <c r="L24" s="245"/>
-      <c r="M24" s="195"/>
-      <c r="N24" s="242" t="s">
+      <c r="J24" s="232"/>
+      <c r="K24" s="232"/>
+      <c r="L24" s="232"/>
+      <c r="M24" s="189"/>
+      <c r="N24" s="228" t="s">
         <v>14</v>
       </c>
-      <c r="O24" s="243"/>
-      <c r="P24" s="243"/>
-      <c r="Q24" s="161" t="s">
+      <c r="O24" s="229"/>
+      <c r="P24" s="229"/>
+      <c r="Q24" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="R24" s="161"/>
-      <c r="S24" s="161" t="s">
+      <c r="R24" s="157"/>
+      <c r="S24" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="T24" s="161" t="s">
+      <c r="T24" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="U24" s="138">
+      <c r="U24" s="134">
         <f ca="1">TODAY()</f>
         <v>43598</v>
       </c>
-      <c r="V24" s="263"/>
-      <c r="W24" s="270"/>
+      <c r="V24" s="236"/>
+      <c r="W24" s="222"/>
       <c r="X24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
-      <c r="AC24" s="261"/>
-      <c r="AD24" s="258"/>
-      <c r="AE24" s="258"/>
-      <c r="AF24" s="258"/>
-      <c r="AG24" s="259"/>
-      <c r="AH24" s="259"/>
-      <c r="AI24" s="261"/>
-      <c r="AJ24" s="285"/>
+      <c r="AC24" s="195"/>
+      <c r="AD24" s="219"/>
+      <c r="AE24" s="219"/>
+      <c r="AF24" s="219"/>
+      <c r="AG24" s="234"/>
+      <c r="AH24" s="234"/>
+      <c r="AI24" s="195"/>
+      <c r="AJ24" s="210"/>
       <c r="AK24" s="12"/>
       <c r="AL24" s="12"/>
       <c r="AM24" s="12"/>
     </row>
     <row r="25" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="198"/>
-      <c r="B25" s="199"/>
-      <c r="C25" s="207"/>
-      <c r="D25" s="208"/>
-      <c r="E25" s="207"/>
-      <c r="F25" s="208"/>
-      <c r="G25" s="207"/>
-      <c r="H25" s="251"/>
-      <c r="I25" s="245" t="s">
+      <c r="A25" s="192"/>
+      <c r="B25" s="193"/>
+      <c r="C25" s="253"/>
+      <c r="D25" s="284"/>
+      <c r="E25" s="253"/>
+      <c r="F25" s="284"/>
+      <c r="G25" s="253"/>
+      <c r="H25" s="254"/>
+      <c r="I25" s="232" t="s">
         <v>135</v>
       </c>
-      <c r="J25" s="245"/>
-      <c r="K25" s="245"/>
-      <c r="L25" s="245"/>
-      <c r="M25" s="195"/>
-      <c r="N25" s="242" t="s">
+      <c r="J25" s="232"/>
+      <c r="K25" s="232"/>
+      <c r="L25" s="232"/>
+      <c r="M25" s="189"/>
+      <c r="N25" s="228" t="s">
         <v>14</v>
       </c>
-      <c r="O25" s="243"/>
-      <c r="P25" s="243"/>
-      <c r="Q25" s="161" t="s">
+      <c r="O25" s="229"/>
+      <c r="P25" s="229"/>
+      <c r="Q25" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="R25" s="161"/>
-      <c r="S25" s="161" t="s">
+      <c r="R25" s="157"/>
+      <c r="S25" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="T25" s="161" t="s">
+      <c r="T25" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="U25" s="138">
+      <c r="U25" s="134">
         <f ca="1">TODAY()</f>
         <v>43598</v>
       </c>
-      <c r="V25" s="263"/>
-      <c r="W25" s="270"/>
+      <c r="V25" s="236"/>
+      <c r="W25" s="222"/>
       <c r="X25" s="12"/>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="12"/>
-      <c r="AC25" s="261"/>
-      <c r="AD25" s="258"/>
-      <c r="AE25" s="258"/>
-      <c r="AF25" s="258"/>
-      <c r="AG25" s="259"/>
-      <c r="AH25" s="259"/>
-      <c r="AI25" s="261"/>
-      <c r="AJ25" s="285"/>
+      <c r="AC25" s="195"/>
+      <c r="AD25" s="219"/>
+      <c r="AE25" s="219"/>
+      <c r="AF25" s="219"/>
+      <c r="AG25" s="234"/>
+      <c r="AH25" s="234"/>
+      <c r="AI25" s="195"/>
+      <c r="AJ25" s="210"/>
       <c r="AK25" s="12"/>
       <c r="AL25" s="12"/>
       <c r="AM25" s="12"/>
     </row>
     <row r="26" spans="1:39" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="198"/>
-      <c r="B26" s="199"/>
-      <c r="C26" s="207"/>
-      <c r="D26" s="208"/>
-      <c r="E26" s="207"/>
-      <c r="F26" s="208"/>
-      <c r="G26" s="207"/>
-      <c r="H26" s="251"/>
-      <c r="I26" s="245" t="s">
+      <c r="A26" s="192"/>
+      <c r="B26" s="193"/>
+      <c r="C26" s="253"/>
+      <c r="D26" s="284"/>
+      <c r="E26" s="253"/>
+      <c r="F26" s="284"/>
+      <c r="G26" s="253"/>
+      <c r="H26" s="254"/>
+      <c r="I26" s="232" t="s">
         <v>136</v>
       </c>
-      <c r="J26" s="245"/>
-      <c r="K26" s="245"/>
-      <c r="L26" s="245"/>
-      <c r="M26" s="195"/>
-      <c r="N26" s="242" t="s">
+      <c r="J26" s="232"/>
+      <c r="K26" s="232"/>
+      <c r="L26" s="232"/>
+      <c r="M26" s="189"/>
+      <c r="N26" s="228" t="s">
         <v>14</v>
       </c>
-      <c r="O26" s="243"/>
-      <c r="P26" s="243"/>
-      <c r="Q26" s="161" t="s">
+      <c r="O26" s="229"/>
+      <c r="P26" s="229"/>
+      <c r="Q26" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="R26" s="161"/>
-      <c r="S26" s="161" t="s">
+      <c r="R26" s="157"/>
+      <c r="S26" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="T26" s="161" t="s">
+      <c r="T26" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="U26" s="138">
+      <c r="U26" s="134">
         <f ca="1">TODAY()</f>
         <v>43598</v>
       </c>
-      <c r="V26" s="264"/>
-      <c r="W26" s="270"/>
+      <c r="V26" s="237"/>
+      <c r="W26" s="222"/>
       <c r="X26" s="12"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
-      <c r="AC26" s="261"/>
-      <c r="AD26" s="258"/>
-      <c r="AE26" s="258"/>
-      <c r="AF26" s="258"/>
-      <c r="AG26" s="259"/>
-      <c r="AH26" s="259"/>
-      <c r="AI26" s="261"/>
-      <c r="AJ26" s="285"/>
+      <c r="AC26" s="195"/>
+      <c r="AD26" s="219"/>
+      <c r="AE26" s="219"/>
+      <c r="AF26" s="219"/>
+      <c r="AG26" s="234"/>
+      <c r="AH26" s="234"/>
+      <c r="AI26" s="195"/>
+      <c r="AJ26" s="210"/>
       <c r="AK26" s="12"/>
       <c r="AL26" s="12"/>
       <c r="AM26" s="12"/>
     </row>
     <row r="27" spans="1:39" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="198"/>
-      <c r="B27" s="199"/>
-      <c r="C27" s="207"/>
-      <c r="D27" s="208"/>
-      <c r="E27" s="207"/>
-      <c r="F27" s="208"/>
-      <c r="G27" s="207"/>
-      <c r="H27" s="251"/>
-      <c r="I27" s="246"/>
-      <c r="J27" s="246"/>
-      <c r="K27" s="246"/>
-      <c r="L27" s="246"/>
-      <c r="M27" s="272"/>
-      <c r="N27" s="272"/>
-      <c r="O27" s="272"/>
-      <c r="P27" s="272"/>
-      <c r="Q27" s="253"/>
-      <c r="R27" s="253"/>
-      <c r="S27" s="161"/>
-      <c r="T27" s="161"/>
-      <c r="U27" s="161"/>
-      <c r="V27" s="161"/>
-      <c r="W27" s="270"/>
+      <c r="A27" s="192"/>
+      <c r="B27" s="193"/>
+      <c r="C27" s="253"/>
+      <c r="D27" s="284"/>
+      <c r="E27" s="253"/>
+      <c r="F27" s="284"/>
+      <c r="G27" s="253"/>
+      <c r="H27" s="254"/>
+      <c r="I27" s="248"/>
+      <c r="J27" s="248"/>
+      <c r="K27" s="248"/>
+      <c r="L27" s="248"/>
+      <c r="M27" s="224"/>
+      <c r="N27" s="224"/>
+      <c r="O27" s="224"/>
+      <c r="P27" s="224"/>
+      <c r="Q27" s="212"/>
+      <c r="R27" s="212"/>
+      <c r="S27" s="157"/>
+      <c r="T27" s="157"/>
+      <c r="U27" s="157"/>
+      <c r="V27" s="157"/>
+      <c r="W27" s="222"/>
       <c r="X27" s="12"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
@@ -4452,44 +4443,44 @@
       <c r="AM27" s="12"/>
     </row>
     <row r="28" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="201" t="s">
+      <c r="A28" s="279" t="s">
         <v>202</v>
       </c>
-      <c r="B28" s="202"/>
-      <c r="C28" s="188"/>
-      <c r="D28" s="188"/>
-      <c r="E28" s="188"/>
-      <c r="F28" s="190"/>
-      <c r="G28" s="190"/>
-      <c r="H28" s="200"/>
+      <c r="B28" s="196"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="194"/>
       <c r="I28" s="105"/>
-      <c r="J28" s="244" t="s">
+      <c r="J28" s="247" t="s">
         <v>133</v>
       </c>
-      <c r="K28" s="244"/>
-      <c r="L28" s="244"/>
-      <c r="M28" s="195"/>
-      <c r="N28" s="242" t="s">
+      <c r="K28" s="247"/>
+      <c r="L28" s="247"/>
+      <c r="M28" s="189"/>
+      <c r="N28" s="228" t="s">
         <v>14</v>
       </c>
-      <c r="O28" s="243"/>
-      <c r="P28" s="243"/>
-      <c r="Q28" s="253" t="s">
+      <c r="O28" s="229"/>
+      <c r="P28" s="229"/>
+      <c r="Q28" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="R28" s="253"/>
-      <c r="S28" s="161" t="s">
+      <c r="R28" s="212"/>
+      <c r="S28" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="T28" s="161" t="s">
+      <c r="T28" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="U28" s="138">
+      <c r="U28" s="134">
         <f ca="1">TODAY()</f>
         <v>43598</v>
       </c>
-      <c r="V28" s="161"/>
-      <c r="W28" s="270"/>
+      <c r="V28" s="157"/>
+      <c r="W28" s="222"/>
       <c r="X28" s="12"/>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
@@ -4507,22 +4498,22 @@
       <c r="AM28" s="12"/>
     </row>
     <row r="29" spans="1:39" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="128"/>
-      <c r="B29" s="127"/>
-      <c r="C29" s="283" t="s">
+      <c r="A29" s="124"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="205" t="s">
         <v>203</v>
       </c>
-      <c r="D29" s="283"/>
-      <c r="E29" s="283"/>
-      <c r="F29" s="283"/>
-      <c r="G29" s="191"/>
-      <c r="H29" s="192"/>
+      <c r="D29" s="205"/>
+      <c r="E29" s="205"/>
+      <c r="F29" s="205"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="186"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
-      <c r="N29" s="141"/>
+      <c r="N29" s="137"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
@@ -4530,8 +4521,8 @@
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
-      <c r="V29" s="193"/>
-      <c r="W29" s="271"/>
+      <c r="V29" s="187"/>
+      <c r="W29" s="223"/>
       <c r="X29" s="12"/>
     </row>
     <row r="30" spans="1:39" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4548,7 +4539,7 @@
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
-      <c r="N30" s="141"/>
+      <c r="N30" s="137"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
@@ -4563,10 +4554,10 @@
     <row r="31" spans="1:39" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="282"/>
-      <c r="D31" s="282"/>
-      <c r="E31" s="282"/>
-      <c r="F31" s="282"/>
+      <c r="C31" s="203"/>
+      <c r="D31" s="203"/>
+      <c r="E31" s="203"/>
+      <c r="F31" s="203"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -4574,7 +4565,7 @@
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
-      <c r="N31" s="141"/>
+      <c r="N31" s="137"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
@@ -4592,39 +4583,39 @@
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="202" t="s">
+      <c r="F32" s="196" t="s">
         <v>137</v>
       </c>
-      <c r="G32" s="202"/>
-      <c r="H32" s="202"/>
-      <c r="I32" s="202"/>
-      <c r="J32" s="202"/>
-      <c r="K32" s="202"/>
-      <c r="L32" s="202"/>
-      <c r="M32" s="161" t="s">
+      <c r="G32" s="196"/>
+      <c r="H32" s="196"/>
+      <c r="I32" s="196"/>
+      <c r="J32" s="196"/>
+      <c r="K32" s="196"/>
+      <c r="L32" s="196"/>
+      <c r="M32" s="157" t="s">
         <v>186</v>
       </c>
-      <c r="N32" s="146"/>
+      <c r="N32" s="142"/>
       <c r="O32" s="105"/>
       <c r="P32" s="105"/>
-      <c r="Q32" s="252" t="s">
+      <c r="Q32" s="211" t="s">
         <v>15</v>
       </c>
-      <c r="R32" s="252"/>
-      <c r="S32" s="160" t="s">
+      <c r="R32" s="211"/>
+      <c r="S32" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="T32" s="160" t="s">
+      <c r="T32" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="U32" s="138">
+      <c r="U32" s="134">
         <f ca="1">TODAY()</f>
         <v>43598</v>
       </c>
-      <c r="V32" s="276" t="s">
+      <c r="V32" s="197" t="s">
         <v>145</v>
       </c>
-      <c r="W32" s="277"/>
+      <c r="W32" s="198"/>
       <c r="X32" s="12"/>
     </row>
     <row r="33" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4633,39 +4624,39 @@
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="202" t="s">
+      <c r="F33" s="196" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="202"/>
-      <c r="H33" s="202"/>
-      <c r="I33" s="202"/>
-      <c r="J33" s="202"/>
-      <c r="K33" s="202"/>
-      <c r="L33" s="202"/>
-      <c r="M33" s="161" t="s">
+      <c r="G33" s="196"/>
+      <c r="H33" s="196"/>
+      <c r="I33" s="196"/>
+      <c r="J33" s="196"/>
+      <c r="K33" s="196"/>
+      <c r="L33" s="196"/>
+      <c r="M33" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="N33" s="146" t="s">
+      <c r="N33" s="142" t="s">
         <v>187</v>
       </c>
       <c r="O33" s="105"/>
       <c r="P33" s="105"/>
-      <c r="Q33" s="252" t="s">
+      <c r="Q33" s="211" t="s">
         <v>15</v>
       </c>
-      <c r="R33" s="252"/>
-      <c r="S33" s="160" t="s">
+      <c r="R33" s="211"/>
+      <c r="S33" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="T33" s="160" t="s">
+      <c r="T33" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="U33" s="138">
+      <c r="U33" s="134">
         <f t="shared" ref="U33:U37" ca="1" si="0">TODAY()</f>
         <v>43598</v>
       </c>
-      <c r="V33" s="278"/>
-      <c r="W33" s="279"/>
+      <c r="V33" s="199"/>
+      <c r="W33" s="200"/>
       <c r="X33" s="12"/>
     </row>
     <row r="34" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4674,39 +4665,39 @@
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="202" t="s">
+      <c r="F34" s="196" t="s">
         <v>138</v>
       </c>
-      <c r="G34" s="202"/>
-      <c r="H34" s="202"/>
-      <c r="I34" s="202"/>
-      <c r="J34" s="202"/>
-      <c r="K34" s="202"/>
-      <c r="L34" s="202"/>
-      <c r="M34" s="161" t="s">
+      <c r="G34" s="196"/>
+      <c r="H34" s="196"/>
+      <c r="I34" s="196"/>
+      <c r="J34" s="196"/>
+      <c r="K34" s="196"/>
+      <c r="L34" s="196"/>
+      <c r="M34" s="157" t="s">
         <v>139</v>
       </c>
-      <c r="N34" s="146"/>
+      <c r="N34" s="142"/>
       <c r="O34" s="105" t="s">
         <v>140</v>
       </c>
       <c r="P34" s="105"/>
-      <c r="Q34" s="252" t="s">
+      <c r="Q34" s="211" t="s">
         <v>15</v>
       </c>
-      <c r="R34" s="252"/>
-      <c r="S34" s="160" t="s">
+      <c r="R34" s="211"/>
+      <c r="S34" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="T34" s="160" t="s">
+      <c r="T34" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="U34" s="138">
+      <c r="U34" s="134">
         <f t="shared" ca="1" si="0"/>
         <v>43598</v>
       </c>
-      <c r="V34" s="278"/>
-      <c r="W34" s="279"/>
+      <c r="V34" s="199"/>
+      <c r="W34" s="200"/>
       <c r="X34" s="12"/>
     </row>
     <row r="35" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4722,28 +4713,28 @@
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
-      <c r="M35" s="268" t="s">
+      <c r="M35" s="220" t="s">
         <v>188</v>
       </c>
-      <c r="N35" s="268"/>
-      <c r="O35" s="268"/>
-      <c r="P35" s="268"/>
-      <c r="Q35" s="252" t="s">
+      <c r="N35" s="220"/>
+      <c r="O35" s="220"/>
+      <c r="P35" s="220"/>
+      <c r="Q35" s="211" t="s">
         <v>15</v>
       </c>
-      <c r="R35" s="252"/>
-      <c r="S35" s="160" t="s">
+      <c r="R35" s="211"/>
+      <c r="S35" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="T35" s="160" t="s">
+      <c r="T35" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="U35" s="138">
+      <c r="U35" s="134">
         <f t="shared" ca="1" si="0"/>
         <v>43598</v>
       </c>
-      <c r="V35" s="278"/>
-      <c r="W35" s="279"/>
+      <c r="V35" s="199"/>
+      <c r="W35" s="200"/>
       <c r="X35" s="12"/>
     </row>
     <row r="36" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -4759,58 +4750,58 @@
       <c r="J36" s="110"/>
       <c r="K36" s="110"/>
       <c r="L36" s="110"/>
-      <c r="M36" s="288"/>
-      <c r="N36" s="288"/>
+      <c r="M36" s="215"/>
+      <c r="N36" s="215"/>
       <c r="O36" s="105"/>
       <c r="P36" s="105"/>
-      <c r="Q36" s="252"/>
-      <c r="R36" s="252"/>
-      <c r="S36" s="160"/>
-      <c r="T36" s="160"/>
-      <c r="U36" s="138"/>
-      <c r="V36" s="278"/>
-      <c r="W36" s="279"/>
+      <c r="Q36" s="211"/>
+      <c r="R36" s="211"/>
+      <c r="S36" s="156"/>
+      <c r="T36" s="156"/>
+      <c r="U36" s="134"/>
+      <c r="V36" s="199"/>
+      <c r="W36" s="200"/>
       <c r="X36" s="12"/>
     </row>
     <row r="37" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="289" t="s">
+      <c r="D37" s="216" t="s">
         <v>141</v>
       </